--- a/assets/excel/IPCse - Series históricas.xlsx
+++ b/assets/excel/IPCse - Series históricas.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fiona\Dropbox\MGR\IPC seasonal adjustment\IPCse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF26F7F-E452-4636-AA02-9B29B0915C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3512AF14-5553-4DA8-8050-14235982242C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{A81B6F3A-9175-42CA-B78F-287A4E3C6249}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="28800" windowHeight="17145" xr2:uid="{A81B6F3A-9175-42CA-B78F-287A4E3C6249}"/>
   </bookViews>
   <sheets>
     <sheet name="Índices" sheetId="1" r:id="rId1"/>
     <sheet name="Variación mensual" sheetId="3" r:id="rId2"/>
-    <sheet name="Cuadro 1" sheetId="5" r:id="rId3"/>
-    <sheet name="Cuadro 2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Fecha</t>
   </si>
@@ -80,48 +78,6 @@
     <t>Subyacente</t>
   </si>
   <si>
-    <t>Cuadro 1. Cambios porcentuales en el IPCse</t>
-  </si>
-  <si>
-    <t>IPCse</t>
-  </si>
-  <si>
-    <t>Variación mensual</t>
-  </si>
-  <si>
-    <t>Variación interanual</t>
-  </si>
-  <si>
-    <t>Año</t>
-  </si>
-  <si>
-    <t>Dic. 2022/Dic. 2021</t>
-  </si>
-  <si>
-    <t>Jul. </t>
-  </si>
-  <si>
-    <t>Ago.</t>
-  </si>
-  <si>
-    <t>Sep. </t>
-  </si>
-  <si>
-    <t>Oct. </t>
-  </si>
-  <si>
-    <t>Nov. </t>
-  </si>
-  <si>
-    <t>Dic.</t>
-  </si>
-  <si>
-    <t>IPCse Nacional</t>
-  </si>
-  <si>
-    <t>GBA</t>
-  </si>
-  <si>
     <t>Alimentos y bebidas no alcohólicas</t>
   </si>
   <si>
@@ -158,49 +114,6 @@
     <t>Bienes y servicios varios</t>
   </si>
   <si>
-    <t>Inflación subyacente</t>
-  </si>
-  <si>
-    <t>Nacional</t>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Nova"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Nota: existe una diferencia económicamente no significativa (menos de medio punto porcentual) entre las variaciones interanuales del IPCse y del IPC calculado por INDEC. Debido a esto la última columna del cuadro muestra las variaciones interanuales del IPC oficial.</t>
-    </r>
-  </si>
-  <si>
-    <t>Cuadro 2. Incidencia de las divisiones en la inflación</t>
-  </si>
-  <si>
-    <t>Incidencia con respecto al mismo mes del año anterior</t>
-  </si>
-  <si>
-    <t>Nivel general</t>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Nova"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Nota: los ponderadores de los índices de precios de las divisiones para el cálculo de las incidencias del IPC nacional se construyeron como promedio ponderado de las ponderaciones regionales al no existir ponderadores oficiales. Debido a esto, el resultado de la suma de las incidencias da un valor aproximado a la inflación del nivel general.</t>
-    </r>
-  </si>
-  <si>
     <t>IPCse NACIONAL</t>
   </si>
 </sst>
@@ -211,7 +124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,26 +184,6 @@
       <name val="Arial Nova"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Nova"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Nova"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Nova"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -324,7 +217,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -516,189 +409,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -754,109 +469,14 @@
     <xf numFmtId="2" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1164,7 +784,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1175,10 +795,11 @@
   <dimension ref="B1:V89"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="78" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G67" sqref="G67"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="M1" sqref="M1"/>
+      <selection pane="topRight" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomRight" activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1192,36 +813,36 @@
   <sheetData>
     <row r="1" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
     </row>
     <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="23"/>
@@ -1252,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
@@ -1273,43 +894,43 @@
         <v>6</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
@@ -1512,40 +1133,40 @@
         <v>42795</v>
       </c>
       <c r="C8" s="16">
-        <v>105.8805</v>
+        <v>105.877</v>
       </c>
       <c r="D8" s="17">
         <v>105.98650000000001</v>
       </c>
       <c r="E8" s="17">
-        <v>105.4423</v>
+        <v>105.4434</v>
       </c>
       <c r="F8" s="17">
-        <v>106.69119999999999</v>
+        <v>106.6433</v>
       </c>
       <c r="G8" s="17">
-        <v>105.6075</v>
+        <v>105.5599</v>
       </c>
       <c r="H8" s="17">
-        <v>105.6195</v>
+        <v>105.6388</v>
       </c>
       <c r="I8" s="18">
         <v>106.5017</v>
       </c>
       <c r="J8" s="17">
-        <v>104.8108</v>
+        <v>104.7846</v>
       </c>
       <c r="K8" s="17">
-        <v>106.4773</v>
+        <v>106.5307</v>
       </c>
       <c r="L8" s="17">
-        <v>103.66719999999999</v>
+        <v>103.70529999999999</v>
       </c>
       <c r="M8" s="17">
         <v>110.84739999999999</v>
       </c>
       <c r="N8" s="17">
-        <v>102.6298</v>
+        <v>102.6212</v>
       </c>
       <c r="O8" s="17">
         <v>107.1825</v>
@@ -1554,22 +1175,22 @@
         <v>105.2336</v>
       </c>
       <c r="Q8" s="17">
-        <v>109.5954</v>
+        <v>109.6079</v>
       </c>
       <c r="R8" s="17">
-        <v>106.2338</v>
+        <v>106.2264</v>
       </c>
       <c r="S8" s="17">
-        <v>108.85469999999999</v>
+        <v>108.8115</v>
       </c>
       <c r="T8" s="17">
-        <v>105.9051</v>
+        <v>105.9012</v>
       </c>
       <c r="U8" s="18">
-        <v>105.66849999999999</v>
+        <v>105.6692</v>
       </c>
       <c r="V8" s="16">
-        <v>104.90560000000001</v>
+        <v>104.8601</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
@@ -1577,40 +1198,40 @@
         <v>42826</v>
       </c>
       <c r="C9" s="16">
-        <v>108.6955</v>
+        <v>108.699</v>
       </c>
       <c r="D9" s="17">
         <v>108.8436</v>
       </c>
       <c r="E9" s="17">
-        <v>108.2105</v>
+        <v>108.2093</v>
       </c>
       <c r="F9" s="17">
-        <v>109.3193</v>
+        <v>109.3681</v>
       </c>
       <c r="G9" s="17">
-        <v>108.1009</v>
+        <v>108.1502</v>
       </c>
       <c r="H9" s="17">
-        <v>109.0427</v>
+        <v>109.023</v>
       </c>
       <c r="I9" s="18">
         <v>108.69370000000001</v>
       </c>
       <c r="J9" s="17">
-        <v>107.4734</v>
+        <v>107.50020000000001</v>
       </c>
       <c r="K9" s="17">
-        <v>109.9164</v>
+        <v>109.8613</v>
       </c>
       <c r="L9" s="17">
-        <v>106.20659999999999</v>
+        <v>106.1677</v>
       </c>
       <c r="M9" s="17">
         <v>117.489</v>
       </c>
       <c r="N9" s="17">
-        <v>104.14490000000001</v>
+        <v>104.1536</v>
       </c>
       <c r="O9" s="17">
         <v>109.1083</v>
@@ -1619,22 +1240,22 @@
         <v>105.8878</v>
       </c>
       <c r="Q9" s="17">
-        <v>117.4954</v>
+        <v>117.4821</v>
       </c>
       <c r="R9" s="17">
-        <v>108.9971</v>
+        <v>109.0046</v>
       </c>
       <c r="S9" s="17">
-        <v>113.453</v>
+        <v>113.4979</v>
       </c>
       <c r="T9" s="17">
-        <v>107.9171</v>
+        <v>107.92100000000001</v>
       </c>
       <c r="U9" s="18">
-        <v>107.61920000000001</v>
+        <v>107.6185</v>
       </c>
       <c r="V9" s="16">
-        <v>107.2794</v>
+        <v>107.3261</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
@@ -2292,40 +1913,40 @@
         <v>43160</v>
       </c>
       <c r="C20" s="16">
-        <v>132.79089999999999</v>
+        <v>132.80080000000001</v>
       </c>
       <c r="D20" s="17">
         <v>133.1258</v>
       </c>
       <c r="E20" s="17">
-        <v>132.3364</v>
+        <v>132.33340000000001</v>
       </c>
       <c r="F20" s="17">
-        <v>132.56530000000001</v>
+        <v>132.69309999999999</v>
       </c>
       <c r="G20" s="17">
-        <v>129.7157</v>
+        <v>129.8484</v>
       </c>
       <c r="H20" s="17">
-        <v>133.2276</v>
+        <v>133.18180000000001</v>
       </c>
       <c r="I20" s="18">
         <v>133.20599999999999</v>
       </c>
       <c r="J20" s="17">
-        <v>126.92440000000001</v>
+        <v>126.9939</v>
       </c>
       <c r="K20" s="17">
-        <v>128.80459999999999</v>
+        <v>128.6628</v>
       </c>
       <c r="L20" s="17">
-        <v>121.8113</v>
+        <v>121.71469999999999</v>
       </c>
       <c r="M20" s="17">
         <v>164.238</v>
       </c>
       <c r="N20" s="17">
-        <v>126.7602</v>
+        <v>126.7825</v>
       </c>
       <c r="O20" s="17">
         <v>134.87209999999999</v>
@@ -2334,22 +1955,22 @@
         <v>131.17859999999999</v>
       </c>
       <c r="Q20" s="17">
-        <v>151.73750000000001</v>
+        <v>151.69749999999999</v>
       </c>
       <c r="R20" s="17">
-        <v>130.60830000000001</v>
+        <v>130.6293</v>
       </c>
       <c r="S20" s="17">
-        <v>144.49770000000001</v>
+        <v>144.62299999999999</v>
       </c>
       <c r="T20" s="17">
-        <v>130.529</v>
+        <v>130.53989999999999</v>
       </c>
       <c r="U20" s="18">
-        <v>127.2085</v>
+        <v>127.2067</v>
       </c>
       <c r="V20" s="16">
-        <v>126.99939999999999</v>
+        <v>127.12269999999999</v>
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
@@ -2357,40 +1978,40 @@
         <v>43191</v>
       </c>
       <c r="C21" s="16">
-        <v>136.46549999999999</v>
+        <v>136.4554</v>
       </c>
       <c r="D21" s="17">
         <v>136.65770000000001</v>
       </c>
       <c r="E21" s="17">
-        <v>136.0309</v>
+        <v>136.03389999999999</v>
       </c>
       <c r="F21" s="17">
-        <v>136.40979999999999</v>
+        <v>136.2799</v>
       </c>
       <c r="G21" s="17">
-        <v>133.69300000000001</v>
+        <v>133.55719999999999</v>
       </c>
       <c r="H21" s="17">
-        <v>137.4479</v>
+        <v>137.49430000000001</v>
       </c>
       <c r="I21" s="18">
         <v>136.8784</v>
       </c>
       <c r="J21" s="17">
-        <v>128.97499999999999</v>
+        <v>128.9041</v>
       </c>
       <c r="K21" s="17">
-        <v>131.2029</v>
+        <v>131.34739999999999</v>
       </c>
       <c r="L21" s="17">
-        <v>124.01860000000001</v>
+        <v>124.1174</v>
       </c>
       <c r="M21" s="17">
         <v>177.50579999999999</v>
       </c>
       <c r="N21" s="17">
-        <v>128.81479999999999</v>
+        <v>128.7921</v>
       </c>
       <c r="O21" s="17">
         <v>137.2937</v>
@@ -2399,22 +2020,22 @@
         <v>136.40010000000001</v>
       </c>
       <c r="Q21" s="17">
-        <v>153.7509</v>
+        <v>153.79159999999999</v>
       </c>
       <c r="R21" s="17">
-        <v>133.2124</v>
+        <v>133.1908</v>
       </c>
       <c r="S21" s="17">
-        <v>147.97200000000001</v>
+        <v>147.8434</v>
       </c>
       <c r="T21" s="17">
-        <v>133.52930000000001</v>
+        <v>133.51830000000001</v>
       </c>
       <c r="U21" s="18">
-        <v>129.42590000000001</v>
+        <v>129.42779999999999</v>
       </c>
       <c r="V21" s="16">
-        <v>129.53700000000001</v>
+        <v>129.41149999999999</v>
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.25">
@@ -3072,40 +2693,40 @@
         <v>43525</v>
       </c>
       <c r="C32" s="16">
-        <v>205.47239999999999</v>
+        <v>205.46360000000001</v>
       </c>
       <c r="D32" s="17">
         <v>205.15940000000001</v>
       </c>
       <c r="E32" s="17">
-        <v>204.66030000000001</v>
+        <v>204.66</v>
       </c>
       <c r="F32" s="17">
-        <v>206.38730000000001</v>
+        <v>206.29050000000001</v>
       </c>
       <c r="G32" s="17">
-        <v>204.7689</v>
+        <v>204.6653</v>
       </c>
       <c r="H32" s="17">
-        <v>208.78469999999999</v>
+        <v>208.80799999999999</v>
       </c>
       <c r="I32" s="18">
         <v>205.70930000000001</v>
       </c>
       <c r="J32" s="17">
-        <v>208.28360000000001</v>
+        <v>208.2313</v>
       </c>
       <c r="K32" s="17">
-        <v>173.4015</v>
+        <v>173.488</v>
       </c>
       <c r="L32" s="17">
-        <v>168.01660000000001</v>
+        <v>168.07650000000001</v>
       </c>
       <c r="M32" s="17">
         <v>256.15559999999999</v>
       </c>
       <c r="N32" s="17">
-        <v>193.98830000000001</v>
+        <v>193.9727</v>
       </c>
       <c r="O32" s="17">
         <v>210.4804</v>
@@ -3114,22 +2735,22 @@
         <v>219.55590000000001</v>
       </c>
       <c r="Q32" s="17">
-        <v>233.7218</v>
+        <v>233.74940000000001</v>
       </c>
       <c r="R32" s="17">
-        <v>191.09889999999999</v>
+        <v>191.08519999999999</v>
       </c>
       <c r="S32" s="17">
-        <v>197.0179</v>
+        <v>196.9425</v>
       </c>
       <c r="T32" s="17">
-        <v>190.35380000000001</v>
+        <v>190.34639999999999</v>
       </c>
       <c r="U32" s="18">
-        <v>202.23240000000001</v>
+        <v>202.2338</v>
       </c>
       <c r="V32" s="16">
-        <v>194.42590000000001</v>
+        <v>194.3347</v>
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
@@ -3137,40 +2758,40 @@
         <v>43556</v>
       </c>
       <c r="C33" s="16">
-        <v>212.5616</v>
+        <v>212.57050000000001</v>
       </c>
       <c r="D33" s="17">
         <v>211.9615</v>
       </c>
       <c r="E33" s="17">
-        <v>212.08770000000001</v>
+        <v>212.08799999999999</v>
       </c>
       <c r="F33" s="17">
-        <v>213.46449999999999</v>
+        <v>213.56379999999999</v>
       </c>
       <c r="G33" s="17">
-        <v>212.08430000000001</v>
+        <v>212.1918</v>
       </c>
       <c r="H33" s="17">
-        <v>215.6181</v>
+        <v>215.59350000000001</v>
       </c>
       <c r="I33" s="18">
         <v>213.0847</v>
       </c>
       <c r="J33" s="17">
-        <v>214.0745</v>
+        <v>214.1284</v>
       </c>
       <c r="K33" s="17">
-        <v>176.8759</v>
+        <v>176.78790000000001</v>
       </c>
       <c r="L33" s="17">
-        <v>175.0763</v>
+        <v>175.01390000000001</v>
       </c>
       <c r="M33" s="17">
         <v>263.63260000000002</v>
       </c>
       <c r="N33" s="17">
-        <v>203.46039999999999</v>
+        <v>203.4768</v>
       </c>
       <c r="O33" s="17">
         <v>217.87970000000001</v>
@@ -3179,22 +2800,22 @@
         <v>229.15950000000001</v>
       </c>
       <c r="Q33" s="17">
-        <v>242.87360000000001</v>
+        <v>242.84440000000001</v>
       </c>
       <c r="R33" s="17">
-        <v>197.34399999999999</v>
+        <v>197.35820000000001</v>
       </c>
       <c r="S33" s="17">
-        <v>202.76570000000001</v>
+        <v>202.84389999999999</v>
       </c>
       <c r="T33" s="17">
-        <v>198.08529999999999</v>
+        <v>198.09280000000001</v>
       </c>
       <c r="U33" s="18">
-        <v>208.3657</v>
+        <v>208.36429999999999</v>
       </c>
       <c r="V33" s="16">
-        <v>200.8219</v>
+        <v>200.91579999999999</v>
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
@@ -3852,40 +3473,40 @@
         <v>43891</v>
       </c>
       <c r="C44" s="16">
-        <v>304.70330000000001</v>
+        <v>304.69040000000001</v>
       </c>
       <c r="D44" s="17">
         <v>301.22539999999998</v>
       </c>
       <c r="E44" s="17">
-        <v>305.8295</v>
+        <v>305.82960000000003</v>
       </c>
       <c r="F44" s="17">
-        <v>307.9117</v>
+        <v>307.76620000000003</v>
       </c>
       <c r="G44" s="17">
-        <v>309.60879999999997</v>
+        <v>309.44760000000002</v>
       </c>
       <c r="H44" s="17">
-        <v>313.2122</v>
+        <v>313.25189999999998</v>
       </c>
       <c r="I44" s="18">
         <v>306.548</v>
       </c>
       <c r="J44" s="17">
-        <v>315.09339999999997</v>
+        <v>315.01400000000001</v>
       </c>
       <c r="K44" s="17">
-        <v>257.09640000000002</v>
+        <v>257.22320000000002</v>
       </c>
       <c r="L44" s="17">
-        <v>256.9042</v>
+        <v>256.99770000000001</v>
       </c>
       <c r="M44" s="17">
         <v>325.00459999999998</v>
       </c>
       <c r="N44" s="17">
-        <v>300.59120000000001</v>
+        <v>300.56670000000003</v>
       </c>
       <c r="O44" s="17">
         <v>334.07799999999997</v>
@@ -3894,22 +3515,22 @@
         <v>316.17079999999999</v>
       </c>
       <c r="Q44" s="17">
-        <v>374.93709999999999</v>
+        <v>374.9821</v>
       </c>
       <c r="R44" s="17">
-        <v>289.29379999999998</v>
+        <v>289.27280000000002</v>
       </c>
       <c r="S44" s="17">
-        <v>287.06279999999998</v>
+        <v>286.95929999999998</v>
       </c>
       <c r="T44" s="17">
-        <v>279.64890000000003</v>
+        <v>279.6379</v>
       </c>
       <c r="U44" s="18">
-        <v>308.39890000000003</v>
+        <v>308.40100000000001</v>
       </c>
       <c r="V44" s="16">
-        <v>293.9683</v>
+        <v>293.82990000000001</v>
       </c>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
@@ -3917,40 +3538,40 @@
         <v>43922</v>
       </c>
       <c r="C45" s="16">
-        <v>309.28390000000002</v>
+        <v>309.29759999999999</v>
       </c>
       <c r="D45" s="17">
         <v>305.64499999999998</v>
       </c>
       <c r="E45" s="17">
-        <v>310.22519999999997</v>
+        <v>310.22590000000002</v>
       </c>
       <c r="F45" s="17">
-        <v>315.2937</v>
+        <v>315.44650000000001</v>
       </c>
       <c r="G45" s="17">
-        <v>316.2817</v>
+        <v>316.44760000000002</v>
       </c>
       <c r="H45" s="17">
-        <v>317.04340000000002</v>
+        <v>317.00439999999998</v>
       </c>
       <c r="I45" s="18">
         <v>308.5428</v>
       </c>
       <c r="J45" s="17">
-        <v>325.83190000000002</v>
+        <v>325.91449999999998</v>
       </c>
       <c r="K45" s="17">
-        <v>263.20179999999999</v>
+        <v>263.07170000000002</v>
       </c>
       <c r="L45" s="17">
-        <v>255.81890000000001</v>
+        <v>255.7253</v>
       </c>
       <c r="M45" s="17">
         <v>324.98559999999998</v>
       </c>
       <c r="N45" s="17">
-        <v>305.12099999999998</v>
+        <v>305.14600000000002</v>
       </c>
       <c r="O45" s="17">
         <v>338.05610000000001</v>
@@ -3959,22 +3580,22 @@
         <v>320.36649999999997</v>
       </c>
       <c r="Q45" s="17">
-        <v>361.09789999999998</v>
+        <v>361.05470000000003</v>
       </c>
       <c r="R45" s="17">
-        <v>296.35950000000003</v>
+        <v>296.3811</v>
       </c>
       <c r="S45" s="17">
-        <v>286.7971</v>
+        <v>286.90100000000001</v>
       </c>
       <c r="T45" s="17">
-        <v>283.79829999999998</v>
+        <v>283.80939999999998</v>
       </c>
       <c r="U45" s="18">
-        <v>309.08690000000001</v>
+        <v>309.0847</v>
       </c>
       <c r="V45" s="16">
-        <v>300.0444</v>
+        <v>300.18740000000003</v>
       </c>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.25">
@@ -4632,40 +4253,40 @@
         <v>44256</v>
       </c>
       <c r="C56" s="16">
-        <v>434.82119999999998</v>
+        <v>434.81760000000003</v>
       </c>
       <c r="D56" s="17">
         <v>423.13</v>
       </c>
       <c r="E56" s="17">
-        <v>443.1225</v>
+        <v>443.12259999999998</v>
       </c>
       <c r="F56" s="17">
-        <v>446.17099999999999</v>
+        <v>446.12799999999999</v>
       </c>
       <c r="G56" s="17">
-        <v>451.81229999999999</v>
+        <v>451.76429999999999</v>
       </c>
       <c r="H56" s="17">
-        <v>452.82810000000001</v>
+        <v>452.84370000000001</v>
       </c>
       <c r="I56" s="18">
         <v>426.26889999999997</v>
       </c>
       <c r="J56" s="17">
-        <v>456.00749999999999</v>
+        <v>455.98379999999997</v>
       </c>
       <c r="K56" s="17">
-        <v>362.55829999999997</v>
+        <v>362.59449999999998</v>
       </c>
       <c r="L56" s="17">
-        <v>440.05540000000002</v>
+        <v>440.08640000000003</v>
       </c>
       <c r="M56" s="17">
         <v>389.62150000000003</v>
       </c>
       <c r="N56" s="17">
-        <v>443.3931</v>
+        <v>443.38549999999998</v>
       </c>
       <c r="O56" s="17">
         <v>473.4153</v>
@@ -4674,22 +4295,22 @@
         <v>462.89980000000003</v>
       </c>
       <c r="Q56" s="17">
-        <v>426.80880000000002</v>
+        <v>426.8186</v>
       </c>
       <c r="R56" s="17">
-        <v>439.91759999999999</v>
+        <v>439.91160000000002</v>
       </c>
       <c r="S56" s="17">
-        <v>371.42270000000002</v>
+        <v>371.39569999999998</v>
       </c>
       <c r="T56" s="17">
-        <v>398.11079999999998</v>
+        <v>398.10759999999999</v>
       </c>
       <c r="U56" s="18">
-        <v>390.3143</v>
+        <v>390.31490000000002</v>
       </c>
       <c r="V56" s="16">
-        <v>434.43200000000002</v>
+        <v>434.39139999999998</v>
       </c>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.25">
@@ -4697,40 +4318,40 @@
         <v>44287</v>
       </c>
       <c r="C57" s="16">
-        <v>452.4753</v>
+        <v>452.47899999999998</v>
       </c>
       <c r="D57" s="17">
         <v>440.56299999999999</v>
       </c>
       <c r="E57" s="17">
-        <v>460.35449999999997</v>
+        <v>460.3544</v>
       </c>
       <c r="F57" s="17">
-        <v>463.46539999999999</v>
+        <v>463.51010000000002</v>
       </c>
       <c r="G57" s="17">
-        <v>470.77769999999998</v>
+        <v>470.8272</v>
       </c>
       <c r="H57" s="17">
-        <v>471.27339999999998</v>
+        <v>471.25700000000001</v>
       </c>
       <c r="I57" s="18">
         <v>446.65230000000003</v>
       </c>
       <c r="J57" s="17">
-        <v>476.98860000000002</v>
+        <v>477.01319999999998</v>
       </c>
       <c r="K57" s="17">
-        <v>378.85239999999999</v>
+        <v>378.81459999999998</v>
       </c>
       <c r="L57" s="17">
-        <v>457.12970000000001</v>
+        <v>457.09710000000001</v>
       </c>
       <c r="M57" s="17">
         <v>402.9862</v>
       </c>
       <c r="N57" s="17">
-        <v>463.79059999999998</v>
+        <v>463.79849999999999</v>
       </c>
       <c r="O57" s="17">
         <v>491.10149999999999</v>
@@ -4739,22 +4360,22 @@
         <v>489.12689999999998</v>
       </c>
       <c r="Q57" s="17">
-        <v>430.92919999999998</v>
+        <v>430.91919999999999</v>
       </c>
       <c r="R57" s="17">
-        <v>447.30549999999999</v>
+        <v>447.3116</v>
       </c>
       <c r="S57" s="17">
-        <v>386.30770000000001</v>
+        <v>386.33569999999997</v>
       </c>
       <c r="T57" s="17">
-        <v>413.46839999999997</v>
+        <v>413.47179999999997</v>
       </c>
       <c r="U57" s="18">
-        <v>404.77159999999998</v>
+        <v>404.77109999999999</v>
       </c>
       <c r="V57" s="16">
-        <v>451.83949999999999</v>
+        <v>451.8818</v>
       </c>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.25">
@@ -5412,40 +5033,40 @@
         <v>44621</v>
       </c>
       <c r="C68" s="16">
-        <v>674.1848</v>
+        <v>674.15710000000001</v>
       </c>
       <c r="D68" s="17">
         <v>659.75279999999998</v>
       </c>
       <c r="E68" s="17">
-        <v>681.17420000000004</v>
+        <v>681.17439999999999</v>
       </c>
       <c r="F68" s="17">
-        <v>690.42570000000001</v>
+        <v>690.08130000000006</v>
       </c>
       <c r="G68" s="17">
-        <v>704.2645</v>
+        <v>703.91269999999997</v>
       </c>
       <c r="H68" s="17">
-        <v>704.22109999999998</v>
+        <v>704.3451</v>
       </c>
       <c r="I68" s="18">
         <v>670.34559999999999</v>
       </c>
       <c r="J68" s="17">
-        <v>728.74019999999996</v>
+        <v>728.55229999999995</v>
       </c>
       <c r="K68" s="17">
-        <v>538.89269999999999</v>
+        <v>539.16359999999997</v>
       </c>
       <c r="L68" s="17">
-        <v>735.95460000000003</v>
+        <v>736.21220000000005</v>
       </c>
       <c r="M68" s="17">
         <v>537.9778</v>
       </c>
       <c r="N68" s="17">
-        <v>659.45069999999998</v>
+        <v>659.39580000000001</v>
       </c>
       <c r="O68" s="17">
         <v>731.39549999999997</v>
@@ -5454,22 +5075,22 @@
         <v>726.68470000000002</v>
       </c>
       <c r="Q68" s="17">
-        <v>557.13559999999995</v>
+        <v>557.20029999999997</v>
       </c>
       <c r="R68" s="17">
-        <v>631.06119999999999</v>
+        <v>631.01660000000004</v>
       </c>
       <c r="S68" s="17">
-        <v>572.29200000000003</v>
+        <v>572.08389999999997</v>
       </c>
       <c r="T68" s="17">
-        <v>668.16089999999997</v>
+        <v>668.13369999999998</v>
       </c>
       <c r="U68" s="18">
-        <v>577.6721</v>
+        <v>577.67610000000002</v>
       </c>
       <c r="V68" s="16">
-        <v>686.67650000000003</v>
+        <v>686.36180000000002</v>
       </c>
     </row>
     <row r="69" spans="2:22" x14ac:dyDescent="0.25">
@@ -5477,40 +5098,40 @@
         <v>44652</v>
       </c>
       <c r="C69" s="16">
-        <v>714.47469999999998</v>
+        <v>714.50390000000004</v>
       </c>
       <c r="D69" s="17">
         <v>700.22950000000003</v>
       </c>
       <c r="E69" s="17">
-        <v>720.42290000000003</v>
+        <v>720.423</v>
       </c>
       <c r="F69" s="17">
-        <v>732.88409999999999</v>
+        <v>733.25</v>
       </c>
       <c r="G69" s="17">
-        <v>746.26300000000003</v>
+        <v>746.63350000000003</v>
       </c>
       <c r="H69" s="17">
-        <v>744.89139999999998</v>
+        <v>744.75530000000003</v>
       </c>
       <c r="I69" s="18">
         <v>709.67010000000005</v>
       </c>
       <c r="J69" s="17">
-        <v>772.70090000000005</v>
+        <v>772.90030000000002</v>
       </c>
       <c r="K69" s="17">
-        <v>562.99090000000001</v>
+        <v>562.70809999999994</v>
       </c>
       <c r="L69" s="17">
-        <v>792.24720000000002</v>
+        <v>791.97019999999998</v>
       </c>
       <c r="M69" s="17">
         <v>562.53589999999997</v>
       </c>
       <c r="N69" s="17">
-        <v>697.24919999999997</v>
+        <v>697.30700000000002</v>
       </c>
       <c r="O69" s="17">
         <v>778.20069999999998</v>
@@ -5519,22 +5140,22 @@
         <v>765.30079999999998</v>
       </c>
       <c r="Q69" s="17">
-        <v>580.57479999999998</v>
+        <v>580.50729999999999</v>
       </c>
       <c r="R69" s="17">
-        <v>665.32780000000002</v>
+        <v>665.37509999999997</v>
       </c>
       <c r="S69" s="17">
-        <v>602.23159999999996</v>
+        <v>602.452</v>
       </c>
       <c r="T69" s="17">
-        <v>717.10879999999997</v>
+        <v>717.13779999999997</v>
       </c>
       <c r="U69" s="18">
-        <v>608.39700000000005</v>
+        <v>608.39290000000005</v>
       </c>
       <c r="V69" s="16">
-        <v>729.09810000000004</v>
+        <v>729.43140000000005</v>
       </c>
     </row>
     <row r="70" spans="2:22" x14ac:dyDescent="0.25">
@@ -5992,73 +5613,135 @@
         <v>1113.1264000000001</v>
       </c>
     </row>
-    <row r="77" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="15">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B77" s="14">
         <v>44896</v>
       </c>
-      <c r="C77" s="19">
+      <c r="C77" s="16">
         <v>1136.1406999999999</v>
       </c>
-      <c r="D77" s="20">
+      <c r="D77" s="17">
         <v>1115.5164</v>
       </c>
-      <c r="E77" s="20">
+      <c r="E77" s="17">
         <v>1146.7947999999999</v>
       </c>
-      <c r="F77" s="20">
+      <c r="F77" s="17">
         <v>1161.7012999999999</v>
       </c>
-      <c r="G77" s="20">
+      <c r="G77" s="17">
         <v>1182.9304</v>
       </c>
-      <c r="H77" s="20">
+      <c r="H77" s="17">
         <v>1173.3311000000001</v>
       </c>
-      <c r="I77" s="21">
+      <c r="I77" s="18">
         <v>1113.5851</v>
       </c>
-      <c r="J77" s="20">
+      <c r="J77" s="17">
         <v>1193.9223</v>
       </c>
-      <c r="K77" s="20">
+      <c r="K77" s="17">
         <v>940.14940000000001</v>
       </c>
-      <c r="L77" s="20">
+      <c r="L77" s="17">
         <v>1362.1412</v>
       </c>
-      <c r="M77" s="20">
+      <c r="M77" s="17">
         <v>860.59050000000002</v>
       </c>
-      <c r="N77" s="20">
+      <c r="N77" s="17">
         <v>1142.4152999999999</v>
       </c>
-      <c r="O77" s="20">
+      <c r="O77" s="17">
         <v>1231.8969</v>
       </c>
-      <c r="P77" s="20">
+      <c r="P77" s="17">
         <v>1189.9875999999999</v>
       </c>
-      <c r="Q77" s="20">
+      <c r="Q77" s="17">
         <v>836.56020000000001</v>
       </c>
-      <c r="R77" s="20">
+      <c r="R77" s="17">
         <v>1038.5957000000001</v>
       </c>
-      <c r="S77" s="20">
+      <c r="S77" s="17">
         <v>937.54780000000005</v>
       </c>
-      <c r="T77" s="20">
+      <c r="T77" s="17">
         <v>1201.8724999999999</v>
       </c>
-      <c r="U77" s="21">
+      <c r="U77" s="18">
         <v>993.97080000000005</v>
       </c>
-      <c r="V77" s="19">
+      <c r="V77" s="16">
         <v>1173.7402999999999</v>
       </c>
     </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B78" s="6"/>
+    <row r="78" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="15">
+        <v>44927</v>
+      </c>
+      <c r="C78" s="19">
+        <v>1208.7164</v>
+      </c>
+      <c r="D78" s="20">
+        <v>1187.3553999999999</v>
+      </c>
+      <c r="E78" s="20">
+        <v>1219.2152000000001</v>
+      </c>
+      <c r="F78" s="20">
+        <v>1237.2358999999999</v>
+      </c>
+      <c r="G78" s="20">
+        <v>1255.3752999999999</v>
+      </c>
+      <c r="H78" s="20">
+        <v>1251.0572</v>
+      </c>
+      <c r="I78" s="21">
+        <v>1185.7885000000001</v>
+      </c>
+      <c r="J78" s="20">
+        <v>1271.232</v>
+      </c>
+      <c r="K78" s="20">
+        <v>1009.1845</v>
+      </c>
+      <c r="L78" s="20">
+        <v>1438.6188999999999</v>
+      </c>
+      <c r="M78" s="20">
+        <v>929.77620000000002</v>
+      </c>
+      <c r="N78" s="20">
+        <v>1213.1757</v>
+      </c>
+      <c r="O78" s="20">
+        <v>1292.6410000000001</v>
+      </c>
+      <c r="P78" s="20">
+        <v>1260.5619999999999</v>
+      </c>
+      <c r="Q78" s="20">
+        <v>895.39469999999994</v>
+      </c>
+      <c r="R78" s="20">
+        <v>1128.8140000000001</v>
+      </c>
+      <c r="S78" s="20">
+        <v>978.28110000000004</v>
+      </c>
+      <c r="T78" s="20">
+        <v>1275.0909999999999</v>
+      </c>
+      <c r="U78" s="21">
+        <v>1062.211</v>
+      </c>
+      <c r="V78" s="19">
+        <v>1250.2503999999999</v>
+      </c>
     </row>
     <row r="79" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B79" s="6"/>
@@ -6109,10 +5792,11 @@
   <dimension ref="B1:V89"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="83" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I60" sqref="I60"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="M1" sqref="M1"/>
+      <selection pane="topRight" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6126,36 +5810,36 @@
   <sheetData>
     <row r="1" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
     </row>
     <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="25" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="23"/>
@@ -6186,7 +5870,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
@@ -6207,43 +5891,43 @@
         <v>6</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
@@ -6276,83 +5960,63 @@
         <v>42736</v>
       </c>
       <c r="C6" s="16">
-        <f>ROUND(100*(Índices!C6/Índices!C5-1),4)</f>
         <v>1.7487999999999999</v>
       </c>
       <c r="D6" s="17">
-        <f>ROUND(100*(Índices!D6/Índices!D5-1),4)</f>
         <v>1.5026999999999999</v>
       </c>
       <c r="E6" s="17">
-        <f>ROUND(100*(Índices!E6/Índices!E5-1),4)</f>
         <v>1.8845000000000001</v>
       </c>
       <c r="F6" s="17">
-        <f>ROUND(100*(Índices!F6/Índices!F5-1),4)</f>
         <v>1.7318</v>
       </c>
       <c r="G6" s="17">
-        <f>ROUND(100*(Índices!G6/Índices!G5-1),4)</f>
         <v>1.7968999999999999</v>
       </c>
       <c r="H6" s="17">
-        <f>ROUND(100*(Índices!H6/Índices!H5-1),4)</f>
         <v>1.8922000000000001</v>
       </c>
       <c r="I6" s="18">
-        <f>ROUND(100*(Índices!I6/Índices!I5-1),4)</f>
         <v>2.9377</v>
       </c>
       <c r="J6" s="17">
-        <f>ROUND(100*(Índices!J6/Índices!J5-1),4)</f>
         <v>0.86929999999999996</v>
       </c>
       <c r="K6" s="17">
-        <f>ROUND(100*(Índices!K6/Índices!K5-1),4)</f>
         <v>0.50229999999999997</v>
       </c>
       <c r="L6" s="17">
-        <f>ROUND(100*(Índices!L6/Índices!L5-1),4)</f>
         <v>1.8717999999999999</v>
       </c>
       <c r="M6" s="17">
-        <f>ROUND(100*(Índices!M6/Índices!M5-1),4)</f>
         <v>1.5481</v>
       </c>
       <c r="N6" s="17">
-        <f>ROUND(100*(Índices!N6/Índices!N5-1),4)</f>
         <v>1.4705999999999999</v>
       </c>
       <c r="O6" s="17">
-        <f>ROUND(100*(Índices!O6/Índices!O5-1),4)</f>
         <v>2.3879000000000001</v>
       </c>
       <c r="P6" s="17">
-        <f>ROUND(100*(Índices!P6/Índices!P5-1),4)</f>
         <v>2.0838999999999999</v>
       </c>
       <c r="Q6" s="17">
-        <f>ROUND(100*(Índices!Q6/Índices!Q5-1),4)</f>
         <v>2.3902000000000001</v>
       </c>
       <c r="R6" s="17">
-        <f>ROUND(100*(Índices!R6/Índices!R5-1),4)</f>
         <v>2.5834999999999999</v>
       </c>
       <c r="S6" s="17">
-        <f>ROUND(100*(Índices!S6/Índices!S5-1),4)</f>
         <v>2.6265000000000001</v>
       </c>
       <c r="T6" s="17">
-        <f>ROUND(100*(Índices!T6/Índices!T5-1),4)</f>
         <v>2.9868000000000001</v>
       </c>
       <c r="U6" s="18">
-        <f>ROUND(100*(Índices!U6/Índices!U5-1),4)</f>
         <v>1.9661999999999999</v>
       </c>
       <c r="V6" s="16">
-        <f>ROUND(100*(Índices!V6/Índices!V5-1),4)</f>
         <v>1.6071</v>
       </c>
     </row>
@@ -6361,83 +6025,63 @@
         <v>42767</v>
       </c>
       <c r="C7" s="16">
-        <f>ROUND(100*(Índices!C7/Índices!C6-1),4)</f>
         <v>2.2298</v>
       </c>
       <c r="D7" s="17">
-        <f>ROUND(100*(Índices!D7/Índices!D6-1),4)</f>
         <v>2.7776999999999998</v>
       </c>
       <c r="E7" s="17">
-        <f>ROUND(100*(Índices!E7/Índices!E6-1),4)</f>
         <v>1.802</v>
       </c>
       <c r="F7" s="17">
-        <f>ROUND(100*(Índices!F7/Índices!F6-1),4)</f>
         <v>2.1490999999999998</v>
       </c>
       <c r="G7" s="17">
-        <f>ROUND(100*(Índices!G7/Índices!G6-1),4)</f>
         <v>1.9001999999999999</v>
       </c>
       <c r="H7" s="17">
-        <f>ROUND(100*(Índices!H7/Índices!H6-1),4)</f>
         <v>1.4670000000000001</v>
       </c>
       <c r="I7" s="18">
-        <f>ROUND(100*(Índices!I7/Índices!I6-1),4)</f>
         <v>2.0699000000000001</v>
       </c>
       <c r="J7" s="17">
-        <f>ROUND(100*(Índices!J7/Índices!J6-1),4)</f>
         <v>1.3761000000000001</v>
       </c>
       <c r="K7" s="17">
-        <f>ROUND(100*(Índices!K7/Índices!K6-1),4)</f>
         <v>4.6935000000000002</v>
       </c>
       <c r="L7" s="17">
-        <f>ROUND(100*(Índices!L7/Índices!L6-1),4)</f>
         <v>1.8668</v>
       </c>
       <c r="M7" s="17">
-        <f>ROUND(100*(Índices!M7/Índices!M6-1),4)</f>
         <v>5.2967000000000004</v>
       </c>
       <c r="N7" s="17">
-        <f>ROUND(100*(Índices!N7/Índices!N6-1),4)</f>
         <v>0.90939999999999999</v>
       </c>
       <c r="O7" s="17">
-        <f>ROUND(100*(Índices!O7/Índices!O6-1),4)</f>
         <v>2.6901999999999999</v>
       </c>
       <c r="P7" s="17">
-        <f>ROUND(100*(Índices!P7/Índices!P6-1),4)</f>
         <v>1.8837999999999999</v>
       </c>
       <c r="Q7" s="17">
-        <f>ROUND(100*(Índices!Q7/Índices!Q6-1),4)</f>
         <v>3.6934</v>
       </c>
       <c r="R7" s="17">
-        <f>ROUND(100*(Índices!R7/Índices!R6-1),4)</f>
         <v>1.4674</v>
       </c>
       <c r="S7" s="17">
-        <f>ROUND(100*(Índices!S7/Índices!S6-1),4)</f>
         <v>4.335</v>
       </c>
       <c r="T7" s="17">
-        <f>ROUND(100*(Índices!T7/Índices!T6-1),4)</f>
         <v>1.7111000000000001</v>
       </c>
       <c r="U7" s="18">
-        <f>ROUND(100*(Índices!U7/Índices!U6-1),4)</f>
         <v>1.8775999999999999</v>
       </c>
       <c r="V7" s="16">
-        <f>ROUND(100*(Índices!V7/Índices!V6-1),4)</f>
         <v>1.6587000000000001</v>
       </c>
     </row>
@@ -6446,84 +6090,64 @@
         <v>42795</v>
       </c>
       <c r="C8" s="16">
-        <f>ROUND(100*(Índices!C8/Índices!C7-1),4)</f>
-        <v>1.7084999999999999</v>
+        <v>1.7052</v>
       </c>
       <c r="D8" s="17">
-        <f>ROUND(100*(Índices!D8/Índices!D7-1),4)</f>
         <v>1.514</v>
       </c>
       <c r="E8" s="17">
-        <f>ROUND(100*(Índices!E8/Índices!E7-1),4)</f>
-        <v>1.5669999999999999</v>
+        <v>1.5681</v>
       </c>
       <c r="F8" s="17">
-        <f>ROUND(100*(Índices!F8/Índices!F7-1),4)</f>
-        <v>2.5148999999999999</v>
+        <v>2.4689000000000001</v>
       </c>
       <c r="G8" s="17">
-        <f>ROUND(100*(Índices!G8/Índices!G7-1),4)</f>
-        <v>2.0644</v>
+        <v>2.0184000000000002</v>
       </c>
       <c r="H8" s="17">
-        <f>ROUND(100*(Índices!H8/Índices!H7-1),4)</f>
-        <v>1.9283999999999999</v>
+        <v>1.9470000000000001</v>
       </c>
       <c r="I8" s="18">
-        <f>ROUND(100*(Índices!I8/Índices!I7-1),4)</f>
         <v>1.4957</v>
       </c>
       <c r="J8" s="17">
-        <f>ROUND(100*(Índices!J8/Índices!J7-1),4)</f>
-        <v>1.8533999999999999</v>
+        <v>1.8279000000000001</v>
       </c>
       <c r="K8" s="17">
-        <f>ROUND(100*(Índices!K8/Índices!K7-1),4)</f>
-        <v>1.607</v>
+        <v>1.6578999999999999</v>
       </c>
       <c r="L8" s="17">
-        <f>ROUND(100*(Índices!L8/Índices!L7-1),4)</f>
-        <v>1.0921000000000001</v>
+        <v>1.1292</v>
       </c>
       <c r="M8" s="17">
-        <f>ROUND(100*(Índices!M8/Índices!M7-1),4)</f>
         <v>3.6665999999999999</v>
       </c>
       <c r="N8" s="17">
-        <f>ROUND(100*(Índices!N8/Índices!N7-1),4)</f>
-        <v>0.78600000000000003</v>
+        <v>0.77759999999999996</v>
       </c>
       <c r="O8" s="17">
-        <f>ROUND(100*(Índices!O8/Índices!O7-1),4)</f>
         <v>1.9854000000000001</v>
       </c>
       <c r="P8" s="17">
-        <f>ROUND(100*(Índices!P8/Índices!P7-1),4)</f>
         <v>1.1793</v>
       </c>
       <c r="Q8" s="17">
-        <f>ROUND(100*(Índices!Q8/Índices!Q7-1),4)</f>
-        <v>3.2376</v>
+        <v>3.2494000000000001</v>
       </c>
       <c r="R8" s="17">
-        <f>ROUND(100*(Índices!R8/Índices!R7-1),4)</f>
-        <v>2.2980999999999998</v>
+        <v>2.2909999999999999</v>
       </c>
       <c r="S8" s="17">
-        <f>ROUND(100*(Índices!S8/Índices!S7-1),4)</f>
-        <v>-2.3016000000000001</v>
+        <v>-2.3403999999999998</v>
       </c>
       <c r="T8" s="17">
-        <f>ROUND(100*(Índices!T8/Índices!T7-1),4)</f>
-        <v>1.0145999999999999</v>
+        <v>1.0108999999999999</v>
       </c>
       <c r="U8" s="18">
-        <f>ROUND(100*(Índices!U8/Índices!U7-1),4)</f>
-        <v>1.8386</v>
+        <v>1.8391999999999999</v>
       </c>
       <c r="V8" s="16">
-        <f>ROUND(100*(Índices!V8/Índices!V7-1),4)</f>
-        <v>1.5847</v>
+        <v>1.5406</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
@@ -6531,84 +6155,64 @@
         <v>42826</v>
       </c>
       <c r="C9" s="16">
-        <f>ROUND(100*(Índices!C9/Índices!C8-1),4)</f>
-        <v>2.6587000000000001</v>
+        <v>2.6654</v>
       </c>
       <c r="D9" s="17">
-        <f>ROUND(100*(Índices!D9/Índices!D8-1),4)</f>
         <v>2.6957</v>
       </c>
       <c r="E9" s="17">
-        <f>ROUND(100*(Índices!E9/Índices!E8-1),4)</f>
-        <v>2.6253000000000002</v>
+        <v>2.6231</v>
       </c>
       <c r="F9" s="17">
-        <f>ROUND(100*(Índices!F9/Índices!F8-1),4)</f>
-        <v>2.4632999999999998</v>
+        <v>2.5550999999999999</v>
       </c>
       <c r="G9" s="17">
-        <f>ROUND(100*(Índices!G9/Índices!G8-1),4)</f>
-        <v>2.3610000000000002</v>
+        <v>2.4539</v>
       </c>
       <c r="H9" s="17">
-        <f>ROUND(100*(Índices!H9/Índices!H8-1),4)</f>
-        <v>3.2410999999999999</v>
+        <v>3.2035999999999998</v>
       </c>
       <c r="I9" s="18">
-        <f>ROUND(100*(Índices!I9/Índices!I8-1),4)</f>
         <v>2.0581999999999998</v>
       </c>
       <c r="J9" s="17">
-        <f>ROUND(100*(Índices!J9/Índices!J8-1),4)</f>
-        <v>2.5404</v>
+        <v>2.5916000000000001</v>
       </c>
       <c r="K9" s="17">
-        <f>ROUND(100*(Índices!K9/Índices!K8-1),4)</f>
-        <v>3.2299000000000002</v>
+        <v>3.1263999999999998</v>
       </c>
       <c r="L9" s="17">
-        <f>ROUND(100*(Índices!L9/Índices!L8-1),4)</f>
-        <v>2.4496000000000002</v>
+        <v>2.3744000000000001</v>
       </c>
       <c r="M9" s="17">
-        <f>ROUND(100*(Índices!M9/Índices!M8-1),4)</f>
         <v>5.9916999999999998</v>
       </c>
       <c r="N9" s="17">
-        <f>ROUND(100*(Índices!N9/Índices!N8-1),4)</f>
-        <v>1.4762999999999999</v>
+        <v>1.4933000000000001</v>
       </c>
       <c r="O9" s="17">
-        <f>ROUND(100*(Índices!O9/Índices!O8-1),4)</f>
         <v>1.7967</v>
       </c>
       <c r="P9" s="17">
-        <f>ROUND(100*(Índices!P9/Índices!P8-1),4)</f>
         <v>0.62170000000000003</v>
       </c>
       <c r="Q9" s="17">
-        <f>ROUND(100*(Índices!Q9/Índices!Q8-1),4)</f>
-        <v>7.2083000000000004</v>
+        <v>7.1840000000000002</v>
       </c>
       <c r="R9" s="17">
-        <f>ROUND(100*(Índices!R9/Índices!R8-1),4)</f>
-        <v>2.6011000000000002</v>
+        <v>2.6154000000000002</v>
       </c>
       <c r="S9" s="17">
-        <f>ROUND(100*(Índices!S9/Índices!S8-1),4)</f>
-        <v>4.2243000000000004</v>
+        <v>4.3068999999999997</v>
       </c>
       <c r="T9" s="17">
-        <f>ROUND(100*(Índices!T9/Índices!T8-1),4)</f>
-        <v>1.8997999999999999</v>
+        <v>1.9072</v>
       </c>
       <c r="U9" s="18">
-        <f>ROUND(100*(Índices!U9/Índices!U8-1),4)</f>
-        <v>1.8461000000000001</v>
+        <v>1.8447</v>
       </c>
       <c r="V9" s="16">
-        <f>ROUND(100*(Índices!V9/Índices!V8-1),4)</f>
-        <v>2.2627999999999999</v>
+        <v>2.3517000000000001</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
@@ -6616,84 +6220,64 @@
         <v>42856</v>
       </c>
       <c r="C10" s="16">
-        <f>ROUND(100*(Índices!C10/Índices!C9-1),4)</f>
-        <v>1.7415</v>
+        <v>1.7382</v>
       </c>
       <c r="D10" s="17">
-        <f>ROUND(100*(Índices!D10/Índices!D9-1),4)</f>
         <v>1.6472</v>
       </c>
       <c r="E10" s="17">
-        <f>ROUND(100*(Índices!E10/Índices!E9-1),4)</f>
-        <v>1.6971000000000001</v>
+        <v>1.6981999999999999</v>
       </c>
       <c r="F10" s="17">
-        <f>ROUND(100*(Índices!F10/Índices!F9-1),4)</f>
-        <v>1.9577</v>
+        <v>1.9121999999999999</v>
       </c>
       <c r="G10" s="17">
-        <f>ROUND(100*(Índices!G10/Índices!G9-1),4)</f>
-        <v>2.2524999999999999</v>
+        <v>2.2059000000000002</v>
       </c>
       <c r="H10" s="17">
-        <f>ROUND(100*(Índices!H10/Índices!H9-1),4)</f>
-        <v>2.0562999999999998</v>
+        <v>2.0747</v>
       </c>
       <c r="I10" s="18">
-        <f>ROUND(100*(Índices!I10/Índices!I9-1),4)</f>
         <v>1.8593</v>
       </c>
       <c r="J10" s="17">
-        <f>ROUND(100*(Índices!J10/Índices!J9-1),4)</f>
-        <v>2.1597</v>
+        <v>2.1341999999999999</v>
       </c>
       <c r="K10" s="17">
-        <f>ROUND(100*(Índices!K10/Índices!K9-1),4)</f>
-        <v>2.2033</v>
+        <v>2.2545999999999999</v>
       </c>
       <c r="L10" s="17">
-        <f>ROUND(100*(Índices!L10/Índices!L9-1),4)</f>
-        <v>1.6789000000000001</v>
+        <v>1.7161999999999999</v>
       </c>
       <c r="M10" s="17">
-        <f>ROUND(100*(Índices!M10/Índices!M9-1),4)</f>
         <v>1.7934000000000001</v>
       </c>
       <c r="N10" s="17">
-        <f>ROUND(100*(Índices!N10/Índices!N9-1),4)</f>
-        <v>2.8765999999999998</v>
+        <v>2.8679999999999999</v>
       </c>
       <c r="O10" s="17">
-        <f>ROUND(100*(Índices!O10/Índices!O9-1),4)</f>
         <v>1.5297000000000001</v>
       </c>
       <c r="P10" s="17">
-        <f>ROUND(100*(Índices!P10/Índices!P9-1),4)</f>
         <v>0.93159999999999998</v>
       </c>
       <c r="Q10" s="17">
-        <f>ROUND(100*(Índices!Q10/Índices!Q9-1),4)</f>
-        <v>0.74080000000000001</v>
+        <v>0.75219999999999998</v>
       </c>
       <c r="R10" s="17">
-        <f>ROUND(100*(Índices!R10/Índices!R9-1),4)</f>
-        <v>1.0960000000000001</v>
+        <v>1.089</v>
       </c>
       <c r="S10" s="17">
-        <f>ROUND(100*(Índices!S10/Índices!S9-1),4)</f>
-        <v>2.5710000000000002</v>
+        <v>2.5304000000000002</v>
       </c>
       <c r="T10" s="17">
-        <f>ROUND(100*(Índices!T10/Índices!T9-1),4)</f>
-        <v>1.4946999999999999</v>
+        <v>1.4910000000000001</v>
       </c>
       <c r="U10" s="18">
-        <f>ROUND(100*(Índices!U10/Índices!U9-1),4)</f>
-        <v>1.3633</v>
+        <v>1.3640000000000001</v>
       </c>
       <c r="V10" s="16">
-        <f>ROUND(100*(Índices!V10/Índices!V9-1),4)</f>
-        <v>1.9436</v>
+        <v>1.8993</v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
@@ -6701,83 +6285,63 @@
         <v>42887</v>
       </c>
       <c r="C11" s="16">
-        <f>ROUND(100*(Índices!C11/Índices!C10-1),4)</f>
         <v>1.2983</v>
       </c>
       <c r="D11" s="17">
-        <f>ROUND(100*(Índices!D11/Índices!D10-1),4)</f>
         <v>1.4381999999999999</v>
       </c>
       <c r="E11" s="17">
-        <f>ROUND(100*(Índices!E11/Índices!E10-1),4)</f>
         <v>1.1860999999999999</v>
       </c>
       <c r="F11" s="17">
-        <f>ROUND(100*(Índices!F11/Índices!F10-1),4)</f>
         <v>1.1023000000000001</v>
       </c>
       <c r="G11" s="17">
-        <f>ROUND(100*(Índices!G11/Índices!G10-1),4)</f>
         <v>1.6447000000000001</v>
       </c>
       <c r="H11" s="17">
-        <f>ROUND(100*(Índices!H11/Índices!H10-1),4)</f>
         <v>1.0723</v>
       </c>
       <c r="I11" s="18">
-        <f>ROUND(100*(Índices!I11/Índices!I10-1),4)</f>
         <v>1.1475</v>
       </c>
       <c r="J11" s="17">
-        <f>ROUND(100*(Índices!J11/Índices!J10-1),4)</f>
         <v>1.2533000000000001</v>
       </c>
       <c r="K11" s="17">
-        <f>ROUND(100*(Índices!K11/Índices!K10-1),4)</f>
         <v>0.93969999999999998</v>
       </c>
       <c r="L11" s="17">
-        <f>ROUND(100*(Índices!L11/Índices!L10-1),4)</f>
         <v>0.95750000000000002</v>
       </c>
       <c r="M11" s="17">
-        <f>ROUND(100*(Índices!M11/Índices!M10-1),4)</f>
         <v>1.7366999999999999</v>
       </c>
       <c r="N11" s="17">
-        <f>ROUND(100*(Índices!N11/Índices!N10-1),4)</f>
         <v>1.0780000000000001</v>
       </c>
       <c r="O11" s="17">
-        <f>ROUND(100*(Índices!O11/Índices!O10-1),4)</f>
         <v>1.4726999999999999</v>
       </c>
       <c r="P11" s="17">
-        <f>ROUND(100*(Índices!P11/Índices!P10-1),4)</f>
         <v>0.69630000000000003</v>
       </c>
       <c r="Q11" s="17">
-        <f>ROUND(100*(Índices!Q11/Índices!Q10-1),4)</f>
         <v>1.2334000000000001</v>
       </c>
       <c r="R11" s="17">
-        <f>ROUND(100*(Índices!R11/Índices!R10-1),4)</f>
         <v>2.0760000000000001</v>
       </c>
       <c r="S11" s="17">
-        <f>ROUND(100*(Índices!S11/Índices!S10-1),4)</f>
         <v>2.2387000000000001</v>
       </c>
       <c r="T11" s="17">
-        <f>ROUND(100*(Índices!T11/Índices!T10-1),4)</f>
         <v>1.2934000000000001</v>
       </c>
       <c r="U11" s="18">
-        <f>ROUND(100*(Índices!U11/Índices!U10-1),4)</f>
         <v>1.2994000000000001</v>
       </c>
       <c r="V11" s="16">
-        <f>ROUND(100*(Índices!V11/Índices!V10-1),4)</f>
         <v>1.2845</v>
       </c>
     </row>
@@ -6786,83 +6350,63 @@
         <v>42917</v>
       </c>
       <c r="C12" s="16">
-        <f>ROUND(100*(Índices!C12/Índices!C11-1),4)</f>
         <v>2.0444</v>
       </c>
       <c r="D12" s="17">
-        <f>ROUND(100*(Índices!D12/Índices!D11-1),4)</f>
         <v>1.9338</v>
       </c>
       <c r="E12" s="17">
-        <f>ROUND(100*(Índices!E12/Índices!E11-1),4)</f>
         <v>2.4174000000000002</v>
       </c>
       <c r="F12" s="17">
-        <f>ROUND(100*(Índices!F12/Índices!F11-1),4)</f>
         <v>1.8596999999999999</v>
       </c>
       <c r="G12" s="17">
-        <f>ROUND(100*(Índices!G12/Índices!G11-1),4)</f>
         <v>1.6625000000000001</v>
       </c>
       <c r="H12" s="17">
-        <f>ROUND(100*(Índices!H12/Índices!H11-1),4)</f>
         <v>1.5895999999999999</v>
       </c>
       <c r="I12" s="18">
-        <f>ROUND(100*(Índices!I12/Índices!I11-1),4)</f>
         <v>1.6265000000000001</v>
       </c>
       <c r="J12" s="17">
-        <f>ROUND(100*(Índices!J12/Índices!J11-1),4)</f>
         <v>1.7292000000000001</v>
       </c>
       <c r="K12" s="17">
-        <f>ROUND(100*(Índices!K12/Índices!K11-1),4)</f>
         <v>3.1669</v>
       </c>
       <c r="L12" s="17">
-        <f>ROUND(100*(Índices!L12/Índices!L11-1),4)</f>
         <v>0.89039999999999997</v>
       </c>
       <c r="M12" s="17">
-        <f>ROUND(100*(Índices!M12/Índices!M11-1),4)</f>
         <v>1.9917</v>
       </c>
       <c r="N12" s="17">
-        <f>ROUND(100*(Índices!N12/Índices!N11-1),4)</f>
         <v>1.8418000000000001</v>
       </c>
       <c r="O12" s="17">
-        <f>ROUND(100*(Índices!O12/Índices!O11-1),4)</f>
         <v>3.3252999999999999</v>
       </c>
       <c r="P12" s="17">
-        <f>ROUND(100*(Índices!P12/Índices!P11-1),4)</f>
         <v>2.1753</v>
       </c>
       <c r="Q12" s="17">
-        <f>ROUND(100*(Índices!Q12/Índices!Q11-1),4)</f>
         <v>1.7094</v>
       </c>
       <c r="R12" s="17">
-        <f>ROUND(100*(Índices!R12/Índices!R11-1),4)</f>
         <v>2.7905000000000002</v>
       </c>
       <c r="S12" s="17">
-        <f>ROUND(100*(Índices!S12/Índices!S11-1),4)</f>
         <v>1.8702000000000001</v>
       </c>
       <c r="T12" s="17">
-        <f>ROUND(100*(Índices!T12/Índices!T11-1),4)</f>
         <v>2.5055000000000001</v>
       </c>
       <c r="U12" s="18">
-        <f>ROUND(100*(Índices!U12/Índices!U11-1),4)</f>
         <v>1.36</v>
       </c>
       <c r="V12" s="16">
-        <f>ROUND(100*(Índices!V12/Índices!V11-1),4)</f>
         <v>1.8971</v>
       </c>
     </row>
@@ -6871,83 +6415,63 @@
         <v>42948</v>
       </c>
       <c r="C13" s="16">
-        <f>ROUND(100*(Índices!C13/Índices!C12-1),4)</f>
         <v>1.4317</v>
       </c>
       <c r="D13" s="17">
-        <f>ROUND(100*(Índices!D13/Índices!D12-1),4)</f>
         <v>1.5065</v>
       </c>
       <c r="E13" s="17">
-        <f>ROUND(100*(Índices!E13/Índices!E12-1),4)</f>
         <v>1.4601</v>
       </c>
       <c r="F13" s="17">
-        <f>ROUND(100*(Índices!F13/Índices!F12-1),4)</f>
         <v>1.1950000000000001</v>
       </c>
       <c r="G13" s="17">
-        <f>ROUND(100*(Índices!G13/Índices!G12-1),4)</f>
         <v>0.98970000000000002</v>
       </c>
       <c r="H13" s="17">
-        <f>ROUND(100*(Índices!H13/Índices!H12-1),4)</f>
         <v>1.3681000000000001</v>
       </c>
       <c r="I13" s="18">
-        <f>ROUND(100*(Índices!I13/Índices!I12-1),4)</f>
         <v>1.4582999999999999</v>
       </c>
       <c r="J13" s="17">
-        <f>ROUND(100*(Índices!J13/Índices!J12-1),4)</f>
         <v>1.8512</v>
       </c>
       <c r="K13" s="17">
-        <f>ROUND(100*(Índices!K13/Índices!K12-1),4)</f>
         <v>1.7755000000000001</v>
       </c>
       <c r="L13" s="17">
-        <f>ROUND(100*(Índices!L13/Índices!L12-1),4)</f>
         <v>6.8500000000000005E-2</v>
       </c>
       <c r="M13" s="17">
-        <f>ROUND(100*(Índices!M13/Índices!M12-1),4)</f>
         <v>2.1337000000000002</v>
       </c>
       <c r="N13" s="17">
-        <f>ROUND(100*(Índices!N13/Índices!N12-1),4)</f>
         <v>0.67069999999999996</v>
       </c>
       <c r="O13" s="17">
-        <f>ROUND(100*(Índices!O13/Índices!O12-1),4)</f>
         <v>2.4981</v>
       </c>
       <c r="P13" s="17">
-        <f>ROUND(100*(Índices!P13/Índices!P12-1),4)</f>
         <v>1.0873999999999999</v>
       </c>
       <c r="Q13" s="17">
-        <f>ROUND(100*(Índices!Q13/Índices!Q12-1),4)</f>
         <v>1.8106</v>
       </c>
       <c r="R13" s="17">
-        <f>ROUND(100*(Índices!R13/Índices!R12-1),4)</f>
         <v>0.81920000000000004</v>
       </c>
       <c r="S13" s="17">
-        <f>ROUND(100*(Índices!S13/Índices!S12-1),4)</f>
         <v>2.4093</v>
       </c>
       <c r="T13" s="17">
-        <f>ROUND(100*(Índices!T13/Índices!T12-1),4)</f>
         <v>0.75380000000000003</v>
       </c>
       <c r="U13" s="18">
-        <f>ROUND(100*(Índices!U13/Índices!U12-1),4)</f>
         <v>1.4476</v>
       </c>
       <c r="V13" s="16">
-        <f>ROUND(100*(Índices!V13/Índices!V12-1),4)</f>
         <v>1.1851</v>
       </c>
     </row>
@@ -6956,83 +6480,63 @@
         <v>42979</v>
       </c>
       <c r="C14" s="16">
-        <f>ROUND(100*(Índices!C14/Índices!C13-1),4)</f>
         <v>1.1866000000000001</v>
       </c>
       <c r="D14" s="17">
-        <f>ROUND(100*(Índices!D14/Índices!D13-1),4)</f>
         <v>1.1162000000000001</v>
       </c>
       <c r="E14" s="17">
-        <f>ROUND(100*(Índices!E14/Índices!E13-1),4)</f>
         <v>1.3812</v>
       </c>
       <c r="F14" s="17">
-        <f>ROUND(100*(Índices!F14/Índices!F13-1),4)</f>
         <v>1.3387</v>
       </c>
       <c r="G14" s="17">
-        <f>ROUND(100*(Índices!G14/Índices!G13-1),4)</f>
         <v>0.61619999999999997</v>
       </c>
       <c r="H14" s="17">
-        <f>ROUND(100*(Índices!H14/Índices!H13-1),4)</f>
         <v>1.2394000000000001</v>
       </c>
       <c r="I14" s="18">
-        <f>ROUND(100*(Índices!I14/Índices!I13-1),4)</f>
         <v>0.73809999999999998</v>
       </c>
       <c r="J14" s="17">
-        <f>ROUND(100*(Índices!J14/Índices!J13-1),4)</f>
         <v>1.0415000000000001</v>
       </c>
       <c r="K14" s="17">
-        <f>ROUND(100*(Índices!K14/Índices!K13-1),4)</f>
         <v>-0.90049999999999997</v>
       </c>
       <c r="L14" s="17">
-        <f>ROUND(100*(Índices!L14/Índices!L13-1),4)</f>
         <v>-0.12659999999999999</v>
       </c>
       <c r="M14" s="17">
-        <f>ROUND(100*(Índices!M14/Índices!M13-1),4)</f>
         <v>2.0291999999999999</v>
       </c>
       <c r="N14" s="17">
-        <f>ROUND(100*(Índices!N14/Índices!N13-1),4)</f>
         <v>0.36270000000000002</v>
       </c>
       <c r="O14" s="17">
-        <f>ROUND(100*(Índices!O14/Índices!O13-1),4)</f>
         <v>2.38</v>
       </c>
       <c r="P14" s="17">
-        <f>ROUND(100*(Índices!P14/Índices!P13-1),4)</f>
         <v>0.80279999999999996</v>
       </c>
       <c r="Q14" s="17">
-        <f>ROUND(100*(Índices!Q14/Índices!Q13-1),4)</f>
         <v>1.0123</v>
       </c>
       <c r="R14" s="17">
-        <f>ROUND(100*(Índices!R14/Índices!R13-1),4)</f>
         <v>1.5563</v>
       </c>
       <c r="S14" s="17">
-        <f>ROUND(100*(Índices!S14/Índices!S13-1),4)</f>
         <v>4.6139999999999999</v>
       </c>
       <c r="T14" s="17">
-        <f>ROUND(100*(Índices!T14/Índices!T13-1),4)</f>
         <v>1.4408000000000001</v>
       </c>
       <c r="U14" s="18">
-        <f>ROUND(100*(Índices!U14/Índices!U13-1),4)</f>
         <v>1.5919000000000001</v>
       </c>
       <c r="V14" s="16">
-        <f>ROUND(100*(Índices!V14/Índices!V13-1),4)</f>
         <v>0.83930000000000005</v>
       </c>
     </row>
@@ -7041,83 +6545,63 @@
         <v>43009</v>
       </c>
       <c r="C15" s="16">
-        <f>ROUND(100*(Índices!C15/Índices!C14-1),4)</f>
         <v>1.2363999999999999</v>
       </c>
       <c r="D15" s="17">
-        <f>ROUND(100*(Índices!D15/Índices!D14-1),4)</f>
         <v>1.0093000000000001</v>
       </c>
       <c r="E15" s="17">
-        <f>ROUND(100*(Índices!E15/Índices!E14-1),4)</f>
         <v>1.4077999999999999</v>
       </c>
       <c r="F15" s="17">
-        <f>ROUND(100*(Índices!F15/Índices!F14-1),4)</f>
         <v>1.6025</v>
       </c>
       <c r="G15" s="17">
-        <f>ROUND(100*(Índices!G15/Índices!G14-1),4)</f>
         <v>1.1488</v>
       </c>
       <c r="H15" s="17">
-        <f>ROUND(100*(Índices!H15/Índices!H14-1),4)</f>
         <v>1.6121000000000001</v>
       </c>
       <c r="I15" s="18">
-        <f>ROUND(100*(Índices!I15/Índices!I14-1),4)</f>
         <v>1.3524</v>
       </c>
       <c r="J15" s="17">
-        <f>ROUND(100*(Índices!J15/Índices!J14-1),4)</f>
         <v>0.85899999999999999</v>
       </c>
       <c r="K15" s="17">
-        <f>ROUND(100*(Índices!K15/Índices!K14-1),4)</f>
         <v>2.7696999999999998</v>
       </c>
       <c r="L15" s="17">
-        <f>ROUND(100*(Índices!L15/Índices!L14-1),4)</f>
         <v>0.99250000000000005</v>
       </c>
       <c r="M15" s="17">
-        <f>ROUND(100*(Índices!M15/Índices!M14-1),4)</f>
         <v>0.90549999999999997</v>
       </c>
       <c r="N15" s="17">
-        <f>ROUND(100*(Índices!N15/Índices!N14-1),4)</f>
         <v>0.32519999999999999</v>
       </c>
       <c r="O15" s="17">
-        <f>ROUND(100*(Índices!O15/Índices!O14-1),4)</f>
         <v>1.0527</v>
       </c>
       <c r="P15" s="17">
-        <f>ROUND(100*(Índices!P15/Índices!P14-1),4)</f>
         <v>1.2967</v>
       </c>
       <c r="Q15" s="17">
-        <f>ROUND(100*(Índices!Q15/Índices!Q14-1),4)</f>
         <v>5.2975000000000003</v>
       </c>
       <c r="R15" s="17">
-        <f>ROUND(100*(Índices!R15/Índices!R14-1),4)</f>
         <v>1.5078</v>
       </c>
       <c r="S15" s="17">
-        <f>ROUND(100*(Índices!S15/Índices!S14-1),4)</f>
         <v>1.4351</v>
       </c>
       <c r="T15" s="17">
-        <f>ROUND(100*(Índices!T15/Índices!T14-1),4)</f>
         <v>1.4362999999999999</v>
       </c>
       <c r="U15" s="18">
-        <f>ROUND(100*(Índices!U15/Índices!U14-1),4)</f>
         <v>1.3307</v>
       </c>
       <c r="V15" s="16">
-        <f>ROUND(100*(Índices!V15/Índices!V14-1),4)</f>
         <v>1.1243000000000001</v>
       </c>
     </row>
@@ -7126,83 +6610,63 @@
         <v>43040</v>
       </c>
       <c r="C16" s="16">
-        <f>ROUND(100*(Índices!C16/Índices!C15-1),4)</f>
         <v>1.6453</v>
       </c>
       <c r="D16" s="17">
-        <f>ROUND(100*(Índices!D16/Índices!D15-1),4)</f>
         <v>1.5267999999999999</v>
       </c>
       <c r="E16" s="17">
-        <f>ROUND(100*(Índices!E16/Índices!E15-1),4)</f>
         <v>1.7553000000000001</v>
       </c>
       <c r="F16" s="17">
-        <f>ROUND(100*(Índices!F16/Índices!F15-1),4)</f>
         <v>1.5357000000000001</v>
       </c>
       <c r="G16" s="17">
-        <f>ROUND(100*(Índices!G16/Índices!G15-1),4)</f>
         <v>1.7325999999999999</v>
       </c>
       <c r="H16" s="17">
-        <f>ROUND(100*(Índices!H16/Índices!H15-1),4)</f>
         <v>1.8363</v>
       </c>
       <c r="I16" s="18">
-        <f>ROUND(100*(Índices!I16/Índices!I15-1),4)</f>
         <v>1.5595000000000001</v>
       </c>
       <c r="J16" s="17">
-        <f>ROUND(100*(Índices!J16/Índices!J15-1),4)</f>
         <v>1.8842000000000001</v>
       </c>
       <c r="K16" s="17">
-        <f>ROUND(100*(Índices!K16/Índices!K15-1),4)</f>
         <v>0.49049999999999999</v>
       </c>
       <c r="L16" s="17">
-        <f>ROUND(100*(Índices!L16/Índices!L15-1),4)</f>
         <v>1.5711999999999999</v>
       </c>
       <c r="M16" s="17">
-        <f>ROUND(100*(Índices!M16/Índices!M15-1),4)</f>
         <v>1.2539</v>
       </c>
       <c r="N16" s="17">
-        <f>ROUND(100*(Índices!N16/Índices!N15-1),4)</f>
         <v>1.1100000000000001</v>
       </c>
       <c r="O16" s="17">
-        <f>ROUND(100*(Índices!O16/Índices!O15-1),4)</f>
         <v>1.3013999999999999</v>
       </c>
       <c r="P16" s="17">
-        <f>ROUND(100*(Índices!P16/Índices!P15-1),4)</f>
         <v>3.024</v>
       </c>
       <c r="Q16" s="17">
-        <f>ROUND(100*(Índices!Q16/Índices!Q15-1),4)</f>
         <v>0.93079999999999996</v>
       </c>
       <c r="R16" s="17">
-        <f>ROUND(100*(Índices!R16/Índices!R15-1),4)</f>
         <v>0.93320000000000003</v>
       </c>
       <c r="S16" s="17">
-        <f>ROUND(100*(Índices!S16/Índices!S15-1),4)</f>
         <v>2.0162</v>
       </c>
       <c r="T16" s="17">
-        <f>ROUND(100*(Índices!T16/Índices!T15-1),4)</f>
         <v>1.8843000000000001</v>
       </c>
       <c r="U16" s="18">
-        <f>ROUND(100*(Índices!U16/Índices!U15-1),4)</f>
         <v>1.1933</v>
       </c>
       <c r="V16" s="16">
-        <f>ROUND(100*(Índices!V16/Índices!V15-1),4)</f>
         <v>1.5330999999999999</v>
       </c>
     </row>
@@ -7211,83 +6675,63 @@
         <v>43070</v>
       </c>
       <c r="C17" s="16">
-        <f>ROUND(100*(Índices!C17/Índices!C16-1),4)</f>
         <v>3.4948999999999999</v>
       </c>
       <c r="D17" s="17">
-        <f>ROUND(100*(Índices!D17/Índices!D16-1),4)</f>
         <v>3.9373999999999998</v>
       </c>
       <c r="E17" s="17">
-        <f>ROUND(100*(Índices!E17/Índices!E16-1),4)</f>
         <v>3.3347000000000002</v>
       </c>
       <c r="F17" s="17">
-        <f>ROUND(100*(Índices!F17/Índices!F16-1),4)</f>
         <v>2.5430000000000001</v>
       </c>
       <c r="G17" s="17">
-        <f>ROUND(100*(Índices!G17/Índices!G16-1),4)</f>
         <v>2.1324000000000001</v>
       </c>
       <c r="H17" s="17">
-        <f>ROUND(100*(Índices!H17/Índices!H16-1),4)</f>
         <v>3.6840999999999999</v>
       </c>
       <c r="I17" s="18">
-        <f>ROUND(100*(Índices!I17/Índices!I16-1),4)</f>
         <v>3.0038999999999998</v>
       </c>
       <c r="J17" s="17">
-        <f>ROUND(100*(Índices!J17/Índices!J16-1),4)</f>
         <v>1.2654000000000001</v>
       </c>
       <c r="K17" s="17">
-        <f>ROUND(100*(Índices!K17/Índices!K16-1),4)</f>
         <v>1.0643</v>
       </c>
       <c r="L17" s="17">
-        <f>ROUND(100*(Índices!L17/Índices!L16-1),4)</f>
         <v>2.2522000000000002</v>
       </c>
       <c r="M17" s="17">
-        <f>ROUND(100*(Índices!M17/Índices!M16-1),4)</f>
         <v>17.804300000000001</v>
       </c>
       <c r="N17" s="17">
-        <f>ROUND(100*(Índices!N17/Índices!N16-1),4)</f>
         <v>3.3445999999999998</v>
       </c>
       <c r="O17" s="17">
-        <f>ROUND(100*(Índices!O17/Índices!O16-1),4)</f>
         <v>2.3912</v>
       </c>
       <c r="P17" s="17">
-        <f>ROUND(100*(Índices!P17/Índices!P16-1),4)</f>
         <v>3.2414999999999998</v>
       </c>
       <c r="Q17" s="17">
-        <f>ROUND(100*(Índices!Q17/Índices!Q16-1),4)</f>
         <v>0.69420000000000004</v>
       </c>
       <c r="R17" s="17">
-        <f>ROUND(100*(Índices!R17/Índices!R16-1),4)</f>
         <v>0.96350000000000002</v>
       </c>
       <c r="S17" s="17">
-        <f>ROUND(100*(Índices!S17/Índices!S16-1),4)</f>
         <v>1.8869</v>
       </c>
       <c r="T17" s="17">
-        <f>ROUND(100*(Índices!T17/Índices!T16-1),4)</f>
         <v>1.7698</v>
       </c>
       <c r="U17" s="18">
-        <f>ROUND(100*(Índices!U17/Índices!U16-1),4)</f>
         <v>1.1073999999999999</v>
       </c>
       <c r="V17" s="16">
-        <f>ROUND(100*(Índices!V17/Índices!V16-1),4)</f>
         <v>1.6093</v>
       </c>
     </row>
@@ -7296,83 +6740,63 @@
         <v>43101</v>
       </c>
       <c r="C18" s="16">
-        <f>ROUND(100*(Índices!C18/Índices!C17-1),4)</f>
         <v>1.9419</v>
       </c>
       <c r="D18" s="17">
-        <f>ROUND(100*(Índices!D18/Índices!D17-1),4)</f>
         <v>1.7645999999999999</v>
       </c>
       <c r="E18" s="17">
-        <f>ROUND(100*(Índices!E18/Índices!E17-1),4)</f>
         <v>1.9656</v>
       </c>
       <c r="F18" s="17">
-        <f>ROUND(100*(Índices!F18/Índices!F17-1),4)</f>
         <v>1.9914000000000001</v>
       </c>
       <c r="G18" s="17">
-        <f>ROUND(100*(Índices!G18/Índices!G17-1),4)</f>
         <v>2.1463000000000001</v>
       </c>
       <c r="H18" s="17">
-        <f>ROUND(100*(Índices!H18/Índices!H17-1),4)</f>
         <v>1.6739999999999999</v>
       </c>
       <c r="I18" s="18">
-        <f>ROUND(100*(Índices!I18/Índices!I17-1),4)</f>
         <v>2.931</v>
       </c>
       <c r="J18" s="17">
-        <f>ROUND(100*(Índices!J18/Índices!J17-1),4)</f>
         <v>1.6754</v>
       </c>
       <c r="K18" s="17">
-        <f>ROUND(100*(Índices!K18/Índices!K17-1),4)</f>
         <v>1.9211</v>
       </c>
       <c r="L18" s="17">
-        <f>ROUND(100*(Índices!L18/Índices!L17-1),4)</f>
         <v>2.1074999999999999</v>
       </c>
       <c r="M18" s="17">
-        <f>ROUND(100*(Índices!M18/Índices!M17-1),4)</f>
         <v>1.1691</v>
       </c>
       <c r="N18" s="17">
-        <f>ROUND(100*(Índices!N18/Índices!N17-1),4)</f>
         <v>1.6467000000000001</v>
       </c>
       <c r="O18" s="17">
-        <f>ROUND(100*(Índices!O18/Índices!O17-1),4)</f>
         <v>1.7785</v>
       </c>
       <c r="P18" s="17">
-        <f>ROUND(100*(Índices!P18/Índices!P17-1),4)</f>
         <v>2.1682999999999999</v>
       </c>
       <c r="Q18" s="17">
-        <f>ROUND(100*(Índices!Q18/Índices!Q17-1),4)</f>
         <v>1.1515</v>
       </c>
       <c r="R18" s="17">
-        <f>ROUND(100*(Índices!R18/Índices!R17-1),4)</f>
         <v>2.8725999999999998</v>
       </c>
       <c r="S18" s="17">
-        <f>ROUND(100*(Índices!S18/Índices!S17-1),4)</f>
         <v>2.5886</v>
       </c>
       <c r="T18" s="17">
-        <f>ROUND(100*(Índices!T18/Índices!T17-1),4)</f>
         <v>2.8121999999999998</v>
       </c>
       <c r="U18" s="18">
-        <f>ROUND(100*(Índices!U18/Índices!U17-1),4)</f>
         <v>2.4632000000000001</v>
       </c>
       <c r="V18" s="16">
-        <f>ROUND(100*(Índices!V18/Índices!V17-1),4)</f>
         <v>2.0897000000000001</v>
       </c>
     </row>
@@ -7381,83 +6805,63 @@
         <v>43132</v>
       </c>
       <c r="C19" s="16">
-        <f>ROUND(100*(Índices!C19/Índices!C18-1),4)</f>
         <v>2.6078000000000001</v>
       </c>
       <c r="D19" s="17">
-        <f>ROUND(100*(Índices!D19/Índices!D18-1),4)</f>
         <v>2.8723000000000001</v>
       </c>
       <c r="E19" s="17">
-        <f>ROUND(100*(Índices!E19/Índices!E18-1),4)</f>
         <v>2.4308999999999998</v>
       </c>
       <c r="F19" s="17">
-        <f>ROUND(100*(Índices!F19/Índices!F18-1),4)</f>
         <v>2.1273</v>
       </c>
       <c r="G19" s="17">
-        <f>ROUND(100*(Índices!G19/Índices!G18-1),4)</f>
         <v>2.1684999999999999</v>
       </c>
       <c r="H19" s="17">
-        <f>ROUND(100*(Índices!H19/Índices!H18-1),4)</f>
         <v>2.5796999999999999</v>
       </c>
       <c r="I19" s="18">
-        <f>ROUND(100*(Índices!I19/Índices!I18-1),4)</f>
         <v>2.3912</v>
       </c>
       <c r="J19" s="17">
-        <f>ROUND(100*(Índices!J19/Índices!J18-1),4)</f>
         <v>1.7171000000000001</v>
       </c>
       <c r="K19" s="17">
-        <f>ROUND(100*(Índices!K19/Índices!K18-1),4)</f>
         <v>2.1985000000000001</v>
       </c>
       <c r="L19" s="17">
-        <f>ROUND(100*(Índices!L19/Índices!L18-1),4)</f>
         <v>1.4261999999999999</v>
       </c>
       <c r="M19" s="17">
-        <f>ROUND(100*(Índices!M19/Índices!M18-1),4)</f>
         <v>3.7362000000000002</v>
       </c>
       <c r="N19" s="17">
-        <f>ROUND(100*(Índices!N19/Índices!N18-1),4)</f>
         <v>2.1661000000000001</v>
       </c>
       <c r="O19" s="17">
-        <f>ROUND(100*(Índices!O19/Índices!O18-1),4)</f>
         <v>2.3616999999999999</v>
       </c>
       <c r="P19" s="17">
-        <f>ROUND(100*(Índices!P19/Índices!P18-1),4)</f>
         <v>4.4785000000000004</v>
       </c>
       <c r="Q19" s="17">
-        <f>ROUND(100*(Índices!Q19/Índices!Q18-1),4)</f>
         <v>8.7888000000000002</v>
       </c>
       <c r="R19" s="17">
-        <f>ROUND(100*(Índices!R19/Índices!R18-1),4)</f>
         <v>1.8742000000000001</v>
       </c>
       <c r="S19" s="17">
-        <f>ROUND(100*(Índices!S19/Índices!S18-1),4)</f>
         <v>3.1139999999999999</v>
       </c>
       <c r="T19" s="17">
-        <f>ROUND(100*(Índices!T19/Índices!T18-1),4)</f>
         <v>2.0703</v>
       </c>
       <c r="U19" s="18">
-        <f>ROUND(100*(Índices!U19/Índices!U18-1),4)</f>
         <v>1.7981</v>
       </c>
       <c r="V19" s="16">
-        <f>ROUND(100*(Índices!V19/Índices!V18-1),4)</f>
         <v>1.7984</v>
       </c>
     </row>
@@ -7466,84 +6870,64 @@
         <v>43160</v>
       </c>
       <c r="C20" s="16">
-        <f>ROUND(100*(Índices!C20/Índices!C19-1),4)</f>
-        <v>1.6003000000000001</v>
+        <v>1.6079000000000001</v>
       </c>
       <c r="D20" s="17">
-        <f>ROUND(100*(Índices!D20/Índices!D19-1),4)</f>
         <v>1.6061000000000001</v>
       </c>
       <c r="E20" s="17">
-        <f>ROUND(100*(Índices!E20/Índices!E19-1),4)</f>
-        <v>1.2966</v>
+        <v>1.2943</v>
       </c>
       <c r="F20" s="17">
-        <f>ROUND(100*(Índices!F20/Índices!F19-1),4)</f>
-        <v>2.2069999999999999</v>
+        <v>2.3054999999999999</v>
       </c>
       <c r="G20" s="17">
-        <f>ROUND(100*(Índices!G20/Índices!G19-1),4)</f>
-        <v>1.9001999999999999</v>
+        <v>2.0044</v>
       </c>
       <c r="H20" s="17">
-        <f>ROUND(100*(Índices!H20/Índices!H19-1),4)</f>
-        <v>1.53</v>
+        <v>1.4951000000000001</v>
       </c>
       <c r="I20" s="18">
-        <f>ROUND(100*(Índices!I20/Índices!I19-1),4)</f>
         <v>2.4847000000000001</v>
       </c>
       <c r="J20" s="17">
-        <f>ROUND(100*(Índices!J20/Índices!J19-1),4)</f>
-        <v>1.3329</v>
+        <v>1.3884000000000001</v>
       </c>
       <c r="K20" s="17">
-        <f>ROUND(100*(Índices!K20/Índices!K19-1),4)</f>
-        <v>0.41299999999999998</v>
+        <v>0.30249999999999999</v>
       </c>
       <c r="L20" s="17">
-        <f>ROUND(100*(Índices!L20/Índices!L19-1),4)</f>
-        <v>2.0068000000000001</v>
+        <v>1.9258999999999999</v>
       </c>
       <c r="M20" s="17">
-        <f>ROUND(100*(Índices!M20/Índices!M19-1),4)</f>
         <v>0.54369999999999996</v>
       </c>
       <c r="N20" s="17">
-        <f>ROUND(100*(Índices!N20/Índices!N19-1),4)</f>
-        <v>4.4908999999999999</v>
+        <v>4.5092999999999996</v>
       </c>
       <c r="O20" s="17">
-        <f>ROUND(100*(Índices!O20/Índices!O19-1),4)</f>
         <v>1.3360000000000001</v>
       </c>
       <c r="P20" s="17">
-        <f>ROUND(100*(Índices!P20/Índices!P19-1),4)</f>
         <v>1.7958000000000001</v>
       </c>
       <c r="Q20" s="17">
-        <f>ROUND(100*(Índices!Q20/Índices!Q19-1),4)</f>
-        <v>2.8043999999999998</v>
+        <v>2.7772999999999999</v>
       </c>
       <c r="R20" s="17">
-        <f>ROUND(100*(Índices!R20/Índices!R19-1),4)</f>
-        <v>1.7732000000000001</v>
+        <v>1.7896000000000001</v>
       </c>
       <c r="S20" s="17">
-        <f>ROUND(100*(Índices!S20/Índices!S19-1),4)</f>
-        <v>-0.22170000000000001</v>
+        <v>-0.1351</v>
       </c>
       <c r="T20" s="17">
-        <f>ROUND(100*(Índices!T20/Índices!T19-1),4)</f>
-        <v>1.7435</v>
+        <v>1.752</v>
       </c>
       <c r="U20" s="18">
-        <f>ROUND(100*(Índices!U20/Índices!U19-1),4)</f>
-        <v>1.9031</v>
+        <v>1.9016999999999999</v>
       </c>
       <c r="V20" s="16">
-        <f>ROUND(100*(Índices!V20/Índices!V19-1),4)</f>
-        <v>1.708</v>
+        <v>1.8067</v>
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
@@ -7551,84 +6935,64 @@
         <v>43191</v>
       </c>
       <c r="C21" s="16">
-        <f>ROUND(100*(Índices!C21/Índices!C20-1),4)</f>
-        <v>2.7671999999999999</v>
+        <v>2.7519</v>
       </c>
       <c r="D21" s="17">
-        <f>ROUND(100*(Índices!D21/Índices!D20-1),4)</f>
         <v>2.6530999999999998</v>
       </c>
       <c r="E21" s="17">
-        <f>ROUND(100*(Índices!E21/Índices!E20-1),4)</f>
-        <v>2.7917000000000001</v>
+        <v>2.7963</v>
       </c>
       <c r="F21" s="17">
-        <f>ROUND(100*(Índices!F21/Índices!F20-1),4)</f>
-        <v>2.9001000000000001</v>
+        <v>2.7031000000000001</v>
       </c>
       <c r="G21" s="17">
-        <f>ROUND(100*(Índices!G21/Índices!G20-1),4)</f>
-        <v>3.0661999999999998</v>
+        <v>2.8563000000000001</v>
       </c>
       <c r="H21" s="17">
-        <f>ROUND(100*(Índices!H21/Índices!H20-1),4)</f>
-        <v>3.1677</v>
+        <v>3.2381000000000002</v>
       </c>
       <c r="I21" s="18">
-        <f>ROUND(100*(Índices!I21/Índices!I20-1),4)</f>
         <v>2.7568999999999999</v>
       </c>
       <c r="J21" s="17">
-        <f>ROUND(100*(Índices!J21/Índices!J20-1),4)</f>
-        <v>1.6155999999999999</v>
+        <v>1.5042</v>
       </c>
       <c r="K21" s="17">
-        <f>ROUND(100*(Índices!K21/Índices!K20-1),4)</f>
-        <v>1.8620000000000001</v>
+        <v>2.0865</v>
       </c>
       <c r="L21" s="17">
-        <f>ROUND(100*(Índices!L21/Índices!L20-1),4)</f>
-        <v>1.8121</v>
+        <v>1.974</v>
       </c>
       <c r="M21" s="17">
-        <f>ROUND(100*(Índices!M21/Índices!M20-1),4)</f>
         <v>8.0784000000000002</v>
       </c>
       <c r="N21" s="17">
-        <f>ROUND(100*(Índices!N21/Índices!N20-1),4)</f>
-        <v>1.6209</v>
+        <v>1.5851</v>
       </c>
       <c r="O21" s="17">
-        <f>ROUND(100*(Índices!O21/Índices!O20-1),4)</f>
         <v>1.7955000000000001</v>
       </c>
       <c r="P21" s="17">
-        <f>ROUND(100*(Índices!P21/Índices!P20-1),4)</f>
         <v>3.9805000000000001</v>
       </c>
       <c r="Q21" s="17">
-        <f>ROUND(100*(Índices!Q21/Índices!Q20-1),4)</f>
-        <v>1.3269</v>
+        <v>1.3804000000000001</v>
       </c>
       <c r="R21" s="17">
-        <f>ROUND(100*(Índices!R21/Índices!R20-1),4)</f>
-        <v>1.9938</v>
+        <v>1.9609000000000001</v>
       </c>
       <c r="S21" s="17">
-        <f>ROUND(100*(Índices!S21/Índices!S20-1),4)</f>
-        <v>2.4043999999999999</v>
+        <v>2.2267999999999999</v>
       </c>
       <c r="T21" s="17">
-        <f>ROUND(100*(Índices!T21/Índices!T20-1),4)</f>
-        <v>2.2986</v>
+        <v>2.2816000000000001</v>
       </c>
       <c r="U21" s="18">
-        <f>ROUND(100*(Índices!U21/Índices!U20-1),4)</f>
-        <v>1.7431000000000001</v>
+        <v>1.7461</v>
       </c>
       <c r="V21" s="16">
-        <f>ROUND(100*(Índices!V21/Índices!V20-1),4)</f>
-        <v>1.9981</v>
+        <v>1.8005</v>
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.25">
@@ -7636,84 +7000,64 @@
         <v>43221</v>
       </c>
       <c r="C22" s="16">
-        <f>ROUND(100*(Índices!C22/Índices!C21-1),4)</f>
-        <v>2.3944999999999999</v>
+        <v>2.4020000000000001</v>
       </c>
       <c r="D22" s="17">
-        <f>ROUND(100*(Índices!D22/Índices!D21-1),4)</f>
         <v>2.2768999999999999</v>
       </c>
       <c r="E22" s="17">
-        <f>ROUND(100*(Índices!E22/Índices!E21-1),4)</f>
-        <v>2.4390000000000001</v>
+        <v>2.4367000000000001</v>
       </c>
       <c r="F22" s="17">
-        <f>ROUND(100*(Índices!F22/Índices!F21-1),4)</f>
-        <v>2.5916999999999999</v>
+        <v>2.6894999999999998</v>
       </c>
       <c r="G22" s="17">
-        <f>ROUND(100*(Índices!G22/Índices!G21-1),4)</f>
-        <v>2.7363</v>
+        <v>2.8407</v>
       </c>
       <c r="H22" s="17">
-        <f>ROUND(100*(Índices!H22/Índices!H21-1),4)</f>
-        <v>2.1978</v>
+        <v>2.1633</v>
       </c>
       <c r="I22" s="18">
-        <f>ROUND(100*(Índices!I22/Índices!I21-1),4)</f>
         <v>2.1753</v>
       </c>
       <c r="J22" s="17">
-        <f>ROUND(100*(Índices!J22/Índices!J21-1),4)</f>
-        <v>4.0563000000000002</v>
+        <v>4.1135000000000002</v>
       </c>
       <c r="K22" s="17">
-        <f>ROUND(100*(Índices!K22/Índices!K21-1),4)</f>
-        <v>2.2869999999999999</v>
+        <v>2.1745000000000001</v>
       </c>
       <c r="L22" s="17">
-        <f>ROUND(100*(Índices!L22/Índices!L21-1),4)</f>
-        <v>2.0251999999999999</v>
+        <v>1.944</v>
       </c>
       <c r="M22" s="17">
-        <f>ROUND(100*(Índices!M22/Índices!M21-1),4)</f>
         <v>-0.70469999999999999</v>
       </c>
       <c r="N22" s="17">
-        <f>ROUND(100*(Índices!N22/Índices!N21-1),4)</f>
-        <v>2.3260999999999998</v>
+        <v>2.3441999999999998</v>
       </c>
       <c r="O22" s="17">
-        <f>ROUND(100*(Índices!O22/Índices!O21-1),4)</f>
         <v>2.2029000000000001</v>
       </c>
       <c r="P22" s="17">
-        <f>ROUND(100*(Índices!P22/Índices!P21-1),4)</f>
         <v>1.9036999999999999</v>
       </c>
       <c r="Q22" s="17">
-        <f>ROUND(100*(Índices!Q22/Índices!Q21-1),4)</f>
-        <v>4.4311999999999996</v>
+        <v>4.4036</v>
       </c>
       <c r="R22" s="17">
-        <f>ROUND(100*(Índices!R22/Índices!R21-1),4)</f>
-        <v>2.7991999999999999</v>
+        <v>2.8159000000000001</v>
       </c>
       <c r="S22" s="17">
-        <f>ROUND(100*(Índices!S22/Índices!S21-1),4)</f>
-        <v>1.6623000000000001</v>
+        <v>1.7507999999999999</v>
       </c>
       <c r="T22" s="17">
-        <f>ROUND(100*(Índices!T22/Índices!T21-1),4)</f>
-        <v>2.4243000000000001</v>
+        <v>2.4327000000000001</v>
       </c>
       <c r="U22" s="18">
-        <f>ROUND(100*(Índices!U22/Índices!U21-1),4)</f>
-        <v>2.0421</v>
+        <v>2.0406</v>
       </c>
       <c r="V22" s="16">
-        <f>ROUND(100*(Índices!V22/Índices!V21-1),4)</f>
-        <v>2.9174000000000002</v>
+        <v>3.0171999999999999</v>
       </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.25">
@@ -7721,83 +7065,63 @@
         <v>43252</v>
       </c>
       <c r="C23" s="16">
-        <f>ROUND(100*(Índices!C23/Índices!C22-1),4)</f>
         <v>3.8269000000000002</v>
       </c>
       <c r="D23" s="17">
-        <f>ROUND(100*(Índices!D23/Índices!D22-1),4)</f>
         <v>3.9824000000000002</v>
       </c>
       <c r="E23" s="17">
-        <f>ROUND(100*(Índices!E23/Índices!E22-1),4)</f>
         <v>3.9041999999999999</v>
       </c>
       <c r="F23" s="17">
-        <f>ROUND(100*(Índices!F23/Índices!F22-1),4)</f>
         <v>3.5783</v>
       </c>
       <c r="G23" s="17">
-        <f>ROUND(100*(Índices!G23/Índices!G22-1),4)</f>
         <v>3.3959999999999999</v>
       </c>
       <c r="H23" s="17">
-        <f>ROUND(100*(Índices!H23/Índices!H22-1),4)</f>
         <v>3.7269000000000001</v>
       </c>
       <c r="I23" s="18">
-        <f>ROUND(100*(Índices!I23/Índices!I22-1),4)</f>
         <v>3.3691</v>
       </c>
       <c r="J23" s="17">
-        <f>ROUND(100*(Índices!J23/Índices!J22-1),4)</f>
         <v>5.5880999999999998</v>
       </c>
       <c r="K23" s="17">
-        <f>ROUND(100*(Índices!K23/Índices!K22-1),4)</f>
         <v>1.1275999999999999</v>
       </c>
       <c r="L23" s="17">
-        <f>ROUND(100*(Índices!L23/Índices!L22-1),4)</f>
         <v>1.9531000000000001</v>
       </c>
       <c r="M23" s="17">
-        <f>ROUND(100*(Índices!M23/Índices!M22-1),4)</f>
         <v>2.597</v>
       </c>
       <c r="N23" s="17">
-        <f>ROUND(100*(Índices!N23/Índices!N22-1),4)</f>
         <v>3.7944</v>
       </c>
       <c r="O23" s="17">
-        <f>ROUND(100*(Índices!O23/Índices!O22-1),4)</f>
         <v>4.2937000000000003</v>
       </c>
       <c r="P23" s="17">
-        <f>ROUND(100*(Índices!P23/Índices!P22-1),4)</f>
         <v>5.9219999999999997</v>
       </c>
       <c r="Q23" s="17">
-        <f>ROUND(100*(Índices!Q23/Índices!Q22-1),4)</f>
         <v>0.38090000000000002</v>
       </c>
       <c r="R23" s="17">
-        <f>ROUND(100*(Índices!R23/Índices!R22-1),4)</f>
         <v>3.1398999999999999</v>
       </c>
       <c r="S23" s="17">
-        <f>ROUND(100*(Índices!S23/Índices!S22-1),4)</f>
         <v>2.4981</v>
       </c>
       <c r="T23" s="17">
-        <f>ROUND(100*(Índices!T23/Índices!T22-1),4)</f>
         <v>2.6791</v>
       </c>
       <c r="U23" s="18">
-        <f>ROUND(100*(Índices!U23/Índices!U22-1),4)</f>
         <v>3.1593</v>
       </c>
       <c r="V23" s="16">
-        <f>ROUND(100*(Índices!V23/Índices!V22-1),4)</f>
         <v>3.8776999999999999</v>
       </c>
     </row>
@@ -7806,83 +7130,63 @@
         <v>43282</v>
       </c>
       <c r="C24" s="16">
-        <f>ROUND(100*(Índices!C24/Índices!C23-1),4)</f>
         <v>3.4085000000000001</v>
       </c>
       <c r="D24" s="17">
-        <f>ROUND(100*(Índices!D24/Índices!D23-1),4)</f>
         <v>3.0062000000000002</v>
       </c>
       <c r="E24" s="17">
-        <f>ROUND(100*(Índices!E24/Índices!E23-1),4)</f>
         <v>3.7423000000000002</v>
       </c>
       <c r="F24" s="17">
-        <f>ROUND(100*(Índices!F24/Índices!F23-1),4)</f>
         <v>3.8546999999999998</v>
       </c>
       <c r="G24" s="17">
-        <f>ROUND(100*(Índices!G24/Índices!G23-1),4)</f>
         <v>3.7696999999999998</v>
       </c>
       <c r="H24" s="17">
-        <f>ROUND(100*(Índices!H24/Índices!H23-1),4)</f>
         <v>3.8086000000000002</v>
       </c>
       <c r="I24" s="18">
-        <f>ROUND(100*(Índices!I24/Índices!I23-1),4)</f>
         <v>3.2789000000000001</v>
       </c>
       <c r="J24" s="17">
-        <f>ROUND(100*(Índices!J24/Índices!J23-1),4)</f>
         <v>4.5726000000000004</v>
       </c>
       <c r="K24" s="17">
-        <f>ROUND(100*(Índices!K24/Índices!K23-1),4)</f>
         <v>2.8414000000000001</v>
       </c>
       <c r="L24" s="17">
-        <f>ROUND(100*(Índices!L24/Índices!L23-1),4)</f>
         <v>1.9656</v>
       </c>
       <c r="M24" s="17">
-        <f>ROUND(100*(Índices!M24/Índices!M23-1),4)</f>
         <v>1.0508</v>
       </c>
       <c r="N24" s="17">
-        <f>ROUND(100*(Índices!N24/Índices!N23-1),4)</f>
         <v>3.6059000000000001</v>
       </c>
       <c r="O24" s="17">
-        <f>ROUND(100*(Índices!O24/Índices!O23-1),4)</f>
         <v>2.8176000000000001</v>
       </c>
       <c r="P24" s="17">
-        <f>ROUND(100*(Índices!P24/Índices!P23-1),4)</f>
         <v>5.2266000000000004</v>
       </c>
       <c r="Q24" s="17">
-        <f>ROUND(100*(Índices!Q24/Índices!Q23-1),4)</f>
         <v>1.3478000000000001</v>
       </c>
       <c r="R24" s="17">
-        <f>ROUND(100*(Índices!R24/Índices!R23-1),4)</f>
         <v>4.3064</v>
       </c>
       <c r="S24" s="17">
-        <f>ROUND(100*(Índices!S24/Índices!S23-1),4)</f>
         <v>2.722</v>
       </c>
       <c r="T24" s="17">
-        <f>ROUND(100*(Índices!T24/Índices!T23-1),4)</f>
         <v>2.8081999999999998</v>
       </c>
       <c r="U24" s="18">
-        <f>ROUND(100*(Índices!U24/Índices!U23-1),4)</f>
         <v>3.9670999999999998</v>
       </c>
       <c r="V24" s="16">
-        <f>ROUND(100*(Índices!V24/Índices!V23-1),4)</f>
         <v>3.7290000000000001</v>
       </c>
     </row>
@@ -7891,83 +7195,63 @@
         <v>43313</v>
       </c>
       <c r="C25" s="16">
-        <f>ROUND(100*(Índices!C25/Índices!C24-1),4)</f>
         <v>3.8580000000000001</v>
       </c>
       <c r="D25" s="17">
-        <f>ROUND(100*(Índices!D25/Índices!D24-1),4)</f>
         <v>4.0613000000000001</v>
       </c>
       <c r="E25" s="17">
-        <f>ROUND(100*(Índices!E25/Índices!E24-1),4)</f>
         <v>3.8553000000000002</v>
       </c>
       <c r="F25" s="17">
-        <f>ROUND(100*(Índices!F25/Índices!F24-1),4)</f>
         <v>3.8873000000000002</v>
       </c>
       <c r="G25" s="17">
-        <f>ROUND(100*(Índices!G25/Índices!G24-1),4)</f>
         <v>3.8239000000000001</v>
       </c>
       <c r="H25" s="17">
-        <f>ROUND(100*(Índices!H25/Índices!H24-1),4)</f>
         <v>3.3936000000000002</v>
       </c>
       <c r="I25" s="18">
-        <f>ROUND(100*(Índices!I25/Índices!I24-1),4)</f>
         <v>3.4047999999999998</v>
       </c>
       <c r="J25" s="17">
-        <f>ROUND(100*(Índices!J25/Índices!J24-1),4)</f>
         <v>3.7928999999999999</v>
       </c>
       <c r="K25" s="17">
-        <f>ROUND(100*(Índices!K25/Índices!K24-1),4)</f>
         <v>1.7895000000000001</v>
       </c>
       <c r="L25" s="17">
-        <f>ROUND(100*(Índices!L25/Índices!L24-1),4)</f>
         <v>0.92759999999999998</v>
       </c>
       <c r="M25" s="17">
-        <f>ROUND(100*(Índices!M25/Índices!M24-1),4)</f>
         <v>6.0419999999999998</v>
       </c>
       <c r="N25" s="17">
-        <f>ROUND(100*(Índices!N25/Índices!N24-1),4)</f>
         <v>2.8460999999999999</v>
       </c>
       <c r="O25" s="17">
-        <f>ROUND(100*(Índices!O25/Índices!O24-1),4)</f>
         <v>4.0486000000000004</v>
       </c>
       <c r="P25" s="17">
-        <f>ROUND(100*(Índices!P25/Índices!P24-1),4)</f>
         <v>4.0677000000000003</v>
       </c>
       <c r="Q25" s="17">
-        <f>ROUND(100*(Índices!Q25/Índices!Q24-1),4)</f>
         <v>12.759</v>
       </c>
       <c r="R25" s="17">
-        <f>ROUND(100*(Índices!R25/Índices!R24-1),4)</f>
         <v>3.3771</v>
       </c>
       <c r="S25" s="17">
-        <f>ROUND(100*(Índices!S25/Índices!S24-1),4)</f>
         <v>2.3090000000000002</v>
       </c>
       <c r="T25" s="17">
-        <f>ROUND(100*(Índices!T25/Índices!T24-1),4)</f>
         <v>2.4628000000000001</v>
       </c>
       <c r="U25" s="18">
-        <f>ROUND(100*(Índices!U25/Índices!U24-1),4)</f>
         <v>4.7674000000000003</v>
       </c>
       <c r="V25" s="16">
-        <f>ROUND(100*(Índices!V25/Índices!V24-1),4)</f>
         <v>3.0457000000000001</v>
       </c>
     </row>
@@ -7976,83 +7260,63 @@
         <v>43344</v>
       </c>
       <c r="C26" s="16">
-        <f>ROUND(100*(Índices!C26/Índices!C25-1),4)</f>
         <v>5.8846999999999996</v>
       </c>
       <c r="D26" s="17">
-        <f>ROUND(100*(Índices!D26/Índices!D25-1),4)</f>
         <v>5.7710999999999997</v>
       </c>
       <c r="E26" s="17">
-        <f>ROUND(100*(Índices!E26/Índices!E25-1),4)</f>
         <v>5.8414999999999999</v>
       </c>
       <c r="F26" s="17">
-        <f>ROUND(100*(Índices!F26/Índices!F25-1),4)</f>
         <v>5.5682999999999998</v>
       </c>
       <c r="G26" s="17">
-        <f>ROUND(100*(Índices!G26/Índices!G25-1),4)</f>
         <v>6.6554000000000002</v>
       </c>
       <c r="H26" s="17">
-        <f>ROUND(100*(Índices!H26/Índices!H25-1),4)</f>
         <v>6.3659999999999997</v>
       </c>
       <c r="I26" s="18">
-        <f>ROUND(100*(Índices!I26/Índices!I25-1),4)</f>
         <v>6.0266000000000002</v>
       </c>
       <c r="J26" s="17">
-        <f>ROUND(100*(Índices!J26/Índices!J25-1),4)</f>
         <v>6.2320000000000002</v>
       </c>
       <c r="K26" s="17">
-        <f>ROUND(100*(Índices!K26/Índices!K25-1),4)</f>
         <v>2.7075</v>
       </c>
       <c r="L26" s="17">
-        <f>ROUND(100*(Índices!L26/Índices!L25-1),4)</f>
         <v>5.7488000000000001</v>
       </c>
       <c r="M26" s="17">
-        <f>ROUND(100*(Índices!M26/Índices!M25-1),4)</f>
         <v>2.3679999999999999</v>
       </c>
       <c r="N26" s="17">
-        <f>ROUND(100*(Índices!N26/Índices!N25-1),4)</f>
         <v>8.9994999999999994</v>
       </c>
       <c r="O26" s="17">
-        <f>ROUND(100*(Índices!O26/Índices!O25-1),4)</f>
         <v>4.4828999999999999</v>
       </c>
       <c r="P26" s="17">
-        <f>ROUND(100*(Índices!P26/Índices!P25-1),4)</f>
         <v>10.4033</v>
       </c>
       <c r="Q26" s="17">
-        <f>ROUND(100*(Índices!Q26/Índices!Q25-1),4)</f>
         <v>2.1206</v>
       </c>
       <c r="R26" s="17">
-        <f>ROUND(100*(Índices!R26/Índices!R25-1),4)</f>
         <v>5.7655000000000003</v>
       </c>
       <c r="S26" s="17">
-        <f>ROUND(100*(Índices!S26/Índices!S25-1),4)</f>
         <v>2.6518000000000002</v>
       </c>
       <c r="T26" s="17">
-        <f>ROUND(100*(Índices!T26/Índices!T25-1),4)</f>
         <v>5.7714999999999996</v>
       </c>
       <c r="U26" s="18">
-        <f>ROUND(100*(Índices!U26/Índices!U25-1),4)</f>
         <v>7.8433000000000002</v>
       </c>
       <c r="V26" s="16">
-        <f>ROUND(100*(Índices!V26/Índices!V25-1),4)</f>
         <v>6.2069000000000001</v>
       </c>
     </row>
@@ -8061,83 +7325,63 @@
         <v>43374</v>
       </c>
       <c r="C27" s="16">
-        <f>ROUND(100*(Índices!C27/Índices!C26-1),4)</f>
         <v>5.1303000000000001</v>
       </c>
       <c r="D27" s="17">
-        <f>ROUND(100*(Índices!D27/Índices!D26-1),4)</f>
         <v>4.7542999999999997</v>
       </c>
       <c r="E27" s="17">
-        <f>ROUND(100*(Índices!E27/Índices!E26-1),4)</f>
         <v>5.5141</v>
       </c>
       <c r="F27" s="17">
-        <f>ROUND(100*(Índices!F27/Índices!F26-1),4)</f>
         <v>5.0587</v>
       </c>
       <c r="G27" s="17">
-        <f>ROUND(100*(Índices!G27/Índices!G26-1),4)</f>
         <v>4.5179999999999998</v>
       </c>
       <c r="H27" s="17">
-        <f>ROUND(100*(Índices!H27/Índices!H26-1),4)</f>
         <v>5.8524000000000003</v>
       </c>
       <c r="I27" s="18">
-        <f>ROUND(100*(Índices!I27/Índices!I26-1),4)</f>
         <v>5.4950999999999999</v>
       </c>
       <c r="J27" s="17">
-        <f>ROUND(100*(Índices!J27/Índices!J26-1),4)</f>
         <v>5.1913999999999998</v>
       </c>
       <c r="K27" s="17">
-        <f>ROUND(100*(Índices!K27/Índices!K26-1),4)</f>
         <v>2.1421999999999999</v>
       </c>
       <c r="L27" s="17">
-        <f>ROUND(100*(Índices!L27/Índices!L26-1),4)</f>
         <v>3.9043999999999999</v>
       </c>
       <c r="M27" s="17">
-        <f>ROUND(100*(Índices!M27/Índices!M26-1),4)</f>
         <v>8.8673000000000002</v>
       </c>
       <c r="N27" s="17">
-        <f>ROUND(100*(Índices!N27/Índices!N26-1),4)</f>
         <v>3.9437000000000002</v>
       </c>
       <c r="O27" s="17">
-        <f>ROUND(100*(Índices!O27/Índices!O26-1),4)</f>
         <v>5.4348999999999998</v>
       </c>
       <c r="P27" s="17">
-        <f>ROUND(100*(Índices!P27/Índices!P26-1),4)</f>
         <v>7.6317000000000004</v>
       </c>
       <c r="Q27" s="17">
-        <f>ROUND(100*(Índices!Q27/Índices!Q26-1),4)</f>
         <v>0.66639999999999999</v>
       </c>
       <c r="R27" s="17">
-        <f>ROUND(100*(Índices!R27/Índices!R26-1),4)</f>
         <v>2.8984999999999999</v>
       </c>
       <c r="S27" s="17">
-        <f>ROUND(100*(Índices!S27/Índices!S26-1),4)</f>
         <v>2.7717999999999998</v>
       </c>
       <c r="T27" s="17">
-        <f>ROUND(100*(Índices!T27/Índices!T26-1),4)</f>
         <v>3.1259000000000001</v>
       </c>
       <c r="U27" s="18">
-        <f>ROUND(100*(Índices!U27/Índices!U26-1),4)</f>
         <v>6.1673999999999998</v>
       </c>
       <c r="V27" s="16">
-        <f>ROUND(100*(Índices!V27/Índices!V26-1),4)</f>
         <v>4.2497999999999996</v>
       </c>
     </row>
@@ -8146,83 +7390,63 @@
         <v>43405</v>
       </c>
       <c r="C28" s="16">
-        <f>ROUND(100*(Índices!C28/Índices!C27-1),4)</f>
         <v>3.4581</v>
       </c>
       <c r="D28" s="17">
-        <f>ROUND(100*(Índices!D28/Índices!D27-1),4)</f>
         <v>3.2763</v>
       </c>
       <c r="E28" s="17">
-        <f>ROUND(100*(Índices!E28/Índices!E27-1),4)</f>
         <v>3.4359999999999999</v>
       </c>
       <c r="F28" s="17">
-        <f>ROUND(100*(Índices!F28/Índices!F27-1),4)</f>
         <v>3.5707</v>
       </c>
       <c r="G28" s="17">
-        <f>ROUND(100*(Índices!G28/Índices!G27-1),4)</f>
         <v>3.2448999999999999</v>
       </c>
       <c r="H28" s="17">
-        <f>ROUND(100*(Índices!H28/Índices!H27-1),4)</f>
         <v>3.9365999999999999</v>
       </c>
       <c r="I28" s="18">
-        <f>ROUND(100*(Índices!I28/Índices!I27-1),4)</f>
         <v>4.3178000000000001</v>
       </c>
       <c r="J28" s="17">
-        <f>ROUND(100*(Índices!J28/Índices!J27-1),4)</f>
         <v>4.1722000000000001</v>
       </c>
       <c r="K28" s="17">
-        <f>ROUND(100*(Índices!K28/Índices!K27-1),4)</f>
         <v>4.0412999999999997</v>
       </c>
       <c r="L28" s="17">
-        <f>ROUND(100*(Índices!L28/Índices!L27-1),4)</f>
         <v>2.6147</v>
       </c>
       <c r="M28" s="17">
-        <f>ROUND(100*(Índices!M28/Índices!M27-1),4)</f>
         <v>2.1839</v>
       </c>
       <c r="N28" s="17">
-        <f>ROUND(100*(Índices!N28/Índices!N27-1),4)</f>
         <v>3.7765</v>
       </c>
       <c r="O28" s="17">
-        <f>ROUND(100*(Índices!O28/Índices!O27-1),4)</f>
         <v>5.6817000000000002</v>
       </c>
       <c r="P28" s="17">
-        <f>ROUND(100*(Índices!P28/Índices!P27-1),4)</f>
         <v>2.6642000000000001</v>
       </c>
       <c r="Q28" s="17">
-        <f>ROUND(100*(Índices!Q28/Índices!Q27-1),4)</f>
         <v>3.1354000000000002</v>
       </c>
       <c r="R28" s="17">
-        <f>ROUND(100*(Índices!R28/Índices!R27-1),4)</f>
         <v>3.0712999999999999</v>
       </c>
       <c r="S28" s="17">
-        <f>ROUND(100*(Índices!S28/Índices!S27-1),4)</f>
         <v>2.8401000000000001</v>
       </c>
       <c r="T28" s="17">
-        <f>ROUND(100*(Índices!T28/Índices!T27-1),4)</f>
         <v>2.6307</v>
       </c>
       <c r="U28" s="18">
-        <f>ROUND(100*(Índices!U28/Índices!U27-1),4)</f>
         <v>4.3593999999999999</v>
       </c>
       <c r="V28" s="16">
-        <f>ROUND(100*(Índices!V28/Índices!V27-1),4)</f>
         <v>3.6131000000000002</v>
       </c>
     </row>
@@ -8231,83 +7455,63 @@
         <v>43435</v>
       </c>
       <c r="C29" s="16">
-        <f>ROUND(100*(Índices!C29/Índices!C28-1),4)</f>
         <v>2.8531</v>
       </c>
       <c r="D29" s="17">
-        <f>ROUND(100*(Índices!D29/Índices!D28-1),4)</f>
         <v>3.2841</v>
       </c>
       <c r="E29" s="17">
-        <f>ROUND(100*(Índices!E29/Índices!E28-1),4)</f>
         <v>2.4883000000000002</v>
       </c>
       <c r="F29" s="17">
-        <f>ROUND(100*(Índices!F29/Índices!F28-1),4)</f>
         <v>2.4540000000000002</v>
       </c>
       <c r="G29" s="17">
-        <f>ROUND(100*(Índices!G29/Índices!G28-1),4)</f>
         <v>2.3973</v>
       </c>
       <c r="H29" s="17">
-        <f>ROUND(100*(Índices!H29/Índices!H28-1),4)</f>
         <v>2.7896999999999998</v>
       </c>
       <c r="I29" s="18">
-        <f>ROUND(100*(Índices!I29/Índices!I28-1),4)</f>
         <v>3.0670000000000002</v>
       </c>
       <c r="J29" s="17">
-        <f>ROUND(100*(Índices!J29/Índices!J28-1),4)</f>
         <v>2.2281</v>
       </c>
       <c r="K29" s="17">
-        <f>ROUND(100*(Índices!K29/Índices!K28-1),4)</f>
         <v>1.7428999999999999</v>
       </c>
       <c r="L29" s="17">
-        <f>ROUND(100*(Índices!L29/Índices!L28-1),4)</f>
         <v>2.5367000000000002</v>
       </c>
       <c r="M29" s="17">
-        <f>ROUND(100*(Índices!M29/Índices!M28-1),4)</f>
         <v>2.9171</v>
       </c>
       <c r="N29" s="17">
-        <f>ROUND(100*(Índices!N29/Índices!N28-1),4)</f>
         <v>2.2403</v>
       </c>
       <c r="O29" s="17">
-        <f>ROUND(100*(Índices!O29/Índices!O28-1),4)</f>
         <v>5.2541000000000002</v>
       </c>
       <c r="P29" s="17">
-        <f>ROUND(100*(Índices!P29/Índices!P28-1),4)</f>
         <v>2.3797999999999999</v>
       </c>
       <c r="Q29" s="17">
-        <f>ROUND(100*(Índices!Q29/Índices!Q28-1),4)</f>
         <v>6.6726999999999999</v>
       </c>
       <c r="R29" s="17">
-        <f>ROUND(100*(Índices!R29/Índices!R28-1),4)</f>
         <v>2.8138999999999998</v>
       </c>
       <c r="S29" s="17">
-        <f>ROUND(100*(Índices!S29/Índices!S28-1),4)</f>
         <v>3.0204</v>
       </c>
       <c r="T29" s="17">
-        <f>ROUND(100*(Índices!T29/Índices!T28-1),4)</f>
         <v>2.6236000000000002</v>
       </c>
       <c r="U29" s="18">
-        <f>ROUND(100*(Índices!U29/Índices!U28-1),4)</f>
         <v>3.4365000000000001</v>
       </c>
       <c r="V29" s="16">
-        <f>ROUND(100*(Índices!V29/Índices!V28-1),4)</f>
         <v>2.423</v>
       </c>
     </row>
@@ -8316,83 +7520,63 @@
         <v>43466</v>
       </c>
       <c r="C30" s="16">
-        <f>ROUND(100*(Índices!C30/Índices!C29-1),4)</f>
         <v>3.0928</v>
       </c>
       <c r="D30" s="17">
-        <f>ROUND(100*(Índices!D30/Índices!D29-1),4)</f>
         <v>3.0110000000000001</v>
       </c>
       <c r="E30" s="17">
-        <f>ROUND(100*(Índices!E30/Índices!E29-1),4)</f>
         <v>2.9376000000000002</v>
       </c>
       <c r="F30" s="17">
-        <f>ROUND(100*(Índices!F30/Índices!F29-1),4)</f>
         <v>3.2831999999999999</v>
       </c>
       <c r="G30" s="17">
-        <f>ROUND(100*(Índices!G30/Índices!G29-1),4)</f>
         <v>3.6076999999999999</v>
       </c>
       <c r="H30" s="17">
-        <f>ROUND(100*(Índices!H30/Índices!H29-1),4)</f>
         <v>3.0973999999999999</v>
       </c>
       <c r="I30" s="18">
-        <f>ROUND(100*(Índices!I30/Índices!I29-1),4)</f>
         <v>3.4205999999999999</v>
       </c>
       <c r="J30" s="17">
-        <f>ROUND(100*(Índices!J30/Índices!J29-1),4)</f>
         <v>2.9780000000000002</v>
       </c>
       <c r="K30" s="17">
-        <f>ROUND(100*(Índices!K30/Índices!K29-1),4)</f>
         <v>3.1905999999999999</v>
       </c>
       <c r="L30" s="17">
-        <f>ROUND(100*(Índices!L30/Índices!L29-1),4)</f>
         <v>2.3508</v>
       </c>
       <c r="M30" s="17">
-        <f>ROUND(100*(Índices!M30/Índices!M29-1),4)</f>
         <v>3.1783000000000001</v>
       </c>
       <c r="N30" s="17">
-        <f>ROUND(100*(Índices!N30/Índices!N29-1),4)</f>
         <v>3.3378000000000001</v>
       </c>
       <c r="O30" s="17">
-        <f>ROUND(100*(Índices!O30/Índices!O29-1),4)</f>
         <v>2.9489999999999998</v>
       </c>
       <c r="P30" s="17">
-        <f>ROUND(100*(Índices!P30/Índices!P29-1),4)</f>
         <v>2.4487999999999999</v>
       </c>
       <c r="Q30" s="17">
-        <f>ROUND(100*(Índices!Q30/Índices!Q29-1),4)</f>
         <v>6.5342000000000002</v>
       </c>
       <c r="R30" s="17">
-        <f>ROUND(100*(Índices!R30/Índices!R29-1),4)</f>
         <v>2.9297</v>
       </c>
       <c r="S30" s="17">
-        <f>ROUND(100*(Índices!S30/Índices!S29-1),4)</f>
         <v>2.7490999999999999</v>
       </c>
       <c r="T30" s="17">
-        <f>ROUND(100*(Índices!T30/Índices!T29-1),4)</f>
         <v>3.6095999999999999</v>
       </c>
       <c r="U30" s="18">
-        <f>ROUND(100*(Índices!U30/Índices!U29-1),4)</f>
         <v>3.6778</v>
       </c>
       <c r="V30" s="16">
-        <f>ROUND(100*(Índices!V30/Índices!V29-1),4)</f>
         <v>3.0381</v>
       </c>
     </row>
@@ -8401,83 +7585,63 @@
         <v>43497</v>
       </c>
       <c r="C31" s="16">
-        <f>ROUND(100*(Índices!C31/Índices!C30-1),4)</f>
         <v>3.9001999999999999</v>
       </c>
       <c r="D31" s="17">
-        <f>ROUND(100*(Índices!D31/Índices!D30-1),4)</f>
         <v>4.0902000000000003</v>
       </c>
       <c r="E31" s="17">
-        <f>ROUND(100*(Índices!E31/Índices!E30-1),4)</f>
         <v>3.6560999999999999</v>
       </c>
       <c r="F31" s="17">
-        <f>ROUND(100*(Índices!F31/Índices!F30-1),4)</f>
         <v>4.2812999999999999</v>
       </c>
       <c r="G31" s="17">
-        <f>ROUND(100*(Índices!G31/Índices!G30-1),4)</f>
         <v>4.5891999999999999</v>
       </c>
       <c r="H31" s="17">
-        <f>ROUND(100*(Índices!H31/Índices!H30-1),4)</f>
         <v>3.7109000000000001</v>
       </c>
       <c r="I31" s="18">
-        <f>ROUND(100*(Índices!I31/Índices!I30-1),4)</f>
         <v>3.2921</v>
       </c>
       <c r="J31" s="17">
-        <f>ROUND(100*(Índices!J31/Índices!J30-1),4)</f>
         <v>5.2058999999999997</v>
       </c>
       <c r="K31" s="17">
-        <f>ROUND(100*(Índices!K31/Índices!K30-1),4)</f>
         <v>2.9113000000000002</v>
       </c>
       <c r="L31" s="17">
-        <f>ROUND(100*(Índices!L31/Índices!L30-1),4)</f>
         <v>3.097</v>
       </c>
       <c r="M31" s="17">
-        <f>ROUND(100*(Índices!M31/Índices!M30-1),4)</f>
         <v>6.3657000000000004</v>
       </c>
       <c r="N31" s="17">
-        <f>ROUND(100*(Índices!N31/Índices!N30-1),4)</f>
         <v>3.1572</v>
       </c>
       <c r="O31" s="17">
-        <f>ROUND(100*(Índices!O31/Índices!O30-1),4)</f>
         <v>3.1886000000000001</v>
       </c>
       <c r="P31" s="17">
-        <f>ROUND(100*(Índices!P31/Índices!P30-1),4)</f>
         <v>2.1696</v>
       </c>
       <c r="Q31" s="17">
-        <f>ROUND(100*(Índices!Q31/Índices!Q30-1),4)</f>
         <v>0.90049999999999997</v>
       </c>
       <c r="R31" s="17">
-        <f>ROUND(100*(Índices!R31/Índices!R30-1),4)</f>
         <v>3.0922000000000001</v>
       </c>
       <c r="S31" s="17">
-        <f>ROUND(100*(Índices!S31/Índices!S30-1),4)</f>
         <v>2.8429000000000002</v>
       </c>
       <c r="T31" s="17">
-        <f>ROUND(100*(Índices!T31/Índices!T30-1),4)</f>
         <v>3.6137999999999999</v>
       </c>
       <c r="U31" s="18">
-        <f>ROUND(100*(Índices!U31/Índices!U30-1),4)</f>
         <v>3.1339000000000001</v>
       </c>
       <c r="V31" s="16">
-        <f>ROUND(100*(Índices!V31/Índices!V30-1),4)</f>
         <v>4.0686999999999998</v>
       </c>
     </row>
@@ -8486,84 +7650,64 @@
         <v>43525</v>
       </c>
       <c r="C32" s="16">
-        <f>ROUND(100*(Índices!C32/Índices!C31-1),4)</f>
-        <v>3.9346999999999999</v>
+        <v>3.9302000000000001</v>
       </c>
       <c r="D32" s="17">
-        <f>ROUND(100*(Índices!D32/Índices!D31-1),4)</f>
         <v>3.9203999999999999</v>
       </c>
       <c r="E32" s="17">
-        <f>ROUND(100*(Índices!E32/Índices!E31-1),4)</f>
-        <v>3.8561000000000001</v>
+        <v>3.8559000000000001</v>
       </c>
       <c r="F32" s="17">
-        <f>ROUND(100*(Índices!F32/Índices!F31-1),4)</f>
-        <v>4.1120000000000001</v>
+        <v>4.0631000000000004</v>
       </c>
       <c r="G32" s="17">
-        <f>ROUND(100*(Índices!G32/Índices!G31-1),4)</f>
-        <v>4.7972999999999999</v>
+        <v>4.7443</v>
       </c>
       <c r="H32" s="17">
-        <f>ROUND(100*(Índices!H32/Índices!H31-1),4)</f>
-        <v>3.8022</v>
+        <v>3.8138000000000001</v>
       </c>
       <c r="I32" s="18">
-        <f>ROUND(100*(Índices!I32/Índices!I31-1),4)</f>
         <v>3.7122999999999999</v>
       </c>
       <c r="J32" s="17">
-        <f>ROUND(100*(Índices!J32/Índices!J31-1),4)</f>
-        <v>5.0361000000000002</v>
+        <v>5.0096999999999996</v>
       </c>
       <c r="K32" s="17">
-        <f>ROUND(100*(Índices!K32/Índices!K31-1),4)</f>
-        <v>3.4971000000000001</v>
+        <v>3.5488</v>
       </c>
       <c r="L32" s="17">
-        <f>ROUND(100*(Índices!L32/Índices!L31-1),4)</f>
-        <v>3.7429000000000001</v>
+        <v>3.7799</v>
       </c>
       <c r="M32" s="17">
-        <f>ROUND(100*(Índices!M32/Índices!M31-1),4)</f>
         <v>2.7755000000000001</v>
       </c>
       <c r="N32" s="17">
-        <f>ROUND(100*(Índices!N32/Índices!N31-1),4)</f>
-        <v>3.8422000000000001</v>
+        <v>3.8338999999999999</v>
       </c>
       <c r="O32" s="17">
-        <f>ROUND(100*(Índices!O32/Índices!O31-1),4)</f>
         <v>3.2795000000000001</v>
       </c>
       <c r="P32" s="17">
-        <f>ROUND(100*(Índices!P32/Índices!P31-1),4)</f>
         <v>4.1666999999999996</v>
       </c>
       <c r="Q32" s="17">
-        <f>ROUND(100*(Índices!Q32/Índices!Q31-1),4)</f>
-        <v>4.3742999999999999</v>
+        <v>4.3867000000000003</v>
       </c>
       <c r="R32" s="17">
-        <f>ROUND(100*(Índices!R32/Índices!R31-1),4)</f>
-        <v>2.5304000000000002</v>
+        <v>2.5230000000000001</v>
       </c>
       <c r="S32" s="17">
-        <f>ROUND(100*(Índices!S32/Índices!S31-1),4)</f>
-        <v>2.9422999999999999</v>
+        <v>2.9028999999999998</v>
       </c>
       <c r="T32" s="17">
-        <f>ROUND(100*(Índices!T32/Índices!T31-1),4)</f>
-        <v>4.3343999999999996</v>
+        <v>4.3304</v>
       </c>
       <c r="U32" s="18">
-        <f>ROUND(100*(Índices!U32/Índices!U31-1),4)</f>
-        <v>3.1198000000000001</v>
+        <v>3.1204999999999998</v>
       </c>
       <c r="V32" s="16">
-        <f>ROUND(100*(Índices!V32/Índices!V31-1),4)</f>
-        <v>4.2465000000000002</v>
+        <v>4.1976000000000004</v>
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
@@ -8571,84 +7715,64 @@
         <v>43556</v>
       </c>
       <c r="C33" s="16">
-        <f>ROUND(100*(Índices!C33/Índices!C32-1),4)</f>
-        <v>3.4502000000000002</v>
+        <v>3.4590000000000001</v>
       </c>
       <c r="D33" s="17">
-        <f>ROUND(100*(Índices!D33/Índices!D32-1),4)</f>
         <v>3.3155000000000001</v>
       </c>
       <c r="E33" s="17">
-        <f>ROUND(100*(Índices!E33/Índices!E32-1),4)</f>
-        <v>3.6291000000000002</v>
+        <v>3.6294</v>
       </c>
       <c r="F33" s="17">
-        <f>ROUND(100*(Índices!F33/Índices!F32-1),4)</f>
-        <v>3.4291</v>
+        <v>3.5257999999999998</v>
       </c>
       <c r="G33" s="17">
-        <f>ROUND(100*(Índices!G33/Índices!G32-1),4)</f>
-        <v>3.5724999999999998</v>
+        <v>3.6775000000000002</v>
       </c>
       <c r="H33" s="17">
-        <f>ROUND(100*(Índices!H33/Índices!H32-1),4)</f>
-        <v>3.2728999999999999</v>
+        <v>3.2496</v>
       </c>
       <c r="I33" s="18">
-        <f>ROUND(100*(Índices!I33/Índices!I32-1),4)</f>
         <v>3.5853999999999999</v>
       </c>
       <c r="J33" s="17">
-        <f>ROUND(100*(Índices!J33/Índices!J32-1),4)</f>
-        <v>2.7803</v>
+        <v>2.8319999999999999</v>
       </c>
       <c r="K33" s="17">
-        <f>ROUND(100*(Índices!K33/Índices!K32-1),4)</f>
-        <v>2.0036999999999998</v>
+        <v>1.9020999999999999</v>
       </c>
       <c r="L33" s="17">
-        <f>ROUND(100*(Índices!L33/Índices!L32-1),4)</f>
-        <v>4.2018000000000004</v>
+        <v>4.1275000000000004</v>
       </c>
       <c r="M33" s="17">
-        <f>ROUND(100*(Índices!M33/Índices!M32-1),4)</f>
         <v>2.9188999999999998</v>
       </c>
       <c r="N33" s="17">
-        <f>ROUND(100*(Índices!N33/Índices!N32-1),4)</f>
-        <v>4.8827999999999996</v>
+        <v>4.8997000000000002</v>
       </c>
       <c r="O33" s="17">
-        <f>ROUND(100*(Índices!O33/Índices!O32-1),4)</f>
         <v>3.5154000000000001</v>
       </c>
       <c r="P33" s="17">
-        <f>ROUND(100*(Índices!P33/Índices!P32-1),4)</f>
         <v>4.3741000000000003</v>
       </c>
       <c r="Q33" s="17">
-        <f>ROUND(100*(Índices!Q33/Índices!Q32-1),4)</f>
-        <v>3.9157000000000002</v>
+        <v>3.8908999999999998</v>
       </c>
       <c r="R33" s="17">
-        <f>ROUND(100*(Índices!R33/Índices!R32-1),4)</f>
-        <v>3.2679999999999998</v>
+        <v>3.2827999999999999</v>
       </c>
       <c r="S33" s="17">
-        <f>ROUND(100*(Índices!S33/Índices!S32-1),4)</f>
-        <v>2.9174000000000002</v>
+        <v>2.9965000000000002</v>
       </c>
       <c r="T33" s="17">
-        <f>ROUND(100*(Índices!T33/Índices!T32-1),4)</f>
-        <v>4.0616000000000003</v>
+        <v>4.0696000000000003</v>
       </c>
       <c r="U33" s="18">
-        <f>ROUND(100*(Índices!U33/Índices!U32-1),4)</f>
-        <v>3.0327999999999999</v>
+        <v>3.0314000000000001</v>
       </c>
       <c r="V33" s="16">
-        <f>ROUND(100*(Índices!V33/Índices!V32-1),4)</f>
-        <v>3.2896999999999998</v>
+        <v>3.3864999999999998</v>
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
@@ -8656,84 +7780,64 @@
         <v>43586</v>
       </c>
       <c r="C34" s="16">
-        <f>ROUND(100*(Índices!C34/Índices!C33-1),4)</f>
-        <v>3.3919999999999999</v>
+        <v>3.3877000000000002</v>
       </c>
       <c r="D34" s="17">
-        <f>ROUND(100*(Índices!D34/Índices!D33-1),4)</f>
         <v>3.3801000000000001</v>
       </c>
       <c r="E34" s="17">
-        <f>ROUND(100*(Índices!E34/Índices!E33-1),4)</f>
-        <v>3.2027000000000001</v>
+        <v>3.2025999999999999</v>
       </c>
       <c r="F34" s="17">
-        <f>ROUND(100*(Índices!F34/Índices!F33-1),4)</f>
-        <v>4.3193000000000001</v>
+        <v>4.2708000000000004</v>
       </c>
       <c r="G34" s="17">
-        <f>ROUND(100*(Índices!G34/Índices!G33-1),4)</f>
-        <v>3.1503000000000001</v>
+        <v>3.0979999999999999</v>
       </c>
       <c r="H34" s="17">
-        <f>ROUND(100*(Índices!H34/Índices!H33-1),4)</f>
-        <v>3.2187000000000001</v>
+        <v>3.2305000000000001</v>
       </c>
       <c r="I34" s="18">
-        <f>ROUND(100*(Índices!I34/Índices!I33-1),4)</f>
         <v>3.6476000000000002</v>
       </c>
       <c r="J34" s="17">
-        <f>ROUND(100*(Índices!J34/Índices!J33-1),4)</f>
-        <v>3.2845</v>
+        <v>3.2585000000000002</v>
       </c>
       <c r="K34" s="17">
-        <f>ROUND(100*(Índices!K34/Índices!K33-1),4)</f>
-        <v>2.6798999999999999</v>
+        <v>2.7309999999999999</v>
       </c>
       <c r="L34" s="17">
-        <f>ROUND(100*(Índices!L34/Índices!L33-1),4)</f>
-        <v>3.4828999999999999</v>
+        <v>3.5198</v>
       </c>
       <c r="M34" s="17">
-        <f>ROUND(100*(Índices!M34/Índices!M33-1),4)</f>
         <v>4</v>
       </c>
       <c r="N34" s="17">
-        <f>ROUND(100*(Índices!N34/Índices!N33-1),4)</f>
-        <v>3.3813</v>
+        <v>3.3730000000000002</v>
       </c>
       <c r="O34" s="17">
-        <f>ROUND(100*(Índices!O34/Índices!O33-1),4)</f>
         <v>5.0635000000000003</v>
       </c>
       <c r="P34" s="17">
-        <f>ROUND(100*(Índices!P34/Índices!P33-1),4)</f>
         <v>3.5078</v>
       </c>
       <c r="Q34" s="17">
-        <f>ROUND(100*(Índices!Q34/Índices!Q33-1),4)</f>
-        <v>2.4073000000000002</v>
+        <v>2.4197000000000002</v>
       </c>
       <c r="R34" s="17">
-        <f>ROUND(100*(Índices!R34/Índices!R33-1),4)</f>
-        <v>2.6223000000000001</v>
+        <v>2.6149</v>
       </c>
       <c r="S34" s="17">
-        <f>ROUND(100*(Índices!S34/Índices!S33-1),4)</f>
-        <v>4.2348999999999997</v>
+        <v>4.1947000000000001</v>
       </c>
       <c r="T34" s="17">
-        <f>ROUND(100*(Índices!T34/Índices!T33-1),4)</f>
-        <v>2.2479</v>
+        <v>2.2440000000000002</v>
       </c>
       <c r="U34" s="18">
-        <f>ROUND(100*(Índices!U34/Índices!U33-1),4)</f>
-        <v>2.8673000000000002</v>
+        <v>2.8679999999999999</v>
       </c>
       <c r="V34" s="16">
-        <f>ROUND(100*(Índices!V34/Índices!V33-1),4)</f>
-        <v>3.0945</v>
+        <v>3.0464000000000002</v>
       </c>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
@@ -8741,83 +7845,63 @@
         <v>43617</v>
       </c>
       <c r="C35" s="16">
-        <f>ROUND(100*(Índices!C35/Índices!C34-1),4)</f>
         <v>2.8654000000000002</v>
       </c>
       <c r="D35" s="17">
-        <f>ROUND(100*(Índices!D35/Índices!D34-1),4)</f>
         <v>2.6873999999999998</v>
       </c>
       <c r="E35" s="17">
-        <f>ROUND(100*(Índices!E35/Índices!E34-1),4)</f>
         <v>3.0230000000000001</v>
       </c>
       <c r="F35" s="17">
-        <f>ROUND(100*(Índices!F35/Índices!F34-1),4)</f>
         <v>3.0447000000000002</v>
       </c>
       <c r="G35" s="17">
-        <f>ROUND(100*(Índices!G35/Índices!G34-1),4)</f>
         <v>3.2442000000000002</v>
       </c>
       <c r="H35" s="17">
-        <f>ROUND(100*(Índices!H35/Índices!H34-1),4)</f>
         <v>2.7240000000000002</v>
       </c>
       <c r="I35" s="18">
-        <f>ROUND(100*(Índices!I35/Índices!I34-1),4)</f>
         <v>2.8702000000000001</v>
       </c>
       <c r="J35" s="17">
-        <f>ROUND(100*(Índices!J35/Índices!J34-1),4)</f>
         <v>3.0324</v>
       </c>
       <c r="K35" s="17">
-        <f>ROUND(100*(Índices!K35/Índices!K34-1),4)</f>
         <v>2.8738000000000001</v>
       </c>
       <c r="L35" s="17">
-        <f>ROUND(100*(Índices!L35/Índices!L34-1),4)</f>
         <v>1.8683000000000001</v>
       </c>
       <c r="M35" s="17">
-        <f>ROUND(100*(Índices!M35/Índices!M34-1),4)</f>
         <v>2.7084999999999999</v>
       </c>
       <c r="N35" s="17">
-        <f>ROUND(100*(Índices!N35/Índices!N34-1),4)</f>
         <v>3.1353</v>
       </c>
       <c r="O35" s="17">
-        <f>ROUND(100*(Índices!O35/Índices!O34-1),4)</f>
         <v>3.5640999999999998</v>
       </c>
       <c r="P35" s="17">
-        <f>ROUND(100*(Índices!P35/Índices!P34-1),4)</f>
         <v>1.5529999999999999</v>
       </c>
       <c r="Q35" s="17">
-        <f>ROUND(100*(Índices!Q35/Índices!Q34-1),4)</f>
         <v>7.1497000000000002</v>
       </c>
       <c r="R35" s="17">
-        <f>ROUND(100*(Índices!R35/Índices!R34-1),4)</f>
         <v>3.5379</v>
       </c>
       <c r="S35" s="17">
-        <f>ROUND(100*(Índices!S35/Índices!S34-1),4)</f>
         <v>3.1695000000000002</v>
       </c>
       <c r="T35" s="17">
-        <f>ROUND(100*(Índices!T35/Índices!T34-1),4)</f>
         <v>2.5442</v>
       </c>
       <c r="U35" s="18">
-        <f>ROUND(100*(Índices!U35/Índices!U34-1),4)</f>
         <v>2.0996999999999999</v>
       </c>
       <c r="V35" s="16">
-        <f>ROUND(100*(Índices!V35/Índices!V34-1),4)</f>
         <v>2.8068</v>
       </c>
     </row>
@@ -8826,83 +7910,63 @@
         <v>43647</v>
       </c>
       <c r="C36" s="16">
-        <f>ROUND(100*(Índices!C36/Índices!C35-1),4)</f>
         <v>2.4794999999999998</v>
       </c>
       <c r="D36" s="17">
-        <f>ROUND(100*(Índices!D36/Índices!D35-1),4)</f>
         <v>2.3357999999999999</v>
       </c>
       <c r="E36" s="17">
-        <f>ROUND(100*(Índices!E36/Índices!E35-1),4)</f>
         <v>2.6086</v>
       </c>
       <c r="F36" s="17">
-        <f>ROUND(100*(Índices!F36/Índices!F35-1),4)</f>
         <v>2.3628</v>
       </c>
       <c r="G36" s="17">
-        <f>ROUND(100*(Índices!G36/Índices!G35-1),4)</f>
         <v>2.1501000000000001</v>
       </c>
       <c r="H36" s="17">
-        <f>ROUND(100*(Índices!H36/Índices!H35-1),4)</f>
         <v>2.9468000000000001</v>
       </c>
       <c r="I36" s="18">
-        <f>ROUND(100*(Índices!I36/Índices!I35-1),4)</f>
         <v>2.5545</v>
       </c>
       <c r="J36" s="17">
-        <f>ROUND(100*(Índices!J36/Índices!J35-1),4)</f>
         <v>2.8140000000000001</v>
       </c>
       <c r="K36" s="17">
-        <f>ROUND(100*(Índices!K36/Índices!K35-1),4)</f>
         <v>1.1634</v>
       </c>
       <c r="L36" s="17">
-        <f>ROUND(100*(Índices!L36/Índices!L35-1),4)</f>
         <v>2.3647999999999998</v>
       </c>
       <c r="M36" s="17">
-        <f>ROUND(100*(Índices!M36/Índices!M35-1),4)</f>
         <v>2.1815000000000002</v>
       </c>
       <c r="N36" s="17">
-        <f>ROUND(100*(Índices!N36/Índices!N35-1),4)</f>
         <v>1.9109</v>
       </c>
       <c r="O36" s="17">
-        <f>ROUND(100*(Índices!O36/Índices!O35-1),4)</f>
         <v>4.1151999999999997</v>
       </c>
       <c r="P36" s="17">
-        <f>ROUND(100*(Índices!P36/Índices!P35-1),4)</f>
         <v>1.1693</v>
       </c>
       <c r="Q36" s="17">
-        <f>ROUND(100*(Índices!Q36/Índices!Q35-1),4)</f>
         <v>0.83250000000000002</v>
       </c>
       <c r="R36" s="17">
-        <f>ROUND(100*(Índices!R36/Índices!R35-1),4)</f>
         <v>3.1495000000000002</v>
       </c>
       <c r="S36" s="17">
-        <f>ROUND(100*(Índices!S36/Índices!S35-1),4)</f>
         <v>2.8601999999999999</v>
       </c>
       <c r="T36" s="17">
-        <f>ROUND(100*(Índices!T36/Índices!T35-1),4)</f>
         <v>2.9062000000000001</v>
       </c>
       <c r="U36" s="18">
-        <f>ROUND(100*(Índices!U36/Índices!U35-1),4)</f>
         <v>2.7121</v>
       </c>
       <c r="V36" s="16">
-        <f>ROUND(100*(Índices!V36/Índices!V35-1),4)</f>
         <v>2.6156000000000001</v>
       </c>
     </row>
@@ -8911,83 +7975,63 @@
         <v>43678</v>
       </c>
       <c r="C37" s="16">
-        <f>ROUND(100*(Índices!C37/Índices!C36-1),4)</f>
         <v>3.9325999999999999</v>
       </c>
       <c r="D37" s="17">
-        <f>ROUND(100*(Índices!D37/Índices!D36-1),4)</f>
         <v>3.8304999999999998</v>
       </c>
       <c r="E37" s="17">
-        <f>ROUND(100*(Índices!E37/Índices!E36-1),4)</f>
         <v>3.9510999999999998</v>
       </c>
       <c r="F37" s="17">
-        <f>ROUND(100*(Índices!F37/Índices!F36-1),4)</f>
         <v>4.0313999999999997</v>
       </c>
       <c r="G37" s="17">
-        <f>ROUND(100*(Índices!G37/Índices!G36-1),4)</f>
         <v>4.2765000000000004</v>
       </c>
       <c r="H37" s="17">
-        <f>ROUND(100*(Índices!H37/Índices!H36-1),4)</f>
         <v>4.3518999999999997</v>
       </c>
       <c r="I37" s="18">
-        <f>ROUND(100*(Índices!I37/Índices!I36-1),4)</f>
         <v>3.9556</v>
       </c>
       <c r="J37" s="17">
-        <f>ROUND(100*(Índices!J37/Índices!J36-1),4)</f>
         <v>4.3106999999999998</v>
       </c>
       <c r="K37" s="17">
-        <f>ROUND(100*(Índices!K37/Índices!K36-1),4)</f>
         <v>4.7382</v>
       </c>
       <c r="L37" s="17">
-        <f>ROUND(100*(Índices!L37/Índices!L36-1),4)</f>
         <v>3.4828999999999999</v>
       </c>
       <c r="M37" s="17">
-        <f>ROUND(100*(Índices!M37/Índices!M36-1),4)</f>
         <v>2.1528</v>
       </c>
       <c r="N37" s="17">
-        <f>ROUND(100*(Índices!N37/Índices!N36-1),4)</f>
         <v>5.7979000000000003</v>
       </c>
       <c r="O37" s="17">
-        <f>ROUND(100*(Índices!O37/Índices!O36-1),4)</f>
         <v>5.1767000000000003</v>
       </c>
       <c r="P37" s="17">
-        <f>ROUND(100*(Índices!P37/Índices!P36-1),4)</f>
         <v>3.9525000000000001</v>
       </c>
       <c r="Q37" s="17">
-        <f>ROUND(100*(Índices!Q37/Índices!Q36-1),4)</f>
         <v>1.5553999999999999</v>
       </c>
       <c r="R37" s="17">
-        <f>ROUND(100*(Índices!R37/Índices!R36-1),4)</f>
         <v>4.0955000000000004</v>
       </c>
       <c r="S37" s="17">
-        <f>ROUND(100*(Índices!S37/Índices!S36-1),4)</f>
         <v>2.8633000000000002</v>
       </c>
       <c r="T37" s="17">
-        <f>ROUND(100*(Índices!T37/Índices!T36-1),4)</f>
         <v>3.6257000000000001</v>
       </c>
       <c r="U37" s="18">
-        <f>ROUND(100*(Índices!U37/Índices!U36-1),4)</f>
         <v>4.2965</v>
       </c>
       <c r="V37" s="16">
-        <f>ROUND(100*(Índices!V37/Índices!V36-1),4)</f>
         <v>4.2591999999999999</v>
       </c>
     </row>
@@ -8996,83 +8040,63 @@
         <v>43709</v>
       </c>
       <c r="C38" s="16">
-        <f>ROUND(100*(Índices!C38/Índices!C37-1),4)</f>
         <v>5.2901999999999996</v>
       </c>
       <c r="D38" s="17">
-        <f>ROUND(100*(Índices!D38/Índices!D37-1),4)</f>
         <v>5.0342000000000002</v>
       </c>
       <c r="E38" s="17">
-        <f>ROUND(100*(Índices!E38/Índices!E37-1),4)</f>
         <v>5.5945</v>
       </c>
       <c r="F38" s="17">
-        <f>ROUND(100*(Índices!F38/Índices!F37-1),4)</f>
         <v>5.4627999999999997</v>
       </c>
       <c r="G38" s="17">
-        <f>ROUND(100*(Índices!G38/Índices!G37-1),4)</f>
         <v>5.5879000000000003</v>
       </c>
       <c r="H38" s="17">
-        <f>ROUND(100*(Índices!H38/Índices!H37-1),4)</f>
         <v>5.3902000000000001</v>
       </c>
       <c r="I38" s="18">
-        <f>ROUND(100*(Índices!I38/Índices!I37-1),4)</f>
         <v>4.7605000000000004</v>
       </c>
       <c r="J38" s="17">
-        <f>ROUND(100*(Índices!J38/Índices!J37-1),4)</f>
         <v>4.9607000000000001</v>
       </c>
       <c r="K38" s="17">
-        <f>ROUND(100*(Índices!K38/Índices!K37-1),4)</f>
         <v>3.9011</v>
       </c>
       <c r="L38" s="17">
-        <f>ROUND(100*(Índices!L38/Índices!L37-1),4)</f>
         <v>5.8593999999999999</v>
       </c>
       <c r="M38" s="17">
-        <f>ROUND(100*(Índices!M38/Índices!M37-1),4)</f>
         <v>2.0114999999999998</v>
       </c>
       <c r="N38" s="17">
-        <f>ROUND(100*(Índices!N38/Índices!N37-1),4)</f>
         <v>6.7221000000000002</v>
       </c>
       <c r="O38" s="17">
-        <f>ROUND(100*(Índices!O38/Índices!O37-1),4)</f>
         <v>8.3053000000000008</v>
       </c>
       <c r="P38" s="17">
-        <f>ROUND(100*(Índices!P38/Índices!P37-1),4)</f>
         <v>4.7183000000000002</v>
       </c>
       <c r="Q38" s="17">
-        <f>ROUND(100*(Índices!Q38/Índices!Q37-1),4)</f>
         <v>6.7811000000000003</v>
       </c>
       <c r="R38" s="17">
-        <f>ROUND(100*(Índices!R38/Índices!R37-1),4)</f>
         <v>6.7510000000000003</v>
       </c>
       <c r="S38" s="17">
-        <f>ROUND(100*(Índices!S38/Índices!S37-1),4)</f>
         <v>2.2890000000000001</v>
       </c>
       <c r="T38" s="17">
-        <f>ROUND(100*(Índices!T38/Índices!T37-1),4)</f>
         <v>5.2911999999999999</v>
       </c>
       <c r="U38" s="18">
-        <f>ROUND(100*(Índices!U38/Índices!U37-1),4)</f>
         <v>8.1389999999999993</v>
       </c>
       <c r="V38" s="16">
-        <f>ROUND(100*(Índices!V38/Índices!V37-1),4)</f>
         <v>5.6048999999999998</v>
       </c>
     </row>
@@ -9081,83 +8105,63 @@
         <v>43739</v>
       </c>
       <c r="C39" s="16">
-        <f>ROUND(100*(Índices!C39/Índices!C38-1),4)</f>
         <v>3.0234000000000001</v>
       </c>
       <c r="D39" s="17">
-        <f>ROUND(100*(Índices!D39/Índices!D38-1),4)</f>
         <v>2.8837999999999999</v>
       </c>
       <c r="E39" s="17">
-        <f>ROUND(100*(Índices!E39/Índices!E38-1),4)</f>
         <v>3.1879</v>
       </c>
       <c r="F39" s="17">
-        <f>ROUND(100*(Índices!F39/Índices!F38-1),4)</f>
         <v>2.6373000000000002</v>
       </c>
       <c r="G39" s="17">
-        <f>ROUND(100*(Índices!G39/Índices!G38-1),4)</f>
         <v>2.9539</v>
       </c>
       <c r="H39" s="17">
-        <f>ROUND(100*(Índices!H39/Índices!H38-1),4)</f>
         <v>3.6503999999999999</v>
       </c>
       <c r="I39" s="18">
-        <f>ROUND(100*(Índices!I39/Índices!I38-1),4)</f>
         <v>2.9135</v>
       </c>
       <c r="J39" s="17">
-        <f>ROUND(100*(Índices!J39/Índices!J38-1),4)</f>
         <v>1.7974000000000001</v>
       </c>
       <c r="K39" s="17">
-        <f>ROUND(100*(Índices!K39/Índices!K38-1),4)</f>
         <v>6.0880000000000001</v>
       </c>
       <c r="L39" s="17">
-        <f>ROUND(100*(Índices!L39/Índices!L38-1),4)</f>
         <v>3.6206999999999998</v>
       </c>
       <c r="M39" s="17">
-        <f>ROUND(100*(Índices!M39/Índices!M38-1),4)</f>
         <v>1.8798999999999999</v>
       </c>
       <c r="N39" s="17">
-        <f>ROUND(100*(Índices!N39/Índices!N38-1),4)</f>
         <v>7.8771000000000004</v>
       </c>
       <c r="O39" s="17">
-        <f>ROUND(100*(Índices!O39/Índices!O38-1),4)</f>
         <v>4.6462000000000003</v>
       </c>
       <c r="P39" s="17">
-        <f>ROUND(100*(Índices!P39/Índices!P38-1),4)</f>
         <v>3.5344000000000002</v>
       </c>
       <c r="Q39" s="17">
-        <f>ROUND(100*(Índices!Q39/Índices!Q38-1),4)</f>
         <v>0.31890000000000002</v>
       </c>
       <c r="R39" s="17">
-        <f>ROUND(100*(Índices!R39/Índices!R38-1),4)</f>
         <v>2.0129999999999999</v>
       </c>
       <c r="S39" s="17">
-        <f>ROUND(100*(Índices!S39/Índices!S38-1),4)</f>
         <v>2.3412999999999999</v>
       </c>
       <c r="T39" s="17">
-        <f>ROUND(100*(Índices!T39/Índices!T38-1),4)</f>
         <v>2.5901999999999998</v>
       </c>
       <c r="U39" s="18">
-        <f>ROUND(100*(Índices!U39/Índices!U38-1),4)</f>
         <v>3.7923</v>
       </c>
       <c r="V39" s="16">
-        <f>ROUND(100*(Índices!V39/Índices!V38-1),4)</f>
         <v>3.0691999999999999</v>
       </c>
     </row>
@@ -9166,83 +8170,63 @@
         <v>43770</v>
       </c>
       <c r="C40" s="16">
-        <f>ROUND(100*(Índices!C40/Índices!C39-1),4)</f>
         <v>4.5861999999999998</v>
       </c>
       <c r="D40" s="17">
-        <f>ROUND(100*(Índices!D40/Índices!D39-1),4)</f>
         <v>4.5166000000000004</v>
       </c>
       <c r="E40" s="17">
-        <f>ROUND(100*(Índices!E40/Índices!E39-1),4)</f>
         <v>4.6612999999999998</v>
       </c>
       <c r="F40" s="17">
-        <f>ROUND(100*(Índices!F40/Índices!F39-1),4)</f>
         <v>4.1668000000000003</v>
       </c>
       <c r="G40" s="17">
-        <f>ROUND(100*(Índices!G40/Índices!G39-1),4)</f>
         <v>4.5317999999999996</v>
       </c>
       <c r="H40" s="17">
-        <f>ROUND(100*(Índices!H40/Índices!H39-1),4)</f>
         <v>4.8036000000000003</v>
       </c>
       <c r="I40" s="18">
-        <f>ROUND(100*(Índices!I40/Índices!I39-1),4)</f>
         <v>4.7164999999999999</v>
       </c>
       <c r="J40" s="17">
-        <f>ROUND(100*(Índices!J40/Índices!J39-1),4)</f>
         <v>6.1368</v>
       </c>
       <c r="K40" s="17">
-        <f>ROUND(100*(Índices!K40/Índices!K39-1),4)</f>
         <v>5.0702999999999996</v>
       </c>
       <c r="L40" s="17">
-        <f>ROUND(100*(Índices!L40/Índices!L39-1),4)</f>
         <v>4.9109999999999996</v>
       </c>
       <c r="M40" s="17">
-        <f>ROUND(100*(Índices!M40/Índices!M39-1),4)</f>
         <v>1.5163</v>
       </c>
       <c r="N40" s="17">
-        <f>ROUND(100*(Índices!N40/Índices!N39-1),4)</f>
         <v>0.81630000000000003</v>
       </c>
       <c r="O40" s="17">
-        <f>ROUND(100*(Índices!O40/Índices!O39-1),4)</f>
         <v>6.3221999999999996</v>
       </c>
       <c r="P40" s="17">
-        <f>ROUND(100*(Índices!P40/Índices!P39-1),4)</f>
         <v>4.6132</v>
       </c>
       <c r="Q40" s="17">
-        <f>ROUND(100*(Índices!Q40/Índices!Q39-1),4)</f>
         <v>7.3895999999999997</v>
       </c>
       <c r="R40" s="17">
-        <f>ROUND(100*(Índices!R40/Índices!R39-1),4)</f>
         <v>3.6429</v>
       </c>
       <c r="S40" s="17">
-        <f>ROUND(100*(Índices!S40/Índices!S39-1),4)</f>
         <v>6.2328999999999999</v>
       </c>
       <c r="T40" s="17">
-        <f>ROUND(100*(Índices!T40/Índices!T39-1),4)</f>
         <v>3.3515999999999999</v>
       </c>
       <c r="U40" s="18">
-        <f>ROUND(100*(Índices!U40/Índices!U39-1),4)</f>
         <v>4.843</v>
       </c>
       <c r="V40" s="16">
-        <f>ROUND(100*(Índices!V40/Índices!V39-1),4)</f>
         <v>4.6287000000000003</v>
       </c>
     </row>
@@ -9251,83 +8235,63 @@
         <v>43800</v>
       </c>
       <c r="C41" s="16">
-        <f>ROUND(100*(Índices!C41/Índices!C40-1),4)</f>
         <v>3.9769000000000001</v>
       </c>
       <c r="D41" s="17">
-        <f>ROUND(100*(Índices!D41/Índices!D40-1),4)</f>
         <v>4.2182000000000004</v>
       </c>
       <c r="E41" s="17">
-        <f>ROUND(100*(Índices!E41/Índices!E40-1),4)</f>
         <v>3.7789999999999999</v>
       </c>
       <c r="F41" s="17">
-        <f>ROUND(100*(Índices!F41/Índices!F40-1),4)</f>
         <v>3.8388</v>
       </c>
       <c r="G41" s="17">
-        <f>ROUND(100*(Índices!G41/Índices!G40-1),4)</f>
         <v>3.8841000000000001</v>
       </c>
       <c r="H41" s="17">
-        <f>ROUND(100*(Índices!H41/Índices!H40-1),4)</f>
         <v>3.5047999999999999</v>
       </c>
       <c r="I41" s="18">
-        <f>ROUND(100*(Índices!I41/Índices!I40-1),4)</f>
         <v>4.5637999999999996</v>
       </c>
       <c r="J41" s="17">
-        <f>ROUND(100*(Índices!J41/Índices!J40-1),4)</f>
         <v>3.5411999999999999</v>
       </c>
       <c r="K41" s="17">
-        <f>ROUND(100*(Índices!K41/Índices!K40-1),4)</f>
         <v>3.2179000000000002</v>
       </c>
       <c r="L41" s="17">
-        <f>ROUND(100*(Índices!L41/Índices!L40-1),4)</f>
         <v>3.7381000000000002</v>
       </c>
       <c r="M41" s="17">
-        <f>ROUND(100*(Índices!M41/Índices!M40-1),4)</f>
         <v>2.0966999999999998</v>
       </c>
       <c r="N41" s="17">
-        <f>ROUND(100*(Índices!N41/Índices!N40-1),4)</f>
         <v>5.6877000000000004</v>
       </c>
       <c r="O41" s="17">
-        <f>ROUND(100*(Índices!O41/Índices!O40-1),4)</f>
         <v>5.5849000000000002</v>
       </c>
       <c r="P41" s="17">
-        <f>ROUND(100*(Índices!P41/Índices!P40-1),4)</f>
         <v>4.9908999999999999</v>
       </c>
       <c r="Q41" s="17">
-        <f>ROUND(100*(Índices!Q41/Índices!Q40-1),4)</f>
         <v>8.7028999999999996</v>
       </c>
       <c r="R41" s="17">
-        <f>ROUND(100*(Índices!R41/Índices!R40-1),4)</f>
         <v>2.5788000000000002</v>
       </c>
       <c r="S41" s="17">
-        <f>ROUND(100*(Índices!S41/Índices!S40-1),4)</f>
         <v>4.0552000000000001</v>
       </c>
       <c r="T41" s="17">
-        <f>ROUND(100*(Índices!T41/Índices!T40-1),4)</f>
         <v>3.2509999999999999</v>
       </c>
       <c r="U41" s="18">
-        <f>ROUND(100*(Índices!U41/Índices!U40-1),4)</f>
         <v>3.6254</v>
       </c>
       <c r="V41" s="16">
-        <f>ROUND(100*(Índices!V41/Índices!V40-1),4)</f>
         <v>3.6472000000000002</v>
       </c>
     </row>
@@ -9336,83 +8300,63 @@
         <v>43831</v>
       </c>
       <c r="C42" s="16">
-        <f>ROUND(100*(Índices!C42/Índices!C41-1),4)</f>
         <v>2.4417</v>
       </c>
       <c r="D42" s="17">
-        <f>ROUND(100*(Índices!D42/Índices!D41-1),4)</f>
         <v>2.1320999999999999</v>
       </c>
       <c r="E42" s="17">
-        <f>ROUND(100*(Índices!E42/Índices!E41-1),4)</f>
         <v>2.5952999999999999</v>
       </c>
       <c r="F42" s="17">
-        <f>ROUND(100*(Índices!F42/Índices!F41-1),4)</f>
         <v>2.504</v>
       </c>
       <c r="G42" s="17">
-        <f>ROUND(100*(Índices!G42/Índices!G41-1),4)</f>
         <v>3.3298999999999999</v>
       </c>
       <c r="H42" s="17">
-        <f>ROUND(100*(Índices!H42/Índices!H41-1),4)</f>
         <v>2.6987000000000001</v>
       </c>
       <c r="I42" s="18">
-        <f>ROUND(100*(Índices!I42/Índices!I41-1),4)</f>
         <v>2.9386999999999999</v>
       </c>
       <c r="J42" s="17">
-        <f>ROUND(100*(Índices!J42/Índices!J41-1),4)</f>
         <v>4.3388</v>
       </c>
       <c r="K42" s="17">
-        <f>ROUND(100*(Índices!K42/Índices!K41-1),4)</f>
         <v>4.2508999999999997</v>
       </c>
       <c r="L42" s="17">
-        <f>ROUND(100*(Índices!L42/Índices!L41-1),4)</f>
         <v>4.0778999999999996</v>
       </c>
       <c r="M42" s="17">
-        <f>ROUND(100*(Índices!M42/Índices!M41-1),4)</f>
         <v>0.6956</v>
       </c>
       <c r="N42" s="17">
-        <f>ROUND(100*(Índices!N42/Índices!N41-1),4)</f>
         <v>-0.64759999999999995</v>
       </c>
       <c r="O42" s="17">
-        <f>ROUND(100*(Índices!O42/Índices!O41-1),4)</f>
         <v>-1.9610000000000001</v>
       </c>
       <c r="P42" s="17">
-        <f>ROUND(100*(Índices!P42/Índices!P41-1),4)</f>
         <v>1.4922</v>
       </c>
       <c r="Q42" s="17">
-        <f>ROUND(100*(Índices!Q42/Índices!Q41-1),4)</f>
         <v>-0.63219999999999998</v>
       </c>
       <c r="R42" s="17">
-        <f>ROUND(100*(Índices!R42/Índices!R41-1),4)</f>
         <v>4.5110999999999999</v>
       </c>
       <c r="S42" s="17">
-        <f>ROUND(100*(Índices!S42/Índices!S41-1),4)</f>
         <v>2.9828000000000001</v>
       </c>
       <c r="T42" s="17">
-        <f>ROUND(100*(Índices!T42/Índices!T41-1),4)</f>
         <v>4.0559000000000003</v>
       </c>
       <c r="U42" s="18">
-        <f>ROUND(100*(Índices!U42/Índices!U41-1),4)</f>
         <v>3.1211000000000002</v>
       </c>
       <c r="V42" s="16">
-        <f>ROUND(100*(Índices!V42/Índices!V41-1),4)</f>
         <v>3.7164000000000001</v>
       </c>
     </row>
@@ -9421,83 +8365,63 @@
         <v>43862</v>
       </c>
       <c r="C43" s="16">
-        <f>ROUND(100*(Índices!C43/Índices!C42-1),4)</f>
         <v>2.1575000000000002</v>
       </c>
       <c r="D43" s="17">
-        <f>ROUND(100*(Índices!D43/Índices!D42-1),4)</f>
         <v>2.1223999999999998</v>
       </c>
       <c r="E43" s="17">
-        <f>ROUND(100*(Índices!E43/Índices!E42-1),4)</f>
         <v>2.31</v>
       </c>
       <c r="F43" s="17">
-        <f>ROUND(100*(Índices!F43/Índices!F42-1),4)</f>
         <v>1.8879999999999999</v>
       </c>
       <c r="G43" s="17">
-        <f>ROUND(100*(Índices!G43/Índices!G42-1),4)</f>
         <v>2.2747999999999999</v>
       </c>
       <c r="H43" s="17">
-        <f>ROUND(100*(Índices!H43/Índices!H42-1),4)</f>
         <v>2.222</v>
       </c>
       <c r="I43" s="18">
-        <f>ROUND(100*(Índices!I43/Índices!I42-1),4)</f>
         <v>2.0695999999999999</v>
       </c>
       <c r="J43" s="17">
-        <f>ROUND(100*(Índices!J43/Índices!J42-1),4)</f>
         <v>2.1724999999999999</v>
       </c>
       <c r="K43" s="17">
-        <f>ROUND(100*(Índices!K43/Índices!K42-1),4)</f>
         <v>1.8546</v>
       </c>
       <c r="L43" s="17">
-        <f>ROUND(100*(Índices!L43/Índices!L42-1),4)</f>
         <v>4.6334999999999997</v>
       </c>
       <c r="M43" s="17">
-        <f>ROUND(100*(Índices!M43/Índices!M42-1),4)</f>
         <v>0.58679999999999999</v>
       </c>
       <c r="N43" s="17">
-        <f>ROUND(100*(Índices!N43/Índices!N42-1),4)</f>
         <v>2.4354</v>
       </c>
       <c r="O43" s="17">
-        <f>ROUND(100*(Índices!O43/Índices!O42-1),4)</f>
         <v>0.46789999999999998</v>
       </c>
       <c r="P43" s="17">
-        <f>ROUND(100*(Índices!P43/Índices!P42-1),4)</f>
         <v>1.6323000000000001</v>
       </c>
       <c r="Q43" s="17">
-        <f>ROUND(100*(Índices!Q43/Índices!Q42-1),4)</f>
         <v>2.1375999999999999</v>
       </c>
       <c r="R43" s="17">
-        <f>ROUND(100*(Índices!R43/Índices!R42-1),4)</f>
         <v>3.0516999999999999</v>
       </c>
       <c r="S43" s="17">
-        <f>ROUND(100*(Índices!S43/Índices!S42-1),4)</f>
         <v>2.6644999999999999</v>
       </c>
       <c r="T43" s="17">
-        <f>ROUND(100*(Índices!T43/Índices!T42-1),4)</f>
         <v>3.0470000000000002</v>
       </c>
       <c r="U43" s="18">
-        <f>ROUND(100*(Índices!U43/Índices!U42-1),4)</f>
         <v>2.4864000000000002</v>
       </c>
       <c r="V43" s="16">
-        <f>ROUND(100*(Índices!V43/Índices!V42-1),4)</f>
         <v>2.7492999999999999</v>
       </c>
     </row>
@@ -9506,84 +8430,64 @@
         <v>43891</v>
       </c>
       <c r="C44" s="16">
-        <f>ROUND(100*(Índices!C44/Índices!C43-1),4)</f>
-        <v>2.5097</v>
+        <v>2.5053000000000001</v>
       </c>
       <c r="D44" s="17">
-        <f>ROUND(100*(Índices!D44/Índices!D43-1),4)</f>
         <v>2.6214</v>
       </c>
       <c r="E44" s="17">
-        <f>ROUND(100*(Índices!E44/Índices!E43-1),4)</f>
-        <v>2.3563000000000001</v>
+        <v>2.3563999999999998</v>
       </c>
       <c r="F44" s="17">
-        <f>ROUND(100*(Índices!F44/Índices!F43-1),4)</f>
-        <v>3.0495999999999999</v>
+        <v>3.0009000000000001</v>
       </c>
       <c r="G44" s="17">
-        <f>ROUND(100*(Índices!G44/Índices!G43-1),4)</f>
-        <v>3.1560000000000001</v>
+        <v>3.1023000000000001</v>
       </c>
       <c r="H44" s="17">
-        <f>ROUND(100*(Índices!H44/Índices!H43-1),4)</f>
-        <v>2.5163000000000002</v>
+        <v>2.5293000000000001</v>
       </c>
       <c r="I44" s="18">
-        <f>ROUND(100*(Índices!I44/Índices!I43-1),4)</f>
         <v>2.0358999999999998</v>
       </c>
       <c r="J44" s="17">
-        <f>ROUND(100*(Índices!J44/Índices!J43-1),4)</f>
-        <v>3.0293999999999999</v>
+        <v>3.0034000000000001</v>
       </c>
       <c r="K44" s="17">
-        <f>ROUND(100*(Índices!K44/Índices!K43-1),4)</f>
-        <v>2.3121</v>
+        <v>2.3624999999999998</v>
       </c>
       <c r="L44" s="17">
-        <f>ROUND(100*(Índices!L44/Índices!L43-1),4)</f>
-        <v>1.077</v>
+        <v>1.1137999999999999</v>
       </c>
       <c r="M44" s="17">
-        <f>ROUND(100*(Índices!M44/Índices!M43-1),4)</f>
         <v>1.3425</v>
       </c>
       <c r="N44" s="17">
-        <f>ROUND(100*(Índices!N44/Índices!N43-1),4)</f>
-        <v>2.9396</v>
+        <v>2.9312</v>
       </c>
       <c r="O44" s="17">
-        <f>ROUND(100*(Índices!O44/Índices!O43-1),4)</f>
         <v>2.6859999999999999</v>
       </c>
       <c r="P44" s="17">
-        <f>ROUND(100*(Índices!P44/Índices!P43-1),4)</f>
         <v>1.6072</v>
       </c>
       <c r="Q44" s="17">
-        <f>ROUND(100*(Índices!Q44/Índices!Q43-1),4)</f>
-        <v>8.2530999999999999</v>
+        <v>8.2660999999999998</v>
       </c>
       <c r="R44" s="17">
-        <f>ROUND(100*(Índices!R44/Índices!R43-1),4)</f>
-        <v>3.0465</v>
+        <v>3.0390000000000001</v>
       </c>
       <c r="S44" s="17">
-        <f>ROUND(100*(Índices!S44/Índices!S43-1),4)</f>
-        <v>1.7004999999999999</v>
+        <v>1.6637999999999999</v>
       </c>
       <c r="T44" s="17">
-        <f>ROUND(100*(Índices!T44/Índices!T43-1),4)</f>
-        <v>2.1585999999999999</v>
+        <v>2.1545999999999998</v>
       </c>
       <c r="U44" s="18">
-        <f>ROUND(100*(Índices!U44/Índices!U43-1),4)</f>
-        <v>2.0767000000000002</v>
+        <v>2.0773999999999999</v>
       </c>
       <c r="V44" s="16">
-        <f>ROUND(100*(Índices!V44/Índices!V43-1),4)</f>
-        <v>2.6255999999999999</v>
+        <v>2.5773000000000001</v>
       </c>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
@@ -9591,84 +8495,64 @@
         <v>43922</v>
       </c>
       <c r="C45" s="16">
-        <f>ROUND(100*(Índices!C45/Índices!C44-1),4)</f>
-        <v>1.5033000000000001</v>
+        <v>1.5121</v>
       </c>
       <c r="D45" s="17">
-        <f>ROUND(100*(Índices!D45/Índices!D44-1),4)</f>
         <v>1.4672000000000001</v>
       </c>
       <c r="E45" s="17">
-        <f>ROUND(100*(Índices!E45/Índices!E44-1),4)</f>
-        <v>1.4373</v>
+        <v>1.4375</v>
       </c>
       <c r="F45" s="17">
-        <f>ROUND(100*(Índices!F45/Índices!F44-1),4)</f>
-        <v>2.3974000000000002</v>
+        <v>2.4954999999999998</v>
       </c>
       <c r="G45" s="17">
-        <f>ROUND(100*(Índices!G45/Índices!G44-1),4)</f>
-        <v>2.1553</v>
+        <v>2.2621000000000002</v>
       </c>
       <c r="H45" s="17">
-        <f>ROUND(100*(Índices!H45/Índices!H44-1),4)</f>
-        <v>1.2232000000000001</v>
+        <v>1.1979</v>
       </c>
       <c r="I45" s="18">
-        <f>ROUND(100*(Índices!I45/Índices!I44-1),4)</f>
         <v>0.65069999999999995</v>
       </c>
       <c r="J45" s="17">
-        <f>ROUND(100*(Índices!J45/Índices!J44-1),4)</f>
-        <v>3.4079999999999999</v>
+        <v>3.4603000000000002</v>
       </c>
       <c r="K45" s="17">
-        <f>ROUND(100*(Índices!K45/Índices!K44-1),4)</f>
-        <v>2.3748</v>
+        <v>2.2736999999999998</v>
       </c>
       <c r="L45" s="17">
-        <f>ROUND(100*(Índices!L45/Índices!L44-1),4)</f>
-        <v>-0.42249999999999999</v>
+        <v>-0.49509999999999998</v>
       </c>
       <c r="M45" s="17">
-        <f>ROUND(100*(Índices!M45/Índices!M44-1),4)</f>
         <v>-5.7999999999999996E-3</v>
       </c>
       <c r="N45" s="17">
-        <f>ROUND(100*(Índices!N45/Índices!N44-1),4)</f>
-        <v>1.5069999999999999</v>
+        <v>1.5236000000000001</v>
       </c>
       <c r="O45" s="17">
-        <f>ROUND(100*(Índices!O45/Índices!O44-1),4)</f>
         <v>1.1908000000000001</v>
       </c>
       <c r="P45" s="17">
-        <f>ROUND(100*(Índices!P45/Índices!P44-1),4)</f>
         <v>1.327</v>
       </c>
       <c r="Q45" s="17">
-        <f>ROUND(100*(Índices!Q45/Índices!Q44-1),4)</f>
-        <v>-3.6911</v>
+        <v>-3.7141999999999999</v>
       </c>
       <c r="R45" s="17">
-        <f>ROUND(100*(Índices!R45/Índices!R44-1),4)</f>
-        <v>2.4424000000000001</v>
+        <v>2.4573</v>
       </c>
       <c r="S45" s="17">
-        <f>ROUND(100*(Índices!S45/Índices!S44-1),4)</f>
-        <v>-9.2600000000000002E-2</v>
+        <v>-2.0299999999999999E-2</v>
       </c>
       <c r="T45" s="17">
-        <f>ROUND(100*(Índices!T45/Índices!T44-1),4)</f>
-        <v>1.4838</v>
+        <v>1.4918</v>
       </c>
       <c r="U45" s="18">
-        <f>ROUND(100*(Índices!U45/Índices!U44-1),4)</f>
-        <v>0.22309999999999999</v>
+        <v>0.22170000000000001</v>
       </c>
       <c r="V45" s="16">
-        <f>ROUND(100*(Índices!V45/Índices!V44-1),4)</f>
-        <v>2.0669</v>
+        <v>2.1637</v>
       </c>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.25">
@@ -9676,84 +8560,64 @@
         <v>43952</v>
       </c>
       <c r="C46" s="16">
-        <f>ROUND(100*(Índices!C46/Índices!C45-1),4)</f>
-        <v>1.9249000000000001</v>
+        <v>1.9204000000000001</v>
       </c>
       <c r="D46" s="17">
-        <f>ROUND(100*(Índices!D46/Índices!D45-1),4)</f>
         <v>1.9020999999999999</v>
       </c>
       <c r="E46" s="17">
-        <f>ROUND(100*(Índices!E46/Índices!E45-1),4)</f>
-        <v>1.8284</v>
+        <v>1.8282</v>
       </c>
       <c r="F46" s="17">
-        <f>ROUND(100*(Índices!F46/Índices!F45-1),4)</f>
-        <v>2.1240000000000001</v>
+        <v>2.0745</v>
       </c>
       <c r="G46" s="17">
-        <f>ROUND(100*(Índices!G46/Índices!G45-1),4)</f>
-        <v>2.0615999999999999</v>
+        <v>2.0081000000000002</v>
       </c>
       <c r="H46" s="17">
-        <f>ROUND(100*(Índices!H46/Índices!H45-1),4)</f>
-        <v>1.6808000000000001</v>
+        <v>1.6933</v>
       </c>
       <c r="I46" s="18">
-        <f>ROUND(100*(Índices!I46/Índices!I45-1),4)</f>
         <v>1.8281000000000001</v>
       </c>
       <c r="J46" s="17">
-        <f>ROUND(100*(Índices!J46/Índices!J45-1),4)</f>
-        <v>1.5190999999999999</v>
+        <v>1.4934000000000001</v>
       </c>
       <c r="K46" s="17">
-        <f>ROUND(100*(Índices!K46/Índices!K45-1),4)</f>
-        <v>0.58189999999999997</v>
+        <v>0.63170000000000004</v>
       </c>
       <c r="L46" s="17">
-        <f>ROUND(100*(Índices!L46/Índices!L45-1),4)</f>
-        <v>7.9020999999999999</v>
+        <v>7.9416000000000002</v>
       </c>
       <c r="M46" s="17">
-        <f>ROUND(100*(Índices!M46/Índices!M45-1),4)</f>
         <v>0.1011</v>
       </c>
       <c r="N46" s="17">
-        <f>ROUND(100*(Índices!N46/Índices!N45-1),4)</f>
-        <v>3.0028999999999999</v>
+        <v>2.9944999999999999</v>
       </c>
       <c r="O46" s="17">
-        <f>ROUND(100*(Índices!O46/Índices!O45-1),4)</f>
         <v>1.0610999999999999</v>
       </c>
       <c r="P46" s="17">
-        <f>ROUND(100*(Índices!P46/Índices!P45-1),4)</f>
         <v>1.0724</v>
       </c>
       <c r="Q46" s="17">
-        <f>ROUND(100*(Índices!Q46/Índices!Q45-1),4)</f>
-        <v>0.74850000000000005</v>
+        <v>0.76049999999999995</v>
       </c>
       <c r="R46" s="17">
-        <f>ROUND(100*(Índices!R46/Índices!R45-1),4)</f>
-        <v>2.5838000000000001</v>
+        <v>2.5762999999999998</v>
       </c>
       <c r="S46" s="17">
-        <f>ROUND(100*(Índices!S46/Índices!S45-1),4)</f>
-        <v>0.49170000000000003</v>
+        <v>0.45529999999999998</v>
       </c>
       <c r="T46" s="17">
-        <f>ROUND(100*(Índices!T46/Índices!T45-1),4)</f>
-        <v>1.5769</v>
+        <v>1.5729</v>
       </c>
       <c r="U46" s="18">
-        <f>ROUND(100*(Índices!U46/Índices!U45-1),4)</f>
-        <v>2.0019</v>
+        <v>2.0026999999999999</v>
       </c>
       <c r="V46" s="16">
-        <f>ROUND(100*(Índices!V46/Índices!V45-1),4)</f>
-        <v>2.5897999999999999</v>
+        <v>2.5409000000000002</v>
       </c>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.25">
@@ -9761,83 +8625,63 @@
         <v>43983</v>
       </c>
       <c r="C47" s="16">
-        <f>ROUND(100*(Índices!C47/Índices!C46-1),4)</f>
         <v>2.3837000000000002</v>
       </c>
       <c r="D47" s="17">
-        <f>ROUND(100*(Índices!D47/Índices!D46-1),4)</f>
         <v>2.1315</v>
       </c>
       <c r="E47" s="17">
-        <f>ROUND(100*(Índices!E47/Índices!E46-1),4)</f>
         <v>2.7435999999999998</v>
       </c>
       <c r="F47" s="17">
-        <f>ROUND(100*(Índices!F47/Índices!F46-1),4)</f>
         <v>2.4323999999999999</v>
       </c>
       <c r="G47" s="17">
-        <f>ROUND(100*(Índices!G47/Índices!G46-1),4)</f>
         <v>2.6398999999999999</v>
       </c>
       <c r="H47" s="17">
-        <f>ROUND(100*(Índices!H47/Índices!H46-1),4)</f>
         <v>2.4222999999999999</v>
       </c>
       <c r="I47" s="18">
-        <f>ROUND(100*(Índices!I47/Índices!I46-1),4)</f>
         <v>2.0181</v>
       </c>
       <c r="J47" s="17">
-        <f>ROUND(100*(Índices!J47/Índices!J46-1),4)</f>
         <v>1.5190999999999999</v>
       </c>
       <c r="K47" s="17">
-        <f>ROUND(100*(Índices!K47/Índices!K46-1),4)</f>
         <v>3.9428999999999998</v>
       </c>
       <c r="L47" s="17">
-        <f>ROUND(100*(Índices!L47/Índices!L46-1),4)</f>
         <v>6.5552000000000001</v>
       </c>
       <c r="M47" s="17">
-        <f>ROUND(100*(Índices!M47/Índices!M46-1),4)</f>
         <v>0.93140000000000001</v>
       </c>
       <c r="N47" s="17">
-        <f>ROUND(100*(Índices!N47/Índices!N46-1),4)</f>
         <v>3.7686999999999999</v>
       </c>
       <c r="O47" s="17">
-        <f>ROUND(100*(Índices!O47/Índices!O46-1),4)</f>
         <v>2.2444999999999999</v>
       </c>
       <c r="P47" s="17">
-        <f>ROUND(100*(Índices!P47/Índices!P46-1),4)</f>
         <v>1.8244</v>
       </c>
       <c r="Q47" s="17">
-        <f>ROUND(100*(Índices!Q47/Índices!Q46-1),4)</f>
         <v>0.42249999999999999</v>
       </c>
       <c r="R47" s="17">
-        <f>ROUND(100*(Índices!R47/Índices!R46-1),4)</f>
         <v>4.0914000000000001</v>
       </c>
       <c r="S47" s="17">
-        <f>ROUND(100*(Índices!S47/Índices!S46-1),4)</f>
         <v>2.0141</v>
       </c>
       <c r="T47" s="17">
-        <f>ROUND(100*(Índices!T47/Índices!T46-1),4)</f>
         <v>2.2648000000000001</v>
       </c>
       <c r="U47" s="18">
-        <f>ROUND(100*(Índices!U47/Índices!U46-1),4)</f>
         <v>0.31819999999999998</v>
       </c>
       <c r="V47" s="16">
-        <f>ROUND(100*(Índices!V47/Índices!V46-1),4)</f>
         <v>2.8424</v>
       </c>
     </row>
@@ -9846,83 +8690,63 @@
         <v>44013</v>
       </c>
       <c r="C48" s="16">
-        <f>ROUND(100*(Índices!C48/Índices!C47-1),4)</f>
         <v>2.1972999999999998</v>
       </c>
       <c r="D48" s="17">
-        <f>ROUND(100*(Índices!D48/Índices!D47-1),4)</f>
         <v>1.8098000000000001</v>
       </c>
       <c r="E48" s="17">
-        <f>ROUND(100*(Índices!E48/Índices!E47-1),4)</f>
         <v>2.5089999999999999</v>
       </c>
       <c r="F48" s="17">
-        <f>ROUND(100*(Índices!F48/Índices!F47-1),4)</f>
         <v>2.2683</v>
       </c>
       <c r="G48" s="17">
-        <f>ROUND(100*(Índices!G48/Índices!G47-1),4)</f>
         <v>2.4493999999999998</v>
       </c>
       <c r="H48" s="17">
-        <f>ROUND(100*(Índices!H48/Índices!H47-1),4)</f>
         <v>2.4085999999999999</v>
       </c>
       <c r="I48" s="18">
-        <f>ROUND(100*(Índices!I48/Índices!I47-1),4)</f>
         <v>2.7319</v>
       </c>
       <c r="J48" s="17">
-        <f>ROUND(100*(Índices!J48/Índices!J47-1),4)</f>
         <v>1.8338000000000001</v>
       </c>
       <c r="K48" s="17">
-        <f>ROUND(100*(Índices!K48/Índices!K47-1),4)</f>
         <v>1.6748000000000001</v>
       </c>
       <c r="L48" s="17">
-        <f>ROUND(100*(Índices!L48/Índices!L47-1),4)</f>
         <v>5.0848000000000004</v>
       </c>
       <c r="M48" s="17">
-        <f>ROUND(100*(Índices!M48/Índices!M47-1),4)</f>
         <v>1.0526</v>
       </c>
       <c r="N48" s="17">
-        <f>ROUND(100*(Índices!N48/Índices!N47-1),4)</f>
         <v>3.2524999999999999</v>
       </c>
       <c r="O48" s="17">
-        <f>ROUND(100*(Índices!O48/Índices!O47-1),4)</f>
         <v>2.1802000000000001</v>
       </c>
       <c r="P48" s="17">
-        <f>ROUND(100*(Índices!P48/Índices!P47-1),4)</f>
         <v>1.8368</v>
       </c>
       <c r="Q48" s="17">
-        <f>ROUND(100*(Índices!Q48/Índices!Q47-1),4)</f>
         <v>1.2783</v>
       </c>
       <c r="R48" s="17">
-        <f>ROUND(100*(Índices!R48/Índices!R47-1),4)</f>
         <v>2.5308999999999999</v>
       </c>
       <c r="S48" s="17">
-        <f>ROUND(100*(Índices!S48/Índices!S47-1),4)</f>
         <v>0.60599999999999998</v>
       </c>
       <c r="T48" s="17">
-        <f>ROUND(100*(Índices!T48/Índices!T47-1),4)</f>
         <v>1.8873</v>
       </c>
       <c r="U48" s="18">
-        <f>ROUND(100*(Índices!U48/Índices!U47-1),4)</f>
         <v>2.3395000000000001</v>
       </c>
       <c r="V48" s="16">
-        <f>ROUND(100*(Índices!V48/Índices!V47-1),4)</f>
         <v>2.5202</v>
       </c>
     </row>
@@ -9931,83 +8755,63 @@
         <v>44044</v>
       </c>
       <c r="C49" s="16">
-        <f>ROUND(100*(Índices!C49/Índices!C48-1),4)</f>
         <v>2.6606999999999998</v>
       </c>
       <c r="D49" s="17">
-        <f>ROUND(100*(Índices!D49/Índices!D48-1),4)</f>
         <v>2.7067000000000001</v>
       </c>
       <c r="E49" s="17">
-        <f>ROUND(100*(Índices!E49/Índices!E48-1),4)</f>
         <v>2.7035</v>
       </c>
       <c r="F49" s="17">
-        <f>ROUND(100*(Índices!F49/Índices!F48-1),4)</f>
         <v>2.4091</v>
       </c>
       <c r="G49" s="17">
-        <f>ROUND(100*(Índices!G49/Índices!G48-1),4)</f>
         <v>2.1095000000000002</v>
       </c>
       <c r="H49" s="17">
-        <f>ROUND(100*(Índices!H49/Índices!H48-1),4)</f>
         <v>2.6779999999999999</v>
       </c>
       <c r="I49" s="18">
-        <f>ROUND(100*(Índices!I49/Índices!I48-1),4)</f>
         <v>2.6259000000000001</v>
       </c>
       <c r="J49" s="17">
-        <f>ROUND(100*(Índices!J49/Índices!J48-1),4)</f>
         <v>3.2639999999999998</v>
       </c>
       <c r="K49" s="17">
-        <f>ROUND(100*(Índices!K49/Índices!K48-1),4)</f>
         <v>1.6427</v>
       </c>
       <c r="L49" s="17">
-        <f>ROUND(100*(Índices!L49/Índices!L48-1),4)</f>
         <v>2.3382999999999998</v>
       </c>
       <c r="M49" s="17">
-        <f>ROUND(100*(Índices!M49/Índices!M48-1),4)</f>
         <v>2.3214000000000001</v>
       </c>
       <c r="N49" s="17">
-        <f>ROUND(100*(Índices!N49/Índices!N48-1),4)</f>
         <v>3.1909000000000001</v>
       </c>
       <c r="O49" s="17">
-        <f>ROUND(100*(Índices!O49/Índices!O48-1),4)</f>
         <v>2.3877000000000002</v>
       </c>
       <c r="P49" s="17">
-        <f>ROUND(100*(Índices!P49/Índices!P48-1),4)</f>
         <v>2.8481000000000001</v>
       </c>
       <c r="Q49" s="17">
-        <f>ROUND(100*(Índices!Q49/Índices!Q48-1),4)</f>
         <v>0.6986</v>
       </c>
       <c r="R49" s="17">
-        <f>ROUND(100*(Índices!R49/Índices!R48-1),4)</f>
         <v>3.085</v>
       </c>
       <c r="S49" s="17">
-        <f>ROUND(100*(Índices!S49/Índices!S48-1),4)</f>
         <v>1.0637000000000001</v>
       </c>
       <c r="T49" s="17">
-        <f>ROUND(100*(Índices!T49/Índices!T48-1),4)</f>
         <v>1.8972</v>
       </c>
       <c r="U49" s="18">
-        <f>ROUND(100*(Índices!U49/Índices!U48-1),4)</f>
         <v>3.2071000000000001</v>
       </c>
       <c r="V49" s="16">
-        <f>ROUND(100*(Índices!V49/Índices!V48-1),4)</f>
         <v>2.8488000000000002</v>
       </c>
     </row>
@@ -10016,83 +8820,63 @@
         <v>44075</v>
       </c>
       <c r="C50" s="16">
-        <f>ROUND(100*(Índices!C50/Índices!C49-1),4)</f>
         <v>2.2606999999999999</v>
       </c>
       <c r="D50" s="17">
-        <f>ROUND(100*(Índices!D50/Índices!D49-1),4)</f>
         <v>2.0565000000000002</v>
       </c>
       <c r="E50" s="17">
-        <f>ROUND(100*(Índices!E50/Índices!E49-1),4)</f>
         <v>2.4394</v>
       </c>
       <c r="F50" s="17">
-        <f>ROUND(100*(Índices!F50/Índices!F49-1),4)</f>
         <v>1.9176</v>
       </c>
       <c r="G50" s="17">
-        <f>ROUND(100*(Índices!G50/Índices!G49-1),4)</f>
         <v>2.8283</v>
       </c>
       <c r="H50" s="17">
-        <f>ROUND(100*(Índices!H50/Índices!H49-1),4)</f>
         <v>3.0682999999999998</v>
       </c>
       <c r="I50" s="18">
-        <f>ROUND(100*(Índices!I50/Índices!I49-1),4)</f>
         <v>1.7798</v>
       </c>
       <c r="J50" s="17">
-        <f>ROUND(100*(Índices!J50/Índices!J49-1),4)</f>
         <v>2.2172999999999998</v>
       </c>
       <c r="K50" s="17">
-        <f>ROUND(100*(Índices!K50/Índices!K49-1),4)</f>
         <v>2.5206</v>
       </c>
       <c r="L50" s="17">
-        <f>ROUND(100*(Índices!L50/Índices!L49-1),4)</f>
         <v>2.6541000000000001</v>
       </c>
       <c r="M50" s="17">
-        <f>ROUND(100*(Índices!M50/Índices!M49-1),4)</f>
         <v>1.5441</v>
       </c>
       <c r="N50" s="17">
-        <f>ROUND(100*(Índices!N50/Índices!N49-1),4)</f>
         <v>1.925</v>
       </c>
       <c r="O50" s="17">
-        <f>ROUND(100*(Índices!O50/Índices!O49-1),4)</f>
         <v>3.4538000000000002</v>
       </c>
       <c r="P50" s="17">
-        <f>ROUND(100*(Índices!P50/Índices!P49-1),4)</f>
         <v>3.6034000000000002</v>
       </c>
       <c r="Q50" s="17">
-        <f>ROUND(100*(Índices!Q50/Índices!Q49-1),4)</f>
         <v>0.219</v>
       </c>
       <c r="R50" s="17">
-        <f>ROUND(100*(Índices!R50/Índices!R49-1),4)</f>
         <v>1.3292999999999999</v>
       </c>
       <c r="S50" s="17">
-        <f>ROUND(100*(Índices!S50/Índices!S49-1),4)</f>
         <v>1.8309</v>
       </c>
       <c r="T50" s="17">
-        <f>ROUND(100*(Índices!T50/Índices!T49-1),4)</f>
         <v>1.7790999999999999</v>
       </c>
       <c r="U50" s="18">
-        <f>ROUND(100*(Índices!U50/Índices!U49-1),4)</f>
         <v>1.7427999999999999</v>
       </c>
       <c r="V50" s="16">
-        <f>ROUND(100*(Índices!V50/Índices!V49-1),4)</f>
         <v>2.0783999999999998</v>
       </c>
     </row>
@@ -10101,83 +8885,63 @@
         <v>44105</v>
       </c>
       <c r="C51" s="16">
-        <f>ROUND(100*(Índices!C51/Índices!C50-1),4)</f>
         <v>3.4539</v>
       </c>
       <c r="D51" s="17">
-        <f>ROUND(100*(Índices!D51/Índices!D50-1),4)</f>
         <v>3.1968000000000001</v>
       </c>
       <c r="E51" s="17">
-        <f>ROUND(100*(Índices!E51/Índices!E50-1),4)</f>
         <v>3.7366999999999999</v>
       </c>
       <c r="F51" s="17">
-        <f>ROUND(100*(Índices!F51/Índices!F50-1),4)</f>
         <v>3.8408000000000002</v>
       </c>
       <c r="G51" s="17">
-        <f>ROUND(100*(Índices!G51/Índices!G50-1),4)</f>
         <v>3.3927</v>
       </c>
       <c r="H51" s="17">
-        <f>ROUND(100*(Índices!H51/Índices!H50-1),4)</f>
         <v>3.5901999999999998</v>
       </c>
       <c r="I51" s="18">
-        <f>ROUND(100*(Índices!I51/Índices!I50-1),4)</f>
         <v>3.1194999999999999</v>
       </c>
       <c r="J51" s="17">
-        <f>ROUND(100*(Índices!J51/Índices!J50-1),4)</f>
         <v>4.1060999999999996</v>
       </c>
       <c r="K51" s="17">
-        <f>ROUND(100*(Índices!K51/Índices!K50-1),4)</f>
         <v>1.819</v>
       </c>
       <c r="L51" s="17">
-        <f>ROUND(100*(Índices!L51/Índices!L50-1),4)</f>
         <v>5.1702000000000004</v>
       </c>
       <c r="M51" s="17">
-        <f>ROUND(100*(Índices!M51/Índices!M50-1),4)</f>
         <v>2.3330000000000002</v>
       </c>
       <c r="N51" s="17">
-        <f>ROUND(100*(Índices!N51/Índices!N50-1),4)</f>
         <v>4.2408999999999999</v>
       </c>
       <c r="O51" s="17">
-        <f>ROUND(100*(Índices!O51/Índices!O50-1),4)</f>
         <v>3.0581999999999998</v>
       </c>
       <c r="P51" s="17">
-        <f>ROUND(100*(Índices!P51/Índices!P50-1),4)</f>
         <v>4.1612999999999998</v>
       </c>
       <c r="Q51" s="17">
-        <f>ROUND(100*(Índices!Q51/Índices!Q50-1),4)</f>
         <v>-0.27450000000000002</v>
       </c>
       <c r="R51" s="17">
-        <f>ROUND(100*(Índices!R51/Índices!R50-1),4)</f>
         <v>2.4754999999999998</v>
       </c>
       <c r="S51" s="17">
-        <f>ROUND(100*(Índices!S51/Índices!S50-1),4)</f>
         <v>0.8246</v>
       </c>
       <c r="T51" s="17">
-        <f>ROUND(100*(Índices!T51/Índices!T50-1),4)</f>
         <v>3.4266999999999999</v>
       </c>
       <c r="U51" s="18">
-        <f>ROUND(100*(Índices!U51/Índices!U50-1),4)</f>
         <v>2.0489000000000002</v>
       </c>
       <c r="V51" s="16">
-        <f>ROUND(100*(Índices!V51/Índices!V50-1),4)</f>
         <v>3.8056000000000001</v>
       </c>
     </row>
@@ -10186,83 +8950,63 @@
         <v>44136</v>
       </c>
       <c r="C52" s="16">
-        <f>ROUND(100*(Índices!C52/Índices!C51-1),4)</f>
         <v>3.4944999999999999</v>
       </c>
       <c r="D52" s="17">
-        <f>ROUND(100*(Índices!D52/Índices!D51-1),4)</f>
         <v>3.4813000000000001</v>
       </c>
       <c r="E52" s="17">
-        <f>ROUND(100*(Índices!E52/Índices!E51-1),4)</f>
         <v>3.5611999999999999</v>
       </c>
       <c r="F52" s="17">
-        <f>ROUND(100*(Índices!F52/Índices!F51-1),4)</f>
         <v>3.4348000000000001</v>
       </c>
       <c r="G52" s="17">
-        <f>ROUND(100*(Índices!G52/Índices!G51-1),4)</f>
         <v>3.9167999999999998</v>
       </c>
       <c r="H52" s="17">
-        <f>ROUND(100*(Índices!H52/Índices!H51-1),4)</f>
         <v>3.4411</v>
       </c>
       <c r="I52" s="18">
-        <f>ROUND(100*(Índices!I52/Índices!I51-1),4)</f>
         <v>3.1040999999999999</v>
       </c>
       <c r="J52" s="17">
-        <f>ROUND(100*(Índices!J52/Índices!J51-1),4)</f>
         <v>3.5173000000000001</v>
       </c>
       <c r="K52" s="17">
-        <f>ROUND(100*(Índices!K52/Índices!K51-1),4)</f>
         <v>2.4735</v>
       </c>
       <c r="L52" s="17">
-        <f>ROUND(100*(Índices!L52/Índices!L51-1),4)</f>
         <v>4.4504999999999999</v>
       </c>
       <c r="M52" s="17">
-        <f>ROUND(100*(Índices!M52/Índices!M51-1),4)</f>
         <v>2.5240999999999998</v>
       </c>
       <c r="N52" s="17">
-        <f>ROUND(100*(Índices!N52/Índices!N51-1),4)</f>
         <v>4.2145999999999999</v>
       </c>
       <c r="O52" s="17">
-        <f>ROUND(100*(Índices!O52/Índices!O51-1),4)</f>
         <v>3.6699000000000002</v>
       </c>
       <c r="P52" s="17">
-        <f>ROUND(100*(Índices!P52/Índices!P51-1),4)</f>
         <v>3.6032999999999999</v>
       </c>
       <c r="Q52" s="17">
-        <f>ROUND(100*(Índices!Q52/Índices!Q51-1),4)</f>
         <v>-0.58879999999999999</v>
       </c>
       <c r="R52" s="17">
-        <f>ROUND(100*(Índices!R52/Índices!R51-1),4)</f>
         <v>5.4192</v>
       </c>
       <c r="S52" s="17">
-        <f>ROUND(100*(Índices!S52/Índices!S51-1),4)</f>
         <v>2.4493999999999998</v>
       </c>
       <c r="T52" s="17">
-        <f>ROUND(100*(Índices!T52/Índices!T51-1),4)</f>
         <v>3.2786</v>
       </c>
       <c r="U52" s="18">
-        <f>ROUND(100*(Índices!U52/Índices!U51-1),4)</f>
         <v>2.6128</v>
       </c>
       <c r="V52" s="16">
-        <f>ROUND(100*(Índices!V52/Índices!V51-1),4)</f>
         <v>3.8178000000000001</v>
       </c>
     </row>
@@ -10271,83 +9015,63 @@
         <v>44166</v>
       </c>
       <c r="C53" s="16">
-        <f>ROUND(100*(Índices!C53/Índices!C52-1),4)</f>
         <v>4.2008000000000001</v>
       </c>
       <c r="D53" s="17">
-        <f>ROUND(100*(Índices!D53/Índices!D52-1),4)</f>
         <v>4.0951000000000004</v>
       </c>
       <c r="E53" s="17">
-        <f>ROUND(100*(Índices!E53/Índices!E52-1),4)</f>
         <v>4.3826000000000001</v>
       </c>
       <c r="F53" s="17">
-        <f>ROUND(100*(Índices!F53/Índices!F52-1),4)</f>
         <v>4.4859999999999998</v>
       </c>
       <c r="G53" s="17">
-        <f>ROUND(100*(Índices!G53/Índices!G52-1),4)</f>
         <v>5.4359999999999999</v>
       </c>
       <c r="H53" s="17">
-        <f>ROUND(100*(Índices!H53/Índices!H52-1),4)</f>
         <v>4.5430999999999999</v>
       </c>
       <c r="I53" s="18">
-        <f>ROUND(100*(Índices!I53/Índices!I52-1),4)</f>
         <v>3.4335</v>
       </c>
       <c r="J53" s="17">
-        <f>ROUND(100*(Índices!J53/Índices!J52-1),4)</f>
         <v>4.7580999999999998</v>
       </c>
       <c r="K53" s="17">
-        <f>ROUND(100*(Índices!K53/Índices!K52-1),4)</f>
         <v>3.5116999999999998</v>
       </c>
       <c r="L53" s="17">
-        <f>ROUND(100*(Índices!L53/Índices!L52-1),4)</f>
         <v>4.8305999999999996</v>
       </c>
       <c r="M53" s="17">
-        <f>ROUND(100*(Índices!M53/Índices!M52-1),4)</f>
         <v>2.9033000000000002</v>
       </c>
       <c r="N53" s="17">
-        <f>ROUND(100*(Índices!N53/Índices!N52-1),4)</f>
         <v>2.6760000000000002</v>
       </c>
       <c r="O53" s="17">
-        <f>ROUND(100*(Índices!O53/Índices!O52-1),4)</f>
         <v>5.2423000000000002</v>
       </c>
       <c r="P53" s="17">
-        <f>ROUND(100*(Índices!P53/Índices!P52-1),4)</f>
         <v>4.8912000000000004</v>
       </c>
       <c r="Q53" s="17">
-        <f>ROUND(100*(Índices!Q53/Índices!Q52-1),4)</f>
         <v>-0.80549999999999999</v>
       </c>
       <c r="R53" s="17">
-        <f>ROUND(100*(Índices!R53/Índices!R52-1),4)</f>
         <v>5.3807999999999998</v>
       </c>
       <c r="S53" s="17">
-        <f>ROUND(100*(Índices!S53/Índices!S52-1),4)</f>
         <v>2.2625000000000002</v>
       </c>
       <c r="T53" s="17">
-        <f>ROUND(100*(Índices!T53/Índices!T52-1),4)</f>
         <v>4.5640999999999998</v>
       </c>
       <c r="U53" s="18">
-        <f>ROUND(100*(Índices!U53/Índices!U52-1),4)</f>
         <v>1.7444999999999999</v>
       </c>
       <c r="V53" s="16">
-        <f>ROUND(100*(Índices!V53/Índices!V52-1),4)</f>
         <v>4.4638</v>
       </c>
     </row>
@@ -10356,83 +9080,63 @@
         <v>44197</v>
       </c>
       <c r="C54" s="16">
-        <f>ROUND(100*(Índices!C54/Índices!C53-1),4)</f>
         <v>4.2793999999999999</v>
       </c>
       <c r="D54" s="17">
-        <f>ROUND(100*(Índices!D54/Índices!D53-1),4)</f>
         <v>3.59</v>
       </c>
       <c r="E54" s="17">
-        <f>ROUND(100*(Índices!E54/Índices!E53-1),4)</f>
         <v>4.7582000000000004</v>
       </c>
       <c r="F54" s="17">
-        <f>ROUND(100*(Índices!F54/Índices!F53-1),4)</f>
         <v>5.6329000000000002</v>
       </c>
       <c r="G54" s="17">
-        <f>ROUND(100*(Índices!G54/Índices!G53-1),4)</f>
         <v>4.6313000000000004</v>
       </c>
       <c r="H54" s="17">
-        <f>ROUND(100*(Índices!H54/Índices!H53-1),4)</f>
         <v>4.6890000000000001</v>
       </c>
       <c r="I54" s="18">
-        <f>ROUND(100*(Índices!I54/Índices!I53-1),4)</f>
         <v>4.569</v>
       </c>
       <c r="J54" s="17">
-        <f>ROUND(100*(Índices!J54/Índices!J53-1),4)</f>
         <v>4.4836999999999998</v>
       </c>
       <c r="K54" s="17">
-        <f>ROUND(100*(Índices!K54/Índices!K53-1),4)</f>
         <v>4.4051999999999998</v>
       </c>
       <c r="L54" s="17">
-        <f>ROUND(100*(Índices!L54/Índices!L53-1),4)</f>
         <v>4.5086000000000004</v>
       </c>
       <c r="M54" s="17">
-        <f>ROUND(100*(Índices!M54/Índices!M53-1),4)</f>
         <v>1.2412000000000001</v>
       </c>
       <c r="N54" s="17">
-        <f>ROUND(100*(Índices!N54/Índices!N53-1),4)</f>
         <v>3.6484999999999999</v>
       </c>
       <c r="O54" s="17">
-        <f>ROUND(100*(Índices!O54/Índices!O53-1),4)</f>
         <v>3.4253999999999998</v>
       </c>
       <c r="P54" s="17">
-        <f>ROUND(100*(Índices!P54/Índices!P53-1),4)</f>
         <v>4.6513999999999998</v>
       </c>
       <c r="Q54" s="17">
-        <f>ROUND(100*(Índices!Q54/Índices!Q53-1),4)</f>
         <v>14.244400000000001</v>
       </c>
       <c r="R54" s="17">
-        <f>ROUND(100*(Índices!R54/Índices!R53-1),4)</f>
         <v>4.4019000000000004</v>
       </c>
       <c r="S54" s="17">
-        <f>ROUND(100*(Índices!S54/Índices!S53-1),4)</f>
         <v>3.3509000000000002</v>
       </c>
       <c r="T54" s="17">
-        <f>ROUND(100*(Índices!T54/Índices!T53-1),4)</f>
         <v>5.2671999999999999</v>
       </c>
       <c r="U54" s="18">
-        <f>ROUND(100*(Índices!U54/Índices!U53-1),4)</f>
         <v>2.0855999999999999</v>
       </c>
       <c r="V54" s="16">
-        <f>ROUND(100*(Índices!V54/Índices!V53-1),4)</f>
         <v>4.4154999999999998</v>
       </c>
     </row>
@@ -10441,83 +9145,63 @@
         <v>44228</v>
       </c>
       <c r="C55" s="16">
-        <f>ROUND(100*(Índices!C55/Índices!C54-1),4)</f>
         <v>3.7623000000000002</v>
       </c>
       <c r="D55" s="17">
-        <f>ROUND(100*(Índices!D55/Índices!D54-1),4)</f>
         <v>3.9478</v>
       </c>
       <c r="E55" s="17">
-        <f>ROUND(100*(Índices!E55/Índices!E54-1),4)</f>
         <v>3.5175999999999998</v>
       </c>
       <c r="F55" s="17">
-        <f>ROUND(100*(Índices!F55/Índices!F54-1),4)</f>
         <v>3.3633999999999999</v>
       </c>
       <c r="G55" s="17">
-        <f>ROUND(100*(Índices!G55/Índices!G54-1),4)</f>
         <v>3.8380999999999998</v>
       </c>
       <c r="H55" s="17">
-        <f>ROUND(100*(Índices!H55/Índices!H54-1),4)</f>
         <v>4.0086000000000004</v>
       </c>
       <c r="I55" s="18">
-        <f>ROUND(100*(Índices!I55/Índices!I54-1),4)</f>
         <v>4.1360000000000001</v>
       </c>
       <c r="J55" s="17">
-        <f>ROUND(100*(Índices!J55/Índices!J54-1),4)</f>
         <v>3.3197000000000001</v>
       </c>
       <c r="K55" s="17">
-        <f>ROUND(100*(Índices!K55/Índices!K54-1),4)</f>
         <v>4.1482999999999999</v>
       </c>
       <c r="L55" s="17">
-        <f>ROUND(100*(Índices!L55/Índices!L54-1),4)</f>
         <v>5.0835999999999997</v>
       </c>
       <c r="M55" s="17">
-        <f>ROUND(100*(Índices!M55/Índices!M54-1),4)</f>
         <v>2.0367000000000002</v>
       </c>
       <c r="N55" s="17">
-        <f>ROUND(100*(Índices!N55/Índices!N54-1),4)</f>
         <v>4.9219999999999997</v>
       </c>
       <c r="O55" s="17">
-        <f>ROUND(100*(Índices!O55/Índices!O54-1),4)</f>
         <v>3.5205000000000002</v>
       </c>
       <c r="P55" s="17">
-        <f>ROUND(100*(Índices!P55/Índices!P54-1),4)</f>
         <v>4.8215000000000003</v>
       </c>
       <c r="Q55" s="17">
-        <f>ROUND(100*(Índices!Q55/Índices!Q54-1),4)</f>
         <v>1.657</v>
       </c>
       <c r="R55" s="17">
-        <f>ROUND(100*(Índices!R55/Índices!R54-1),4)</f>
         <v>3.1646000000000001</v>
       </c>
       <c r="S55" s="17">
-        <f>ROUND(100*(Índices!S55/Índices!S54-1),4)</f>
         <v>1.2754000000000001</v>
       </c>
       <c r="T55" s="17">
-        <f>ROUND(100*(Índices!T55/Índices!T54-1),4)</f>
         <v>5.3807999999999998</v>
       </c>
       <c r="U55" s="18">
-        <f>ROUND(100*(Índices!U55/Índices!U54-1),4)</f>
         <v>3.2705000000000002</v>
       </c>
       <c r="V55" s="16">
-        <f>ROUND(100*(Índices!V55/Índices!V54-1),4)</f>
         <v>4.0206999999999997</v>
       </c>
     </row>
@@ -10526,84 +9210,64 @@
         <v>44256</v>
       </c>
       <c r="C56" s="16">
-        <f>ROUND(100*(Índices!C56/Índices!C55-1),4)</f>
-        <v>4.0198</v>
+        <v>4.0189000000000004</v>
       </c>
       <c r="D56" s="17">
-        <f>ROUND(100*(Índices!D56/Índices!D55-1),4)</f>
         <v>4.1342999999999996</v>
       </c>
       <c r="E56" s="17">
-        <f>ROUND(100*(Índices!E56/Índices!E55-1),4)</f>
         <v>4.0995999999999997</v>
       </c>
       <c r="F56" s="17">
-        <f>ROUND(100*(Índices!F56/Índices!F55-1),4)</f>
-        <v>3.4268999999999998</v>
+        <v>3.4169</v>
       </c>
       <c r="G56" s="17">
-        <f>ROUND(100*(Índices!G56/Índices!G55-1),4)</f>
-        <v>2.9992999999999999</v>
+        <v>2.9883999999999999</v>
       </c>
       <c r="H56" s="17">
-        <f>ROUND(100*(Índices!H56/Índices!H55-1),4)</f>
-        <v>3.7444999999999999</v>
+        <v>3.7481</v>
       </c>
       <c r="I56" s="18">
-        <f>ROUND(100*(Índices!I56/Índices!I55-1),4)</f>
         <v>3.4946000000000002</v>
       </c>
       <c r="J56" s="17">
-        <f>ROUND(100*(Índices!J56/Índices!J55-1),4)</f>
-        <v>3.6594000000000002</v>
+        <v>3.6539999999999999</v>
       </c>
       <c r="K56" s="17">
-        <f>ROUND(100*(Índices!K56/Índices!K55-1),4)</f>
-        <v>5.8935000000000004</v>
+        <v>5.9040999999999997</v>
       </c>
       <c r="L56" s="17">
-        <f>ROUND(100*(Índices!L56/Índices!L55-1),4)</f>
-        <v>7.1611000000000002</v>
+        <v>7.1685999999999996</v>
       </c>
       <c r="M56" s="17">
-        <f>ROUND(100*(Índices!M56/Índices!M55-1),4)</f>
         <v>1.3351999999999999</v>
       </c>
       <c r="N56" s="17">
-        <f>ROUND(100*(Índices!N56/Índices!N55-1),4)</f>
-        <v>3.2079</v>
+        <v>3.2061000000000002</v>
       </c>
       <c r="O56" s="17">
-        <f>ROUND(100*(Índices!O56/Índices!O55-1),4)</f>
         <v>4.0134999999999996</v>
       </c>
       <c r="P56" s="17">
-        <f>ROUND(100*(Índices!P56/Índices!P55-1),4)</f>
         <v>4.1996000000000002</v>
       </c>
       <c r="Q56" s="17">
-        <f>ROUND(100*(Índices!Q56/Índices!Q55-1),4)</f>
-        <v>8.0100000000000005E-2</v>
+        <v>8.2400000000000001E-2</v>
       </c>
       <c r="R56" s="17">
-        <f>ROUND(100*(Índices!R56/Índices!R55-1),4)</f>
-        <v>5.8602999999999996</v>
+        <v>5.8589000000000002</v>
       </c>
       <c r="S56" s="17">
-        <f>ROUND(100*(Índices!S56/Índices!S55-1),4)</f>
-        <v>10.355399999999999</v>
+        <v>10.3474</v>
       </c>
       <c r="T56" s="17">
-        <f>ROUND(100*(Índices!T56/Índices!T55-1),4)</f>
-        <v>3.1459000000000001</v>
+        <v>3.145</v>
       </c>
       <c r="U56" s="18">
-        <f>ROUND(100*(Índices!U56/Índices!U55-1),4)</f>
-        <v>2.2414999999999998</v>
+        <v>2.2416</v>
       </c>
       <c r="V56" s="16">
-        <f>ROUND(100*(Índices!V56/Índices!V55-1),4)</f>
-        <v>4.2736999999999998</v>
+        <v>4.2638999999999996</v>
       </c>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.25">
@@ -10611,84 +9275,64 @@
         <v>44287</v>
       </c>
       <c r="C57" s="16">
-        <f>ROUND(100*(Índices!C57/Índices!C56-1),4)</f>
-        <v>4.0601000000000003</v>
+        <v>4.0617999999999999</v>
       </c>
       <c r="D57" s="17">
-        <f>ROUND(100*(Índices!D57/Índices!D56-1),4)</f>
         <v>4.12</v>
       </c>
       <c r="E57" s="17">
-        <f>ROUND(100*(Índices!E57/Índices!E56-1),4)</f>
-        <v>3.8887999999999998</v>
+        <v>3.8887</v>
       </c>
       <c r="F57" s="17">
-        <f>ROUND(100*(Índices!F57/Índices!F56-1),4)</f>
-        <v>3.8761999999999999</v>
+        <v>3.8961999999999999</v>
       </c>
       <c r="G57" s="17">
-        <f>ROUND(100*(Índices!G57/Índices!G56-1),4)</f>
-        <v>4.1976000000000004</v>
+        <v>4.2196999999999996</v>
       </c>
       <c r="H57" s="17">
-        <f>ROUND(100*(Índices!H57/Índices!H56-1),4)</f>
-        <v>4.0734000000000004</v>
+        <v>4.0660999999999996</v>
       </c>
       <c r="I57" s="18">
-        <f>ROUND(100*(Índices!I57/Índices!I56-1),4)</f>
         <v>4.7817999999999996</v>
       </c>
       <c r="J57" s="17">
-        <f>ROUND(100*(Índices!J57/Índices!J56-1),4)</f>
-        <v>4.601</v>
+        <v>4.6119000000000003</v>
       </c>
       <c r="K57" s="17">
-        <f>ROUND(100*(Índices!K57/Índices!K56-1),4)</f>
-        <v>4.4942000000000002</v>
+        <v>4.4733000000000001</v>
       </c>
       <c r="L57" s="17">
-        <f>ROUND(100*(Índices!L57/Índices!L56-1),4)</f>
-        <v>3.88</v>
+        <v>3.8653</v>
       </c>
       <c r="M57" s="17">
-        <f>ROUND(100*(Índices!M57/Índices!M56-1),4)</f>
         <v>3.4302000000000001</v>
       </c>
       <c r="N57" s="17">
-        <f>ROUND(100*(Índices!N57/Índices!N56-1),4)</f>
-        <v>4.6002999999999998</v>
+        <v>4.6039000000000003</v>
       </c>
       <c r="O57" s="17">
-        <f>ROUND(100*(Índices!O57/Índices!O56-1),4)</f>
         <v>3.7359</v>
       </c>
       <c r="P57" s="17">
-        <f>ROUND(100*(Índices!P57/Índices!P56-1),4)</f>
         <v>5.6657999999999999</v>
       </c>
       <c r="Q57" s="17">
-        <f>ROUND(100*(Índices!Q57/Índices!Q56-1),4)</f>
-        <v>0.96540000000000004</v>
+        <v>0.9607</v>
       </c>
       <c r="R57" s="17">
-        <f>ROUND(100*(Índices!R57/Índices!R56-1),4)</f>
-        <v>1.6794</v>
+        <v>1.6821999999999999</v>
       </c>
       <c r="S57" s="17">
-        <f>ROUND(100*(Índices!S57/Índices!S56-1),4)</f>
-        <v>4.0076000000000001</v>
+        <v>4.0227000000000004</v>
       </c>
       <c r="T57" s="17">
-        <f>ROUND(100*(Índices!T57/Índices!T56-1),4)</f>
-        <v>3.8576000000000001</v>
+        <v>3.8593000000000002</v>
       </c>
       <c r="U57" s="18">
-        <f>ROUND(100*(Índices!U57/Índices!U56-1),4)</f>
-        <v>3.7040000000000002</v>
+        <v>3.7037</v>
       </c>
       <c r="V57" s="16">
-        <f>ROUND(100*(Índices!V57/Índices!V56-1),4)</f>
-        <v>4.0069999999999997</v>
+        <v>4.0263999999999998</v>
       </c>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.25">
@@ -10696,84 +9340,64 @@
         <v>44317</v>
       </c>
       <c r="C58" s="16">
-        <f>ROUND(100*(Índices!C58/Índices!C57-1),4)</f>
-        <v>3.6461000000000001</v>
+        <v>3.6453000000000002</v>
       </c>
       <c r="D58" s="17">
-        <f>ROUND(100*(Índices!D58/Índices!D57-1),4)</f>
         <v>3.8167</v>
       </c>
       <c r="E58" s="17">
-        <f>ROUND(100*(Índices!E58/Índices!E57-1),4)</f>
         <v>3.5133999999999999</v>
       </c>
       <c r="F58" s="17">
-        <f>ROUND(100*(Índices!F58/Índices!F57-1),4)</f>
-        <v>3.6436999999999999</v>
+        <v>3.6337000000000002</v>
       </c>
       <c r="G58" s="17">
-        <f>ROUND(100*(Índices!G58/Índices!G57-1),4)</f>
-        <v>3.5434999999999999</v>
+        <v>3.5326</v>
       </c>
       <c r="H58" s="17">
-        <f>ROUND(100*(Índices!H58/Índices!H57-1),4)</f>
-        <v>3.9864000000000002</v>
+        <v>3.9901</v>
       </c>
       <c r="I58" s="18">
-        <f>ROUND(100*(Índices!I58/Índices!I57-1),4)</f>
         <v>3.7433000000000001</v>
       </c>
       <c r="J58" s="17">
-        <f>ROUND(100*(Índices!J58/Índices!J57-1),4)</f>
-        <v>3.9438</v>
+        <v>3.9384000000000001</v>
       </c>
       <c r="K58" s="17">
-        <f>ROUND(100*(Índices!K58/Índices!K57-1),4)</f>
-        <v>2.1656</v>
+        <v>2.1758000000000002</v>
       </c>
       <c r="L58" s="17">
-        <f>ROUND(100*(Índices!L58/Índices!L57-1),4)</f>
-        <v>2.8138000000000001</v>
+        <v>2.8210999999999999</v>
       </c>
       <c r="M58" s="17">
-        <f>ROUND(100*(Índices!M58/Índices!M57-1),4)</f>
         <v>1.9985999999999999</v>
       </c>
       <c r="N58" s="17">
-        <f>ROUND(100*(Índices!N58/Índices!N57-1),4)</f>
-        <v>2.5316000000000001</v>
+        <v>2.5299</v>
       </c>
       <c r="O58" s="17">
-        <f>ROUND(100*(Índices!O58/Índices!O57-1),4)</f>
         <v>4.7411000000000003</v>
       </c>
       <c r="P58" s="17">
-        <f>ROUND(100*(Índices!P58/Índices!P57-1),4)</f>
         <v>5.9431000000000003</v>
       </c>
       <c r="Q58" s="17">
-        <f>ROUND(100*(Índices!Q58/Índices!Q57-1),4)</f>
-        <v>1.4035</v>
+        <v>1.4057999999999999</v>
       </c>
       <c r="R58" s="17">
-        <f>ROUND(100*(Índices!R58/Índices!R57-1),4)</f>
-        <v>3.1593</v>
+        <v>3.1579000000000002</v>
       </c>
       <c r="S58" s="17">
-        <f>ROUND(100*(Índices!S58/Índices!S57-1),4)</f>
-        <v>3.1419000000000001</v>
+        <v>3.1343999999999999</v>
       </c>
       <c r="T58" s="17">
-        <f>ROUND(100*(Índices!T58/Índices!T57-1),4)</f>
-        <v>3.774</v>
+        <v>3.7732000000000001</v>
       </c>
       <c r="U58" s="18">
-        <f>ROUND(100*(Índices!U58/Índices!U57-1),4)</f>
-        <v>2.9822000000000002</v>
+        <v>2.9824000000000002</v>
       </c>
       <c r="V58" s="16">
-        <f>ROUND(100*(Índices!V58/Índices!V57-1),4)</f>
-        <v>3.4489000000000001</v>
+        <v>3.4392</v>
       </c>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.25">
@@ -10781,83 +9405,63 @@
         <v>44348</v>
       </c>
       <c r="C59" s="16">
-        <f>ROUND(100*(Índices!C59/Índices!C58-1),4)</f>
         <v>3.3576999999999999</v>
       </c>
       <c r="D59" s="17">
-        <f>ROUND(100*(Índices!D59/Índices!D58-1),4)</f>
         <v>3.1556000000000002</v>
       </c>
       <c r="E59" s="17">
-        <f>ROUND(100*(Índices!E59/Índices!E58-1),4)</f>
         <v>3.4782999999999999</v>
       </c>
       <c r="F59" s="17">
-        <f>ROUND(100*(Índices!F59/Índices!F58-1),4)</f>
         <v>3.4927000000000001</v>
       </c>
       <c r="G59" s="17">
-        <f>ROUND(100*(Índices!G59/Índices!G58-1),4)</f>
         <v>3.1840999999999999</v>
       </c>
       <c r="H59" s="17">
-        <f>ROUND(100*(Índices!H59/Índices!H58-1),4)</f>
         <v>3.6261999999999999</v>
       </c>
       <c r="I59" s="18">
-        <f>ROUND(100*(Índices!I59/Índices!I58-1),4)</f>
         <v>3.5430000000000001</v>
       </c>
       <c r="J59" s="17">
-        <f>ROUND(100*(Índices!J59/Índices!J58-1),4)</f>
         <v>3.7336999999999998</v>
       </c>
       <c r="K59" s="17">
-        <f>ROUND(100*(Índices!K59/Índices!K58-1),4)</f>
         <v>5.6577000000000002</v>
       </c>
       <c r="L59" s="17">
-        <f>ROUND(100*(Índices!L59/Índices!L58-1),4)</f>
         <v>3.3948999999999998</v>
       </c>
       <c r="M59" s="17">
-        <f>ROUND(100*(Índices!M59/Índices!M58-1),4)</f>
         <v>2.5005000000000002</v>
       </c>
       <c r="N59" s="17">
-        <f>ROUND(100*(Índices!N59/Índices!N58-1),4)</f>
         <v>2.9211999999999998</v>
       </c>
       <c r="O59" s="17">
-        <f>ROUND(100*(Índices!O59/Índices!O58-1),4)</f>
         <v>3.2214</v>
       </c>
       <c r="P59" s="17">
-        <f>ROUND(100*(Índices!P59/Índices!P58-1),4)</f>
         <v>3.2591000000000001</v>
       </c>
       <c r="Q59" s="17">
-        <f>ROUND(100*(Índices!Q59/Índices!Q58-1),4)</f>
         <v>7.0576999999999996</v>
       </c>
       <c r="R59" s="17">
-        <f>ROUND(100*(Índices!R59/Índices!R58-1),4)</f>
         <v>2.1692999999999998</v>
       </c>
       <c r="S59" s="17">
-        <f>ROUND(100*(Índices!S59/Índices!S58-1),4)</f>
         <v>3.1240000000000001</v>
       </c>
       <c r="T59" s="17">
-        <f>ROUND(100*(Índices!T59/Índices!T58-1),4)</f>
         <v>3.1387</v>
       </c>
       <c r="U59" s="18">
-        <f>ROUND(100*(Índices!U59/Índices!U58-1),4)</f>
         <v>1.9539</v>
       </c>
       <c r="V59" s="16">
-        <f>ROUND(100*(Índices!V59/Índices!V58-1),4)</f>
         <v>3.3393000000000002</v>
       </c>
     </row>
@@ -10866,83 +9470,63 @@
         <v>44378</v>
       </c>
       <c r="C60" s="16">
-        <f>ROUND(100*(Índices!C60/Índices!C59-1),4)</f>
         <v>3.2077</v>
       </c>
       <c r="D60" s="17">
-        <f>ROUND(100*(Índices!D60/Índices!D59-1),4)</f>
         <v>3.2057000000000002</v>
       </c>
       <c r="E60" s="17">
-        <f>ROUND(100*(Índices!E60/Índices!E59-1),4)</f>
         <v>3.2208000000000001</v>
       </c>
       <c r="F60" s="17">
-        <f>ROUND(100*(Índices!F60/Índices!F59-1),4)</f>
         <v>3.1080999999999999</v>
       </c>
       <c r="G60" s="17">
-        <f>ROUND(100*(Índices!G60/Índices!G59-1),4)</f>
         <v>3.1789999999999998</v>
       </c>
       <c r="H60" s="17">
-        <f>ROUND(100*(Índices!H60/Índices!H59-1),4)</f>
         <v>3.3073000000000001</v>
       </c>
       <c r="I60" s="18">
-        <f>ROUND(100*(Índices!I60/Índices!I59-1),4)</f>
         <v>3.3441000000000001</v>
       </c>
       <c r="J60" s="17">
-        <f>ROUND(100*(Índices!J60/Índices!J59-1),4)</f>
         <v>3.9691000000000001</v>
       </c>
       <c r="K60" s="17">
-        <f>ROUND(100*(Índices!K60/Índices!K59-1),4)</f>
         <v>3.4205000000000001</v>
       </c>
       <c r="L60" s="17">
-        <f>ROUND(100*(Índices!L60/Índices!L59-1),4)</f>
         <v>2.5960000000000001</v>
       </c>
       <c r="M60" s="17">
-        <f>ROUND(100*(Índices!M60/Índices!M59-1),4)</f>
         <v>2.8473999999999999</v>
       </c>
       <c r="N60" s="17">
-        <f>ROUND(100*(Índices!N60/Índices!N59-1),4)</f>
         <v>2.1008</v>
       </c>
       <c r="O60" s="17">
-        <f>ROUND(100*(Índices!O60/Índices!O59-1),4)</f>
         <v>3.8389000000000002</v>
       </c>
       <c r="P60" s="17">
-        <f>ROUND(100*(Índices!P60/Índices!P59-1),4)</f>
         <v>2.3123</v>
       </c>
       <c r="Q60" s="17">
-        <f>ROUND(100*(Índices!Q60/Índices!Q59-1),4)</f>
         <v>0.89359999999999995</v>
       </c>
       <c r="R60" s="17">
-        <f>ROUND(100*(Índices!R60/Índices!R59-1),4)</f>
         <v>2.3119999999999998</v>
       </c>
       <c r="S60" s="17">
-        <f>ROUND(100*(Índices!S60/Índices!S59-1),4)</f>
         <v>2.8254999999999999</v>
       </c>
       <c r="T60" s="17">
-        <f>ROUND(100*(Índices!T60/Índices!T59-1),4)</f>
         <v>4.7199</v>
       </c>
       <c r="U60" s="18">
-        <f>ROUND(100*(Índices!U60/Índices!U59-1),4)</f>
         <v>3.2134999999999998</v>
       </c>
       <c r="V60" s="16">
-        <f>ROUND(100*(Índices!V60/Índices!V59-1),4)</f>
         <v>3.4542000000000002</v>
       </c>
     </row>
@@ -10951,83 +9535,63 @@
         <v>44409</v>
       </c>
       <c r="C61" s="16">
-        <f>ROUND(100*(Índices!C61/Índices!C60-1),4)</f>
         <v>2.3698000000000001</v>
       </c>
       <c r="D61" s="17">
-        <f>ROUND(100*(Índices!D61/Índices!D60-1),4)</f>
         <v>2.4708999999999999</v>
       </c>
       <c r="E61" s="17">
-        <f>ROUND(100*(Índices!E61/Índices!E60-1),4)</f>
         <v>2.2957000000000001</v>
       </c>
       <c r="F61" s="17">
-        <f>ROUND(100*(Índices!F61/Índices!F60-1),4)</f>
         <v>2.2042000000000002</v>
       </c>
       <c r="G61" s="17">
-        <f>ROUND(100*(Índices!G61/Índices!G60-1),4)</f>
         <v>2.4698000000000002</v>
       </c>
       <c r="H61" s="17">
-        <f>ROUND(100*(Índices!H61/Índices!H60-1),4)</f>
         <v>1.7625</v>
       </c>
       <c r="I61" s="18">
-        <f>ROUND(100*(Índices!I61/Índices!I60-1),4)</f>
         <v>3.1162999999999998</v>
       </c>
       <c r="J61" s="17">
-        <f>ROUND(100*(Índices!J61/Índices!J60-1),4)</f>
         <v>1.2848999999999999</v>
       </c>
       <c r="K61" s="17">
-        <f>ROUND(100*(Índices!K61/Índices!K60-1),4)</f>
         <v>2.3616000000000001</v>
       </c>
       <c r="L61" s="17">
-        <f>ROUND(100*(Índices!L61/Índices!L60-1),4)</f>
         <v>3.3355000000000001</v>
       </c>
       <c r="M61" s="17">
-        <f>ROUND(100*(Índices!M61/Índices!M60-1),4)</f>
         <v>1.0620000000000001</v>
       </c>
       <c r="N61" s="17">
-        <f>ROUND(100*(Índices!N61/Índices!N60-1),4)</f>
         <v>3.0087000000000002</v>
       </c>
       <c r="O61" s="17">
-        <f>ROUND(100*(Índices!O61/Índices!O60-1),4)</f>
         <v>4.1753999999999998</v>
       </c>
       <c r="P61" s="17">
-        <f>ROUND(100*(Índices!P61/Índices!P60-1),4)</f>
         <v>2.4519000000000002</v>
       </c>
       <c r="Q61" s="17">
-        <f>ROUND(100*(Índices!Q61/Índices!Q60-1),4)</f>
         <v>-0.15790000000000001</v>
       </c>
       <c r="R61" s="17">
-        <f>ROUND(100*(Índices!R61/Índices!R60-1),4)</f>
         <v>3.3275999999999999</v>
       </c>
       <c r="S61" s="17">
-        <f>ROUND(100*(Índices!S61/Índices!S60-1),4)</f>
         <v>4.3937999999999997</v>
       </c>
       <c r="T61" s="17">
-        <f>ROUND(100*(Índices!T61/Índices!T60-1),4)</f>
         <v>2.9710000000000001</v>
       </c>
       <c r="U61" s="18">
-        <f>ROUND(100*(Índices!U61/Índices!U60-1),4)</f>
         <v>3.1804000000000001</v>
       </c>
       <c r="V61" s="16">
-        <f>ROUND(100*(Índices!V61/Índices!V60-1),4)</f>
         <v>2.2938999999999998</v>
       </c>
     </row>
@@ -11036,83 +9600,63 @@
         <v>44440</v>
       </c>
       <c r="C62" s="16">
-        <f>ROUND(100*(Índices!C62/Índices!C61-1),4)</f>
         <v>2.9748999999999999</v>
       </c>
       <c r="D62" s="17">
-        <f>ROUND(100*(Índices!D62/Índices!D61-1),4)</f>
         <v>3.1720000000000002</v>
       </c>
       <c r="E62" s="17">
-        <f>ROUND(100*(Índices!E62/Índices!E61-1),4)</f>
         <v>2.948</v>
       </c>
       <c r="F62" s="17">
-        <f>ROUND(100*(Índices!F62/Índices!F61-1),4)</f>
         <v>2.8369</v>
       </c>
       <c r="G62" s="17">
-        <f>ROUND(100*(Índices!G62/Índices!G61-1),4)</f>
         <v>2.2795999999999998</v>
       </c>
       <c r="H62" s="17">
-        <f>ROUND(100*(Índices!H62/Índices!H61-1),4)</f>
         <v>2.3517000000000001</v>
       </c>
       <c r="I62" s="18">
-        <f>ROUND(100*(Índices!I62/Índices!I61-1),4)</f>
         <v>3.2454000000000001</v>
       </c>
       <c r="J62" s="17">
-        <f>ROUND(100*(Índices!J62/Índices!J61-1),4)</f>
         <v>2.2109000000000001</v>
       </c>
       <c r="K62" s="17">
-        <f>ROUND(100*(Índices!K62/Índices!K61-1),4)</f>
         <v>4.0933000000000002</v>
       </c>
       <c r="L62" s="17">
-        <f>ROUND(100*(Índices!L62/Índices!L61-1),4)</f>
         <v>3.1259000000000001</v>
       </c>
       <c r="M62" s="17">
-        <f>ROUND(100*(Índices!M62/Índices!M61-1),4)</f>
         <v>1.9457</v>
       </c>
       <c r="N62" s="17">
-        <f>ROUND(100*(Índices!N62/Índices!N61-1),4)</f>
         <v>2.8262999999999998</v>
       </c>
       <c r="O62" s="17">
-        <f>ROUND(100*(Índices!O62/Índices!O61-1),4)</f>
         <v>4.2584</v>
       </c>
       <c r="P62" s="17">
-        <f>ROUND(100*(Índices!P62/Índices!P61-1),4)</f>
         <v>3.0255999999999998</v>
       </c>
       <c r="Q62" s="17">
-        <f>ROUND(100*(Índices!Q62/Índices!Q61-1),4)</f>
         <v>2.8311999999999999</v>
       </c>
       <c r="R62" s="17">
-        <f>ROUND(100*(Índices!R62/Índices!R61-1),4)</f>
         <v>3.5125000000000002</v>
       </c>
       <c r="S62" s="17">
-        <f>ROUND(100*(Índices!S62/Índices!S61-1),4)</f>
         <v>4.8974000000000002</v>
       </c>
       <c r="T62" s="17">
-        <f>ROUND(100*(Índices!T62/Índices!T61-1),4)</f>
         <v>4.1239999999999997</v>
       </c>
       <c r="U62" s="18">
-        <f>ROUND(100*(Índices!U62/Índices!U61-1),4)</f>
         <v>2.0848</v>
       </c>
       <c r="V62" s="16">
-        <f>ROUND(100*(Índices!V62/Índices!V61-1),4)</f>
         <v>2.87</v>
       </c>
     </row>
@@ -11121,83 +9665,63 @@
         <v>44470</v>
       </c>
       <c r="C63" s="16">
-        <f>ROUND(100*(Índices!C63/Índices!C62-1),4)</f>
         <v>3.2071000000000001</v>
       </c>
       <c r="D63" s="17">
-        <f>ROUND(100*(Índices!D63/Índices!D62-1),4)</f>
         <v>3.4001000000000001</v>
       </c>
       <c r="E63" s="17">
-        <f>ROUND(100*(Índices!E63/Índices!E62-1),4)</f>
         <v>3.1286</v>
       </c>
       <c r="F63" s="17">
-        <f>ROUND(100*(Índices!F63/Índices!F62-1),4)</f>
         <v>2.9765999999999999</v>
       </c>
       <c r="G63" s="17">
-        <f>ROUND(100*(Índices!G63/Índices!G62-1),4)</f>
         <v>3.1675</v>
       </c>
       <c r="H63" s="17">
-        <f>ROUND(100*(Índices!H63/Índices!H62-1),4)</f>
         <v>3.0453999999999999</v>
       </c>
       <c r="I63" s="18">
-        <f>ROUND(100*(Índices!I63/Índices!I62-1),4)</f>
         <v>2.5251999999999999</v>
       </c>
       <c r="J63" s="17">
-        <f>ROUND(100*(Índices!J63/Índices!J62-1),4)</f>
         <v>2.7608999999999999</v>
       </c>
       <c r="K63" s="17">
-        <f>ROUND(100*(Índices!K63/Índices!K62-1),4)</f>
         <v>2.1168</v>
       </c>
       <c r="L63" s="17">
-        <f>ROUND(100*(Índices!L63/Índices!L62-1),4)</f>
         <v>4.1721000000000004</v>
       </c>
       <c r="M63" s="17">
-        <f>ROUND(100*(Índices!M63/Índices!M62-1),4)</f>
         <v>2.4965999999999999</v>
       </c>
       <c r="N63" s="17">
-        <f>ROUND(100*(Índices!N63/Índices!N62-1),4)</f>
         <v>2.5234000000000001</v>
       </c>
       <c r="O63" s="17">
-        <f>ROUND(100*(Índices!O63/Índices!O62-1),4)</f>
         <v>4.6839000000000004</v>
       </c>
       <c r="P63" s="17">
-        <f>ROUND(100*(Índices!P63/Índices!P62-1),4)</f>
         <v>3.0863999999999998</v>
       </c>
       <c r="Q63" s="17">
-        <f>ROUND(100*(Índices!Q63/Índices!Q62-1),4)</f>
         <v>0.98370000000000002</v>
       </c>
       <c r="R63" s="17">
-        <f>ROUND(100*(Índices!R63/Índices!R62-1),4)</f>
         <v>3.7597</v>
       </c>
       <c r="S63" s="17">
-        <f>ROUND(100*(Índices!S63/Índices!S62-1),4)</f>
         <v>2.0455999999999999</v>
       </c>
       <c r="T63" s="17">
-        <f>ROUND(100*(Índices!T63/Índices!T62-1),4)</f>
         <v>4.1752000000000002</v>
       </c>
       <c r="U63" s="18">
-        <f>ROUND(100*(Índices!U63/Índices!U62-1),4)</f>
         <v>3.3068</v>
       </c>
       <c r="V63" s="16">
-        <f>ROUND(100*(Índices!V63/Índices!V62-1),4)</f>
         <v>3.2282999999999999</v>
       </c>
     </row>
@@ -11206,83 +9730,63 @@
         <v>44501</v>
       </c>
       <c r="C64" s="16">
-        <f>ROUND(100*(Índices!C64/Índices!C63-1),4)</f>
         <v>2.9138999999999999</v>
       </c>
       <c r="D64" s="17">
-        <f>ROUND(100*(Índices!D64/Índices!D63-1),4)</f>
         <v>2.8231999999999999</v>
       </c>
       <c r="E64" s="17">
-        <f>ROUND(100*(Índices!E64/Índices!E63-1),4)</f>
         <v>3.0179999999999998</v>
       </c>
       <c r="F64" s="17">
-        <f>ROUND(100*(Índices!F64/Índices!F63-1),4)</f>
         <v>3.0129000000000001</v>
       </c>
       <c r="G64" s="17">
-        <f>ROUND(100*(Índices!G64/Índices!G63-1),4)</f>
         <v>3.2235999999999998</v>
       </c>
       <c r="H64" s="17">
-        <f>ROUND(100*(Índices!H64/Índices!H63-1),4)</f>
         <v>2.9478</v>
       </c>
       <c r="I64" s="18">
-        <f>ROUND(100*(Índices!I64/Índices!I63-1),4)</f>
         <v>2.3885000000000001</v>
       </c>
       <c r="J64" s="17">
-        <f>ROUND(100*(Índices!J64/Índices!J63-1),4)</f>
         <v>2.9146000000000001</v>
       </c>
       <c r="K64" s="17">
-        <f>ROUND(100*(Índices!K64/Índices!K63-1),4)</f>
         <v>0.59740000000000004</v>
       </c>
       <c r="L64" s="17">
-        <f>ROUND(100*(Índices!L64/Índices!L63-1),4)</f>
         <v>5.1551999999999998</v>
       </c>
       <c r="M64" s="17">
-        <f>ROUND(100*(Índices!M64/Índices!M63-1),4)</f>
         <v>2.2027999999999999</v>
       </c>
       <c r="N64" s="17">
-        <f>ROUND(100*(Índices!N64/Índices!N63-1),4)</f>
         <v>2.9695999999999998</v>
       </c>
       <c r="O64" s="17">
-        <f>ROUND(100*(Índices!O64/Índices!O63-1),4)</f>
         <v>2.4380999999999999</v>
       </c>
       <c r="P64" s="17">
-        <f>ROUND(100*(Índices!P64/Índices!P63-1),4)</f>
         <v>2.2120000000000002</v>
       </c>
       <c r="Q64" s="17">
-        <f>ROUND(100*(Índices!Q64/Índices!Q63-1),4)</f>
         <v>0.7893</v>
       </c>
       <c r="R64" s="17">
-        <f>ROUND(100*(Índices!R64/Índices!R63-1),4)</f>
         <v>1.7862</v>
       </c>
       <c r="S64" s="17">
-        <f>ROUND(100*(Índices!S64/Índices!S63-1),4)</f>
         <v>3.0680999999999998</v>
       </c>
       <c r="T64" s="17">
-        <f>ROUND(100*(Índices!T64/Índices!T63-1),4)</f>
         <v>5.0502000000000002</v>
       </c>
       <c r="U64" s="18">
-        <f>ROUND(100*(Índices!U64/Índices!U63-1),4)</f>
         <v>2.0078</v>
       </c>
       <c r="V64" s="16">
-        <f>ROUND(100*(Índices!V64/Índices!V63-1),4)</f>
         <v>3.2829999999999999</v>
       </c>
     </row>
@@ -11291,83 +9795,63 @@
         <v>44531</v>
       </c>
       <c r="C65" s="16">
-        <f>ROUND(100*(Índices!C65/Índices!C64-1),4)</f>
         <v>4.0823</v>
       </c>
       <c r="D65" s="17">
-        <f>ROUND(100*(Índices!D65/Índices!D64-1),4)</f>
         <v>4.4142000000000001</v>
       </c>
       <c r="E65" s="17">
-        <f>ROUND(100*(Índices!E65/Índices!E64-1),4)</f>
         <v>3.7212000000000001</v>
       </c>
       <c r="F65" s="17">
-        <f>ROUND(100*(Índices!F65/Índices!F64-1),4)</f>
         <v>4.2298</v>
       </c>
       <c r="G65" s="17">
-        <f>ROUND(100*(Índices!G65/Índices!G64-1),4)</f>
         <v>4.2698999999999998</v>
       </c>
       <c r="H65" s="17">
-        <f>ROUND(100*(Índices!H65/Índices!H64-1),4)</f>
         <v>4.1608000000000001</v>
       </c>
       <c r="I65" s="18">
-        <f>ROUND(100*(Índices!I65/Índices!I64-1),4)</f>
         <v>3.4714</v>
       </c>
       <c r="J65" s="17">
-        <f>ROUND(100*(Índices!J65/Índices!J64-1),4)</f>
         <v>4.6353999999999997</v>
       </c>
       <c r="K65" s="17">
-        <f>ROUND(100*(Índices!K65/Índices!K64-1),4)</f>
         <v>5.3914999999999997</v>
       </c>
       <c r="L65" s="17">
-        <f>ROUND(100*(Índices!L65/Índices!L64-1),4)</f>
         <v>5.9039999999999999</v>
       </c>
       <c r="M65" s="17">
-        <f>ROUND(100*(Índices!M65/Índices!M64-1),4)</f>
         <v>2.0897000000000001</v>
       </c>
       <c r="N65" s="17">
-        <f>ROUND(100*(Índices!N65/Índices!N64-1),4)</f>
         <v>3.649</v>
       </c>
       <c r="O65" s="17">
-        <f>ROUND(100*(Índices!O65/Índices!O64-1),4)</f>
         <v>0.50570000000000004</v>
       </c>
       <c r="P65" s="17">
-        <f>ROUND(100*(Índices!P65/Índices!P64-1),4)</f>
         <v>4.8836000000000004</v>
       </c>
       <c r="Q65" s="17">
-        <f>ROUND(100*(Índices!Q65/Índices!Q64-1),4)</f>
         <v>1.0578000000000001</v>
       </c>
       <c r="R65" s="17">
-        <f>ROUND(100*(Índices!R65/Índices!R64-1),4)</f>
         <v>4.0724</v>
       </c>
       <c r="S65" s="17">
-        <f>ROUND(100*(Índices!S65/Índices!S64-1),4)</f>
         <v>3.3321000000000001</v>
       </c>
       <c r="T65" s="17">
-        <f>ROUND(100*(Índices!T65/Índices!T64-1),4)</f>
         <v>5.8432000000000004</v>
       </c>
       <c r="U65" s="18">
-        <f>ROUND(100*(Índices!U65/Índices!U64-1),4)</f>
         <v>3.1884999999999999</v>
       </c>
       <c r="V65" s="16">
-        <f>ROUND(100*(Índices!V65/Índices!V64-1),4)</f>
         <v>4.8131000000000004</v>
       </c>
     </row>
@@ -11376,83 +9860,63 @@
         <v>44562</v>
       </c>
       <c r="C66" s="16">
-        <f>ROUND(100*(Índices!C66/Índices!C65-1),4)</f>
         <v>4.1882000000000001</v>
       </c>
       <c r="D66" s="17">
-        <f>ROUND(100*(Índices!D66/Índices!D65-1),4)</f>
         <v>4.3331</v>
       </c>
       <c r="E66" s="17">
-        <f>ROUND(100*(Índices!E66/Índices!E65-1),4)</f>
         <v>4.0298999999999996</v>
       </c>
       <c r="F66" s="17">
-        <f>ROUND(100*(Índices!F66/Índices!F65-1),4)</f>
         <v>4.1727999999999996</v>
       </c>
       <c r="G66" s="17">
-        <f>ROUND(100*(Índices!G66/Índices!G65-1),4)</f>
         <v>3.8231999999999999</v>
       </c>
       <c r="H66" s="17">
-        <f>ROUND(100*(Índices!H66/Índices!H65-1),4)</f>
         <v>4.2976000000000001</v>
       </c>
       <c r="I66" s="18">
-        <f>ROUND(100*(Índices!I66/Índices!I65-1),4)</f>
         <v>4.1192000000000002</v>
       </c>
       <c r="J66" s="17">
-        <f>ROUND(100*(Índices!J66/Índices!J65-1),4)</f>
         <v>4.6306000000000003</v>
       </c>
       <c r="K66" s="17">
-        <f>ROUND(100*(Índices!K66/Índices!K65-1),4)</f>
         <v>1.7659</v>
       </c>
       <c r="L66" s="17">
-        <f>ROUND(100*(Índices!L66/Índices!L65-1),4)</f>
         <v>5.6638000000000002</v>
       </c>
       <c r="M66" s="17">
-        <f>ROUND(100*(Índices!M66/Índices!M65-1),4)</f>
         <v>1.7966</v>
       </c>
       <c r="N66" s="17">
-        <f>ROUND(100*(Índices!N66/Índices!N65-1),4)</f>
         <v>4.0721999999999996</v>
       </c>
       <c r="O66" s="17">
-        <f>ROUND(100*(Índices!O66/Índices!O65-1),4)</f>
         <v>4.1418999999999997</v>
       </c>
       <c r="P66" s="17">
-        <f>ROUND(100*(Índices!P66/Índices!P65-1),4)</f>
         <v>2.7768999999999999</v>
       </c>
       <c r="Q66" s="17">
-        <f>ROUND(100*(Índices!Q66/Índices!Q65-1),4)</f>
         <v>6.5774999999999997</v>
       </c>
       <c r="R66" s="17">
-        <f>ROUND(100*(Índices!R66/Índices!R65-1),4)</f>
         <v>3.8997999999999999</v>
       </c>
       <c r="S66" s="17">
-        <f>ROUND(100*(Índices!S66/Índices!S65-1),4)</f>
         <v>3.8241999999999998</v>
       </c>
       <c r="T66" s="17">
-        <f>ROUND(100*(Índices!T66/Índices!T65-1),4)</f>
         <v>5.5564999999999998</v>
       </c>
       <c r="U66" s="18">
-        <f>ROUND(100*(Índices!U66/Índices!U65-1),4)</f>
         <v>4.3563000000000001</v>
       </c>
       <c r="V66" s="16">
-        <f>ROUND(100*(Índices!V66/Índices!V65-1),4)</f>
         <v>4.6520000000000001</v>
       </c>
     </row>
@@ -11461,83 +9925,63 @@
         <v>44593</v>
       </c>
       <c r="C67" s="16">
-        <f>ROUND(100*(Índices!C67/Índices!C66-1),4)</f>
         <v>4.9596</v>
       </c>
       <c r="D67" s="17">
-        <f>ROUND(100*(Índices!D67/Índices!D66-1),4)</f>
         <v>4.9272</v>
       </c>
       <c r="E67" s="17">
-        <f>ROUND(100*(Índices!E67/Índices!E66-1),4)</f>
         <v>4.7712000000000003</v>
       </c>
       <c r="F67" s="17">
-        <f>ROUND(100*(Índices!F67/Índices!F66-1),4)</f>
         <v>4.9913999999999996</v>
       </c>
       <c r="G67" s="17">
-        <f>ROUND(100*(Índices!G67/Índices!G66-1),4)</f>
         <v>5.0336999999999996</v>
       </c>
       <c r="H67" s="17">
-        <f>ROUND(100*(Índices!H67/Índices!H66-1),4)</f>
         <v>5.3524000000000003</v>
       </c>
       <c r="I67" s="18">
-        <f>ROUND(100*(Índices!I67/Índices!I66-1),4)</f>
         <v>5.1254999999999997</v>
       </c>
       <c r="J67" s="17">
-        <f>ROUND(100*(Índices!J67/Índices!J66-1),4)</f>
         <v>6.9554</v>
       </c>
       <c r="K67" s="17">
-        <f>ROUND(100*(Índices!K67/Índices!K66-1),4)</f>
         <v>3.3921000000000001</v>
       </c>
       <c r="L67" s="17">
-        <f>ROUND(100*(Índices!L67/Índices!L66-1),4)</f>
         <v>5.6703999999999999</v>
       </c>
       <c r="M67" s="17">
-        <f>ROUND(100*(Índices!M67/Índices!M66-1),4)</f>
         <v>2.8513000000000002</v>
       </c>
       <c r="N67" s="17">
-        <f>ROUND(100*(Índices!N67/Índices!N66-1),4)</f>
         <v>4.7253999999999996</v>
       </c>
       <c r="O67" s="17">
-        <f>ROUND(100*(Índices!O67/Índices!O66-1),4)</f>
         <v>3.6657000000000002</v>
       </c>
       <c r="P67" s="17">
-        <f>ROUND(100*(Índices!P67/Índices!P66-1),4)</f>
         <v>4.9577</v>
       </c>
       <c r="Q67" s="17">
-        <f>ROUND(100*(Índices!Q67/Índices!Q66-1),4)</f>
         <v>1.4518</v>
       </c>
       <c r="R67" s="17">
-        <f>ROUND(100*(Índices!R67/Índices!R66-1),4)</f>
         <v>3.1677</v>
       </c>
       <c r="S67" s="17">
-        <f>ROUND(100*(Índices!S67/Índices!S66-1),4)</f>
         <v>3.8923999999999999</v>
       </c>
       <c r="T67" s="17">
-        <f>ROUND(100*(Índices!T67/Índices!T66-1),4)</f>
         <v>4.3019999999999996</v>
       </c>
       <c r="U67" s="18">
-        <f>ROUND(100*(Índices!U67/Índices!U66-1),4)</f>
         <v>4.3712</v>
       </c>
       <c r="V67" s="16">
-        <f>ROUND(100*(Índices!V67/Índices!V66-1),4)</f>
         <v>5.4835000000000003</v>
       </c>
     </row>
@@ -11546,84 +9990,64 @@
         <v>44621</v>
       </c>
       <c r="C68" s="16">
-        <f>ROUND(100*(Índices!C68/Índices!C67-1),4)</f>
-        <v>5.7480000000000002</v>
+        <v>5.7435999999999998</v>
       </c>
       <c r="D68" s="17">
-        <f>ROUND(100*(Índices!D68/Índices!D67-1),4)</f>
         <v>5.4543999999999997</v>
       </c>
       <c r="E68" s="17">
-        <f>ROUND(100*(Índices!E68/Índices!E67-1),4)</f>
-        <v>5.8078000000000003</v>
+        <v>5.8079000000000001</v>
       </c>
       <c r="F68" s="17">
-        <f>ROUND(100*(Índices!F68/Índices!F67-1),4)</f>
-        <v>5.9757999999999996</v>
+        <v>5.923</v>
       </c>
       <c r="G68" s="17">
-        <f>ROUND(100*(Índices!G68/Índices!G67-1),4)</f>
-        <v>6.9310999999999998</v>
+        <v>6.8776999999999999</v>
       </c>
       <c r="H68" s="17">
-        <f>ROUND(100*(Índices!H68/Índices!H67-1),4)</f>
-        <v>6.1470000000000002</v>
+        <v>6.1657000000000002</v>
       </c>
       <c r="I68" s="18">
-        <f>ROUND(100*(Índices!I68/Índices!I67-1),4)</f>
         <v>6.8129</v>
       </c>
       <c r="J68" s="17">
-        <f>ROUND(100*(Índices!J68/Índices!J67-1),4)</f>
-        <v>6.3055000000000003</v>
+        <v>6.2781000000000002</v>
       </c>
       <c r="K68" s="17">
-        <f>ROUND(100*(Índices!K68/Índices!K67-1),4)</f>
-        <v>4.9737</v>
+        <v>5.0265000000000004</v>
       </c>
       <c r="L68" s="17">
-        <f>ROUND(100*(Índices!L68/Índices!L67-1),4)</f>
-        <v>6.9398</v>
+        <v>6.9771999999999998</v>
       </c>
       <c r="M68" s="17">
-        <f>ROUND(100*(Índices!M68/Índices!M67-1),4)</f>
         <v>7.6234000000000002</v>
       </c>
       <c r="N68" s="17">
-        <f>ROUND(100*(Índices!N68/Índices!N67-1),4)</f>
-        <v>4.4736000000000002</v>
+        <v>4.4649000000000001</v>
       </c>
       <c r="O68" s="17">
-        <f>ROUND(100*(Índices!O68/Índices!O67-1),4)</f>
         <v>4.9699</v>
       </c>
       <c r="P68" s="17">
-        <f>ROUND(100*(Índices!P68/Índices!P67-1),4)</f>
         <v>5.4894999999999996</v>
       </c>
       <c r="Q68" s="17">
-        <f>ROUND(100*(Índices!Q68/Índices!Q67-1),4)</f>
-        <v>3.3763999999999998</v>
+        <v>3.3883999999999999</v>
       </c>
       <c r="R68" s="17">
-        <f>ROUND(100*(Índices!R68/Índices!R67-1),4)</f>
-        <v>3.8224</v>
+        <v>3.8151000000000002</v>
       </c>
       <c r="S68" s="17">
-        <f>ROUND(100*(Índices!S68/Índices!S67-1),4)</f>
-        <v>5.5145</v>
+        <v>5.4762000000000004</v>
       </c>
       <c r="T68" s="17">
-        <f>ROUND(100*(Índices!T68/Índices!T67-1),4)</f>
-        <v>5.4463999999999997</v>
+        <v>5.4420999999999999</v>
       </c>
       <c r="U68" s="18">
-        <f>ROUND(100*(Índices!U68/Índices!U67-1),4)</f>
-        <v>5.5644999999999998</v>
+        <v>5.5651999999999999</v>
       </c>
       <c r="V68" s="16">
-        <f>ROUND(100*(Índices!V68/Índices!V67-1),4)</f>
-        <v>5.8559000000000001</v>
+        <v>5.8074000000000003</v>
       </c>
     </row>
     <row r="69" spans="2:22" x14ac:dyDescent="0.25">
@@ -11631,84 +10055,64 @@
         <v>44652</v>
       </c>
       <c r="C69" s="16">
-        <f>ROUND(100*(Índices!C69/Índices!C68-1),4)</f>
-        <v>5.9760999999999997</v>
+        <v>5.9847999999999999</v>
       </c>
       <c r="D69" s="17">
-        <f>ROUND(100*(Índices!D69/Índices!D68-1),4)</f>
         <v>6.1351000000000004</v>
       </c>
       <c r="E69" s="17">
-        <f>ROUND(100*(Índices!E69/Índices!E68-1),4)</f>
         <v>5.7618999999999998</v>
       </c>
       <c r="F69" s="17">
-        <f>ROUND(100*(Índices!F69/Índices!F68-1),4)</f>
-        <v>6.1496000000000004</v>
+        <v>6.2556000000000003</v>
       </c>
       <c r="G69" s="17">
-        <f>ROUND(100*(Índices!G69/Índices!G68-1),4)</f>
-        <v>5.9634999999999998</v>
+        <v>6.069</v>
       </c>
       <c r="H69" s="17">
-        <f>ROUND(100*(Índices!H69/Índices!H68-1),4)</f>
-        <v>5.7751999999999999</v>
+        <v>5.7373000000000003</v>
       </c>
       <c r="I69" s="18">
-        <f>ROUND(100*(Índices!I69/Índices!I68-1),4)</f>
         <v>5.8662999999999998</v>
       </c>
       <c r="J69" s="17">
-        <f>ROUND(100*(Índices!J69/Índices!J68-1),4)</f>
-        <v>6.0324</v>
+        <v>6.0871000000000004</v>
       </c>
       <c r="K69" s="17">
-        <f>ROUND(100*(Índices!K69/Índices!K68-1),4)</f>
-        <v>4.4718</v>
+        <v>4.3669000000000002</v>
       </c>
       <c r="L69" s="17">
-        <f>ROUND(100*(Índices!L69/Índices!L68-1),4)</f>
-        <v>7.6489000000000003</v>
+        <v>7.5735999999999999</v>
       </c>
       <c r="M69" s="17">
-        <f>ROUND(100*(Índices!M69/Índices!M68-1),4)</f>
         <v>4.5648999999999997</v>
       </c>
       <c r="N69" s="17">
-        <f>ROUND(100*(Índices!N69/Índices!N68-1),4)</f>
-        <v>5.7317999999999998</v>
+        <v>5.7493999999999996</v>
       </c>
       <c r="O69" s="17">
-        <f>ROUND(100*(Índices!O69/Índices!O68-1),4)</f>
         <v>6.3994</v>
       </c>
       <c r="P69" s="17">
-        <f>ROUND(100*(Índices!P69/Índices!P68-1),4)</f>
         <v>5.3140000000000001</v>
       </c>
       <c r="Q69" s="17">
-        <f>ROUND(100*(Índices!Q69/Índices!Q68-1),4)</f>
-        <v>4.2070999999999996</v>
+        <v>4.1829000000000001</v>
       </c>
       <c r="R69" s="17">
-        <f>ROUND(100*(Índices!R69/Índices!R68-1),4)</f>
-        <v>5.43</v>
+        <v>5.4448999999999996</v>
       </c>
       <c r="S69" s="17">
-        <f>ROUND(100*(Índices!S69/Índices!S68-1),4)</f>
-        <v>5.2314999999999996</v>
+        <v>5.3083</v>
       </c>
       <c r="T69" s="17">
-        <f>ROUND(100*(Índices!T69/Índices!T68-1),4)</f>
-        <v>7.3258000000000001</v>
+        <v>7.3345000000000002</v>
       </c>
       <c r="U69" s="18">
-        <f>ROUND(100*(Índices!U69/Índices!U68-1),4)</f>
-        <v>5.3186999999999998</v>
+        <v>5.3173000000000004</v>
       </c>
       <c r="V69" s="16">
-        <f>ROUND(100*(Índices!V69/Índices!V68-1),4)</f>
-        <v>6.1778000000000004</v>
+        <v>6.2751000000000001</v>
       </c>
     </row>
     <row r="70" spans="2:22" x14ac:dyDescent="0.25">
@@ -11716,84 +10120,64 @@
         <v>44682</v>
       </c>
       <c r="C70" s="16">
-        <f>ROUND(100*(Índices!C70/Índices!C69-1),4)</f>
-        <v>5.4801000000000002</v>
+        <v>5.4757999999999996</v>
       </c>
       <c r="D70" s="17">
-        <f>ROUND(100*(Índices!D70/Índices!D69-1),4)</f>
         <v>5.2680999999999996</v>
       </c>
       <c r="E70" s="17">
-        <f>ROUND(100*(Índices!E70/Índices!E69-1),4)</f>
         <v>5.5848000000000004</v>
       </c>
       <c r="F70" s="17">
-        <f>ROUND(100*(Índices!F70/Índices!F69-1),4)</f>
-        <v>5.9981999999999998</v>
+        <v>5.9452999999999996</v>
       </c>
       <c r="G70" s="17">
-        <f>ROUND(100*(Índices!G70/Índices!G69-1),4)</f>
-        <v>5.7055999999999996</v>
+        <v>5.6531000000000002</v>
       </c>
       <c r="H70" s="17">
-        <f>ROUND(100*(Índices!H70/Índices!H69-1),4)</f>
-        <v>5.5707000000000004</v>
+        <v>5.59</v>
       </c>
       <c r="I70" s="18">
-        <f>ROUND(100*(Índices!I70/Índices!I69-1),4)</f>
         <v>5.141</v>
       </c>
       <c r="J70" s="17">
-        <f>ROUND(100*(Índices!J70/Índices!J69-1),4)</f>
-        <v>5.2904999999999998</v>
+        <v>5.2633000000000001</v>
       </c>
       <c r="K70" s="17">
-        <f>ROUND(100*(Índices!K70/Índices!K69-1),4)</f>
-        <v>6.2118000000000002</v>
+        <v>6.2651000000000003</v>
       </c>
       <c r="L70" s="17">
-        <f>ROUND(100*(Índices!L70/Índices!L69-1),4)</f>
-        <v>6.6025</v>
+        <v>6.6398000000000001</v>
       </c>
       <c r="M70" s="17">
-        <f>ROUND(100*(Índices!M70/Índices!M69-1),4)</f>
         <v>3.5882000000000001</v>
       </c>
       <c r="N70" s="17">
-        <f>ROUND(100*(Índices!N70/Índices!N69-1),4)</f>
-        <v>5.5952000000000002</v>
+        <v>5.5865</v>
       </c>
       <c r="O70" s="17">
-        <f>ROUND(100*(Índices!O70/Índices!O69-1),4)</f>
         <v>6.2062999999999997</v>
       </c>
       <c r="P70" s="17">
-        <f>ROUND(100*(Índices!P70/Índices!P69-1),4)</f>
         <v>6.1364000000000001</v>
       </c>
       <c r="Q70" s="17">
-        <f>ROUND(100*(Índices!Q70/Índices!Q69-1),4)</f>
-        <v>3.5019</v>
+        <v>3.5139</v>
       </c>
       <c r="R70" s="17">
-        <f>ROUND(100*(Índices!R70/Índices!R69-1),4)</f>
-        <v>5.2008000000000001</v>
+        <v>5.1932999999999998</v>
       </c>
       <c r="S70" s="17">
-        <f>ROUND(100*(Índices!S70/Índices!S69-1),4)</f>
-        <v>4.1284999999999998</v>
+        <v>4.0904999999999996</v>
       </c>
       <c r="T70" s="17">
-        <f>ROUND(100*(Índices!T70/Índices!T69-1),4)</f>
-        <v>5.7030000000000003</v>
+        <v>5.6986999999999997</v>
       </c>
       <c r="U70" s="18">
-        <f>ROUND(100*(Índices!U70/Índices!U69-1),4)</f>
-        <v>4.6353</v>
+        <v>4.6360000000000001</v>
       </c>
       <c r="V70" s="16">
-        <f>ROUND(100*(Índices!V70/Índices!V69-1),4)</f>
-        <v>5.6105999999999998</v>
+        <v>5.5622999999999996</v>
       </c>
     </row>
     <row r="71" spans="2:22" x14ac:dyDescent="0.25">
@@ -11801,83 +10185,63 @@
         <v>44713</v>
       </c>
       <c r="C71" s="16">
-        <f>ROUND(100*(Índices!C71/Índices!C70-1),4)</f>
         <v>5.4859999999999998</v>
       </c>
       <c r="D71" s="17">
-        <f>ROUND(100*(Índices!D71/Índices!D70-1),4)</f>
         <v>5.6125999999999996</v>
       </c>
       <c r="E71" s="17">
-        <f>ROUND(100*(Índices!E71/Índices!E70-1),4)</f>
         <v>5.4086999999999996</v>
       </c>
       <c r="F71" s="17">
-        <f>ROUND(100*(Índices!F71/Índices!F70-1),4)</f>
         <v>5.4458000000000002</v>
       </c>
       <c r="G71" s="17">
-        <f>ROUND(100*(Índices!G71/Índices!G70-1),4)</f>
         <v>5.3067000000000002</v>
       </c>
       <c r="H71" s="17">
-        <f>ROUND(100*(Índices!H71/Índices!H70-1),4)</f>
         <v>5.3632999999999997</v>
       </c>
       <c r="I71" s="18">
-        <f>ROUND(100*(Índices!I71/Índices!I70-1),4)</f>
         <v>5.2030000000000003</v>
       </c>
       <c r="J71" s="17">
-        <f>ROUND(100*(Índices!J71/Índices!J70-1),4)</f>
         <v>5.1588000000000003</v>
       </c>
       <c r="K71" s="17">
-        <f>ROUND(100*(Índices!K71/Índices!K70-1),4)</f>
         <v>6.7095000000000002</v>
       </c>
       <c r="L71" s="17">
-        <f>ROUND(100*(Índices!L71/Índices!L70-1),4)</f>
         <v>5.8411999999999997</v>
       </c>
       <c r="M71" s="17">
-        <f>ROUND(100*(Índices!M71/Índices!M70-1),4)</f>
         <v>6.7778999999999998</v>
       </c>
       <c r="N71" s="17">
-        <f>ROUND(100*(Índices!N71/Índices!N70-1),4)</f>
         <v>5.5940000000000003</v>
       </c>
       <c r="O71" s="17">
-        <f>ROUND(100*(Índices!O71/Índices!O70-1),4)</f>
         <v>7.4119000000000002</v>
       </c>
       <c r="P71" s="17">
-        <f>ROUND(100*(Índices!P71/Índices!P70-1),4)</f>
         <v>4.7755000000000001</v>
       </c>
       <c r="Q71" s="17">
-        <f>ROUND(100*(Índices!Q71/Índices!Q70-1),4)</f>
         <v>0.34789999999999999</v>
       </c>
       <c r="R71" s="17">
-        <f>ROUND(100*(Índices!R71/Índices!R70-1),4)</f>
         <v>4.3022999999999998</v>
       </c>
       <c r="S71" s="17">
-        <f>ROUND(100*(Índices!S71/Índices!S70-1),4)</f>
         <v>4.3213999999999997</v>
       </c>
       <c r="T71" s="17">
-        <f>ROUND(100*(Índices!T71/Índices!T70-1),4)</f>
         <v>6.2370999999999999</v>
       </c>
       <c r="U71" s="18">
-        <f>ROUND(100*(Índices!U71/Índices!U70-1),4)</f>
         <v>5.0232999999999999</v>
       </c>
       <c r="V71" s="16">
-        <f>ROUND(100*(Índices!V71/Índices!V70-1),4)</f>
         <v>5.4333999999999998</v>
       </c>
     </row>
@@ -11886,83 +10250,63 @@
         <v>44743</v>
       </c>
       <c r="C72" s="16">
-        <f>ROUND(100*(Índices!C72/Índices!C71-1),4)</f>
         <v>7.5503999999999998</v>
       </c>
       <c r="D72" s="17">
-        <f>ROUND(100*(Índices!D72/Índices!D71-1),4)</f>
         <v>7.4401000000000002</v>
       </c>
       <c r="E72" s="17">
-        <f>ROUND(100*(Índices!E72/Índices!E71-1),4)</f>
         <v>7.8689</v>
       </c>
       <c r="F72" s="17">
-        <f>ROUND(100*(Índices!F72/Índices!F71-1),4)</f>
         <v>7.1025</v>
       </c>
       <c r="G72" s="17">
-        <f>ROUND(100*(Índices!G72/Índices!G71-1),4)</f>
         <v>7.5892999999999997</v>
       </c>
       <c r="H72" s="17">
-        <f>ROUND(100*(Índices!H72/Índices!H71-1),4)</f>
         <v>7.4659000000000004</v>
       </c>
       <c r="I72" s="18">
-        <f>ROUND(100*(Índices!I72/Índices!I71-1),4)</f>
         <v>7.9917999999999996</v>
       </c>
       <c r="J72" s="17">
-        <f>ROUND(100*(Índices!J72/Índices!J71-1),4)</f>
         <v>6.5884999999999998</v>
       </c>
       <c r="K72" s="17">
-        <f>ROUND(100*(Índices!K72/Índices!K71-1),4)</f>
         <v>6.9379999999999997</v>
       </c>
       <c r="L72" s="17">
-        <f>ROUND(100*(Índices!L72/Índices!L71-1),4)</f>
         <v>9.4943000000000008</v>
       </c>
       <c r="M72" s="17">
-        <f>ROUND(100*(Índices!M72/Índices!M71-1),4)</f>
         <v>4.5567000000000002</v>
       </c>
       <c r="N72" s="17">
-        <f>ROUND(100*(Índices!N72/Índices!N71-1),4)</f>
         <v>9.6441999999999997</v>
       </c>
       <c r="O72" s="17">
-        <f>ROUND(100*(Índices!O72/Índices!O71-1),4)</f>
         <v>6.8456000000000001</v>
       </c>
       <c r="P72" s="17">
-        <f>ROUND(100*(Índices!P72/Índices!P71-1),4)</f>
         <v>5.5407000000000002</v>
       </c>
       <c r="Q72" s="17">
-        <f>ROUND(100*(Índices!Q72/Índices!Q71-1),4)</f>
         <v>6.0208000000000004</v>
       </c>
       <c r="R72" s="17">
-        <f>ROUND(100*(Índices!R72/Índices!R71-1),4)</f>
         <v>12.2477</v>
       </c>
       <c r="S72" s="17">
-        <f>ROUND(100*(Índices!S72/Índices!S71-1),4)</f>
         <v>6.1973000000000003</v>
       </c>
       <c r="T72" s="17">
-        <f>ROUND(100*(Índices!T72/Índices!T71-1),4)</f>
         <v>9.7286999999999999</v>
       </c>
       <c r="U72" s="18">
-        <f>ROUND(100*(Índices!U72/Índices!U71-1),4)</f>
         <v>8.1165000000000003</v>
       </c>
       <c r="V72" s="16">
-        <f>ROUND(100*(Índices!V72/Índices!V71-1),4)</f>
         <v>8.4673999999999996</v>
       </c>
     </row>
@@ -11971,83 +10315,63 @@
         <v>44774</v>
       </c>
       <c r="C73" s="16">
-        <f>ROUND(100*(Índices!C73/Índices!C72-1),4)</f>
         <v>6.8705999999999996</v>
       </c>
       <c r="D73" s="17">
-        <f>ROUND(100*(Índices!D73/Índices!D72-1),4)</f>
         <v>6.8085000000000004</v>
       </c>
       <c r="E73" s="17">
-        <f>ROUND(100*(Índices!E73/Índices!E72-1),4)</f>
         <v>6.9386999999999999</v>
       </c>
       <c r="F73" s="17">
-        <f>ROUND(100*(Índices!F73/Índices!F72-1),4)</f>
         <v>7.3689999999999998</v>
       </c>
       <c r="G73" s="17">
-        <f>ROUND(100*(Índices!G73/Índices!G72-1),4)</f>
         <v>7.2915000000000001</v>
       </c>
       <c r="H73" s="17">
-        <f>ROUND(100*(Índices!H73/Índices!H72-1),4)</f>
         <v>6.4356999999999998</v>
       </c>
       <c r="I73" s="18">
-        <f>ROUND(100*(Índices!I73/Índices!I72-1),4)</f>
         <v>6.1425000000000001</v>
       </c>
       <c r="J73" s="17">
-        <f>ROUND(100*(Índices!J73/Índices!J72-1),4)</f>
         <v>6.8936000000000002</v>
       </c>
       <c r="K73" s="17">
-        <f>ROUND(100*(Índices!K73/Índices!K72-1),4)</f>
         <v>7.3108000000000004</v>
       </c>
       <c r="L73" s="17">
-        <f>ROUND(100*(Índices!L73/Índices!L72-1),4)</f>
         <v>9.6562999999999999</v>
       </c>
       <c r="M73" s="17">
-        <f>ROUND(100*(Índices!M73/Índices!M72-1),4)</f>
         <v>5.5495000000000001</v>
       </c>
       <c r="N73" s="17">
-        <f>ROUND(100*(Índices!N73/Índices!N72-1),4)</f>
         <v>8.1815999999999995</v>
       </c>
       <c r="O73" s="17">
-        <f>ROUND(100*(Índices!O73/Índices!O72-1),4)</f>
         <v>5.6985999999999999</v>
       </c>
       <c r="P73" s="17">
-        <f>ROUND(100*(Índices!P73/Índices!P72-1),4)</f>
         <v>6.7980999999999998</v>
       </c>
       <c r="Q73" s="17">
-        <f>ROUND(100*(Índices!Q73/Índices!Q72-1),4)</f>
         <v>4.5824999999999996</v>
       </c>
       <c r="R73" s="17">
-        <f>ROUND(100*(Índices!R73/Índices!R72-1),4)</f>
         <v>4.5662000000000003</v>
       </c>
       <c r="S73" s="17">
-        <f>ROUND(100*(Índices!S73/Índices!S72-1),4)</f>
         <v>5.0434999999999999</v>
       </c>
       <c r="T73" s="17">
-        <f>ROUND(100*(Índices!T73/Índices!T72-1),4)</f>
         <v>6.681</v>
       </c>
       <c r="U73" s="18">
-        <f>ROUND(100*(Índices!U73/Índices!U72-1),4)</f>
         <v>8.5238999999999994</v>
       </c>
       <c r="V73" s="16">
-        <f>ROUND(100*(Índices!V73/Índices!V72-1),4)</f>
         <v>7.2742000000000004</v>
       </c>
     </row>
@@ -12056,83 +10380,63 @@
         <v>44805</v>
       </c>
       <c r="C74" s="16">
-        <f>ROUND(100*(Índices!C74/Índices!C73-1),4)</f>
         <v>5.6074000000000002</v>
       </c>
       <c r="D74" s="17">
-        <f>ROUND(100*(Índices!D74/Índices!D73-1),4)</f>
         <v>5.3240999999999996</v>
       </c>
       <c r="E74" s="17">
-        <f>ROUND(100*(Índices!E74/Índices!E73-1),4)</f>
         <v>5.7747999999999999</v>
       </c>
       <c r="F74" s="17">
-        <f>ROUND(100*(Índices!F74/Índices!F73-1),4)</f>
         <v>5.7042999999999999</v>
       </c>
       <c r="G74" s="17">
-        <f>ROUND(100*(Índices!G74/Índices!G73-1),4)</f>
         <v>6.2953000000000001</v>
       </c>
       <c r="H74" s="17">
-        <f>ROUND(100*(Índices!H74/Índices!H73-1),4)</f>
         <v>5.5061</v>
       </c>
       <c r="I74" s="18">
-        <f>ROUND(100*(Índices!I74/Índices!I73-1),4)</f>
         <v>5.6276999999999999</v>
       </c>
       <c r="J74" s="17">
-        <f>ROUND(100*(Índices!J74/Índices!J73-1),4)</f>
         <v>6.0106999999999999</v>
       </c>
       <c r="K74" s="17">
-        <f>ROUND(100*(Índices!K74/Índices!K73-1),4)</f>
         <v>7.4686000000000003</v>
       </c>
       <c r="L74" s="17">
-        <f>ROUND(100*(Índices!L74/Índices!L73-1),4)</f>
         <v>7.6749999999999998</v>
       </c>
       <c r="M74" s="17">
-        <f>ROUND(100*(Índices!M74/Índices!M73-1),4)</f>
         <v>3.1425000000000001</v>
       </c>
       <c r="N74" s="17">
-        <f>ROUND(100*(Índices!N74/Índices!N73-1),4)</f>
         <v>5.3665000000000003</v>
       </c>
       <c r="O74" s="17">
-        <f>ROUND(100*(Índices!O74/Índices!O73-1),4)</f>
         <v>4.2996999999999996</v>
       </c>
       <c r="P74" s="17">
-        <f>ROUND(100*(Índices!P74/Índices!P73-1),4)</f>
         <v>5.7956000000000003</v>
       </c>
       <c r="Q74" s="17">
-        <f>ROUND(100*(Índices!Q74/Índices!Q73-1),4)</f>
         <v>2.5419999999999998</v>
       </c>
       <c r="R74" s="17">
-        <f>ROUND(100*(Índices!R74/Índices!R73-1),4)</f>
         <v>5.1729000000000003</v>
       </c>
       <c r="S74" s="17">
-        <f>ROUND(100*(Índices!S74/Índices!S73-1),4)</f>
         <v>5.577</v>
       </c>
       <c r="T74" s="17">
-        <f>ROUND(100*(Índices!T74/Índices!T73-1),4)</f>
         <v>4.8930999999999996</v>
       </c>
       <c r="U74" s="18">
-        <f>ROUND(100*(Índices!U74/Índices!U73-1),4)</f>
         <v>6.7154999999999996</v>
       </c>
       <c r="V74" s="16">
-        <f>ROUND(100*(Índices!V74/Índices!V73-1),4)</f>
         <v>6.0476000000000001</v>
       </c>
     </row>
@@ -12141,83 +10445,63 @@
         <v>44835</v>
       </c>
       <c r="C75" s="16">
-        <f>ROUND(100*(Índices!C75/Índices!C74-1),4)</f>
         <v>6.0162000000000004</v>
       </c>
       <c r="D75" s="17">
-        <f>ROUND(100*(Índices!D75/Índices!D74-1),4)</f>
         <v>6.1787000000000001</v>
       </c>
       <c r="E75" s="17">
-        <f>ROUND(100*(Índices!E75/Índices!E74-1),4)</f>
         <v>5.8380999999999998</v>
       </c>
       <c r="F75" s="17">
-        <f>ROUND(100*(Índices!F75/Índices!F74-1),4)</f>
         <v>6.0378999999999996</v>
       </c>
       <c r="G75" s="17">
-        <f>ROUND(100*(Índices!G75/Índices!G74-1),4)</f>
         <v>5.8413000000000004</v>
       </c>
       <c r="H75" s="17">
-        <f>ROUND(100*(Índices!H75/Índices!H74-1),4)</f>
         <v>5.9329999999999998</v>
       </c>
       <c r="I75" s="18">
-        <f>ROUND(100*(Índices!I75/Índices!I74-1),4)</f>
         <v>6.2239000000000004</v>
       </c>
       <c r="J75" s="17">
-        <f>ROUND(100*(Índices!J75/Índices!J74-1),4)</f>
         <v>5.4631999999999996</v>
       </c>
       <c r="K75" s="17">
-        <f>ROUND(100*(Índices!K75/Índices!K74-1),4)</f>
         <v>5.4751000000000003</v>
       </c>
       <c r="L75" s="17">
-        <f>ROUND(100*(Índices!L75/Índices!L74-1),4)</f>
         <v>6.0621999999999998</v>
       </c>
       <c r="M75" s="17">
-        <f>ROUND(100*(Índices!M75/Índices!M74-1),4)</f>
         <v>7.4356999999999998</v>
       </c>
       <c r="N75" s="17">
-        <f>ROUND(100*(Índices!N75/Índices!N74-1),4)</f>
         <v>4.7545000000000002</v>
       </c>
       <c r="O75" s="17">
-        <f>ROUND(100*(Índices!O75/Índices!O74-1),4)</f>
         <v>7.0723000000000003</v>
       </c>
       <c r="P75" s="17">
-        <f>ROUND(100*(Índices!P75/Índices!P74-1),4)</f>
         <v>4.4977999999999998</v>
       </c>
       <c r="Q75" s="17">
-        <f>ROUND(100*(Índices!Q75/Índices!Q74-1),4)</f>
         <v>11.8863</v>
       </c>
       <c r="R75" s="17">
-        <f>ROUND(100*(Índices!R75/Índices!R74-1),4)</f>
         <v>5.3038999999999996</v>
       </c>
       <c r="S75" s="17">
-        <f>ROUND(100*(Índices!S75/Índices!S74-1),4)</f>
         <v>7.6993</v>
       </c>
       <c r="T75" s="17">
-        <f>ROUND(100*(Índices!T75/Índices!T74-1),4)</f>
         <v>7.4702999999999999</v>
       </c>
       <c r="U75" s="18">
-        <f>ROUND(100*(Índices!U75/Índices!U74-1),4)</f>
         <v>6.0991999999999997</v>
       </c>
       <c r="V75" s="16">
-        <f>ROUND(100*(Índices!V75/Índices!V74-1),4)</f>
         <v>5.7809999999999997</v>
       </c>
     </row>
@@ -12226,173 +10510,195 @@
         <v>44866</v>
       </c>
       <c r="C76" s="16">
-        <f>ROUND(100*(Índices!C76/Índices!C75-1),4)</f>
         <v>5.3712999999999997</v>
       </c>
       <c r="D76" s="17">
-        <f>ROUND(100*(Índices!D76/Índices!D75-1),4)</f>
         <v>5.6711</v>
       </c>
       <c r="E76" s="17">
-        <f>ROUND(100*(Índices!E76/Índices!E75-1),4)</f>
         <v>5.2130999999999998</v>
       </c>
       <c r="F76" s="17">
-        <f>ROUND(100*(Índices!F76/Índices!F75-1),4)</f>
         <v>4.9474999999999998</v>
       </c>
       <c r="G76" s="17">
-        <f>ROUND(100*(Índices!G76/Índices!G75-1),4)</f>
         <v>4.8373999999999997</v>
       </c>
       <c r="H76" s="17">
-        <f>ROUND(100*(Índices!H76/Índices!H75-1),4)</f>
         <v>5.2717999999999998</v>
       </c>
       <c r="I76" s="18">
-        <f>ROUND(100*(Índices!I76/Índices!I75-1),4)</f>
         <v>5.1504000000000003</v>
       </c>
       <c r="J76" s="17">
-        <f>ROUND(100*(Índices!J76/Índices!J75-1),4)</f>
         <v>4.4165999999999999</v>
       </c>
       <c r="K76" s="17">
-        <f>ROUND(100*(Índices!K76/Índices!K75-1),4)</f>
         <v>5.8773999999999997</v>
       </c>
       <c r="L76" s="17">
-        <f>ROUND(100*(Índices!L76/Índices!L75-1),4)</f>
         <v>5.7066999999999997</v>
       </c>
       <c r="M76" s="17">
-        <f>ROUND(100*(Índices!M76/Índices!M75-1),4)</f>
         <v>8.5505999999999993</v>
       </c>
       <c r="N76" s="17">
-        <f>ROUND(100*(Índices!N76/Índices!N75-1),4)</f>
         <v>5.7183999999999999</v>
       </c>
       <c r="O76" s="17">
-        <f>ROUND(100*(Índices!O76/Índices!O75-1),4)</f>
         <v>4.1083999999999996</v>
       </c>
       <c r="P76" s="17">
-        <f>ROUND(100*(Índices!P76/Índices!P75-1),4)</f>
         <v>6.0602</v>
       </c>
       <c r="Q76" s="17">
-        <f>ROUND(100*(Índices!Q76/Índices!Q75-1),4)</f>
         <v>6.1618000000000004</v>
       </c>
       <c r="R76" s="17">
-        <f>ROUND(100*(Índices!R76/Índices!R75-1),4)</f>
         <v>4.5156999999999998</v>
       </c>
       <c r="S76" s="17">
-        <f>ROUND(100*(Índices!S76/Índices!S75-1),4)</f>
         <v>6.2115</v>
       </c>
       <c r="T76" s="17">
-        <f>ROUND(100*(Índices!T76/Índices!T75-1),4)</f>
         <v>5.5827</v>
       </c>
       <c r="U76" s="18">
-        <f>ROUND(100*(Índices!U76/Índices!U75-1),4)</f>
         <v>5.8094000000000001</v>
       </c>
       <c r="V76" s="16">
-        <f>ROUND(100*(Índices!V76/Índices!V75-1),4)</f>
         <v>5.0435999999999996</v>
       </c>
     </row>
-    <row r="77" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="15">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B77" s="14">
         <v>44896</v>
       </c>
-      <c r="C77" s="19">
-        <f>ROUND(100*(Índices!C77/Índices!C76-1),4)</f>
+      <c r="C77" s="16">
         <v>5.3951000000000002</v>
       </c>
-      <c r="D77" s="20">
-        <f>ROUND(100*(Índices!D77/Índices!D76-1),4)</f>
+      <c r="D77" s="17">
         <v>5.6646000000000001</v>
       </c>
-      <c r="E77" s="20">
-        <f>ROUND(100*(Índices!E77/Índices!E76-1),4)</f>
+      <c r="E77" s="17">
         <v>5.2676999999999996</v>
       </c>
-      <c r="F77" s="20">
-        <f>ROUND(100*(Índices!F77/Índices!F76-1),4)</f>
+      <c r="F77" s="17">
         <v>4.84</v>
       </c>
-      <c r="G77" s="20">
-        <f>ROUND(100*(Índices!G77/Índices!G76-1),4)</f>
+      <c r="G77" s="17">
         <v>4.5907</v>
       </c>
-      <c r="H77" s="20">
-        <f>ROUND(100*(Índices!H77/Índices!H76-1),4)</f>
+      <c r="H77" s="17">
         <v>5.2243000000000004</v>
       </c>
-      <c r="I77" s="21">
-        <f>ROUND(100*(Índices!I77/Índices!I76-1),4)</f>
+      <c r="I77" s="18">
         <v>4.9001000000000001</v>
       </c>
-      <c r="J77" s="20">
-        <f>ROUND(100*(Índices!J77/Índices!J76-1),4)</f>
+      <c r="J77" s="17">
         <v>4.9176000000000002</v>
       </c>
-      <c r="K77" s="20">
-        <f>ROUND(100*(Índices!K77/Índices!K76-1),4)</f>
+      <c r="K77" s="17">
         <v>6.9817</v>
       </c>
-      <c r="L77" s="20">
-        <f>ROUND(100*(Índices!L77/Índices!L76-1),4)</f>
+      <c r="L77" s="17">
         <v>5.1325000000000003</v>
       </c>
-      <c r="M77" s="20">
-        <f>ROUND(100*(Índices!M77/Índices!M76-1),4)</f>
+      <c r="M77" s="17">
         <v>4.1905000000000001</v>
       </c>
-      <c r="N77" s="20">
-        <f>ROUND(100*(Índices!N77/Índices!N76-1),4)</f>
+      <c r="N77" s="17">
         <v>6.1665999999999999</v>
       </c>
-      <c r="O77" s="20">
-        <f>ROUND(100*(Índices!O77/Índices!O76-1),4)</f>
+      <c r="O77" s="17">
         <v>5.6837</v>
       </c>
-      <c r="P77" s="20">
-        <f>ROUND(100*(Índices!P77/Índices!P76-1),4)</f>
+      <c r="P77" s="17">
         <v>5.7976000000000001</v>
       </c>
-      <c r="Q77" s="20">
-        <f>ROUND(100*(Índices!Q77/Índices!Q76-1),4)</f>
+      <c r="Q77" s="17">
         <v>2.7271999999999998</v>
       </c>
-      <c r="R77" s="20">
-        <f>ROUND(100*(Índices!R77/Índices!R76-1),4)</f>
+      <c r="R77" s="17">
         <v>4.7126999999999999</v>
       </c>
-      <c r="S77" s="20">
-        <f>ROUND(100*(Índices!S77/Índices!S76-1),4)</f>
+      <c r="S77" s="17">
         <v>6.3776000000000002</v>
       </c>
-      <c r="T77" s="20">
-        <f>ROUND(100*(Índices!T77/Índices!T76-1),4)</f>
+      <c r="T77" s="17">
         <v>7.1211000000000002</v>
       </c>
-      <c r="U77" s="21">
-        <f>ROUND(100*(Índices!U77/Índices!U76-1),4)</f>
+      <c r="U77" s="18">
         <v>5.7651000000000003</v>
       </c>
-      <c r="V77" s="19">
-        <f>ROUND(100*(Índices!V77/Índices!V76-1),4)</f>
+      <c r="V77" s="16">
         <v>5.4454000000000002</v>
       </c>
     </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B78" s="6"/>
+    <row r="78" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="15">
+        <v>44927</v>
+      </c>
+      <c r="C78" s="19">
+        <v>6.3879000000000001</v>
+      </c>
+      <c r="D78" s="20">
+        <v>6.44</v>
+      </c>
+      <c r="E78" s="20">
+        <v>6.3150000000000004</v>
+      </c>
+      <c r="F78" s="20">
+        <v>6.5021000000000004</v>
+      </c>
+      <c r="G78" s="20">
+        <v>6.1242000000000001</v>
+      </c>
+      <c r="H78" s="20">
+        <v>6.6243999999999996</v>
+      </c>
+      <c r="I78" s="21">
+        <v>6.4839000000000002</v>
+      </c>
+      <c r="J78" s="20">
+        <v>6.4752999999999998</v>
+      </c>
+      <c r="K78" s="20">
+        <v>7.343</v>
+      </c>
+      <c r="L78" s="20">
+        <v>5.6144999999999996</v>
+      </c>
+      <c r="M78" s="20">
+        <v>8.0393000000000008</v>
+      </c>
+      <c r="N78" s="20">
+        <v>6.1939000000000002</v>
+      </c>
+      <c r="O78" s="20">
+        <v>4.9309000000000003</v>
+      </c>
+      <c r="P78" s="20">
+        <v>5.9306999999999999</v>
+      </c>
+      <c r="Q78" s="20">
+        <v>7.0328999999999997</v>
+      </c>
+      <c r="R78" s="20">
+        <v>8.6866000000000003</v>
+      </c>
+      <c r="S78" s="20">
+        <v>4.3446999999999996</v>
+      </c>
+      <c r="T78" s="20">
+        <v>6.0919999999999996</v>
+      </c>
+      <c r="U78" s="21">
+        <v>6.8654000000000002</v>
+      </c>
+      <c r="V78" s="19">
+        <v>6.5185000000000004</v>
+      </c>
     </row>
     <row r="79" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B79" s="6"/>
@@ -12436,1650 +10742,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83293D6D-81C8-49B2-8C10-806B04E884B0}">
-  <dimension ref="B1:I39"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
-    <col min="3" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="30"/>
-    </row>
-    <row r="3" spans="2:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="34">
-        <v>2022</v>
-      </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="35"/>
-      <c r="C5" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="37"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="39">
-        <v>7.5503999999999998</v>
-      </c>
-      <c r="D6" s="39">
-        <v>6.8705999999999996</v>
-      </c>
-      <c r="E6" s="39">
-        <v>5.6074000000000002</v>
-      </c>
-      <c r="F6" s="39">
-        <v>6.0162000000000004</v>
-      </c>
-      <c r="G6" s="39">
-        <v>5.3712999999999997</v>
-      </c>
-      <c r="H6" s="39">
-        <v>5.3951000000000002</v>
-      </c>
-      <c r="I6" s="40">
-        <v>94.793199999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="43"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="45">
-        <v>7.4401000000000002</v>
-      </c>
-      <c r="D8" s="45">
-        <v>6.8085000000000004</v>
-      </c>
-      <c r="E8" s="45">
-        <v>5.3240999999999996</v>
-      </c>
-      <c r="F8" s="45">
-        <v>6.1787000000000001</v>
-      </c>
-      <c r="G8" s="45">
-        <v>5.6711</v>
-      </c>
-      <c r="H8" s="45">
-        <v>5.6646000000000001</v>
-      </c>
-      <c r="I8" s="46">
-        <v>95.190799999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="45">
-        <v>7.8689</v>
-      </c>
-      <c r="D9" s="45">
-        <v>6.9386999999999999</v>
-      </c>
-      <c r="E9" s="45">
-        <v>5.7747999999999999</v>
-      </c>
-      <c r="F9" s="45">
-        <v>5.8380999999999998</v>
-      </c>
-      <c r="G9" s="45">
-        <v>5.2130999999999998</v>
-      </c>
-      <c r="H9" s="45">
-        <v>5.2676999999999996</v>
-      </c>
-      <c r="I9" s="46">
-        <v>94.184700000000007</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="45">
-        <v>7.1025</v>
-      </c>
-      <c r="D10" s="45">
-        <v>7.3689999999999998</v>
-      </c>
-      <c r="E10" s="45">
-        <v>5.7043999999999997</v>
-      </c>
-      <c r="F10" s="45">
-        <v>6.0378999999999996</v>
-      </c>
-      <c r="G10" s="45">
-        <v>4.9474999999999998</v>
-      </c>
-      <c r="H10" s="45">
-        <v>4.84</v>
-      </c>
-      <c r="I10" s="46">
-        <v>95.125299999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="45">
-        <v>7.5892999999999997</v>
-      </c>
-      <c r="D11" s="45">
-        <v>7.2915000000000001</v>
-      </c>
-      <c r="E11" s="45">
-        <v>6.2953000000000001</v>
-      </c>
-      <c r="F11" s="45">
-        <v>5.8413000000000004</v>
-      </c>
-      <c r="G11" s="45">
-        <v>4.8373999999999997</v>
-      </c>
-      <c r="H11" s="45">
-        <v>4.5907</v>
-      </c>
-      <c r="I11" s="46">
-        <v>95.982600000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="45">
-        <v>7.4659000000000004</v>
-      </c>
-      <c r="D12" s="45">
-        <v>6.4356999999999998</v>
-      </c>
-      <c r="E12" s="45">
-        <v>5.5060000000000002</v>
-      </c>
-      <c r="F12" s="45">
-        <v>5.9329999999999998</v>
-      </c>
-      <c r="G12" s="45">
-        <v>5.2717999999999998</v>
-      </c>
-      <c r="H12" s="45">
-        <v>5.2243000000000004</v>
-      </c>
-      <c r="I12" s="46">
-        <v>94.368200000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="45">
-        <v>7.9917999999999996</v>
-      </c>
-      <c r="D13" s="45">
-        <v>6.1425000000000001</v>
-      </c>
-      <c r="E13" s="45">
-        <v>5.6276999999999999</v>
-      </c>
-      <c r="F13" s="45">
-        <v>6.2239000000000004</v>
-      </c>
-      <c r="G13" s="45">
-        <v>5.1504000000000003</v>
-      </c>
-      <c r="H13" s="45">
-        <v>4.9001000000000001</v>
-      </c>
-      <c r="I13" s="46">
-        <v>94.252600000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="44"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="46"/>
-    </row>
-    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="43"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="45">
-        <v>6.5884999999999998</v>
-      </c>
-      <c r="D16" s="45">
-        <v>6.8936000000000002</v>
-      </c>
-      <c r="E16" s="45">
-        <v>6.0106999999999999</v>
-      </c>
-      <c r="F16" s="45">
-        <v>5.4631999999999996</v>
-      </c>
-      <c r="G16" s="45">
-        <v>4.4165999999999999</v>
-      </c>
-      <c r="H16" s="45">
-        <v>4.9176000000000002</v>
-      </c>
-      <c r="I16" s="46">
-        <v>94.955600000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="45">
-        <v>6.9379999999999997</v>
-      </c>
-      <c r="D17" s="45">
-        <v>7.3108000000000004</v>
-      </c>
-      <c r="E17" s="45">
-        <v>7.4686000000000003</v>
-      </c>
-      <c r="F17" s="45">
-        <v>5.4751000000000003</v>
-      </c>
-      <c r="G17" s="45">
-        <v>5.8773999999999997</v>
-      </c>
-      <c r="H17" s="45">
-        <v>6.9817</v>
-      </c>
-      <c r="I17" s="46">
-        <v>92.8733</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="45">
-        <v>9.4943000000000008</v>
-      </c>
-      <c r="D18" s="45">
-        <v>9.6562999999999999</v>
-      </c>
-      <c r="E18" s="45">
-        <v>7.6749999999999998</v>
-      </c>
-      <c r="F18" s="45">
-        <v>6.0621999999999998</v>
-      </c>
-      <c r="G18" s="45">
-        <v>5.7066999999999997</v>
-      </c>
-      <c r="H18" s="45">
-        <v>5.1325000000000003</v>
-      </c>
-      <c r="I18" s="46">
-        <v>120.7938</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="45">
-        <v>4.5567000000000002</v>
-      </c>
-      <c r="D19" s="45">
-        <v>5.5495000000000001</v>
-      </c>
-      <c r="E19" s="45">
-        <v>3.1425000000000001</v>
-      </c>
-      <c r="F19" s="45">
-        <v>7.4356999999999998</v>
-      </c>
-      <c r="G19" s="45">
-        <v>8.5505999999999993</v>
-      </c>
-      <c r="H19" s="45">
-        <v>4.1905000000000001</v>
-      </c>
-      <c r="I19" s="46">
-        <v>80.391099999999994</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="45">
-        <v>9.6441999999999997</v>
-      </c>
-      <c r="D20" s="45">
-        <v>8.1815999999999995</v>
-      </c>
-      <c r="E20" s="45">
-        <v>5.3665000000000003</v>
-      </c>
-      <c r="F20" s="45">
-        <v>4.7545000000000002</v>
-      </c>
-      <c r="G20" s="45">
-        <v>5.7183999999999999</v>
-      </c>
-      <c r="H20" s="45">
-        <v>6.1665999999999999</v>
-      </c>
-      <c r="I20" s="46">
-        <v>97.227699999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="45">
-        <v>6.8456000000000001</v>
-      </c>
-      <c r="D21" s="45">
-        <v>5.6985999999999999</v>
-      </c>
-      <c r="E21" s="45">
-        <v>4.2996999999999996</v>
-      </c>
-      <c r="F21" s="45">
-        <v>7.0723000000000003</v>
-      </c>
-      <c r="G21" s="45">
-        <v>4.1085000000000003</v>
-      </c>
-      <c r="H21" s="45">
-        <v>5.6837</v>
-      </c>
-      <c r="I21" s="46">
-        <v>90.882300000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="45">
-        <v>5.5407000000000002</v>
-      </c>
-      <c r="D22" s="45">
-        <v>6.7980999999999998</v>
-      </c>
-      <c r="E22" s="45">
-        <v>5.7956000000000003</v>
-      </c>
-      <c r="F22" s="45">
-        <v>4.4977999999999998</v>
-      </c>
-      <c r="G22" s="45">
-        <v>6.0602</v>
-      </c>
-      <c r="H22" s="45">
-        <v>5.7976000000000001</v>
-      </c>
-      <c r="I22" s="46">
-        <v>86.191299999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="45">
-        <v>6.0208000000000004</v>
-      </c>
-      <c r="D23" s="45">
-        <v>4.5824999999999996</v>
-      </c>
-      <c r="E23" s="45">
-        <v>2.5419999999999998</v>
-      </c>
-      <c r="F23" s="45">
-        <v>11.8863</v>
-      </c>
-      <c r="G23" s="45">
-        <v>6.1618000000000004</v>
-      </c>
-      <c r="H23" s="45">
-        <v>2.7271999999999998</v>
-      </c>
-      <c r="I23" s="46">
-        <v>67.842399999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="45">
-        <v>12.2477</v>
-      </c>
-      <c r="D24" s="45">
-        <v>4.5662000000000003</v>
-      </c>
-      <c r="E24" s="45">
-        <v>5.1729000000000003</v>
-      </c>
-      <c r="F24" s="45">
-        <v>5.3038999999999996</v>
-      </c>
-      <c r="G24" s="45">
-        <v>4.5156999999999998</v>
-      </c>
-      <c r="H24" s="45">
-        <v>4.7126999999999999</v>
-      </c>
-      <c r="I24" s="46">
-        <v>83.211600000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="45">
-        <v>6.1973000000000003</v>
-      </c>
-      <c r="D25" s="45">
-        <v>5.0434999999999999</v>
-      </c>
-      <c r="E25" s="45">
-        <v>5.577</v>
-      </c>
-      <c r="F25" s="45">
-        <v>7.6993999999999998</v>
-      </c>
-      <c r="G25" s="45">
-        <v>6.2115</v>
-      </c>
-      <c r="H25" s="45">
-        <v>6.3776000000000002</v>
-      </c>
-      <c r="I25" s="46">
-        <v>86.305899999999994</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="45">
-        <v>9.7286999999999999</v>
-      </c>
-      <c r="D26" s="45">
-        <v>6.681</v>
-      </c>
-      <c r="E26" s="45">
-        <v>4.8929999999999998</v>
-      </c>
-      <c r="F26" s="45">
-        <v>7.4702999999999999</v>
-      </c>
-      <c r="G26" s="45">
-        <v>5.5827</v>
-      </c>
-      <c r="H26" s="45">
-        <v>7.1211000000000002</v>
-      </c>
-      <c r="I26" s="46">
-        <v>108.7902</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="45">
-        <v>8.1165000000000003</v>
-      </c>
-      <c r="D27" s="45">
-        <v>8.5238999999999994</v>
-      </c>
-      <c r="E27" s="45">
-        <v>6.7153999999999998</v>
-      </c>
-      <c r="F27" s="45">
-        <v>6.0991999999999997</v>
-      </c>
-      <c r="G27" s="45">
-        <v>5.8094000000000001</v>
-      </c>
-      <c r="H27" s="45">
-        <v>5.7651000000000003</v>
-      </c>
-      <c r="I27" s="46">
-        <v>97.833299999999994</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="44"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="46"/>
-    </row>
-    <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="43"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="45">
-        <v>8.4673999999999996</v>
-      </c>
-      <c r="D30" s="45">
-        <v>7.2742000000000004</v>
-      </c>
-      <c r="E30" s="45">
-        <v>6.0476000000000001</v>
-      </c>
-      <c r="F30" s="45">
-        <v>5.7809999999999997</v>
-      </c>
-      <c r="G30" s="45">
-        <v>5.0435999999999996</v>
-      </c>
-      <c r="H30" s="45">
-        <v>5.4454000000000002</v>
-      </c>
-      <c r="I30" s="46">
-        <v>99.768000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="45">
-        <v>8.5457999999999998</v>
-      </c>
-      <c r="D31" s="45">
-        <v>6.9810999999999996</v>
-      </c>
-      <c r="E31" s="45">
-        <v>5.7502000000000004</v>
-      </c>
-      <c r="F31" s="45">
-        <v>5.9177999999999997</v>
-      </c>
-      <c r="G31" s="45">
-        <v>5.1605999999999996</v>
-      </c>
-      <c r="H31" s="45">
-        <v>5.9950999999999999</v>
-      </c>
-      <c r="I31" s="46">
-        <v>101.3156</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="45">
-        <v>8.5919000000000008</v>
-      </c>
-      <c r="D32" s="45">
-        <v>7.5952000000000002</v>
-      </c>
-      <c r="E32" s="45">
-        <v>6.3601000000000001</v>
-      </c>
-      <c r="F32" s="45">
-        <v>5.5902000000000003</v>
-      </c>
-      <c r="G32" s="45">
-        <v>4.9898999999999996</v>
-      </c>
-      <c r="H32" s="45">
-        <v>5.1825999999999999</v>
-      </c>
-      <c r="I32" s="46">
-        <v>98.387699999999995</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="45">
-        <v>7.6761999999999997</v>
-      </c>
-      <c r="D33" s="45">
-        <v>7.7488999999999999</v>
-      </c>
-      <c r="E33" s="45">
-        <v>5.9329999999999998</v>
-      </c>
-      <c r="F33" s="45">
-        <v>5.8052000000000001</v>
-      </c>
-      <c r="G33" s="45">
-        <v>4.8489000000000004</v>
-      </c>
-      <c r="H33" s="45">
-        <v>4.7891000000000004</v>
-      </c>
-      <c r="I33" s="46">
-        <v>98.639799999999994</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="45">
-        <v>8.2680000000000007</v>
-      </c>
-      <c r="D34" s="45">
-        <v>7.4352</v>
-      </c>
-      <c r="E34" s="45">
-        <v>6.3461999999999996</v>
-      </c>
-      <c r="F34" s="45">
-        <v>5.5198</v>
-      </c>
-      <c r="G34" s="45">
-        <v>4.6200999999999999</v>
-      </c>
-      <c r="H34" s="45">
-        <v>4.3894000000000002</v>
-      </c>
-      <c r="I34" s="46">
-        <v>96.705399999999997</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="45">
-        <v>7.8720999999999997</v>
-      </c>
-      <c r="D35" s="45">
-        <v>7.3994999999999997</v>
-      </c>
-      <c r="E35" s="45">
-        <v>6.2558999999999996</v>
-      </c>
-      <c r="F35" s="45">
-        <v>5.5930999999999997</v>
-      </c>
-      <c r="G35" s="45">
-        <v>5.1509999999999998</v>
-      </c>
-      <c r="H35" s="45">
-        <v>4.7441000000000004</v>
-      </c>
-      <c r="I35" s="46">
-        <v>98.572199999999995</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="48">
-        <v>8.8966999999999992</v>
-      </c>
-      <c r="D36" s="48">
-        <v>6.6957000000000004</v>
-      </c>
-      <c r="E36" s="48">
-        <v>6.2561999999999998</v>
-      </c>
-      <c r="F36" s="48">
-        <v>6.3510999999999997</v>
-      </c>
-      <c r="G36" s="48">
-        <v>4.9023000000000003</v>
-      </c>
-      <c r="H36" s="48">
-        <v>4.8982999999999999</v>
-      </c>
-      <c r="I36" s="49">
-        <v>101.3781</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B29:I29"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C899619B-933E-4978-ACA9-2375D7439DCD}">
-  <dimension ref="B1:I33"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
-    <col min="3" max="9" width="11.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="30"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="51"/>
-      <c r="C3" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="43"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="55">
-        <v>5.6646000000000001</v>
-      </c>
-      <c r="D5" s="55">
-        <v>5.2676999999999996</v>
-      </c>
-      <c r="E5" s="55">
-        <v>4.84</v>
-      </c>
-      <c r="F5" s="55">
-        <v>4.5907</v>
-      </c>
-      <c r="G5" s="55">
-        <v>5.2243000000000004</v>
-      </c>
-      <c r="H5" s="55">
-        <v>4.9001000000000001</v>
-      </c>
-      <c r="I5" s="56">
-        <v>5.3659999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="45">
-        <v>1.4830000000000001</v>
-      </c>
-      <c r="D6" s="45">
-        <v>1.3664000000000001</v>
-      </c>
-      <c r="E6" s="45">
-        <v>1.2538</v>
-      </c>
-      <c r="F6" s="45">
-        <v>1.1376999999999999</v>
-      </c>
-      <c r="G6" s="45">
-        <v>0.96279999999999999</v>
-      </c>
-      <c r="H6" s="45">
-        <v>1.1324000000000001</v>
-      </c>
-      <c r="I6" s="46">
-        <v>1.3688</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="45">
-        <v>0.18179999999999999</v>
-      </c>
-      <c r="D7" s="45">
-        <v>0.22470000000000001</v>
-      </c>
-      <c r="E7" s="45">
-        <v>0.17519999999999999</v>
-      </c>
-      <c r="F7" s="45">
-        <v>0.19550000000000001</v>
-      </c>
-      <c r="G7" s="45">
-        <v>0.21329999999999999</v>
-      </c>
-      <c r="H7" s="45">
-        <v>0.19189999999999999</v>
-      </c>
-      <c r="I7" s="46">
-        <v>0.19869999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="45">
-        <v>0.5504</v>
-      </c>
-      <c r="D8" s="45">
-        <v>0.65190000000000003</v>
-      </c>
-      <c r="E8" s="45">
-        <v>0.7278</v>
-      </c>
-      <c r="F8" s="45">
-        <v>0.51449999999999996</v>
-      </c>
-      <c r="G8" s="45">
-        <v>0.64480000000000004</v>
-      </c>
-      <c r="H8" s="45">
-        <v>0.69310000000000005</v>
-      </c>
-      <c r="I8" s="46">
-        <v>0.60709999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="45">
-        <v>0.3397</v>
-      </c>
-      <c r="D9" s="45">
-        <v>0.27179999999999999</v>
-      </c>
-      <c r="E9" s="45">
-        <v>0.21540000000000001</v>
-      </c>
-      <c r="F9" s="45">
-        <v>0.3211</v>
-      </c>
-      <c r="G9" s="45">
-        <v>0.2437</v>
-      </c>
-      <c r="H9" s="45">
-        <v>0.34560000000000002</v>
-      </c>
-      <c r="I9" s="46">
-        <v>0.3024</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="45">
-        <v>0.43209999999999998</v>
-      </c>
-      <c r="D10" s="45">
-        <v>0.34710000000000002</v>
-      </c>
-      <c r="E10" s="45">
-        <v>0.3715</v>
-      </c>
-      <c r="F10" s="45">
-        <v>0.51519999999999999</v>
-      </c>
-      <c r="G10" s="45">
-        <v>0.36249999999999999</v>
-      </c>
-      <c r="H10" s="45">
-        <v>0.2868</v>
-      </c>
-      <c r="I10" s="46">
-        <v>0.39240000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="45">
-        <v>0.50639999999999996</v>
-      </c>
-      <c r="D11" s="45">
-        <v>0.54459999999999997</v>
-      </c>
-      <c r="E11" s="45">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="F11" s="45">
-        <v>0.30249999999999999</v>
-      </c>
-      <c r="G11" s="45">
-        <v>0.47560000000000002</v>
-      </c>
-      <c r="H11" s="45">
-        <v>0.3049</v>
-      </c>
-      <c r="I11" s="46">
-        <v>0.49099999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="45">
-        <v>0.57669999999999999</v>
-      </c>
-      <c r="D12" s="45">
-        <v>0.70899999999999996</v>
-      </c>
-      <c r="E12" s="45">
-        <v>0.50890000000000002</v>
-      </c>
-      <c r="F12" s="45">
-        <v>0.66310000000000002</v>
-      </c>
-      <c r="G12" s="45">
-        <v>1.0994999999999999</v>
-      </c>
-      <c r="H12" s="45">
-        <v>0.83069999999999999</v>
-      </c>
-      <c r="I12" s="46">
-        <v>0.65980000000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="45">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="D13" s="45">
-        <v>4.2099999999999999E-2</v>
-      </c>
-      <c r="E13" s="45">
-        <v>8.43E-2</v>
-      </c>
-      <c r="F13" s="45">
-        <v>5.7099999999999998E-2</v>
-      </c>
-      <c r="G13" s="45">
-        <v>0.1125</v>
-      </c>
-      <c r="H13" s="45">
-        <v>8.2400000000000001E-2</v>
-      </c>
-      <c r="I13" s="46">
-        <v>5.74E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="45">
-        <v>0.2964</v>
-      </c>
-      <c r="D14" s="45">
-        <v>0.31230000000000002</v>
-      </c>
-      <c r="E14" s="45">
-        <v>0.32329999999999998</v>
-      </c>
-      <c r="F14" s="45">
-        <v>0.34620000000000001</v>
-      </c>
-      <c r="G14" s="45">
-        <v>0.29470000000000002</v>
-      </c>
-      <c r="H14" s="45">
-        <v>0.44159999999999999</v>
-      </c>
-      <c r="I14" s="46">
-        <v>0.3125</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="45">
-        <v>0.19120000000000001</v>
-      </c>
-      <c r="D15" s="45">
-        <v>8.2799999999999999E-2</v>
-      </c>
-      <c r="E15" s="45">
-        <v>5.8200000000000002E-2</v>
-      </c>
-      <c r="F15" s="45">
-        <v>3.6600000000000001E-2</v>
-      </c>
-      <c r="G15" s="45">
-        <v>7.5800000000000006E-2</v>
-      </c>
-      <c r="H15" s="45">
-        <v>7.3300000000000004E-2</v>
-      </c>
-      <c r="I15" s="46">
-        <v>0.12659999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="45">
-        <v>0.8599</v>
-      </c>
-      <c r="D16" s="45">
-        <v>0.54810000000000003</v>
-      </c>
-      <c r="E16" s="45">
-        <v>0.54269999999999996</v>
-      </c>
-      <c r="F16" s="45">
-        <v>0.3659</v>
-      </c>
-      <c r="G16" s="45">
-        <v>0.56530000000000002</v>
-      </c>
-      <c r="H16" s="45">
-        <v>0.37340000000000001</v>
-      </c>
-      <c r="I16" s="46">
-        <v>0.67169999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="45">
-        <v>0.191</v>
-      </c>
-      <c r="D17" s="45">
-        <v>0.1668</v>
-      </c>
-      <c r="E17" s="45">
-        <v>0.19489999999999999</v>
-      </c>
-      <c r="F17" s="45">
-        <v>0.13519999999999999</v>
-      </c>
-      <c r="G17" s="45">
-        <v>0.17369999999999999</v>
-      </c>
-      <c r="H17" s="45">
-        <v>0.14419999999999999</v>
-      </c>
-      <c r="I17" s="46">
-        <v>0.1774</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="57"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="59"/>
-    </row>
-    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="43"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="55">
-        <v>95.190799999999996</v>
-      </c>
-      <c r="D20" s="55">
-        <v>94.184700000000007</v>
-      </c>
-      <c r="E20" s="55">
-        <v>95.125299999999996</v>
-      </c>
-      <c r="F20" s="55">
-        <v>95.982600000000005</v>
-      </c>
-      <c r="G20" s="55">
-        <v>94.368200000000002</v>
-      </c>
-      <c r="H20" s="55">
-        <v>94.252600000000001</v>
-      </c>
-      <c r="I20" s="56">
-        <v>94.793999999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="45">
-        <v>23.885899999999999</v>
-      </c>
-      <c r="D21" s="45">
-        <v>28.042100000000001</v>
-      </c>
-      <c r="E21" s="45">
-        <v>32.564799999999998</v>
-      </c>
-      <c r="F21" s="45">
-        <v>35.036299999999997</v>
-      </c>
-      <c r="G21" s="45">
-        <v>27.4055</v>
-      </c>
-      <c r="H21" s="45">
-        <v>26.663900000000002</v>
-      </c>
-      <c r="I21" s="46">
-        <v>26.716100000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="45">
-        <v>2.5924999999999998</v>
-      </c>
-      <c r="D22" s="45">
-        <v>2.9763999999999999</v>
-      </c>
-      <c r="E22" s="45">
-        <v>2.3759999999999999</v>
-      </c>
-      <c r="F22" s="45">
-        <v>3.0062000000000002</v>
-      </c>
-      <c r="G22" s="45">
-        <v>2.6739999999999999</v>
-      </c>
-      <c r="H22" s="45">
-        <v>2.6158999999999999</v>
-      </c>
-      <c r="I22" s="46">
-        <v>2.7328000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="45">
-        <v>11.5837</v>
-      </c>
-      <c r="D23" s="45">
-        <v>13.145899999999999</v>
-      </c>
-      <c r="E23" s="45">
-        <v>15.373699999999999</v>
-      </c>
-      <c r="F23" s="45">
-        <v>12.744899999999999</v>
-      </c>
-      <c r="G23" s="45">
-        <v>13.099299999999999</v>
-      </c>
-      <c r="H23" s="45">
-        <v>15.180400000000001</v>
-      </c>
-      <c r="I23" s="46">
-        <v>12.6738</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="45">
-        <v>7.0780000000000003</v>
-      </c>
-      <c r="D24" s="45">
-        <v>4.9927999999999999</v>
-      </c>
-      <c r="E24" s="45">
-        <v>5.5719000000000003</v>
-      </c>
-      <c r="F24" s="45">
-        <v>7.5754999999999999</v>
-      </c>
-      <c r="G24" s="45">
-        <v>5.3201000000000001</v>
-      </c>
-      <c r="H24" s="45">
-        <v>6.7285000000000004</v>
-      </c>
-      <c r="I24" s="46">
-        <v>6.1768999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="45">
-        <v>6.3289</v>
-      </c>
-      <c r="D25" s="45">
-        <v>6.0448000000000004</v>
-      </c>
-      <c r="E25" s="45">
-        <v>5.6375999999999999</v>
-      </c>
-      <c r="F25" s="45">
-        <v>7.1406000000000001</v>
-      </c>
-      <c r="G25" s="45">
-        <v>5.9062999999999999</v>
-      </c>
-      <c r="H25" s="45">
-        <v>6.0636999999999999</v>
-      </c>
-      <c r="I25" s="46">
-        <v>6.1867999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="45">
-        <v>8.5239999999999991</v>
-      </c>
-      <c r="D26" s="45">
-        <v>8.4956999999999994</v>
-      </c>
-      <c r="E26" s="45">
-        <v>6.4846000000000004</v>
-      </c>
-      <c r="F26" s="45">
-        <v>5.3882000000000003</v>
-      </c>
-      <c r="G26" s="45">
-        <v>7.9710000000000001</v>
-      </c>
-      <c r="H26" s="45">
-        <v>4.9238999999999997</v>
-      </c>
-      <c r="I26" s="46">
-        <v>8.0394000000000005</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="45">
-        <v>9.7216000000000005</v>
-      </c>
-      <c r="D27" s="45">
-        <v>10.788500000000001</v>
-      </c>
-      <c r="E27" s="45">
-        <v>7.6970999999999998</v>
-      </c>
-      <c r="F27" s="45">
-        <v>10.1784</v>
-      </c>
-      <c r="G27" s="45">
-        <v>13.069000000000001</v>
-      </c>
-      <c r="H27" s="45">
-        <v>14.456200000000001</v>
-      </c>
-      <c r="I27" s="46">
-        <v>10.3575</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="45">
-        <v>1.6236999999999999</v>
-      </c>
-      <c r="D28" s="45">
-        <v>1.6346000000000001</v>
-      </c>
-      <c r="E28" s="45">
-        <v>1.6531</v>
-      </c>
-      <c r="F28" s="45">
-        <v>1.6535</v>
-      </c>
-      <c r="G28" s="45">
-        <v>1.5527</v>
-      </c>
-      <c r="H28" s="45">
-        <v>1.7566999999999999</v>
-      </c>
-      <c r="I28" s="46">
-        <v>1.6332</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="45">
-        <v>6.1746999999999996</v>
-      </c>
-      <c r="D29" s="45">
-        <v>5.8226000000000004</v>
-      </c>
-      <c r="E29" s="45">
-        <v>5.1220999999999997</v>
-      </c>
-      <c r="F29" s="45">
-        <v>4.7499000000000002</v>
-      </c>
-      <c r="G29" s="45">
-        <v>5.5178000000000003</v>
-      </c>
-      <c r="H29" s="45">
-        <v>6.4347000000000003</v>
-      </c>
-      <c r="I29" s="46">
-        <v>5.8955000000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="45">
-        <v>2.5137999999999998</v>
-      </c>
-      <c r="D30" s="45">
-        <v>1.0679000000000001</v>
-      </c>
-      <c r="E30" s="45">
-        <v>1.0730999999999999</v>
-      </c>
-      <c r="F30" s="45">
-        <v>0.66080000000000005</v>
-      </c>
-      <c r="G30" s="45">
-        <v>1.325</v>
-      </c>
-      <c r="H30" s="45">
-        <v>1.1153</v>
-      </c>
-      <c r="I30" s="46">
-        <v>1.7113</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="45">
-        <v>12.0695</v>
-      </c>
-      <c r="D31" s="45">
-        <v>8.2850999999999999</v>
-      </c>
-      <c r="E31" s="45">
-        <v>8.6370000000000005</v>
-      </c>
-      <c r="F31" s="45">
-        <v>5.0438000000000001</v>
-      </c>
-      <c r="G31" s="45">
-        <v>7.5833000000000004</v>
-      </c>
-      <c r="H31" s="45">
-        <v>5.5717999999999996</v>
-      </c>
-      <c r="I31" s="46">
-        <v>9.6933000000000007</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="48">
-        <v>3.0975000000000001</v>
-      </c>
-      <c r="D32" s="48">
-        <v>2.8891</v>
-      </c>
-      <c r="E32" s="48">
-        <v>2.9359000000000002</v>
-      </c>
-      <c r="F32" s="48">
-        <v>2.8020999999999998</v>
-      </c>
-      <c r="G32" s="48">
-        <v>2.9434</v>
-      </c>
-      <c r="H32" s="48">
-        <v>2.7387000000000001</v>
-      </c>
-      <c r="I32" s="49">
-        <v>2.9773999999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="60"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B33:I33"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/assets/excel/IPCse - Series históricas.xlsx
+++ b/assets/excel/IPCse - Series históricas.xlsx
@@ -8,13 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fiona\Dropbox\MGR\IPC seasonal adjustment\IPCse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3512AF14-5553-4DA8-8050-14235982242C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7589B723-98E5-4ACF-A87B-20E08091DFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="28800" windowHeight="17145" xr2:uid="{A81B6F3A-9175-42CA-B78F-287A4E3C6249}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{A81B6F3A-9175-42CA-B78F-287A4E3C6249}"/>
   </bookViews>
   <sheets>
     <sheet name="Índices" sheetId="1" r:id="rId1"/>
     <sheet name="Variación mensual" sheetId="3" r:id="rId2"/>
+    <sheet name="Cuadro 1" sheetId="4" r:id="rId3"/>
+    <sheet name="Cuadro 2" sheetId="6" r:id="rId4"/>
+    <sheet name="Gráficos Twitter 1" sheetId="7" r:id="rId5"/>
+    <sheet name="Gráficos Twitter 2" sheetId="8" r:id="rId6"/>
+    <sheet name="Gráficos Twitter 3" sheetId="9" r:id="rId7"/>
+    <sheet name="Gráficos Twitter 4" sheetId="10" r:id="rId8"/>
+    <sheet name="Gráficos Twitter 5" sheetId="11" r:id="rId9"/>
+    <sheet name="Gráficos Twitter 6" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="48">
   <si>
     <t>Fecha</t>
   </si>
@@ -116,6 +124,94 @@
   <si>
     <t>IPCse NACIONAL</t>
   </si>
+  <si>
+    <t>Cuadro 1. Cambios porcentuales en el IPCse</t>
+  </si>
+  <si>
+    <t>IPCse</t>
+  </si>
+  <si>
+    <t>Variación mensual</t>
+  </si>
+  <si>
+    <t>Variación interanual</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Ene 2023 / Ene 2022</t>
+  </si>
+  <si>
+    <t>Ago.</t>
+  </si>
+  <si>
+    <t>Sep. </t>
+  </si>
+  <si>
+    <t>Oct. </t>
+  </si>
+  <si>
+    <t>Nov. </t>
+  </si>
+  <si>
+    <t>Dic.</t>
+  </si>
+  <si>
+    <t>Ene.</t>
+  </si>
+  <si>
+    <t>IPCse Nacional</t>
+  </si>
+  <si>
+    <t>GBA</t>
+  </si>
+  <si>
+    <t>Inflación subyacente</t>
+  </si>
+  <si>
+    <t>Nacional</t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Nova"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Nota: existe una diferencia económicamente no significativa (menos de medio punto porcentual) entre las variaciones interanuales del IPCse y del IPC calculado por INDEC. Debido a esto la última columna del cuadro muestra las variaciones interanuales del IPC oficial.</t>
+    </r>
+  </si>
+  <si>
+    <t>Cuadro 2. Incidencia de las divisiones en la inflación</t>
+  </si>
+  <si>
+    <t>Nivel general</t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Nova"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Nota: los ponderadores de los índices de precios de las divisiones para el cálculo de las incidencias del IPC nacional se construyeron como promedio ponderado de las ponderaciones regionales al no existir ponderadores oficiales. Debido a esto, el resultado de la suma de las incidencias da un valor aproximado a la inflación del nivel general.</t>
+    </r>
+  </si>
+  <si>
+    <t>Incidencia mensual (IPCse)</t>
+  </si>
+  <si>
+    <t>Incidencia interanual (INDEC)</t>
+  </si>
 </sst>
 </file>
 
@@ -124,7 +220,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +280,33 @@
       <name val="Arial Nova"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Nova"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Nova"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Nova"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Nova"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -217,7 +340,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -409,11 +532,200 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -478,6 +790,119 @@
     <xf numFmtId="2" fontId="8" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,6 +918,336 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>166067</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>180075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87B11CB6-38AE-5182-CF3C-01660FE659AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="981075" y="790575"/>
+          <a:ext cx="13662992" cy="7200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95248</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>395824</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>141973</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CE00C4E-9870-8A60-2B01-B351EBE5070D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="857248" y="371473"/>
+          <a:ext cx="11730576" cy="7200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>725010</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>113400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7562F2EC-51BA-4B64-7973-DD01C6C126C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="876300" y="533400"/>
+          <a:ext cx="12802710" cy="7200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>382110</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>189600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE81C0A5-B1D3-2049-93A7-51CBC40579ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="533400" y="419100"/>
+          <a:ext cx="12802710" cy="7200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>229710</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>103875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34EA1307-259F-BCF1-094C-763274AF06B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1143000" y="714375"/>
+          <a:ext cx="12802710" cy="7200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>220185</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>18150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15358F3B-4182-013E-712F-1FD150EBA9AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1133475" y="438150"/>
+          <a:ext cx="12802710" cy="7200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5787,6 +6542,28 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5685E93D-3253-433B-9A77-8EAE690D497F}">
+  <dimension ref="O25:X52"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O52" activeCellId="1" sqref="X25 O52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="25" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="X25" s="68"/>
+    </row>
+    <row r="52" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O52" s="68"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED968B30-91AE-4BCD-9838-818BA334E48C}">
   <dimension ref="B1:V89"/>
@@ -5796,7 +6573,7 @@
       <selection activeCell="M1" sqref="M1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -10742,4 +11519,1707 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFB15E2-E8A7-479B-8D7C-D0D847930AD1}">
+  <dimension ref="B1:M37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="32"/>
+      <c r="M2" s="68"/>
+    </row>
+    <row r="3" spans="2:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="36">
+        <v>2022</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="37">
+        <v>2023</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="38"/>
+      <c r="C5" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="40"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="42">
+        <v>6.9</v>
+      </c>
+      <c r="D6" s="42">
+        <v>5.6</v>
+      </c>
+      <c r="E6" s="42">
+        <v>6</v>
+      </c>
+      <c r="F6" s="42">
+        <v>5.4</v>
+      </c>
+      <c r="G6" s="42">
+        <v>5.4</v>
+      </c>
+      <c r="H6" s="42">
+        <v>6.4</v>
+      </c>
+      <c r="I6" s="43">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="45"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="29">
+        <v>6.8</v>
+      </c>
+      <c r="D8" s="29">
+        <v>5.3</v>
+      </c>
+      <c r="E8" s="29">
+        <v>6.2</v>
+      </c>
+      <c r="F8" s="29">
+        <v>5.7</v>
+      </c>
+      <c r="G8" s="29">
+        <v>5.7</v>
+      </c>
+      <c r="H8" s="29">
+        <v>6.4</v>
+      </c>
+      <c r="I8" s="47">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="29">
+        <v>6.9</v>
+      </c>
+      <c r="D9" s="29">
+        <v>5.8</v>
+      </c>
+      <c r="E9" s="29">
+        <v>5.8</v>
+      </c>
+      <c r="F9" s="29">
+        <v>5.2</v>
+      </c>
+      <c r="G9" s="29">
+        <v>5.3</v>
+      </c>
+      <c r="H9" s="29">
+        <v>6.3</v>
+      </c>
+      <c r="I9" s="47">
+        <v>98.3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="29">
+        <v>7.4</v>
+      </c>
+      <c r="D10" s="29">
+        <v>5.7</v>
+      </c>
+      <c r="E10" s="29">
+        <v>6</v>
+      </c>
+      <c r="F10" s="29">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G10" s="29">
+        <v>4.8</v>
+      </c>
+      <c r="H10" s="29">
+        <v>6.5</v>
+      </c>
+      <c r="I10" s="47">
+        <v>99.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="29">
+        <v>7.3</v>
+      </c>
+      <c r="D11" s="29">
+        <v>6.3</v>
+      </c>
+      <c r="E11" s="29">
+        <v>5.8</v>
+      </c>
+      <c r="F11" s="29">
+        <v>4.8</v>
+      </c>
+      <c r="G11" s="29">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H11" s="29">
+        <v>6.1</v>
+      </c>
+      <c r="I11" s="47">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="29">
+        <v>6.4</v>
+      </c>
+      <c r="D12" s="29">
+        <v>5.5</v>
+      </c>
+      <c r="E12" s="29">
+        <v>5.9</v>
+      </c>
+      <c r="F12" s="29">
+        <v>5.3</v>
+      </c>
+      <c r="G12" s="29">
+        <v>5.2</v>
+      </c>
+      <c r="H12" s="29">
+        <v>6.6</v>
+      </c>
+      <c r="I12" s="47">
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="29">
+        <v>6.1</v>
+      </c>
+      <c r="D13" s="29">
+        <v>5.6</v>
+      </c>
+      <c r="E13" s="29">
+        <v>6.2</v>
+      </c>
+      <c r="F13" s="29">
+        <v>5.2</v>
+      </c>
+      <c r="G13" s="29">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H13" s="29">
+        <v>6.5</v>
+      </c>
+      <c r="I13" s="47">
+        <v>98.6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="46"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="47"/>
+    </row>
+    <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="45"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="29">
+        <v>6.9</v>
+      </c>
+      <c r="D16" s="29">
+        <v>6</v>
+      </c>
+      <c r="E16" s="29">
+        <v>5.5</v>
+      </c>
+      <c r="F16" s="29">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G16" s="29">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H16" s="29">
+        <v>6.5</v>
+      </c>
+      <c r="I16" s="47">
+        <v>98.4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="29">
+        <v>7.3</v>
+      </c>
+      <c r="D17" s="29">
+        <v>7.5</v>
+      </c>
+      <c r="E17" s="29">
+        <v>5.5</v>
+      </c>
+      <c r="F17" s="29">
+        <v>5.9</v>
+      </c>
+      <c r="G17" s="29">
+        <v>7</v>
+      </c>
+      <c r="H17" s="29">
+        <v>7.3</v>
+      </c>
+      <c r="I17" s="47">
+        <v>103.3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="29">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D18" s="29">
+        <v>7.7</v>
+      </c>
+      <c r="E18" s="29">
+        <v>6.1</v>
+      </c>
+      <c r="F18" s="29">
+        <v>5.7</v>
+      </c>
+      <c r="G18" s="29">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H18" s="29">
+        <v>5.6</v>
+      </c>
+      <c r="I18" s="47">
+        <v>120.6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="29">
+        <v>5.5</v>
+      </c>
+      <c r="D19" s="29">
+        <v>3.1</v>
+      </c>
+      <c r="E19" s="29">
+        <v>7.4</v>
+      </c>
+      <c r="F19" s="29">
+        <v>8.6</v>
+      </c>
+      <c r="G19" s="29">
+        <v>4.2</v>
+      </c>
+      <c r="H19" s="29">
+        <v>8</v>
+      </c>
+      <c r="I19" s="47">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="29">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D20" s="29">
+        <v>5.4</v>
+      </c>
+      <c r="E20" s="29">
+        <v>4.8</v>
+      </c>
+      <c r="F20" s="29">
+        <v>5.7</v>
+      </c>
+      <c r="G20" s="29">
+        <v>6.2</v>
+      </c>
+      <c r="H20" s="29">
+        <v>6.2</v>
+      </c>
+      <c r="I20" s="47">
+        <v>101.2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="29">
+        <v>5.7</v>
+      </c>
+      <c r="D21" s="29">
+        <v>4.3</v>
+      </c>
+      <c r="E21" s="29">
+        <v>7.1</v>
+      </c>
+      <c r="F21" s="29">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G21" s="29">
+        <v>5.7</v>
+      </c>
+      <c r="H21" s="29">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I21" s="47">
+        <v>92.3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="29">
+        <v>6.8</v>
+      </c>
+      <c r="D22" s="29">
+        <v>5.8</v>
+      </c>
+      <c r="E22" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="F22" s="29">
+        <v>6.1</v>
+      </c>
+      <c r="G22" s="29">
+        <v>5.8</v>
+      </c>
+      <c r="H22" s="29">
+        <v>5.9</v>
+      </c>
+      <c r="I22" s="47">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="29">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D23" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="E23" s="29">
+        <v>11.9</v>
+      </c>
+      <c r="F23" s="29">
+        <v>6.2</v>
+      </c>
+      <c r="G23" s="29">
+        <v>2.7</v>
+      </c>
+      <c r="H23" s="29">
+        <v>7</v>
+      </c>
+      <c r="I23" s="47">
+        <v>68.599999999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="29">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D24" s="29">
+        <v>5.2</v>
+      </c>
+      <c r="E24" s="29">
+        <v>5.3</v>
+      </c>
+      <c r="F24" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="G24" s="29">
+        <v>4.7</v>
+      </c>
+      <c r="H24" s="29">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I24" s="47">
+        <v>91.6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="29">
+        <v>5</v>
+      </c>
+      <c r="D25" s="29">
+        <v>5.6</v>
+      </c>
+      <c r="E25" s="29">
+        <v>7.7</v>
+      </c>
+      <c r="F25" s="29">
+        <v>6.2</v>
+      </c>
+      <c r="G25" s="29">
+        <v>6.4</v>
+      </c>
+      <c r="H25" s="29">
+        <v>4.3</v>
+      </c>
+      <c r="I25" s="47">
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="29">
+        <v>6.7</v>
+      </c>
+      <c r="D26" s="29">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E26" s="29">
+        <v>7.5</v>
+      </c>
+      <c r="F26" s="29">
+        <v>5.6</v>
+      </c>
+      <c r="G26" s="29">
+        <v>7.1</v>
+      </c>
+      <c r="H26" s="29">
+        <v>6.1</v>
+      </c>
+      <c r="I26" s="47">
+        <v>109.9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="29">
+        <v>8.5</v>
+      </c>
+      <c r="D27" s="29">
+        <v>6.7</v>
+      </c>
+      <c r="E27" s="29">
+        <v>6.1</v>
+      </c>
+      <c r="F27" s="29">
+        <v>5.8</v>
+      </c>
+      <c r="G27" s="29">
+        <v>5.8</v>
+      </c>
+      <c r="H27" s="29">
+        <v>6.9</v>
+      </c>
+      <c r="I27" s="47">
+        <v>102.6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="46"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="47"/>
+    </row>
+    <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="45"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="29">
+        <v>7.3</v>
+      </c>
+      <c r="D30" s="29">
+        <v>6</v>
+      </c>
+      <c r="E30" s="29">
+        <v>5.8</v>
+      </c>
+      <c r="F30" s="29">
+        <v>5</v>
+      </c>
+      <c r="G30" s="29">
+        <v>5.4</v>
+      </c>
+      <c r="H30" s="29">
+        <v>6.5</v>
+      </c>
+      <c r="I30" s="47">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="29">
+        <v>7</v>
+      </c>
+      <c r="D31" s="29">
+        <v>5.8</v>
+      </c>
+      <c r="E31" s="29">
+        <v>5.9</v>
+      </c>
+      <c r="F31" s="29">
+        <v>5.2</v>
+      </c>
+      <c r="G31" s="29">
+        <v>6</v>
+      </c>
+      <c r="H31" s="29">
+        <v>6.5</v>
+      </c>
+      <c r="I31" s="47">
+        <v>101.3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="29">
+        <v>7.6</v>
+      </c>
+      <c r="D32" s="29">
+        <v>6.4</v>
+      </c>
+      <c r="E32" s="29">
+        <v>5.6</v>
+      </c>
+      <c r="F32" s="29">
+        <v>5</v>
+      </c>
+      <c r="G32" s="29">
+        <v>5.2</v>
+      </c>
+      <c r="H32" s="29">
+        <v>6.4</v>
+      </c>
+      <c r="I32" s="47">
+        <v>98.4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="29">
+        <v>7.7</v>
+      </c>
+      <c r="D33" s="29">
+        <v>5.9</v>
+      </c>
+      <c r="E33" s="29">
+        <v>5.8</v>
+      </c>
+      <c r="F33" s="29">
+        <v>4.8</v>
+      </c>
+      <c r="G33" s="29">
+        <v>4.8</v>
+      </c>
+      <c r="H33" s="29">
+        <v>6.9</v>
+      </c>
+      <c r="I33" s="47">
+        <v>98.6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="29">
+        <v>7.4</v>
+      </c>
+      <c r="D34" s="29">
+        <v>6.3</v>
+      </c>
+      <c r="E34" s="29">
+        <v>5.5</v>
+      </c>
+      <c r="F34" s="29">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G34" s="29">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H34" s="29">
+        <v>6.8</v>
+      </c>
+      <c r="I34" s="47">
+        <v>96.7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="29">
+        <v>7.4</v>
+      </c>
+      <c r="D35" s="29">
+        <v>6.3</v>
+      </c>
+      <c r="E35" s="29">
+        <v>5.6</v>
+      </c>
+      <c r="F35" s="29">
+        <v>5.2</v>
+      </c>
+      <c r="G35" s="29">
+        <v>4.7</v>
+      </c>
+      <c r="H35" s="29">
+        <v>6.6</v>
+      </c>
+      <c r="I35" s="47">
+        <v>98.6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="49">
+        <v>6.7</v>
+      </c>
+      <c r="D36" s="49">
+        <v>6.3</v>
+      </c>
+      <c r="E36" s="49">
+        <v>6.4</v>
+      </c>
+      <c r="F36" s="49">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G36" s="49">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H36" s="49">
+        <v>6.5</v>
+      </c>
+      <c r="I36" s="50">
+        <v>101.4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="B7:I7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDD0094-1DED-4B89-B51B-8A3884F9088E}">
+  <dimension ref="B1:I33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="3" max="9" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="58"/>
+      <c r="C3" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="60" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="45"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="59">
+        <v>6.4</v>
+      </c>
+      <c r="D5" s="59">
+        <v>6.3</v>
+      </c>
+      <c r="E5" s="59">
+        <v>6.5</v>
+      </c>
+      <c r="F5" s="59">
+        <v>6.1</v>
+      </c>
+      <c r="G5" s="59">
+        <v>6.6</v>
+      </c>
+      <c r="H5" s="59">
+        <v>6.5</v>
+      </c>
+      <c r="I5" s="60">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="61">
+        <v>1.5</v>
+      </c>
+      <c r="D6" s="61">
+        <v>2</v>
+      </c>
+      <c r="E6" s="61">
+        <v>2.7</v>
+      </c>
+      <c r="F6" s="61">
+        <v>2.5</v>
+      </c>
+      <c r="G6" s="61">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H6" s="61">
+        <v>1.7</v>
+      </c>
+      <c r="I6" s="62">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="61">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="61">
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="67">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="61">
+        <v>0.2</v>
+      </c>
+      <c r="G7" s="61">
+        <v>0.2</v>
+      </c>
+      <c r="H7" s="61">
+        <v>0.2</v>
+      </c>
+      <c r="I7" s="62">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="61">
+        <v>0.6</v>
+      </c>
+      <c r="D8" s="61">
+        <v>0.7</v>
+      </c>
+      <c r="E8" s="61">
+        <v>0.6</v>
+      </c>
+      <c r="F8" s="61">
+        <v>0.8</v>
+      </c>
+      <c r="G8" s="61">
+        <v>0.6</v>
+      </c>
+      <c r="H8" s="61">
+        <v>0.8</v>
+      </c>
+      <c r="I8" s="62">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="61">
+        <v>0.6</v>
+      </c>
+      <c r="D9" s="61">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="61">
+        <v>0.4</v>
+      </c>
+      <c r="F9" s="61">
+        <v>0.2</v>
+      </c>
+      <c r="G9" s="61">
+        <v>0.8</v>
+      </c>
+      <c r="H9" s="61">
+        <v>0.7</v>
+      </c>
+      <c r="I9" s="62">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="61">
+        <v>0.4</v>
+      </c>
+      <c r="D10" s="61">
+        <v>0.4</v>
+      </c>
+      <c r="E10" s="61">
+        <v>0.3</v>
+      </c>
+      <c r="F10" s="61">
+        <v>0.6</v>
+      </c>
+      <c r="G10" s="61">
+        <v>0.4</v>
+      </c>
+      <c r="H10" s="61">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="62">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="61">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="61">
+        <v>0.4</v>
+      </c>
+      <c r="E11" s="61">
+        <v>0.3</v>
+      </c>
+      <c r="F11" s="61">
+        <v>0.2</v>
+      </c>
+      <c r="G11" s="61">
+        <v>0.3</v>
+      </c>
+      <c r="H11" s="61">
+        <v>0.3</v>
+      </c>
+      <c r="I11" s="62">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="61">
+        <v>0.7</v>
+      </c>
+      <c r="D12" s="61">
+        <v>0.7</v>
+      </c>
+      <c r="E12" s="61">
+        <v>0.4</v>
+      </c>
+      <c r="F12" s="61">
+        <v>0.6</v>
+      </c>
+      <c r="G12" s="61">
+        <v>0.8</v>
+      </c>
+      <c r="H12" s="61">
+        <v>0.9</v>
+      </c>
+      <c r="I12" s="62">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="61">
+        <v>0.2</v>
+      </c>
+      <c r="D13" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="61">
+        <v>0.2</v>
+      </c>
+      <c r="I13" s="62">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="61">
+        <v>0.7</v>
+      </c>
+      <c r="D14" s="61">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="61">
+        <v>0.4</v>
+      </c>
+      <c r="F14" s="61">
+        <v>0.4</v>
+      </c>
+      <c r="G14" s="61">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="61">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="62">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="61">
+        <v>0</v>
+      </c>
+      <c r="F15" s="61">
+        <v>0</v>
+      </c>
+      <c r="G15" s="61">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="61">
+        <v>0</v>
+      </c>
+      <c r="I15" s="62">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="61">
+        <v>0.6</v>
+      </c>
+      <c r="D16" s="61">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="61">
+        <v>0.8</v>
+      </c>
+      <c r="F16" s="61">
+        <v>0.2</v>
+      </c>
+      <c r="G16" s="61">
+        <v>0.4</v>
+      </c>
+      <c r="H16" s="61">
+        <v>0.4</v>
+      </c>
+      <c r="I16" s="62">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="61">
+        <v>0.2</v>
+      </c>
+      <c r="D17" s="61">
+        <v>0.2</v>
+      </c>
+      <c r="E17" s="61">
+        <v>0.2</v>
+      </c>
+      <c r="F17" s="61">
+        <v>0.2</v>
+      </c>
+      <c r="G17" s="61">
+        <v>0.2</v>
+      </c>
+      <c r="H17" s="61">
+        <v>0.2</v>
+      </c>
+      <c r="I17" s="62">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="52"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="53"/>
+    </row>
+    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="45"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="59">
+        <v>99</v>
+      </c>
+      <c r="D20" s="59">
+        <v>98.3</v>
+      </c>
+      <c r="E20" s="59">
+        <v>99.4</v>
+      </c>
+      <c r="F20" s="59">
+        <v>100.2</v>
+      </c>
+      <c r="G20" s="59">
+        <v>98.7</v>
+      </c>
+      <c r="H20" s="59">
+        <v>98.6</v>
+      </c>
+      <c r="I20" s="60">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="61">
+        <v>24.9</v>
+      </c>
+      <c r="D21" s="61">
+        <v>29.4</v>
+      </c>
+      <c r="E21" s="61">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="F21" s="61">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="G21" s="61">
+        <v>29</v>
+      </c>
+      <c r="H21" s="61">
+        <v>27.6</v>
+      </c>
+      <c r="I21" s="62">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="61">
+        <v>2.8</v>
+      </c>
+      <c r="D22" s="61">
+        <v>3.2</v>
+      </c>
+      <c r="E22" s="61">
+        <v>2.6</v>
+      </c>
+      <c r="F22" s="61">
+        <v>3.3</v>
+      </c>
+      <c r="G22" s="61">
+        <v>2.9</v>
+      </c>
+      <c r="H22" s="61">
+        <v>2.9</v>
+      </c>
+      <c r="I22" s="62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="61">
+        <v>11.3</v>
+      </c>
+      <c r="D23" s="61">
+        <v>13.1</v>
+      </c>
+      <c r="E23" s="61">
+        <v>15.1</v>
+      </c>
+      <c r="F23" s="61">
+        <v>12.8</v>
+      </c>
+      <c r="G23" s="61">
+        <v>13</v>
+      </c>
+      <c r="H23" s="61">
+        <v>15.3</v>
+      </c>
+      <c r="I23" s="62">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="61">
+        <v>7.9</v>
+      </c>
+      <c r="D24" s="61">
+        <v>5.7</v>
+      </c>
+      <c r="E24" s="61">
+        <v>6.1</v>
+      </c>
+      <c r="F24" s="61">
+        <v>7.6</v>
+      </c>
+      <c r="G24" s="61">
+        <v>6.4</v>
+      </c>
+      <c r="H24" s="61">
+        <v>7.3</v>
+      </c>
+      <c r="I24" s="62">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="61">
+        <v>6.5</v>
+      </c>
+      <c r="D25" s="61">
+        <v>6.3</v>
+      </c>
+      <c r="E25" s="61">
+        <v>5.8</v>
+      </c>
+      <c r="F25" s="67">
+        <v>7.6</v>
+      </c>
+      <c r="G25" s="61">
+        <v>6.2</v>
+      </c>
+      <c r="H25" s="61">
+        <v>6.5</v>
+      </c>
+      <c r="I25" s="62">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="61">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D26" s="61">
+        <v>8.6</v>
+      </c>
+      <c r="E26" s="61">
+        <v>6.6</v>
+      </c>
+      <c r="F26" s="61">
+        <v>5.5</v>
+      </c>
+      <c r="G26" s="61">
+        <v>8</v>
+      </c>
+      <c r="H26" s="61">
+        <v>5</v>
+      </c>
+      <c r="I26" s="62">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="61">
+        <v>10.4</v>
+      </c>
+      <c r="D27" s="61">
+        <v>11.3</v>
+      </c>
+      <c r="E27" s="61">
+        <v>7.9</v>
+      </c>
+      <c r="F27" s="61">
+        <v>10.6</v>
+      </c>
+      <c r="G27" s="61">
+        <v>13.6</v>
+      </c>
+      <c r="H27" s="61">
+        <v>15.1</v>
+      </c>
+      <c r="I27" s="62">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="61">
+        <v>1.7</v>
+      </c>
+      <c r="D28" s="61">
+        <v>1.7</v>
+      </c>
+      <c r="E28" s="61">
+        <v>1.8</v>
+      </c>
+      <c r="F28" s="61">
+        <v>1.7</v>
+      </c>
+      <c r="G28" s="61">
+        <v>1.6</v>
+      </c>
+      <c r="H28" s="61">
+        <v>1.9</v>
+      </c>
+      <c r="I28" s="62">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="61">
+        <v>7</v>
+      </c>
+      <c r="D29" s="61">
+        <v>6.4</v>
+      </c>
+      <c r="E29" s="61">
+        <v>5.5</v>
+      </c>
+      <c r="F29" s="61">
+        <v>5.2</v>
+      </c>
+      <c r="G29" s="61">
+        <v>5.8</v>
+      </c>
+      <c r="H29" s="61">
+        <v>6.9</v>
+      </c>
+      <c r="I29" s="62">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="61">
+        <v>2.4</v>
+      </c>
+      <c r="D30" s="61">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E30" s="61">
+        <v>1</v>
+      </c>
+      <c r="F30" s="61">
+        <v>0.6</v>
+      </c>
+      <c r="G30" s="61">
+        <v>1.3</v>
+      </c>
+      <c r="H30" s="61">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I30" s="62">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="61">
+        <v>12.2</v>
+      </c>
+      <c r="D31" s="61">
+        <v>8.6</v>
+      </c>
+      <c r="E31" s="61">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F31" s="61">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G31" s="61">
+        <v>7.8</v>
+      </c>
+      <c r="H31" s="61">
+        <v>5.9</v>
+      </c>
+      <c r="I31" s="62">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="64">
+        <v>3.3</v>
+      </c>
+      <c r="D32" s="64">
+        <v>3</v>
+      </c>
+      <c r="E32" s="64">
+        <v>3</v>
+      </c>
+      <c r="F32" s="64">
+        <v>3.1</v>
+      </c>
+      <c r="G32" s="64">
+        <v>3.1</v>
+      </c>
+      <c r="H32" s="64">
+        <v>2.9</v>
+      </c>
+      <c r="I32" s="65">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B4:I4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB33A77-70A8-4112-AA0E-085740473EF6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0374CFB4-14EB-4D8B-AE4C-042AAEE7B0FB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3990008-C001-455B-8FF0-D98EFFD858F6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D48F31-AEAE-44A3-B608-0D4D34CF07B9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46BA69C-D9E6-4437-95F4-BDF245FF5E45}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N54" sqref="N54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/assets/excel/IPCse - Series históricas.xlsx
+++ b/assets/excel/IPCse - Series históricas.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fiona\Dropbox\MGR\IPC seasonal adjustment\IPCse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7589B723-98E5-4ACF-A87B-20E08091DFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB0FBB2-B27D-4A14-885F-C89E5F8A055A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{A81B6F3A-9175-42CA-B78F-287A4E3C6249}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="1" xr2:uid="{A81B6F3A-9175-42CA-B78F-287A4E3C6249}"/>
   </bookViews>
   <sheets>
     <sheet name="Índices" sheetId="1" r:id="rId1"/>
     <sheet name="Variación mensual" sheetId="3" r:id="rId2"/>
-    <sheet name="Cuadro 1" sheetId="4" r:id="rId3"/>
-    <sheet name="Cuadro 2" sheetId="6" r:id="rId4"/>
-    <sheet name="Gráficos Twitter 1" sheetId="7" r:id="rId5"/>
-    <sheet name="Gráficos Twitter 2" sheetId="8" r:id="rId6"/>
-    <sheet name="Gráficos Twitter 3" sheetId="9" r:id="rId7"/>
-    <sheet name="Gráficos Twitter 4" sheetId="10" r:id="rId8"/>
-    <sheet name="Gráficos Twitter 5" sheetId="11" r:id="rId9"/>
-    <sheet name="Gráficos Twitter 6" sheetId="12" r:id="rId10"/>
+    <sheet name="Cuadro 1" sheetId="5" r:id="rId3"/>
+    <sheet name="Cuadro 2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="48">
   <si>
     <t>Fecha</t>
   </si>
@@ -86,6 +80,30 @@
     <t>Subyacente</t>
   </si>
   <si>
+    <t>Cuadro 1. Cambios porcentuales en el IPCse</t>
+  </si>
+  <si>
+    <t>IPCse</t>
+  </si>
+  <si>
+    <t>Variación mensual</t>
+  </si>
+  <si>
+    <t>Variación interanual</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Dic. 2022/Dic. 2021</t>
+  </si>
+  <si>
+    <t>IPCse Nacional</t>
+  </si>
+  <si>
+    <t>GBA</t>
+  </si>
+  <si>
     <t>Alimentos y bebidas no alcohólicas</t>
   </si>
   <si>
@@ -122,51 +140,6 @@
     <t>Bienes y servicios varios</t>
   </si>
   <si>
-    <t>IPCse NACIONAL</t>
-  </si>
-  <si>
-    <t>Cuadro 1. Cambios porcentuales en el IPCse</t>
-  </si>
-  <si>
-    <t>IPCse</t>
-  </si>
-  <si>
-    <t>Variación mensual</t>
-  </si>
-  <si>
-    <t>Variación interanual</t>
-  </si>
-  <si>
-    <t>Año</t>
-  </si>
-  <si>
-    <t>Ene 2023 / Ene 2022</t>
-  </si>
-  <si>
-    <t>Ago.</t>
-  </si>
-  <si>
-    <t>Sep. </t>
-  </si>
-  <si>
-    <t>Oct. </t>
-  </si>
-  <si>
-    <t>Nov. </t>
-  </si>
-  <si>
-    <t>Dic.</t>
-  </si>
-  <si>
-    <t>Ene.</t>
-  </si>
-  <si>
-    <t>IPCse Nacional</t>
-  </si>
-  <si>
-    <t>GBA</t>
-  </si>
-  <si>
     <t>Inflación subyacente</t>
   </si>
   <si>
@@ -190,6 +163,9 @@
     <t>Cuadro 2. Incidencia de las divisiones en la inflación</t>
   </si>
   <si>
+    <t>Incidencia con respecto al mismo mes del año anterior</t>
+  </si>
+  <si>
     <t>Nivel general</t>
   </si>
   <si>
@@ -207,10 +183,28 @@
     </r>
   </si>
   <si>
-    <t>Incidencia mensual (IPCse)</t>
+    <t>Sep.</t>
   </si>
   <si>
-    <t>Incidencia interanual (INDEC)</t>
+    <t>Oct.</t>
+  </si>
+  <si>
+    <t>Nov.</t>
+  </si>
+  <si>
+    <t>Dic.</t>
+  </si>
+  <si>
+    <t>Ene.</t>
+  </si>
+  <si>
+    <t>Feb.</t>
+  </si>
+  <si>
+    <t>IPCse NACIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -220,7 +214,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,13 +289,6 @@
     </font>
     <font>
       <vertAlign val="superscript"/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Nova"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Nova"/>
@@ -533,33 +520,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -600,6 +560,15 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
       <bottom style="medium">
@@ -679,6 +648,15 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -701,6 +679,15 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -712,20 +699,20 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -775,6 +762,87 @@
     <xf numFmtId="164" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -790,49 +858,19 @@
     <xf numFmtId="2" fontId="8" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -840,69 +878,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -918,336 +908,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>166067</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>180075</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87B11CB6-38AE-5182-CF3C-01660FE659AB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="981075" y="790575"/>
-          <a:ext cx="13662992" cy="7200000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>95248</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>180973</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>395824</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>141973</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CE00C4E-9870-8A60-2B01-B351EBE5070D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="857248" y="371473"/>
-          <a:ext cx="11730576" cy="7200000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>725010</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>113400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7562F2EC-51BA-4B64-7973-DD01C6C126C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="876300" y="533400"/>
-          <a:ext cx="12802710" cy="7200000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>382110</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>189600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE81C0A5-B1D3-2049-93A7-51CBC40579ED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="533400" y="419100"/>
-          <a:ext cx="12802710" cy="7200000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>229710</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>103875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34EA1307-259F-BCF1-094C-763274AF06B2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1143000" y="714375"/>
-          <a:ext cx="12802710" cy="7200000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>220185</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>18150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15358F3B-4182-013E-712F-1FD150EBA9AF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1133475" y="438150"/>
-          <a:ext cx="12802710" cy="7200000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1549,86 +1209,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA821952-0137-4F39-844C-15CA99AC928E}">
   <dimension ref="B1:V89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="78" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="78" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
-      <selection pane="bottomRight" activeCell="K72" sqref="K72"/>
+      <selection pane="bottomRight" activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="4" customWidth="1"/>
-    <col min="2" max="3" width="20.7109375" style="4" customWidth="1"/>
-    <col min="4" max="21" width="15.7109375" style="4"/>
-    <col min="22" max="22" width="20.7109375" style="4" customWidth="1"/>
-    <col min="23" max="16384" width="15.7109375" style="4"/>
+    <col min="1" max="1" width="4.5546875" style="4" customWidth="1"/>
+    <col min="2" max="3" width="20.6640625" style="4" customWidth="1"/>
+    <col min="4" max="21" width="15.6640625" style="4"/>
+    <col min="22" max="22" width="20.6640625" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="15.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+    <row r="1" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-    </row>
-    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+    </row>
+    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="23" t="s">
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="24"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="51"/>
       <c r="V3" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
@@ -1649,46 +1309,46 @@
         <v>6</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B5" s="10">
         <v>42705</v>
       </c>
@@ -1753,7 +1413,7 @@
         <v>99.977400000000003</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B6" s="14">
         <v>42736</v>
       </c>
@@ -1818,7 +1478,7 @@
         <v>101.58410000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B7" s="14">
         <v>42767</v>
       </c>
@@ -1883,7 +1543,7 @@
         <v>103.26909999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B8" s="14">
         <v>42795</v>
       </c>
@@ -1948,7 +1608,7 @@
         <v>104.8601</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B9" s="14">
         <v>42826</v>
       </c>
@@ -2013,7 +1673,7 @@
         <v>107.3261</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B10" s="14">
         <v>42856</v>
       </c>
@@ -2078,7 +1738,7 @@
         <v>109.36450000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B11" s="14">
         <v>42887</v>
       </c>
@@ -2143,7 +1803,7 @@
         <v>110.7693</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B12" s="14">
         <v>42917</v>
       </c>
@@ -2208,7 +1868,7 @@
         <v>112.8707</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B13" s="14">
         <v>42948</v>
       </c>
@@ -2273,7 +1933,7 @@
         <v>114.20829999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B14" s="14">
         <v>42979</v>
       </c>
@@ -2338,7 +1998,7 @@
         <v>115.16679999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B15" s="14">
         <v>43009</v>
       </c>
@@ -2403,7 +2063,7 @@
         <v>116.4616</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B16" s="14">
         <v>43040</v>
       </c>
@@ -2468,7 +2128,7 @@
         <v>118.2471</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B17" s="14">
         <v>43070</v>
       </c>
@@ -2533,7 +2193,7 @@
         <v>120.15</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B18" s="14">
         <v>43101</v>
       </c>
@@ -2598,7 +2258,7 @@
         <v>122.66079999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B19" s="14">
         <v>43132</v>
       </c>
@@ -2663,7 +2323,7 @@
         <v>124.86669999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B20" s="14">
         <v>43160</v>
       </c>
@@ -2728,7 +2388,7 @@
         <v>127.12269999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B21" s="14">
         <v>43191</v>
       </c>
@@ -2793,7 +2453,7 @@
         <v>129.41149999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B22" s="14">
         <v>43221</v>
       </c>
@@ -2858,7 +2518,7 @@
         <v>133.31610000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B23" s="14">
         <v>43252</v>
       </c>
@@ -2923,7 +2583,7 @@
         <v>138.48570000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B24" s="14">
         <v>43282</v>
       </c>
@@ -2988,7 +2648,7 @@
         <v>143.6498</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B25" s="14">
         <v>43313</v>
       </c>
@@ -3053,7 +2713,7 @@
         <v>148.0249</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B26" s="14">
         <v>43344</v>
       </c>
@@ -3118,7 +2778,7 @@
         <v>157.21270000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B27" s="14">
         <v>43374</v>
       </c>
@@ -3183,7 +2843,7 @@
         <v>163.8939</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B28" s="14">
         <v>43405</v>
       </c>
@@ -3248,7 +2908,7 @@
         <v>169.81559999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B29" s="14">
         <v>43435</v>
       </c>
@@ -3313,7 +2973,7 @@
         <v>173.93020000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B30" s="14">
         <v>43466</v>
       </c>
@@ -3378,7 +3038,7 @@
         <v>179.21430000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B31" s="14">
         <v>43497</v>
       </c>
@@ -3443,7 +3103,7 @@
         <v>186.506</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B32" s="14">
         <v>43525</v>
       </c>
@@ -3508,7 +3168,7 @@
         <v>194.3347</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B33" s="14">
         <v>43556</v>
       </c>
@@ -3573,7 +3233,7 @@
         <v>200.91579999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B34" s="14">
         <v>43586</v>
       </c>
@@ -3638,7 +3298,7 @@
         <v>207.03639999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B35" s="14">
         <v>43617</v>
       </c>
@@ -3703,7 +3363,7 @@
         <v>212.8476</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B36" s="14">
         <v>43647</v>
       </c>
@@ -3768,7 +3428,7 @@
         <v>218.41489999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B37" s="14">
         <v>43678</v>
       </c>
@@ -3833,7 +3493,7 @@
         <v>227.71770000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B38" s="14">
         <v>43709</v>
       </c>
@@ -3898,7 +3558,7 @@
         <v>240.4811</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B39" s="14">
         <v>43739</v>
       </c>
@@ -3963,7 +3623,7 @@
         <v>247.86199999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B40" s="14">
         <v>43770</v>
       </c>
@@ -4028,7 +3688,7 @@
         <v>259.3349</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B41" s="14">
         <v>43800</v>
       </c>
@@ -4093,7 +3753,7 @@
         <v>268.79329999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B42" s="14">
         <v>43831</v>
       </c>
@@ -4158,7 +3818,7 @@
         <v>278.7826</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B43" s="14">
         <v>43862</v>
       </c>
@@ -4223,7 +3883,7 @@
         <v>286.44729999999998</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B44" s="14">
         <v>43891</v>
       </c>
@@ -4288,7 +3948,7 @@
         <v>293.82990000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B45" s="14">
         <v>43922</v>
       </c>
@@ -4353,7 +4013,7 @@
         <v>300.18740000000003</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B46" s="14">
         <v>43952</v>
       </c>
@@ -4418,7 +4078,7 @@
         <v>307.81490000000002</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B47" s="14">
         <v>43983</v>
       </c>
@@ -4483,7 +4143,7 @@
         <v>316.56420000000003</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B48" s="14">
         <v>44013</v>
       </c>
@@ -4548,7 +4208,7 @@
         <v>324.54230000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B49" s="14">
         <v>44044</v>
       </c>
@@ -4613,7 +4273,7 @@
         <v>333.78789999999998</v>
       </c>
     </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B50" s="14">
         <v>44075</v>
       </c>
@@ -4678,7 +4338,7 @@
         <v>340.72519999999997</v>
       </c>
     </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B51" s="14">
         <v>44105</v>
       </c>
@@ -4743,7 +4403,7 @@
         <v>353.69189999999998</v>
       </c>
     </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B52" s="14">
         <v>44136</v>
       </c>
@@ -4808,7 +4468,7 @@
         <v>367.19499999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B53" s="14">
         <v>44166</v>
       </c>
@@ -4873,7 +4533,7 @@
         <v>383.58569999999997</v>
       </c>
     </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B54" s="14">
         <v>44197</v>
       </c>
@@ -4938,7 +4598,7 @@
         <v>400.52280000000002</v>
       </c>
     </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B55" s="14">
         <v>44228</v>
       </c>
@@ -5003,7 +4663,7 @@
         <v>416.6268</v>
       </c>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B56" s="14">
         <v>44256</v>
       </c>
@@ -5068,7 +4728,7 @@
         <v>434.39139999999998</v>
       </c>
     </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B57" s="14">
         <v>44287</v>
       </c>
@@ -5133,7 +4793,7 @@
         <v>451.8818</v>
       </c>
     </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B58" s="14">
         <v>44317</v>
       </c>
@@ -5198,7 +4858,7 @@
         <v>467.42290000000003</v>
       </c>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B59" s="14">
         <v>44348</v>
       </c>
@@ -5263,7 +4923,7 @@
         <v>483.03149999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B60" s="14">
         <v>44378</v>
       </c>
@@ -5328,7 +4988,7 @@
         <v>499.71620000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B61" s="14">
         <v>44409</v>
       </c>
@@ -5393,7 +5053,7 @@
         <v>511.17930000000001</v>
       </c>
     </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B62" s="14">
         <v>44440</v>
       </c>
@@ -5458,7 +5118,7 @@
         <v>525.85019999999997</v>
       </c>
     </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B63" s="14">
         <v>44470</v>
       </c>
@@ -5523,7 +5183,7 @@
         <v>542.82629999999995</v>
       </c>
     </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B64" s="14">
         <v>44501</v>
       </c>
@@ -5588,7 +5248,7 @@
         <v>560.64739999999995</v>
       </c>
     </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B65" s="14">
         <v>44531</v>
       </c>
@@ -5653,7 +5313,7 @@
         <v>587.63199999999995</v>
       </c>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B66" s="14">
         <v>44562</v>
       </c>
@@ -5718,7 +5378,7 @@
         <v>614.96839999999997</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B67" s="14">
         <v>44593</v>
       </c>
@@ -5783,7 +5443,7 @@
         <v>648.68989999999997</v>
       </c>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B68" s="14">
         <v>44621</v>
       </c>
@@ -5848,7 +5508,7 @@
         <v>686.36180000000002</v>
       </c>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B69" s="14">
         <v>44652</v>
       </c>
@@ -5913,7 +5573,7 @@
         <v>729.43140000000005</v>
       </c>
     </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B70" s="14">
         <v>44682</v>
       </c>
@@ -5978,7 +5638,7 @@
         <v>770.00469999999996</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B71" s="14">
         <v>44713</v>
       </c>
@@ -6043,7 +5703,7 @@
         <v>811.8424</v>
       </c>
     </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B72" s="14">
         <v>44743</v>
       </c>
@@ -6108,7 +5768,7 @@
         <v>880.58450000000005</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B73" s="14">
         <v>44774</v>
       </c>
@@ -6173,7 +5833,7 @@
         <v>944.6404</v>
       </c>
     </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B74" s="14">
         <v>44805</v>
       </c>
@@ -6238,7 +5898,7 @@
         <v>1001.7683</v>
       </c>
     </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B75" s="14">
         <v>44835</v>
       </c>
@@ -6303,7 +5963,7 @@
         <v>1059.6804</v>
       </c>
     </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B76" s="14">
         <v>44866</v>
       </c>
@@ -6368,7 +6028,7 @@
         <v>1113.1264000000001</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B77" s="14">
         <v>44896</v>
       </c>
@@ -6433,102 +6093,164 @@
         <v>1173.7402999999999</v>
       </c>
     </row>
-    <row r="78" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="15">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B78" s="14">
         <v>44927</v>
       </c>
-      <c r="C78" s="19">
+      <c r="C78" s="16">
         <v>1208.7164</v>
       </c>
-      <c r="D78" s="20">
+      <c r="D78" s="17">
         <v>1187.3553999999999</v>
       </c>
-      <c r="E78" s="20">
+      <c r="E78" s="17">
         <v>1219.2152000000001</v>
       </c>
-      <c r="F78" s="20">
+      <c r="F78" s="17">
         <v>1237.2358999999999</v>
       </c>
-      <c r="G78" s="20">
+      <c r="G78" s="17">
         <v>1255.3752999999999</v>
       </c>
-      <c r="H78" s="20">
+      <c r="H78" s="17">
         <v>1251.0572</v>
       </c>
-      <c r="I78" s="21">
+      <c r="I78" s="18">
         <v>1185.7885000000001</v>
       </c>
-      <c r="J78" s="20">
+      <c r="J78" s="17">
         <v>1271.232</v>
       </c>
-      <c r="K78" s="20">
+      <c r="K78" s="17">
         <v>1009.1845</v>
       </c>
-      <c r="L78" s="20">
+      <c r="L78" s="17">
         <v>1438.6188999999999</v>
       </c>
-      <c r="M78" s="20">
+      <c r="M78" s="17">
         <v>929.77620000000002</v>
       </c>
-      <c r="N78" s="20">
+      <c r="N78" s="17">
         <v>1213.1757</v>
       </c>
-      <c r="O78" s="20">
+      <c r="O78" s="17">
         <v>1292.6410000000001</v>
       </c>
-      <c r="P78" s="20">
+      <c r="P78" s="17">
         <v>1260.5619999999999</v>
       </c>
-      <c r="Q78" s="20">
+      <c r="Q78" s="17">
         <v>895.39469999999994</v>
       </c>
-      <c r="R78" s="20">
+      <c r="R78" s="17">
         <v>1128.8140000000001</v>
       </c>
-      <c r="S78" s="20">
+      <c r="S78" s="17">
         <v>978.28110000000004</v>
       </c>
-      <c r="T78" s="20">
+      <c r="T78" s="17">
         <v>1275.0909999999999</v>
       </c>
-      <c r="U78" s="21">
+      <c r="U78" s="18">
         <v>1062.211</v>
       </c>
-      <c r="V78" s="19">
+      <c r="V78" s="16">
         <v>1250.2503999999999</v>
       </c>
     </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B79" s="6"/>
-    </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="15">
+        <v>44958</v>
+      </c>
+      <c r="C79" s="19">
+        <v>1291.8092999999999</v>
+      </c>
+      <c r="D79" s="20">
+        <v>1271.3708999999999</v>
+      </c>
+      <c r="E79" s="20">
+        <v>1298.124</v>
+      </c>
+      <c r="F79" s="20">
+        <v>1329.6954000000001</v>
+      </c>
+      <c r="G79" s="20">
+        <v>1354.0170000000001</v>
+      </c>
+      <c r="H79" s="20">
+        <v>1334.6805999999999</v>
+      </c>
+      <c r="I79" s="21">
+        <v>1257.3244999999999</v>
+      </c>
+      <c r="J79" s="20">
+        <v>1389.0690999999999</v>
+      </c>
+      <c r="K79" s="20">
+        <v>1070.3867</v>
+      </c>
+      <c r="L79" s="20">
+        <v>1527.2965999999999</v>
+      </c>
+      <c r="M79" s="20">
+        <v>974.51549999999997</v>
+      </c>
+      <c r="N79" s="20">
+        <v>1277.4639999999999</v>
+      </c>
+      <c r="O79" s="20">
+        <v>1361.6448</v>
+      </c>
+      <c r="P79" s="20">
+        <v>1321.9165</v>
+      </c>
+      <c r="Q79" s="20">
+        <v>965.83900000000006</v>
+      </c>
+      <c r="R79" s="20">
+        <v>1208.7445</v>
+      </c>
+      <c r="S79" s="20">
+        <v>1020.9703</v>
+      </c>
+      <c r="T79" s="20">
+        <v>1371.1686</v>
+      </c>
+      <c r="U79" s="21">
+        <v>1131.5159000000001</v>
+      </c>
+      <c r="V79" s="19">
+        <v>1345.6905999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B80" s="6"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="6"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="6"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="6"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="6"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" s="6"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="6"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" s="6"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" s="6"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="6"/>
     </row>
   </sheetData>
@@ -6542,112 +6264,90 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5685E93D-3253-433B-9A77-8EAE690D497F}">
-  <dimension ref="O25:X52"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O52" activeCellId="1" sqref="X25 O52"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="25" spans="24:24" x14ac:dyDescent="0.25">
-      <c r="X25" s="68"/>
-    </row>
-    <row r="52" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O52" s="68"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED968B30-91AE-4BCD-9838-818BA334E48C}">
   <dimension ref="B1:V89"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="83" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="71" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="4" customWidth="1"/>
-    <col min="2" max="3" width="20.7109375" style="4" customWidth="1"/>
-    <col min="4" max="21" width="15.7109375" style="4"/>
-    <col min="22" max="22" width="20.7109375" style="4" customWidth="1"/>
-    <col min="23" max="16384" width="15.7109375" style="4"/>
+    <col min="1" max="1" width="4.5546875" style="4" customWidth="1"/>
+    <col min="2" max="3" width="20.6640625" style="4" customWidth="1"/>
+    <col min="4" max="21" width="15.6640625" style="4"/>
+    <col min="22" max="22" width="20.6640625" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="15.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+    <row r="1" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-    </row>
-    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+    </row>
+    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="23" t="s">
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="24"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="51"/>
       <c r="V3" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
@@ -6668,46 +6368,46 @@
         <v>6</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B5" s="10">
         <v>42705</v>
       </c>
@@ -6732,7 +6432,7 @@
       <c r="U5" s="13"/>
       <c r="V5" s="11"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B6" s="14">
         <v>42736</v>
       </c>
@@ -6797,7 +6497,7 @@
         <v>1.6071</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B7" s="14">
         <v>42767</v>
       </c>
@@ -6862,7 +6562,7 @@
         <v>1.6587000000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B8" s="14">
         <v>42795</v>
       </c>
@@ -6927,7 +6627,7 @@
         <v>1.5406</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B9" s="14">
         <v>42826</v>
       </c>
@@ -6992,7 +6692,7 @@
         <v>2.3517000000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B10" s="14">
         <v>42856</v>
       </c>
@@ -7057,7 +6757,7 @@
         <v>1.8993</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B11" s="14">
         <v>42887</v>
       </c>
@@ -7122,7 +6822,7 @@
         <v>1.2845</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B12" s="14">
         <v>42917</v>
       </c>
@@ -7187,7 +6887,7 @@
         <v>1.8971</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B13" s="14">
         <v>42948</v>
       </c>
@@ -7252,7 +6952,7 @@
         <v>1.1851</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B14" s="14">
         <v>42979</v>
       </c>
@@ -7317,7 +7017,7 @@
         <v>0.83930000000000005</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B15" s="14">
         <v>43009</v>
       </c>
@@ -7382,7 +7082,7 @@
         <v>1.1243000000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B16" s="14">
         <v>43040</v>
       </c>
@@ -7447,7 +7147,7 @@
         <v>1.5330999999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B17" s="14">
         <v>43070</v>
       </c>
@@ -7512,7 +7212,7 @@
         <v>1.6093</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B18" s="14">
         <v>43101</v>
       </c>
@@ -7577,7 +7277,7 @@
         <v>2.0897000000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B19" s="14">
         <v>43132</v>
       </c>
@@ -7642,7 +7342,7 @@
         <v>1.7984</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B20" s="14">
         <v>43160</v>
       </c>
@@ -7707,7 +7407,7 @@
         <v>1.8067</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B21" s="14">
         <v>43191</v>
       </c>
@@ -7772,7 +7472,7 @@
         <v>1.8005</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B22" s="14">
         <v>43221</v>
       </c>
@@ -7837,7 +7537,7 @@
         <v>3.0171999999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B23" s="14">
         <v>43252</v>
       </c>
@@ -7902,7 +7602,7 @@
         <v>3.8776999999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B24" s="14">
         <v>43282</v>
       </c>
@@ -7967,7 +7667,7 @@
         <v>3.7290000000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B25" s="14">
         <v>43313</v>
       </c>
@@ -8032,7 +7732,7 @@
         <v>3.0457000000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B26" s="14">
         <v>43344</v>
       </c>
@@ -8097,7 +7797,7 @@
         <v>6.2069000000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B27" s="14">
         <v>43374</v>
       </c>
@@ -8162,7 +7862,7 @@
         <v>4.2497999999999996</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B28" s="14">
         <v>43405</v>
       </c>
@@ -8227,7 +7927,7 @@
         <v>3.6131000000000002</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B29" s="14">
         <v>43435</v>
       </c>
@@ -8292,7 +7992,7 @@
         <v>2.423</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B30" s="14">
         <v>43466</v>
       </c>
@@ -8357,7 +8057,7 @@
         <v>3.0381</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B31" s="14">
         <v>43497</v>
       </c>
@@ -8422,7 +8122,7 @@
         <v>4.0686999999999998</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B32" s="14">
         <v>43525</v>
       </c>
@@ -8447,8 +8147,8 @@
       <c r="I32" s="18">
         <v>3.7122999999999999</v>
       </c>
-      <c r="J32" s="17">
-        <v>5.0096999999999996</v>
+      <c r="J32" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="K32" s="17">
         <v>3.5488</v>
@@ -8487,7 +8187,7 @@
         <v>4.1976000000000004</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B33" s="14">
         <v>43556</v>
       </c>
@@ -8552,7 +8252,7 @@
         <v>3.3864999999999998</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B34" s="14">
         <v>43586</v>
       </c>
@@ -8617,7 +8317,7 @@
         <v>3.0464000000000002</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B35" s="14">
         <v>43617</v>
       </c>
@@ -8682,7 +8382,7 @@
         <v>2.8068</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B36" s="14">
         <v>43647</v>
       </c>
@@ -8747,7 +8447,7 @@
         <v>2.6156000000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B37" s="14">
         <v>43678</v>
       </c>
@@ -8812,7 +8512,7 @@
         <v>4.2591999999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B38" s="14">
         <v>43709</v>
       </c>
@@ -8877,7 +8577,7 @@
         <v>5.6048999999999998</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B39" s="14">
         <v>43739</v>
       </c>
@@ -8942,7 +8642,7 @@
         <v>3.0691999999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B40" s="14">
         <v>43770</v>
       </c>
@@ -9007,7 +8707,7 @@
         <v>4.6287000000000003</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B41" s="14">
         <v>43800</v>
       </c>
@@ -9072,7 +8772,7 @@
         <v>3.6472000000000002</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B42" s="14">
         <v>43831</v>
       </c>
@@ -9137,7 +8837,7 @@
         <v>3.7164000000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B43" s="14">
         <v>43862</v>
       </c>
@@ -9202,7 +8902,7 @@
         <v>2.7492999999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B44" s="14">
         <v>43891</v>
       </c>
@@ -9267,7 +8967,7 @@
         <v>2.5773000000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B45" s="14">
         <v>43922</v>
       </c>
@@ -9332,7 +9032,7 @@
         <v>2.1637</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B46" s="14">
         <v>43952</v>
       </c>
@@ -9397,7 +9097,7 @@
         <v>2.5409000000000002</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B47" s="14">
         <v>43983</v>
       </c>
@@ -9462,7 +9162,7 @@
         <v>2.8424</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B48" s="14">
         <v>44013</v>
       </c>
@@ -9527,7 +9227,7 @@
         <v>2.5202</v>
       </c>
     </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B49" s="14">
         <v>44044</v>
       </c>
@@ -9592,7 +9292,7 @@
         <v>2.8488000000000002</v>
       </c>
     </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B50" s="14">
         <v>44075</v>
       </c>
@@ -9657,7 +9357,7 @@
         <v>2.0783999999999998</v>
       </c>
     </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B51" s="14">
         <v>44105</v>
       </c>
@@ -9722,7 +9422,7 @@
         <v>3.8056000000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B52" s="14">
         <v>44136</v>
       </c>
@@ -9787,7 +9487,7 @@
         <v>3.8178000000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B53" s="14">
         <v>44166</v>
       </c>
@@ -9852,7 +9552,7 @@
         <v>4.4638</v>
       </c>
     </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B54" s="14">
         <v>44197</v>
       </c>
@@ -9917,7 +9617,7 @@
         <v>4.4154999999999998</v>
       </c>
     </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B55" s="14">
         <v>44228</v>
       </c>
@@ -9982,7 +9682,7 @@
         <v>4.0206999999999997</v>
       </c>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B56" s="14">
         <v>44256</v>
       </c>
@@ -10047,7 +9747,7 @@
         <v>4.2638999999999996</v>
       </c>
     </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B57" s="14">
         <v>44287</v>
       </c>
@@ -10112,7 +9812,7 @@
         <v>4.0263999999999998</v>
       </c>
     </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B58" s="14">
         <v>44317</v>
       </c>
@@ -10177,7 +9877,7 @@
         <v>3.4392</v>
       </c>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B59" s="14">
         <v>44348</v>
       </c>
@@ -10242,7 +9942,7 @@
         <v>3.3393000000000002</v>
       </c>
     </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B60" s="14">
         <v>44378</v>
       </c>
@@ -10307,7 +10007,7 @@
         <v>3.4542000000000002</v>
       </c>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B61" s="14">
         <v>44409</v>
       </c>
@@ -10372,7 +10072,7 @@
         <v>2.2938999999999998</v>
       </c>
     </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B62" s="14">
         <v>44440</v>
       </c>
@@ -10437,7 +10137,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B63" s="14">
         <v>44470</v>
       </c>
@@ -10502,7 +10202,7 @@
         <v>3.2282999999999999</v>
       </c>
     </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B64" s="14">
         <v>44501</v>
       </c>
@@ -10567,7 +10267,7 @@
         <v>3.2829999999999999</v>
       </c>
     </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B65" s="14">
         <v>44531</v>
       </c>
@@ -10632,7 +10332,7 @@
         <v>4.8131000000000004</v>
       </c>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B66" s="14">
         <v>44562</v>
       </c>
@@ -10697,7 +10397,7 @@
         <v>4.6520000000000001</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B67" s="14">
         <v>44593</v>
       </c>
@@ -10762,7 +10462,7 @@
         <v>5.4835000000000003</v>
       </c>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B68" s="14">
         <v>44621</v>
       </c>
@@ -10827,7 +10527,7 @@
         <v>5.8074000000000003</v>
       </c>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B69" s="14">
         <v>44652</v>
       </c>
@@ -10892,7 +10592,7 @@
         <v>6.2751000000000001</v>
       </c>
     </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B70" s="14">
         <v>44682</v>
       </c>
@@ -10957,7 +10657,7 @@
         <v>5.5622999999999996</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B71" s="14">
         <v>44713</v>
       </c>
@@ -11022,7 +10722,7 @@
         <v>5.4333999999999998</v>
       </c>
     </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B72" s="14">
         <v>44743</v>
       </c>
@@ -11087,7 +10787,7 @@
         <v>8.4673999999999996</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B73" s="14">
         <v>44774</v>
       </c>
@@ -11152,7 +10852,7 @@
         <v>7.2742000000000004</v>
       </c>
     </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B74" s="14">
         <v>44805</v>
       </c>
@@ -11217,7 +10917,7 @@
         <v>6.0476000000000001</v>
       </c>
     </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B75" s="14">
         <v>44835</v>
       </c>
@@ -11282,7 +10982,7 @@
         <v>5.7809999999999997</v>
       </c>
     </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B76" s="14">
         <v>44866</v>
       </c>
@@ -11347,7 +11047,7 @@
         <v>5.0435999999999996</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B77" s="14">
         <v>44896</v>
       </c>
@@ -11412,102 +11112,164 @@
         <v>5.4454000000000002</v>
       </c>
     </row>
-    <row r="78" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="15">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B78" s="14">
         <v>44927</v>
       </c>
-      <c r="C78" s="19">
+      <c r="C78" s="16">
         <v>6.3879000000000001</v>
       </c>
-      <c r="D78" s="20">
+      <c r="D78" s="17">
         <v>6.44</v>
       </c>
-      <c r="E78" s="20">
+      <c r="E78" s="17">
         <v>6.3150000000000004</v>
       </c>
-      <c r="F78" s="20">
+      <c r="F78" s="17">
         <v>6.5021000000000004</v>
       </c>
-      <c r="G78" s="20">
+      <c r="G78" s="17">
         <v>6.1242000000000001</v>
       </c>
-      <c r="H78" s="20">
+      <c r="H78" s="17">
         <v>6.6243999999999996</v>
       </c>
-      <c r="I78" s="21">
+      <c r="I78" s="18">
         <v>6.4839000000000002</v>
       </c>
-      <c r="J78" s="20">
+      <c r="J78" s="17">
         <v>6.4752999999999998</v>
       </c>
-      <c r="K78" s="20">
+      <c r="K78" s="17">
         <v>7.343</v>
       </c>
-      <c r="L78" s="20">
+      <c r="L78" s="17">
         <v>5.6144999999999996</v>
       </c>
-      <c r="M78" s="20">
+      <c r="M78" s="17">
         <v>8.0393000000000008</v>
       </c>
-      <c r="N78" s="20">
+      <c r="N78" s="17">
         <v>6.1939000000000002</v>
       </c>
-      <c r="O78" s="20">
+      <c r="O78" s="17">
         <v>4.9309000000000003</v>
       </c>
-      <c r="P78" s="20">
+      <c r="P78" s="17">
         <v>5.9306999999999999</v>
       </c>
-      <c r="Q78" s="20">
+      <c r="Q78" s="17">
         <v>7.0328999999999997</v>
       </c>
-      <c r="R78" s="20">
+      <c r="R78" s="17">
         <v>8.6866000000000003</v>
       </c>
-      <c r="S78" s="20">
+      <c r="S78" s="17">
         <v>4.3446999999999996</v>
       </c>
-      <c r="T78" s="20">
+      <c r="T78" s="17">
         <v>6.0919999999999996</v>
       </c>
-      <c r="U78" s="21">
+      <c r="U78" s="18">
         <v>6.8654000000000002</v>
       </c>
-      <c r="V78" s="19">
+      <c r="V78" s="16">
         <v>6.5185000000000004</v>
       </c>
     </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B79" s="6"/>
-    </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="15">
+        <v>44958</v>
+      </c>
+      <c r="C79" s="19">
+        <v>6.8745000000000003</v>
+      </c>
+      <c r="D79" s="20">
+        <v>7.0758999999999999</v>
+      </c>
+      <c r="E79" s="20">
+        <v>6.4721000000000002</v>
+      </c>
+      <c r="F79" s="20">
+        <v>7.4730999999999996</v>
+      </c>
+      <c r="G79" s="20">
+        <v>7.8574999999999999</v>
+      </c>
+      <c r="H79" s="20">
+        <v>6.6841999999999997</v>
+      </c>
+      <c r="I79" s="21">
+        <v>6.0327999999999999</v>
+      </c>
+      <c r="J79" s="20">
+        <v>9.2695000000000007</v>
+      </c>
+      <c r="K79" s="20">
+        <v>6.0644999999999998</v>
+      </c>
+      <c r="L79" s="20">
+        <v>6.1641000000000004</v>
+      </c>
+      <c r="M79" s="20">
+        <v>4.8117999999999999</v>
+      </c>
+      <c r="N79" s="20">
+        <v>5.2991999999999999</v>
+      </c>
+      <c r="O79" s="20">
+        <v>5.3381999999999996</v>
+      </c>
+      <c r="P79" s="20">
+        <v>4.8672000000000004</v>
+      </c>
+      <c r="Q79" s="20">
+        <v>7.8673999999999999</v>
+      </c>
+      <c r="R79" s="20">
+        <v>7.0808999999999997</v>
+      </c>
+      <c r="S79" s="20">
+        <v>4.3636999999999997</v>
+      </c>
+      <c r="T79" s="20">
+        <v>7.5350000000000001</v>
+      </c>
+      <c r="U79" s="21">
+        <v>6.5246000000000004</v>
+      </c>
+      <c r="V79" s="19">
+        <v>7.6337000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B80" s="6"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="6"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="6"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="6"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="6"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" s="6"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="6"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" s="6"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" s="6"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="6"/>
     </row>
   </sheetData>
@@ -11522,842 +11284,862 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFB15E2-E8A7-479B-8D7C-D0D847930AD1}">
-  <dimension ref="B1:M37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83293D6D-81C8-49B2-8C10-806B04E884B0}">
+  <dimension ref="B1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" customWidth="1"/>
+    <col min="3" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
+    </row>
+    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="63">
+        <v>2022</v>
+      </c>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="25">
+        <v>2023</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="26"/>
+      <c r="C5" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="28"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="30">
+        <v>5.6074000000000002</v>
+      </c>
+      <c r="D6" s="30">
+        <v>6.0162000000000004</v>
+      </c>
+      <c r="E6" s="30">
+        <v>5.3712999999999997</v>
+      </c>
+      <c r="F6" s="30">
+        <v>5.3951000000000002</v>
+      </c>
+      <c r="G6" s="30">
+        <v>6.3879000000000001</v>
+      </c>
+      <c r="H6" s="30">
+        <v>6.8745000000000003</v>
+      </c>
+      <c r="I6" s="31">
+        <v>102.5008</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="62"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="35">
+        <v>5.3240999999999996</v>
+      </c>
+      <c r="D8" s="35">
+        <v>6.1787000000000001</v>
+      </c>
+      <c r="E8" s="35">
+        <v>5.6711</v>
+      </c>
+      <c r="F8" s="35">
+        <v>5.6646000000000001</v>
+      </c>
+      <c r="G8" s="35">
+        <v>6.44</v>
+      </c>
+      <c r="H8" s="35">
+        <v>7.0758000000000001</v>
+      </c>
+      <c r="I8" s="36">
+        <v>103.06100000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="35">
+        <v>5.7747999999999999</v>
+      </c>
+      <c r="D9" s="35">
+        <v>5.8380999999999998</v>
+      </c>
+      <c r="E9" s="35">
+        <v>5.2130999999999998</v>
+      </c>
+      <c r="F9" s="35">
+        <v>5.2676999999999996</v>
+      </c>
+      <c r="G9" s="35">
+        <v>6.3150000000000004</v>
+      </c>
+      <c r="H9" s="35">
+        <v>6.4721000000000002</v>
+      </c>
+      <c r="I9" s="36">
+        <v>101.53959999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="35">
+        <v>5.7043999999999997</v>
+      </c>
+      <c r="D10" s="35">
+        <v>6.0378999999999996</v>
+      </c>
+      <c r="E10" s="35">
+        <v>4.9474999999999998</v>
+      </c>
+      <c r="F10" s="35">
+        <v>4.84</v>
+      </c>
+      <c r="G10" s="35">
+        <v>6.5021000000000004</v>
+      </c>
+      <c r="H10" s="35">
+        <v>7.4730999999999996</v>
+      </c>
+      <c r="I10" s="36">
+        <v>104.0699</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="35">
+        <v>6.2953000000000001</v>
+      </c>
+      <c r="D11" s="35">
+        <v>5.8413000000000004</v>
+      </c>
+      <c r="E11" s="35">
+        <v>4.8373999999999997</v>
+      </c>
+      <c r="F11" s="35">
+        <v>4.5907</v>
+      </c>
+      <c r="G11" s="35">
+        <v>6.1242000000000001</v>
+      </c>
+      <c r="H11" s="35">
+        <v>7.8574999999999999</v>
+      </c>
+      <c r="I11" s="36">
+        <v>105.53</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="35">
+        <v>5.5060000000000002</v>
+      </c>
+      <c r="D12" s="35">
+        <v>5.9329999999999998</v>
+      </c>
+      <c r="E12" s="35">
+        <v>5.2717999999999998</v>
+      </c>
+      <c r="F12" s="35">
+        <v>5.2243000000000004</v>
+      </c>
+      <c r="G12" s="35">
+        <v>6.6243999999999996</v>
+      </c>
+      <c r="H12" s="35">
+        <v>6.6841999999999997</v>
+      </c>
+      <c r="I12" s="36">
+        <v>101.1528</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="35">
+        <v>5.6276999999999999</v>
+      </c>
+      <c r="D13" s="35">
+        <v>6.2239000000000004</v>
+      </c>
+      <c r="E13" s="35">
+        <v>5.1504000000000003</v>
+      </c>
+      <c r="F13" s="35">
+        <v>4.9001000000000001</v>
+      </c>
+      <c r="G13" s="35">
+        <v>6.4839000000000002</v>
+      </c>
+      <c r="H13" s="35">
+        <v>6.0327999999999999</v>
+      </c>
+      <c r="I13" s="36">
+        <v>100.2931</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="62"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="35">
+        <v>6.0106999999999999</v>
+      </c>
+      <c r="D16" s="35">
+        <v>5.4631999999999996</v>
+      </c>
+      <c r="E16" s="35">
+        <v>4.4165999999999999</v>
+      </c>
+      <c r="F16" s="35">
+        <v>4.9176000000000002</v>
+      </c>
+      <c r="G16" s="35">
+        <v>6.4752999999999998</v>
+      </c>
+      <c r="H16" s="35">
+        <v>9.2695000000000007</v>
+      </c>
+      <c r="I16" s="36">
+        <v>102.6294</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="35">
+        <v>7.4686000000000003</v>
+      </c>
+      <c r="D17" s="35">
+        <v>5.4751000000000003</v>
+      </c>
+      <c r="E17" s="35">
+        <v>5.8773999999999997</v>
+      </c>
+      <c r="F17" s="35">
+        <v>6.9817</v>
+      </c>
+      <c r="G17" s="35">
+        <v>7.343</v>
+      </c>
+      <c r="H17" s="35">
+        <v>6.0644999999999998</v>
+      </c>
+      <c r="I17" s="36">
+        <v>108.35599999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="35">
+        <v>7.6749999999999998</v>
+      </c>
+      <c r="D18" s="35">
+        <v>6.0621999999999998</v>
+      </c>
+      <c r="E18" s="35">
+        <v>5.7066999999999997</v>
+      </c>
+      <c r="F18" s="35">
+        <v>5.1325000000000003</v>
+      </c>
+      <c r="G18" s="35">
+        <v>5.6144999999999996</v>
+      </c>
+      <c r="H18" s="35">
+        <v>6.1641000000000004</v>
+      </c>
+      <c r="I18" s="36">
+        <v>121.6878</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="35">
+        <v>3.1425000000000001</v>
+      </c>
+      <c r="D19" s="35">
+        <v>7.4356999999999998</v>
+      </c>
+      <c r="E19" s="35">
+        <v>8.5505999999999993</v>
+      </c>
+      <c r="F19" s="35">
+        <v>4.1905000000000001</v>
+      </c>
+      <c r="G19" s="35">
+        <v>8.0393000000000008</v>
+      </c>
+      <c r="H19" s="35">
+        <v>4.8117999999999999</v>
+      </c>
+      <c r="I19" s="36">
+        <v>95.168800000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="35">
+        <v>5.3665000000000003</v>
+      </c>
+      <c r="D20" s="35">
+        <v>4.7545000000000002</v>
+      </c>
+      <c r="E20" s="35">
+        <v>5.7183999999999999</v>
+      </c>
+      <c r="F20" s="35">
+        <v>6.1665999999999999</v>
+      </c>
+      <c r="G20" s="35">
+        <v>6.1939000000000002</v>
+      </c>
+      <c r="H20" s="35">
+        <v>5.2991999999999999</v>
+      </c>
+      <c r="I20" s="36">
+        <v>102.42700000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
-      <c r="M2" s="68"/>
-    </row>
-    <row r="3" spans="2:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="33" t="s">
+      <c r="C21" s="35">
+        <v>4.2996999999999996</v>
+      </c>
+      <c r="D21" s="35">
+        <v>7.0723000000000003</v>
+      </c>
+      <c r="E21" s="35">
+        <v>4.1085000000000003</v>
+      </c>
+      <c r="F21" s="35">
+        <v>5.6837</v>
+      </c>
+      <c r="G21" s="35">
+        <v>4.9309000000000003</v>
+      </c>
+      <c r="H21" s="35">
+        <v>5.3381999999999996</v>
+      </c>
+      <c r="I21" s="36">
+        <v>95.441599999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C22" s="35">
+        <v>5.7956000000000003</v>
+      </c>
+      <c r="D22" s="35">
+        <v>4.4977999999999998</v>
+      </c>
+      <c r="E22" s="35">
+        <v>6.0602</v>
+      </c>
+      <c r="F22" s="35">
+        <v>5.7976000000000001</v>
+      </c>
+      <c r="G22" s="35">
+        <v>5.9306999999999999</v>
+      </c>
+      <c r="H22" s="35">
+        <v>4.8672000000000004</v>
+      </c>
+      <c r="I22" s="36">
+        <v>91.821399999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="35" t="s">
+      <c r="C23" s="35">
+        <v>2.5419999999999998</v>
+      </c>
+      <c r="D23" s="35">
+        <v>11.8863</v>
+      </c>
+      <c r="E23" s="35">
+        <v>6.1618000000000004</v>
+      </c>
+      <c r="F23" s="35">
+        <v>2.7271999999999998</v>
+      </c>
+      <c r="G23" s="35">
+        <v>7.0328999999999997</v>
+      </c>
+      <c r="H23" s="35">
+        <v>7.8673999999999999</v>
+      </c>
+      <c r="I23" s="36">
+        <v>79.180099999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="34" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="2:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="33" t="s">
+      <c r="C24" s="35">
+        <v>5.1729000000000003</v>
+      </c>
+      <c r="D24" s="35">
+        <v>5.3038999999999996</v>
+      </c>
+      <c r="E24" s="35">
+        <v>4.5156999999999998</v>
+      </c>
+      <c r="F24" s="35">
+        <v>4.7126999999999999</v>
+      </c>
+      <c r="G24" s="35">
+        <v>8.6866000000000003</v>
+      </c>
+      <c r="H24" s="35">
+        <v>7.0808999999999997</v>
+      </c>
+      <c r="I24" s="36">
+        <v>98.779899999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="36">
-        <v>2022</v>
-      </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37">
-        <v>2023</v>
-      </c>
-      <c r="I4" s="35" t="s">
+      <c r="C25" s="35">
+        <v>5.577</v>
+      </c>
+      <c r="D25" s="35">
+        <v>7.6993999999999998</v>
+      </c>
+      <c r="E25" s="35">
+        <v>6.2115</v>
+      </c>
+      <c r="F25" s="35">
+        <v>6.3776000000000002</v>
+      </c>
+      <c r="G25" s="35">
+        <v>4.3446999999999996</v>
+      </c>
+      <c r="H25" s="35">
+        <v>4.3636999999999997</v>
+      </c>
+      <c r="I25" s="36">
+        <v>87.766499999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="34" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="38"/>
-      <c r="C5" s="39" t="s">
+      <c r="C26" s="35">
+        <v>4.8929999999999998</v>
+      </c>
+      <c r="D26" s="35">
+        <v>7.4702999999999999</v>
+      </c>
+      <c r="E26" s="35">
+        <v>5.5827</v>
+      </c>
+      <c r="F26" s="35">
+        <v>7.1211000000000002</v>
+      </c>
+      <c r="G26" s="35">
+        <v>6.0919999999999996</v>
+      </c>
+      <c r="H26" s="35">
+        <v>7.5350000000000001</v>
+      </c>
+      <c r="I26" s="36">
+        <v>116.3807</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="C27" s="35">
+        <v>6.7153999999999998</v>
+      </c>
+      <c r="D27" s="35">
+        <v>6.0991999999999997</v>
+      </c>
+      <c r="E27" s="35">
+        <v>5.8094000000000001</v>
+      </c>
+      <c r="F27" s="35">
+        <v>5.7651000000000003</v>
+      </c>
+      <c r="G27" s="35">
+        <v>6.8654000000000002</v>
+      </c>
+      <c r="H27" s="35">
+        <v>6.5246000000000004</v>
+      </c>
+      <c r="I27" s="36">
+        <v>106.77079999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="34"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="36"/>
+    </row>
+    <row r="29" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="62"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="C30" s="35">
+        <v>6.0476000000000001</v>
+      </c>
+      <c r="D30" s="35">
+        <v>5.7809999999999997</v>
+      </c>
+      <c r="E30" s="35">
+        <v>5.0435999999999996</v>
+      </c>
+      <c r="F30" s="35">
+        <v>5.4454000000000002</v>
+      </c>
+      <c r="G30" s="35">
+        <v>6.5185000000000004</v>
+      </c>
+      <c r="H30" s="35">
+        <v>7.6337000000000002</v>
+      </c>
+      <c r="I30" s="36">
+        <v>107.2987</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="35">
+        <v>5.7502000000000004</v>
+      </c>
+      <c r="D31" s="35">
+        <v>5.9177999999999997</v>
+      </c>
+      <c r="E31" s="35">
+        <v>5.1605999999999996</v>
+      </c>
+      <c r="F31" s="35">
+        <v>5.9950999999999999</v>
+      </c>
+      <c r="G31" s="35">
+        <v>6.4762000000000004</v>
+      </c>
+      <c r="H31" s="35">
+        <v>8.0284999999999993</v>
+      </c>
+      <c r="I31" s="36">
+        <v>108.2632</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="35">
+        <v>6.3601000000000001</v>
+      </c>
+      <c r="D32" s="35">
+        <v>5.5902000000000003</v>
+      </c>
+      <c r="E32" s="35">
+        <v>4.9898999999999996</v>
+      </c>
+      <c r="F32" s="35">
+        <v>5.1825999999999999</v>
+      </c>
+      <c r="G32" s="35">
+        <v>6.4391999999999996</v>
+      </c>
+      <c r="H32" s="35">
+        <v>6.9863999999999997</v>
+      </c>
+      <c r="I32" s="36">
+        <v>105.8998</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="35">
+        <v>5.9329999999999998</v>
+      </c>
+      <c r="D33" s="35">
+        <v>5.8052000000000001</v>
+      </c>
+      <c r="E33" s="35">
+        <v>4.8489000000000004</v>
+      </c>
+      <c r="F33" s="35">
+        <v>4.7891000000000004</v>
+      </c>
+      <c r="G33" s="35">
+        <v>6.9020000000000001</v>
+      </c>
+      <c r="H33" s="35">
+        <v>8.3892000000000007</v>
+      </c>
+      <c r="I33" s="36">
+        <v>108.4096</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="35">
+        <v>6.3461999999999996</v>
+      </c>
+      <c r="D34" s="35">
+        <v>5.5198</v>
+      </c>
+      <c r="E34" s="35">
+        <v>4.6200999999999999</v>
+      </c>
+      <c r="F34" s="35">
+        <v>4.3894000000000002</v>
+      </c>
+      <c r="G34" s="35">
+        <v>6.7960000000000003</v>
+      </c>
+      <c r="H34" s="35">
+        <v>8.3916000000000004</v>
+      </c>
+      <c r="I34" s="36">
+        <v>107.61190000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="35">
+        <v>6.2558999999999996</v>
+      </c>
+      <c r="D35" s="35">
+        <v>5.5930999999999997</v>
+      </c>
+      <c r="E35" s="35">
+        <v>5.1509999999999998</v>
+      </c>
+      <c r="F35" s="35">
+        <v>4.7441000000000004</v>
+      </c>
+      <c r="G35" s="35">
+        <v>6.6276000000000002</v>
+      </c>
+      <c r="H35" s="35">
+        <v>7.5472000000000001</v>
+      </c>
+      <c r="I35" s="36">
+        <v>105.8922</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="38">
+        <v>6.2561999999999998</v>
+      </c>
+      <c r="D36" s="38">
+        <v>6.3510999999999997</v>
+      </c>
+      <c r="E36" s="38">
+        <v>4.9023000000000003</v>
+      </c>
+      <c r="F36" s="38">
+        <v>4.8982999999999999</v>
+      </c>
+      <c r="G36" s="38">
+        <v>6.5438999999999998</v>
+      </c>
+      <c r="H36" s="38">
+        <v>6.7431000000000001</v>
+      </c>
+      <c r="I36" s="39">
+        <v>107.9957</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="40"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="42">
-        <v>6.9</v>
-      </c>
-      <c r="D6" s="42">
-        <v>5.6</v>
-      </c>
-      <c r="E6" s="42">
-        <v>6</v>
-      </c>
-      <c r="F6" s="42">
-        <v>5.4</v>
-      </c>
-      <c r="G6" s="42">
-        <v>5.4</v>
-      </c>
-      <c r="H6" s="42">
-        <v>6.4</v>
-      </c>
-      <c r="I6" s="43">
-        <v>98.8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="45"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="29">
-        <v>6.8</v>
-      </c>
-      <c r="D8" s="29">
-        <v>5.3</v>
-      </c>
-      <c r="E8" s="29">
-        <v>6.2</v>
-      </c>
-      <c r="F8" s="29">
-        <v>5.7</v>
-      </c>
-      <c r="G8" s="29">
-        <v>5.7</v>
-      </c>
-      <c r="H8" s="29">
-        <v>6.4</v>
-      </c>
-      <c r="I8" s="47">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="29">
-        <v>6.9</v>
-      </c>
-      <c r="D9" s="29">
-        <v>5.8</v>
-      </c>
-      <c r="E9" s="29">
-        <v>5.8</v>
-      </c>
-      <c r="F9" s="29">
-        <v>5.2</v>
-      </c>
-      <c r="G9" s="29">
-        <v>5.3</v>
-      </c>
-      <c r="H9" s="29">
-        <v>6.3</v>
-      </c>
-      <c r="I9" s="47">
-        <v>98.3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="29">
-        <v>7.4</v>
-      </c>
-      <c r="D10" s="29">
-        <v>5.7</v>
-      </c>
-      <c r="E10" s="29">
-        <v>6</v>
-      </c>
-      <c r="F10" s="29">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G10" s="29">
-        <v>4.8</v>
-      </c>
-      <c r="H10" s="29">
-        <v>6.5</v>
-      </c>
-      <c r="I10" s="47">
-        <v>99.4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="29">
-        <v>7.3</v>
-      </c>
-      <c r="D11" s="29">
-        <v>6.3</v>
-      </c>
-      <c r="E11" s="29">
-        <v>5.8</v>
-      </c>
-      <c r="F11" s="29">
-        <v>4.8</v>
-      </c>
-      <c r="G11" s="29">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H11" s="29">
-        <v>6.1</v>
-      </c>
-      <c r="I11" s="47">
-        <v>100.2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="29">
-        <v>6.4</v>
-      </c>
-      <c r="D12" s="29">
-        <v>5.5</v>
-      </c>
-      <c r="E12" s="29">
-        <v>5.9</v>
-      </c>
-      <c r="F12" s="29">
-        <v>5.3</v>
-      </c>
-      <c r="G12" s="29">
-        <v>5.2</v>
-      </c>
-      <c r="H12" s="29">
-        <v>6.6</v>
-      </c>
-      <c r="I12" s="47">
-        <v>98.7</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="29">
-        <v>6.1</v>
-      </c>
-      <c r="D13" s="29">
-        <v>5.6</v>
-      </c>
-      <c r="E13" s="29">
-        <v>6.2</v>
-      </c>
-      <c r="F13" s="29">
-        <v>5.2</v>
-      </c>
-      <c r="G13" s="29">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H13" s="29">
-        <v>6.5</v>
-      </c>
-      <c r="I13" s="47">
-        <v>98.6</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="46"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="47"/>
-    </row>
-    <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="45"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="29">
-        <v>6.9</v>
-      </c>
-      <c r="D16" s="29">
-        <v>6</v>
-      </c>
-      <c r="E16" s="29">
-        <v>5.5</v>
-      </c>
-      <c r="F16" s="29">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="G16" s="29">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H16" s="29">
-        <v>6.5</v>
-      </c>
-      <c r="I16" s="47">
-        <v>98.4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="29">
-        <v>7.3</v>
-      </c>
-      <c r="D17" s="29">
-        <v>7.5</v>
-      </c>
-      <c r="E17" s="29">
-        <v>5.5</v>
-      </c>
-      <c r="F17" s="29">
-        <v>5.9</v>
-      </c>
-      <c r="G17" s="29">
-        <v>7</v>
-      </c>
-      <c r="H17" s="29">
-        <v>7.3</v>
-      </c>
-      <c r="I17" s="47">
-        <v>103.3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="29">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="D18" s="29">
-        <v>7.7</v>
-      </c>
-      <c r="E18" s="29">
-        <v>6.1</v>
-      </c>
-      <c r="F18" s="29">
-        <v>5.7</v>
-      </c>
-      <c r="G18" s="29">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="H18" s="29">
-        <v>5.6</v>
-      </c>
-      <c r="I18" s="47">
-        <v>120.6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="29">
-        <v>5.5</v>
-      </c>
-      <c r="D19" s="29">
-        <v>3.1</v>
-      </c>
-      <c r="E19" s="29">
-        <v>7.4</v>
-      </c>
-      <c r="F19" s="29">
-        <v>8.6</v>
-      </c>
-      <c r="G19" s="29">
-        <v>4.2</v>
-      </c>
-      <c r="H19" s="29">
-        <v>8</v>
-      </c>
-      <c r="I19" s="47">
-        <v>91.5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="29">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D20" s="29">
-        <v>5.4</v>
-      </c>
-      <c r="E20" s="29">
-        <v>4.8</v>
-      </c>
-      <c r="F20" s="29">
-        <v>5.7</v>
-      </c>
-      <c r="G20" s="29">
-        <v>6.2</v>
-      </c>
-      <c r="H20" s="29">
-        <v>6.2</v>
-      </c>
-      <c r="I20" s="47">
-        <v>101.2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="29">
-        <v>5.7</v>
-      </c>
-      <c r="D21" s="29">
-        <v>4.3</v>
-      </c>
-      <c r="E21" s="29">
-        <v>7.1</v>
-      </c>
-      <c r="F21" s="29">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G21" s="29">
-        <v>5.7</v>
-      </c>
-      <c r="H21" s="29">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="I21" s="47">
-        <v>92.3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="29">
-        <v>6.8</v>
-      </c>
-      <c r="D22" s="29">
-        <v>5.8</v>
-      </c>
-      <c r="E22" s="29">
-        <v>4.5</v>
-      </c>
-      <c r="F22" s="29">
-        <v>6.1</v>
-      </c>
-      <c r="G22" s="29">
-        <v>5.8</v>
-      </c>
-      <c r="H22" s="29">
-        <v>5.9</v>
-      </c>
-      <c r="I22" s="47">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="29">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D23" s="29">
-        <v>2.5</v>
-      </c>
-      <c r="E23" s="29">
-        <v>11.9</v>
-      </c>
-      <c r="F23" s="29">
-        <v>6.2</v>
-      </c>
-      <c r="G23" s="29">
-        <v>2.7</v>
-      </c>
-      <c r="H23" s="29">
-        <v>7</v>
-      </c>
-      <c r="I23" s="47">
-        <v>68.599999999999994</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="29">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D24" s="29">
-        <v>5.2</v>
-      </c>
-      <c r="E24" s="29">
-        <v>5.3</v>
-      </c>
-      <c r="F24" s="29">
-        <v>4.5</v>
-      </c>
-      <c r="G24" s="29">
-        <v>4.7</v>
-      </c>
-      <c r="H24" s="29">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="I24" s="47">
-        <v>91.6</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="29">
-        <v>5</v>
-      </c>
-      <c r="D25" s="29">
-        <v>5.6</v>
-      </c>
-      <c r="E25" s="29">
-        <v>7.7</v>
-      </c>
-      <c r="F25" s="29">
-        <v>6.2</v>
-      </c>
-      <c r="G25" s="29">
-        <v>6.4</v>
-      </c>
-      <c r="H25" s="29">
-        <v>4.3</v>
-      </c>
-      <c r="I25" s="47">
-        <v>86.9</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="29">
-        <v>6.7</v>
-      </c>
-      <c r="D26" s="29">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="E26" s="29">
-        <v>7.5</v>
-      </c>
-      <c r="F26" s="29">
-        <v>5.6</v>
-      </c>
-      <c r="G26" s="29">
-        <v>7.1</v>
-      </c>
-      <c r="H26" s="29">
-        <v>6.1</v>
-      </c>
-      <c r="I26" s="47">
-        <v>109.9</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="29">
-        <v>8.5</v>
-      </c>
-      <c r="D27" s="29">
-        <v>6.7</v>
-      </c>
-      <c r="E27" s="29">
-        <v>6.1</v>
-      </c>
-      <c r="F27" s="29">
-        <v>5.8</v>
-      </c>
-      <c r="G27" s="29">
-        <v>5.8</v>
-      </c>
-      <c r="H27" s="29">
-        <v>6.9</v>
-      </c>
-      <c r="I27" s="47">
-        <v>102.6</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="46"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="47"/>
-    </row>
-    <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="45"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="29">
-        <v>7.3</v>
-      </c>
-      <c r="D30" s="29">
-        <v>6</v>
-      </c>
-      <c r="E30" s="29">
-        <v>5.8</v>
-      </c>
-      <c r="F30" s="29">
-        <v>5</v>
-      </c>
-      <c r="G30" s="29">
-        <v>5.4</v>
-      </c>
-      <c r="H30" s="29">
-        <v>6.5</v>
-      </c>
-      <c r="I30" s="47">
-        <v>99.8</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="29">
-        <v>7</v>
-      </c>
-      <c r="D31" s="29">
-        <v>5.8</v>
-      </c>
-      <c r="E31" s="29">
-        <v>5.9</v>
-      </c>
-      <c r="F31" s="29">
-        <v>5.2</v>
-      </c>
-      <c r="G31" s="29">
-        <v>6</v>
-      </c>
-      <c r="H31" s="29">
-        <v>6.5</v>
-      </c>
-      <c r="I31" s="47">
-        <v>101.3</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="29">
-        <v>7.6</v>
-      </c>
-      <c r="D32" s="29">
-        <v>6.4</v>
-      </c>
-      <c r="E32" s="29">
-        <v>5.6</v>
-      </c>
-      <c r="F32" s="29">
-        <v>5</v>
-      </c>
-      <c r="G32" s="29">
-        <v>5.2</v>
-      </c>
-      <c r="H32" s="29">
-        <v>6.4</v>
-      </c>
-      <c r="I32" s="47">
-        <v>98.4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="29">
-        <v>7.7</v>
-      </c>
-      <c r="D33" s="29">
-        <v>5.9</v>
-      </c>
-      <c r="E33" s="29">
-        <v>5.8</v>
-      </c>
-      <c r="F33" s="29">
-        <v>4.8</v>
-      </c>
-      <c r="G33" s="29">
-        <v>4.8</v>
-      </c>
-      <c r="H33" s="29">
-        <v>6.9</v>
-      </c>
-      <c r="I33" s="47">
-        <v>98.6</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="29">
-        <v>7.4</v>
-      </c>
-      <c r="D34" s="29">
-        <v>6.3</v>
-      </c>
-      <c r="E34" s="29">
-        <v>5.5</v>
-      </c>
-      <c r="F34" s="29">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G34" s="29">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="H34" s="29">
-        <v>6.8</v>
-      </c>
-      <c r="I34" s="47">
-        <v>96.7</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="29">
-        <v>7.4</v>
-      </c>
-      <c r="D35" s="29">
-        <v>6.3</v>
-      </c>
-      <c r="E35" s="29">
-        <v>5.6</v>
-      </c>
-      <c r="F35" s="29">
-        <v>5.2</v>
-      </c>
-      <c r="G35" s="29">
-        <v>4.7</v>
-      </c>
-      <c r="H35" s="29">
-        <v>6.6</v>
-      </c>
-      <c r="I35" s="47">
-        <v>98.6</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="49">
-        <v>6.7</v>
-      </c>
-      <c r="D36" s="49">
-        <v>6.3</v>
-      </c>
-      <c r="E36" s="49">
-        <v>6.4</v>
-      </c>
-      <c r="F36" s="49">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G36" s="49">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H36" s="49">
-        <v>6.5</v>
-      </c>
-      <c r="I36" s="50">
-        <v>101.4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="B7:I7"/>
     <mergeCell ref="B15:I15"/>
     <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C3:H3"/>
     <mergeCell ref="C4:G4"/>
-    <mergeCell ref="B7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12365,861 +12147,786 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDD0094-1DED-4B89-B51B-8A3884F9088E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C899619B-933E-4978-ACA9-2375D7439DCD}">
   <dimension ref="B1:I33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
-    <col min="3" max="9" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" customWidth="1"/>
+    <col min="3" max="9" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="58"/>
-      <c r="C3" s="59" t="s">
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="65"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="40"/>
+      <c r="C3" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="33"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="44">
+        <v>7.0758000000000001</v>
+      </c>
+      <c r="D5" s="44">
+        <v>6.4721000000000002</v>
+      </c>
+      <c r="E5" s="44">
+        <v>7.4730999999999996</v>
+      </c>
+      <c r="F5" s="44">
+        <v>7.8574999999999999</v>
+      </c>
+      <c r="G5" s="44">
+        <v>6.6841999999999997</v>
+      </c>
+      <c r="H5" s="44">
+        <v>6.0327999999999999</v>
+      </c>
+      <c r="I5" s="45">
+        <v>6.8640999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="35">
+        <v>2.3889999999999998</v>
+      </c>
+      <c r="D6" s="35">
+        <v>2.6219000000000001</v>
+      </c>
+      <c r="E6" s="35">
+        <v>3.5844999999999998</v>
+      </c>
+      <c r="F6" s="35">
+        <v>3.5489999999999999</v>
+      </c>
+      <c r="G6" s="35">
+        <v>2.9447999999999999</v>
+      </c>
+      <c r="H6" s="35">
+        <v>2.2404999999999999</v>
+      </c>
+      <c r="I6" s="36">
+        <v>2.6252</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="35">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="D7" s="35">
+        <v>0.18559999999999999</v>
+      </c>
+      <c r="E7" s="35">
+        <v>0.14080000000000001</v>
+      </c>
+      <c r="F7" s="35">
+        <v>0.217</v>
+      </c>
+      <c r="G7" s="35">
+        <v>0.16839999999999999</v>
+      </c>
+      <c r="H7" s="35">
+        <v>0.1517</v>
+      </c>
+      <c r="I7" s="36">
+        <v>0.17630000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="35">
+        <v>0.78110000000000002</v>
+      </c>
+      <c r="D8" s="35">
+        <v>0.60719999999999996</v>
+      </c>
+      <c r="E8" s="35">
+        <v>0.81659999999999999</v>
+      </c>
+      <c r="F8" s="35">
+        <v>0.7339</v>
+      </c>
+      <c r="G8" s="35">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="H8" s="35">
+        <v>0.90390000000000004</v>
+      </c>
+      <c r="I8" s="36">
+        <v>0.7107</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="35">
+        <v>0.37509999999999999</v>
+      </c>
+      <c r="D9" s="35">
+        <v>0.3518</v>
+      </c>
+      <c r="E9" s="35">
+        <v>0.1797</v>
+      </c>
+      <c r="F9" s="35">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="G9" s="35">
+        <v>0.32990000000000003</v>
+      </c>
+      <c r="H9" s="35">
+        <v>0.31269999999999998</v>
+      </c>
+      <c r="I9" s="36">
+        <v>0.34789999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="35">
+        <v>0.35930000000000001</v>
+      </c>
+      <c r="D10" s="35">
+        <v>0.28870000000000001</v>
+      </c>
+      <c r="E10" s="35">
+        <v>0.31430000000000002</v>
+      </c>
+      <c r="F10" s="35">
+        <v>0.56869999999999998</v>
+      </c>
+      <c r="G10" s="35">
+        <v>0.31619999999999998</v>
+      </c>
+      <c r="H10" s="35">
+        <v>0.37940000000000002</v>
+      </c>
+      <c r="I10" s="36">
+        <v>0.3402</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="35">
+        <v>0.4904</v>
+      </c>
+      <c r="D11" s="35">
+        <v>0.48659999999999998</v>
+      </c>
+      <c r="E11" s="35">
+        <v>0.35270000000000001</v>
+      </c>
+      <c r="F11" s="35">
+        <v>0.26440000000000002</v>
+      </c>
+      <c r="G11" s="35">
+        <v>0.4345</v>
+      </c>
+      <c r="H11" s="35">
+        <v>0.29210000000000003</v>
+      </c>
+      <c r="I11" s="36">
+        <v>0.45750000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="35">
+        <v>0.50670000000000004</v>
+      </c>
+      <c r="D12" s="35">
+        <v>0.55840000000000001</v>
+      </c>
+      <c r="E12" s="35">
+        <v>0.44479999999999997</v>
+      </c>
+      <c r="F12" s="35">
+        <v>0.76</v>
+      </c>
+      <c r="G12" s="35">
+        <v>0.68330000000000002</v>
+      </c>
+      <c r="H12" s="35">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="I12" s="36">
+        <v>0.55349999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="35">
+        <v>0.1638</v>
+      </c>
+      <c r="D13" s="35">
+        <v>0.18779999999999999</v>
+      </c>
+      <c r="E13" s="35">
+        <v>0.1298</v>
+      </c>
+      <c r="F13" s="35">
+        <v>0.1835</v>
+      </c>
+      <c r="G13" s="35">
+        <v>0.1022</v>
+      </c>
+      <c r="H13" s="35">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="I13" s="36">
+        <v>0.1641</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="35">
+        <v>0.53239999999999998</v>
+      </c>
+      <c r="D14" s="35">
+        <v>0.42670000000000002</v>
+      </c>
+      <c r="E14" s="35">
+        <v>0.63229999999999997</v>
+      </c>
+      <c r="F14" s="35">
+        <v>0.39269999999999999</v>
+      </c>
+      <c r="G14" s="35">
+        <v>0.32129999999999997</v>
+      </c>
+      <c r="H14" s="35">
+        <v>0.32969999999999999</v>
+      </c>
+      <c r="I14" s="36">
+        <v>0.47660000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="35">
+        <v>0.17180000000000001</v>
+      </c>
+      <c r="D15" s="35">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="E15" s="35">
+        <v>5.8099999999999999E-2</v>
+      </c>
+      <c r="F15" s="35">
+        <v>0.1234</v>
+      </c>
+      <c r="G15" s="35">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="H15" s="35">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="I15" s="36">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="35">
+        <v>0.90659999999999996</v>
+      </c>
+      <c r="D16" s="35">
+        <v>0.55730000000000002</v>
+      </c>
+      <c r="E16" s="35">
+        <v>0.65380000000000005</v>
+      </c>
+      <c r="F16" s="35">
+        <v>0.49130000000000001</v>
+      </c>
+      <c r="G16" s="35">
+        <v>0.70689999999999997</v>
+      </c>
+      <c r="H16" s="35">
+        <v>0.3528</v>
+      </c>
+      <c r="I16" s="36">
+        <v>0.71540000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="35">
+        <v>0.22570000000000001</v>
+      </c>
+      <c r="D17" s="35">
+        <v>0.19070000000000001</v>
+      </c>
+      <c r="E17" s="35">
+        <v>0.16569999999999999</v>
+      </c>
+      <c r="F17" s="35">
+        <v>0.2117</v>
+      </c>
+      <c r="G17" s="35">
+        <v>0.18229999999999999</v>
+      </c>
+      <c r="H17" s="35">
+        <v>0.1366</v>
+      </c>
+      <c r="I17" s="36">
+        <v>0.2026</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="48"/>
+    </row>
+    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="62"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="44">
+        <v>103.06100000000001</v>
+      </c>
+      <c r="D20" s="44">
+        <v>101.53959999999999</v>
+      </c>
+      <c r="E20" s="44">
+        <v>104.0699</v>
+      </c>
+      <c r="F20" s="44">
+        <v>105.53</v>
+      </c>
+      <c r="G20" s="44">
+        <v>101.1528</v>
+      </c>
+      <c r="H20" s="44">
+        <v>100.2931</v>
+      </c>
+      <c r="I20" s="45">
+        <v>102.49720000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="35">
+        <v>26.6021</v>
+      </c>
+      <c r="D21" s="35">
+        <v>31.3491</v>
+      </c>
+      <c r="E21" s="35">
+        <v>38.153599999999997</v>
+      </c>
+      <c r="F21" s="35">
+        <v>40.144300000000001</v>
+      </c>
+      <c r="G21" s="35">
+        <v>31.273499999999999</v>
+      </c>
+      <c r="H21" s="35">
+        <v>29.031500000000001</v>
+      </c>
+      <c r="I21" s="36">
+        <v>29.983599999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="35">
+        <v>2.9323999999999999</v>
+      </c>
+      <c r="D22" s="35">
+        <v>3.3090999999999999</v>
+      </c>
+      <c r="E22" s="35">
+        <v>2.6476000000000002</v>
+      </c>
+      <c r="F22" s="35">
+        <v>3.3755999999999999</v>
+      </c>
+      <c r="G22" s="35">
+        <v>2.9390000000000001</v>
+      </c>
+      <c r="H22" s="35">
+        <v>2.9582000000000002</v>
+      </c>
+      <c r="I22" s="36">
+        <v>3.0630999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="35">
+        <v>11.410600000000001</v>
+      </c>
+      <c r="D23" s="35">
+        <v>12.7933</v>
+      </c>
+      <c r="E23" s="35">
+        <v>14.902200000000001</v>
+      </c>
+      <c r="F23" s="35">
+        <v>12.9529</v>
+      </c>
+      <c r="G23" s="35">
+        <v>12.5116</v>
+      </c>
+      <c r="H23" s="35">
+        <v>15.309200000000001</v>
+      </c>
+      <c r="I23" s="36">
+        <v>12.4283</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="35">
+        <v>8.0807000000000002</v>
+      </c>
+      <c r="D24" s="35">
+        <v>5.843</v>
+      </c>
+      <c r="E24" s="35">
+        <v>6.1013999999999999</v>
+      </c>
+      <c r="F24" s="35">
+        <v>7.7706999999999997</v>
+      </c>
+      <c r="G24" s="35">
+        <v>6.3654999999999999</v>
+      </c>
+      <c r="H24" s="35">
+        <v>7.3506</v>
+      </c>
+      <c r="I24" s="36">
+        <v>7.0433000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="35">
+        <v>6.5555000000000003</v>
+      </c>
+      <c r="D25" s="35">
+        <v>6.2948000000000004</v>
+      </c>
+      <c r="E25" s="35">
+        <v>5.9301000000000004</v>
+      </c>
+      <c r="F25" s="35">
+        <v>7.9691999999999998</v>
+      </c>
+      <c r="G25" s="35">
+        <v>6.1970000000000001</v>
+      </c>
+      <c r="H25" s="35">
+        <v>6.5674000000000001</v>
+      </c>
+      <c r="I25" s="36">
+        <v>6.4691000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="35">
+        <v>8.9832999999999998</v>
+      </c>
+      <c r="D26" s="35">
+        <v>8.8444000000000003</v>
+      </c>
+      <c r="E26" s="35">
+        <v>6.6561000000000003</v>
+      </c>
+      <c r="F26" s="35">
+        <v>5.4383999999999997</v>
+      </c>
+      <c r="G26" s="35">
+        <v>8.0625</v>
+      </c>
+      <c r="H26" s="35">
+        <v>5.0796000000000001</v>
+      </c>
+      <c r="I26" s="36">
+        <v>8.3896999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="35">
+        <v>10.491400000000001</v>
+      </c>
+      <c r="D27" s="35">
+        <v>11.2094</v>
+      </c>
+      <c r="E27" s="35">
+        <v>7.9588000000000001</v>
+      </c>
+      <c r="F27" s="35">
+        <v>10.943099999999999</v>
+      </c>
+      <c r="G27" s="35">
+        <v>13.433400000000001</v>
+      </c>
+      <c r="H27" s="35">
+        <v>15.072100000000001</v>
+      </c>
+      <c r="I27" s="36">
+        <v>10.944699999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="35">
+        <v>1.8759999999999999</v>
+      </c>
+      <c r="D28" s="35">
+        <v>1.9776</v>
+      </c>
+      <c r="E28" s="35">
+        <v>1.923</v>
+      </c>
+      <c r="F28" s="35">
+        <v>1.9397</v>
+      </c>
+      <c r="G28" s="35">
+        <v>1.6828000000000001</v>
+      </c>
+      <c r="H28" s="35">
+        <v>2.0028999999999999</v>
+      </c>
+      <c r="I28" s="36">
+        <v>1.9126000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="35">
+        <v>7.3059000000000003</v>
+      </c>
+      <c r="D29" s="35">
+        <v>6.7279999999999998</v>
+      </c>
+      <c r="E29" s="35">
+        <v>6.1654</v>
+      </c>
+      <c r="F29" s="35">
+        <v>5.4736000000000002</v>
+      </c>
+      <c r="G29" s="35">
+        <v>5.9474</v>
+      </c>
+      <c r="H29" s="35">
+        <v>6.9645999999999999</v>
+      </c>
+      <c r="I29" s="36">
+        <v>6.8612000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="35">
+        <v>2.4845999999999999</v>
+      </c>
+      <c r="D30" s="35">
+        <v>1.0026999999999999</v>
+      </c>
+      <c r="E30" s="35">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="F30" s="35">
+        <v>0.77039999999999997</v>
+      </c>
+      <c r="G30" s="35">
+        <v>1.2070000000000001</v>
+      </c>
+      <c r="H30" s="35">
+        <v>1.0636000000000001</v>
+      </c>
+      <c r="I30" s="36">
+        <v>1.6635</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="35">
+        <v>12.929500000000001</v>
+      </c>
+      <c r="D31" s="35">
+        <v>9.0404</v>
+      </c>
+      <c r="E31" s="35">
+        <v>9.6254000000000008</v>
+      </c>
+      <c r="F31" s="35">
+        <v>5.5792000000000002</v>
+      </c>
+      <c r="G31" s="35">
+        <v>8.3429000000000002</v>
+      </c>
+      <c r="H31" s="35">
+        <v>5.9832000000000001</v>
+      </c>
+      <c r="I31" s="36">
+        <v>10.486000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="38">
+        <v>3.4108999999999998</v>
+      </c>
+      <c r="D32" s="38">
+        <v>3.1486000000000001</v>
+      </c>
+      <c r="E32" s="38">
+        <v>3.0640999999999998</v>
+      </c>
+      <c r="F32" s="38">
+        <v>3.1715</v>
+      </c>
+      <c r="G32" s="38">
+        <v>3.1890999999999998</v>
+      </c>
+      <c r="H32" s="38">
+        <v>2.9074</v>
+      </c>
+      <c r="I32" s="39">
+        <v>3.2521</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="60" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="45"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="59">
-        <v>6.4</v>
-      </c>
-      <c r="D5" s="59">
-        <v>6.3</v>
-      </c>
-      <c r="E5" s="59">
-        <v>6.5</v>
-      </c>
-      <c r="F5" s="59">
-        <v>6.1</v>
-      </c>
-      <c r="G5" s="59">
-        <v>6.6</v>
-      </c>
-      <c r="H5" s="59">
-        <v>6.5</v>
-      </c>
-      <c r="I5" s="60">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="61">
-        <v>1.5</v>
-      </c>
-      <c r="D6" s="61">
-        <v>2</v>
-      </c>
-      <c r="E6" s="61">
-        <v>2.7</v>
-      </c>
-      <c r="F6" s="61">
-        <v>2.5</v>
-      </c>
-      <c r="G6" s="61">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H6" s="61">
-        <v>1.7</v>
-      </c>
-      <c r="I6" s="62">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="61">
-        <v>0.2</v>
-      </c>
-      <c r="D7" s="61">
-        <v>0.2</v>
-      </c>
-      <c r="E7" s="67">
-        <v>0.2</v>
-      </c>
-      <c r="F7" s="61">
-        <v>0.2</v>
-      </c>
-      <c r="G7" s="61">
-        <v>0.2</v>
-      </c>
-      <c r="H7" s="61">
-        <v>0.2</v>
-      </c>
-      <c r="I7" s="62">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="61">
-        <v>0.6</v>
-      </c>
-      <c r="D8" s="61">
-        <v>0.7</v>
-      </c>
-      <c r="E8" s="61">
-        <v>0.6</v>
-      </c>
-      <c r="F8" s="61">
-        <v>0.8</v>
-      </c>
-      <c r="G8" s="61">
-        <v>0.6</v>
-      </c>
-      <c r="H8" s="61">
-        <v>0.8</v>
-      </c>
-      <c r="I8" s="62">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="61">
-        <v>0.6</v>
-      </c>
-      <c r="D9" s="61">
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="61">
-        <v>0.4</v>
-      </c>
-      <c r="F9" s="61">
-        <v>0.2</v>
-      </c>
-      <c r="G9" s="61">
-        <v>0.8</v>
-      </c>
-      <c r="H9" s="61">
-        <v>0.7</v>
-      </c>
-      <c r="I9" s="62">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="61">
-        <v>0.4</v>
-      </c>
-      <c r="D10" s="61">
-        <v>0.4</v>
-      </c>
-      <c r="E10" s="61">
-        <v>0.3</v>
-      </c>
-      <c r="F10" s="61">
-        <v>0.6</v>
-      </c>
-      <c r="G10" s="61">
-        <v>0.4</v>
-      </c>
-      <c r="H10" s="61">
-        <v>0.5</v>
-      </c>
-      <c r="I10" s="62">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="61">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="61">
-        <v>0.4</v>
-      </c>
-      <c r="E11" s="61">
-        <v>0.3</v>
-      </c>
-      <c r="F11" s="61">
-        <v>0.2</v>
-      </c>
-      <c r="G11" s="61">
-        <v>0.3</v>
-      </c>
-      <c r="H11" s="61">
-        <v>0.3</v>
-      </c>
-      <c r="I11" s="62">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="61">
-        <v>0.7</v>
-      </c>
-      <c r="D12" s="61">
-        <v>0.7</v>
-      </c>
-      <c r="E12" s="61">
-        <v>0.4</v>
-      </c>
-      <c r="F12" s="61">
-        <v>0.6</v>
-      </c>
-      <c r="G12" s="61">
-        <v>0.8</v>
-      </c>
-      <c r="H12" s="61">
-        <v>0.9</v>
-      </c>
-      <c r="I12" s="62">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="61">
-        <v>0.2</v>
-      </c>
-      <c r="D13" s="61">
-        <v>0.1</v>
-      </c>
-      <c r="E13" s="61">
-        <v>0.1</v>
-      </c>
-      <c r="F13" s="61">
-        <v>0.1</v>
-      </c>
-      <c r="G13" s="61">
-        <v>0.1</v>
-      </c>
-      <c r="H13" s="61">
-        <v>0.2</v>
-      </c>
-      <c r="I13" s="62">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="61">
-        <v>0.7</v>
-      </c>
-      <c r="D14" s="61">
-        <v>0.5</v>
-      </c>
-      <c r="E14" s="61">
-        <v>0.4</v>
-      </c>
-      <c r="F14" s="61">
-        <v>0.4</v>
-      </c>
-      <c r="G14" s="61">
-        <v>0.5</v>
-      </c>
-      <c r="H14" s="61">
-        <v>0.5</v>
-      </c>
-      <c r="I14" s="62">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="61">
-        <v>0.1</v>
-      </c>
-      <c r="D15" s="61">
-        <v>0.1</v>
-      </c>
-      <c r="E15" s="61">
-        <v>0</v>
-      </c>
-      <c r="F15" s="61">
-        <v>0</v>
-      </c>
-      <c r="G15" s="61">
-        <v>0.1</v>
-      </c>
-      <c r="H15" s="61">
-        <v>0</v>
-      </c>
-      <c r="I15" s="62">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="61">
-        <v>0.6</v>
-      </c>
-      <c r="D16" s="61">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="61">
-        <v>0.8</v>
-      </c>
-      <c r="F16" s="61">
-        <v>0.2</v>
-      </c>
-      <c r="G16" s="61">
-        <v>0.4</v>
-      </c>
-      <c r="H16" s="61">
-        <v>0.4</v>
-      </c>
-      <c r="I16" s="62">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="61">
-        <v>0.2</v>
-      </c>
-      <c r="D17" s="61">
-        <v>0.2</v>
-      </c>
-      <c r="E17" s="61">
-        <v>0.2</v>
-      </c>
-      <c r="F17" s="61">
-        <v>0.2</v>
-      </c>
-      <c r="G17" s="61">
-        <v>0.2</v>
-      </c>
-      <c r="H17" s="61">
-        <v>0.2</v>
-      </c>
-      <c r="I17" s="62">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="52"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="53"/>
-    </row>
-    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="45"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="59">
-        <v>99</v>
-      </c>
-      <c r="D20" s="59">
-        <v>98.3</v>
-      </c>
-      <c r="E20" s="59">
-        <v>99.4</v>
-      </c>
-      <c r="F20" s="59">
-        <v>100.2</v>
-      </c>
-      <c r="G20" s="59">
-        <v>98.7</v>
-      </c>
-      <c r="H20" s="59">
-        <v>98.6</v>
-      </c>
-      <c r="I20" s="60">
-        <v>98.8</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="61">
-        <v>24.9</v>
-      </c>
-      <c r="D21" s="61">
-        <v>29.4</v>
-      </c>
-      <c r="E21" s="61">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="F21" s="61">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="G21" s="61">
-        <v>29</v>
-      </c>
-      <c r="H21" s="61">
-        <v>27.6</v>
-      </c>
-      <c r="I21" s="62">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="61">
-        <v>2.8</v>
-      </c>
-      <c r="D22" s="61">
-        <v>3.2</v>
-      </c>
-      <c r="E22" s="61">
-        <v>2.6</v>
-      </c>
-      <c r="F22" s="61">
-        <v>3.3</v>
-      </c>
-      <c r="G22" s="61">
-        <v>2.9</v>
-      </c>
-      <c r="H22" s="61">
-        <v>2.9</v>
-      </c>
-      <c r="I22" s="62">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="61">
-        <v>11.3</v>
-      </c>
-      <c r="D23" s="61">
-        <v>13.1</v>
-      </c>
-      <c r="E23" s="61">
-        <v>15.1</v>
-      </c>
-      <c r="F23" s="61">
-        <v>12.8</v>
-      </c>
-      <c r="G23" s="61">
-        <v>13</v>
-      </c>
-      <c r="H23" s="61">
-        <v>15.3</v>
-      </c>
-      <c r="I23" s="62">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="61">
-        <v>7.9</v>
-      </c>
-      <c r="D24" s="61">
-        <v>5.7</v>
-      </c>
-      <c r="E24" s="61">
-        <v>6.1</v>
-      </c>
-      <c r="F24" s="61">
-        <v>7.6</v>
-      </c>
-      <c r="G24" s="61">
-        <v>6.4</v>
-      </c>
-      <c r="H24" s="61">
-        <v>7.3</v>
-      </c>
-      <c r="I24" s="62">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="61">
-        <v>6.5</v>
-      </c>
-      <c r="D25" s="61">
-        <v>6.3</v>
-      </c>
-      <c r="E25" s="61">
-        <v>5.8</v>
-      </c>
-      <c r="F25" s="67">
-        <v>7.6</v>
-      </c>
-      <c r="G25" s="61">
-        <v>6.2</v>
-      </c>
-      <c r="H25" s="61">
-        <v>6.5</v>
-      </c>
-      <c r="I25" s="62">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="61">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="D26" s="61">
-        <v>8.6</v>
-      </c>
-      <c r="E26" s="61">
-        <v>6.6</v>
-      </c>
-      <c r="F26" s="61">
-        <v>5.5</v>
-      </c>
-      <c r="G26" s="61">
-        <v>8</v>
-      </c>
-      <c r="H26" s="61">
-        <v>5</v>
-      </c>
-      <c r="I26" s="62">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="61">
-        <v>10.4</v>
-      </c>
-      <c r="D27" s="61">
-        <v>11.3</v>
-      </c>
-      <c r="E27" s="61">
-        <v>7.9</v>
-      </c>
-      <c r="F27" s="61">
-        <v>10.6</v>
-      </c>
-      <c r="G27" s="61">
-        <v>13.6</v>
-      </c>
-      <c r="H27" s="61">
-        <v>15.1</v>
-      </c>
-      <c r="I27" s="62">
-        <v>10.9</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="61">
-        <v>1.7</v>
-      </c>
-      <c r="D28" s="61">
-        <v>1.7</v>
-      </c>
-      <c r="E28" s="61">
-        <v>1.8</v>
-      </c>
-      <c r="F28" s="61">
-        <v>1.7</v>
-      </c>
-      <c r="G28" s="61">
-        <v>1.6</v>
-      </c>
-      <c r="H28" s="61">
-        <v>1.9</v>
-      </c>
-      <c r="I28" s="62">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="61">
-        <v>7</v>
-      </c>
-      <c r="D29" s="61">
-        <v>6.4</v>
-      </c>
-      <c r="E29" s="61">
-        <v>5.5</v>
-      </c>
-      <c r="F29" s="61">
-        <v>5.2</v>
-      </c>
-      <c r="G29" s="61">
-        <v>5.8</v>
-      </c>
-      <c r="H29" s="61">
-        <v>6.9</v>
-      </c>
-      <c r="I29" s="62">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="61">
-        <v>2.4</v>
-      </c>
-      <c r="D30" s="61">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E30" s="61">
-        <v>1</v>
-      </c>
-      <c r="F30" s="61">
-        <v>0.6</v>
-      </c>
-      <c r="G30" s="61">
-        <v>1.3</v>
-      </c>
-      <c r="H30" s="61">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I30" s="62">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="61">
-        <v>12.2</v>
-      </c>
-      <c r="D31" s="61">
-        <v>8.6</v>
-      </c>
-      <c r="E31" s="61">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F31" s="61">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="G31" s="61">
-        <v>7.8</v>
-      </c>
-      <c r="H31" s="61">
-        <v>5.9</v>
-      </c>
-      <c r="I31" s="62">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="64">
-        <v>3.3</v>
-      </c>
-      <c r="D32" s="64">
-        <v>3</v>
-      </c>
-      <c r="E32" s="64">
-        <v>3</v>
-      </c>
-      <c r="F32" s="64">
-        <v>3.1</v>
-      </c>
-      <c r="G32" s="64">
-        <v>3.1</v>
-      </c>
-      <c r="H32" s="64">
-        <v>2.9</v>
-      </c>
-      <c r="I32" s="65">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B19:I19"/>
     <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="C4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB33A77-70A8-4112-AA0E-085740473EF6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0374CFB4-14EB-4D8B-AE4C-042AAEE7B0FB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3990008-C001-455B-8FF0-D98EFFD858F6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D48F31-AEAE-44A3-B608-0D4D34CF07B9}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46BA69C-D9E6-4437-95F4-BDF245FF5E45}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N54" sqref="N54"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/assets/excel/IPCse - Series históricas.xlsx
+++ b/assets/excel/IPCse - Series históricas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fiona\Dropbox\MGR\IPC seasonal adjustment\IPCse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB0FBB2-B27D-4A14-885F-C89E5F8A055A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B553687B-58E4-4149-9D56-55684DB318E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="1" xr2:uid="{A81B6F3A-9175-42CA-B78F-287A4E3C6249}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{A81B6F3A-9175-42CA-B78F-287A4E3C6249}"/>
   </bookViews>
   <sheets>
     <sheet name="Índices" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="47">
   <si>
     <t>Fecha</t>
   </si>
@@ -202,9 +202,6 @@
   </si>
   <si>
     <t>IPCse NACIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1209,12 +1206,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA821952-0137-4F39-844C-15CA99AC928E}">
   <dimension ref="B1:V89"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="78" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="78" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
-      <selection pane="bottomRight" activeCell="D73" sqref="D73"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -6268,12 +6265,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED968B30-91AE-4BCD-9838-818BA334E48C}">
   <dimension ref="B1:V89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="71" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="71" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
-      <selection pane="bottomRight" activeCell="K32" sqref="K32"/>
+      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -8147,8 +8144,8 @@
       <c r="I32" s="18">
         <v>3.7122999999999999</v>
       </c>
-      <c r="J32" s="17" t="s">
-        <v>47</v>
+      <c r="J32" s="17">
+        <v>5.0096999999999996</v>
       </c>
       <c r="K32" s="17">
         <v>3.5488</v>
@@ -11288,7 +11285,7 @@
   <dimension ref="B1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/assets/excel/IPCse - Series históricas.xlsx
+++ b/assets/excel/IPCse - Series históricas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fiona\Dropbox\MGR\IPC seasonal adjustment\IPCse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B553687B-58E4-4149-9D56-55684DB318E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD435F5-5410-4497-8EB6-0D13486F5DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{A81B6F3A-9175-42CA-B78F-287A4E3C6249}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" activeTab="1" xr2:uid="{A81B6F3A-9175-42CA-B78F-287A4E3C6249}"/>
   </bookViews>
   <sheets>
     <sheet name="Índices" sheetId="1" r:id="rId1"/>
@@ -183,7 +183,7 @@
     </r>
   </si>
   <si>
-    <t>Sep.</t>
+    <t>IPCse NACIONAL</t>
   </si>
   <si>
     <t>Oct.</t>
@@ -201,7 +201,7 @@
     <t>Feb.</t>
   </si>
   <si>
-    <t>IPCse NACIONAL</t>
+    <t>Mar.</t>
   </si>
 </sst>
 </file>
@@ -1206,25 +1206,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA821952-0137-4F39-844C-15CA99AC928E}">
   <dimension ref="B1:V89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="78" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="78" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" style="4" customWidth="1"/>
-    <col min="2" max="3" width="20.6640625" style="4" customWidth="1"/>
-    <col min="4" max="21" width="15.6640625" style="4"/>
-    <col min="22" max="22" width="20.6640625" style="4" customWidth="1"/>
-    <col min="23" max="16384" width="15.6640625" style="4"/>
+    <col min="1" max="1" width="4.5703125" style="4" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" style="4" customWidth="1"/>
+    <col min="4" max="21" width="15.7109375" style="4"/>
+    <col min="22" max="22" width="20.7109375" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="15.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="53" t="s">
         <v>10</v>
       </c>
@@ -1249,7 +1249,7 @@
       <c r="U2" s="54"/>
       <c r="V2" s="54"/>
     </row>
-    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="9" t="s">
         <v>8</v>
@@ -1280,12 +1280,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
@@ -1342,10 +1342,10 @@
         <v>32</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
         <v>42705</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>99.977400000000003</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <v>42736</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>101.58410000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
         <v>42767</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>103.26909999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <v>42795</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>104.8601</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <v>42826</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>107.3261</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <v>42856</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>109.36450000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
         <v>42887</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>110.7693</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <v>42917</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>112.8707</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <v>42948</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>114.20829999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <v>42979</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>115.16679999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
         <v>43009</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>116.4616</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="14">
         <v>43040</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>118.2471</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="14">
         <v>43070</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>120.15</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
         <v>43101</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>122.66079999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="14">
         <v>43132</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>124.86669999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="14">
         <v>43160</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>127.12269999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="14">
         <v>43191</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>129.41149999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="14">
         <v>43221</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>133.31610000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="14">
         <v>43252</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>138.48570000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="14">
         <v>43282</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>143.6498</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="14">
         <v>43313</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>148.0249</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="14">
         <v>43344</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>157.21270000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="14">
         <v>43374</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>163.8939</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="14">
         <v>43405</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>169.81559999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="14">
         <v>43435</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>173.93020000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="14">
         <v>43466</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>179.21430000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="14">
         <v>43497</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>186.506</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="14">
         <v>43525</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>194.3347</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="14">
         <v>43556</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>200.91579999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="14">
         <v>43586</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>207.03639999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="14">
         <v>43617</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>212.8476</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="14">
         <v>43647</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>218.41489999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="14">
         <v>43678</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>227.71770000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="14">
         <v>43709</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>240.4811</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="14">
         <v>43739</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>247.86199999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" s="14">
         <v>43770</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>259.3349</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="14">
         <v>43800</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>268.79329999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" s="14">
         <v>43831</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>278.7826</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" s="14">
         <v>43862</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>286.44729999999998</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44" s="14">
         <v>43891</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>293.82990000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45" s="14">
         <v>43922</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>300.18740000000003</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46" s="14">
         <v>43952</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>307.81490000000002</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47" s="14">
         <v>43983</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>316.56420000000003</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B48" s="14">
         <v>44013</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>324.54230000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B49" s="14">
         <v>44044</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>333.78789999999998</v>
       </c>
     </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B50" s="14">
         <v>44075</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>340.72519999999997</v>
       </c>
     </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B51" s="14">
         <v>44105</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>353.69189999999998</v>
       </c>
     </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B52" s="14">
         <v>44136</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>367.19499999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B53" s="14">
         <v>44166</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>383.58569999999997</v>
       </c>
     </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B54" s="14">
         <v>44197</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>400.52280000000002</v>
       </c>
     </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B55" s="14">
         <v>44228</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>416.6268</v>
       </c>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B56" s="14">
         <v>44256</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>434.39139999999998</v>
       </c>
     </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B57" s="14">
         <v>44287</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>451.8818</v>
       </c>
     </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B58" s="14">
         <v>44317</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>467.42290000000003</v>
       </c>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B59" s="14">
         <v>44348</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>483.03149999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B60" s="14">
         <v>44378</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>499.71620000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B61" s="14">
         <v>44409</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>511.17930000000001</v>
       </c>
     </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B62" s="14">
         <v>44440</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>525.85019999999997</v>
       </c>
     </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B63" s="14">
         <v>44470</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>542.82629999999995</v>
       </c>
     </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B64" s="14">
         <v>44501</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>560.64739999999995</v>
       </c>
     </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B65" s="14">
         <v>44531</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>587.63199999999995</v>
       </c>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B66" s="14">
         <v>44562</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>614.96839999999997</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B67" s="14">
         <v>44593</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>648.68989999999997</v>
       </c>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B68" s="14">
         <v>44621</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>686.36180000000002</v>
       </c>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B69" s="14">
         <v>44652</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>729.43140000000005</v>
       </c>
     </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B70" s="14">
         <v>44682</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>770.00469999999996</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B71" s="14">
         <v>44713</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>811.8424</v>
       </c>
     </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B72" s="14">
         <v>44743</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>880.58450000000005</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B73" s="14">
         <v>44774</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>944.6404</v>
       </c>
     </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B74" s="14">
         <v>44805</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>1001.7683</v>
       </c>
     </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B75" s="14">
         <v>44835</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>1059.6804</v>
       </c>
     </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B76" s="14">
         <v>44866</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>1113.1264000000001</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B77" s="14">
         <v>44896</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>1173.7402999999999</v>
       </c>
     </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B78" s="14">
         <v>44927</v>
       </c>
@@ -6155,99 +6155,161 @@
         <v>1250.2503999999999</v>
       </c>
     </row>
-    <row r="79" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="15">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B79" s="14">
         <v>44958</v>
       </c>
-      <c r="C79" s="19">
+      <c r="C79" s="16">
         <v>1291.8092999999999</v>
       </c>
-      <c r="D79" s="20">
+      <c r="D79" s="17">
         <v>1271.3708999999999</v>
       </c>
-      <c r="E79" s="20">
+      <c r="E79" s="17">
         <v>1298.124</v>
       </c>
-      <c r="F79" s="20">
+      <c r="F79" s="17">
         <v>1329.6954000000001</v>
       </c>
-      <c r="G79" s="20">
+      <c r="G79" s="17">
         <v>1354.0170000000001</v>
       </c>
-      <c r="H79" s="20">
+      <c r="H79" s="17">
         <v>1334.6805999999999</v>
       </c>
-      <c r="I79" s="21">
+      <c r="I79" s="18">
         <v>1257.3244999999999</v>
       </c>
-      <c r="J79" s="20">
+      <c r="J79" s="17">
         <v>1389.0690999999999</v>
       </c>
-      <c r="K79" s="20">
+      <c r="K79" s="17">
         <v>1070.3867</v>
       </c>
-      <c r="L79" s="20">
+      <c r="L79" s="17">
         <v>1527.2965999999999</v>
       </c>
-      <c r="M79" s="20">
+      <c r="M79" s="17">
         <v>974.51549999999997</v>
       </c>
-      <c r="N79" s="20">
+      <c r="N79" s="17">
         <v>1277.4639999999999</v>
       </c>
-      <c r="O79" s="20">
+      <c r="O79" s="17">
         <v>1361.6448</v>
       </c>
-      <c r="P79" s="20">
+      <c r="P79" s="17">
         <v>1321.9165</v>
       </c>
-      <c r="Q79" s="20">
+      <c r="Q79" s="17">
         <v>965.83900000000006</v>
       </c>
-      <c r="R79" s="20">
+      <c r="R79" s="17">
         <v>1208.7445</v>
       </c>
-      <c r="S79" s="20">
+      <c r="S79" s="17">
         <v>1020.9703</v>
       </c>
-      <c r="T79" s="20">
+      <c r="T79" s="17">
         <v>1371.1686</v>
       </c>
-      <c r="U79" s="21">
+      <c r="U79" s="18">
         <v>1131.5159000000001</v>
       </c>
-      <c r="V79" s="19">
+      <c r="V79" s="16">
         <v>1345.6905999999999</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B80" s="6"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="15">
+        <v>44986</v>
+      </c>
+      <c r="C80" s="19">
+        <v>1378.3166000000001</v>
+      </c>
+      <c r="D80" s="20">
+        <v>1354.2173</v>
+      </c>
+      <c r="E80" s="20">
+        <v>1388.5438999999999</v>
+      </c>
+      <c r="F80" s="20">
+        <v>1416.6144999999999</v>
+      </c>
+      <c r="G80" s="20">
+        <v>1434.2091</v>
+      </c>
+      <c r="H80" s="20">
+        <v>1431.1702</v>
+      </c>
+      <c r="I80" s="21">
+        <v>1336.9819</v>
+      </c>
+      <c r="J80" s="20">
+        <v>1505.3569</v>
+      </c>
+      <c r="K80" s="20">
+        <v>1150.2249999999999</v>
+      </c>
+      <c r="L80" s="20">
+        <v>1611.2483999999999</v>
+      </c>
+      <c r="M80" s="20">
+        <v>1038.1386</v>
+      </c>
+      <c r="N80" s="20">
+        <v>1353.1780000000001</v>
+      </c>
+      <c r="O80" s="20">
+        <v>1439.8922</v>
+      </c>
+      <c r="P80" s="20">
+        <v>1391.9324999999999</v>
+      </c>
+      <c r="Q80" s="20">
+        <v>983.81479999999999</v>
+      </c>
+      <c r="R80" s="20">
+        <v>1267.3584000000001</v>
+      </c>
+      <c r="S80" s="20">
+        <v>1120.8100999999999</v>
+      </c>
+      <c r="T80" s="20">
+        <v>1479.1586</v>
+      </c>
+      <c r="U80" s="21">
+        <v>1203.354</v>
+      </c>
+      <c r="V80" s="19">
+        <v>1441.3485000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="6"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="6"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="6"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="6"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="6"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="6"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="6"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="6"/>
     </row>
   </sheetData>
@@ -6265,25 +6327,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED968B30-91AE-4BCD-9838-818BA334E48C}">
   <dimension ref="B1:V89"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="71" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="83" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
-      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" style="4" customWidth="1"/>
-    <col min="2" max="3" width="20.6640625" style="4" customWidth="1"/>
-    <col min="4" max="21" width="15.6640625" style="4"/>
-    <col min="22" max="22" width="20.6640625" style="4" customWidth="1"/>
-    <col min="23" max="16384" width="15.6640625" style="4"/>
+    <col min="1" max="1" width="4.5703125" style="4" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" style="4" customWidth="1"/>
+    <col min="4" max="21" width="15.7109375" style="4"/>
+    <col min="22" max="22" width="20.7109375" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="15.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="53" t="s">
         <v>11</v>
       </c>
@@ -6308,7 +6370,7 @@
       <c r="U2" s="54"/>
       <c r="V2" s="54"/>
     </row>
-    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="9" t="s">
         <v>8</v>
@@ -6339,12 +6401,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
@@ -6401,10 +6463,10 @@
         <v>32</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
         <v>42705</v>
       </c>
@@ -6429,7 +6491,7 @@
       <c r="U5" s="13"/>
       <c r="V5" s="11"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <v>42736</v>
       </c>
@@ -6494,7 +6556,7 @@
         <v>1.6071</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
         <v>42767</v>
       </c>
@@ -6559,7 +6621,7 @@
         <v>1.6587000000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <v>42795</v>
       </c>
@@ -6624,7 +6686,7 @@
         <v>1.5406</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <v>42826</v>
       </c>
@@ -6689,7 +6751,7 @@
         <v>2.3517000000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <v>42856</v>
       </c>
@@ -6754,7 +6816,7 @@
         <v>1.8993</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
         <v>42887</v>
       </c>
@@ -6819,7 +6881,7 @@
         <v>1.2845</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <v>42917</v>
       </c>
@@ -6884,7 +6946,7 @@
         <v>1.8971</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <v>42948</v>
       </c>
@@ -6949,7 +7011,7 @@
         <v>1.1851</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <v>42979</v>
       </c>
@@ -7014,7 +7076,7 @@
         <v>0.83930000000000005</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
         <v>43009</v>
       </c>
@@ -7079,7 +7141,7 @@
         <v>1.1243000000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="14">
         <v>43040</v>
       </c>
@@ -7144,7 +7206,7 @@
         <v>1.5330999999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="14">
         <v>43070</v>
       </c>
@@ -7209,7 +7271,7 @@
         <v>1.6093</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
         <v>43101</v>
       </c>
@@ -7274,7 +7336,7 @@
         <v>2.0897000000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="14">
         <v>43132</v>
       </c>
@@ -7339,7 +7401,7 @@
         <v>1.7984</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="14">
         <v>43160</v>
       </c>
@@ -7404,7 +7466,7 @@
         <v>1.8067</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="14">
         <v>43191</v>
       </c>
@@ -7469,7 +7531,7 @@
         <v>1.8005</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="14">
         <v>43221</v>
       </c>
@@ -7534,7 +7596,7 @@
         <v>3.0171999999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="14">
         <v>43252</v>
       </c>
@@ -7599,7 +7661,7 @@
         <v>3.8776999999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="14">
         <v>43282</v>
       </c>
@@ -7664,7 +7726,7 @@
         <v>3.7290000000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="14">
         <v>43313</v>
       </c>
@@ -7729,7 +7791,7 @@
         <v>3.0457000000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="14">
         <v>43344</v>
       </c>
@@ -7794,7 +7856,7 @@
         <v>6.2069000000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="14">
         <v>43374</v>
       </c>
@@ -7859,7 +7921,7 @@
         <v>4.2497999999999996</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="14">
         <v>43405</v>
       </c>
@@ -7924,7 +7986,7 @@
         <v>3.6131000000000002</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="14">
         <v>43435</v>
       </c>
@@ -7989,7 +8051,7 @@
         <v>2.423</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="14">
         <v>43466</v>
       </c>
@@ -8054,7 +8116,7 @@
         <v>3.0381</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="14">
         <v>43497</v>
       </c>
@@ -8119,7 +8181,7 @@
         <v>4.0686999999999998</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="14">
         <v>43525</v>
       </c>
@@ -8184,7 +8246,7 @@
         <v>4.1976000000000004</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="14">
         <v>43556</v>
       </c>
@@ -8249,7 +8311,7 @@
         <v>3.3864999999999998</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="14">
         <v>43586</v>
       </c>
@@ -8314,7 +8376,7 @@
         <v>3.0464000000000002</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="14">
         <v>43617</v>
       </c>
@@ -8379,7 +8441,7 @@
         <v>2.8068</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="14">
         <v>43647</v>
       </c>
@@ -8444,7 +8506,7 @@
         <v>2.6156000000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="14">
         <v>43678</v>
       </c>
@@ -8509,7 +8571,7 @@
         <v>4.2591999999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="14">
         <v>43709</v>
       </c>
@@ -8574,7 +8636,7 @@
         <v>5.6048999999999998</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="14">
         <v>43739</v>
       </c>
@@ -8639,7 +8701,7 @@
         <v>3.0691999999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" s="14">
         <v>43770</v>
       </c>
@@ -8704,7 +8766,7 @@
         <v>4.6287000000000003</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="14">
         <v>43800</v>
       </c>
@@ -8769,7 +8831,7 @@
         <v>3.6472000000000002</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" s="14">
         <v>43831</v>
       </c>
@@ -8834,7 +8896,7 @@
         <v>3.7164000000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" s="14">
         <v>43862</v>
       </c>
@@ -8899,7 +8961,7 @@
         <v>2.7492999999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44" s="14">
         <v>43891</v>
       </c>
@@ -8964,7 +9026,7 @@
         <v>2.5773000000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45" s="14">
         <v>43922</v>
       </c>
@@ -9029,7 +9091,7 @@
         <v>2.1637</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46" s="14">
         <v>43952</v>
       </c>
@@ -9094,7 +9156,7 @@
         <v>2.5409000000000002</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47" s="14">
         <v>43983</v>
       </c>
@@ -9159,7 +9221,7 @@
         <v>2.8424</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B48" s="14">
         <v>44013</v>
       </c>
@@ -9224,7 +9286,7 @@
         <v>2.5202</v>
       </c>
     </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B49" s="14">
         <v>44044</v>
       </c>
@@ -9289,7 +9351,7 @@
         <v>2.8488000000000002</v>
       </c>
     </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B50" s="14">
         <v>44075</v>
       </c>
@@ -9354,7 +9416,7 @@
         <v>2.0783999999999998</v>
       </c>
     </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B51" s="14">
         <v>44105</v>
       </c>
@@ -9419,7 +9481,7 @@
         <v>3.8056000000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B52" s="14">
         <v>44136</v>
       </c>
@@ -9484,7 +9546,7 @@
         <v>3.8178000000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B53" s="14">
         <v>44166</v>
       </c>
@@ -9549,7 +9611,7 @@
         <v>4.4638</v>
       </c>
     </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B54" s="14">
         <v>44197</v>
       </c>
@@ -9614,7 +9676,7 @@
         <v>4.4154999999999998</v>
       </c>
     </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B55" s="14">
         <v>44228</v>
       </c>
@@ -9679,7 +9741,7 @@
         <v>4.0206999999999997</v>
       </c>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B56" s="14">
         <v>44256</v>
       </c>
@@ -9744,7 +9806,7 @@
         <v>4.2638999999999996</v>
       </c>
     </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B57" s="14">
         <v>44287</v>
       </c>
@@ -9809,7 +9871,7 @@
         <v>4.0263999999999998</v>
       </c>
     </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B58" s="14">
         <v>44317</v>
       </c>
@@ -9874,7 +9936,7 @@
         <v>3.4392</v>
       </c>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B59" s="14">
         <v>44348</v>
       </c>
@@ -9939,7 +10001,7 @@
         <v>3.3393000000000002</v>
       </c>
     </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B60" s="14">
         <v>44378</v>
       </c>
@@ -10004,7 +10066,7 @@
         <v>3.4542000000000002</v>
       </c>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B61" s="14">
         <v>44409</v>
       </c>
@@ -10069,7 +10131,7 @@
         <v>2.2938999999999998</v>
       </c>
     </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B62" s="14">
         <v>44440</v>
       </c>
@@ -10134,7 +10196,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B63" s="14">
         <v>44470</v>
       </c>
@@ -10199,7 +10261,7 @@
         <v>3.2282999999999999</v>
       </c>
     </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B64" s="14">
         <v>44501</v>
       </c>
@@ -10264,7 +10326,7 @@
         <v>3.2829999999999999</v>
       </c>
     </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B65" s="14">
         <v>44531</v>
       </c>
@@ -10329,7 +10391,7 @@
         <v>4.8131000000000004</v>
       </c>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B66" s="14">
         <v>44562</v>
       </c>
@@ -10394,7 +10456,7 @@
         <v>4.6520000000000001</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B67" s="14">
         <v>44593</v>
       </c>
@@ -10459,7 +10521,7 @@
         <v>5.4835000000000003</v>
       </c>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B68" s="14">
         <v>44621</v>
       </c>
@@ -10524,7 +10586,7 @@
         <v>5.8074000000000003</v>
       </c>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B69" s="14">
         <v>44652</v>
       </c>
@@ -10589,7 +10651,7 @@
         <v>6.2751000000000001</v>
       </c>
     </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B70" s="14">
         <v>44682</v>
       </c>
@@ -10654,7 +10716,7 @@
         <v>5.5622999999999996</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B71" s="14">
         <v>44713</v>
       </c>
@@ -10719,7 +10781,7 @@
         <v>5.4333999999999998</v>
       </c>
     </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B72" s="14">
         <v>44743</v>
       </c>
@@ -10784,7 +10846,7 @@
         <v>8.4673999999999996</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B73" s="14">
         <v>44774</v>
       </c>
@@ -10849,7 +10911,7 @@
         <v>7.2742000000000004</v>
       </c>
     </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B74" s="14">
         <v>44805</v>
       </c>
@@ -10914,7 +10976,7 @@
         <v>6.0476000000000001</v>
       </c>
     </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B75" s="14">
         <v>44835</v>
       </c>
@@ -10979,7 +11041,7 @@
         <v>5.7809999999999997</v>
       </c>
     </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B76" s="14">
         <v>44866</v>
       </c>
@@ -11044,7 +11106,7 @@
         <v>5.0435999999999996</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B77" s="14">
         <v>44896</v>
       </c>
@@ -11109,7 +11171,7 @@
         <v>5.4454000000000002</v>
       </c>
     </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B78" s="14">
         <v>44927</v>
       </c>
@@ -11174,99 +11236,161 @@
         <v>6.5185000000000004</v>
       </c>
     </row>
-    <row r="79" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="15">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B79" s="14">
         <v>44958</v>
       </c>
-      <c r="C79" s="19">
+      <c r="C79" s="16">
         <v>6.8745000000000003</v>
       </c>
-      <c r="D79" s="20">
+      <c r="D79" s="17">
         <v>7.0758999999999999</v>
       </c>
-      <c r="E79" s="20">
+      <c r="E79" s="17">
         <v>6.4721000000000002</v>
       </c>
-      <c r="F79" s="20">
+      <c r="F79" s="17">
         <v>7.4730999999999996</v>
       </c>
-      <c r="G79" s="20">
+      <c r="G79" s="17">
         <v>7.8574999999999999</v>
       </c>
-      <c r="H79" s="20">
+      <c r="H79" s="17">
         <v>6.6841999999999997</v>
       </c>
-      <c r="I79" s="21">
+      <c r="I79" s="18">
         <v>6.0327999999999999</v>
       </c>
-      <c r="J79" s="20">
+      <c r="J79" s="17">
         <v>9.2695000000000007</v>
       </c>
-      <c r="K79" s="20">
+      <c r="K79" s="17">
         <v>6.0644999999999998</v>
       </c>
-      <c r="L79" s="20">
+      <c r="L79" s="17">
         <v>6.1641000000000004</v>
       </c>
-      <c r="M79" s="20">
+      <c r="M79" s="17">
         <v>4.8117999999999999</v>
       </c>
-      <c r="N79" s="20">
+      <c r="N79" s="17">
         <v>5.2991999999999999</v>
       </c>
-      <c r="O79" s="20">
+      <c r="O79" s="17">
         <v>5.3381999999999996</v>
       </c>
-      <c r="P79" s="20">
+      <c r="P79" s="17">
         <v>4.8672000000000004</v>
       </c>
-      <c r="Q79" s="20">
+      <c r="Q79" s="17">
         <v>7.8673999999999999</v>
       </c>
-      <c r="R79" s="20">
+      <c r="R79" s="17">
         <v>7.0808999999999997</v>
       </c>
-      <c r="S79" s="20">
+      <c r="S79" s="17">
         <v>4.3636999999999997</v>
       </c>
-      <c r="T79" s="20">
+      <c r="T79" s="17">
         <v>7.5350000000000001</v>
       </c>
-      <c r="U79" s="21">
+      <c r="U79" s="18">
         <v>6.5246000000000004</v>
       </c>
-      <c r="V79" s="19">
+      <c r="V79" s="16">
         <v>7.6337000000000002</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B80" s="6"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="15">
+        <v>44986</v>
+      </c>
+      <c r="C80" s="19">
+        <v>6.6966000000000001</v>
+      </c>
+      <c r="D80" s="20">
+        <v>6.5163000000000002</v>
+      </c>
+      <c r="E80" s="20">
+        <v>6.9653999999999998</v>
+      </c>
+      <c r="F80" s="20">
+        <v>6.5368000000000004</v>
+      </c>
+      <c r="G80" s="20">
+        <v>5.9225000000000003</v>
+      </c>
+      <c r="H80" s="20">
+        <v>7.2294</v>
+      </c>
+      <c r="I80" s="21">
+        <v>6.3354999999999997</v>
+      </c>
+      <c r="J80" s="20">
+        <v>8.3716000000000008</v>
+      </c>
+      <c r="K80" s="20">
+        <v>7.4588000000000001</v>
+      </c>
+      <c r="L80" s="20">
+        <v>5.4968000000000004</v>
+      </c>
+      <c r="M80" s="20">
+        <v>6.5286999999999997</v>
+      </c>
+      <c r="N80" s="20">
+        <v>5.9268999999999998</v>
+      </c>
+      <c r="O80" s="20">
+        <v>5.7465000000000002</v>
+      </c>
+      <c r="P80" s="20">
+        <v>5.2965999999999998</v>
+      </c>
+      <c r="Q80" s="20">
+        <v>1.8612</v>
+      </c>
+      <c r="R80" s="20">
+        <v>4.8491999999999997</v>
+      </c>
+      <c r="S80" s="20">
+        <v>9.7789000000000001</v>
+      </c>
+      <c r="T80" s="20">
+        <v>7.8757999999999999</v>
+      </c>
+      <c r="U80" s="21">
+        <v>6.3487999999999998</v>
+      </c>
+      <c r="V80" s="19">
+        <v>7.1085000000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="6"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="6"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="6"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="6"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="6"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="6"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="6"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="6"/>
     </row>
   </sheetData>
@@ -11285,18 +11409,18 @@
   <dimension ref="B1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="50.6640625" customWidth="1"/>
-    <col min="3" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="3" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="56" t="s">
         <v>13</v>
       </c>
@@ -11308,7 +11432,7 @@
       <c r="H2" s="57"/>
       <c r="I2" s="58"/>
     </row>
-    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="23" t="s">
         <v>14</v>
       </c>
@@ -11324,7 +11448,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="23" t="s">
         <v>17</v>
       </c>
@@ -11342,55 +11466,55 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="26"/>
       <c r="C5" s="27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I5" s="28"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="30">
-        <v>5.6074000000000002</v>
+        <v>6.0162000000000004</v>
       </c>
       <c r="D6" s="30">
-        <v>6.0162000000000004</v>
+        <v>5.3712999999999997</v>
       </c>
       <c r="E6" s="30">
-        <v>5.3712999999999997</v>
+        <v>5.3951000000000002</v>
       </c>
       <c r="F6" s="30">
-        <v>5.3951000000000002</v>
+        <v>6.3879000000000001</v>
       </c>
       <c r="G6" s="30">
-        <v>6.3879000000000001</v>
+        <v>6.8745000000000003</v>
       </c>
       <c r="H6" s="30">
-        <v>6.8745000000000003</v>
+        <v>6.6966000000000001</v>
       </c>
       <c r="I6" s="31">
-        <v>102.5008</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>104.29649999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="60" t="s">
         <v>7</v>
       </c>
@@ -11402,163 +11526,163 @@
       <c r="H7" s="61"/>
       <c r="I7" s="62"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="35">
-        <v>5.3240999999999996</v>
+        <v>6.1787000000000001</v>
       </c>
       <c r="D8" s="35">
-        <v>6.1787000000000001</v>
+        <v>5.6711</v>
       </c>
       <c r="E8" s="35">
-        <v>5.6711</v>
+        <v>5.6646000000000001</v>
       </c>
       <c r="F8" s="35">
-        <v>5.6646000000000001</v>
+        <v>6.44</v>
       </c>
       <c r="G8" s="35">
-        <v>6.44</v>
+        <v>7.0758000000000001</v>
       </c>
       <c r="H8" s="35">
-        <v>7.0758000000000001</v>
+        <v>6.5163000000000002</v>
       </c>
       <c r="I8" s="36">
-        <v>103.06100000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+        <v>105.2521</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="34" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="35">
-        <v>5.7747999999999999</v>
+        <v>5.8380999999999998</v>
       </c>
       <c r="D9" s="35">
-        <v>5.8380999999999998</v>
+        <v>5.2130999999999998</v>
       </c>
       <c r="E9" s="35">
-        <v>5.2130999999999998</v>
+        <v>5.2676999999999996</v>
       </c>
       <c r="F9" s="35">
-        <v>5.2676999999999996</v>
+        <v>6.3150000000000004</v>
       </c>
       <c r="G9" s="35">
-        <v>6.3150000000000004</v>
+        <v>6.4721000000000002</v>
       </c>
       <c r="H9" s="35">
-        <v>6.4721000000000002</v>
+        <v>6.9653999999999998</v>
       </c>
       <c r="I9" s="36">
-        <v>101.53959999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+        <v>103.79600000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="34" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="35">
-        <v>5.7043999999999997</v>
+        <v>6.0378999999999996</v>
       </c>
       <c r="D10" s="35">
-        <v>6.0378999999999996</v>
+        <v>4.9474999999999998</v>
       </c>
       <c r="E10" s="35">
-        <v>4.9474999999999998</v>
+        <v>4.84</v>
       </c>
       <c r="F10" s="35">
-        <v>4.84</v>
+        <v>6.5021000000000004</v>
       </c>
       <c r="G10" s="35">
-        <v>6.5021000000000004</v>
+        <v>7.4730999999999996</v>
       </c>
       <c r="H10" s="35">
-        <v>7.4730999999999996</v>
+        <v>6.5368000000000004</v>
       </c>
       <c r="I10" s="36">
-        <v>104.0699</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+        <v>105.1632</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="35">
-        <v>6.2953000000000001</v>
+        <v>5.8413000000000004</v>
       </c>
       <c r="D11" s="35">
-        <v>5.8413000000000004</v>
+        <v>4.8373999999999997</v>
       </c>
       <c r="E11" s="35">
-        <v>4.8373999999999997</v>
+        <v>4.5907</v>
       </c>
       <c r="F11" s="35">
-        <v>4.5907</v>
+        <v>6.1242000000000001</v>
       </c>
       <c r="G11" s="35">
-        <v>6.1242000000000001</v>
+        <v>7.8574999999999999</v>
       </c>
       <c r="H11" s="35">
-        <v>7.8574999999999999</v>
+        <v>5.9225000000000003</v>
       </c>
       <c r="I11" s="36">
-        <v>105.53</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+        <v>103.6131</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="34" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="35">
-        <v>5.5060000000000002</v>
+        <v>5.9329999999999998</v>
       </c>
       <c r="D12" s="35">
-        <v>5.9329999999999998</v>
+        <v>5.2717999999999998</v>
       </c>
       <c r="E12" s="35">
-        <v>5.2717999999999998</v>
+        <v>5.2243000000000004</v>
       </c>
       <c r="F12" s="35">
-        <v>5.2243000000000004</v>
+        <v>6.6243999999999996</v>
       </c>
       <c r="G12" s="35">
-        <v>6.6243999999999996</v>
+        <v>6.6841999999999997</v>
       </c>
       <c r="H12" s="35">
-        <v>6.6841999999999997</v>
+        <v>7.2294</v>
       </c>
       <c r="I12" s="36">
-        <v>101.1528</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+        <v>103.15819999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="35">
-        <v>5.6276999999999999</v>
+        <v>6.2239000000000004</v>
       </c>
       <c r="D13" s="35">
-        <v>6.2239000000000004</v>
+        <v>5.1504000000000003</v>
       </c>
       <c r="E13" s="35">
-        <v>5.1504000000000003</v>
+        <v>4.9001000000000001</v>
       </c>
       <c r="F13" s="35">
-        <v>4.9001000000000001</v>
+        <v>6.4839000000000002</v>
       </c>
       <c r="G13" s="35">
-        <v>6.4839000000000002</v>
+        <v>6.0327999999999999</v>
       </c>
       <c r="H13" s="35">
-        <v>6.0327999999999999</v>
+        <v>6.3354999999999997</v>
       </c>
       <c r="I13" s="36">
-        <v>100.2931</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+        <v>99.410399999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="34"/>
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
@@ -11568,7 +11692,7 @@
       <c r="H14" s="35"/>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="60" t="s">
         <v>9</v>
       </c>
@@ -11580,319 +11704,319 @@
       <c r="H15" s="61"/>
       <c r="I15" s="62"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="34" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="35">
-        <v>6.0106999999999999</v>
+        <v>5.4631999999999996</v>
       </c>
       <c r="D16" s="35">
-        <v>5.4631999999999996</v>
+        <v>4.4165999999999999</v>
       </c>
       <c r="E16" s="35">
-        <v>4.4165999999999999</v>
+        <v>4.9176000000000002</v>
       </c>
       <c r="F16" s="35">
-        <v>4.9176000000000002</v>
+        <v>6.4752999999999998</v>
       </c>
       <c r="G16" s="35">
-        <v>6.4752999999999998</v>
+        <v>9.2695000000000007</v>
       </c>
       <c r="H16" s="35">
-        <v>9.2695000000000007</v>
+        <v>8.3716000000000008</v>
       </c>
       <c r="I16" s="36">
-        <v>102.6294</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+        <v>106.6007</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="34" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="35">
-        <v>7.4686000000000003</v>
+        <v>5.4751000000000003</v>
       </c>
       <c r="D17" s="35">
-        <v>5.4751000000000003</v>
+        <v>5.8773999999999997</v>
       </c>
       <c r="E17" s="35">
-        <v>5.8773999999999997</v>
+        <v>6.9817</v>
       </c>
       <c r="F17" s="35">
-        <v>6.9817</v>
+        <v>7.343</v>
       </c>
       <c r="G17" s="35">
-        <v>7.343</v>
+        <v>6.0644999999999998</v>
       </c>
       <c r="H17" s="35">
-        <v>6.0644999999999998</v>
+        <v>7.4588000000000001</v>
       </c>
       <c r="I17" s="36">
-        <v>108.35599999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+        <v>113.3531</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="34" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="35">
-        <v>7.6749999999999998</v>
+        <v>6.0621999999999998</v>
       </c>
       <c r="D18" s="35">
-        <v>6.0621999999999998</v>
+        <v>5.7066999999999997</v>
       </c>
       <c r="E18" s="35">
-        <v>5.7066999999999997</v>
+        <v>5.1325000000000003</v>
       </c>
       <c r="F18" s="35">
-        <v>5.1325000000000003</v>
+        <v>5.6144999999999996</v>
       </c>
       <c r="G18" s="35">
-        <v>5.6144999999999996</v>
+        <v>6.1641000000000004</v>
       </c>
       <c r="H18" s="35">
-        <v>6.1641000000000004</v>
+        <v>5.4968000000000004</v>
       </c>
       <c r="I18" s="36">
-        <v>121.6878</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+        <v>118.81699999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="34" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="35">
-        <v>3.1425000000000001</v>
+        <v>7.4356999999999998</v>
       </c>
       <c r="D19" s="35">
-        <v>7.4356999999999998</v>
+        <v>8.5505999999999993</v>
       </c>
       <c r="E19" s="35">
-        <v>8.5505999999999993</v>
+        <v>4.1905000000000001</v>
       </c>
       <c r="F19" s="35">
-        <v>4.1905000000000001</v>
+        <v>8.0393000000000008</v>
       </c>
       <c r="G19" s="35">
-        <v>8.0393000000000008</v>
+        <v>4.8117999999999999</v>
       </c>
       <c r="H19" s="35">
-        <v>4.8117999999999999</v>
+        <v>6.5286999999999997</v>
       </c>
       <c r="I19" s="36">
-        <v>95.168800000000005</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+        <v>93.095100000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="34" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="35">
-        <v>5.3665000000000003</v>
+        <v>4.7545000000000002</v>
       </c>
       <c r="D20" s="35">
-        <v>4.7545000000000002</v>
+        <v>5.7183999999999999</v>
       </c>
       <c r="E20" s="35">
-        <v>5.7183999999999999</v>
+        <v>6.1665999999999999</v>
       </c>
       <c r="F20" s="35">
-        <v>6.1665999999999999</v>
+        <v>6.1939000000000002</v>
       </c>
       <c r="G20" s="35">
-        <v>6.1939000000000002</v>
+        <v>5.2991999999999999</v>
       </c>
       <c r="H20" s="35">
-        <v>5.2991999999999999</v>
+        <v>5.9268999999999998</v>
       </c>
       <c r="I20" s="36">
-        <v>102.42700000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+        <v>105.1807</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="34" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="35">
-        <v>4.2996999999999996</v>
+        <v>7.0723000000000003</v>
       </c>
       <c r="D21" s="35">
-        <v>7.0723000000000003</v>
+        <v>4.1085000000000003</v>
       </c>
       <c r="E21" s="35">
-        <v>4.1085000000000003</v>
+        <v>5.6837</v>
       </c>
       <c r="F21" s="35">
-        <v>5.6837</v>
+        <v>4.9309000000000003</v>
       </c>
       <c r="G21" s="35">
-        <v>4.9309000000000003</v>
+        <v>5.3381999999999996</v>
       </c>
       <c r="H21" s="35">
-        <v>5.3381999999999996</v>
+        <v>5.7465000000000002</v>
       </c>
       <c r="I21" s="36">
-        <v>95.441599999999994</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+        <v>96.869900000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="34" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="35">
-        <v>5.7956000000000003</v>
+        <v>4.4977999999999998</v>
       </c>
       <c r="D22" s="35">
-        <v>4.4977999999999998</v>
+        <v>6.0602</v>
       </c>
       <c r="E22" s="35">
-        <v>6.0602</v>
+        <v>5.7976000000000001</v>
       </c>
       <c r="F22" s="35">
-        <v>5.7976000000000001</v>
+        <v>5.9306999999999999</v>
       </c>
       <c r="G22" s="35">
-        <v>5.9306999999999999</v>
+        <v>4.8672000000000004</v>
       </c>
       <c r="H22" s="35">
-        <v>4.8672000000000004</v>
+        <v>5.2965999999999998</v>
       </c>
       <c r="I22" s="36">
-        <v>91.821399999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+        <v>91.511700000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="34" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="35">
-        <v>2.5419999999999998</v>
+        <v>11.8863</v>
       </c>
       <c r="D23" s="35">
-        <v>11.8863</v>
+        <v>6.1618000000000004</v>
       </c>
       <c r="E23" s="35">
-        <v>6.1618000000000004</v>
+        <v>2.7271999999999998</v>
       </c>
       <c r="F23" s="35">
-        <v>2.7271999999999998</v>
+        <v>7.0328999999999997</v>
       </c>
       <c r="G23" s="35">
-        <v>7.0328999999999997</v>
+        <v>7.8673999999999999</v>
       </c>
       <c r="H23" s="35">
-        <v>7.8673999999999999</v>
+        <v>1.8612</v>
       </c>
       <c r="I23" s="36">
-        <v>79.180099999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+        <v>76.532200000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="34" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="35">
-        <v>5.1729000000000003</v>
+        <v>5.3038999999999996</v>
       </c>
       <c r="D24" s="35">
-        <v>5.3038999999999996</v>
+        <v>4.5156999999999998</v>
       </c>
       <c r="E24" s="35">
-        <v>4.5156999999999998</v>
+        <v>4.7126999999999999</v>
       </c>
       <c r="F24" s="35">
-        <v>4.7126999999999999</v>
+        <v>8.6866000000000003</v>
       </c>
       <c r="G24" s="35">
-        <v>8.6866000000000003</v>
+        <v>7.0808999999999997</v>
       </c>
       <c r="H24" s="35">
-        <v>7.0808999999999997</v>
+        <v>4.8491999999999997</v>
       </c>
       <c r="I24" s="36">
-        <v>98.779899999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+        <v>100.8019</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="34" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="35">
-        <v>5.577</v>
+        <v>7.6993999999999998</v>
       </c>
       <c r="D25" s="35">
-        <v>7.6993999999999998</v>
+        <v>6.2115</v>
       </c>
       <c r="E25" s="35">
-        <v>6.2115</v>
+        <v>6.3776000000000002</v>
       </c>
       <c r="F25" s="35">
-        <v>6.3776000000000002</v>
+        <v>4.3446999999999996</v>
       </c>
       <c r="G25" s="35">
-        <v>4.3446999999999996</v>
+        <v>4.3636999999999997</v>
       </c>
       <c r="H25" s="35">
-        <v>4.3636999999999997</v>
+        <v>9.7789000000000001</v>
       </c>
       <c r="I25" s="36">
-        <v>87.766499999999994</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+        <v>96.043899999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="34" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="35">
-        <v>4.8929999999999998</v>
+        <v>7.4702999999999999</v>
       </c>
       <c r="D26" s="35">
-        <v>7.4702999999999999</v>
+        <v>5.5827</v>
       </c>
       <c r="E26" s="35">
-        <v>5.5827</v>
+        <v>7.1211000000000002</v>
       </c>
       <c r="F26" s="35">
-        <v>7.1211000000000002</v>
+        <v>6.0919999999999996</v>
       </c>
       <c r="G26" s="35">
-        <v>6.0919999999999996</v>
+        <v>7.5350000000000001</v>
       </c>
       <c r="H26" s="35">
-        <v>7.5350000000000001</v>
+        <v>7.8757999999999999</v>
       </c>
       <c r="I26" s="36">
-        <v>116.3807</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+        <v>121.3977</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="34" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="35">
-        <v>6.7153999999999998</v>
+        <v>6.0991999999999997</v>
       </c>
       <c r="D27" s="35">
-        <v>6.0991999999999997</v>
+        <v>5.8094000000000001</v>
       </c>
       <c r="E27" s="35">
-        <v>5.8094000000000001</v>
+        <v>5.7651000000000003</v>
       </c>
       <c r="F27" s="35">
-        <v>5.7651000000000003</v>
+        <v>6.8654000000000002</v>
       </c>
       <c r="G27" s="35">
-        <v>6.8654000000000002</v>
+        <v>6.5246000000000004</v>
       </c>
       <c r="H27" s="35">
-        <v>6.5246000000000004</v>
+        <v>6.3487999999999998</v>
       </c>
       <c r="I27" s="36">
-        <v>106.77079999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+        <v>108.3177</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="34"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
@@ -11902,7 +12026,7 @@
       <c r="H28" s="35"/>
       <c r="I28" s="36"/>
     </row>
-    <row r="29" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="60" t="s">
         <v>33</v>
       </c>
@@ -11914,189 +12038,189 @@
       <c r="H29" s="61"/>
       <c r="I29" s="62"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="34" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="35">
-        <v>6.0476000000000001</v>
+        <v>5.7809999999999997</v>
       </c>
       <c r="D30" s="35">
-        <v>5.7809999999999997</v>
+        <v>5.0435999999999996</v>
       </c>
       <c r="E30" s="35">
-        <v>5.0435999999999996</v>
+        <v>5.4454000000000002</v>
       </c>
       <c r="F30" s="35">
-        <v>5.4454000000000002</v>
+        <v>6.5185000000000004</v>
       </c>
       <c r="G30" s="35">
-        <v>6.5185000000000004</v>
+        <v>7.6337000000000002</v>
       </c>
       <c r="H30" s="35">
-        <v>7.6337000000000002</v>
+        <v>7.1085000000000003</v>
       </c>
       <c r="I30" s="36">
-        <v>107.2987</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+        <v>109.9532</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="34" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="35">
-        <v>5.7502000000000004</v>
+        <v>5.9177999999999997</v>
       </c>
       <c r="D31" s="35">
-        <v>5.9177999999999997</v>
+        <v>5.1605999999999996</v>
       </c>
       <c r="E31" s="35">
-        <v>5.1605999999999996</v>
+        <v>5.9950999999999999</v>
       </c>
       <c r="F31" s="35">
-        <v>5.9950999999999999</v>
+        <v>6.4762000000000004</v>
       </c>
       <c r="G31" s="35">
-        <v>6.4762000000000004</v>
+        <v>8.0284999999999993</v>
       </c>
       <c r="H31" s="35">
-        <v>8.0284999999999993</v>
+        <v>6.9374000000000002</v>
       </c>
       <c r="I31" s="36">
-        <v>108.2632</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+        <v>111.6272</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="34" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="35">
-        <v>6.3601000000000001</v>
+        <v>5.5902000000000003</v>
       </c>
       <c r="D32" s="35">
-        <v>5.5902000000000003</v>
+        <v>4.9898999999999996</v>
       </c>
       <c r="E32" s="35">
-        <v>4.9898999999999996</v>
+        <v>5.1825999999999999</v>
       </c>
       <c r="F32" s="35">
-        <v>5.1825999999999999</v>
+        <v>6.4391999999999996</v>
       </c>
       <c r="G32" s="35">
-        <v>6.4391999999999996</v>
+        <v>6.9863999999999997</v>
       </c>
       <c r="H32" s="35">
-        <v>6.9863999999999997</v>
+        <v>7.4512</v>
       </c>
       <c r="I32" s="36">
-        <v>105.8998</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+        <v>108.7214</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="34" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="35">
-        <v>5.9329999999999998</v>
+        <v>5.8052000000000001</v>
       </c>
       <c r="D33" s="35">
-        <v>5.8052000000000001</v>
+        <v>4.8489000000000004</v>
       </c>
       <c r="E33" s="35">
-        <v>4.8489000000000004</v>
+        <v>4.7891000000000004</v>
       </c>
       <c r="F33" s="35">
-        <v>4.7891000000000004</v>
+        <v>6.9020000000000001</v>
       </c>
       <c r="G33" s="35">
-        <v>6.9020000000000001</v>
+        <v>8.3892000000000007</v>
       </c>
       <c r="H33" s="35">
-        <v>8.3892000000000007</v>
+        <v>6.6454000000000004</v>
       </c>
       <c r="I33" s="36">
-        <v>108.4096</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+        <v>109.2803</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="34" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="35">
-        <v>6.3461999999999996</v>
+        <v>5.5198</v>
       </c>
       <c r="D34" s="35">
-        <v>5.5198</v>
+        <v>4.6200999999999999</v>
       </c>
       <c r="E34" s="35">
-        <v>4.6200999999999999</v>
+        <v>4.3894000000000002</v>
       </c>
       <c r="F34" s="35">
-        <v>4.3894000000000002</v>
+        <v>6.7960000000000003</v>
       </c>
       <c r="G34" s="35">
-        <v>6.7960000000000003</v>
+        <v>8.3916000000000004</v>
       </c>
       <c r="H34" s="35">
-        <v>8.3916000000000004</v>
+        <v>6.2601000000000004</v>
       </c>
       <c r="I34" s="36">
-        <v>107.61190000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+        <v>107.64870000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="34" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="35">
-        <v>6.2558999999999996</v>
+        <v>5.5930999999999997</v>
       </c>
       <c r="D35" s="35">
-        <v>5.5930999999999997</v>
+        <v>5.1509999999999998</v>
       </c>
       <c r="E35" s="35">
-        <v>5.1509999999999998</v>
+        <v>4.7441000000000004</v>
       </c>
       <c r="F35" s="35">
-        <v>4.7441000000000004</v>
+        <v>6.6276000000000002</v>
       </c>
       <c r="G35" s="35">
-        <v>6.6276000000000002</v>
+        <v>7.5472000000000001</v>
       </c>
       <c r="H35" s="35">
-        <v>7.5472000000000001</v>
+        <v>7.9461000000000004</v>
       </c>
       <c r="I35" s="36">
-        <v>105.8922</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>108.6953</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="37" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="38">
-        <v>6.2561999999999998</v>
+        <v>6.3510999999999997</v>
       </c>
       <c r="D36" s="38">
-        <v>6.3510999999999997</v>
+        <v>4.9023000000000003</v>
       </c>
       <c r="E36" s="38">
-        <v>4.9023000000000003</v>
+        <v>4.8982999999999999</v>
       </c>
       <c r="F36" s="38">
-        <v>4.8982999999999999</v>
+        <v>6.5438999999999998</v>
       </c>
       <c r="G36" s="38">
-        <v>6.5438999999999998</v>
+        <v>6.7431000000000001</v>
       </c>
       <c r="H36" s="38">
-        <v>6.7431000000000001</v>
+        <v>6.8400999999999996</v>
       </c>
       <c r="I36" s="39">
-        <v>107.9957</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>107.57</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="55" t="s">
         <v>35</v>
       </c>
@@ -12108,7 +12232,7 @@
       <c r="H37" s="55"/>
       <c r="I37" s="55"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -12118,7 +12242,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -12148,17 +12272,17 @@
   <dimension ref="B1:I33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="50.6640625" customWidth="1"/>
-    <col min="3" max="9" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="3" max="9" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="56" t="s">
         <v>36</v>
       </c>
@@ -12170,7 +12294,7 @@
       <c r="H2" s="64"/>
       <c r="I2" s="65"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="40"/>
       <c r="C3" s="41" t="s">
         <v>20</v>
@@ -12194,7 +12318,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="32" t="s">
         <v>37</v>
       </c>
@@ -12206,345 +12330,345 @@
       <c r="H4" s="49"/>
       <c r="I4" s="33"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="43" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="44">
-        <v>7.0758000000000001</v>
+        <v>6.5163000000000002</v>
       </c>
       <c r="D5" s="44">
-        <v>6.4721000000000002</v>
+        <v>6.9653999999999998</v>
       </c>
       <c r="E5" s="44">
-        <v>7.4730999999999996</v>
+        <v>6.5368000000000004</v>
       </c>
       <c r="F5" s="44">
-        <v>7.8574999999999999</v>
+        <v>5.9225000000000003</v>
       </c>
       <c r="G5" s="44">
-        <v>6.6841999999999997</v>
+        <v>7.2294</v>
       </c>
       <c r="H5" s="44">
-        <v>6.0327999999999999</v>
+        <v>6.3354999999999997</v>
       </c>
       <c r="I5" s="45">
-        <v>6.8640999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+        <v>6.6731999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="34" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="35">
-        <v>2.3889999999999998</v>
+        <v>2.2565</v>
       </c>
       <c r="D6" s="35">
-        <v>2.6219000000000001</v>
+        <v>2.5988000000000002</v>
       </c>
       <c r="E6" s="35">
-        <v>3.5844999999999998</v>
+        <v>2.5628000000000002</v>
       </c>
       <c r="F6" s="35">
-        <v>3.5489999999999999</v>
+        <v>2.3820999999999999</v>
       </c>
       <c r="G6" s="35">
-        <v>2.9447999999999999</v>
+        <v>2.5036</v>
       </c>
       <c r="H6" s="35">
-        <v>2.2404999999999999</v>
+        <v>2.0935999999999999</v>
       </c>
       <c r="I6" s="36">
-        <v>2.6252</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+        <v>2.4056000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="34" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="35">
-        <v>0.17399999999999999</v>
+        <v>0.19980000000000001</v>
       </c>
       <c r="D7" s="35">
-        <v>0.18559999999999999</v>
+        <v>0.22850000000000001</v>
       </c>
       <c r="E7" s="35">
-        <v>0.14080000000000001</v>
+        <v>0.20330000000000001</v>
       </c>
       <c r="F7" s="35">
-        <v>0.217</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="G7" s="35">
-        <v>0.16839999999999999</v>
+        <v>0.21970000000000001</v>
       </c>
       <c r="H7" s="35">
-        <v>0.1517</v>
+        <v>0.2319</v>
       </c>
       <c r="I7" s="36">
-        <v>0.17630000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.21529999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="35">
-        <v>0.78110000000000002</v>
+        <v>0.44280000000000003</v>
       </c>
       <c r="D8" s="35">
-        <v>0.60719999999999996</v>
+        <v>0.84040000000000004</v>
       </c>
       <c r="E8" s="35">
-        <v>0.81659999999999999</v>
+        <v>0.71930000000000005</v>
       </c>
       <c r="F8" s="35">
-        <v>0.7339</v>
+        <v>0.66910000000000003</v>
       </c>
       <c r="G8" s="35">
-        <v>0.45500000000000002</v>
+        <v>0.90269999999999995</v>
       </c>
       <c r="H8" s="35">
-        <v>0.90390000000000004</v>
+        <v>0.94689999999999996</v>
       </c>
       <c r="I8" s="36">
-        <v>0.7107</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.65480000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="34" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="35">
-        <v>0.37509999999999999</v>
+        <v>0.49630000000000002</v>
       </c>
       <c r="D9" s="35">
-        <v>0.3518</v>
+        <v>0.46929999999999999</v>
       </c>
       <c r="E9" s="35">
-        <v>0.1797</v>
+        <v>0.31</v>
       </c>
       <c r="F9" s="35">
-        <v>0.36199999999999999</v>
+        <v>0.37740000000000001</v>
       </c>
       <c r="G9" s="35">
-        <v>0.32990000000000003</v>
+        <v>0.48720000000000002</v>
       </c>
       <c r="H9" s="35">
-        <v>0.31269999999999998</v>
+        <v>0.3448</v>
       </c>
       <c r="I9" s="36">
-        <v>0.34789999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.46150000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="34" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="35">
-        <v>0.35930000000000001</v>
+        <v>0.38419999999999999</v>
       </c>
       <c r="D10" s="35">
-        <v>0.28870000000000001</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="E10" s="35">
-        <v>0.31430000000000002</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="F10" s="35">
-        <v>0.56869999999999998</v>
+        <v>0.47949999999999998</v>
       </c>
       <c r="G10" s="35">
-        <v>0.31619999999999998</v>
+        <v>0.35680000000000001</v>
       </c>
       <c r="H10" s="35">
-        <v>0.37940000000000002</v>
+        <v>0.33879999999999999</v>
       </c>
       <c r="I10" s="36">
-        <v>0.3402</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.37340000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="35">
-        <v>0.4904</v>
+        <v>0.49640000000000001</v>
       </c>
       <c r="D11" s="35">
-        <v>0.48659999999999998</v>
+        <v>0.52580000000000005</v>
       </c>
       <c r="E11" s="35">
-        <v>0.35270000000000001</v>
+        <v>0.37640000000000001</v>
       </c>
       <c r="F11" s="35">
-        <v>0.26440000000000002</v>
+        <v>0.31809999999999999</v>
       </c>
       <c r="G11" s="35">
-        <v>0.4345</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="H11" s="35">
-        <v>0.29210000000000003</v>
+        <v>0.35670000000000002</v>
       </c>
       <c r="I11" s="36">
-        <v>0.45750000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.48209999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="34" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="35">
-        <v>0.50670000000000004</v>
+        <v>0.63060000000000005</v>
       </c>
       <c r="D12" s="35">
-        <v>0.55840000000000001</v>
+        <v>0.5716</v>
       </c>
       <c r="E12" s="35">
-        <v>0.44479999999999997</v>
+        <v>0.43109999999999998</v>
       </c>
       <c r="F12" s="35">
-        <v>0.76</v>
+        <v>0.5403</v>
       </c>
       <c r="G12" s="35">
-        <v>0.68330000000000002</v>
+        <v>0.60429999999999995</v>
       </c>
       <c r="H12" s="35">
-        <v>0.78700000000000003</v>
+        <v>0.74250000000000005</v>
       </c>
       <c r="I12" s="36">
-        <v>0.55349999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.59640000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="34" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="35">
-        <v>0.1638</v>
+        <v>3.6200000000000003E-2</v>
       </c>
       <c r="D13" s="35">
-        <v>0.18779999999999999</v>
+        <v>3.85E-2</v>
       </c>
       <c r="E13" s="35">
-        <v>0.1298</v>
+        <v>6.1600000000000002E-2</v>
       </c>
       <c r="F13" s="35">
-        <v>0.1835</v>
+        <v>2.6200000000000001E-2</v>
       </c>
       <c r="G13" s="35">
-        <v>0.1022</v>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="H13" s="35">
-        <v>9.2999999999999999E-2</v>
+        <v>4.1500000000000002E-2</v>
       </c>
       <c r="I13" s="36">
-        <v>0.1641</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+        <v>3.8899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="34" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="35">
-        <v>0.53239999999999998</v>
+        <v>0.31819999999999998</v>
       </c>
       <c r="D14" s="35">
-        <v>0.42670000000000002</v>
+        <v>0.30480000000000002</v>
       </c>
       <c r="E14" s="35">
-        <v>0.63229999999999997</v>
+        <v>0.29120000000000001</v>
       </c>
       <c r="F14" s="35">
-        <v>0.39269999999999999</v>
+        <v>0.28739999999999999</v>
       </c>
       <c r="G14" s="35">
-        <v>0.32129999999999997</v>
+        <v>0.4929</v>
       </c>
       <c r="H14" s="35">
-        <v>0.32969999999999999</v>
+        <v>0.50329999999999997</v>
       </c>
       <c r="I14" s="36">
-        <v>0.47660000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.32790000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="34" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="35">
-        <v>0.17180000000000001</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="D15" s="35">
-        <v>9.4000000000000004E-3</v>
+        <v>0.13239999999999999</v>
       </c>
       <c r="E15" s="35">
-        <v>5.8099999999999999E-2</v>
+        <v>0.31819999999999998</v>
       </c>
       <c r="F15" s="35">
-        <v>0.1234</v>
+        <v>3.9199999999999999E-2</v>
       </c>
       <c r="G15" s="35">
-        <v>3.9399999999999998E-2</v>
+        <v>0.2228</v>
       </c>
       <c r="H15" s="35">
-        <v>5.3400000000000003E-2</v>
+        <v>0.26019999999999999</v>
       </c>
       <c r="I15" s="36">
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.1714</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="34" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="35">
-        <v>0.90659999999999996</v>
+        <v>0.88080000000000003</v>
       </c>
       <c r="D16" s="35">
-        <v>0.55730000000000002</v>
+        <v>0.69320000000000004</v>
       </c>
       <c r="E16" s="35">
-        <v>0.65380000000000005</v>
+        <v>0.71440000000000003</v>
       </c>
       <c r="F16" s="35">
-        <v>0.49130000000000001</v>
+        <v>0.3725</v>
       </c>
       <c r="G16" s="35">
-        <v>0.70689999999999997</v>
+        <v>0.75990000000000002</v>
       </c>
       <c r="H16" s="35">
-        <v>0.3528</v>
+        <v>0.30180000000000001</v>
       </c>
       <c r="I16" s="36">
-        <v>0.71540000000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.74960000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="34" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="35">
-        <v>0.22570000000000001</v>
+        <v>0.19750000000000001</v>
       </c>
       <c r="D17" s="35">
-        <v>0.19070000000000001</v>
+        <v>0.2082</v>
       </c>
       <c r="E17" s="35">
+        <v>0.18229999999999999</v>
+      </c>
+      <c r="F17" s="35">
         <v>0.16569999999999999</v>
       </c>
-      <c r="F17" s="35">
-        <v>0.2117</v>
-      </c>
       <c r="G17" s="35">
-        <v>0.18229999999999999</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="H17" s="35">
-        <v>0.1366</v>
+        <v>0.1736</v>
       </c>
       <c r="I17" s="36">
-        <v>0.2026</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.1963</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="46"/>
       <c r="C18" s="47"/>
       <c r="D18" s="47"/>
@@ -12554,7 +12678,7 @@
       <c r="H18" s="47"/>
       <c r="I18" s="48"/>
     </row>
-    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="60" t="s">
         <v>37</v>
       </c>
@@ -12566,345 +12690,345 @@
       <c r="H19" s="61"/>
       <c r="I19" s="62"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="43" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="44">
-        <v>103.06100000000001</v>
+        <v>105.2521</v>
       </c>
       <c r="D20" s="44">
-        <v>101.53959999999999</v>
+        <v>103.79600000000001</v>
       </c>
       <c r="E20" s="44">
-        <v>104.0699</v>
+        <v>105.1632</v>
       </c>
       <c r="F20" s="44">
-        <v>105.53</v>
+        <v>103.6131</v>
       </c>
       <c r="G20" s="44">
-        <v>101.1528</v>
+        <v>103.15819999999999</v>
       </c>
       <c r="H20" s="44">
-        <v>100.2931</v>
+        <v>99.410399999999996</v>
       </c>
       <c r="I20" s="45">
-        <v>102.49720000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+        <v>104.3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="34" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="35">
-        <v>26.6021</v>
+        <v>28.22</v>
       </c>
       <c r="D21" s="35">
-        <v>31.3491</v>
+        <v>32.720700000000001</v>
       </c>
       <c r="E21" s="35">
-        <v>38.153599999999997</v>
+        <v>38.576799999999999</v>
       </c>
       <c r="F21" s="35">
-        <v>40.144300000000001</v>
+        <v>39.703499999999998</v>
       </c>
       <c r="G21" s="35">
-        <v>31.273499999999999</v>
+        <v>32.156599999999997</v>
       </c>
       <c r="H21" s="35">
-        <v>29.031500000000001</v>
+        <v>29.063500000000001</v>
       </c>
       <c r="I21" s="36">
-        <v>29.983599999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31.2317</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="34" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="35">
-        <v>2.9323999999999999</v>
+        <v>3.0310999999999999</v>
       </c>
       <c r="D22" s="35">
-        <v>3.3090999999999999</v>
+        <v>3.4264000000000001</v>
       </c>
       <c r="E22" s="35">
-        <v>2.6476000000000002</v>
+        <v>2.7812000000000001</v>
       </c>
       <c r="F22" s="35">
-        <v>3.3755999999999999</v>
+        <v>3.5348999999999999</v>
       </c>
       <c r="G22" s="35">
-        <v>2.9390000000000001</v>
+        <v>3.0623999999999998</v>
       </c>
       <c r="H22" s="35">
-        <v>2.9582000000000002</v>
+        <v>3.06</v>
       </c>
       <c r="I22" s="36">
-        <v>3.0630999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+        <v>3.1747000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="34" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="35">
-        <v>11.410600000000001</v>
+        <v>11.5908</v>
       </c>
       <c r="D23" s="35">
-        <v>12.7933</v>
+        <v>13.122299999999999</v>
       </c>
       <c r="E23" s="35">
-        <v>14.902200000000001</v>
+        <v>14.6724</v>
       </c>
       <c r="F23" s="35">
-        <v>12.9529</v>
+        <v>12.5694</v>
       </c>
       <c r="G23" s="35">
-        <v>12.5116</v>
+        <v>12.7194</v>
       </c>
       <c r="H23" s="35">
-        <v>15.309200000000001</v>
+        <v>15.2401</v>
       </c>
       <c r="I23" s="36">
-        <v>12.4283</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+        <v>12.595800000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="34" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="35">
-        <v>8.0807000000000002</v>
+        <v>7.8925999999999998</v>
       </c>
       <c r="D24" s="35">
-        <v>5.843</v>
+        <v>5.9927999999999999</v>
       </c>
       <c r="E24" s="35">
-        <v>6.1013999999999999</v>
+        <v>5.9920999999999998</v>
       </c>
       <c r="F24" s="35">
-        <v>7.7706999999999997</v>
+        <v>7.0260999999999996</v>
       </c>
       <c r="G24" s="35">
-        <v>6.3654999999999999</v>
+        <v>6.4389000000000003</v>
       </c>
       <c r="H24" s="35">
-        <v>7.3506</v>
+        <v>6.7515000000000001</v>
       </c>
       <c r="I24" s="36">
-        <v>7.0433000000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+        <v>6.9458000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="34" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="35">
-        <v>6.5555000000000003</v>
+        <v>6.6069000000000004</v>
       </c>
       <c r="D25" s="35">
-        <v>6.2948000000000004</v>
+        <v>6.3127000000000004</v>
       </c>
       <c r="E25" s="35">
-        <v>5.9301000000000004</v>
+        <v>6.0208000000000004</v>
       </c>
       <c r="F25" s="35">
-        <v>7.9691999999999998</v>
+        <v>7.9772999999999996</v>
       </c>
       <c r="G25" s="35">
-        <v>6.1970000000000001</v>
+        <v>6.1893000000000002</v>
       </c>
       <c r="H25" s="35">
-        <v>6.5674000000000001</v>
+        <v>6.4009</v>
       </c>
       <c r="I25" s="36">
-        <v>6.4691000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+        <v>6.4968000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="34" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="35">
-        <v>8.9832999999999998</v>
+        <v>8.8978000000000002</v>
       </c>
       <c r="D26" s="35">
-        <v>8.8444000000000003</v>
+        <v>8.9106000000000005</v>
       </c>
       <c r="E26" s="35">
-        <v>6.6561000000000003</v>
+        <v>6.6060999999999996</v>
       </c>
       <c r="F26" s="35">
-        <v>5.4383999999999997</v>
+        <v>5.423</v>
       </c>
       <c r="G26" s="35">
-        <v>8.0625</v>
+        <v>8.0876000000000001</v>
       </c>
       <c r="H26" s="35">
-        <v>5.0796000000000001</v>
+        <v>5.0868000000000002</v>
       </c>
       <c r="I26" s="36">
-        <v>8.3896999999999995</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+        <v>8.3717000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="34" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="35">
-        <v>10.491400000000001</v>
+        <v>10.4879</v>
       </c>
       <c r="D27" s="35">
-        <v>11.2094</v>
+        <v>10.9876</v>
       </c>
       <c r="E27" s="35">
-        <v>7.9588000000000001</v>
+        <v>7.7938000000000001</v>
       </c>
       <c r="F27" s="35">
-        <v>10.943099999999999</v>
+        <v>10.428100000000001</v>
       </c>
       <c r="G27" s="35">
-        <v>13.433400000000001</v>
+        <v>12.8589</v>
       </c>
       <c r="H27" s="35">
-        <v>15.072100000000001</v>
+        <v>14.632999999999999</v>
       </c>
       <c r="I27" s="36">
-        <v>10.944699999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+        <v>10.782999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="34" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="35">
-        <v>1.8759999999999999</v>
+        <v>1.7838000000000001</v>
       </c>
       <c r="D28" s="35">
-        <v>1.9776</v>
+        <v>1.8105</v>
       </c>
       <c r="E28" s="35">
-        <v>1.923</v>
+        <v>1.8291999999999999</v>
       </c>
       <c r="F28" s="35">
-        <v>1.9397</v>
+        <v>1.7682</v>
       </c>
       <c r="G28" s="35">
-        <v>1.6828000000000001</v>
+        <v>1.6182000000000001</v>
       </c>
       <c r="H28" s="35">
-        <v>2.0028999999999999</v>
+        <v>1.879</v>
       </c>
       <c r="I28" s="36">
-        <v>1.9126000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1.7910999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="34" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="35">
-        <v>7.3059000000000003</v>
+        <v>7.1631</v>
       </c>
       <c r="D29" s="35">
-        <v>6.7279999999999998</v>
+        <v>6.5955000000000004</v>
       </c>
       <c r="E29" s="35">
-        <v>6.1654</v>
+        <v>6.0910000000000002</v>
       </c>
       <c r="F29" s="35">
-        <v>5.4736000000000002</v>
+        <v>5.4958</v>
       </c>
       <c r="G29" s="35">
-        <v>5.9474</v>
+        <v>6.3117999999999999</v>
       </c>
       <c r="H29" s="35">
-        <v>6.9645999999999999</v>
+        <v>7.1021000000000001</v>
       </c>
       <c r="I29" s="36">
-        <v>6.8612000000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+        <v>6.7732000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="34" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="35">
-        <v>2.4845999999999999</v>
+        <v>2.964</v>
       </c>
       <c r="D30" s="35">
-        <v>1.0026999999999999</v>
+        <v>1.3008</v>
       </c>
       <c r="E30" s="35">
-        <v>0.94399999999999995</v>
+        <v>1.7156</v>
       </c>
       <c r="F30" s="35">
-        <v>0.77039999999999997</v>
+        <v>0.85519999999999996</v>
       </c>
       <c r="G30" s="35">
-        <v>1.2070000000000001</v>
+        <v>1.6335999999999999</v>
       </c>
       <c r="H30" s="35">
-        <v>1.0636000000000001</v>
+        <v>1.502</v>
       </c>
       <c r="I30" s="36">
-        <v>1.6635</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+        <v>2.0787</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="34" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="35">
-        <v>12.929500000000001</v>
+        <v>13.213100000000001</v>
       </c>
       <c r="D31" s="35">
-        <v>9.0404</v>
+        <v>9.4122000000000003</v>
       </c>
       <c r="E31" s="35">
-        <v>9.6254000000000008</v>
+        <v>9.9961000000000002</v>
       </c>
       <c r="F31" s="35">
-        <v>5.5792000000000002</v>
+        <v>5.7083000000000004</v>
       </c>
       <c r="G31" s="35">
-        <v>8.3429000000000002</v>
+        <v>8.9237000000000002</v>
       </c>
       <c r="H31" s="35">
-        <v>5.9832000000000001</v>
+        <v>5.8544999999999998</v>
       </c>
       <c r="I31" s="36">
-        <v>10.486000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>10.795299999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="37" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="38">
-        <v>3.4108999999999998</v>
+        <v>3.4036</v>
       </c>
       <c r="D32" s="38">
-        <v>3.1486000000000001</v>
+        <v>3.2042999999999999</v>
       </c>
       <c r="E32" s="38">
-        <v>3.0640999999999998</v>
+        <v>3.0895000000000001</v>
       </c>
       <c r="F32" s="38">
-        <v>3.1715</v>
+        <v>3.1219999999999999</v>
       </c>
       <c r="G32" s="38">
-        <v>3.1890999999999998</v>
+        <v>3.1576</v>
       </c>
       <c r="H32" s="38">
-        <v>2.9074</v>
+        <v>2.8342999999999998</v>
       </c>
       <c r="I32" s="39">
-        <v>3.2521</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3.2624</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="66" t="s">
         <v>39</v>
       </c>

--- a/assets/excel/IPCse - Series históricas.xlsx
+++ b/assets/excel/IPCse - Series históricas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fiona\Dropbox\MGR\IPC seasonal adjustment\IPCse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD435F5-5410-4497-8EB6-0D13486F5DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3953CB00-7288-4178-AFC5-52026B3CB3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" activeTab="1" xr2:uid="{A81B6F3A-9175-42CA-B78F-287A4E3C6249}"/>
   </bookViews>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>Año</t>
-  </si>
-  <si>
-    <t>Dic. 2022/Dic. 2021</t>
   </si>
   <si>
     <t>IPCse Nacional</t>
@@ -186,7 +183,7 @@
     <t>IPCse NACIONAL</t>
   </si>
   <si>
-    <t>Oct.</t>
+    <t>Abr. 2023/Abr. 2022</t>
   </si>
   <si>
     <t>Nov.</t>
@@ -203,6 +200,9 @@
   <si>
     <t>Mar.</t>
   </si>
+  <si>
+    <t>Abr.</t>
+  </si>
 </sst>
 </file>
 
@@ -211,7 +211,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +286,14 @@
     </font>
     <font>
       <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Nova"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Nova"/>
@@ -774,9 +782,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -888,6 +893,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1211,7 +1219,7 @@
       <selection activeCell="M1" sqref="M1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
-      <selection pane="bottomRight" activeCell="D80" sqref="D80"/>
+      <selection pane="bottomRight" activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1225,57 +1233,57 @@
   <sheetData>
     <row r="1" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
     </row>
     <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="50" t="s">
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="50"/>
       <c r="V3" s="9" t="s">
         <v>12</v>
       </c>
@@ -1285,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
@@ -1306,43 +1314,43 @@
         <v>6</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="U4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="U4" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="V4" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
@@ -6220,96 +6228,158 @@
         <v>1345.6905999999999</v>
       </c>
     </row>
-    <row r="80" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="15">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B80" s="14">
         <v>44986</v>
       </c>
-      <c r="C80" s="19">
+      <c r="C80" s="16">
         <v>1378.3166000000001</v>
       </c>
-      <c r="D80" s="20">
+      <c r="D80" s="17">
         <v>1354.2173</v>
       </c>
-      <c r="E80" s="20">
+      <c r="E80" s="17">
         <v>1388.5438999999999</v>
       </c>
-      <c r="F80" s="20">
+      <c r="F80" s="17">
         <v>1416.6144999999999</v>
       </c>
-      <c r="G80" s="20">
+      <c r="G80" s="17">
         <v>1434.2091</v>
       </c>
-      <c r="H80" s="20">
+      <c r="H80" s="17">
         <v>1431.1702</v>
       </c>
-      <c r="I80" s="21">
+      <c r="I80" s="18">
         <v>1336.9819</v>
       </c>
-      <c r="J80" s="20">
+      <c r="J80" s="17">
         <v>1505.3569</v>
       </c>
-      <c r="K80" s="20">
+      <c r="K80" s="17">
         <v>1150.2249999999999</v>
       </c>
-      <c r="L80" s="20">
+      <c r="L80" s="17">
         <v>1611.2483999999999</v>
       </c>
-      <c r="M80" s="20">
+      <c r="M80" s="17">
         <v>1038.1386</v>
       </c>
-      <c r="N80" s="20">
+      <c r="N80" s="17">
         <v>1353.1780000000001</v>
       </c>
-      <c r="O80" s="20">
+      <c r="O80" s="17">
         <v>1439.8922</v>
       </c>
-      <c r="P80" s="20">
+      <c r="P80" s="17">
         <v>1391.9324999999999</v>
       </c>
-      <c r="Q80" s="20">
+      <c r="Q80" s="17">
         <v>983.81479999999999</v>
       </c>
-      <c r="R80" s="20">
+      <c r="R80" s="17">
         <v>1267.3584000000001</v>
       </c>
-      <c r="S80" s="20">
+      <c r="S80" s="17">
         <v>1120.8100999999999</v>
       </c>
-      <c r="T80" s="20">
+      <c r="T80" s="17">
         <v>1479.1586</v>
       </c>
-      <c r="U80" s="21">
+      <c r="U80" s="18">
         <v>1203.354</v>
       </c>
-      <c r="V80" s="19">
+      <c r="V80" s="16">
         <v>1441.3485000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="6"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="15">
+        <v>45017</v>
+      </c>
+      <c r="C81" s="19">
+        <v>1492.8065999999999</v>
+      </c>
+      <c r="D81" s="20">
+        <v>1469.1396</v>
+      </c>
+      <c r="E81" s="20">
+        <v>1505.1523</v>
+      </c>
+      <c r="F81" s="20">
+        <v>1523.4580000000001</v>
+      </c>
+      <c r="G81" s="20">
+        <v>1553.6777999999999</v>
+      </c>
+      <c r="H81" s="20">
+        <v>1532.5832</v>
+      </c>
+      <c r="I81" s="21">
+        <v>1444.7728999999999</v>
+      </c>
+      <c r="J81" s="20">
+        <v>1660.83</v>
+      </c>
+      <c r="K81" s="20">
+        <v>1205.8988999999999</v>
+      </c>
+      <c r="L81" s="20">
+        <v>1747.6491000000001</v>
+      </c>
+      <c r="M81" s="20">
+        <v>1095.6486</v>
+      </c>
+      <c r="N81" s="20">
+        <v>1473.3688999999999</v>
+      </c>
+      <c r="O81" s="20">
+        <v>1534.6146000000001</v>
+      </c>
+      <c r="P81" s="20">
+        <v>1481.4276</v>
+      </c>
+      <c r="Q81" s="20">
+        <v>1050.9609</v>
+      </c>
+      <c r="R81" s="20">
+        <v>1365.5893000000001</v>
+      </c>
+      <c r="S81" s="20">
+        <v>1194.6216999999999</v>
+      </c>
+      <c r="T81" s="20">
+        <v>1625.0307</v>
+      </c>
+      <c r="U81" s="21">
+        <v>1283.4258</v>
+      </c>
+      <c r="V81" s="19">
+        <v>1572.9845</v>
+      </c>
+    </row>
+    <row r="82" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B82" s="6"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B83" s="6"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B84" s="6"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B85" s="6"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B87" s="6"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B88" s="6"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B89" s="6"/>
     </row>
   </sheetData>
@@ -6328,11 +6398,11 @@
   <dimension ref="B1:V89"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="83" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="X83" sqref="X83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6346,57 +6416,57 @@
   <sheetData>
     <row r="1" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
     </row>
     <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="50" t="s">
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="50"/>
       <c r="V3" s="9" t="s">
         <v>12</v>
       </c>
@@ -6406,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
@@ -6427,43 +6497,43 @@
         <v>6</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="U4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="U4" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="V4" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
@@ -11301,96 +11371,158 @@
         <v>7.6337000000000002</v>
       </c>
     </row>
-    <row r="80" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="15">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B80" s="14">
         <v>44986</v>
       </c>
-      <c r="C80" s="19">
+      <c r="C80" s="16">
         <v>6.6966000000000001</v>
       </c>
-      <c r="D80" s="20">
+      <c r="D80" s="17">
         <v>6.5163000000000002</v>
       </c>
-      <c r="E80" s="20">
+      <c r="E80" s="17">
         <v>6.9653999999999998</v>
       </c>
-      <c r="F80" s="20">
+      <c r="F80" s="17">
         <v>6.5368000000000004</v>
       </c>
-      <c r="G80" s="20">
+      <c r="G80" s="17">
         <v>5.9225000000000003</v>
       </c>
-      <c r="H80" s="20">
+      <c r="H80" s="17">
         <v>7.2294</v>
       </c>
-      <c r="I80" s="21">
+      <c r="I80" s="18">
         <v>6.3354999999999997</v>
       </c>
-      <c r="J80" s="20">
+      <c r="J80" s="17">
         <v>8.3716000000000008</v>
       </c>
-      <c r="K80" s="20">
+      <c r="K80" s="17">
         <v>7.4588000000000001</v>
       </c>
-      <c r="L80" s="20">
+      <c r="L80" s="17">
         <v>5.4968000000000004</v>
       </c>
-      <c r="M80" s="20">
+      <c r="M80" s="17">
         <v>6.5286999999999997</v>
       </c>
-      <c r="N80" s="20">
+      <c r="N80" s="17">
         <v>5.9268999999999998</v>
       </c>
-      <c r="O80" s="20">
+      <c r="O80" s="17">
         <v>5.7465000000000002</v>
       </c>
-      <c r="P80" s="20">
+      <c r="P80" s="17">
         <v>5.2965999999999998</v>
       </c>
-      <c r="Q80" s="20">
+      <c r="Q80" s="17">
         <v>1.8612</v>
       </c>
-      <c r="R80" s="20">
+      <c r="R80" s="17">
         <v>4.8491999999999997</v>
       </c>
-      <c r="S80" s="20">
+      <c r="S80" s="17">
         <v>9.7789000000000001</v>
       </c>
-      <c r="T80" s="20">
+      <c r="T80" s="17">
         <v>7.8757999999999999</v>
       </c>
-      <c r="U80" s="21">
+      <c r="U80" s="18">
         <v>6.3487999999999998</v>
       </c>
-      <c r="V80" s="19">
+      <c r="V80" s="16">
         <v>7.1085000000000003</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="6"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="15">
+        <v>45017</v>
+      </c>
+      <c r="C81" s="19">
+        <v>8.3064999999999998</v>
+      </c>
+      <c r="D81" s="20">
+        <v>8.4863</v>
+      </c>
+      <c r="E81" s="20">
+        <v>8.3978999999999999</v>
+      </c>
+      <c r="F81" s="20">
+        <v>7.5422000000000002</v>
+      </c>
+      <c r="G81" s="20">
+        <v>8.3299000000000003</v>
+      </c>
+      <c r="H81" s="20">
+        <v>7.0860000000000003</v>
+      </c>
+      <c r="I81" s="21">
+        <v>8.0623000000000005</v>
+      </c>
+      <c r="J81" s="20">
+        <v>10.327999999999999</v>
+      </c>
+      <c r="K81" s="20">
+        <v>4.8403</v>
+      </c>
+      <c r="L81" s="20">
+        <v>8.4655000000000005</v>
+      </c>
+      <c r="M81" s="20">
+        <v>5.5396999999999998</v>
+      </c>
+      <c r="N81" s="20">
+        <v>8.8820999999999994</v>
+      </c>
+      <c r="O81" s="20">
+        <v>6.5784000000000002</v>
+      </c>
+      <c r="P81" s="20">
+        <v>6.4295999999999998</v>
+      </c>
+      <c r="Q81" s="20">
+        <v>6.8250999999999999</v>
+      </c>
+      <c r="R81" s="20">
+        <v>7.7507999999999999</v>
+      </c>
+      <c r="S81" s="20">
+        <v>6.5856000000000003</v>
+      </c>
+      <c r="T81" s="20">
+        <v>9.8618000000000006</v>
+      </c>
+      <c r="U81" s="21">
+        <v>6.6540999999999997</v>
+      </c>
+      <c r="V81" s="19">
+        <v>9.1327999999999996</v>
+      </c>
+    </row>
+    <row r="82" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B82" s="6"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B83" s="6"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B84" s="6"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B85" s="6"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B87" s="6"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B88" s="6"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B89" s="6"/>
     </row>
   </sheetData>
@@ -11409,7 +11541,7 @@
   <dimension ref="B1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11421,29 +11553,29 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
       <c r="I3" s="24" t="s">
         <v>16</v>
       </c>
@@ -11452,18 +11584,18 @@
       <c r="B4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="63">
+      <c r="C4" s="62">
         <v>2022</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
       <c r="H4" s="25">
         <v>2023</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -11486,751 +11618,751 @@
       <c r="H5" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="28"/>
+      <c r="I5" s="67"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="29">
+        <v>5.3712999999999997</v>
+      </c>
+      <c r="D6" s="29">
+        <v>5.3951000000000002</v>
+      </c>
+      <c r="E6" s="29">
+        <v>6.3879000000000001</v>
+      </c>
+      <c r="F6" s="29">
+        <v>6.8745000000000003</v>
+      </c>
+      <c r="G6" s="29">
+        <v>6.6966000000000001</v>
+      </c>
+      <c r="H6" s="29">
+        <v>8.3064999999999998</v>
+      </c>
+      <c r="I6" s="30">
+        <v>108.83410000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="61"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="30">
-        <v>6.0162000000000004</v>
-      </c>
-      <c r="D6" s="30">
-        <v>5.3712999999999997</v>
-      </c>
-      <c r="E6" s="30">
-        <v>5.3951000000000002</v>
-      </c>
-      <c r="F6" s="30">
-        <v>6.3879000000000001</v>
-      </c>
-      <c r="G6" s="30">
-        <v>6.8745000000000003</v>
-      </c>
-      <c r="H6" s="30">
-        <v>6.6966000000000001</v>
-      </c>
-      <c r="I6" s="31">
-        <v>104.29649999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="62"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="34" t="s">
+      <c r="C8" s="34">
+        <v>5.6711</v>
+      </c>
+      <c r="D8" s="34">
+        <v>5.6646000000000001</v>
+      </c>
+      <c r="E8" s="34">
+        <v>6.44</v>
+      </c>
+      <c r="F8" s="34">
+        <v>7.0758000000000001</v>
+      </c>
+      <c r="G8" s="34">
+        <v>6.5163000000000002</v>
+      </c>
+      <c r="H8" s="34">
+        <v>8.4862000000000002</v>
+      </c>
+      <c r="I8" s="35">
+        <v>109.8857</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="34">
+        <v>5.2130999999999998</v>
+      </c>
+      <c r="D9" s="34">
+        <v>5.2676999999999996</v>
+      </c>
+      <c r="E9" s="34">
+        <v>6.3150000000000004</v>
+      </c>
+      <c r="F9" s="34">
+        <v>6.4721000000000002</v>
+      </c>
+      <c r="G9" s="34">
+        <v>6.9653999999999998</v>
+      </c>
+      <c r="H9" s="34">
+        <v>8.3978999999999999</v>
+      </c>
+      <c r="I9" s="35">
+        <v>108.9649</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="34">
+        <v>4.9474999999999998</v>
+      </c>
+      <c r="D10" s="34">
+        <v>4.84</v>
+      </c>
+      <c r="E10" s="34">
+        <v>6.5021000000000004</v>
+      </c>
+      <c r="F10" s="34">
+        <v>7.4730999999999996</v>
+      </c>
+      <c r="G10" s="34">
+        <v>6.5368000000000004</v>
+      </c>
+      <c r="H10" s="34">
+        <v>7.5422000000000002</v>
+      </c>
+      <c r="I10" s="35">
+        <v>107.72369999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="34">
+        <v>4.8373999999999997</v>
+      </c>
+      <c r="D11" s="34">
+        <v>4.5907</v>
+      </c>
+      <c r="E11" s="34">
+        <v>6.1242000000000001</v>
+      </c>
+      <c r="F11" s="34">
+        <v>7.8574999999999999</v>
+      </c>
+      <c r="G11" s="34">
+        <v>5.9225000000000003</v>
+      </c>
+      <c r="H11" s="34">
+        <v>8.3299000000000003</v>
+      </c>
+      <c r="I11" s="35">
+        <v>108.0577</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="34">
+        <v>5.2717999999999998</v>
+      </c>
+      <c r="D12" s="34">
+        <v>5.2243000000000004</v>
+      </c>
+      <c r="E12" s="34">
+        <v>6.6243999999999996</v>
+      </c>
+      <c r="F12" s="34">
+        <v>6.6841999999999997</v>
+      </c>
+      <c r="G12" s="34">
+        <v>7.2294</v>
+      </c>
+      <c r="H12" s="34">
+        <v>7.0860000000000003</v>
+      </c>
+      <c r="I12" s="35">
+        <v>105.8027</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="34">
+        <v>5.1504000000000003</v>
+      </c>
+      <c r="D13" s="34">
+        <v>4.9001000000000001</v>
+      </c>
+      <c r="E13" s="34">
+        <v>6.4839000000000002</v>
+      </c>
+      <c r="F13" s="34">
+        <v>6.0327999999999999</v>
+      </c>
+      <c r="G13" s="34">
+        <v>6.3354999999999997</v>
+      </c>
+      <c r="H13" s="34">
+        <v>8.0623000000000005</v>
+      </c>
+      <c r="I13" s="35">
+        <v>103.59569999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="35"/>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="61"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="35">
-        <v>6.1787000000000001</v>
-      </c>
-      <c r="D8" s="35">
-        <v>5.6711</v>
-      </c>
-      <c r="E8" s="35">
-        <v>5.6646000000000001</v>
-      </c>
-      <c r="F8" s="35">
-        <v>6.44</v>
-      </c>
-      <c r="G8" s="35">
-        <v>7.0758000000000001</v>
-      </c>
-      <c r="H8" s="35">
-        <v>6.5163000000000002</v>
-      </c>
-      <c r="I8" s="36">
-        <v>105.2521</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="34" t="s">
+      <c r="C16" s="34">
+        <v>4.4165999999999999</v>
+      </c>
+      <c r="D16" s="34">
+        <v>4.9176000000000002</v>
+      </c>
+      <c r="E16" s="34">
+        <v>6.4752999999999998</v>
+      </c>
+      <c r="F16" s="34">
+        <v>9.2695000000000007</v>
+      </c>
+      <c r="G16" s="34">
+        <v>8.3716000000000008</v>
+      </c>
+      <c r="H16" s="34">
+        <v>10.327999999999999</v>
+      </c>
+      <c r="I16" s="35">
+        <v>114.96550000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="34">
+        <v>5.8773999999999997</v>
+      </c>
+      <c r="D17" s="34">
+        <v>6.9817</v>
+      </c>
+      <c r="E17" s="34">
+        <v>7.343</v>
+      </c>
+      <c r="F17" s="34">
+        <v>6.0644999999999998</v>
+      </c>
+      <c r="G17" s="34">
+        <v>7.4588000000000001</v>
+      </c>
+      <c r="H17" s="34">
+        <v>4.8403</v>
+      </c>
+      <c r="I17" s="35">
+        <v>114.2687</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="34">
+        <v>5.7066999999999997</v>
+      </c>
+      <c r="D18" s="34">
+        <v>5.1325000000000003</v>
+      </c>
+      <c r="E18" s="34">
+        <v>5.6144999999999996</v>
+      </c>
+      <c r="F18" s="34">
+        <v>6.1641000000000004</v>
+      </c>
+      <c r="G18" s="34">
+        <v>5.4968000000000004</v>
+      </c>
+      <c r="H18" s="34">
+        <v>8.4655000000000005</v>
+      </c>
+      <c r="I18" s="35">
+        <v>120.7152</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="34">
+        <v>8.5505999999999993</v>
+      </c>
+      <c r="D19" s="34">
+        <v>4.1905000000000001</v>
+      </c>
+      <c r="E19" s="34">
+        <v>8.0393000000000008</v>
+      </c>
+      <c r="F19" s="34">
+        <v>4.8117999999999999</v>
+      </c>
+      <c r="G19" s="34">
+        <v>6.5286999999999997</v>
+      </c>
+      <c r="H19" s="34">
+        <v>5.5396999999999998</v>
+      </c>
+      <c r="I19" s="35">
+        <v>95.018900000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="34">
+        <v>5.7183999999999999</v>
+      </c>
+      <c r="D20" s="34">
+        <v>6.1665999999999999</v>
+      </c>
+      <c r="E20" s="34">
+        <v>6.1939000000000002</v>
+      </c>
+      <c r="F20" s="34">
+        <v>5.2991999999999999</v>
+      </c>
+      <c r="G20" s="34">
+        <v>5.9268999999999998</v>
+      </c>
+      <c r="H20" s="34">
+        <v>8.8820999999999994</v>
+      </c>
+      <c r="I20" s="35">
+        <v>111.2916</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="34">
+        <v>4.1085000000000003</v>
+      </c>
+      <c r="D21" s="34">
+        <v>5.6837</v>
+      </c>
+      <c r="E21" s="34">
+        <v>4.9309000000000003</v>
+      </c>
+      <c r="F21" s="34">
+        <v>5.3381999999999996</v>
+      </c>
+      <c r="G21" s="34">
+        <v>5.7465000000000002</v>
+      </c>
+      <c r="H21" s="34">
+        <v>6.5784000000000002</v>
+      </c>
+      <c r="I21" s="35">
+        <v>97.217799999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="34">
+        <v>6.0602</v>
+      </c>
+      <c r="D22" s="34">
+        <v>5.7976000000000001</v>
+      </c>
+      <c r="E22" s="34">
+        <v>5.9306999999999999</v>
+      </c>
+      <c r="F22" s="34">
+        <v>4.8672000000000004</v>
+      </c>
+      <c r="G22" s="34">
+        <v>5.2965999999999998</v>
+      </c>
+      <c r="H22" s="34">
+        <v>6.4295999999999998</v>
+      </c>
+      <c r="I22" s="35">
+        <v>93.542400000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="34">
+        <v>6.1618000000000004</v>
+      </c>
+      <c r="D23" s="34">
+        <v>2.7271999999999998</v>
+      </c>
+      <c r="E23" s="34">
+        <v>7.0328999999999997</v>
+      </c>
+      <c r="F23" s="34">
+        <v>7.8673999999999999</v>
+      </c>
+      <c r="G23" s="34">
+        <v>1.8612</v>
+      </c>
+      <c r="H23" s="34">
+        <v>6.8250999999999999</v>
+      </c>
+      <c r="I23" s="35">
+        <v>80.976200000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="34">
+        <v>4.5156999999999998</v>
+      </c>
+      <c r="D24" s="34">
+        <v>4.7126999999999999</v>
+      </c>
+      <c r="E24" s="34">
+        <v>8.6866000000000003</v>
+      </c>
+      <c r="F24" s="34">
+        <v>7.0808999999999997</v>
+      </c>
+      <c r="G24" s="34">
+        <v>4.8491999999999997</v>
+      </c>
+      <c r="H24" s="34">
+        <v>7.7507999999999999</v>
+      </c>
+      <c r="I24" s="35">
+        <v>105.2216</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="34">
+        <v>6.2115</v>
+      </c>
+      <c r="D25" s="34">
+        <v>6.3776000000000002</v>
+      </c>
+      <c r="E25" s="34">
+        <v>4.3446999999999996</v>
+      </c>
+      <c r="F25" s="34">
+        <v>4.3636999999999997</v>
+      </c>
+      <c r="G25" s="34">
+        <v>9.7789000000000001</v>
+      </c>
+      <c r="H25" s="34">
+        <v>6.5856000000000003</v>
+      </c>
+      <c r="I25" s="35">
+        <v>98.509299999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="34">
+        <v>5.5827</v>
+      </c>
+      <c r="D26" s="34">
+        <v>7.1211000000000002</v>
+      </c>
+      <c r="E26" s="34">
+        <v>6.0919999999999996</v>
+      </c>
+      <c r="F26" s="34">
+        <v>7.5350000000000001</v>
+      </c>
+      <c r="G26" s="34">
+        <v>7.8757999999999999</v>
+      </c>
+      <c r="H26" s="34">
+        <v>9.8618000000000006</v>
+      </c>
+      <c r="I26" s="35">
+        <v>126.6413</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="34">
+        <v>5.8094000000000001</v>
+      </c>
+      <c r="D27" s="34">
+        <v>5.7651000000000003</v>
+      </c>
+      <c r="E27" s="34">
+        <v>6.8654000000000002</v>
+      </c>
+      <c r="F27" s="34">
+        <v>6.5246000000000004</v>
+      </c>
+      <c r="G27" s="34">
+        <v>6.3487999999999998</v>
+      </c>
+      <c r="H27" s="34">
+        <v>6.6539999999999999</v>
+      </c>
+      <c r="I27" s="35">
+        <v>110.95350000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="33"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="35"/>
+    </row>
+    <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="61"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="34">
+        <v>5.0435999999999996</v>
+      </c>
+      <c r="D30" s="34">
+        <v>5.4454000000000002</v>
+      </c>
+      <c r="E30" s="34">
+        <v>6.5185000000000004</v>
+      </c>
+      <c r="F30" s="34">
+        <v>7.6337000000000002</v>
+      </c>
+      <c r="G30" s="34">
+        <v>7.1085000000000003</v>
+      </c>
+      <c r="H30" s="34">
+        <v>9.1327999999999996</v>
+      </c>
+      <c r="I30" s="35">
+        <v>115.7016</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="34">
+        <v>5.1605999999999996</v>
+      </c>
+      <c r="D31" s="34">
+        <v>5.9950999999999999</v>
+      </c>
+      <c r="E31" s="34">
+        <v>6.4762000000000004</v>
+      </c>
+      <c r="F31" s="34">
+        <v>8.0284999999999993</v>
+      </c>
+      <c r="G31" s="34">
+        <v>6.9374000000000002</v>
+      </c>
+      <c r="H31" s="34">
+        <v>9.1685999999999996</v>
+      </c>
+      <c r="I31" s="35">
+        <v>117.1674</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="35">
-        <v>5.8380999999999998</v>
-      </c>
-      <c r="D9" s="35">
-        <v>5.2130999999999998</v>
-      </c>
-      <c r="E9" s="35">
-        <v>5.2676999999999996</v>
-      </c>
-      <c r="F9" s="35">
-        <v>6.3150000000000004</v>
-      </c>
-      <c r="G9" s="35">
-        <v>6.4721000000000002</v>
-      </c>
-      <c r="H9" s="35">
-        <v>6.9653999999999998</v>
-      </c>
-      <c r="I9" s="36">
-        <v>103.79600000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="34" t="s">
+      <c r="C32" s="34">
+        <v>4.9898999999999996</v>
+      </c>
+      <c r="D32" s="34">
+        <v>5.1825999999999999</v>
+      </c>
+      <c r="E32" s="34">
+        <v>6.4391999999999996</v>
+      </c>
+      <c r="F32" s="34">
+        <v>6.9863999999999997</v>
+      </c>
+      <c r="G32" s="34">
+        <v>7.4512</v>
+      </c>
+      <c r="H32" s="34">
+        <v>9.4731000000000005</v>
+      </c>
+      <c r="I32" s="35">
+        <v>115.68049999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="35">
-        <v>6.0378999999999996</v>
-      </c>
-      <c r="D10" s="35">
-        <v>4.9474999999999998</v>
-      </c>
-      <c r="E10" s="35">
-        <v>4.84</v>
-      </c>
-      <c r="F10" s="35">
-        <v>6.5021000000000004</v>
-      </c>
-      <c r="G10" s="35">
-        <v>7.4730999999999996</v>
-      </c>
-      <c r="H10" s="35">
-        <v>6.5368000000000004</v>
-      </c>
-      <c r="I10" s="36">
-        <v>105.1632</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="34" t="s">
+      <c r="C33" s="34">
+        <v>4.8489000000000004</v>
+      </c>
+      <c r="D33" s="34">
+        <v>4.7891000000000004</v>
+      </c>
+      <c r="E33" s="34">
+        <v>6.9020000000000001</v>
+      </c>
+      <c r="F33" s="34">
+        <v>8.3892000000000007</v>
+      </c>
+      <c r="G33" s="34">
+        <v>6.6454000000000004</v>
+      </c>
+      <c r="H33" s="34">
+        <v>8.2359000000000009</v>
+      </c>
+      <c r="I33" s="35">
+        <v>112.43689999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="35">
-        <v>5.8413000000000004</v>
-      </c>
-      <c r="D11" s="35">
-        <v>4.8373999999999997</v>
-      </c>
-      <c r="E11" s="35">
-        <v>4.5907</v>
-      </c>
-      <c r="F11" s="35">
-        <v>6.1242000000000001</v>
-      </c>
-      <c r="G11" s="35">
-        <v>7.8574999999999999</v>
-      </c>
-      <c r="H11" s="35">
-        <v>5.9225000000000003</v>
-      </c>
-      <c r="I11" s="36">
-        <v>103.6131</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="34" t="s">
+      <c r="C34" s="34">
+        <v>4.6200999999999999</v>
+      </c>
+      <c r="D34" s="34">
+        <v>4.3894000000000002</v>
+      </c>
+      <c r="E34" s="34">
+        <v>6.7960000000000003</v>
+      </c>
+      <c r="F34" s="34">
+        <v>8.3916000000000004</v>
+      </c>
+      <c r="G34" s="34">
+        <v>6.2601000000000004</v>
+      </c>
+      <c r="H34" s="34">
+        <v>9.3140000000000001</v>
+      </c>
+      <c r="I34" s="35">
+        <v>113.3164</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="35">
-        <v>5.9329999999999998</v>
-      </c>
-      <c r="D12" s="35">
-        <v>5.2717999999999998</v>
-      </c>
-      <c r="E12" s="35">
-        <v>5.2243000000000004</v>
-      </c>
-      <c r="F12" s="35">
-        <v>6.6243999999999996</v>
-      </c>
-      <c r="G12" s="35">
-        <v>6.6841999999999997</v>
-      </c>
-      <c r="H12" s="35">
-        <v>7.2294</v>
-      </c>
-      <c r="I12" s="36">
-        <v>103.15819999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="34" t="s">
+      <c r="C35" s="34">
+        <v>5.1509999999999998</v>
+      </c>
+      <c r="D35" s="34">
+        <v>4.7441000000000004</v>
+      </c>
+      <c r="E35" s="34">
+        <v>6.6276000000000002</v>
+      </c>
+      <c r="F35" s="34">
+        <v>7.5472000000000001</v>
+      </c>
+      <c r="G35" s="34">
+        <v>7.9461000000000004</v>
+      </c>
+      <c r="H35" s="34">
+        <v>7.9537000000000004</v>
+      </c>
+      <c r="I35" s="35">
+        <v>112.69589999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="35">
-        <v>6.2239000000000004</v>
-      </c>
-      <c r="D13" s="35">
-        <v>5.1504000000000003</v>
-      </c>
-      <c r="E13" s="35">
-        <v>4.9001000000000001</v>
-      </c>
-      <c r="F13" s="35">
-        <v>6.4839000000000002</v>
-      </c>
-      <c r="G13" s="35">
-        <v>6.0327999999999999</v>
-      </c>
-      <c r="H13" s="35">
-        <v>6.3354999999999997</v>
-      </c>
-      <c r="I13" s="36">
-        <v>99.410399999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
-    </row>
-    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="62"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="35">
-        <v>5.4631999999999996</v>
-      </c>
-      <c r="D16" s="35">
-        <v>4.4165999999999999</v>
-      </c>
-      <c r="E16" s="35">
-        <v>4.9176000000000002</v>
-      </c>
-      <c r="F16" s="35">
-        <v>6.4752999999999998</v>
-      </c>
-      <c r="G16" s="35">
-        <v>9.2695000000000007</v>
-      </c>
-      <c r="H16" s="35">
-        <v>8.3716000000000008</v>
-      </c>
-      <c r="I16" s="36">
-        <v>106.6007</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="35">
-        <v>5.4751000000000003</v>
-      </c>
-      <c r="D17" s="35">
-        <v>5.8773999999999997</v>
-      </c>
-      <c r="E17" s="35">
-        <v>6.9817</v>
-      </c>
-      <c r="F17" s="35">
-        <v>7.343</v>
-      </c>
-      <c r="G17" s="35">
-        <v>6.0644999999999998</v>
-      </c>
-      <c r="H17" s="35">
-        <v>7.4588000000000001</v>
-      </c>
-      <c r="I17" s="36">
-        <v>113.3531</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="35">
-        <v>6.0621999999999998</v>
-      </c>
-      <c r="D18" s="35">
-        <v>5.7066999999999997</v>
-      </c>
-      <c r="E18" s="35">
-        <v>5.1325000000000003</v>
-      </c>
-      <c r="F18" s="35">
-        <v>5.6144999999999996</v>
-      </c>
-      <c r="G18" s="35">
-        <v>6.1641000000000004</v>
-      </c>
-      <c r="H18" s="35">
-        <v>5.4968000000000004</v>
-      </c>
-      <c r="I18" s="36">
-        <v>118.81699999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="35">
-        <v>7.4356999999999998</v>
-      </c>
-      <c r="D19" s="35">
-        <v>8.5505999999999993</v>
-      </c>
-      <c r="E19" s="35">
-        <v>4.1905000000000001</v>
-      </c>
-      <c r="F19" s="35">
-        <v>8.0393000000000008</v>
-      </c>
-      <c r="G19" s="35">
-        <v>4.8117999999999999</v>
-      </c>
-      <c r="H19" s="35">
-        <v>6.5286999999999997</v>
-      </c>
-      <c r="I19" s="36">
-        <v>93.095100000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="35">
-        <v>4.7545000000000002</v>
-      </c>
-      <c r="D20" s="35">
-        <v>5.7183999999999999</v>
-      </c>
-      <c r="E20" s="35">
-        <v>6.1665999999999999</v>
-      </c>
-      <c r="F20" s="35">
-        <v>6.1939000000000002</v>
-      </c>
-      <c r="G20" s="35">
-        <v>5.2991999999999999</v>
-      </c>
-      <c r="H20" s="35">
-        <v>5.9268999999999998</v>
-      </c>
-      <c r="I20" s="36">
-        <v>105.1807</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="35">
-        <v>7.0723000000000003</v>
-      </c>
-      <c r="D21" s="35">
-        <v>4.1085000000000003</v>
-      </c>
-      <c r="E21" s="35">
-        <v>5.6837</v>
-      </c>
-      <c r="F21" s="35">
-        <v>4.9309000000000003</v>
-      </c>
-      <c r="G21" s="35">
-        <v>5.3381999999999996</v>
-      </c>
-      <c r="H21" s="35">
-        <v>5.7465000000000002</v>
-      </c>
-      <c r="I21" s="36">
-        <v>96.869900000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="35">
-        <v>4.4977999999999998</v>
-      </c>
-      <c r="D22" s="35">
-        <v>6.0602</v>
-      </c>
-      <c r="E22" s="35">
-        <v>5.7976000000000001</v>
-      </c>
-      <c r="F22" s="35">
-        <v>5.9306999999999999</v>
-      </c>
-      <c r="G22" s="35">
-        <v>4.8672000000000004</v>
-      </c>
-      <c r="H22" s="35">
-        <v>5.2965999999999998</v>
-      </c>
-      <c r="I22" s="36">
-        <v>91.511700000000005</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="35">
-        <v>11.8863</v>
-      </c>
-      <c r="D23" s="35">
-        <v>6.1618000000000004</v>
-      </c>
-      <c r="E23" s="35">
-        <v>2.7271999999999998</v>
-      </c>
-      <c r="F23" s="35">
-        <v>7.0328999999999997</v>
-      </c>
-      <c r="G23" s="35">
-        <v>7.8673999999999999</v>
-      </c>
-      <c r="H23" s="35">
-        <v>1.8612</v>
-      </c>
-      <c r="I23" s="36">
-        <v>76.532200000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="35">
-        <v>5.3038999999999996</v>
-      </c>
-      <c r="D24" s="35">
-        <v>4.5156999999999998</v>
-      </c>
-      <c r="E24" s="35">
-        <v>4.7126999999999999</v>
-      </c>
-      <c r="F24" s="35">
-        <v>8.6866000000000003</v>
-      </c>
-      <c r="G24" s="35">
-        <v>7.0808999999999997</v>
-      </c>
-      <c r="H24" s="35">
-        <v>4.8491999999999997</v>
-      </c>
-      <c r="I24" s="36">
-        <v>100.8019</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="35">
-        <v>7.6993999999999998</v>
-      </c>
-      <c r="D25" s="35">
-        <v>6.2115</v>
-      </c>
-      <c r="E25" s="35">
-        <v>6.3776000000000002</v>
-      </c>
-      <c r="F25" s="35">
-        <v>4.3446999999999996</v>
-      </c>
-      <c r="G25" s="35">
-        <v>4.3636999999999997</v>
-      </c>
-      <c r="H25" s="35">
-        <v>9.7789000000000001</v>
-      </c>
-      <c r="I25" s="36">
-        <v>96.043899999999994</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="35">
-        <v>7.4702999999999999</v>
-      </c>
-      <c r="D26" s="35">
-        <v>5.5827</v>
-      </c>
-      <c r="E26" s="35">
-        <v>7.1211000000000002</v>
-      </c>
-      <c r="F26" s="35">
-        <v>6.0919999999999996</v>
-      </c>
-      <c r="G26" s="35">
-        <v>7.5350000000000001</v>
-      </c>
-      <c r="H26" s="35">
-        <v>7.8757999999999999</v>
-      </c>
-      <c r="I26" s="36">
-        <v>121.3977</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="35">
-        <v>6.0991999999999997</v>
-      </c>
-      <c r="D27" s="35">
-        <v>5.8094000000000001</v>
-      </c>
-      <c r="E27" s="35">
-        <v>5.7651000000000003</v>
-      </c>
-      <c r="F27" s="35">
-        <v>6.8654000000000002</v>
-      </c>
-      <c r="G27" s="35">
-        <v>6.5246000000000004</v>
-      </c>
-      <c r="H27" s="35">
-        <v>6.3487999999999998</v>
-      </c>
-      <c r="I27" s="36">
-        <v>108.3177</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="34"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="36"/>
-    </row>
-    <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="62"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="34" t="s">
+      <c r="C36" s="37">
+        <v>4.9023000000000003</v>
+      </c>
+      <c r="D36" s="37">
+        <v>4.8982999999999999</v>
+      </c>
+      <c r="E36" s="37">
+        <v>6.5438999999999998</v>
+      </c>
+      <c r="F36" s="37">
+        <v>6.7431000000000001</v>
+      </c>
+      <c r="G36" s="37">
+        <v>6.8400999999999996</v>
+      </c>
+      <c r="H36" s="37">
+        <v>8.7773000000000003</v>
+      </c>
+      <c r="I36" s="38">
+        <v>112.2928</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="35">
-        <v>5.7809999999999997</v>
-      </c>
-      <c r="D30" s="35">
-        <v>5.0435999999999996</v>
-      </c>
-      <c r="E30" s="35">
-        <v>5.4454000000000002</v>
-      </c>
-      <c r="F30" s="35">
-        <v>6.5185000000000004</v>
-      </c>
-      <c r="G30" s="35">
-        <v>7.6337000000000002</v>
-      </c>
-      <c r="H30" s="35">
-        <v>7.1085000000000003</v>
-      </c>
-      <c r="I30" s="36">
-        <v>109.9532</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="35">
-        <v>5.9177999999999997</v>
-      </c>
-      <c r="D31" s="35">
-        <v>5.1605999999999996</v>
-      </c>
-      <c r="E31" s="35">
-        <v>5.9950999999999999</v>
-      </c>
-      <c r="F31" s="35">
-        <v>6.4762000000000004</v>
-      </c>
-      <c r="G31" s="35">
-        <v>8.0284999999999993</v>
-      </c>
-      <c r="H31" s="35">
-        <v>6.9374000000000002</v>
-      </c>
-      <c r="I31" s="36">
-        <v>111.6272</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="35">
-        <v>5.5902000000000003</v>
-      </c>
-      <c r="D32" s="35">
-        <v>4.9898999999999996</v>
-      </c>
-      <c r="E32" s="35">
-        <v>5.1825999999999999</v>
-      </c>
-      <c r="F32" s="35">
-        <v>6.4391999999999996</v>
-      </c>
-      <c r="G32" s="35">
-        <v>6.9863999999999997</v>
-      </c>
-      <c r="H32" s="35">
-        <v>7.4512</v>
-      </c>
-      <c r="I32" s="36">
-        <v>108.7214</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="35">
-        <v>5.8052000000000001</v>
-      </c>
-      <c r="D33" s="35">
-        <v>4.8489000000000004</v>
-      </c>
-      <c r="E33" s="35">
-        <v>4.7891000000000004</v>
-      </c>
-      <c r="F33" s="35">
-        <v>6.9020000000000001</v>
-      </c>
-      <c r="G33" s="35">
-        <v>8.3892000000000007</v>
-      </c>
-      <c r="H33" s="35">
-        <v>6.6454000000000004</v>
-      </c>
-      <c r="I33" s="36">
-        <v>109.2803</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="35">
-        <v>5.5198</v>
-      </c>
-      <c r="D34" s="35">
-        <v>4.6200999999999999</v>
-      </c>
-      <c r="E34" s="35">
-        <v>4.3894000000000002</v>
-      </c>
-      <c r="F34" s="35">
-        <v>6.7960000000000003</v>
-      </c>
-      <c r="G34" s="35">
-        <v>8.3916000000000004</v>
-      </c>
-      <c r="H34" s="35">
-        <v>6.2601000000000004</v>
-      </c>
-      <c r="I34" s="36">
-        <v>107.64870000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="35">
-        <v>5.5930999999999997</v>
-      </c>
-      <c r="D35" s="35">
-        <v>5.1509999999999998</v>
-      </c>
-      <c r="E35" s="35">
-        <v>4.7441000000000004</v>
-      </c>
-      <c r="F35" s="35">
-        <v>6.6276000000000002</v>
-      </c>
-      <c r="G35" s="35">
-        <v>7.5472000000000001</v>
-      </c>
-      <c r="H35" s="35">
-        <v>7.9461000000000004</v>
-      </c>
-      <c r="I35" s="36">
-        <v>108.6953</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="38">
-        <v>6.3510999999999997</v>
-      </c>
-      <c r="D36" s="38">
-        <v>4.9023000000000003</v>
-      </c>
-      <c r="E36" s="38">
-        <v>4.8982999999999999</v>
-      </c>
-      <c r="F36" s="38">
-        <v>6.5438999999999998</v>
-      </c>
-      <c r="G36" s="38">
-        <v>6.7431000000000001</v>
-      </c>
-      <c r="H36" s="38">
-        <v>6.8400999999999996</v>
-      </c>
-      <c r="I36" s="39">
-        <v>107.57</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
@@ -12272,7 +12404,7 @@
   <dimension ref="B1:I33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12283,762 +12415,762 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="64"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="40"/>
-      <c r="C3" s="41" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="43">
+        <v>8.4862000000000002</v>
+      </c>
+      <c r="D5" s="43">
+        <v>8.3978999999999999</v>
+      </c>
+      <c r="E5" s="43">
+        <v>7.5422000000000002</v>
+      </c>
+      <c r="F5" s="43">
+        <v>8.3299000000000003</v>
+      </c>
+      <c r="G5" s="43">
+        <v>7.0860000000000003</v>
+      </c>
+      <c r="H5" s="43">
+        <v>8.0623000000000005</v>
+      </c>
+      <c r="I5" s="44">
+        <v>8.2920999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="32" t="s">
+      <c r="C6" s="34">
+        <v>2.6747000000000001</v>
+      </c>
+      <c r="D6" s="34">
+        <v>3.4647999999999999</v>
+      </c>
+      <c r="E6" s="34">
+        <v>3.1082999999999998</v>
+      </c>
+      <c r="F6" s="34">
+        <v>3.7902999999999998</v>
+      </c>
+      <c r="G6" s="34">
+        <v>2.6715</v>
+      </c>
+      <c r="H6" s="34">
+        <v>2.8647</v>
+      </c>
+      <c r="I6" s="35">
+        <v>3.0335000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="34">
+        <v>0.12989999999999999</v>
+      </c>
+      <c r="D7" s="34">
+        <v>0.15859999999999999</v>
+      </c>
+      <c r="E7" s="34">
+        <v>0.1411</v>
+      </c>
+      <c r="F7" s="34">
+        <v>0.18740000000000001</v>
+      </c>
+      <c r="G7" s="34">
+        <v>0.1072</v>
+      </c>
+      <c r="H7" s="34">
+        <v>0.108</v>
+      </c>
+      <c r="I7" s="35">
+        <v>0.1409</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="34">
+        <v>1.0227999999999999</v>
+      </c>
+      <c r="D8" s="34">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="E8" s="34">
+        <v>1.1772</v>
+      </c>
+      <c r="F8" s="34">
+        <v>0.98609999999999998</v>
+      </c>
+      <c r="G8" s="34">
+        <v>0.87119999999999997</v>
+      </c>
+      <c r="H8" s="34">
+        <v>1.1593</v>
+      </c>
+      <c r="I8" s="35">
+        <v>0.96250000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="34">
+        <v>0.56530000000000002</v>
+      </c>
+      <c r="D9" s="34">
+        <v>0.24929999999999999</v>
+      </c>
+      <c r="E9" s="34">
+        <v>0.2402</v>
+      </c>
+      <c r="F9" s="34">
+        <v>0.318</v>
+      </c>
+      <c r="G9" s="34">
+        <v>0.2472</v>
+      </c>
+      <c r="H9" s="34">
+        <v>0.5302</v>
+      </c>
+      <c r="I9" s="35">
+        <v>0.40570000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="34">
+        <v>0.59340000000000004</v>
+      </c>
+      <c r="D10" s="34">
+        <v>0.5161</v>
+      </c>
+      <c r="E10" s="34">
+        <v>0.49</v>
+      </c>
+      <c r="F10" s="34">
+        <v>0.63149999999999995</v>
+      </c>
+      <c r="G10" s="34">
+        <v>0.48949999999999999</v>
+      </c>
+      <c r="H10" s="34">
+        <v>0.58550000000000002</v>
+      </c>
+      <c r="I10" s="35">
+        <v>0.55579999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="34">
+        <v>0.60050000000000003</v>
+      </c>
+      <c r="D11" s="34">
+        <v>0.57809999999999995</v>
+      </c>
+      <c r="E11" s="34">
+        <v>0.41249999999999998</v>
+      </c>
+      <c r="F11" s="34">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="G11" s="34">
+        <v>0.50260000000000005</v>
+      </c>
+      <c r="H11" s="34">
+        <v>0.29480000000000001</v>
+      </c>
+      <c r="I11" s="35">
+        <v>0.55130000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="34">
+        <v>0.79269999999999996</v>
+      </c>
+      <c r="D12" s="34">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="E12" s="34">
+        <v>0.43359999999999999</v>
+      </c>
+      <c r="F12" s="34">
+        <v>0.55969999999999998</v>
+      </c>
+      <c r="G12" s="34">
+        <v>0.74490000000000001</v>
+      </c>
+      <c r="H12" s="34">
+        <v>1.1371</v>
+      </c>
+      <c r="I12" s="35">
+        <v>0.72160000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="34">
+        <v>0.13689999999999999</v>
+      </c>
+      <c r="D13" s="34">
+        <v>0.1434</v>
+      </c>
+      <c r="E13" s="34">
+        <v>0.14510000000000001</v>
+      </c>
+      <c r="F13" s="34">
+        <v>0.1303</v>
+      </c>
+      <c r="G13" s="34">
+        <v>0.1101</v>
+      </c>
+      <c r="H13" s="34">
+        <v>0.1142</v>
+      </c>
+      <c r="I13" s="35">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="34">
+        <v>0.54079999999999995</v>
+      </c>
+      <c r="D14" s="34">
+        <v>0.59709999999999996</v>
+      </c>
+      <c r="E14" s="34">
+        <v>0.246</v>
+      </c>
+      <c r="F14" s="34">
+        <v>0.35620000000000002</v>
+      </c>
+      <c r="G14" s="34">
+        <v>0.37380000000000002</v>
+      </c>
+      <c r="H14" s="34">
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="I14" s="35">
+        <v>0.52229999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="34">
+        <v>0.18149999999999999</v>
+      </c>
+      <c r="D15" s="34">
+        <v>0.1014</v>
+      </c>
+      <c r="E15" s="34">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="F15" s="34">
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="G15" s="34">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="H15" s="34">
+        <v>6.83E-2</v>
+      </c>
+      <c r="I15" s="35">
+        <v>0.12620000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="34">
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="D16" s="34">
+        <v>0.91290000000000004</v>
+      </c>
+      <c r="E16" s="34">
+        <v>0.94889999999999997</v>
+      </c>
+      <c r="F16" s="34">
+        <v>0.73680000000000001</v>
+      </c>
+      <c r="G16" s="34">
+        <v>0.75590000000000002</v>
+      </c>
+      <c r="H16" s="34">
+        <v>0.47139999999999999</v>
+      </c>
+      <c r="I16" s="35">
+        <v>0.93010000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="34">
+        <v>0.2208</v>
+      </c>
+      <c r="D17" s="34">
+        <v>0.2021</v>
+      </c>
+      <c r="E17" s="34">
+        <v>0.14030000000000001</v>
+      </c>
+      <c r="F17" s="34">
+        <v>0.2094</v>
+      </c>
+      <c r="G17" s="34">
+        <v>0.1799</v>
+      </c>
+      <c r="H17" s="34">
+        <v>0.19750000000000001</v>
+      </c>
+      <c r="I17" s="35">
+        <v>0.20519999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="47"/>
+    </row>
+    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="61"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="33"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="43" t="s">
+      <c r="C20" s="43">
+        <v>109.8857</v>
+      </c>
+      <c r="D20" s="43">
+        <v>108.9649</v>
+      </c>
+      <c r="E20" s="43">
+        <v>107.72369999999999</v>
+      </c>
+      <c r="F20" s="43">
+        <v>108.0577</v>
+      </c>
+      <c r="G20" s="43">
+        <v>105.8027</v>
+      </c>
+      <c r="H20" s="43">
+        <v>103.59569999999999</v>
+      </c>
+      <c r="I20" s="44">
+        <v>108.84229999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="34">
+        <v>30.2896</v>
+      </c>
+      <c r="D21" s="34">
+        <v>35.815899999999999</v>
+      </c>
+      <c r="E21" s="34">
+        <v>40.085599999999999</v>
+      </c>
+      <c r="F21" s="34">
+        <v>42.350900000000003</v>
+      </c>
+      <c r="G21" s="34">
+        <v>33.850900000000003</v>
+      </c>
+      <c r="H21" s="34">
+        <v>30.976800000000001</v>
+      </c>
+      <c r="I21" s="35">
+        <v>33.612900000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="34">
+        <v>2.9586000000000001</v>
+      </c>
+      <c r="D22" s="34">
+        <v>3.3858999999999999</v>
+      </c>
+      <c r="E22" s="34">
+        <v>2.7517</v>
+      </c>
+      <c r="F22" s="34">
+        <v>3.5743999999999998</v>
+      </c>
+      <c r="G22" s="34">
+        <v>2.9668000000000001</v>
+      </c>
+      <c r="H22" s="34">
+        <v>2.9807999999999999</v>
+      </c>
+      <c r="I22" s="35">
+        <v>3.1196999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="34">
+        <v>12.399699999999999</v>
+      </c>
+      <c r="D23" s="34">
+        <v>13.646000000000001</v>
+      </c>
+      <c r="E23" s="34">
+        <v>15.2066</v>
+      </c>
+      <c r="F23" s="34">
+        <v>13.025700000000001</v>
+      </c>
+      <c r="G23" s="34">
+        <v>13.0055</v>
+      </c>
+      <c r="H23" s="34">
+        <v>15.8588</v>
+      </c>
+      <c r="I23" s="35">
+        <v>13.236599999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="34">
+        <v>8.1495999999999995</v>
+      </c>
+      <c r="D24" s="34">
+        <v>5.8880999999999997</v>
+      </c>
+      <c r="E24" s="34">
+        <v>5.8250000000000002</v>
+      </c>
+      <c r="F24" s="34">
+        <v>6.8522999999999996</v>
+      </c>
+      <c r="G24" s="34">
+        <v>6.2887000000000004</v>
+      </c>
+      <c r="H24" s="34">
+        <v>6.9146000000000001</v>
+      </c>
+      <c r="I24" s="35">
+        <v>7.0050999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="34">
+        <v>6.9664999999999999</v>
+      </c>
+      <c r="D25" s="34">
+        <v>6.6384999999999996</v>
+      </c>
+      <c r="E25" s="34">
+        <v>6.3032000000000004</v>
+      </c>
+      <c r="F25" s="34">
+        <v>8.3374000000000006</v>
+      </c>
+      <c r="G25" s="34">
+        <v>6.4515000000000002</v>
+      </c>
+      <c r="H25" s="34">
+        <v>6.8574999999999999</v>
+      </c>
+      <c r="I25" s="35">
+        <v>6.8388999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="34">
+        <v>8.9990000000000006</v>
+      </c>
+      <c r="D26" s="34">
+        <v>8.9436</v>
+      </c>
+      <c r="E26" s="34">
+        <v>6.6455000000000002</v>
+      </c>
+      <c r="F26" s="34">
+        <v>5.5076999999999998</v>
+      </c>
+      <c r="G26" s="34">
+        <v>8.0576000000000008</v>
+      </c>
+      <c r="H26" s="34">
+        <v>5.0568</v>
+      </c>
+      <c r="I26" s="35">
+        <v>8.4318000000000008</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="34">
+        <v>10.747299999999999</v>
+      </c>
+      <c r="D27" s="34">
+        <v>11.083500000000001</v>
+      </c>
+      <c r="E27" s="34">
+        <v>7.7575000000000003</v>
+      </c>
+      <c r="F27" s="34">
+        <v>10.4834</v>
+      </c>
+      <c r="G27" s="34">
+        <v>12.865600000000001</v>
+      </c>
+      <c r="H27" s="34">
+        <v>15.2287</v>
+      </c>
+      <c r="I27" s="35">
+        <v>10.959199999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="34">
+        <v>1.8453999999999999</v>
+      </c>
+      <c r="D28" s="34">
+        <v>1.8746</v>
+      </c>
+      <c r="E28" s="34">
+        <v>1.9013</v>
+      </c>
+      <c r="F28" s="34">
+        <v>1.819</v>
+      </c>
+      <c r="G28" s="34">
+        <v>1.6775</v>
+      </c>
+      <c r="H28" s="34">
+        <v>1.9057999999999999</v>
+      </c>
+      <c r="I28" s="35">
+        <v>1.8521000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="34">
+        <v>7.3288000000000002</v>
+      </c>
+      <c r="D29" s="34">
+        <v>7.0681000000000003</v>
+      </c>
+      <c r="E29" s="34">
+        <v>5.8825000000000003</v>
+      </c>
+      <c r="F29" s="34">
+        <v>5.6371000000000002</v>
+      </c>
+      <c r="G29" s="34">
+        <v>6.4823000000000004</v>
+      </c>
+      <c r="H29" s="34">
+        <v>7.3992000000000004</v>
+      </c>
+      <c r="I29" s="35">
+        <v>7.0232000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="34">
+        <v>3.0005999999999999</v>
+      </c>
+      <c r="D30" s="34">
+        <v>1.3225</v>
+      </c>
+      <c r="E30" s="34">
+        <v>1.6178999999999999</v>
+      </c>
+      <c r="F30" s="34">
+        <v>0.84140000000000004</v>
+      </c>
+      <c r="G30" s="34">
+        <v>1.5333000000000001</v>
+      </c>
+      <c r="H30" s="34">
+        <v>1.4673</v>
+      </c>
+      <c r="I30" s="35">
+        <v>2.0882999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="34">
+        <v>13.7166</v>
+      </c>
+      <c r="D31" s="34">
+        <v>10.039899999999999</v>
+      </c>
+      <c r="E31" s="34">
+        <v>10.736000000000001</v>
+      </c>
+      <c r="F31" s="34">
+        <v>6.4592999999999998</v>
+      </c>
+      <c r="G31" s="34">
+        <v>9.4428999999999998</v>
+      </c>
+      <c r="H31" s="34">
+        <v>6.0698999999999996</v>
+      </c>
+      <c r="I31" s="35">
+        <v>11.356299999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="37">
+        <v>3.4872999999999998</v>
+      </c>
+      <c r="D32" s="37">
+        <v>3.2587000000000002</v>
+      </c>
+      <c r="E32" s="37">
+        <v>3.0121000000000002</v>
+      </c>
+      <c r="F32" s="37">
+        <v>3.1671</v>
+      </c>
+      <c r="G32" s="37">
+        <v>3.1802999999999999</v>
+      </c>
+      <c r="H32" s="37">
+        <v>2.8769999999999998</v>
+      </c>
+      <c r="I32" s="38">
+        <v>3.3182</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="44">
-        <v>6.5163000000000002</v>
-      </c>
-      <c r="D5" s="44">
-        <v>6.9653999999999998</v>
-      </c>
-      <c r="E5" s="44">
-        <v>6.5368000000000004</v>
-      </c>
-      <c r="F5" s="44">
-        <v>5.9225000000000003</v>
-      </c>
-      <c r="G5" s="44">
-        <v>7.2294</v>
-      </c>
-      <c r="H5" s="44">
-        <v>6.3354999999999997</v>
-      </c>
-      <c r="I5" s="45">
-        <v>6.6731999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="35">
-        <v>2.2565</v>
-      </c>
-      <c r="D6" s="35">
-        <v>2.5988000000000002</v>
-      </c>
-      <c r="E6" s="35">
-        <v>2.5628000000000002</v>
-      </c>
-      <c r="F6" s="35">
-        <v>2.3820999999999999</v>
-      </c>
-      <c r="G6" s="35">
-        <v>2.5036</v>
-      </c>
-      <c r="H6" s="35">
-        <v>2.0935999999999999</v>
-      </c>
-      <c r="I6" s="36">
-        <v>2.4056000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="35">
-        <v>0.19980000000000001</v>
-      </c>
-      <c r="D7" s="35">
-        <v>0.22850000000000001</v>
-      </c>
-      <c r="E7" s="35">
-        <v>0.20330000000000001</v>
-      </c>
-      <c r="F7" s="35">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="G7" s="35">
-        <v>0.21970000000000001</v>
-      </c>
-      <c r="H7" s="35">
-        <v>0.2319</v>
-      </c>
-      <c r="I7" s="36">
-        <v>0.21529999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="35">
-        <v>0.44280000000000003</v>
-      </c>
-      <c r="D8" s="35">
-        <v>0.84040000000000004</v>
-      </c>
-      <c r="E8" s="35">
-        <v>0.71930000000000005</v>
-      </c>
-      <c r="F8" s="35">
-        <v>0.66910000000000003</v>
-      </c>
-      <c r="G8" s="35">
-        <v>0.90269999999999995</v>
-      </c>
-      <c r="H8" s="35">
-        <v>0.94689999999999996</v>
-      </c>
-      <c r="I8" s="36">
-        <v>0.65480000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="35">
-        <v>0.49630000000000002</v>
-      </c>
-      <c r="D9" s="35">
-        <v>0.46929999999999999</v>
-      </c>
-      <c r="E9" s="35">
-        <v>0.31</v>
-      </c>
-      <c r="F9" s="35">
-        <v>0.37740000000000001</v>
-      </c>
-      <c r="G9" s="35">
-        <v>0.48720000000000002</v>
-      </c>
-      <c r="H9" s="35">
-        <v>0.3448</v>
-      </c>
-      <c r="I9" s="36">
-        <v>0.46150000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="35">
-        <v>0.38419999999999999</v>
-      </c>
-      <c r="D10" s="35">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="E10" s="35">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="F10" s="35">
-        <v>0.47949999999999998</v>
-      </c>
-      <c r="G10" s="35">
-        <v>0.35680000000000001</v>
-      </c>
-      <c r="H10" s="35">
-        <v>0.33879999999999999</v>
-      </c>
-      <c r="I10" s="36">
-        <v>0.37340000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="35">
-        <v>0.49640000000000001</v>
-      </c>
-      <c r="D11" s="35">
-        <v>0.52580000000000005</v>
-      </c>
-      <c r="E11" s="35">
-        <v>0.37640000000000001</v>
-      </c>
-      <c r="F11" s="35">
-        <v>0.31809999999999999</v>
-      </c>
-      <c r="G11" s="35">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="H11" s="35">
-        <v>0.35670000000000002</v>
-      </c>
-      <c r="I11" s="36">
-        <v>0.48209999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="35">
-        <v>0.63060000000000005</v>
-      </c>
-      <c r="D12" s="35">
-        <v>0.5716</v>
-      </c>
-      <c r="E12" s="35">
-        <v>0.43109999999999998</v>
-      </c>
-      <c r="F12" s="35">
-        <v>0.5403</v>
-      </c>
-      <c r="G12" s="35">
-        <v>0.60429999999999995</v>
-      </c>
-      <c r="H12" s="35">
-        <v>0.74250000000000005</v>
-      </c>
-      <c r="I12" s="36">
-        <v>0.59640000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="35">
-        <v>3.6200000000000003E-2</v>
-      </c>
-      <c r="D13" s="35">
-        <v>3.85E-2</v>
-      </c>
-      <c r="E13" s="35">
-        <v>6.1600000000000002E-2</v>
-      </c>
-      <c r="F13" s="35">
-        <v>2.6200000000000001E-2</v>
-      </c>
-      <c r="G13" s="35">
-        <v>4.3499999999999997E-2</v>
-      </c>
-      <c r="H13" s="35">
-        <v>4.1500000000000002E-2</v>
-      </c>
-      <c r="I13" s="36">
-        <v>3.8899999999999997E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="35">
-        <v>0.31819999999999998</v>
-      </c>
-      <c r="D14" s="35">
-        <v>0.30480000000000002</v>
-      </c>
-      <c r="E14" s="35">
-        <v>0.29120000000000001</v>
-      </c>
-      <c r="F14" s="35">
-        <v>0.28739999999999999</v>
-      </c>
-      <c r="G14" s="35">
-        <v>0.4929</v>
-      </c>
-      <c r="H14" s="35">
-        <v>0.50329999999999997</v>
-      </c>
-      <c r="I14" s="36">
-        <v>0.32790000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="35">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="D15" s="35">
-        <v>0.13239999999999999</v>
-      </c>
-      <c r="E15" s="35">
-        <v>0.31819999999999998</v>
-      </c>
-      <c r="F15" s="35">
-        <v>3.9199999999999999E-2</v>
-      </c>
-      <c r="G15" s="35">
-        <v>0.2228</v>
-      </c>
-      <c r="H15" s="35">
-        <v>0.26019999999999999</v>
-      </c>
-      <c r="I15" s="36">
-        <v>0.1714</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="35">
-        <v>0.88080000000000003</v>
-      </c>
-      <c r="D16" s="35">
-        <v>0.69320000000000004</v>
-      </c>
-      <c r="E16" s="35">
-        <v>0.71440000000000003</v>
-      </c>
-      <c r="F16" s="35">
-        <v>0.3725</v>
-      </c>
-      <c r="G16" s="35">
-        <v>0.75990000000000002</v>
-      </c>
-      <c r="H16" s="35">
-        <v>0.30180000000000001</v>
-      </c>
-      <c r="I16" s="36">
-        <v>0.74960000000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="35">
-        <v>0.19750000000000001</v>
-      </c>
-      <c r="D17" s="35">
-        <v>0.2082</v>
-      </c>
-      <c r="E17" s="35">
-        <v>0.18229999999999999</v>
-      </c>
-      <c r="F17" s="35">
-        <v>0.16569999999999999</v>
-      </c>
-      <c r="G17" s="35">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="H17" s="35">
-        <v>0.1736</v>
-      </c>
-      <c r="I17" s="36">
-        <v>0.1963</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="48"/>
-    </row>
-    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="62"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="44">
-        <v>105.2521</v>
-      </c>
-      <c r="D20" s="44">
-        <v>103.79600000000001</v>
-      </c>
-      <c r="E20" s="44">
-        <v>105.1632</v>
-      </c>
-      <c r="F20" s="44">
-        <v>103.6131</v>
-      </c>
-      <c r="G20" s="44">
-        <v>103.15819999999999</v>
-      </c>
-      <c r="H20" s="44">
-        <v>99.410399999999996</v>
-      </c>
-      <c r="I20" s="45">
-        <v>104.3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="35">
-        <v>28.22</v>
-      </c>
-      <c r="D21" s="35">
-        <v>32.720700000000001</v>
-      </c>
-      <c r="E21" s="35">
-        <v>38.576799999999999</v>
-      </c>
-      <c r="F21" s="35">
-        <v>39.703499999999998</v>
-      </c>
-      <c r="G21" s="35">
-        <v>32.156599999999997</v>
-      </c>
-      <c r="H21" s="35">
-        <v>29.063500000000001</v>
-      </c>
-      <c r="I21" s="36">
-        <v>31.2317</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="35">
-        <v>3.0310999999999999</v>
-      </c>
-      <c r="D22" s="35">
-        <v>3.4264000000000001</v>
-      </c>
-      <c r="E22" s="35">
-        <v>2.7812000000000001</v>
-      </c>
-      <c r="F22" s="35">
-        <v>3.5348999999999999</v>
-      </c>
-      <c r="G22" s="35">
-        <v>3.0623999999999998</v>
-      </c>
-      <c r="H22" s="35">
-        <v>3.06</v>
-      </c>
-      <c r="I22" s="36">
-        <v>3.1747000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="35">
-        <v>11.5908</v>
-      </c>
-      <c r="D23" s="35">
-        <v>13.122299999999999</v>
-      </c>
-      <c r="E23" s="35">
-        <v>14.6724</v>
-      </c>
-      <c r="F23" s="35">
-        <v>12.5694</v>
-      </c>
-      <c r="G23" s="35">
-        <v>12.7194</v>
-      </c>
-      <c r="H23" s="35">
-        <v>15.2401</v>
-      </c>
-      <c r="I23" s="36">
-        <v>12.595800000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="35">
-        <v>7.8925999999999998</v>
-      </c>
-      <c r="D24" s="35">
-        <v>5.9927999999999999</v>
-      </c>
-      <c r="E24" s="35">
-        <v>5.9920999999999998</v>
-      </c>
-      <c r="F24" s="35">
-        <v>7.0260999999999996</v>
-      </c>
-      <c r="G24" s="35">
-        <v>6.4389000000000003</v>
-      </c>
-      <c r="H24" s="35">
-        <v>6.7515000000000001</v>
-      </c>
-      <c r="I24" s="36">
-        <v>6.9458000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="35">
-        <v>6.6069000000000004</v>
-      </c>
-      <c r="D25" s="35">
-        <v>6.3127000000000004</v>
-      </c>
-      <c r="E25" s="35">
-        <v>6.0208000000000004</v>
-      </c>
-      <c r="F25" s="35">
-        <v>7.9772999999999996</v>
-      </c>
-      <c r="G25" s="35">
-        <v>6.1893000000000002</v>
-      </c>
-      <c r="H25" s="35">
-        <v>6.4009</v>
-      </c>
-      <c r="I25" s="36">
-        <v>6.4968000000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="35">
-        <v>8.8978000000000002</v>
-      </c>
-      <c r="D26" s="35">
-        <v>8.9106000000000005</v>
-      </c>
-      <c r="E26" s="35">
-        <v>6.6060999999999996</v>
-      </c>
-      <c r="F26" s="35">
-        <v>5.423</v>
-      </c>
-      <c r="G26" s="35">
-        <v>8.0876000000000001</v>
-      </c>
-      <c r="H26" s="35">
-        <v>5.0868000000000002</v>
-      </c>
-      <c r="I26" s="36">
-        <v>8.3717000000000006</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="35">
-        <v>10.4879</v>
-      </c>
-      <c r="D27" s="35">
-        <v>10.9876</v>
-      </c>
-      <c r="E27" s="35">
-        <v>7.7938000000000001</v>
-      </c>
-      <c r="F27" s="35">
-        <v>10.428100000000001</v>
-      </c>
-      <c r="G27" s="35">
-        <v>12.8589</v>
-      </c>
-      <c r="H27" s="35">
-        <v>14.632999999999999</v>
-      </c>
-      <c r="I27" s="36">
-        <v>10.782999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="35">
-        <v>1.7838000000000001</v>
-      </c>
-      <c r="D28" s="35">
-        <v>1.8105</v>
-      </c>
-      <c r="E28" s="35">
-        <v>1.8291999999999999</v>
-      </c>
-      <c r="F28" s="35">
-        <v>1.7682</v>
-      </c>
-      <c r="G28" s="35">
-        <v>1.6182000000000001</v>
-      </c>
-      <c r="H28" s="35">
-        <v>1.879</v>
-      </c>
-      <c r="I28" s="36">
-        <v>1.7910999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="35">
-        <v>7.1631</v>
-      </c>
-      <c r="D29" s="35">
-        <v>6.5955000000000004</v>
-      </c>
-      <c r="E29" s="35">
-        <v>6.0910000000000002</v>
-      </c>
-      <c r="F29" s="35">
-        <v>5.4958</v>
-      </c>
-      <c r="G29" s="35">
-        <v>6.3117999999999999</v>
-      </c>
-      <c r="H29" s="35">
-        <v>7.1021000000000001</v>
-      </c>
-      <c r="I29" s="36">
-        <v>6.7732000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="35">
-        <v>2.964</v>
-      </c>
-      <c r="D30" s="35">
-        <v>1.3008</v>
-      </c>
-      <c r="E30" s="35">
-        <v>1.7156</v>
-      </c>
-      <c r="F30" s="35">
-        <v>0.85519999999999996</v>
-      </c>
-      <c r="G30" s="35">
-        <v>1.6335999999999999</v>
-      </c>
-      <c r="H30" s="35">
-        <v>1.502</v>
-      </c>
-      <c r="I30" s="36">
-        <v>2.0787</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="35">
-        <v>13.213100000000001</v>
-      </c>
-      <c r="D31" s="35">
-        <v>9.4122000000000003</v>
-      </c>
-      <c r="E31" s="35">
-        <v>9.9961000000000002</v>
-      </c>
-      <c r="F31" s="35">
-        <v>5.7083000000000004</v>
-      </c>
-      <c r="G31" s="35">
-        <v>8.9237000000000002</v>
-      </c>
-      <c r="H31" s="35">
-        <v>5.8544999999999998</v>
-      </c>
-      <c r="I31" s="36">
-        <v>10.795299999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="38">
-        <v>3.4036</v>
-      </c>
-      <c r="D32" s="38">
-        <v>3.2042999999999999</v>
-      </c>
-      <c r="E32" s="38">
-        <v>3.0895000000000001</v>
-      </c>
-      <c r="F32" s="38">
-        <v>3.1219999999999999</v>
-      </c>
-      <c r="G32" s="38">
-        <v>3.1576</v>
-      </c>
-      <c r="H32" s="38">
-        <v>2.8342999999999998</v>
-      </c>
-      <c r="I32" s="39">
-        <v>3.2624</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/assets/excel/IPCse - Series históricas.xlsx
+++ b/assets/excel/IPCse - Series históricas.xlsx
@@ -1215,11 +1215,11 @@
   <dimension ref="B1:V89"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="78" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
-      <selection pane="bottomRight" activeCell="E64" sqref="E64"/>
+      <selection pane="bottomRight" activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>

--- a/assets/excel/IPCse - Series históricas.xlsx
+++ b/assets/excel/IPCse - Series históricas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/389f00106a27f437/Documentos/GitHub/mrozada.github.io/assets/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fiona\Dropbox\MGR\IPC seasonal adjustment\IPCse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{EB589408-7742-409C-B179-8DD9AA4A094B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C4959D0-DA3B-4AE2-B18A-BC62783EE962}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F6AFAE-BCF8-4E98-A78F-561EE44890B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{A81B6F3A-9175-42CA-B78F-287A4E3C6249}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" activeTab="1" xr2:uid="{A81B6F3A-9175-42CA-B78F-287A4E3C6249}"/>
   </bookViews>
   <sheets>
     <sheet name="Índices" sheetId="1" r:id="rId1"/>
@@ -186,9 +186,6 @@
     <t>May. 2023/May. 2022</t>
   </si>
   <si>
-    <t>Dic.</t>
-  </si>
-  <si>
     <t>Ene.</t>
   </si>
   <si>
@@ -203,6 +200,9 @@
   <si>
     <t>May.</t>
   </si>
+  <si>
+    <t>Jun.</t>
+  </si>
 </sst>
 </file>
 
@@ -211,7 +211,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +295,13 @@
       <b/>
       <u/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Nova"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial Nova"/>
       <family val="2"/>
@@ -717,7 +724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -897,6 +904,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1214,25 +1224,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA821952-0137-4F39-844C-15CA99AC928E}">
   <dimension ref="B1:V89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="78" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="78" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
-      <selection pane="bottomRight" activeCell="G83" sqref="G83"/>
+      <selection pane="bottomRight" activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" style="4" customWidth="1"/>
-    <col min="2" max="3" width="20.6640625" style="4" customWidth="1"/>
-    <col min="4" max="21" width="15.6640625" style="4"/>
-    <col min="22" max="22" width="20.6640625" style="4" customWidth="1"/>
-    <col min="23" max="16384" width="15.6640625" style="4"/>
+    <col min="1" max="1" width="4.5703125" style="4" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" style="4" customWidth="1"/>
+    <col min="4" max="21" width="15.7109375" style="4"/>
+    <col min="22" max="22" width="20.7109375" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="15.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="53" t="s">
         <v>10</v>
       </c>
@@ -1257,7 +1267,7 @@
       <c r="U2" s="54"/>
       <c r="V2" s="54"/>
     </row>
-    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="9" t="s">
         <v>8</v>
@@ -1288,7 +1298,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1353,7 +1363,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
         <v>42705</v>
       </c>
@@ -1418,7 +1428,7 @@
         <v>99.977400000000003</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <v>42736</v>
       </c>
@@ -1483,7 +1493,7 @@
         <v>101.58410000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
         <v>42767</v>
       </c>
@@ -1548,7 +1558,7 @@
         <v>103.26909999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <v>42795</v>
       </c>
@@ -1613,7 +1623,7 @@
         <v>104.8601</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <v>42826</v>
       </c>
@@ -1678,7 +1688,7 @@
         <v>107.3261</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <v>42856</v>
       </c>
@@ -1743,7 +1753,7 @@
         <v>109.36450000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
         <v>42887</v>
       </c>
@@ -1808,7 +1818,7 @@
         <v>110.7693</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <v>42917</v>
       </c>
@@ -1873,7 +1883,7 @@
         <v>112.8707</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <v>42948</v>
       </c>
@@ -1938,7 +1948,7 @@
         <v>114.20829999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <v>42979</v>
       </c>
@@ -2003,7 +2013,7 @@
         <v>115.16679999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
         <v>43009</v>
       </c>
@@ -2068,7 +2078,7 @@
         <v>116.4616</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="14">
         <v>43040</v>
       </c>
@@ -2133,7 +2143,7 @@
         <v>118.2471</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="14">
         <v>43070</v>
       </c>
@@ -2198,7 +2208,7 @@
         <v>120.15</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
         <v>43101</v>
       </c>
@@ -2263,7 +2273,7 @@
         <v>122.66079999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="14">
         <v>43132</v>
       </c>
@@ -2328,7 +2338,7 @@
         <v>124.86669999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="14">
         <v>43160</v>
       </c>
@@ -2393,7 +2403,7 @@
         <v>127.12269999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="14">
         <v>43191</v>
       </c>
@@ -2458,7 +2468,7 @@
         <v>129.41149999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="14">
         <v>43221</v>
       </c>
@@ -2523,7 +2533,7 @@
         <v>133.31610000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="14">
         <v>43252</v>
       </c>
@@ -2588,7 +2598,7 @@
         <v>138.48570000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="14">
         <v>43282</v>
       </c>
@@ -2653,7 +2663,7 @@
         <v>143.6498</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="14">
         <v>43313</v>
       </c>
@@ -2718,7 +2728,7 @@
         <v>148.0249</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="14">
         <v>43344</v>
       </c>
@@ -2783,7 +2793,7 @@
         <v>157.21270000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="14">
         <v>43374</v>
       </c>
@@ -2848,7 +2858,7 @@
         <v>163.8939</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="14">
         <v>43405</v>
       </c>
@@ -2913,7 +2923,7 @@
         <v>169.81559999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="14">
         <v>43435</v>
       </c>
@@ -2978,7 +2988,7 @@
         <v>173.93020000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="14">
         <v>43466</v>
       </c>
@@ -3043,7 +3053,7 @@
         <v>179.21430000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="14">
         <v>43497</v>
       </c>
@@ -3108,7 +3118,7 @@
         <v>186.506</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="14">
         <v>43525</v>
       </c>
@@ -3173,7 +3183,7 @@
         <v>194.3347</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="14">
         <v>43556</v>
       </c>
@@ -3238,7 +3248,7 @@
         <v>200.91579999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="14">
         <v>43586</v>
       </c>
@@ -3303,7 +3313,7 @@
         <v>207.03639999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="14">
         <v>43617</v>
       </c>
@@ -3368,7 +3378,7 @@
         <v>212.8476</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="14">
         <v>43647</v>
       </c>
@@ -3433,7 +3443,7 @@
         <v>218.41489999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="14">
         <v>43678</v>
       </c>
@@ -3498,7 +3508,7 @@
         <v>227.71770000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="14">
         <v>43709</v>
       </c>
@@ -3563,7 +3573,7 @@
         <v>240.4811</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="14">
         <v>43739</v>
       </c>
@@ -3628,7 +3638,7 @@
         <v>247.86199999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" s="14">
         <v>43770</v>
       </c>
@@ -3693,7 +3703,7 @@
         <v>259.3349</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="14">
         <v>43800</v>
       </c>
@@ -3758,7 +3768,7 @@
         <v>268.79329999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" s="14">
         <v>43831</v>
       </c>
@@ -3823,7 +3833,7 @@
         <v>278.7826</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" s="14">
         <v>43862</v>
       </c>
@@ -3888,7 +3898,7 @@
         <v>286.44729999999998</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44" s="14">
         <v>43891</v>
       </c>
@@ -3953,7 +3963,7 @@
         <v>293.82990000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45" s="14">
         <v>43922</v>
       </c>
@@ -4018,7 +4028,7 @@
         <v>300.18740000000003</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46" s="14">
         <v>43952</v>
       </c>
@@ -4083,7 +4093,7 @@
         <v>307.81490000000002</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47" s="14">
         <v>43983</v>
       </c>
@@ -4148,7 +4158,7 @@
         <v>316.56420000000003</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B48" s="14">
         <v>44013</v>
       </c>
@@ -4213,7 +4223,7 @@
         <v>324.54230000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B49" s="14">
         <v>44044</v>
       </c>
@@ -4278,7 +4288,7 @@
         <v>333.78789999999998</v>
       </c>
     </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B50" s="14">
         <v>44075</v>
       </c>
@@ -4343,7 +4353,7 @@
         <v>340.72519999999997</v>
       </c>
     </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B51" s="14">
         <v>44105</v>
       </c>
@@ -4408,7 +4418,7 @@
         <v>353.69189999999998</v>
       </c>
     </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B52" s="14">
         <v>44136</v>
       </c>
@@ -4473,7 +4483,7 @@
         <v>367.19499999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B53" s="14">
         <v>44166</v>
       </c>
@@ -4538,7 +4548,7 @@
         <v>383.58569999999997</v>
       </c>
     </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B54" s="14">
         <v>44197</v>
       </c>
@@ -4603,7 +4613,7 @@
         <v>400.52280000000002</v>
       </c>
     </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B55" s="14">
         <v>44228</v>
       </c>
@@ -4668,7 +4678,7 @@
         <v>416.6268</v>
       </c>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B56" s="14">
         <v>44256</v>
       </c>
@@ -4733,7 +4743,7 @@
         <v>434.39139999999998</v>
       </c>
     </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B57" s="14">
         <v>44287</v>
       </c>
@@ -4798,7 +4808,7 @@
         <v>451.8818</v>
       </c>
     </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B58" s="14">
         <v>44317</v>
       </c>
@@ -4863,7 +4873,7 @@
         <v>467.42290000000003</v>
       </c>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B59" s="14">
         <v>44348</v>
       </c>
@@ -4928,7 +4938,7 @@
         <v>483.03149999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B60" s="14">
         <v>44378</v>
       </c>
@@ -4993,7 +5003,7 @@
         <v>499.71620000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B61" s="14">
         <v>44409</v>
       </c>
@@ -5058,7 +5068,7 @@
         <v>511.17930000000001</v>
       </c>
     </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B62" s="14">
         <v>44440</v>
       </c>
@@ -5123,7 +5133,7 @@
         <v>525.85019999999997</v>
       </c>
     </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B63" s="14">
         <v>44470</v>
       </c>
@@ -5188,7 +5198,7 @@
         <v>542.82629999999995</v>
       </c>
     </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B64" s="14">
         <v>44501</v>
       </c>
@@ -5253,7 +5263,7 @@
         <v>560.64739999999995</v>
       </c>
     </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B65" s="14">
         <v>44531</v>
       </c>
@@ -5318,7 +5328,7 @@
         <v>587.63199999999995</v>
       </c>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B66" s="14">
         <v>44562</v>
       </c>
@@ -5383,7 +5393,7 @@
         <v>614.96839999999997</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B67" s="14">
         <v>44593</v>
       </c>
@@ -5448,7 +5458,7 @@
         <v>648.68989999999997</v>
       </c>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B68" s="14">
         <v>44621</v>
       </c>
@@ -5513,7 +5523,7 @@
         <v>686.36180000000002</v>
       </c>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B69" s="14">
         <v>44652</v>
       </c>
@@ -5578,7 +5588,7 @@
         <v>729.43140000000005</v>
       </c>
     </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B70" s="14">
         <v>44682</v>
       </c>
@@ -5643,7 +5653,7 @@
         <v>770.00469999999996</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B71" s="14">
         <v>44713</v>
       </c>
@@ -5708,7 +5718,7 @@
         <v>811.8424</v>
       </c>
     </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B72" s="14">
         <v>44743</v>
       </c>
@@ -5773,7 +5783,7 @@
         <v>880.58450000000005</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B73" s="14">
         <v>44774</v>
       </c>
@@ -5838,7 +5848,7 @@
         <v>944.6404</v>
       </c>
     </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B74" s="14">
         <v>44805</v>
       </c>
@@ -5903,7 +5913,7 @@
         <v>1001.7683</v>
       </c>
     </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B75" s="14">
         <v>44835</v>
       </c>
@@ -5968,7 +5978,7 @@
         <v>1059.6804</v>
       </c>
     </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B76" s="14">
         <v>44866</v>
       </c>
@@ -6033,7 +6043,7 @@
         <v>1113.1264000000001</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B77" s="14">
         <v>44896</v>
       </c>
@@ -6098,7 +6108,7 @@
         <v>1173.7402999999999</v>
       </c>
     </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B78" s="14">
         <v>44927</v>
       </c>
@@ -6163,7 +6173,7 @@
         <v>1250.2503999999999</v>
       </c>
     </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B79" s="14">
         <v>44958</v>
       </c>
@@ -6228,7 +6238,7 @@
         <v>1345.6905999999999</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B80" s="14">
         <v>44986</v>
       </c>
@@ -6293,7 +6303,7 @@
         <v>1441.3485000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B81" s="14">
         <v>45017</v>
       </c>
@@ -6358,90 +6368,152 @@
         <v>1572.9845</v>
       </c>
     </row>
-    <row r="82" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="15">
+    <row r="82" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B82" s="14">
         <v>45047</v>
       </c>
-      <c r="C82" s="19">
+      <c r="C82" s="16">
         <v>1615.2804000000001</v>
       </c>
-      <c r="D82" s="20">
+      <c r="D82" s="17">
         <v>1593.921</v>
       </c>
-      <c r="E82" s="20">
+      <c r="E82" s="17">
         <v>1625.7782999999999</v>
       </c>
-      <c r="F82" s="20">
+      <c r="F82" s="17">
         <v>1650.5751</v>
       </c>
-      <c r="G82" s="20">
+      <c r="G82" s="17">
         <v>1673.3112000000001</v>
       </c>
-      <c r="H82" s="20">
+      <c r="H82" s="17">
         <v>1652.8302000000001</v>
       </c>
-      <c r="I82" s="21">
+      <c r="I82" s="18">
         <v>1554.2056</v>
       </c>
-      <c r="J82" s="20">
+      <c r="J82" s="17">
         <v>1771.7623000000001</v>
       </c>
-      <c r="K82" s="20">
+      <c r="K82" s="17">
         <v>1315.6635000000001</v>
       </c>
-      <c r="L82" s="20">
+      <c r="L82" s="17">
         <v>1897.3623</v>
       </c>
-      <c r="M82" s="20">
+      <c r="M82" s="17">
         <v>1225.5876000000001</v>
       </c>
-      <c r="N82" s="20">
+      <c r="N82" s="17">
         <v>1606.0191</v>
       </c>
-      <c r="O82" s="20">
+      <c r="O82" s="17">
         <v>1673.5440000000001</v>
       </c>
-      <c r="P82" s="20">
+      <c r="P82" s="17">
         <v>1601.6103000000001</v>
       </c>
-      <c r="Q82" s="20">
+      <c r="Q82" s="17">
         <v>1126.7570000000001</v>
       </c>
-      <c r="R82" s="20">
+      <c r="R82" s="17">
         <v>1479.9467999999999</v>
       </c>
-      <c r="S82" s="20">
+      <c r="S82" s="17">
         <v>1263.6877999999999</v>
       </c>
-      <c r="T82" s="20">
+      <c r="T82" s="17">
         <v>1777.0179000000001</v>
       </c>
-      <c r="U82" s="21">
+      <c r="U82" s="18">
         <v>1375.5900999999999</v>
       </c>
-      <c r="V82" s="19">
+      <c r="V82" s="16">
         <v>1696.7299</v>
       </c>
     </row>
-    <row r="83" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B83" s="6"/>
-    </row>
-    <row r="84" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="15">
+        <v>45078</v>
+      </c>
+      <c r="C83" s="19">
+        <v>1714.4431</v>
+      </c>
+      <c r="D83" s="20">
+        <v>1689.5324000000001</v>
+      </c>
+      <c r="E83" s="20">
+        <v>1725.8647000000001</v>
+      </c>
+      <c r="F83" s="20">
+        <v>1763.5222000000001</v>
+      </c>
+      <c r="G83" s="20">
+        <v>1790.4954</v>
+      </c>
+      <c r="H83" s="20">
+        <v>1741.8332</v>
+      </c>
+      <c r="I83" s="21">
+        <v>1661.6305</v>
+      </c>
+      <c r="J83" s="20">
+        <v>1855.5726999999999</v>
+      </c>
+      <c r="K83" s="20">
+        <v>1373.9409000000001</v>
+      </c>
+      <c r="L83" s="20">
+        <v>1981.6189999999999</v>
+      </c>
+      <c r="M83" s="20">
+        <v>1325.2036000000001</v>
+      </c>
+      <c r="N83" s="20">
+        <v>1727.2815000000001</v>
+      </c>
+      <c r="O83" s="20">
+        <v>1817.6131</v>
+      </c>
+      <c r="P83" s="20">
+        <v>1705.6713999999999</v>
+      </c>
+      <c r="Q83" s="20">
+        <v>1244.2053000000001</v>
+      </c>
+      <c r="R83" s="20">
+        <v>1574.7768000000001</v>
+      </c>
+      <c r="S83" s="20">
+        <v>1379.8053</v>
+      </c>
+      <c r="T83" s="20">
+        <v>1889.4123</v>
+      </c>
+      <c r="U83" s="21">
+        <v>1465.6908000000001</v>
+      </c>
+      <c r="V83" s="19">
+        <v>1788.9819</v>
+      </c>
+    </row>
+    <row r="84" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B84" s="6"/>
     </row>
-    <row r="85" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B85" s="6"/>
     </row>
-    <row r="86" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
     </row>
-    <row r="87" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B87" s="6"/>
     </row>
-    <row r="88" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B88" s="6"/>
     </row>
-    <row r="89" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B89" s="6"/>
     </row>
   </sheetData>
@@ -6459,25 +6531,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED968B30-91AE-4BCD-9838-818BA334E48C}">
   <dimension ref="B1:V89"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="83" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="83" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6:V82"/>
+      <selection pane="bottomRight" activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" style="4" customWidth="1"/>
-    <col min="2" max="3" width="20.6640625" style="4" customWidth="1"/>
-    <col min="4" max="21" width="15.6640625" style="4"/>
-    <col min="22" max="22" width="20.6640625" style="4" customWidth="1"/>
-    <col min="23" max="16384" width="15.6640625" style="4"/>
+    <col min="1" max="1" width="4.5703125" style="4" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" style="4" customWidth="1"/>
+    <col min="4" max="21" width="15.7109375" style="4"/>
+    <col min="22" max="22" width="20.7109375" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="15.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="53" t="s">
         <v>11</v>
       </c>
@@ -6502,7 +6574,7 @@
       <c r="U2" s="54"/>
       <c r="V2" s="54"/>
     </row>
-    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="9" t="s">
         <v>8</v>
@@ -6533,7 +6605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -6598,7 +6670,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
         <v>42705</v>
       </c>
@@ -6623,7 +6695,7 @@
       <c r="U5" s="13"/>
       <c r="V5" s="11"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <v>42736</v>
       </c>
@@ -6688,7 +6760,7 @@
         <v>1.6071</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
         <v>42767</v>
       </c>
@@ -6753,7 +6825,7 @@
         <v>1.6587000000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <v>42795</v>
       </c>
@@ -6818,7 +6890,7 @@
         <v>1.5406</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <v>42826</v>
       </c>
@@ -6883,7 +6955,7 @@
         <v>2.3517000000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <v>42856</v>
       </c>
@@ -6948,7 +7020,7 @@
         <v>1.8993</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
         <v>42887</v>
       </c>
@@ -7013,7 +7085,7 @@
         <v>1.2845</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <v>42917</v>
       </c>
@@ -7078,7 +7150,7 @@
         <v>1.8971</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <v>42948</v>
       </c>
@@ -7143,7 +7215,7 @@
         <v>1.1851</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <v>42979</v>
       </c>
@@ -7208,7 +7280,7 @@
         <v>0.83930000000000005</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
         <v>43009</v>
       </c>
@@ -7273,7 +7345,7 @@
         <v>1.1243000000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="14">
         <v>43040</v>
       </c>
@@ -7338,7 +7410,7 @@
         <v>1.5330999999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="14">
         <v>43070</v>
       </c>
@@ -7403,7 +7475,7 @@
         <v>1.6093</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
         <v>43101</v>
       </c>
@@ -7468,7 +7540,7 @@
         <v>2.0897000000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="14">
         <v>43132</v>
       </c>
@@ -7533,7 +7605,7 @@
         <v>1.7984</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="14">
         <v>43160</v>
       </c>
@@ -7598,7 +7670,7 @@
         <v>1.8067</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="14">
         <v>43191</v>
       </c>
@@ -7620,7 +7692,7 @@
       <c r="H21" s="17">
         <v>3.2381000000000002</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="68">
         <v>2.7568999999999999</v>
       </c>
       <c r="J21" s="17">
@@ -7663,7 +7735,7 @@
         <v>1.8005</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="14">
         <v>43221</v>
       </c>
@@ -7728,7 +7800,7 @@
         <v>3.0171999999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="14">
         <v>43252</v>
       </c>
@@ -7793,7 +7865,7 @@
         <v>3.8776999999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="14">
         <v>43282</v>
       </c>
@@ -7858,7 +7930,7 @@
         <v>3.7290000000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="14">
         <v>43313</v>
       </c>
@@ -7923,7 +7995,7 @@
         <v>3.0457000000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="14">
         <v>43344</v>
       </c>
@@ -7988,7 +8060,7 @@
         <v>6.2069000000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="14">
         <v>43374</v>
       </c>
@@ -8053,7 +8125,7 @@
         <v>4.2497999999999996</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="14">
         <v>43405</v>
       </c>
@@ -8118,7 +8190,7 @@
         <v>3.6131000000000002</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="14">
         <v>43435</v>
       </c>
@@ -8183,7 +8255,7 @@
         <v>2.423</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="14">
         <v>43466</v>
       </c>
@@ -8248,7 +8320,7 @@
         <v>3.0381</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="14">
         <v>43497</v>
       </c>
@@ -8313,7 +8385,7 @@
         <v>4.0686999999999998</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="14">
         <v>43525</v>
       </c>
@@ -8378,7 +8450,7 @@
         <v>4.1976000000000004</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="14">
         <v>43556</v>
       </c>
@@ -8443,7 +8515,7 @@
         <v>3.3864999999999998</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="14">
         <v>43586</v>
       </c>
@@ -8508,7 +8580,7 @@
         <v>3.0464000000000002</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="14">
         <v>43617</v>
       </c>
@@ -8573,7 +8645,7 @@
         <v>2.8068</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="14">
         <v>43647</v>
       </c>
@@ -8638,7 +8710,7 @@
         <v>2.6156000000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="14">
         <v>43678</v>
       </c>
@@ -8703,7 +8775,7 @@
         <v>4.2591999999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="14">
         <v>43709</v>
       </c>
@@ -8768,7 +8840,7 @@
         <v>5.6048999999999998</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="14">
         <v>43739</v>
       </c>
@@ -8833,7 +8905,7 @@
         <v>3.0691999999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" s="14">
         <v>43770</v>
       </c>
@@ -8898,7 +8970,7 @@
         <v>4.6287000000000003</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="14">
         <v>43800</v>
       </c>
@@ -8963,7 +9035,7 @@
         <v>3.6472000000000002</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" s="14">
         <v>43831</v>
       </c>
@@ -9028,7 +9100,7 @@
         <v>3.7164000000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" s="14">
         <v>43862</v>
       </c>
@@ -9093,7 +9165,7 @@
         <v>2.7492999999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44" s="14">
         <v>43891</v>
       </c>
@@ -9158,7 +9230,7 @@
         <v>2.5773000000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45" s="14">
         <v>43922</v>
       </c>
@@ -9223,7 +9295,7 @@
         <v>2.1637</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46" s="14">
         <v>43952</v>
       </c>
@@ -9288,7 +9360,7 @@
         <v>2.5409000000000002</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47" s="14">
         <v>43983</v>
       </c>
@@ -9353,7 +9425,7 @@
         <v>2.8424</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B48" s="14">
         <v>44013</v>
       </c>
@@ -9418,7 +9490,7 @@
         <v>2.5202</v>
       </c>
     </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B49" s="14">
         <v>44044</v>
       </c>
@@ -9483,7 +9555,7 @@
         <v>2.8488000000000002</v>
       </c>
     </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B50" s="14">
         <v>44075</v>
       </c>
@@ -9548,7 +9620,7 @@
         <v>2.0783999999999998</v>
       </c>
     </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B51" s="14">
         <v>44105</v>
       </c>
@@ -9613,7 +9685,7 @@
         <v>3.8056000000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B52" s="14">
         <v>44136</v>
       </c>
@@ -9678,7 +9750,7 @@
         <v>3.8178000000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B53" s="14">
         <v>44166</v>
       </c>
@@ -9743,7 +9815,7 @@
         <v>4.4638</v>
       </c>
     </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B54" s="14">
         <v>44197</v>
       </c>
@@ -9808,7 +9880,7 @@
         <v>4.4154999999999998</v>
       </c>
     </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B55" s="14">
         <v>44228</v>
       </c>
@@ -9873,7 +9945,7 @@
         <v>4.0206999999999997</v>
       </c>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B56" s="14">
         <v>44256</v>
       </c>
@@ -9938,7 +10010,7 @@
         <v>4.2638999999999996</v>
       </c>
     </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B57" s="14">
         <v>44287</v>
       </c>
@@ -10003,7 +10075,7 @@
         <v>4.0263999999999998</v>
       </c>
     </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B58" s="14">
         <v>44317</v>
       </c>
@@ -10068,7 +10140,7 @@
         <v>3.4392</v>
       </c>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B59" s="14">
         <v>44348</v>
       </c>
@@ -10133,7 +10205,7 @@
         <v>3.3393000000000002</v>
       </c>
     </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B60" s="14">
         <v>44378</v>
       </c>
@@ -10198,7 +10270,7 @@
         <v>3.4542000000000002</v>
       </c>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B61" s="14">
         <v>44409</v>
       </c>
@@ -10263,7 +10335,7 @@
         <v>2.2938999999999998</v>
       </c>
     </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B62" s="14">
         <v>44440</v>
       </c>
@@ -10328,7 +10400,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B63" s="14">
         <v>44470</v>
       </c>
@@ -10393,7 +10465,7 @@
         <v>3.2282999999999999</v>
       </c>
     </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B64" s="14">
         <v>44501</v>
       </c>
@@ -10458,7 +10530,7 @@
         <v>3.2829999999999999</v>
       </c>
     </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B65" s="14">
         <v>44531</v>
       </c>
@@ -10523,7 +10595,7 @@
         <v>4.8131000000000004</v>
       </c>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B66" s="14">
         <v>44562</v>
       </c>
@@ -10588,7 +10660,7 @@
         <v>4.6520000000000001</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B67" s="14">
         <v>44593</v>
       </c>
@@ -10653,7 +10725,7 @@
         <v>5.4835000000000003</v>
       </c>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B68" s="14">
         <v>44621</v>
       </c>
@@ -10718,7 +10790,7 @@
         <v>5.8074000000000003</v>
       </c>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B69" s="14">
         <v>44652</v>
       </c>
@@ -10783,7 +10855,7 @@
         <v>6.2751000000000001</v>
       </c>
     </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B70" s="14">
         <v>44682</v>
       </c>
@@ -10848,7 +10920,7 @@
         <v>5.5622999999999996</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B71" s="14">
         <v>44713</v>
       </c>
@@ -10913,7 +10985,7 @@
         <v>5.4333999999999998</v>
       </c>
     </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B72" s="14">
         <v>44743</v>
       </c>
@@ -10978,7 +11050,7 @@
         <v>8.4673999999999996</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B73" s="14">
         <v>44774</v>
       </c>
@@ -11043,7 +11115,7 @@
         <v>7.2742000000000004</v>
       </c>
     </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B74" s="14">
         <v>44805</v>
       </c>
@@ -11108,7 +11180,7 @@
         <v>6.0476000000000001</v>
       </c>
     </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B75" s="14">
         <v>44835</v>
       </c>
@@ -11173,7 +11245,7 @@
         <v>5.7809999999999997</v>
       </c>
     </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B76" s="14">
         <v>44866</v>
       </c>
@@ -11238,7 +11310,7 @@
         <v>5.0435999999999996</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B77" s="14">
         <v>44896</v>
       </c>
@@ -11303,7 +11375,7 @@
         <v>5.4454000000000002</v>
       </c>
     </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B78" s="14">
         <v>44927</v>
       </c>
@@ -11368,7 +11440,7 @@
         <v>6.5185000000000004</v>
       </c>
     </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B79" s="14">
         <v>44958</v>
       </c>
@@ -11433,7 +11505,7 @@
         <v>7.6337000000000002</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B80" s="14">
         <v>44986</v>
       </c>
@@ -11498,7 +11570,7 @@
         <v>7.1085000000000003</v>
       </c>
     </row>
-    <row r="81" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B81" s="14">
         <v>45017</v>
       </c>
@@ -11563,90 +11635,152 @@
         <v>9.1327999999999996</v>
       </c>
     </row>
-    <row r="82" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="15">
+    <row r="82" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B82" s="14">
         <v>45047</v>
       </c>
-      <c r="C82" s="19">
+      <c r="C82" s="16">
         <v>8.2042999999999999</v>
       </c>
-      <c r="D82" s="20">
+      <c r="D82" s="17">
         <v>8.4934999999999992</v>
       </c>
-      <c r="E82" s="20">
+      <c r="E82" s="17">
         <v>8.0142000000000007</v>
       </c>
-      <c r="F82" s="20">
+      <c r="F82" s="17">
         <v>8.3439999999999994</v>
       </c>
-      <c r="G82" s="20">
+      <c r="G82" s="17">
         <v>7.7</v>
       </c>
-      <c r="H82" s="20">
+      <c r="H82" s="17">
         <v>7.8460000000000001</v>
       </c>
-      <c r="I82" s="21">
+      <c r="I82" s="18">
         <v>7.5743999999999998</v>
       </c>
-      <c r="J82" s="20">
+      <c r="J82" s="17">
         <v>6.6792999999999996</v>
       </c>
-      <c r="K82" s="20">
+      <c r="K82" s="17">
         <v>9.1022999999999996</v>
       </c>
-      <c r="L82" s="20">
+      <c r="L82" s="17">
         <v>8.5664999999999996</v>
       </c>
-      <c r="M82" s="20">
+      <c r="M82" s="17">
         <v>11.8596</v>
       </c>
-      <c r="N82" s="20">
+      <c r="N82" s="17">
         <v>9.0031999999999996</v>
       </c>
-      <c r="O82" s="20">
+      <c r="O82" s="17">
         <v>9.0530000000000008</v>
       </c>
-      <c r="P82" s="20">
+      <c r="P82" s="17">
         <v>8.1126000000000005</v>
       </c>
-      <c r="Q82" s="20">
+      <c r="Q82" s="17">
         <v>7.2121000000000004</v>
       </c>
-      <c r="R82" s="20">
+      <c r="R82" s="17">
         <v>8.3742000000000001</v>
       </c>
-      <c r="S82" s="20">
+      <c r="S82" s="17">
         <v>5.7813999999999997</v>
       </c>
-      <c r="T82" s="20">
+      <c r="T82" s="17">
         <v>9.3529</v>
       </c>
-      <c r="U82" s="21">
+      <c r="U82" s="18">
         <v>7.1810999999999998</v>
       </c>
-      <c r="V82" s="19">
+      <c r="V82" s="16">
         <v>7.8669000000000002</v>
       </c>
     </row>
-    <row r="83" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B83" s="6"/>
-    </row>
-    <row r="84" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="15">
+        <v>45078</v>
+      </c>
+      <c r="C83" s="19">
+        <v>6.1390000000000002</v>
+      </c>
+      <c r="D83" s="20">
+        <v>5.9984999999999999</v>
+      </c>
+      <c r="E83" s="20">
+        <v>6.1562000000000001</v>
+      </c>
+      <c r="F83" s="20">
+        <v>6.8429000000000002</v>
+      </c>
+      <c r="G83" s="20">
+        <v>7.0030999999999999</v>
+      </c>
+      <c r="H83" s="20">
+        <v>5.3849</v>
+      </c>
+      <c r="I83" s="21">
+        <v>6.9119000000000002</v>
+      </c>
+      <c r="J83" s="20">
+        <v>4.7302999999999997</v>
+      </c>
+      <c r="K83" s="20">
+        <v>4.4295</v>
+      </c>
+      <c r="L83" s="20">
+        <v>4.4406999999999996</v>
+      </c>
+      <c r="M83" s="20">
+        <v>8.1280000000000001</v>
+      </c>
+      <c r="N83" s="20">
+        <v>7.5505000000000004</v>
+      </c>
+      <c r="O83" s="20">
+        <v>8.6085999999999991</v>
+      </c>
+      <c r="P83" s="20">
+        <v>6.4973000000000001</v>
+      </c>
+      <c r="Q83" s="20">
+        <v>10.4236</v>
+      </c>
+      <c r="R83" s="20">
+        <v>6.4077000000000002</v>
+      </c>
+      <c r="S83" s="20">
+        <v>9.1888000000000005</v>
+      </c>
+      <c r="T83" s="20">
+        <v>6.3249000000000004</v>
+      </c>
+      <c r="U83" s="21">
+        <v>6.55</v>
+      </c>
+      <c r="V83" s="19">
+        <v>5.4370000000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B84" s="6"/>
     </row>
-    <row r="85" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B85" s="6"/>
     </row>
-    <row r="86" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
     </row>
-    <row r="87" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B87" s="6"/>
     </row>
-    <row r="88" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B88" s="6"/>
     </row>
-    <row r="89" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B89" s="6"/>
     </row>
   </sheetData>
@@ -11664,19 +11798,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83293D6D-81C8-49B2-8C10-806B04E884B0}">
   <dimension ref="B1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showGridLines="0" zoomScale="116" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="50.6640625" customWidth="1"/>
-    <col min="3" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="3" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="56" t="s">
         <v>13</v>
       </c>
@@ -11688,7 +11822,7 @@
       <c r="H2" s="57"/>
       <c r="I2" s="58"/>
     </row>
-    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="23" t="s">
         <v>14</v>
       </c>
@@ -11704,7 +11838,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="23" t="s">
         <v>17</v>
       </c>
@@ -11722,7 +11856,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="26"/>
       <c r="C5" s="27" t="s">
         <v>41</v>
@@ -11744,33 +11878,33 @@
       </c>
       <c r="I5" s="49"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="29">
-        <v>5.3951000000000002</v>
+        <v>6.3879000000000001</v>
       </c>
       <c r="D6" s="29">
-        <v>6.3879000000000001</v>
+        <v>6.8745000000000003</v>
       </c>
       <c r="E6" s="29">
-        <v>6.8745000000000003</v>
+        <v>6.6966000000000001</v>
       </c>
       <c r="F6" s="29">
-        <v>6.6966000000000001</v>
+        <v>8.3064999999999998</v>
       </c>
       <c r="G6" s="29">
-        <v>8.3064999999999998</v>
+        <v>8.2042999999999999</v>
       </c>
       <c r="H6" s="29">
-        <v>8.2042999999999999</v>
+        <v>6.1390000000000002</v>
       </c>
       <c r="I6" s="30">
-        <v>114.24630000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>115.58029999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="60" t="s">
         <v>7</v>
       </c>
@@ -11782,163 +11916,163 @@
       <c r="H7" s="61"/>
       <c r="I7" s="62"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="33" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="34">
-        <v>5.6646000000000001</v>
+        <v>6.44</v>
       </c>
       <c r="D8" s="34">
-        <v>6.44</v>
+        <v>7.0758000000000001</v>
       </c>
       <c r="E8" s="34">
-        <v>7.0758000000000001</v>
+        <v>6.5163000000000002</v>
       </c>
       <c r="F8" s="34">
-        <v>6.5163000000000002</v>
+        <v>8.4862000000000002</v>
       </c>
       <c r="G8" s="34">
-        <v>8.4862000000000002</v>
+        <v>8.4934999999999992</v>
       </c>
       <c r="H8" s="34">
-        <v>8.4934999999999992</v>
+        <v>5.9984999999999999</v>
       </c>
       <c r="I8" s="35">
-        <v>116.2586</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+        <v>116.9726</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="33" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="34">
-        <v>5.2676999999999996</v>
+        <v>6.3150000000000004</v>
       </c>
       <c r="D9" s="34">
-        <v>6.3150000000000004</v>
+        <v>6.4721000000000002</v>
       </c>
       <c r="E9" s="34">
-        <v>6.4721000000000002</v>
+        <v>6.9653999999999998</v>
       </c>
       <c r="F9" s="34">
-        <v>6.9653999999999998</v>
+        <v>8.3978999999999999</v>
       </c>
       <c r="G9" s="34">
-        <v>8.3978999999999999</v>
+        <v>8.0142000000000007</v>
       </c>
       <c r="H9" s="34">
-        <v>8.0142000000000007</v>
+        <v>6.1562000000000001</v>
       </c>
       <c r="I9" s="35">
-        <v>113.732</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+        <v>115.2183</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="33" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="34">
-        <v>4.84</v>
+        <v>6.5021000000000004</v>
       </c>
       <c r="D10" s="34">
-        <v>6.5021000000000004</v>
+        <v>7.4730999999999996</v>
       </c>
       <c r="E10" s="34">
-        <v>7.4730999999999996</v>
+        <v>6.5368000000000004</v>
       </c>
       <c r="F10" s="34">
-        <v>6.5368000000000004</v>
+        <v>7.5422000000000002</v>
       </c>
       <c r="G10" s="34">
-        <v>7.5422000000000002</v>
+        <v>8.3439999999999994</v>
       </c>
       <c r="H10" s="34">
-        <v>8.3439999999999994</v>
+        <v>6.8429000000000002</v>
       </c>
       <c r="I10" s="35">
-        <v>112.4603</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+        <v>115.2501</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="34">
-        <v>4.5907</v>
+        <v>6.1242000000000001</v>
       </c>
       <c r="D11" s="34">
-        <v>6.1242000000000001</v>
+        <v>7.8574999999999999</v>
       </c>
       <c r="E11" s="34">
-        <v>7.8574999999999999</v>
+        <v>5.9225000000000003</v>
       </c>
       <c r="F11" s="34">
-        <v>5.9225000000000003</v>
+        <v>8.3299000000000003</v>
       </c>
       <c r="G11" s="34">
-        <v>8.3299000000000003</v>
+        <v>7.7</v>
       </c>
       <c r="H11" s="34">
-        <v>7.7</v>
+        <v>7.0030999999999999</v>
       </c>
       <c r="I11" s="35">
-        <v>112.05589999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+        <v>115.46299999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="33" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="34">
-        <v>5.2243000000000004</v>
+        <v>6.6243999999999996</v>
       </c>
       <c r="D12" s="34">
-        <v>6.6243999999999996</v>
+        <v>6.6841999999999997</v>
       </c>
       <c r="E12" s="34">
-        <v>6.6841999999999997</v>
+        <v>7.2294</v>
       </c>
       <c r="F12" s="34">
-        <v>7.2294</v>
+        <v>7.0860000000000003</v>
       </c>
       <c r="G12" s="34">
-        <v>7.0860000000000003</v>
+        <v>7.8460000000000001</v>
       </c>
       <c r="H12" s="34">
-        <v>7.8460000000000001</v>
+        <v>5.3849</v>
       </c>
       <c r="I12" s="35">
-        <v>110.2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+        <v>110.218</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="33" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="34">
-        <v>4.9001000000000001</v>
+        <v>6.4839000000000002</v>
       </c>
       <c r="D13" s="34">
-        <v>6.4839000000000002</v>
+        <v>6.0327999999999999</v>
       </c>
       <c r="E13" s="34">
-        <v>6.0327999999999999</v>
+        <v>6.3354999999999997</v>
       </c>
       <c r="F13" s="34">
-        <v>6.3354999999999997</v>
+        <v>8.0623000000000005</v>
       </c>
       <c r="G13" s="34">
-        <v>8.0623000000000005</v>
+        <v>7.5743999999999998</v>
       </c>
       <c r="H13" s="34">
-        <v>7.5743999999999998</v>
+        <v>6.9119000000000002</v>
       </c>
       <c r="I13" s="35">
-        <v>108.2581</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+        <v>111.62139999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="33"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
@@ -11948,7 +12082,7 @@
       <c r="H14" s="34"/>
       <c r="I14" s="35"/>
     </row>
-    <row r="15" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="60" t="s">
         <v>9</v>
       </c>
@@ -11960,319 +12094,319 @@
       <c r="H15" s="61"/>
       <c r="I15" s="62"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="34">
-        <v>4.9176000000000002</v>
+        <v>6.4752999999999998</v>
       </c>
       <c r="D16" s="34">
-        <v>6.4752999999999998</v>
+        <v>9.2695000000000007</v>
       </c>
       <c r="E16" s="34">
-        <v>9.2695000000000007</v>
+        <v>8.3716000000000008</v>
       </c>
       <c r="F16" s="34">
-        <v>8.3716000000000008</v>
+        <v>10.327999999999999</v>
       </c>
       <c r="G16" s="34">
-        <v>10.327999999999999</v>
+        <v>6.6792999999999996</v>
       </c>
       <c r="H16" s="34">
-        <v>6.6792999999999996</v>
+        <v>4.7302999999999997</v>
       </c>
       <c r="I16" s="35">
-        <v>117.8344</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+        <v>116.85939999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="34">
-        <v>6.9817</v>
+        <v>7.343</v>
       </c>
       <c r="D17" s="34">
-        <v>7.343</v>
+        <v>6.0644999999999998</v>
       </c>
       <c r="E17" s="34">
-        <v>6.0644999999999998</v>
+        <v>7.4588000000000001</v>
       </c>
       <c r="F17" s="34">
-        <v>7.4588000000000001</v>
+        <v>4.8403</v>
       </c>
       <c r="G17" s="34">
-        <v>4.8403</v>
+        <v>9.1022999999999996</v>
       </c>
       <c r="H17" s="34">
-        <v>9.1022999999999996</v>
+        <v>4.4295</v>
       </c>
       <c r="I17" s="35">
-        <v>119.9121</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+        <v>115.3437</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="34">
-        <v>5.1325000000000003</v>
+        <v>5.6144999999999996</v>
       </c>
       <c r="D18" s="34">
-        <v>5.6144999999999996</v>
+        <v>6.1641000000000004</v>
       </c>
       <c r="E18" s="34">
-        <v>6.1641000000000004</v>
+        <v>5.4968000000000004</v>
       </c>
       <c r="F18" s="34">
-        <v>5.4968000000000004</v>
+        <v>8.4655000000000005</v>
       </c>
       <c r="G18" s="34">
-        <v>8.4655000000000005</v>
+        <v>8.5664999999999996</v>
       </c>
       <c r="H18" s="34">
-        <v>8.5664999999999996</v>
+        <v>4.4406999999999996</v>
       </c>
       <c r="I18" s="35">
-        <v>124.6568</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+        <v>121.3926</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="34">
-        <v>4.1905000000000001</v>
+        <v>8.0393000000000008</v>
       </c>
       <c r="D19" s="34">
-        <v>8.0393000000000008</v>
+        <v>4.8117999999999999</v>
       </c>
       <c r="E19" s="34">
-        <v>4.8117999999999999</v>
+        <v>6.5286999999999997</v>
       </c>
       <c r="F19" s="34">
-        <v>6.5286999999999997</v>
+        <v>5.5396999999999998</v>
       </c>
       <c r="G19" s="34">
-        <v>5.5396999999999998</v>
+        <v>11.8596</v>
       </c>
       <c r="H19" s="34">
-        <v>11.8596</v>
+        <v>8.1280000000000001</v>
       </c>
       <c r="I19" s="35">
-        <v>110.6491</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+        <v>113.1812</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="34">
-        <v>6.1665999999999999</v>
+        <v>6.1939000000000002</v>
       </c>
       <c r="D20" s="34">
-        <v>6.1939000000000002</v>
+        <v>5.2991999999999999</v>
       </c>
       <c r="E20" s="34">
-        <v>5.2991999999999999</v>
+        <v>5.9268999999999998</v>
       </c>
       <c r="F20" s="34">
-        <v>5.9268999999999998</v>
+        <v>8.8820999999999994</v>
       </c>
       <c r="G20" s="34">
-        <v>8.8820999999999994</v>
+        <v>9.0031999999999996</v>
       </c>
       <c r="H20" s="34">
-        <v>9.0031999999999996</v>
+        <v>7.5505000000000004</v>
       </c>
       <c r="I20" s="35">
-        <v>118.1224</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+        <v>122.25320000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="34">
-        <v>5.6837</v>
+        <v>4.9309000000000003</v>
       </c>
       <c r="D21" s="34">
-        <v>4.9309000000000003</v>
+        <v>5.3381999999999996</v>
       </c>
       <c r="E21" s="34">
-        <v>5.3381999999999996</v>
+        <v>5.7465000000000002</v>
       </c>
       <c r="F21" s="34">
-        <v>5.7465000000000002</v>
+        <v>6.5784000000000002</v>
       </c>
       <c r="G21" s="34">
-        <v>6.5784000000000002</v>
+        <v>9.0531000000000006</v>
       </c>
       <c r="H21" s="34">
-        <v>9.0531000000000006</v>
+        <v>8.6085999999999991</v>
       </c>
       <c r="I21" s="35">
-        <v>102.4845</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+        <v>104.7193</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="34">
-        <v>5.7976000000000001</v>
+        <v>5.9306999999999999</v>
       </c>
       <c r="D22" s="34">
-        <v>5.9306999999999999</v>
+        <v>4.8672000000000004</v>
       </c>
       <c r="E22" s="34">
-        <v>4.8672000000000004</v>
+        <v>5.2965999999999998</v>
       </c>
       <c r="F22" s="34">
-        <v>5.2965999999999998</v>
+        <v>6.4295999999999998</v>
       </c>
       <c r="G22" s="34">
-        <v>6.4295999999999998</v>
+        <v>8.1126000000000005</v>
       </c>
       <c r="H22" s="34">
-        <v>8.1126000000000005</v>
+        <v>6.4973000000000001</v>
       </c>
       <c r="I22" s="35">
-        <v>97.221699999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+        <v>100.52849999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="33" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="34">
-        <v>2.7271999999999998</v>
+        <v>7.0328999999999997</v>
       </c>
       <c r="D23" s="34">
-        <v>7.0328999999999997</v>
+        <v>7.8673999999999999</v>
       </c>
       <c r="E23" s="34">
-        <v>7.8673999999999999</v>
+        <v>1.8612</v>
       </c>
       <c r="F23" s="34">
-        <v>1.8612</v>
+        <v>6.8250999999999999</v>
       </c>
       <c r="G23" s="34">
-        <v>6.8250999999999999</v>
+        <v>7.2121000000000004</v>
       </c>
       <c r="H23" s="34">
-        <v>7.2121000000000004</v>
+        <v>10.4236</v>
       </c>
       <c r="I23" s="35">
-        <v>87.404300000000006</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+        <v>106.2456</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="34">
-        <v>4.7126999999999999</v>
+        <v>8.6866000000000003</v>
       </c>
       <c r="D24" s="34">
-        <v>8.6866000000000003</v>
+        <v>7.0808999999999997</v>
       </c>
       <c r="E24" s="34">
-        <v>7.0808999999999997</v>
+        <v>4.8491999999999997</v>
       </c>
       <c r="F24" s="34">
-        <v>4.8491999999999997</v>
+        <v>7.7507999999999999</v>
       </c>
       <c r="G24" s="34">
-        <v>7.7507999999999999</v>
+        <v>8.3742000000000001</v>
       </c>
       <c r="H24" s="34">
-        <v>8.3742000000000001</v>
+        <v>6.4077000000000002</v>
       </c>
       <c r="I24" s="35">
-        <v>111.4004</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+        <v>115.7084</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="34">
-        <v>6.3776000000000002</v>
+        <v>4.3446999999999996</v>
       </c>
       <c r="D25" s="34">
-        <v>4.3446999999999996</v>
+        <v>4.3636999999999997</v>
       </c>
       <c r="E25" s="34">
-        <v>4.3636999999999997</v>
+        <v>9.7789000000000001</v>
       </c>
       <c r="F25" s="34">
-        <v>9.7789000000000001</v>
+        <v>6.5856000000000003</v>
       </c>
       <c r="G25" s="34">
-        <v>6.5856000000000003</v>
+        <v>5.7813999999999997</v>
       </c>
       <c r="H25" s="34">
-        <v>5.7813999999999997</v>
+        <v>9.1888000000000005</v>
       </c>
       <c r="I25" s="35">
-        <v>101.7107</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+        <v>110.6936</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="33" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="34">
-        <v>7.1211000000000002</v>
+        <v>6.0919999999999996</v>
       </c>
       <c r="D26" s="34">
-        <v>6.0919999999999996</v>
+        <v>7.5350000000000001</v>
       </c>
       <c r="E26" s="34">
-        <v>7.5350000000000001</v>
+        <v>7.8757999999999999</v>
       </c>
       <c r="F26" s="34">
-        <v>7.8757999999999999</v>
+        <v>9.8618000000000006</v>
       </c>
       <c r="G26" s="34">
-        <v>9.8618000000000006</v>
+        <v>9.3529</v>
       </c>
       <c r="H26" s="34">
-        <v>9.3529</v>
+        <v>6.3249000000000004</v>
       </c>
       <c r="I26" s="35">
-        <v>134.46940000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+        <v>134.65270000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="33" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="34">
-        <v>5.7651000000000003</v>
+        <v>6.8654000000000002</v>
       </c>
       <c r="D27" s="34">
-        <v>6.8654000000000002</v>
+        <v>6.5246000000000004</v>
       </c>
       <c r="E27" s="34">
-        <v>6.5246000000000004</v>
+        <v>6.3487999999999998</v>
       </c>
       <c r="F27" s="34">
-        <v>6.3487999999999998</v>
+        <v>6.6539999999999999</v>
       </c>
       <c r="G27" s="34">
-        <v>6.6539999999999999</v>
+        <v>7.1810999999999998</v>
       </c>
       <c r="H27" s="34">
-        <v>7.1810999999999998</v>
+        <v>6.55</v>
       </c>
       <c r="I27" s="35">
-        <v>116.09269999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+        <v>119.236</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="33"/>
       <c r="C28" s="34"/>
       <c r="D28" s="34"/>
@@ -12282,7 +12416,7 @@
       <c r="H28" s="34"/>
       <c r="I28" s="35"/>
     </row>
-    <row r="29" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="60" t="s">
         <v>32</v>
       </c>
@@ -12294,189 +12428,189 @@
       <c r="H29" s="61"/>
       <c r="I29" s="62"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="33" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="34">
-        <v>5.4454000000000002</v>
+        <v>6.5185000000000004</v>
       </c>
       <c r="D30" s="34">
-        <v>6.5185000000000004</v>
+        <v>7.6337000000000002</v>
       </c>
       <c r="E30" s="34">
-        <v>7.6337000000000002</v>
+        <v>7.1085000000000003</v>
       </c>
       <c r="F30" s="34">
-        <v>7.1085000000000003</v>
+        <v>9.1327999999999996</v>
       </c>
       <c r="G30" s="34">
-        <v>9.1327999999999996</v>
+        <v>7.8669000000000002</v>
       </c>
       <c r="H30" s="34">
-        <v>7.8669000000000002</v>
+        <v>5.4370000000000003</v>
       </c>
       <c r="I30" s="35">
-        <v>120.38209999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+        <v>120.3224</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="33" t="s">
         <v>19</v>
       </c>
       <c r="C31" s="34">
-        <v>5.9950999999999999</v>
+        <v>6.4762000000000004</v>
       </c>
       <c r="D31" s="34">
-        <v>6.4762000000000004</v>
+        <v>8.0284999999999993</v>
       </c>
       <c r="E31" s="34">
-        <v>8.0284999999999993</v>
+        <v>6.9374000000000002</v>
       </c>
       <c r="F31" s="34">
-        <v>6.9374000000000002</v>
+        <v>9.1685999999999996</v>
       </c>
       <c r="G31" s="34">
-        <v>9.1685999999999996</v>
+        <v>8.2015999999999991</v>
       </c>
       <c r="H31" s="34">
-        <v>8.2015999999999991</v>
+        <v>5.1600999999999999</v>
       </c>
       <c r="I31" s="35">
-        <v>122.6708</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+        <v>121.4726</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="33" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="34">
-        <v>5.1825999999999999</v>
+        <v>6.4391999999999996</v>
       </c>
       <c r="D32" s="34">
-        <v>6.4391999999999996</v>
+        <v>6.9863999999999997</v>
       </c>
       <c r="E32" s="34">
-        <v>6.9863999999999997</v>
+        <v>7.4512</v>
       </c>
       <c r="F32" s="34">
-        <v>7.4512</v>
+        <v>9.4731000000000005</v>
       </c>
       <c r="G32" s="34">
-        <v>9.4731000000000005</v>
+        <v>7.4698000000000002</v>
       </c>
       <c r="H32" s="34">
-        <v>7.4698000000000002</v>
+        <v>5.6477000000000004</v>
       </c>
       <c r="I32" s="35">
-        <v>119.5736</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+        <v>120.3532</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="33" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="34">
-        <v>4.7891000000000004</v>
+        <v>6.9020000000000001</v>
       </c>
       <c r="D33" s="34">
-        <v>6.9020000000000001</v>
+        <v>8.3892000000000007</v>
       </c>
       <c r="E33" s="34">
-        <v>8.3892000000000007</v>
+        <v>6.6454000000000004</v>
       </c>
       <c r="F33" s="34">
-        <v>6.6454000000000004</v>
+        <v>8.2359000000000009</v>
       </c>
       <c r="G33" s="34">
-        <v>8.2359000000000009</v>
+        <v>8.3523999999999994</v>
       </c>
       <c r="H33" s="34">
-        <v>8.3523999999999994</v>
+        <v>5.6238000000000001</v>
       </c>
       <c r="I33" s="35">
-        <v>117.7478</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+        <v>118.6658</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="34">
-        <v>4.3894000000000002</v>
+        <v>6.7960000000000003</v>
       </c>
       <c r="D34" s="34">
-        <v>6.7960000000000003</v>
+        <v>8.3916000000000004</v>
       </c>
       <c r="E34" s="34">
-        <v>8.3916000000000004</v>
+        <v>6.2601000000000004</v>
       </c>
       <c r="F34" s="34">
-        <v>6.2601000000000004</v>
+        <v>9.3140000000000001</v>
       </c>
       <c r="G34" s="34">
-        <v>9.3140000000000001</v>
+        <v>7.3289999999999997</v>
       </c>
       <c r="H34" s="34">
-        <v>7.3289999999999997</v>
+        <v>6.1753999999999998</v>
       </c>
       <c r="I34" s="35">
-        <v>116.4893</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+        <v>118.3582</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="33" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="34">
-        <v>4.7441000000000004</v>
+        <v>6.6276000000000002</v>
       </c>
       <c r="D35" s="34">
-        <v>6.6276000000000002</v>
+        <v>7.5472000000000001</v>
       </c>
       <c r="E35" s="34">
-        <v>7.5472000000000001</v>
+        <v>7.9461000000000004</v>
       </c>
       <c r="F35" s="34">
-        <v>7.9461000000000004</v>
+        <v>7.9537000000000004</v>
       </c>
       <c r="G35" s="34">
-        <v>7.9537000000000004</v>
+        <v>7.4664000000000001</v>
       </c>
       <c r="H35" s="34">
-        <v>7.4664000000000001</v>
+        <v>4.8921999999999999</v>
       </c>
       <c r="I35" s="35">
-        <v>116.0222</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>115.667</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="36" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="37">
-        <v>4.8982999999999999</v>
+        <v>6.5438999999999998</v>
       </c>
       <c r="D36" s="37">
-        <v>6.5438999999999998</v>
+        <v>6.7431000000000001</v>
       </c>
       <c r="E36" s="37">
-        <v>6.7431000000000001</v>
+        <v>6.8400999999999996</v>
       </c>
       <c r="F36" s="37">
-        <v>6.8400999999999996</v>
+        <v>8.7773000000000003</v>
       </c>
       <c r="G36" s="37">
-        <v>8.7773000000000003</v>
+        <v>7.7986000000000004</v>
       </c>
       <c r="H36" s="37">
-        <v>7.7986000000000004</v>
+        <v>6.25</v>
       </c>
       <c r="I36" s="38">
-        <v>117.03279999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>118.6846</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="55" t="s">
         <v>34</v>
       </c>
@@ -12488,7 +12622,7 @@
       <c r="H37" s="55"/>
       <c r="I37" s="55"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -12498,7 +12632,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -12528,17 +12662,17 @@
   <dimension ref="B1:I33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="50.6640625" customWidth="1"/>
-    <col min="3" max="9" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="3" max="9" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="56" t="s">
         <v>35</v>
       </c>
@@ -12550,7 +12684,7 @@
       <c r="H2" s="64"/>
       <c r="I2" s="65"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="39"/>
       <c r="C3" s="40" t="s">
         <v>19</v>
@@ -12574,7 +12708,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="31" t="s">
         <v>36</v>
       </c>
@@ -12586,345 +12720,345 @@
       <c r="H4" s="48"/>
       <c r="I4" s="32"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="42" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="43">
-        <v>8.4934999999999992</v>
+        <v>5.9984999999999999</v>
       </c>
       <c r="D5" s="43">
-        <v>8.0142000000000007</v>
+        <v>6.1562000000000001</v>
       </c>
       <c r="E5" s="43">
-        <v>8.3439999999999994</v>
+        <v>6.8429000000000002</v>
       </c>
       <c r="F5" s="43">
-        <v>7.7</v>
+        <v>7.0030999999999999</v>
       </c>
       <c r="G5" s="43">
-        <v>7.8460000000000001</v>
+        <v>5.3849</v>
       </c>
       <c r="H5" s="43">
-        <v>7.5743999999999998</v>
+        <v>6.9119000000000002</v>
       </c>
       <c r="I5" s="44">
-        <v>8.2080000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+        <v>6.1390000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="34">
-        <v>1.7476</v>
+        <v>1.0464</v>
       </c>
       <c r="D6" s="34">
-        <v>1.9530000000000001</v>
+        <v>1.5686</v>
       </c>
       <c r="E6" s="34">
-        <v>3.2532000000000001</v>
+        <v>2.1463999999999999</v>
       </c>
       <c r="F6" s="34">
-        <v>2.5731000000000002</v>
+        <v>2.6183000000000001</v>
       </c>
       <c r="G6" s="34">
-        <v>2.4201999999999999</v>
+        <v>1.4404999999999999</v>
       </c>
       <c r="H6" s="34">
-        <v>2.17</v>
+        <v>1.7867</v>
       </c>
       <c r="I6" s="35">
-        <v>2.0127999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1.4258</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="34">
-        <v>0.23280000000000001</v>
+        <v>0.11650000000000001</v>
       </c>
       <c r="D7" s="34">
-        <v>0.29520000000000002</v>
+        <v>0.1343</v>
       </c>
       <c r="E7" s="34">
-        <v>0.21609999999999999</v>
+        <v>0.13789999999999999</v>
       </c>
       <c r="F7" s="34">
-        <v>0.28970000000000001</v>
+        <v>0.16489999999999999</v>
       </c>
       <c r="G7" s="34">
-        <v>0.24279999999999999</v>
+        <v>0.1137</v>
       </c>
       <c r="H7" s="34">
-        <v>0.2576</v>
+        <v>0.1041</v>
       </c>
       <c r="I7" s="35">
-        <v>0.25719999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.1255</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="34">
-        <v>1.0214000000000001</v>
+        <v>0.43680000000000002</v>
       </c>
       <c r="D8" s="34">
-        <v>0.9425</v>
+        <v>0.57189999999999996</v>
       </c>
       <c r="E8" s="34">
-        <v>1.0116000000000001</v>
+        <v>0.64290000000000003</v>
       </c>
       <c r="F8" s="34">
-        <v>0.92630000000000001</v>
+        <v>0.56310000000000004</v>
       </c>
       <c r="G8" s="34">
-        <v>0.77110000000000001</v>
+        <v>0.42749999999999999</v>
       </c>
       <c r="H8" s="34">
-        <v>0.9153</v>
+        <v>0.78779999999999994</v>
       </c>
       <c r="I8" s="35">
-        <v>0.97160000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.51839999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="34">
-        <v>0.92179999999999995</v>
+        <v>0.58509999999999995</v>
       </c>
       <c r="D9" s="34">
-        <v>0.73870000000000002</v>
+        <v>0.34129999999999999</v>
       </c>
       <c r="E9" s="34">
-        <v>0.55149999999999999</v>
+        <v>1.1278999999999999</v>
       </c>
       <c r="F9" s="34">
-        <v>0.83720000000000006</v>
+        <v>1.0512999999999999</v>
       </c>
       <c r="G9" s="34">
-        <v>0.99790000000000001</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="H9" s="34">
-        <v>0.5857</v>
+        <v>1.0654999999999999</v>
       </c>
       <c r="I9" s="35">
-        <v>0.81850000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.56410000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="34">
-        <v>0.57210000000000005</v>
+        <v>0.49270000000000003</v>
       </c>
       <c r="D10" s="34">
-        <v>0.54620000000000002</v>
+        <v>0.47360000000000002</v>
       </c>
       <c r="E10" s="34">
-        <v>0.54779999999999995</v>
+        <v>0.44929999999999998</v>
       </c>
       <c r="F10" s="34">
-        <v>0.71079999999999999</v>
+        <v>0.48609999999999998</v>
       </c>
       <c r="G10" s="34">
-        <v>0.50980000000000003</v>
+        <v>0.42659999999999998</v>
       </c>
       <c r="H10" s="34">
-        <v>0.61560000000000004</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="I10" s="35">
-        <v>0.56659999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.47770000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="34">
-        <v>0.70699999999999996</v>
+        <v>0.73560000000000003</v>
       </c>
       <c r="D11" s="34">
-        <v>0.80249999999999999</v>
+        <v>0.74690000000000001</v>
       </c>
       <c r="E11" s="34">
-        <v>0.68369999999999997</v>
+        <v>0.63060000000000005</v>
       </c>
       <c r="F11" s="34">
-        <v>0.60840000000000005</v>
+        <v>0.48609999999999998</v>
       </c>
       <c r="G11" s="34">
-        <v>0.84709999999999996</v>
+        <v>0.78059999999999996</v>
       </c>
       <c r="H11" s="34">
-        <v>0.53059999999999996</v>
+        <v>0.4425</v>
       </c>
       <c r="I11" s="35">
-        <v>0.73280000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="34">
-        <v>0.96579999999999999</v>
+        <v>0.6996</v>
       </c>
       <c r="D12" s="34">
-        <v>0.93769999999999998</v>
+        <v>0.75270000000000004</v>
       </c>
       <c r="E12" s="34">
-        <v>0.49709999999999999</v>
+        <v>0.4511</v>
       </c>
       <c r="F12" s="34">
-        <v>0.58399999999999996</v>
+        <v>0.57169999999999999</v>
       </c>
       <c r="G12" s="34">
-        <v>0.61780000000000002</v>
+        <v>0.7591</v>
       </c>
       <c r="H12" s="34">
-        <v>0.94420000000000004</v>
+        <v>0.93610000000000004</v>
       </c>
       <c r="I12" s="35">
-        <v>0.88770000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.7087</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="33" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="34">
-        <v>0.128</v>
+        <v>0.216</v>
       </c>
       <c r="D13" s="34">
-        <v>0.1666</v>
+        <v>0.2165</v>
       </c>
       <c r="E13" s="34">
-        <v>0.13339999999999999</v>
+        <v>0.21390000000000001</v>
       </c>
       <c r="F13" s="34">
-        <v>0.15590000000000001</v>
+        <v>0.16089999999999999</v>
       </c>
       <c r="G13" s="34">
-        <v>0.1027</v>
+        <v>0.11890000000000001</v>
       </c>
       <c r="H13" s="34">
-        <v>0.16589999999999999</v>
+        <v>0.13159999999999999</v>
       </c>
       <c r="I13" s="35">
-        <v>0.14319999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.20469999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="34">
-        <v>0.69720000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="D14" s="34">
-        <v>0.47799999999999998</v>
+        <v>0.44</v>
       </c>
       <c r="E14" s="34">
-        <v>0.2969</v>
+        <v>0.35</v>
       </c>
       <c r="F14" s="34">
-        <v>0.35239999999999999</v>
+        <v>0.34</v>
       </c>
       <c r="G14" s="34">
-        <v>0.37809999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="H14" s="34">
-        <v>0.71589999999999998</v>
+        <v>0.54</v>
       </c>
       <c r="I14" s="35">
-        <v>0.5635</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.41549999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="34">
-        <v>0.18149999999999999</v>
+        <v>0.25509999999999999</v>
       </c>
       <c r="D15" s="34">
-        <v>5.1799999999999999E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="E15" s="34">
-        <v>9.7100000000000006E-2</v>
+        <v>0.1226</v>
       </c>
       <c r="F15" s="34">
-        <v>3.7499999999999999E-2</v>
+        <v>0.13420000000000001</v>
       </c>
       <c r="G15" s="34">
-        <v>0.1241</v>
+        <v>0.12039999999999999</v>
       </c>
       <c r="H15" s="34">
-        <v>5.5300000000000002E-2</v>
+        <v>8.5500000000000007E-2</v>
       </c>
       <c r="I15" s="35">
-        <v>0.11609999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.17249999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="33" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="34">
-        <v>1.0941000000000001</v>
+        <v>0.80049999999999999</v>
       </c>
       <c r="D16" s="34">
-        <v>0.89890000000000003</v>
+        <v>0.61240000000000006</v>
       </c>
       <c r="E16" s="34">
-        <v>0.82550000000000001</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="F16" s="34">
-        <v>0.36499999999999999</v>
+        <v>0.19359999999999999</v>
       </c>
       <c r="G16" s="34">
-        <v>0.60780000000000001</v>
+        <v>0.34670000000000001</v>
       </c>
       <c r="H16" s="34">
-        <v>0.43120000000000003</v>
+        <v>0.39040000000000002</v>
       </c>
       <c r="I16" s="35">
-        <v>0.92049999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.63590000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="33" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="34">
-        <v>0.2243</v>
+        <v>0.19</v>
       </c>
       <c r="D17" s="34">
-        <v>0.20319999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="E17" s="34">
-        <v>0.2301</v>
+        <v>0.19</v>
       </c>
       <c r="F17" s="34">
-        <v>0.25969999999999999</v>
+        <v>0.21</v>
       </c>
       <c r="G17" s="34">
-        <v>0.2266</v>
+        <v>0.16</v>
       </c>
       <c r="H17" s="34">
-        <v>0.18709999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="I17" s="35">
-        <v>0.2175</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="45"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -12934,7 +13068,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="47"/>
     </row>
-    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="60" t="s">
         <v>36</v>
       </c>
@@ -12946,345 +13080,345 @@
       <c r="H19" s="61"/>
       <c r="I19" s="62"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="42" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="43">
-        <v>116.2586</v>
+        <v>116.9726</v>
       </c>
       <c r="D20" s="43">
-        <v>113.732</v>
+        <v>115.2183</v>
       </c>
       <c r="E20" s="43">
-        <v>112.4603</v>
+        <v>115.2501</v>
       </c>
       <c r="F20" s="43">
-        <v>112.05589999999999</v>
+        <v>115.46299999999999</v>
       </c>
       <c r="G20" s="43">
-        <v>110.2</v>
+        <v>110.218</v>
       </c>
       <c r="H20" s="43">
-        <v>108.2581</v>
+        <v>111.62139999999999</v>
       </c>
       <c r="I20" s="44">
-        <v>114.2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+        <v>115.58029999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="34">
-        <v>30.874199999999998</v>
+        <v>29.9895</v>
       </c>
       <c r="D21" s="34">
-        <v>36.097799999999999</v>
+        <v>35.757800000000003</v>
       </c>
       <c r="E21" s="34">
-        <v>42.127899999999997</v>
+        <v>42.374899999999997</v>
       </c>
       <c r="F21" s="34">
-        <v>42.846800000000002</v>
+        <v>43.884300000000003</v>
       </c>
       <c r="G21" s="34">
-        <v>35.178100000000001</v>
+        <v>34.728700000000003</v>
       </c>
       <c r="H21" s="34">
-        <v>32.103700000000003</v>
+        <v>32.579500000000003</v>
       </c>
       <c r="I21" s="35">
-        <v>34.253500000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+        <v>33.804299999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="34">
-        <v>3.1120000000000001</v>
+        <v>3.0226999999999999</v>
       </c>
       <c r="D22" s="34">
-        <v>3.6019000000000001</v>
+        <v>3.51</v>
       </c>
       <c r="E22" s="34">
-        <v>2.8759999999999999</v>
+        <v>2.8576000000000001</v>
       </c>
       <c r="F22" s="34">
-        <v>3.7214</v>
+        <v>3.7014</v>
       </c>
       <c r="G22" s="34">
-        <v>3.1254</v>
+        <v>3.0373000000000001</v>
       </c>
       <c r="H22" s="34">
-        <v>3.1621000000000001</v>
+        <v>3.0586000000000002</v>
       </c>
       <c r="I22" s="35">
-        <v>3.2936999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+        <v>3.2109999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="34">
-        <v>13.039899999999999</v>
+        <v>12.612299999999999</v>
       </c>
       <c r="D23" s="34">
-        <v>14.0749</v>
+        <v>13.883900000000001</v>
       </c>
       <c r="E23" s="34">
-        <v>15.7567</v>
+        <v>15.8119</v>
       </c>
       <c r="F23" s="34">
-        <v>13.7835</v>
+        <v>13.360099999999999</v>
       </c>
       <c r="G23" s="34">
-        <v>12.828799999999999</v>
+        <v>12.656499999999999</v>
       </c>
       <c r="H23" s="34">
-        <v>16.110700000000001</v>
+        <v>16.029800000000002</v>
       </c>
       <c r="I23" s="35">
-        <v>13.743600000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+        <v>13.4594</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="34">
-        <v>9.3971999999999998</v>
+        <v>9.5425000000000004</v>
       </c>
       <c r="D24" s="34">
-        <v>6.8474000000000004</v>
+        <v>6.8388999999999998</v>
       </c>
       <c r="E24" s="34">
-        <v>6.0430000000000001</v>
+        <v>7.4908000000000001</v>
       </c>
       <c r="F24" s="34">
-        <v>7.8114999999999997</v>
+        <v>9.3008000000000006</v>
       </c>
       <c r="G24" s="34">
-        <v>7.7804000000000002</v>
+        <v>7.4177</v>
       </c>
       <c r="H24" s="34">
-        <v>7.5292000000000003</v>
+        <v>8.8673000000000002</v>
       </c>
       <c r="I24" s="35">
-        <v>8.0540000000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+        <v>8.3252000000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="34">
-        <v>7.4085000000000001</v>
+        <v>7.7496999999999998</v>
       </c>
       <c r="D25" s="34">
-        <v>7.0675999999999997</v>
+        <v>7.3479999999999999</v>
       </c>
       <c r="E25" s="34">
-        <v>6.7436999999999996</v>
+        <v>7.0091000000000001</v>
       </c>
       <c r="F25" s="34">
-        <v>8.8332999999999995</v>
+        <v>9.2045999999999992</v>
       </c>
       <c r="G25" s="34">
-        <v>6.8693</v>
+        <v>7.0246000000000004</v>
       </c>
       <c r="H25" s="34">
-        <v>7.3396999999999997</v>
+        <v>7.6332000000000004</v>
       </c>
       <c r="I25" s="35">
-        <v>7.2793999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+        <v>7.5841000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="34">
-        <v>9.4665999999999997</v>
+        <v>9.7917000000000005</v>
       </c>
       <c r="D26" s="34">
-        <v>9.5296000000000003</v>
+        <v>9.9574999999999996</v>
       </c>
       <c r="E26" s="34">
-        <v>7.2443</v>
+        <v>7.6471999999999998</v>
       </c>
       <c r="F26" s="34">
-        <v>6.0895000000000001</v>
+        <v>6.4009999999999998</v>
       </c>
       <c r="G26" s="34">
-        <v>8.7788000000000004</v>
+        <v>9.3173999999999992</v>
       </c>
       <c r="H26" s="34">
-        <v>5.5274000000000001</v>
+        <v>5.7824999999999998</v>
       </c>
       <c r="I26" s="35">
-        <v>8.9672999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+        <v>9.3400999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="34">
-        <v>11.584</v>
+        <v>12.036899999999999</v>
       </c>
       <c r="D27" s="34">
-        <v>11.5898</v>
+        <v>11.8935</v>
       </c>
       <c r="E27" s="34">
-        <v>7.8494000000000002</v>
+        <v>7.9638</v>
       </c>
       <c r="F27" s="34">
-        <v>10.530900000000001</v>
+        <v>10.5097</v>
       </c>
       <c r="G27" s="34">
-        <v>12.6204</v>
+        <v>12.7172</v>
       </c>
       <c r="H27" s="34">
-        <v>15.4657</v>
+        <v>15.829800000000001</v>
       </c>
       <c r="I27" s="35">
-        <v>11.512600000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+        <v>11.847300000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="33" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="34">
-        <v>1.9482999999999999</v>
+        <v>2.2850000000000001</v>
       </c>
       <c r="D28" s="34">
-        <v>2.0078</v>
+        <v>2.3500999999999999</v>
       </c>
       <c r="E28" s="34">
-        <v>1.9537</v>
+        <v>2.2591999999999999</v>
       </c>
       <c r="F28" s="34">
-        <v>1.9484999999999999</v>
+        <v>2.1564000000000001</v>
       </c>
       <c r="G28" s="34">
-        <v>1.7325999999999999</v>
+        <v>1.8747</v>
       </c>
       <c r="H28" s="34">
-        <v>2.048</v>
+        <v>2.1987999999999999</v>
       </c>
       <c r="I28" s="35">
-        <v>1.9623999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+        <v>2.2745000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="34">
-        <v>8.0167000000000002</v>
+        <v>8.1172000000000004</v>
       </c>
       <c r="D29" s="34">
-        <v>7.3468999999999998</v>
+        <v>7.6569000000000003</v>
       </c>
       <c r="E29" s="34">
-        <v>5.7629999999999999</v>
+        <v>5.9855999999999998</v>
       </c>
       <c r="F29" s="34">
-        <v>5.7911000000000001</v>
+        <v>6.0364000000000004</v>
       </c>
       <c r="G29" s="34">
-        <v>6.6641000000000004</v>
+        <v>6.9569000000000001</v>
       </c>
       <c r="H29" s="34">
-        <v>8.0893999999999995</v>
+        <v>8.5376999999999992</v>
       </c>
       <c r="I29" s="35">
-        <v>7.4654999999999996</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+        <v>7.6783999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="34">
-        <v>3.0486</v>
+        <v>3.2143000000000002</v>
       </c>
       <c r="D30" s="34">
-        <v>1.3371</v>
+        <v>1.3972</v>
       </c>
       <c r="E30" s="34">
-        <v>1.6348</v>
+        <v>1.7173</v>
       </c>
       <c r="F30" s="34">
-        <v>0.82220000000000004</v>
+        <v>1.0174000000000001</v>
       </c>
       <c r="G30" s="34">
-        <v>1.6400999999999999</v>
+        <v>1.7342</v>
       </c>
       <c r="H30" s="34">
-        <v>1.4873000000000001</v>
+        <v>1.4798</v>
       </c>
       <c r="I30" s="35">
-        <v>2.1215000000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+        <v>2.2349999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="33" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="34">
-        <v>14.719799999999999</v>
+        <v>14.9016</v>
       </c>
       <c r="D31" s="34">
-        <v>10.860900000000001</v>
+        <v>11.155900000000001</v>
       </c>
       <c r="E31" s="34">
-        <v>11.2987</v>
+        <v>10.854100000000001</v>
       </c>
       <c r="F31" s="34">
-        <v>6.5350000000000001</v>
+        <v>6.3982999999999999</v>
       </c>
       <c r="G31" s="34">
-        <v>9.6616</v>
+        <v>9.3838000000000008</v>
       </c>
       <c r="H31" s="34">
-        <v>6.4626999999999999</v>
+        <v>6.6134000000000004</v>
       </c>
       <c r="I31" s="35">
-        <v>12.156599999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>12.2944</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="36" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="37">
-        <v>3.6461000000000001</v>
+        <v>3.7124999999999999</v>
       </c>
       <c r="D32" s="37">
-        <v>3.3704000000000001</v>
+        <v>3.468</v>
       </c>
       <c r="E32" s="37">
-        <v>3.1705000000000001</v>
+        <v>3.2793999999999999</v>
       </c>
       <c r="F32" s="37">
-        <v>3.3391000000000002</v>
+        <v>3.4897</v>
       </c>
       <c r="G32" s="37">
-        <v>3.3203</v>
+        <v>3.3691</v>
       </c>
       <c r="H32" s="37">
-        <v>2.9300999999999999</v>
+        <v>3.0097</v>
       </c>
       <c r="I32" s="38">
-        <v>3.4557000000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3.5390999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="66" t="s">
         <v>38</v>
       </c>

--- a/assets/excel/IPCse - Series históricas.xlsx
+++ b/assets/excel/IPCse - Series históricas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fiona\Dropbox\MGR\IPC seasonal adjustment\IPCse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F6AFAE-BCF8-4E98-A78F-561EE44890B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F34B78-7C96-4E1F-8D3B-C97A1EC0B4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" activeTab="1" xr2:uid="{A81B6F3A-9175-42CA-B78F-287A4E3C6249}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="2" xr2:uid="{A81B6F3A-9175-42CA-B78F-287A4E3C6249}"/>
   </bookViews>
   <sheets>
     <sheet name="Índices" sheetId="1" r:id="rId1"/>
@@ -186,9 +186,6 @@
     <t>May. 2023/May. 2022</t>
   </si>
   <si>
-    <t>Ene.</t>
-  </si>
-  <si>
     <t>Feb.</t>
   </si>
   <si>
@@ -203,6 +200,9 @@
   <si>
     <t>Jun.</t>
   </si>
+  <si>
+    <t>Jul.</t>
+  </si>
 </sst>
 </file>
 
@@ -211,7 +211,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,13 +295,6 @@
       <b/>
       <u/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Nova"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial Nova"/>
       <family val="2"/>
@@ -724,7 +717,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -904,9 +897,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1229,20 +1219,20 @@
       <selection activeCell="M1" sqref="M1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
-      <selection pane="bottomRight" activeCell="F79" sqref="F79"/>
+      <selection pane="bottomRight" activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="4" customWidth="1"/>
-    <col min="2" max="3" width="20.7109375" style="4" customWidth="1"/>
-    <col min="4" max="21" width="15.7109375" style="4"/>
-    <col min="22" max="22" width="20.7109375" style="4" customWidth="1"/>
-    <col min="23" max="16384" width="15.7109375" style="4"/>
+    <col min="1" max="1" width="4.5546875" style="4" customWidth="1"/>
+    <col min="2" max="3" width="20.6640625" style="4" customWidth="1"/>
+    <col min="4" max="21" width="15.6640625" style="4"/>
+    <col min="22" max="22" width="20.6640625" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="15.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="53" t="s">
         <v>10</v>
       </c>
@@ -1267,7 +1257,7 @@
       <c r="U2" s="54"/>
       <c r="V2" s="54"/>
     </row>
-    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="9" t="s">
         <v>8</v>
@@ -1298,7 +1288,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1363,7 +1353,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B5" s="10">
         <v>42705</v>
       </c>
@@ -1428,7 +1418,7 @@
         <v>99.977400000000003</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B6" s="14">
         <v>42736</v>
       </c>
@@ -1493,7 +1483,7 @@
         <v>101.58410000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B7" s="14">
         <v>42767</v>
       </c>
@@ -1558,7 +1548,7 @@
         <v>103.26909999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B8" s="14">
         <v>42795</v>
       </c>
@@ -1623,7 +1613,7 @@
         <v>104.8601</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B9" s="14">
         <v>42826</v>
       </c>
@@ -1688,7 +1678,7 @@
         <v>107.3261</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B10" s="14">
         <v>42856</v>
       </c>
@@ -1753,7 +1743,7 @@
         <v>109.36450000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B11" s="14">
         <v>42887</v>
       </c>
@@ -1818,7 +1808,7 @@
         <v>110.7693</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B12" s="14">
         <v>42917</v>
       </c>
@@ -1883,7 +1873,7 @@
         <v>112.8707</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B13" s="14">
         <v>42948</v>
       </c>
@@ -1948,7 +1938,7 @@
         <v>114.20829999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B14" s="14">
         <v>42979</v>
       </c>
@@ -2013,7 +2003,7 @@
         <v>115.16679999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B15" s="14">
         <v>43009</v>
       </c>
@@ -2078,7 +2068,7 @@
         <v>116.4616</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B16" s="14">
         <v>43040</v>
       </c>
@@ -2143,7 +2133,7 @@
         <v>118.2471</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B17" s="14">
         <v>43070</v>
       </c>
@@ -2208,7 +2198,7 @@
         <v>120.15</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B18" s="14">
         <v>43101</v>
       </c>
@@ -2273,7 +2263,7 @@
         <v>122.66079999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B19" s="14">
         <v>43132</v>
       </c>
@@ -2338,7 +2328,7 @@
         <v>124.86669999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B20" s="14">
         <v>43160</v>
       </c>
@@ -2403,7 +2393,7 @@
         <v>127.12269999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B21" s="14">
         <v>43191</v>
       </c>
@@ -2468,7 +2458,7 @@
         <v>129.41149999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B22" s="14">
         <v>43221</v>
       </c>
@@ -2533,7 +2523,7 @@
         <v>133.31610000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B23" s="14">
         <v>43252</v>
       </c>
@@ -2598,7 +2588,7 @@
         <v>138.48570000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B24" s="14">
         <v>43282</v>
       </c>
@@ -2663,7 +2653,7 @@
         <v>143.6498</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B25" s="14">
         <v>43313</v>
       </c>
@@ -2728,7 +2718,7 @@
         <v>148.0249</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B26" s="14">
         <v>43344</v>
       </c>
@@ -2793,7 +2783,7 @@
         <v>157.21270000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B27" s="14">
         <v>43374</v>
       </c>
@@ -2858,7 +2848,7 @@
         <v>163.8939</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B28" s="14">
         <v>43405</v>
       </c>
@@ -2923,7 +2913,7 @@
         <v>169.81559999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B29" s="14">
         <v>43435</v>
       </c>
@@ -2988,7 +2978,7 @@
         <v>173.93020000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B30" s="14">
         <v>43466</v>
       </c>
@@ -3053,7 +3043,7 @@
         <v>179.21430000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B31" s="14">
         <v>43497</v>
       </c>
@@ -3118,7 +3108,7 @@
         <v>186.506</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B32" s="14">
         <v>43525</v>
       </c>
@@ -3183,7 +3173,7 @@
         <v>194.3347</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B33" s="14">
         <v>43556</v>
       </c>
@@ -3248,7 +3238,7 @@
         <v>200.91579999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B34" s="14">
         <v>43586</v>
       </c>
@@ -3313,7 +3303,7 @@
         <v>207.03639999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B35" s="14">
         <v>43617</v>
       </c>
@@ -3378,7 +3368,7 @@
         <v>212.8476</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B36" s="14">
         <v>43647</v>
       </c>
@@ -3443,7 +3433,7 @@
         <v>218.41489999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B37" s="14">
         <v>43678</v>
       </c>
@@ -3508,7 +3498,7 @@
         <v>227.71770000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B38" s="14">
         <v>43709</v>
       </c>
@@ -3573,7 +3563,7 @@
         <v>240.4811</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B39" s="14">
         <v>43739</v>
       </c>
@@ -3638,7 +3628,7 @@
         <v>247.86199999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B40" s="14">
         <v>43770</v>
       </c>
@@ -3703,7 +3693,7 @@
         <v>259.3349</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B41" s="14">
         <v>43800</v>
       </c>
@@ -3768,7 +3758,7 @@
         <v>268.79329999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B42" s="14">
         <v>43831</v>
       </c>
@@ -3833,7 +3823,7 @@
         <v>278.7826</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B43" s="14">
         <v>43862</v>
       </c>
@@ -3898,7 +3888,7 @@
         <v>286.44729999999998</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B44" s="14">
         <v>43891</v>
       </c>
@@ -3963,7 +3953,7 @@
         <v>293.82990000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B45" s="14">
         <v>43922</v>
       </c>
@@ -4028,7 +4018,7 @@
         <v>300.18740000000003</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B46" s="14">
         <v>43952</v>
       </c>
@@ -4093,7 +4083,7 @@
         <v>307.81490000000002</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B47" s="14">
         <v>43983</v>
       </c>
@@ -4158,7 +4148,7 @@
         <v>316.56420000000003</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B48" s="14">
         <v>44013</v>
       </c>
@@ -4223,7 +4213,7 @@
         <v>324.54230000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B49" s="14">
         <v>44044</v>
       </c>
@@ -4288,7 +4278,7 @@
         <v>333.78789999999998</v>
       </c>
     </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B50" s="14">
         <v>44075</v>
       </c>
@@ -4353,7 +4343,7 @@
         <v>340.72519999999997</v>
       </c>
     </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B51" s="14">
         <v>44105</v>
       </c>
@@ -4418,7 +4408,7 @@
         <v>353.69189999999998</v>
       </c>
     </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B52" s="14">
         <v>44136</v>
       </c>
@@ -4483,7 +4473,7 @@
         <v>367.19499999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B53" s="14">
         <v>44166</v>
       </c>
@@ -4548,7 +4538,7 @@
         <v>383.58569999999997</v>
       </c>
     </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B54" s="14">
         <v>44197</v>
       </c>
@@ -4613,7 +4603,7 @@
         <v>400.52280000000002</v>
       </c>
     </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B55" s="14">
         <v>44228</v>
       </c>
@@ -4678,7 +4668,7 @@
         <v>416.6268</v>
       </c>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B56" s="14">
         <v>44256</v>
       </c>
@@ -4743,7 +4733,7 @@
         <v>434.39139999999998</v>
       </c>
     </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B57" s="14">
         <v>44287</v>
       </c>
@@ -4808,7 +4798,7 @@
         <v>451.8818</v>
       </c>
     </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B58" s="14">
         <v>44317</v>
       </c>
@@ -4873,7 +4863,7 @@
         <v>467.42290000000003</v>
       </c>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B59" s="14">
         <v>44348</v>
       </c>
@@ -4938,7 +4928,7 @@
         <v>483.03149999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B60" s="14">
         <v>44378</v>
       </c>
@@ -5003,7 +4993,7 @@
         <v>499.71620000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B61" s="14">
         <v>44409</v>
       </c>
@@ -5068,7 +5058,7 @@
         <v>511.17930000000001</v>
       </c>
     </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B62" s="14">
         <v>44440</v>
       </c>
@@ -5133,7 +5123,7 @@
         <v>525.85019999999997</v>
       </c>
     </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B63" s="14">
         <v>44470</v>
       </c>
@@ -5198,7 +5188,7 @@
         <v>542.82629999999995</v>
       </c>
     </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B64" s="14">
         <v>44501</v>
       </c>
@@ -5263,7 +5253,7 @@
         <v>560.64739999999995</v>
       </c>
     </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B65" s="14">
         <v>44531</v>
       </c>
@@ -5328,7 +5318,7 @@
         <v>587.63199999999995</v>
       </c>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B66" s="14">
         <v>44562</v>
       </c>
@@ -5393,7 +5383,7 @@
         <v>614.96839999999997</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B67" s="14">
         <v>44593</v>
       </c>
@@ -5458,7 +5448,7 @@
         <v>648.68989999999997</v>
       </c>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B68" s="14">
         <v>44621</v>
       </c>
@@ -5523,7 +5513,7 @@
         <v>686.36180000000002</v>
       </c>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B69" s="14">
         <v>44652</v>
       </c>
@@ -5588,7 +5578,7 @@
         <v>729.43140000000005</v>
       </c>
     </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B70" s="14">
         <v>44682</v>
       </c>
@@ -5653,7 +5643,7 @@
         <v>770.00469999999996</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B71" s="14">
         <v>44713</v>
       </c>
@@ -5718,7 +5708,7 @@
         <v>811.8424</v>
       </c>
     </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B72" s="14">
         <v>44743</v>
       </c>
@@ -5783,7 +5773,7 @@
         <v>880.58450000000005</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B73" s="14">
         <v>44774</v>
       </c>
@@ -5848,7 +5838,7 @@
         <v>944.6404</v>
       </c>
     </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B74" s="14">
         <v>44805</v>
       </c>
@@ -5913,7 +5903,7 @@
         <v>1001.7683</v>
       </c>
     </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B75" s="14">
         <v>44835</v>
       </c>
@@ -5978,7 +5968,7 @@
         <v>1059.6804</v>
       </c>
     </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B76" s="14">
         <v>44866</v>
       </c>
@@ -6043,7 +6033,7 @@
         <v>1113.1264000000001</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B77" s="14">
         <v>44896</v>
       </c>
@@ -6108,7 +6098,7 @@
         <v>1173.7402999999999</v>
       </c>
     </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B78" s="14">
         <v>44927</v>
       </c>
@@ -6173,7 +6163,7 @@
         <v>1250.2503999999999</v>
       </c>
     </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B79" s="14">
         <v>44958</v>
       </c>
@@ -6238,7 +6228,7 @@
         <v>1345.6905999999999</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B80" s="14">
         <v>44986</v>
       </c>
@@ -6303,7 +6293,7 @@
         <v>1441.3485000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B81" s="14">
         <v>45017</v>
       </c>
@@ -6368,7 +6358,7 @@
         <v>1572.9845</v>
       </c>
     </row>
-    <row r="82" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B82" s="14">
         <v>45047</v>
       </c>
@@ -6433,87 +6423,149 @@
         <v>1696.7299</v>
       </c>
     </row>
-    <row r="83" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="15">
+    <row r="83" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B83" s="14">
         <v>45078</v>
       </c>
-      <c r="C83" s="19">
+      <c r="C83" s="16">
         <v>1714.4431</v>
       </c>
-      <c r="D83" s="20">
+      <c r="D83" s="17">
         <v>1689.5324000000001</v>
       </c>
-      <c r="E83" s="20">
+      <c r="E83" s="17">
         <v>1725.8647000000001</v>
       </c>
-      <c r="F83" s="20">
+      <c r="F83" s="17">
         <v>1763.5222000000001</v>
       </c>
-      <c r="G83" s="20">
+      <c r="G83" s="17">
         <v>1790.4954</v>
       </c>
-      <c r="H83" s="20">
+      <c r="H83" s="17">
         <v>1741.8332</v>
       </c>
-      <c r="I83" s="21">
+      <c r="I83" s="18">
         <v>1661.6305</v>
       </c>
-      <c r="J83" s="20">
+      <c r="J83" s="17">
         <v>1855.5726999999999</v>
       </c>
-      <c r="K83" s="20">
+      <c r="K83" s="17">
         <v>1373.9409000000001</v>
       </c>
-      <c r="L83" s="20">
+      <c r="L83" s="17">
         <v>1981.6189999999999</v>
       </c>
-      <c r="M83" s="20">
+      <c r="M83" s="17">
         <v>1325.2036000000001</v>
       </c>
-      <c r="N83" s="20">
+      <c r="N83" s="17">
         <v>1727.2815000000001</v>
       </c>
-      <c r="O83" s="20">
+      <c r="O83" s="17">
         <v>1817.6131</v>
       </c>
-      <c r="P83" s="20">
+      <c r="P83" s="17">
         <v>1705.6713999999999</v>
       </c>
-      <c r="Q83" s="20">
+      <c r="Q83" s="17">
         <v>1244.2053000000001</v>
       </c>
-      <c r="R83" s="20">
+      <c r="R83" s="17">
         <v>1574.7768000000001</v>
       </c>
-      <c r="S83" s="20">
+      <c r="S83" s="17">
         <v>1379.8053</v>
       </c>
-      <c r="T83" s="20">
+      <c r="T83" s="17">
         <v>1889.4123</v>
       </c>
-      <c r="U83" s="21">
+      <c r="U83" s="18">
         <v>1465.6908000000001</v>
       </c>
-      <c r="V83" s="19">
+      <c r="V83" s="16">
         <v>1788.9819</v>
       </c>
     </row>
-    <row r="84" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B84" s="6"/>
-    </row>
-    <row r="85" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="15">
+        <v>45108</v>
+      </c>
+      <c r="C84" s="19">
+        <v>1826.1042</v>
+      </c>
+      <c r="D84" s="20">
+        <v>1794.4102</v>
+      </c>
+      <c r="E84" s="20">
+        <v>1842.7116000000001</v>
+      </c>
+      <c r="F84" s="20">
+        <v>1876.6052999999999</v>
+      </c>
+      <c r="G84" s="20">
+        <v>1904.12</v>
+      </c>
+      <c r="H84" s="20">
+        <v>1853.7610999999999</v>
+      </c>
+      <c r="I84" s="21">
+        <v>1789.7344000000001</v>
+      </c>
+      <c r="J84" s="20">
+        <v>1972.6869999999999</v>
+      </c>
+      <c r="K84" s="20">
+        <v>1505.4414999999999</v>
+      </c>
+      <c r="L84" s="20">
+        <v>2056.7728999999999</v>
+      </c>
+      <c r="M84" s="20">
+        <v>1378.2612999999999</v>
+      </c>
+      <c r="N84" s="20">
+        <v>1822.0668000000001</v>
+      </c>
+      <c r="O84" s="20">
+        <v>1982.0011</v>
+      </c>
+      <c r="P84" s="20">
+        <v>1796.6570999999999</v>
+      </c>
+      <c r="Q84" s="20">
+        <v>1401.3441</v>
+      </c>
+      <c r="R84" s="20">
+        <v>1735.9736</v>
+      </c>
+      <c r="S84" s="20">
+        <v>1464.2833000000001</v>
+      </c>
+      <c r="T84" s="20">
+        <v>2029.0886</v>
+      </c>
+      <c r="U84" s="21">
+        <v>1558.4743000000001</v>
+      </c>
+      <c r="V84" s="19">
+        <v>1904.9344000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B85" s="6"/>
     </row>
-    <row r="86" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B86" s="6"/>
     </row>
-    <row r="87" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B87" s="6"/>
     </row>
-    <row r="88" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B88" s="6"/>
     </row>
-    <row r="89" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B89" s="6"/>
     </row>
   </sheetData>
@@ -6531,25 +6583,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED968B30-91AE-4BCD-9838-818BA334E48C}">
   <dimension ref="B1:V89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="83" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="83" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="D51" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
-      <selection pane="bottomRight" activeCell="G93" sqref="G93"/>
+      <selection pane="bottomRight" activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="4" customWidth="1"/>
-    <col min="2" max="3" width="20.7109375" style="4" customWidth="1"/>
-    <col min="4" max="21" width="15.7109375" style="4"/>
-    <col min="22" max="22" width="20.7109375" style="4" customWidth="1"/>
-    <col min="23" max="16384" width="15.7109375" style="4"/>
+    <col min="1" max="1" width="4.5546875" style="4" customWidth="1"/>
+    <col min="2" max="3" width="20.6640625" style="4" customWidth="1"/>
+    <col min="4" max="21" width="15.6640625" style="4"/>
+    <col min="22" max="22" width="20.6640625" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="15.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="53" t="s">
         <v>11</v>
       </c>
@@ -6574,7 +6626,7 @@
       <c r="U2" s="54"/>
       <c r="V2" s="54"/>
     </row>
-    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="9" t="s">
         <v>8</v>
@@ -6605,7 +6657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -6670,7 +6722,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B5" s="10">
         <v>42705</v>
       </c>
@@ -6695,7 +6747,7 @@
       <c r="U5" s="13"/>
       <c r="V5" s="11"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B6" s="14">
         <v>42736</v>
       </c>
@@ -6760,7 +6812,7 @@
         <v>1.6071</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B7" s="14">
         <v>42767</v>
       </c>
@@ -6825,7 +6877,7 @@
         <v>1.6587000000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B8" s="14">
         <v>42795</v>
       </c>
@@ -6890,7 +6942,7 @@
         <v>1.5406</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B9" s="14">
         <v>42826</v>
       </c>
@@ -6955,7 +7007,7 @@
         <v>2.3517000000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B10" s="14">
         <v>42856</v>
       </c>
@@ -7020,7 +7072,7 @@
         <v>1.8993</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B11" s="14">
         <v>42887</v>
       </c>
@@ -7085,7 +7137,7 @@
         <v>1.2845</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B12" s="14">
         <v>42917</v>
       </c>
@@ -7150,7 +7202,7 @@
         <v>1.8971</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B13" s="14">
         <v>42948</v>
       </c>
@@ -7215,7 +7267,7 @@
         <v>1.1851</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B14" s="14">
         <v>42979</v>
       </c>
@@ -7280,7 +7332,7 @@
         <v>0.83930000000000005</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B15" s="14">
         <v>43009</v>
       </c>
@@ -7345,7 +7397,7 @@
         <v>1.1243000000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B16" s="14">
         <v>43040</v>
       </c>
@@ -7410,7 +7462,7 @@
         <v>1.5330999999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B17" s="14">
         <v>43070</v>
       </c>
@@ -7475,7 +7527,7 @@
         <v>1.6093</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B18" s="14">
         <v>43101</v>
       </c>
@@ -7540,7 +7592,7 @@
         <v>2.0897000000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B19" s="14">
         <v>43132</v>
       </c>
@@ -7605,7 +7657,7 @@
         <v>1.7984</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B20" s="14">
         <v>43160</v>
       </c>
@@ -7670,7 +7722,7 @@
         <v>1.8067</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B21" s="14">
         <v>43191</v>
       </c>
@@ -7692,7 +7744,7 @@
       <c r="H21" s="17">
         <v>3.2381000000000002</v>
       </c>
-      <c r="I21" s="68">
+      <c r="I21" s="18">
         <v>2.7568999999999999</v>
       </c>
       <c r="J21" s="17">
@@ -7735,7 +7787,7 @@
         <v>1.8005</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B22" s="14">
         <v>43221</v>
       </c>
@@ -7800,7 +7852,7 @@
         <v>3.0171999999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B23" s="14">
         <v>43252</v>
       </c>
@@ -7865,7 +7917,7 @@
         <v>3.8776999999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B24" s="14">
         <v>43282</v>
       </c>
@@ -7930,7 +7982,7 @@
         <v>3.7290000000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B25" s="14">
         <v>43313</v>
       </c>
@@ -7995,7 +8047,7 @@
         <v>3.0457000000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B26" s="14">
         <v>43344</v>
       </c>
@@ -8060,7 +8112,7 @@
         <v>6.2069000000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B27" s="14">
         <v>43374</v>
       </c>
@@ -8125,7 +8177,7 @@
         <v>4.2497999999999996</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B28" s="14">
         <v>43405</v>
       </c>
@@ -8190,7 +8242,7 @@
         <v>3.6131000000000002</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B29" s="14">
         <v>43435</v>
       </c>
@@ -8255,7 +8307,7 @@
         <v>2.423</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B30" s="14">
         <v>43466</v>
       </c>
@@ -8320,7 +8372,7 @@
         <v>3.0381</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B31" s="14">
         <v>43497</v>
       </c>
@@ -8385,7 +8437,7 @@
         <v>4.0686999999999998</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B32" s="14">
         <v>43525</v>
       </c>
@@ -8450,7 +8502,7 @@
         <v>4.1976000000000004</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B33" s="14">
         <v>43556</v>
       </c>
@@ -8515,7 +8567,7 @@
         <v>3.3864999999999998</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B34" s="14">
         <v>43586</v>
       </c>
@@ -8580,7 +8632,7 @@
         <v>3.0464000000000002</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B35" s="14">
         <v>43617</v>
       </c>
@@ -8645,7 +8697,7 @@
         <v>2.8068</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B36" s="14">
         <v>43647</v>
       </c>
@@ -8710,7 +8762,7 @@
         <v>2.6156000000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B37" s="14">
         <v>43678</v>
       </c>
@@ -8775,7 +8827,7 @@
         <v>4.2591999999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B38" s="14">
         <v>43709</v>
       </c>
@@ -8840,7 +8892,7 @@
         <v>5.6048999999999998</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B39" s="14">
         <v>43739</v>
       </c>
@@ -8905,7 +8957,7 @@
         <v>3.0691999999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B40" s="14">
         <v>43770</v>
       </c>
@@ -8970,7 +9022,7 @@
         <v>4.6287000000000003</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B41" s="14">
         <v>43800</v>
       </c>
@@ -9035,7 +9087,7 @@
         <v>3.6472000000000002</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B42" s="14">
         <v>43831</v>
       </c>
@@ -9100,7 +9152,7 @@
         <v>3.7164000000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B43" s="14">
         <v>43862</v>
       </c>
@@ -9165,7 +9217,7 @@
         <v>2.7492999999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B44" s="14">
         <v>43891</v>
       </c>
@@ -9230,7 +9282,7 @@
         <v>2.5773000000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B45" s="14">
         <v>43922</v>
       </c>
@@ -9295,7 +9347,7 @@
         <v>2.1637</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B46" s="14">
         <v>43952</v>
       </c>
@@ -9360,7 +9412,7 @@
         <v>2.5409000000000002</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B47" s="14">
         <v>43983</v>
       </c>
@@ -9425,7 +9477,7 @@
         <v>2.8424</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B48" s="14">
         <v>44013</v>
       </c>
@@ -9490,7 +9542,7 @@
         <v>2.5202</v>
       </c>
     </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B49" s="14">
         <v>44044</v>
       </c>
@@ -9555,7 +9607,7 @@
         <v>2.8488000000000002</v>
       </c>
     </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B50" s="14">
         <v>44075</v>
       </c>
@@ -9620,7 +9672,7 @@
         <v>2.0783999999999998</v>
       </c>
     </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B51" s="14">
         <v>44105</v>
       </c>
@@ -9685,7 +9737,7 @@
         <v>3.8056000000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B52" s="14">
         <v>44136</v>
       </c>
@@ -9750,7 +9802,7 @@
         <v>3.8178000000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B53" s="14">
         <v>44166</v>
       </c>
@@ -9815,7 +9867,7 @@
         <v>4.4638</v>
       </c>
     </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B54" s="14">
         <v>44197</v>
       </c>
@@ -9880,7 +9932,7 @@
         <v>4.4154999999999998</v>
       </c>
     </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B55" s="14">
         <v>44228</v>
       </c>
@@ -9945,7 +9997,7 @@
         <v>4.0206999999999997</v>
       </c>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B56" s="14">
         <v>44256</v>
       </c>
@@ -10010,7 +10062,7 @@
         <v>4.2638999999999996</v>
       </c>
     </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B57" s="14">
         <v>44287</v>
       </c>
@@ -10075,7 +10127,7 @@
         <v>4.0263999999999998</v>
       </c>
     </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B58" s="14">
         <v>44317</v>
       </c>
@@ -10140,7 +10192,7 @@
         <v>3.4392</v>
       </c>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B59" s="14">
         <v>44348</v>
       </c>
@@ -10205,7 +10257,7 @@
         <v>3.3393000000000002</v>
       </c>
     </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B60" s="14">
         <v>44378</v>
       </c>
@@ -10270,7 +10322,7 @@
         <v>3.4542000000000002</v>
       </c>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B61" s="14">
         <v>44409</v>
       </c>
@@ -10335,7 +10387,7 @@
         <v>2.2938999999999998</v>
       </c>
     </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B62" s="14">
         <v>44440</v>
       </c>
@@ -10400,7 +10452,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B63" s="14">
         <v>44470</v>
       </c>
@@ -10465,7 +10517,7 @@
         <v>3.2282999999999999</v>
       </c>
     </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B64" s="14">
         <v>44501</v>
       </c>
@@ -10530,7 +10582,7 @@
         <v>3.2829999999999999</v>
       </c>
     </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B65" s="14">
         <v>44531</v>
       </c>
@@ -10595,7 +10647,7 @@
         <v>4.8131000000000004</v>
       </c>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B66" s="14">
         <v>44562</v>
       </c>
@@ -10660,7 +10712,7 @@
         <v>4.6520000000000001</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B67" s="14">
         <v>44593</v>
       </c>
@@ -10725,7 +10777,7 @@
         <v>5.4835000000000003</v>
       </c>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B68" s="14">
         <v>44621</v>
       </c>
@@ -10790,7 +10842,7 @@
         <v>5.8074000000000003</v>
       </c>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B69" s="14">
         <v>44652</v>
       </c>
@@ -10855,7 +10907,7 @@
         <v>6.2751000000000001</v>
       </c>
     </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B70" s="14">
         <v>44682</v>
       </c>
@@ -10920,7 +10972,7 @@
         <v>5.5622999999999996</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B71" s="14">
         <v>44713</v>
       </c>
@@ -10985,7 +11037,7 @@
         <v>5.4333999999999998</v>
       </c>
     </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B72" s="14">
         <v>44743</v>
       </c>
@@ -11050,7 +11102,7 @@
         <v>8.4673999999999996</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B73" s="14">
         <v>44774</v>
       </c>
@@ -11115,7 +11167,7 @@
         <v>7.2742000000000004</v>
       </c>
     </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B74" s="14">
         <v>44805</v>
       </c>
@@ -11180,7 +11232,7 @@
         <v>6.0476000000000001</v>
       </c>
     </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B75" s="14">
         <v>44835</v>
       </c>
@@ -11245,7 +11297,7 @@
         <v>5.7809999999999997</v>
       </c>
     </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B76" s="14">
         <v>44866</v>
       </c>
@@ -11310,7 +11362,7 @@
         <v>5.0435999999999996</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B77" s="14">
         <v>44896</v>
       </c>
@@ -11375,7 +11427,7 @@
         <v>5.4454000000000002</v>
       </c>
     </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B78" s="14">
         <v>44927</v>
       </c>
@@ -11440,7 +11492,7 @@
         <v>6.5185000000000004</v>
       </c>
     </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B79" s="14">
         <v>44958</v>
       </c>
@@ -11505,7 +11557,7 @@
         <v>7.6337000000000002</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B80" s="14">
         <v>44986</v>
       </c>
@@ -11570,7 +11622,7 @@
         <v>7.1085000000000003</v>
       </c>
     </row>
-    <row r="81" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B81" s="14">
         <v>45017</v>
       </c>
@@ -11635,7 +11687,7 @@
         <v>9.1327999999999996</v>
       </c>
     </row>
-    <row r="82" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B82" s="14">
         <v>45047</v>
       </c>
@@ -11700,87 +11752,149 @@
         <v>7.8669000000000002</v>
       </c>
     </row>
-    <row r="83" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="15">
+    <row r="83" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B83" s="14">
         <v>45078</v>
       </c>
-      <c r="C83" s="19">
+      <c r="C83" s="16">
         <v>6.1390000000000002</v>
       </c>
-      <c r="D83" s="20">
+      <c r="D83" s="17">
         <v>5.9984999999999999</v>
       </c>
-      <c r="E83" s="20">
+      <c r="E83" s="17">
         <v>6.1562000000000001</v>
       </c>
-      <c r="F83" s="20">
+      <c r="F83" s="17">
         <v>6.8429000000000002</v>
       </c>
-      <c r="G83" s="20">
+      <c r="G83" s="17">
         <v>7.0030999999999999</v>
       </c>
-      <c r="H83" s="20">
+      <c r="H83" s="17">
         <v>5.3849</v>
       </c>
-      <c r="I83" s="21">
+      <c r="I83" s="18">
         <v>6.9119000000000002</v>
       </c>
-      <c r="J83" s="20">
+      <c r="J83" s="17">
         <v>4.7302999999999997</v>
       </c>
-      <c r="K83" s="20">
+      <c r="K83" s="17">
         <v>4.4295</v>
       </c>
-      <c r="L83" s="20">
+      <c r="L83" s="17">
         <v>4.4406999999999996</v>
       </c>
-      <c r="M83" s="20">
+      <c r="M83" s="17">
         <v>8.1280000000000001</v>
       </c>
-      <c r="N83" s="20">
+      <c r="N83" s="17">
         <v>7.5505000000000004</v>
       </c>
-      <c r="O83" s="20">
+      <c r="O83" s="17">
         <v>8.6085999999999991</v>
       </c>
-      <c r="P83" s="20">
+      <c r="P83" s="17">
         <v>6.4973000000000001</v>
       </c>
-      <c r="Q83" s="20">
+      <c r="Q83" s="17">
         <v>10.4236</v>
       </c>
-      <c r="R83" s="20">
+      <c r="R83" s="17">
         <v>6.4077000000000002</v>
       </c>
-      <c r="S83" s="20">
+      <c r="S83" s="17">
         <v>9.1888000000000005</v>
       </c>
-      <c r="T83" s="20">
+      <c r="T83" s="17">
         <v>6.3249000000000004</v>
       </c>
-      <c r="U83" s="21">
+      <c r="U83" s="18">
         <v>6.55</v>
       </c>
-      <c r="V83" s="19">
+      <c r="V83" s="16">
         <v>5.4370000000000003</v>
       </c>
     </row>
-    <row r="84" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B84" s="6"/>
-    </row>
-    <row r="85" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="15">
+        <v>45108</v>
+      </c>
+      <c r="C84" s="19">
+        <v>6.5129999999999999</v>
+      </c>
+      <c r="D84" s="20">
+        <v>6.2074999999999996</v>
+      </c>
+      <c r="E84" s="20">
+        <v>6.7702999999999998</v>
+      </c>
+      <c r="F84" s="20">
+        <v>6.4123000000000001</v>
+      </c>
+      <c r="G84" s="20">
+        <v>6.3460000000000001</v>
+      </c>
+      <c r="H84" s="20">
+        <v>6.4259000000000004</v>
+      </c>
+      <c r="I84" s="21">
+        <v>7.7095000000000002</v>
+      </c>
+      <c r="J84" s="20">
+        <v>6.3114999999999997</v>
+      </c>
+      <c r="K84" s="20">
+        <v>9.5710999999999995</v>
+      </c>
+      <c r="L84" s="20">
+        <v>3.7926000000000002</v>
+      </c>
+      <c r="M84" s="20">
+        <v>4.0037000000000003</v>
+      </c>
+      <c r="N84" s="20">
+        <v>5.4874999999999998</v>
+      </c>
+      <c r="O84" s="20">
+        <v>9.0442</v>
+      </c>
+      <c r="P84" s="20">
+        <v>5.3342999999999998</v>
+      </c>
+      <c r="Q84" s="20">
+        <v>12.6297</v>
+      </c>
+      <c r="R84" s="20">
+        <v>10.2362</v>
+      </c>
+      <c r="S84" s="20">
+        <v>6.1224999999999996</v>
+      </c>
+      <c r="T84" s="20">
+        <v>7.3925999999999998</v>
+      </c>
+      <c r="U84" s="21">
+        <v>6.3304</v>
+      </c>
+      <c r="V84" s="19">
+        <v>6.4814999999999996</v>
+      </c>
+    </row>
+    <row r="85" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B85" s="6"/>
     </row>
-    <row r="86" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B86" s="6"/>
     </row>
-    <row r="87" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B87" s="6"/>
     </row>
-    <row r="88" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B88" s="6"/>
     </row>
-    <row r="89" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B89" s="6"/>
     </row>
   </sheetData>
@@ -11798,19 +11912,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83293D6D-81C8-49B2-8C10-806B04E884B0}">
   <dimension ref="B1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="116" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
-    <col min="3" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" customWidth="1"/>
+    <col min="3" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="56" t="s">
         <v>13</v>
       </c>
@@ -11822,7 +11936,7 @@
       <c r="H2" s="57"/>
       <c r="I2" s="58"/>
     </row>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="23" t="s">
         <v>14</v>
       </c>
@@ -11838,7 +11952,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="23" t="s">
         <v>17</v>
       </c>
@@ -11856,7 +11970,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="26"/>
       <c r="C5" s="27" t="s">
         <v>41</v>
@@ -11878,33 +11992,33 @@
       </c>
       <c r="I5" s="49"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="29">
-        <v>6.3879000000000001</v>
+        <v>6.8745000000000003</v>
       </c>
       <c r="D6" s="29">
-        <v>6.8745000000000003</v>
+        <v>6.6966000000000001</v>
       </c>
       <c r="E6" s="29">
-        <v>6.6966000000000001</v>
+        <v>8.3064999999999998</v>
       </c>
       <c r="F6" s="29">
-        <v>8.3064999999999998</v>
+        <v>8.2042999999999999</v>
       </c>
       <c r="G6" s="29">
-        <v>8.2042999999999999</v>
+        <v>6.1390000000000002</v>
       </c>
       <c r="H6" s="29">
-        <v>6.1390000000000002</v>
+        <v>6.5129999999999999</v>
       </c>
       <c r="I6" s="30">
-        <v>115.58029999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>113.45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="60" t="s">
         <v>7</v>
       </c>
@@ -11916,163 +12030,163 @@
       <c r="H7" s="61"/>
       <c r="I7" s="62"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="33" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="34">
-        <v>6.44</v>
+        <v>7.0758000000000001</v>
       </c>
       <c r="D8" s="34">
-        <v>7.0758000000000001</v>
+        <v>6.5163000000000002</v>
       </c>
       <c r="E8" s="34">
-        <v>6.5163000000000002</v>
+        <v>8.4862000000000002</v>
       </c>
       <c r="F8" s="34">
-        <v>8.4862000000000002</v>
+        <v>8.4934999999999992</v>
       </c>
       <c r="G8" s="34">
-        <v>8.4934999999999992</v>
+        <v>5.9984999999999999</v>
       </c>
       <c r="H8" s="34">
-        <v>5.9984999999999999</v>
+        <v>6.2074999999999996</v>
       </c>
       <c r="I8" s="35">
-        <v>116.9726</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+        <v>114.5881</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="33" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="34">
-        <v>6.3150000000000004</v>
+        <v>6.4721000000000002</v>
       </c>
       <c r="D9" s="34">
-        <v>6.4721000000000002</v>
+        <v>6.9653999999999998</v>
       </c>
       <c r="E9" s="34">
-        <v>6.9653999999999998</v>
+        <v>8.3978999999999999</v>
       </c>
       <c r="F9" s="34">
-        <v>8.3978999999999999</v>
+        <v>8.0142000000000007</v>
       </c>
       <c r="G9" s="34">
-        <v>8.0142000000000007</v>
+        <v>6.1562000000000001</v>
       </c>
       <c r="H9" s="34">
-        <v>6.1562000000000001</v>
+        <v>6.7702999999999998</v>
       </c>
       <c r="I9" s="35">
-        <v>115.2183</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+        <v>113.0547</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="33" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="34">
-        <v>6.5021000000000004</v>
+        <v>7.4730999999999996</v>
       </c>
       <c r="D10" s="34">
-        <v>7.4730999999999996</v>
+        <v>6.5368000000000004</v>
       </c>
       <c r="E10" s="34">
-        <v>6.5368000000000004</v>
+        <v>7.5422000000000002</v>
       </c>
       <c r="F10" s="34">
-        <v>7.5422000000000002</v>
+        <v>8.3439999999999994</v>
       </c>
       <c r="G10" s="34">
-        <v>8.3439999999999994</v>
+        <v>6.8429000000000002</v>
       </c>
       <c r="H10" s="34">
-        <v>6.8429000000000002</v>
+        <v>6.4123000000000001</v>
       </c>
       <c r="I10" s="35">
-        <v>115.2501</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>113.9118</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="34">
-        <v>6.1242000000000001</v>
+        <v>7.8574999999999999</v>
       </c>
       <c r="D11" s="34">
-        <v>7.8574999999999999</v>
+        <v>5.9225000000000003</v>
       </c>
       <c r="E11" s="34">
-        <v>5.9225000000000003</v>
+        <v>8.3299000000000003</v>
       </c>
       <c r="F11" s="34">
-        <v>8.3299000000000003</v>
+        <v>7.7</v>
       </c>
       <c r="G11" s="34">
-        <v>7.7</v>
+        <v>7.0030999999999999</v>
       </c>
       <c r="H11" s="34">
-        <v>7.0030999999999999</v>
+        <v>6.3460000000000001</v>
       </c>
       <c r="I11" s="35">
-        <v>115.46299999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>113.0984</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="33" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="34">
-        <v>6.6243999999999996</v>
+        <v>6.6841999999999997</v>
       </c>
       <c r="D12" s="34">
-        <v>6.6841999999999997</v>
+        <v>7.2294</v>
       </c>
       <c r="E12" s="34">
-        <v>7.2294</v>
+        <v>7.0860000000000003</v>
       </c>
       <c r="F12" s="34">
-        <v>7.0860000000000003</v>
+        <v>7.8460000000000001</v>
       </c>
       <c r="G12" s="34">
-        <v>7.8460000000000001</v>
+        <v>5.3849</v>
       </c>
       <c r="H12" s="34">
-        <v>5.3849</v>
+        <v>6.4259000000000004</v>
       </c>
       <c r="I12" s="35">
-        <v>110.218</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>108.2129</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="33" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="34">
-        <v>6.4839000000000002</v>
+        <v>6.0327999999999999</v>
       </c>
       <c r="D13" s="34">
-        <v>6.0327999999999999</v>
+        <v>6.3354999999999997</v>
       </c>
       <c r="E13" s="34">
-        <v>6.3354999999999997</v>
+        <v>8.0623000000000005</v>
       </c>
       <c r="F13" s="34">
-        <v>8.0623000000000005</v>
+        <v>7.5743999999999998</v>
       </c>
       <c r="G13" s="34">
-        <v>7.5743999999999998</v>
+        <v>6.9119000000000002</v>
       </c>
       <c r="H13" s="34">
-        <v>6.9119000000000002</v>
+        <v>7.7095000000000002</v>
       </c>
       <c r="I13" s="35">
-        <v>111.62139999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>111.1443</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="33"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
@@ -12082,7 +12196,7 @@
       <c r="H14" s="34"/>
       <c r="I14" s="35"/>
     </row>
-    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="60" t="s">
         <v>9</v>
       </c>
@@ -12094,319 +12208,319 @@
       <c r="H15" s="61"/>
       <c r="I15" s="62"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="34">
-        <v>6.4752999999999998</v>
+        <v>9.2695000000000007</v>
       </c>
       <c r="D16" s="34">
-        <v>9.2695000000000007</v>
+        <v>8.3716000000000008</v>
       </c>
       <c r="E16" s="34">
-        <v>8.3716000000000008</v>
+        <v>10.327999999999999</v>
       </c>
       <c r="F16" s="34">
-        <v>10.327999999999999</v>
+        <v>6.6792999999999996</v>
       </c>
       <c r="G16" s="34">
-        <v>6.6792999999999996</v>
+        <v>4.7302999999999997</v>
       </c>
       <c r="H16" s="34">
-        <v>4.7302999999999997</v>
+        <v>6.3114999999999997</v>
       </c>
       <c r="I16" s="35">
-        <v>116.85939999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>116.3359</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="34">
-        <v>7.343</v>
+        <v>6.0644999999999998</v>
       </c>
       <c r="D17" s="34">
-        <v>6.0644999999999998</v>
+        <v>7.4588000000000001</v>
       </c>
       <c r="E17" s="34">
-        <v>7.4588000000000001</v>
+        <v>4.8403</v>
       </c>
       <c r="F17" s="34">
-        <v>4.8403</v>
+        <v>9.1022999999999996</v>
       </c>
       <c r="G17" s="34">
-        <v>9.1022999999999996</v>
+        <v>4.4295</v>
       </c>
       <c r="H17" s="34">
-        <v>4.4295</v>
+        <v>9.5710999999999995</v>
       </c>
       <c r="I17" s="35">
-        <v>115.3437</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>120.5879</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="34">
-        <v>5.6144999999999996</v>
+        <v>6.1641000000000004</v>
       </c>
       <c r="D18" s="34">
-        <v>6.1641000000000004</v>
+        <v>5.4968000000000004</v>
       </c>
       <c r="E18" s="34">
-        <v>5.4968000000000004</v>
+        <v>8.4655000000000005</v>
       </c>
       <c r="F18" s="34">
-        <v>8.4655000000000005</v>
+        <v>8.5664999999999996</v>
       </c>
       <c r="G18" s="34">
-        <v>8.5664999999999996</v>
+        <v>4.4406999999999996</v>
       </c>
       <c r="H18" s="34">
-        <v>4.4406999999999996</v>
+        <v>3.7926000000000002</v>
       </c>
       <c r="I18" s="35">
-        <v>121.3926</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>110.3129</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="34">
-        <v>8.0393000000000008</v>
+        <v>4.8117999999999999</v>
       </c>
       <c r="D19" s="34">
-        <v>4.8117999999999999</v>
+        <v>6.5286999999999997</v>
       </c>
       <c r="E19" s="34">
-        <v>6.5286999999999997</v>
+        <v>5.5396999999999998</v>
       </c>
       <c r="F19" s="34">
-        <v>5.5396999999999998</v>
+        <v>11.8596</v>
       </c>
       <c r="G19" s="34">
-        <v>11.8596</v>
+        <v>8.1280000000000001</v>
       </c>
       <c r="H19" s="34">
-        <v>8.1280000000000001</v>
+        <v>4.0037000000000003</v>
       </c>
       <c r="I19" s="35">
-        <v>113.1812</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>111.9988</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="34">
-        <v>6.1939000000000002</v>
+        <v>5.2991999999999999</v>
       </c>
       <c r="D20" s="34">
-        <v>5.2991999999999999</v>
+        <v>5.9268999999999998</v>
       </c>
       <c r="E20" s="34">
-        <v>5.9268999999999998</v>
+        <v>8.8820999999999994</v>
       </c>
       <c r="F20" s="34">
-        <v>8.8820999999999994</v>
+        <v>9.0031999999999996</v>
       </c>
       <c r="G20" s="34">
-        <v>9.0031999999999996</v>
+        <v>7.5505000000000004</v>
       </c>
       <c r="H20" s="34">
-        <v>7.5505000000000004</v>
+        <v>5.4874999999999998</v>
       </c>
       <c r="I20" s="35">
-        <v>122.25320000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>113.85429999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="34">
-        <v>4.9309000000000003</v>
+        <v>5.3381999999999996</v>
       </c>
       <c r="D21" s="34">
-        <v>5.3381999999999996</v>
+        <v>5.7465000000000002</v>
       </c>
       <c r="E21" s="34">
-        <v>5.7465000000000002</v>
+        <v>6.5784000000000002</v>
       </c>
       <c r="F21" s="34">
-        <v>6.5784000000000002</v>
+        <v>9.0531000000000006</v>
       </c>
       <c r="G21" s="34">
-        <v>9.0531000000000006</v>
+        <v>8.6085999999999991</v>
       </c>
       <c r="H21" s="34">
-        <v>8.6085999999999991</v>
+        <v>9.0442</v>
       </c>
       <c r="I21" s="35">
-        <v>104.7193</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>108.9101</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="34">
-        <v>5.9306999999999999</v>
+        <v>4.8672000000000004</v>
       </c>
       <c r="D22" s="34">
-        <v>4.8672000000000004</v>
+        <v>5.2965999999999998</v>
       </c>
       <c r="E22" s="34">
-        <v>5.2965999999999998</v>
+        <v>6.4295999999999998</v>
       </c>
       <c r="F22" s="34">
-        <v>6.4295999999999998</v>
+        <v>8.1126000000000005</v>
       </c>
       <c r="G22" s="34">
-        <v>8.1126000000000005</v>
+        <v>6.4973000000000001</v>
       </c>
       <c r="H22" s="34">
-        <v>6.4973000000000001</v>
+        <v>5.3342999999999998</v>
       </c>
       <c r="I22" s="35">
-        <v>100.52849999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>100.12739999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="33" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="34">
-        <v>7.0328999999999997</v>
+        <v>7.8673999999999999</v>
       </c>
       <c r="D23" s="34">
-        <v>7.8673999999999999</v>
+        <v>1.8612</v>
       </c>
       <c r="E23" s="34">
-        <v>1.8612</v>
+        <v>6.8250999999999999</v>
       </c>
       <c r="F23" s="34">
-        <v>6.8250999999999999</v>
+        <v>7.2121000000000004</v>
       </c>
       <c r="G23" s="34">
-        <v>7.2121000000000004</v>
+        <v>10.4236</v>
       </c>
       <c r="H23" s="34">
-        <v>10.4236</v>
+        <v>12.6297</v>
       </c>
       <c r="I23" s="35">
-        <v>106.2456</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>119.2525</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="34">
-        <v>8.6866000000000003</v>
+        <v>7.0808999999999997</v>
       </c>
       <c r="D24" s="34">
-        <v>7.0808999999999997</v>
+        <v>4.8491999999999997</v>
       </c>
       <c r="E24" s="34">
-        <v>4.8491999999999997</v>
+        <v>7.7507999999999999</v>
       </c>
       <c r="F24" s="34">
-        <v>7.7507999999999999</v>
+        <v>8.3742000000000001</v>
       </c>
       <c r="G24" s="34">
-        <v>8.3742000000000001</v>
+        <v>6.4077000000000002</v>
       </c>
       <c r="H24" s="34">
-        <v>6.4077000000000002</v>
+        <v>10.2362</v>
       </c>
       <c r="I24" s="35">
-        <v>115.7084</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>111.89960000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="34">
-        <v>4.3446999999999996</v>
+        <v>4.3636999999999997</v>
       </c>
       <c r="D25" s="34">
-        <v>4.3636999999999997</v>
+        <v>9.7789000000000001</v>
       </c>
       <c r="E25" s="34">
-        <v>9.7789000000000001</v>
+        <v>6.5856000000000003</v>
       </c>
       <c r="F25" s="34">
-        <v>6.5856000000000003</v>
+        <v>5.7813999999999997</v>
       </c>
       <c r="G25" s="34">
-        <v>5.7813999999999997</v>
+        <v>9.1888000000000005</v>
       </c>
       <c r="H25" s="34">
-        <v>9.1888000000000005</v>
+        <v>6.1224999999999996</v>
       </c>
       <c r="I25" s="35">
-        <v>110.6936</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+        <v>110.75620000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="33" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="34">
-        <v>6.0919999999999996</v>
+        <v>7.5350000000000001</v>
       </c>
       <c r="D26" s="34">
-        <v>7.5350000000000001</v>
+        <v>7.8757999999999999</v>
       </c>
       <c r="E26" s="34">
-        <v>7.8757999999999999</v>
+        <v>9.8618000000000006</v>
       </c>
       <c r="F26" s="34">
-        <v>9.8618000000000006</v>
+        <v>9.3529</v>
       </c>
       <c r="G26" s="34">
-        <v>9.3529</v>
+        <v>6.3249000000000004</v>
       </c>
       <c r="H26" s="34">
-        <v>6.3249000000000004</v>
+        <v>7.3925999999999998</v>
       </c>
       <c r="I26" s="35">
-        <v>134.65270000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+        <v>129.7182</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="33" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="34">
-        <v>6.8654000000000002</v>
+        <v>6.5246000000000004</v>
       </c>
       <c r="D27" s="34">
-        <v>6.5246000000000004</v>
+        <v>6.3487999999999998</v>
       </c>
       <c r="E27" s="34">
-        <v>6.3487999999999998</v>
+        <v>6.6539999999999999</v>
       </c>
       <c r="F27" s="34">
-        <v>6.6539999999999999</v>
+        <v>7.1810999999999998</v>
       </c>
       <c r="G27" s="34">
-        <v>7.1810999999999998</v>
+        <v>6.55</v>
       </c>
       <c r="H27" s="34">
-        <v>6.55</v>
+        <v>6.3304</v>
       </c>
       <c r="I27" s="35">
-        <v>119.236</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>115.6052</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="33"/>
       <c r="C28" s="34"/>
       <c r="D28" s="34"/>
@@ -12416,7 +12530,7 @@
       <c r="H28" s="34"/>
       <c r="I28" s="35"/>
     </row>
-    <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="60" t="s">
         <v>32</v>
       </c>
@@ -12428,189 +12542,189 @@
       <c r="H29" s="61"/>
       <c r="I29" s="62"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="33" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="34">
-        <v>6.5185000000000004</v>
+        <v>7.6337000000000002</v>
       </c>
       <c r="D30" s="34">
-        <v>7.6337000000000002</v>
+        <v>7.1085000000000003</v>
       </c>
       <c r="E30" s="34">
-        <v>7.1085000000000003</v>
+        <v>9.1327999999999996</v>
       </c>
       <c r="F30" s="34">
-        <v>9.1327999999999996</v>
+        <v>7.8669000000000002</v>
       </c>
       <c r="G30" s="34">
-        <v>7.8669000000000002</v>
+        <v>5.4370000000000003</v>
       </c>
       <c r="H30" s="34">
-        <v>5.4370000000000003</v>
+        <v>6.4814999999999996</v>
       </c>
       <c r="I30" s="35">
-        <v>120.3224</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>116.3796</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="33" t="s">
         <v>19</v>
       </c>
       <c r="C31" s="34">
-        <v>6.4762000000000004</v>
+        <v>8.0284999999999993</v>
       </c>
       <c r="D31" s="34">
-        <v>8.0284999999999993</v>
+        <v>6.9374000000000002</v>
       </c>
       <c r="E31" s="34">
-        <v>6.9374000000000002</v>
+        <v>9.1685999999999996</v>
       </c>
       <c r="F31" s="34">
-        <v>9.1685999999999996</v>
+        <v>8.2015999999999991</v>
       </c>
       <c r="G31" s="34">
-        <v>8.2015999999999991</v>
+        <v>5.1600999999999999</v>
       </c>
       <c r="H31" s="34">
-        <v>5.1600999999999999</v>
+        <v>6.4325000000000001</v>
       </c>
       <c r="I31" s="35">
-        <v>121.4726</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>117.29049999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="33" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="34">
-        <v>6.4391999999999996</v>
+        <v>6.9863999999999997</v>
       </c>
       <c r="D32" s="34">
-        <v>6.9863999999999997</v>
+        <v>7.4512</v>
       </c>
       <c r="E32" s="34">
-        <v>7.4512</v>
+        <v>9.4731000000000005</v>
       </c>
       <c r="F32" s="34">
-        <v>9.4731000000000005</v>
+        <v>7.4698000000000002</v>
       </c>
       <c r="G32" s="34">
-        <v>7.4698000000000002</v>
+        <v>5.6477000000000004</v>
       </c>
       <c r="H32" s="34">
-        <v>5.6477000000000004</v>
+        <v>6.6355000000000004</v>
       </c>
       <c r="I32" s="35">
-        <v>120.3532</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>116.4298</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="33" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="34">
-        <v>6.9020000000000001</v>
+        <v>8.3892000000000007</v>
       </c>
       <c r="D33" s="34">
-        <v>8.3892000000000007</v>
+        <v>6.6454000000000004</v>
       </c>
       <c r="E33" s="34">
-        <v>6.6454000000000004</v>
+        <v>8.2359000000000009</v>
       </c>
       <c r="F33" s="34">
-        <v>8.2359000000000009</v>
+        <v>8.3523999999999994</v>
       </c>
       <c r="G33" s="34">
-        <v>8.3523999999999994</v>
+        <v>5.6238000000000001</v>
       </c>
       <c r="H33" s="34">
-        <v>5.6238000000000001</v>
+        <v>6.117</v>
       </c>
       <c r="I33" s="35">
-        <v>118.6658</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>115.55500000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="34">
-        <v>6.7960000000000003</v>
+        <v>8.3916000000000004</v>
       </c>
       <c r="D34" s="34">
-        <v>8.3916000000000004</v>
+        <v>6.2601000000000004</v>
       </c>
       <c r="E34" s="34">
-        <v>6.2601000000000004</v>
+        <v>9.3140000000000001</v>
       </c>
       <c r="F34" s="34">
-        <v>9.3140000000000001</v>
+        <v>7.3289999999999997</v>
       </c>
       <c r="G34" s="34">
-        <v>7.3289999999999997</v>
+        <v>6.1753999999999998</v>
       </c>
       <c r="H34" s="34">
-        <v>6.1753999999999998</v>
+        <v>6.0045000000000002</v>
       </c>
       <c r="I34" s="35">
-        <v>118.3582</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>113.935</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="33" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="34">
-        <v>6.6276000000000002</v>
+        <v>7.5472000000000001</v>
       </c>
       <c r="D35" s="34">
-        <v>7.5472000000000001</v>
+        <v>7.9461000000000004</v>
       </c>
       <c r="E35" s="34">
-        <v>7.9461000000000004</v>
+        <v>7.9537000000000004</v>
       </c>
       <c r="F35" s="34">
-        <v>7.9537000000000004</v>
+        <v>7.4664000000000001</v>
       </c>
       <c r="G35" s="34">
-        <v>7.4664000000000001</v>
+        <v>4.8921999999999999</v>
       </c>
       <c r="H35" s="34">
-        <v>4.8921999999999999</v>
+        <v>6.1228999999999996</v>
       </c>
       <c r="I35" s="35">
-        <v>115.667</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>112.2132</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="36" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="37">
-        <v>6.5438999999999998</v>
+        <v>6.7431000000000001</v>
       </c>
       <c r="D36" s="37">
-        <v>6.7431000000000001</v>
+        <v>6.8400999999999996</v>
       </c>
       <c r="E36" s="37">
-        <v>6.8400999999999996</v>
+        <v>8.7773000000000003</v>
       </c>
       <c r="F36" s="37">
-        <v>8.7773000000000003</v>
+        <v>7.7986000000000004</v>
       </c>
       <c r="G36" s="37">
-        <v>7.7986000000000004</v>
+        <v>6.25</v>
       </c>
       <c r="H36" s="37">
-        <v>6.25</v>
+        <v>7.2976000000000001</v>
       </c>
       <c r="I36" s="38">
-        <v>118.6846</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>115.56619999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="55" t="s">
         <v>34</v>
       </c>
@@ -12622,7 +12736,7 @@
       <c r="H37" s="55"/>
       <c r="I37" s="55"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -12632,7 +12746,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -12662,17 +12776,17 @@
   <dimension ref="B1:I33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
-    <col min="3" max="9" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" customWidth="1"/>
+    <col min="3" max="9" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="56" t="s">
         <v>35</v>
       </c>
@@ -12684,7 +12798,7 @@
       <c r="H2" s="64"/>
       <c r="I2" s="65"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="39"/>
       <c r="C3" s="40" t="s">
         <v>19</v>
@@ -12708,7 +12822,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="31" t="s">
         <v>36</v>
       </c>
@@ -12720,345 +12834,345 @@
       <c r="H4" s="48"/>
       <c r="I4" s="32"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="42" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="43">
-        <v>5.9984999999999999</v>
+        <v>6.2074999999999996</v>
       </c>
       <c r="D5" s="43">
-        <v>6.1562000000000001</v>
+        <v>6.7702999999999998</v>
       </c>
       <c r="E5" s="43">
-        <v>6.8429000000000002</v>
+        <v>6.4123000000000001</v>
       </c>
       <c r="F5" s="43">
-        <v>7.0030999999999999</v>
+        <v>6.3460000000000001</v>
       </c>
       <c r="G5" s="43">
-        <v>5.3849</v>
+        <v>6.4259000000000004</v>
       </c>
       <c r="H5" s="43">
-        <v>6.9119000000000002</v>
+        <v>7.7095000000000002</v>
       </c>
       <c r="I5" s="44">
-        <v>6.1390000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6.5129999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="34">
-        <v>1.0464</v>
+        <v>1.6462000000000001</v>
       </c>
       <c r="D6" s="34">
-        <v>1.5686</v>
+        <v>1.9077</v>
       </c>
       <c r="E6" s="34">
-        <v>2.1463999999999999</v>
+        <v>2.2486999999999999</v>
       </c>
       <c r="F6" s="34">
-        <v>2.6183000000000001</v>
+        <v>2.2115</v>
       </c>
       <c r="G6" s="34">
-        <v>1.4404999999999999</v>
+        <v>1.9675</v>
       </c>
       <c r="H6" s="34">
-        <v>1.7867</v>
+        <v>2.0402</v>
       </c>
       <c r="I6" s="35">
-        <v>1.4258</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.8371999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="34">
-        <v>0.11650000000000001</v>
+        <v>0.2382</v>
       </c>
       <c r="D7" s="34">
-        <v>0.1343</v>
+        <v>0.30509999999999998</v>
       </c>
       <c r="E7" s="34">
-        <v>0.13789999999999999</v>
+        <v>0.23080000000000001</v>
       </c>
       <c r="F7" s="34">
-        <v>0.16489999999999999</v>
+        <v>0.3009</v>
       </c>
       <c r="G7" s="34">
-        <v>0.1137</v>
+        <v>0.26729999999999998</v>
       </c>
       <c r="H7" s="34">
-        <v>0.1041</v>
+        <v>0.31180000000000002</v>
       </c>
       <c r="I7" s="35">
-        <v>0.1255</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.26829999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="34">
-        <v>0.43680000000000002</v>
+        <v>0.38469999999999999</v>
       </c>
       <c r="D8" s="34">
-        <v>0.57189999999999996</v>
+        <v>0.4345</v>
       </c>
       <c r="E8" s="34">
-        <v>0.64290000000000003</v>
+        <v>0.56020000000000003</v>
       </c>
       <c r="F8" s="34">
-        <v>0.56310000000000004</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="G8" s="34">
-        <v>0.42749999999999999</v>
+        <v>0.41020000000000001</v>
       </c>
       <c r="H8" s="34">
-        <v>0.78779999999999994</v>
+        <v>0.79890000000000005</v>
       </c>
       <c r="I8" s="35">
-        <v>0.51839999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.4355</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="34">
-        <v>0.58509999999999995</v>
+        <v>0.29210000000000003</v>
       </c>
       <c r="D9" s="34">
-        <v>0.34129999999999999</v>
+        <v>0.22770000000000001</v>
       </c>
       <c r="E9" s="34">
-        <v>1.1278999999999999</v>
+        <v>0.25040000000000001</v>
       </c>
       <c r="F9" s="34">
-        <v>1.0512999999999999</v>
+        <v>0.4824</v>
       </c>
       <c r="G9" s="34">
-        <v>0.23899999999999999</v>
+        <v>0.3634</v>
       </c>
       <c r="H9" s="34">
-        <v>1.0654999999999999</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="I9" s="35">
-        <v>0.56410000000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.28820000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="34">
-        <v>0.49270000000000003</v>
+        <v>0.30740000000000001</v>
       </c>
       <c r="D10" s="34">
-        <v>0.47360000000000002</v>
+        <v>0.36930000000000002</v>
       </c>
       <c r="E10" s="34">
-        <v>0.44929999999999998</v>
+        <v>0.36109999999999998</v>
       </c>
       <c r="F10" s="34">
-        <v>0.48609999999999998</v>
+        <v>0.43609999999999999</v>
       </c>
       <c r="G10" s="34">
-        <v>0.42659999999999998</v>
+        <v>0.35949999999999999</v>
       </c>
       <c r="H10" s="34">
-        <v>0.45400000000000001</v>
+        <v>0.56620000000000004</v>
       </c>
       <c r="I10" s="35">
-        <v>0.47770000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.35260000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="34">
-        <v>0.73560000000000003</v>
+        <v>0.73160000000000003</v>
       </c>
       <c r="D11" s="34">
-        <v>0.74690000000000001</v>
+        <v>0.85529999999999995</v>
       </c>
       <c r="E11" s="34">
-        <v>0.63060000000000005</v>
+        <v>0.6875</v>
       </c>
       <c r="F11" s="34">
-        <v>0.48609999999999998</v>
+        <v>0.55210000000000004</v>
       </c>
       <c r="G11" s="34">
-        <v>0.78059999999999996</v>
+        <v>0.83179999999999998</v>
       </c>
       <c r="H11" s="34">
-        <v>0.4425</v>
+        <v>0.52149999999999996</v>
       </c>
       <c r="I11" s="35">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.75829999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="34">
-        <v>0.6996</v>
+        <v>0.41880000000000001</v>
       </c>
       <c r="D12" s="34">
-        <v>0.75270000000000004</v>
+        <v>0.65910000000000002</v>
       </c>
       <c r="E12" s="34">
-        <v>0.4511</v>
+        <v>0.52559999999999996</v>
       </c>
       <c r="F12" s="34">
-        <v>0.57169999999999999</v>
+        <v>0.56850000000000001</v>
       </c>
       <c r="G12" s="34">
-        <v>0.7591</v>
+        <v>0.76949999999999996</v>
       </c>
       <c r="H12" s="34">
-        <v>0.93610000000000004</v>
+        <v>1.4610000000000001</v>
       </c>
       <c r="I12" s="35">
-        <v>0.7087</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.58079999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="33" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="34">
-        <v>0.216</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="D13" s="34">
-        <v>0.2165</v>
+        <v>0.27829999999999999</v>
       </c>
       <c r="E13" s="34">
-        <v>0.21390000000000001</v>
+        <v>0.2261</v>
       </c>
       <c r="F13" s="34">
-        <v>0.16089999999999999</v>
+        <v>0.23180000000000001</v>
       </c>
       <c r="G13" s="34">
-        <v>0.11890000000000001</v>
+        <v>0.18940000000000001</v>
       </c>
       <c r="H13" s="34">
-        <v>0.13159999999999999</v>
+        <v>0.25950000000000001</v>
       </c>
       <c r="I13" s="35">
-        <v>0.20469999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.25850000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="34">
-        <v>0.4</v>
+        <v>0.74229999999999996</v>
       </c>
       <c r="D14" s="34">
-        <v>0.44</v>
+        <v>0.72330000000000005</v>
       </c>
       <c r="E14" s="34">
-        <v>0.35</v>
+        <v>0.4027</v>
       </c>
       <c r="F14" s="34">
-        <v>0.34</v>
+        <v>0.52669999999999995</v>
       </c>
       <c r="G14" s="34">
-        <v>0.43</v>
+        <v>0.55769999999999997</v>
       </c>
       <c r="H14" s="34">
-        <v>0.54</v>
+        <v>0.59650000000000003</v>
       </c>
       <c r="I14" s="35">
-        <v>0.41549999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.6865</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="34">
-        <v>0.25509999999999999</v>
+        <v>0.1686</v>
       </c>
       <c r="D15" s="34">
-        <v>9.9000000000000005E-2</v>
+        <v>7.3200000000000001E-2</v>
       </c>
       <c r="E15" s="34">
-        <v>0.1226</v>
+        <v>0.1023</v>
       </c>
       <c r="F15" s="34">
-        <v>0.13420000000000001</v>
+        <v>7.4099999999999999E-2</v>
       </c>
       <c r="G15" s="34">
-        <v>0.12039999999999999</v>
+        <v>7.7700000000000005E-2</v>
       </c>
       <c r="H15" s="34">
-        <v>8.5500000000000007E-2</v>
+        <v>5.2200000000000003E-2</v>
       </c>
       <c r="I15" s="35">
-        <v>0.17249999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.1171</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="33" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="34">
-        <v>0.80049999999999999</v>
+        <v>0.8165</v>
       </c>
       <c r="D16" s="34">
-        <v>0.61240000000000006</v>
+        <v>0.75919999999999999</v>
       </c>
       <c r="E16" s="34">
-        <v>0.35499999999999998</v>
+        <v>0.65139999999999998</v>
       </c>
       <c r="F16" s="34">
-        <v>0.19359999999999999</v>
+        <v>0.37209999999999999</v>
       </c>
       <c r="G16" s="34">
-        <v>0.34670000000000001</v>
+        <v>0.44819999999999999</v>
       </c>
       <c r="H16" s="34">
-        <v>0.39040000000000002</v>
+        <v>0.3785</v>
       </c>
       <c r="I16" s="35">
-        <v>0.63590000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.72640000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="33" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="34">
-        <v>0.19</v>
+        <v>0.2021</v>
       </c>
       <c r="D17" s="34">
-        <v>0.18</v>
+        <v>0.1777</v>
       </c>
       <c r="E17" s="34">
-        <v>0.19</v>
+        <v>0.16539999999999999</v>
       </c>
       <c r="F17" s="34">
-        <v>0.21</v>
+        <v>0.17380000000000001</v>
       </c>
       <c r="G17" s="34">
-        <v>0.16</v>
+        <v>0.1837</v>
       </c>
       <c r="H17" s="34">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="I17" s="35">
-        <v>0.185</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.19070000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="45"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -13068,7 +13182,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="47"/>
     </row>
-    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="60" t="s">
         <v>36</v>
       </c>
@@ -13080,345 +13194,345 @@
       <c r="H19" s="61"/>
       <c r="I19" s="62"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="42" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="43">
-        <v>116.9726</v>
+        <v>114.5881</v>
       </c>
       <c r="D20" s="43">
-        <v>115.2183</v>
+        <v>113.0547</v>
       </c>
       <c r="E20" s="43">
-        <v>115.2501</v>
+        <v>113.9118</v>
       </c>
       <c r="F20" s="43">
-        <v>115.46299999999999</v>
+        <v>113.0984</v>
       </c>
       <c r="G20" s="43">
-        <v>110.218</v>
+        <v>108.2129</v>
       </c>
       <c r="H20" s="43">
-        <v>111.62139999999999</v>
+        <v>111.1443</v>
       </c>
       <c r="I20" s="44">
-        <v>115.58029999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>113.45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="34">
-        <v>29.9895</v>
+        <v>29.611899999999999</v>
       </c>
       <c r="D21" s="34">
-        <v>35.757800000000003</v>
+        <v>34.938800000000001</v>
       </c>
       <c r="E21" s="34">
-        <v>42.374899999999997</v>
+        <v>41.703299999999999</v>
       </c>
       <c r="F21" s="34">
-        <v>43.884300000000003</v>
+        <v>42.526800000000001</v>
       </c>
       <c r="G21" s="34">
-        <v>34.728700000000003</v>
+        <v>34.1691</v>
       </c>
       <c r="H21" s="34">
-        <v>32.579500000000003</v>
+        <v>32.216500000000003</v>
       </c>
       <c r="I21" s="35">
-        <v>33.804299999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>33.202599999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="34">
-        <v>3.0226999999999999</v>
+        <v>3.1143000000000001</v>
       </c>
       <c r="D22" s="34">
-        <v>3.51</v>
+        <v>3.6484000000000001</v>
       </c>
       <c r="E22" s="34">
-        <v>2.8576000000000001</v>
+        <v>2.9706999999999999</v>
       </c>
       <c r="F22" s="34">
-        <v>3.7014</v>
+        <v>3.8246000000000002</v>
       </c>
       <c r="G22" s="34">
-        <v>3.0373000000000001</v>
+        <v>3.1555</v>
       </c>
       <c r="H22" s="34">
-        <v>3.0586000000000002</v>
+        <v>3.2551999999999999</v>
       </c>
       <c r="I22" s="35">
-        <v>3.2109999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3.3275999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="34">
-        <v>12.612299999999999</v>
+        <v>11.5946</v>
       </c>
       <c r="D23" s="34">
-        <v>13.883900000000001</v>
+        <v>12.6645</v>
       </c>
       <c r="E23" s="34">
-        <v>15.8119</v>
+        <v>14.5403</v>
       </c>
       <c r="F23" s="34">
-        <v>13.360099999999999</v>
+        <v>12.3523</v>
       </c>
       <c r="G23" s="34">
-        <v>12.656499999999999</v>
+        <v>11.624499999999999</v>
       </c>
       <c r="H23" s="34">
-        <v>16.029800000000002</v>
+        <v>14.9796</v>
       </c>
       <c r="I23" s="35">
-        <v>13.4594</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12.353400000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="34">
-        <v>9.5425000000000004</v>
+        <v>9.1222999999999992</v>
       </c>
       <c r="D24" s="34">
-        <v>6.8388999999999998</v>
+        <v>6.5784000000000002</v>
       </c>
       <c r="E24" s="34">
-        <v>7.4908000000000001</v>
+        <v>7.2483000000000004</v>
       </c>
       <c r="F24" s="34">
-        <v>9.3008000000000006</v>
+        <v>9.2719000000000005</v>
       </c>
       <c r="G24" s="34">
-        <v>7.4177</v>
+        <v>7.2962999999999996</v>
       </c>
       <c r="H24" s="34">
-        <v>8.8673000000000002</v>
+        <v>8.7131000000000007</v>
       </c>
       <c r="I24" s="35">
-        <v>8.3252000000000006</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8.0170999999999992</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="34">
-        <v>7.7496999999999998</v>
+        <v>7.3788</v>
       </c>
       <c r="D25" s="34">
-        <v>7.3479999999999999</v>
+        <v>6.9996999999999998</v>
       </c>
       <c r="E25" s="34">
-        <v>7.0091000000000001</v>
+        <v>6.7716000000000003</v>
       </c>
       <c r="F25" s="34">
-        <v>9.2045999999999992</v>
+        <v>8.9004999999999992</v>
       </c>
       <c r="G25" s="34">
-        <v>7.0246000000000004</v>
+        <v>6.7683999999999997</v>
       </c>
       <c r="H25" s="34">
-        <v>7.6332000000000004</v>
+        <v>7.6143999999999998</v>
       </c>
       <c r="I25" s="35">
-        <v>7.5841000000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7.2552000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="34">
-        <v>9.7917000000000005</v>
+        <v>9.9861000000000004</v>
       </c>
       <c r="D26" s="34">
-        <v>9.9574999999999996</v>
+        <v>10.3612</v>
       </c>
       <c r="E26" s="34">
-        <v>7.6471999999999998</v>
+        <v>8.1440000000000001</v>
       </c>
       <c r="F26" s="34">
-        <v>6.4009999999999998</v>
+        <v>6.6921999999999997</v>
       </c>
       <c r="G26" s="34">
-        <v>9.3173999999999992</v>
+        <v>9.7644000000000002</v>
       </c>
       <c r="H26" s="34">
-        <v>5.7824999999999998</v>
+        <v>6.0651000000000002</v>
       </c>
       <c r="I26" s="35">
-        <v>9.3400999999999996</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9.6484000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="34">
-        <v>12.036899999999999</v>
+        <v>11.6363</v>
       </c>
       <c r="D27" s="34">
-        <v>11.8935</v>
+        <v>11.6195</v>
       </c>
       <c r="E27" s="34">
-        <v>7.9638</v>
+        <v>8.0863999999999994</v>
       </c>
       <c r="F27" s="34">
-        <v>10.5097</v>
+        <v>10.404299999999999</v>
       </c>
       <c r="G27" s="34">
-        <v>12.7172</v>
+        <v>12.413600000000001</v>
       </c>
       <c r="H27" s="34">
-        <v>15.829800000000001</v>
+        <v>16.448899999999998</v>
       </c>
       <c r="I27" s="35">
-        <v>11.847300000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11.590999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="33" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="34">
-        <v>2.2850000000000001</v>
+        <v>2.5583999999999998</v>
       </c>
       <c r="D28" s="34">
-        <v>2.3500999999999999</v>
+        <v>2.5722999999999998</v>
       </c>
       <c r="E28" s="34">
-        <v>2.2591999999999999</v>
+        <v>2.4485000000000001</v>
       </c>
       <c r="F28" s="34">
-        <v>2.1564000000000001</v>
+        <v>2.3100999999999998</v>
       </c>
       <c r="G28" s="34">
-        <v>1.8747</v>
+        <v>1.9978</v>
       </c>
       <c r="H28" s="34">
-        <v>2.1987999999999999</v>
+        <v>2.4214000000000002</v>
       </c>
       <c r="I28" s="35">
-        <v>2.2745000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2.5091000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="34">
-        <v>8.1172000000000004</v>
+        <v>8.4140999999999995</v>
       </c>
       <c r="D29" s="34">
-        <v>7.6569000000000003</v>
+        <v>7.6920000000000002</v>
       </c>
       <c r="E29" s="34">
-        <v>5.9855999999999998</v>
+        <v>6.0789</v>
       </c>
       <c r="F29" s="34">
-        <v>6.0364000000000004</v>
+        <v>6.1158999999999999</v>
       </c>
       <c r="G29" s="34">
-        <v>6.9569000000000001</v>
+        <v>6.8926999999999996</v>
       </c>
       <c r="H29" s="34">
-        <v>8.5376999999999992</v>
+        <v>8.5555000000000003</v>
       </c>
       <c r="I29" s="35">
-        <v>7.6783999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7.8305999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="34">
-        <v>3.2143000000000002</v>
+        <v>3.1890000000000001</v>
       </c>
       <c r="D30" s="34">
-        <v>1.3972</v>
+        <v>1.3711</v>
       </c>
       <c r="E30" s="34">
-        <v>1.7173</v>
+        <v>1.7609999999999999</v>
       </c>
       <c r="F30" s="34">
-        <v>1.0174000000000001</v>
+        <v>1.0369999999999999</v>
       </c>
       <c r="G30" s="34">
-        <v>1.7342</v>
+        <v>1.6495</v>
       </c>
       <c r="H30" s="34">
-        <v>1.4798</v>
+        <v>1.4049</v>
       </c>
       <c r="I30" s="35">
-        <v>2.2349999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2.2109000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="33" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="34">
-        <v>14.9016</v>
+        <v>14.351800000000001</v>
       </c>
       <c r="D31" s="34">
-        <v>11.155900000000001</v>
+        <v>11.246700000000001</v>
       </c>
       <c r="E31" s="34">
-        <v>10.854100000000001</v>
+        <v>10.953099999999999</v>
       </c>
       <c r="F31" s="34">
-        <v>6.3982999999999999</v>
+        <v>6.3129</v>
       </c>
       <c r="G31" s="34">
-        <v>9.3838000000000008</v>
+        <v>9.1837</v>
       </c>
       <c r="H31" s="34">
-        <v>6.6134000000000004</v>
+        <v>6.4084000000000003</v>
       </c>
       <c r="I31" s="35">
-        <v>12.2944</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>12.0631</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="36" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="37">
-        <v>3.7124999999999999</v>
+        <v>3.6328999999999998</v>
       </c>
       <c r="D32" s="37">
-        <v>3.468</v>
+        <v>3.3603999999999998</v>
       </c>
       <c r="E32" s="37">
-        <v>3.2793999999999999</v>
+        <v>3.2073999999999998</v>
       </c>
       <c r="F32" s="37">
-        <v>3.4897</v>
+        <v>3.347</v>
       </c>
       <c r="G32" s="37">
-        <v>3.3691</v>
+        <v>3.2970999999999999</v>
       </c>
       <c r="H32" s="37">
-        <v>3.0097</v>
+        <v>3.0598000000000001</v>
       </c>
       <c r="I32" s="38">
-        <v>3.5390999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3.4540000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="66" t="s">
         <v>38</v>
       </c>

--- a/assets/excel/IPCse - Series históricas.xlsx
+++ b/assets/excel/IPCse - Series históricas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fiona\Dropbox\MGR\IPC seasonal adjustment\IPCse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F34B78-7C96-4E1F-8D3B-C97A1EC0B4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3871DCB6-8AFE-4718-9A40-BDDC523B187F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="2" xr2:uid="{A81B6F3A-9175-42CA-B78F-287A4E3C6249}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" activeTab="2" xr2:uid="{A81B6F3A-9175-42CA-B78F-287A4E3C6249}"/>
   </bookViews>
   <sheets>
     <sheet name="Índices" sheetId="1" r:id="rId1"/>
@@ -183,19 +183,19 @@
     <t>IPCse NACIONAL</t>
   </si>
   <si>
-    <t>May. 2023/May. 2022</t>
-  </si>
-  <si>
-    <t>Feb.</t>
-  </si>
-  <si>
-    <t>Mar.</t>
-  </si>
-  <si>
     <t>Abr.</t>
   </si>
   <si>
     <t>May.</t>
+  </si>
+  <si>
+    <t>Ago.</t>
+  </si>
+  <si>
+    <t>Ago. 2023/Ago. 2022</t>
+  </si>
+  <si>
+    <t>Mar.</t>
   </si>
   <si>
     <t>Jun.</t>
@@ -332,7 +332,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -574,15 +574,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -713,11 +704,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -770,31 +798,28 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -842,10 +867,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -871,8 +896,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -880,10 +905,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -895,7 +917,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1219,76 +1253,76 @@
       <selection activeCell="M1" sqref="M1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
-      <selection pane="bottomRight" activeCell="D83" sqref="D83"/>
+      <selection pane="bottomRight" activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" style="4" customWidth="1"/>
-    <col min="2" max="3" width="20.6640625" style="4" customWidth="1"/>
-    <col min="4" max="21" width="15.6640625" style="4"/>
-    <col min="22" max="22" width="20.6640625" style="4" customWidth="1"/>
-    <col min="23" max="16384" width="15.6640625" style="4"/>
+    <col min="1" max="1" width="4.5703125" style="4" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" style="4" customWidth="1"/>
+    <col min="4" max="21" width="15.7109375" style="4"/>
+    <col min="22" max="22" width="20.7109375" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="15.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="53" t="s">
+    <row r="1" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-    </row>
-    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+    </row>
+    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="50" t="s">
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="50"/>
       <c r="V3" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1353,7 +1387,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
         <v>42705</v>
       </c>
@@ -1418,7 +1452,7 @@
         <v>99.977400000000003</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <v>42736</v>
       </c>
@@ -1483,7 +1517,7 @@
         <v>101.58410000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
         <v>42767</v>
       </c>
@@ -1548,7 +1582,7 @@
         <v>103.26909999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <v>42795</v>
       </c>
@@ -1613,7 +1647,7 @@
         <v>104.8601</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <v>42826</v>
       </c>
@@ -1678,7 +1712,7 @@
         <v>107.3261</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <v>42856</v>
       </c>
@@ -1743,7 +1777,7 @@
         <v>109.36450000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
         <v>42887</v>
       </c>
@@ -1808,7 +1842,7 @@
         <v>110.7693</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <v>42917</v>
       </c>
@@ -1873,7 +1907,7 @@
         <v>112.8707</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <v>42948</v>
       </c>
@@ -1938,7 +1972,7 @@
         <v>114.20829999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <v>42979</v>
       </c>
@@ -2003,7 +2037,7 @@
         <v>115.16679999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
         <v>43009</v>
       </c>
@@ -2068,7 +2102,7 @@
         <v>116.4616</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="14">
         <v>43040</v>
       </c>
@@ -2133,7 +2167,7 @@
         <v>118.2471</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="14">
         <v>43070</v>
       </c>
@@ -2198,7 +2232,7 @@
         <v>120.15</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
         <v>43101</v>
       </c>
@@ -2263,7 +2297,7 @@
         <v>122.66079999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="14">
         <v>43132</v>
       </c>
@@ -2328,7 +2362,7 @@
         <v>124.86669999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="14">
         <v>43160</v>
       </c>
@@ -2393,7 +2427,7 @@
         <v>127.12269999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="14">
         <v>43191</v>
       </c>
@@ -2458,7 +2492,7 @@
         <v>129.41149999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="14">
         <v>43221</v>
       </c>
@@ -2523,7 +2557,7 @@
         <v>133.31610000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="14">
         <v>43252</v>
       </c>
@@ -2588,7 +2622,7 @@
         <v>138.48570000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="14">
         <v>43282</v>
       </c>
@@ -2653,7 +2687,7 @@
         <v>143.6498</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="14">
         <v>43313</v>
       </c>
@@ -2718,7 +2752,7 @@
         <v>148.0249</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="14">
         <v>43344</v>
       </c>
@@ -2783,7 +2817,7 @@
         <v>157.21270000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="14">
         <v>43374</v>
       </c>
@@ -2848,7 +2882,7 @@
         <v>163.8939</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="14">
         <v>43405</v>
       </c>
@@ -2913,7 +2947,7 @@
         <v>169.81559999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="14">
         <v>43435</v>
       </c>
@@ -2978,7 +3012,7 @@
         <v>173.93020000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="14">
         <v>43466</v>
       </c>
@@ -3043,7 +3077,7 @@
         <v>179.21430000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="14">
         <v>43497</v>
       </c>
@@ -3108,7 +3142,7 @@
         <v>186.506</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="14">
         <v>43525</v>
       </c>
@@ -3173,7 +3207,7 @@
         <v>194.3347</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="14">
         <v>43556</v>
       </c>
@@ -3238,7 +3272,7 @@
         <v>200.91579999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="14">
         <v>43586</v>
       </c>
@@ -3303,7 +3337,7 @@
         <v>207.03639999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="14">
         <v>43617</v>
       </c>
@@ -3368,7 +3402,7 @@
         <v>212.8476</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="14">
         <v>43647</v>
       </c>
@@ -3433,7 +3467,7 @@
         <v>218.41489999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="14">
         <v>43678</v>
       </c>
@@ -3498,7 +3532,7 @@
         <v>227.71770000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="14">
         <v>43709</v>
       </c>
@@ -3563,7 +3597,7 @@
         <v>240.4811</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="14">
         <v>43739</v>
       </c>
@@ -3628,7 +3662,7 @@
         <v>247.86199999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" s="14">
         <v>43770</v>
       </c>
@@ -3693,7 +3727,7 @@
         <v>259.3349</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="14">
         <v>43800</v>
       </c>
@@ -3758,7 +3792,7 @@
         <v>268.79329999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" s="14">
         <v>43831</v>
       </c>
@@ -3823,7 +3857,7 @@
         <v>278.7826</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" s="14">
         <v>43862</v>
       </c>
@@ -3888,7 +3922,7 @@
         <v>286.44729999999998</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44" s="14">
         <v>43891</v>
       </c>
@@ -3953,7 +3987,7 @@
         <v>293.82990000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45" s="14">
         <v>43922</v>
       </c>
@@ -4018,7 +4052,7 @@
         <v>300.18740000000003</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46" s="14">
         <v>43952</v>
       </c>
@@ -4083,7 +4117,7 @@
         <v>307.81490000000002</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47" s="14">
         <v>43983</v>
       </c>
@@ -4148,7 +4182,7 @@
         <v>316.56420000000003</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B48" s="14">
         <v>44013</v>
       </c>
@@ -4213,7 +4247,7 @@
         <v>324.54230000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B49" s="14">
         <v>44044</v>
       </c>
@@ -4278,7 +4312,7 @@
         <v>333.78789999999998</v>
       </c>
     </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B50" s="14">
         <v>44075</v>
       </c>
@@ -4343,7 +4377,7 @@
         <v>340.72519999999997</v>
       </c>
     </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B51" s="14">
         <v>44105</v>
       </c>
@@ -4408,7 +4442,7 @@
         <v>353.69189999999998</v>
       </c>
     </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B52" s="14">
         <v>44136</v>
       </c>
@@ -4473,7 +4507,7 @@
         <v>367.19499999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B53" s="14">
         <v>44166</v>
       </c>
@@ -4538,7 +4572,7 @@
         <v>383.58569999999997</v>
       </c>
     </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B54" s="14">
         <v>44197</v>
       </c>
@@ -4603,7 +4637,7 @@
         <v>400.52280000000002</v>
       </c>
     </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B55" s="14">
         <v>44228</v>
       </c>
@@ -4668,7 +4702,7 @@
         <v>416.6268</v>
       </c>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B56" s="14">
         <v>44256</v>
       </c>
@@ -4733,7 +4767,7 @@
         <v>434.39139999999998</v>
       </c>
     </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B57" s="14">
         <v>44287</v>
       </c>
@@ -4798,7 +4832,7 @@
         <v>451.8818</v>
       </c>
     </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B58" s="14">
         <v>44317</v>
       </c>
@@ -4863,7 +4897,7 @@
         <v>467.42290000000003</v>
       </c>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B59" s="14">
         <v>44348</v>
       </c>
@@ -4928,7 +4962,7 @@
         <v>483.03149999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B60" s="14">
         <v>44378</v>
       </c>
@@ -4993,7 +5027,7 @@
         <v>499.71620000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B61" s="14">
         <v>44409</v>
       </c>
@@ -5058,7 +5092,7 @@
         <v>511.17930000000001</v>
       </c>
     </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B62" s="14">
         <v>44440</v>
       </c>
@@ -5123,7 +5157,7 @@
         <v>525.85019999999997</v>
       </c>
     </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B63" s="14">
         <v>44470</v>
       </c>
@@ -5188,7 +5222,7 @@
         <v>542.82629999999995</v>
       </c>
     </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B64" s="14">
         <v>44501</v>
       </c>
@@ -5253,7 +5287,7 @@
         <v>560.64739999999995</v>
       </c>
     </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B65" s="14">
         <v>44531</v>
       </c>
@@ -5318,7 +5352,7 @@
         <v>587.63199999999995</v>
       </c>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B66" s="14">
         <v>44562</v>
       </c>
@@ -5383,7 +5417,7 @@
         <v>614.96839999999997</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B67" s="14">
         <v>44593</v>
       </c>
@@ -5448,7 +5482,7 @@
         <v>648.68989999999997</v>
       </c>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B68" s="14">
         <v>44621</v>
       </c>
@@ -5513,7 +5547,7 @@
         <v>686.36180000000002</v>
       </c>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B69" s="14">
         <v>44652</v>
       </c>
@@ -5578,7 +5612,7 @@
         <v>729.43140000000005</v>
       </c>
     </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B70" s="14">
         <v>44682</v>
       </c>
@@ -5643,7 +5677,7 @@
         <v>770.00469999999996</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B71" s="14">
         <v>44713</v>
       </c>
@@ -5708,7 +5742,7 @@
         <v>811.8424</v>
       </c>
     </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B72" s="14">
         <v>44743</v>
       </c>
@@ -5773,7 +5807,7 @@
         <v>880.58450000000005</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B73" s="14">
         <v>44774</v>
       </c>
@@ -5838,7 +5872,7 @@
         <v>944.6404</v>
       </c>
     </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B74" s="14">
         <v>44805</v>
       </c>
@@ -5903,7 +5937,7 @@
         <v>1001.7683</v>
       </c>
     </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B75" s="14">
         <v>44835</v>
       </c>
@@ -5968,7 +6002,7 @@
         <v>1059.6804</v>
       </c>
     </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B76" s="14">
         <v>44866</v>
       </c>
@@ -6033,7 +6067,7 @@
         <v>1113.1264000000001</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B77" s="14">
         <v>44896</v>
       </c>
@@ -6098,7 +6132,7 @@
         <v>1173.7402999999999</v>
       </c>
     </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B78" s="14">
         <v>44927</v>
       </c>
@@ -6163,7 +6197,7 @@
         <v>1250.2503999999999</v>
       </c>
     </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B79" s="14">
         <v>44958</v>
       </c>
@@ -6228,7 +6262,7 @@
         <v>1345.6905999999999</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B80" s="14">
         <v>44986</v>
       </c>
@@ -6293,7 +6327,7 @@
         <v>1441.3485000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B81" s="14">
         <v>45017</v>
       </c>
@@ -6358,7 +6392,7 @@
         <v>1572.9845</v>
       </c>
     </row>
-    <row r="82" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B82" s="14">
         <v>45047</v>
       </c>
@@ -6423,7 +6457,7 @@
         <v>1696.7299</v>
       </c>
     </row>
-    <row r="83" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B83" s="14">
         <v>45078</v>
       </c>
@@ -6488,84 +6522,146 @@
         <v>1788.9819</v>
       </c>
     </row>
-    <row r="84" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="15">
+    <row r="84" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B84" s="14">
         <v>45108</v>
       </c>
-      <c r="C84" s="19">
+      <c r="C84" s="16">
         <v>1826.1042</v>
       </c>
-      <c r="D84" s="20">
+      <c r="D84" s="17">
         <v>1794.4102</v>
       </c>
-      <c r="E84" s="20">
+      <c r="E84" s="17">
         <v>1842.7116000000001</v>
       </c>
-      <c r="F84" s="20">
+      <c r="F84" s="17">
         <v>1876.6052999999999</v>
       </c>
-      <c r="G84" s="20">
+      <c r="G84" s="17">
         <v>1904.12</v>
       </c>
-      <c r="H84" s="20">
+      <c r="H84" s="17">
         <v>1853.7610999999999</v>
       </c>
-      <c r="I84" s="21">
+      <c r="I84" s="18">
         <v>1789.7344000000001</v>
       </c>
-      <c r="J84" s="20">
+      <c r="J84" s="17">
         <v>1972.6869999999999</v>
       </c>
-      <c r="K84" s="20">
+      <c r="K84" s="17">
         <v>1505.4414999999999</v>
       </c>
-      <c r="L84" s="20">
+      <c r="L84" s="17">
         <v>2056.7728999999999</v>
       </c>
-      <c r="M84" s="20">
+      <c r="M84" s="17">
         <v>1378.2612999999999</v>
       </c>
-      <c r="N84" s="20">
+      <c r="N84" s="17">
         <v>1822.0668000000001</v>
       </c>
-      <c r="O84" s="20">
+      <c r="O84" s="17">
         <v>1982.0011</v>
       </c>
-      <c r="P84" s="20">
+      <c r="P84" s="17">
         <v>1796.6570999999999</v>
       </c>
-      <c r="Q84" s="20">
+      <c r="Q84" s="17">
         <v>1401.3441</v>
       </c>
-      <c r="R84" s="20">
+      <c r="R84" s="17">
         <v>1735.9736</v>
       </c>
-      <c r="S84" s="20">
+      <c r="S84" s="17">
         <v>1464.2833000000001</v>
       </c>
-      <c r="T84" s="20">
+      <c r="T84" s="17">
         <v>2029.0886</v>
       </c>
-      <c r="U84" s="21">
+      <c r="U84" s="18">
         <v>1558.4743000000001</v>
       </c>
-      <c r="V84" s="19">
+      <c r="V84" s="16">
         <v>1904.9344000000001</v>
       </c>
     </row>
-    <row r="85" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B85" s="6"/>
-    </row>
-    <row r="86" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="15">
+        <v>45139</v>
+      </c>
+      <c r="C85" s="19">
+        <v>2049.7604999999999</v>
+      </c>
+      <c r="D85" s="20">
+        <v>2011.6856</v>
+      </c>
+      <c r="E85" s="20">
+        <v>2068.1653999999999</v>
+      </c>
+      <c r="F85" s="20">
+        <v>2128.4555999999998</v>
+      </c>
+      <c r="G85" s="20">
+        <v>2167.3424</v>
+      </c>
+      <c r="H85" s="20">
+        <v>2081.7809000000002</v>
+      </c>
+      <c r="I85" s="21">
+        <v>2001.2849000000001</v>
+      </c>
+      <c r="J85" s="20">
+        <v>2276.0180999999998</v>
+      </c>
+      <c r="K85" s="20">
+        <v>1637.3586</v>
+      </c>
+      <c r="L85" s="20">
+        <v>2239.6334000000002</v>
+      </c>
+      <c r="M85" s="20">
+        <v>1502.3518999999999</v>
+      </c>
+      <c r="N85" s="20">
+        <v>2073.5837999999999</v>
+      </c>
+      <c r="O85" s="20">
+        <v>2283.7705000000001</v>
+      </c>
+      <c r="P85" s="20">
+        <v>1985.1323</v>
+      </c>
+      <c r="Q85" s="20">
+        <v>1471.952</v>
+      </c>
+      <c r="R85" s="20">
+        <v>1927.7945999999999</v>
+      </c>
+      <c r="S85" s="20">
+        <v>1590.1006</v>
+      </c>
+      <c r="T85" s="20">
+        <v>2282.2406000000001</v>
+      </c>
+      <c r="U85" s="21">
+        <v>1702.3728000000001</v>
+      </c>
+      <c r="V85" s="19">
+        <v>2149.5119</v>
+      </c>
+    </row>
+    <row r="86" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
     </row>
-    <row r="87" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B87" s="6"/>
     </row>
-    <row r="88" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B88" s="6"/>
     </row>
-    <row r="89" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B89" s="6"/>
     </row>
   </sheetData>
@@ -6584,80 +6680,80 @@
   <dimension ref="B1:V89"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="83" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="D51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
-      <selection pane="bottomRight" activeCell="B84" sqref="B84"/>
+      <selection pane="bottomRight" activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" style="4" customWidth="1"/>
-    <col min="2" max="3" width="20.6640625" style="4" customWidth="1"/>
-    <col min="4" max="21" width="15.6640625" style="4"/>
-    <col min="22" max="22" width="20.6640625" style="4" customWidth="1"/>
-    <col min="23" max="16384" width="15.6640625" style="4"/>
+    <col min="1" max="1" width="4.5703125" style="4" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" style="4" customWidth="1"/>
+    <col min="4" max="21" width="15.7109375" style="4"/>
+    <col min="22" max="22" width="20.7109375" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="15.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="53" t="s">
+    <row r="1" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-    </row>
-    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+    </row>
+    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="50" t="s">
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="50"/>
       <c r="V3" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -6722,7 +6818,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
         <v>42705</v>
       </c>
@@ -6747,7 +6843,7 @@
       <c r="U5" s="13"/>
       <c r="V5" s="11"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <v>42736</v>
       </c>
@@ -6812,7 +6908,7 @@
         <v>1.6071</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
         <v>42767</v>
       </c>
@@ -6877,7 +6973,7 @@
         <v>1.6587000000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <v>42795</v>
       </c>
@@ -6942,7 +7038,7 @@
         <v>1.5406</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <v>42826</v>
       </c>
@@ -7007,7 +7103,7 @@
         <v>2.3517000000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <v>42856</v>
       </c>
@@ -7072,7 +7168,7 @@
         <v>1.8993</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
         <v>42887</v>
       </c>
@@ -7137,7 +7233,7 @@
         <v>1.2845</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <v>42917</v>
       </c>
@@ -7202,7 +7298,7 @@
         <v>1.8971</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <v>42948</v>
       </c>
@@ -7267,7 +7363,7 @@
         <v>1.1851</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <v>42979</v>
       </c>
@@ -7332,7 +7428,7 @@
         <v>0.83930000000000005</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
         <v>43009</v>
       </c>
@@ -7397,7 +7493,7 @@
         <v>1.1243000000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="14">
         <v>43040</v>
       </c>
@@ -7462,7 +7558,7 @@
         <v>1.5330999999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="14">
         <v>43070</v>
       </c>
@@ -7527,7 +7623,7 @@
         <v>1.6093</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
         <v>43101</v>
       </c>
@@ -7592,7 +7688,7 @@
         <v>2.0897000000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="14">
         <v>43132</v>
       </c>
@@ -7657,7 +7753,7 @@
         <v>1.7984</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="14">
         <v>43160</v>
       </c>
@@ -7722,7 +7818,7 @@
         <v>1.8067</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="14">
         <v>43191</v>
       </c>
@@ -7787,7 +7883,7 @@
         <v>1.8005</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="14">
         <v>43221</v>
       </c>
@@ -7852,7 +7948,7 @@
         <v>3.0171999999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="14">
         <v>43252</v>
       </c>
@@ -7917,7 +8013,7 @@
         <v>3.8776999999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="14">
         <v>43282</v>
       </c>
@@ -7982,7 +8078,7 @@
         <v>3.7290000000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="14">
         <v>43313</v>
       </c>
@@ -8047,7 +8143,7 @@
         <v>3.0457000000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="14">
         <v>43344</v>
       </c>
@@ -8112,7 +8208,7 @@
         <v>6.2069000000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="14">
         <v>43374</v>
       </c>
@@ -8177,7 +8273,7 @@
         <v>4.2497999999999996</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="14">
         <v>43405</v>
       </c>
@@ -8242,7 +8338,7 @@
         <v>3.6131000000000002</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="14">
         <v>43435</v>
       </c>
@@ -8307,7 +8403,7 @@
         <v>2.423</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="14">
         <v>43466</v>
       </c>
@@ -8372,7 +8468,7 @@
         <v>3.0381</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="14">
         <v>43497</v>
       </c>
@@ -8437,7 +8533,7 @@
         <v>4.0686999999999998</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="14">
         <v>43525</v>
       </c>
@@ -8502,7 +8598,7 @@
         <v>4.1976000000000004</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="14">
         <v>43556</v>
       </c>
@@ -8567,7 +8663,7 @@
         <v>3.3864999999999998</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="14">
         <v>43586</v>
       </c>
@@ -8632,7 +8728,7 @@
         <v>3.0464000000000002</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="14">
         <v>43617</v>
       </c>
@@ -8697,7 +8793,7 @@
         <v>2.8068</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="14">
         <v>43647</v>
       </c>
@@ -8762,7 +8858,7 @@
         <v>2.6156000000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="14">
         <v>43678</v>
       </c>
@@ -8827,7 +8923,7 @@
         <v>4.2591999999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="14">
         <v>43709</v>
       </c>
@@ -8892,7 +8988,7 @@
         <v>5.6048999999999998</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="14">
         <v>43739</v>
       </c>
@@ -8957,7 +9053,7 @@
         <v>3.0691999999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" s="14">
         <v>43770</v>
       </c>
@@ -9022,7 +9118,7 @@
         <v>4.6287000000000003</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="14">
         <v>43800</v>
       </c>
@@ -9087,7 +9183,7 @@
         <v>3.6472000000000002</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" s="14">
         <v>43831</v>
       </c>
@@ -9152,7 +9248,7 @@
         <v>3.7164000000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" s="14">
         <v>43862</v>
       </c>
@@ -9217,7 +9313,7 @@
         <v>2.7492999999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44" s="14">
         <v>43891</v>
       </c>
@@ -9282,7 +9378,7 @@
         <v>2.5773000000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45" s="14">
         <v>43922</v>
       </c>
@@ -9347,7 +9443,7 @@
         <v>2.1637</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46" s="14">
         <v>43952</v>
       </c>
@@ -9412,7 +9508,7 @@
         <v>2.5409000000000002</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47" s="14">
         <v>43983</v>
       </c>
@@ -9477,7 +9573,7 @@
         <v>2.8424</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B48" s="14">
         <v>44013</v>
       </c>
@@ -9542,7 +9638,7 @@
         <v>2.5202</v>
       </c>
     </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B49" s="14">
         <v>44044</v>
       </c>
@@ -9607,7 +9703,7 @@
         <v>2.8488000000000002</v>
       </c>
     </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B50" s="14">
         <v>44075</v>
       </c>
@@ -9672,7 +9768,7 @@
         <v>2.0783999999999998</v>
       </c>
     </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B51" s="14">
         <v>44105</v>
       </c>
@@ -9737,7 +9833,7 @@
         <v>3.8056000000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B52" s="14">
         <v>44136</v>
       </c>
@@ -9802,7 +9898,7 @@
         <v>3.8178000000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B53" s="14">
         <v>44166</v>
       </c>
@@ -9867,7 +9963,7 @@
         <v>4.4638</v>
       </c>
     </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B54" s="14">
         <v>44197</v>
       </c>
@@ -9932,7 +10028,7 @@
         <v>4.4154999999999998</v>
       </c>
     </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B55" s="14">
         <v>44228</v>
       </c>
@@ -9997,7 +10093,7 @@
         <v>4.0206999999999997</v>
       </c>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B56" s="14">
         <v>44256</v>
       </c>
@@ -10062,7 +10158,7 @@
         <v>4.2638999999999996</v>
       </c>
     </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B57" s="14">
         <v>44287</v>
       </c>
@@ -10127,7 +10223,7 @@
         <v>4.0263999999999998</v>
       </c>
     </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B58" s="14">
         <v>44317</v>
       </c>
@@ -10192,7 +10288,7 @@
         <v>3.4392</v>
       </c>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B59" s="14">
         <v>44348</v>
       </c>
@@ -10257,7 +10353,7 @@
         <v>3.3393000000000002</v>
       </c>
     </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B60" s="14">
         <v>44378</v>
       </c>
@@ -10322,7 +10418,7 @@
         <v>3.4542000000000002</v>
       </c>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B61" s="14">
         <v>44409</v>
       </c>
@@ -10387,7 +10483,7 @@
         <v>2.2938999999999998</v>
       </c>
     </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B62" s="14">
         <v>44440</v>
       </c>
@@ -10452,7 +10548,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B63" s="14">
         <v>44470</v>
       </c>
@@ -10517,7 +10613,7 @@
         <v>3.2282999999999999</v>
       </c>
     </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B64" s="14">
         <v>44501</v>
       </c>
@@ -10582,7 +10678,7 @@
         <v>3.2829999999999999</v>
       </c>
     </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B65" s="14">
         <v>44531</v>
       </c>
@@ -10647,7 +10743,7 @@
         <v>4.8131000000000004</v>
       </c>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B66" s="14">
         <v>44562</v>
       </c>
@@ -10712,7 +10808,7 @@
         <v>4.6520000000000001</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B67" s="14">
         <v>44593</v>
       </c>
@@ -10777,7 +10873,7 @@
         <v>5.4835000000000003</v>
       </c>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B68" s="14">
         <v>44621</v>
       </c>
@@ -10842,7 +10938,7 @@
         <v>5.8074000000000003</v>
       </c>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B69" s="14">
         <v>44652</v>
       </c>
@@ -10907,7 +11003,7 @@
         <v>6.2751000000000001</v>
       </c>
     </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B70" s="14">
         <v>44682</v>
       </c>
@@ -10972,7 +11068,7 @@
         <v>5.5622999999999996</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B71" s="14">
         <v>44713</v>
       </c>
@@ -11037,7 +11133,7 @@
         <v>5.4333999999999998</v>
       </c>
     </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B72" s="14">
         <v>44743</v>
       </c>
@@ -11102,7 +11198,7 @@
         <v>8.4673999999999996</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B73" s="14">
         <v>44774</v>
       </c>
@@ -11167,7 +11263,7 @@
         <v>7.2742000000000004</v>
       </c>
     </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B74" s="14">
         <v>44805</v>
       </c>
@@ -11232,7 +11328,7 @@
         <v>6.0476000000000001</v>
       </c>
     </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B75" s="14">
         <v>44835</v>
       </c>
@@ -11297,7 +11393,7 @@
         <v>5.7809999999999997</v>
       </c>
     </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B76" s="14">
         <v>44866</v>
       </c>
@@ -11362,7 +11458,7 @@
         <v>5.0435999999999996</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B77" s="14">
         <v>44896</v>
       </c>
@@ -11427,7 +11523,7 @@
         <v>5.4454000000000002</v>
       </c>
     </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B78" s="14">
         <v>44927</v>
       </c>
@@ -11492,7 +11588,7 @@
         <v>6.5185000000000004</v>
       </c>
     </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B79" s="14">
         <v>44958</v>
       </c>
@@ -11557,7 +11653,7 @@
         <v>7.6337000000000002</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B80" s="14">
         <v>44986</v>
       </c>
@@ -11622,7 +11718,7 @@
         <v>7.1085000000000003</v>
       </c>
     </row>
-    <row r="81" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B81" s="14">
         <v>45017</v>
       </c>
@@ -11687,7 +11783,7 @@
         <v>9.1327999999999996</v>
       </c>
     </row>
-    <row r="82" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B82" s="14">
         <v>45047</v>
       </c>
@@ -11752,7 +11848,7 @@
         <v>7.8669000000000002</v>
       </c>
     </row>
-    <row r="83" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B83" s="14">
         <v>45078</v>
       </c>
@@ -11817,84 +11913,146 @@
         <v>5.4370000000000003</v>
       </c>
     </row>
-    <row r="84" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="15">
+    <row r="84" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B84" s="14">
         <v>45108</v>
       </c>
-      <c r="C84" s="19">
+      <c r="C84" s="16">
         <v>6.5129999999999999</v>
       </c>
-      <c r="D84" s="20">
+      <c r="D84" s="17">
         <v>6.2074999999999996</v>
       </c>
-      <c r="E84" s="20">
+      <c r="E84" s="17">
         <v>6.7702999999999998</v>
       </c>
-      <c r="F84" s="20">
+      <c r="F84" s="17">
         <v>6.4123000000000001</v>
       </c>
-      <c r="G84" s="20">
+      <c r="G84" s="17">
         <v>6.3460000000000001</v>
       </c>
-      <c r="H84" s="20">
+      <c r="H84" s="17">
         <v>6.4259000000000004</v>
       </c>
-      <c r="I84" s="21">
+      <c r="I84" s="18">
         <v>7.7095000000000002</v>
       </c>
-      <c r="J84" s="20">
+      <c r="J84" s="17">
         <v>6.3114999999999997</v>
       </c>
-      <c r="K84" s="20">
+      <c r="K84" s="17">
         <v>9.5710999999999995</v>
       </c>
-      <c r="L84" s="20">
+      <c r="L84" s="17">
         <v>3.7926000000000002</v>
       </c>
-      <c r="M84" s="20">
+      <c r="M84" s="17">
         <v>4.0037000000000003</v>
       </c>
-      <c r="N84" s="20">
+      <c r="N84" s="17">
         <v>5.4874999999999998</v>
       </c>
-      <c r="O84" s="20">
+      <c r="O84" s="17">
         <v>9.0442</v>
       </c>
-      <c r="P84" s="20">
+      <c r="P84" s="17">
         <v>5.3342999999999998</v>
       </c>
-      <c r="Q84" s="20">
+      <c r="Q84" s="17">
         <v>12.6297</v>
       </c>
-      <c r="R84" s="20">
+      <c r="R84" s="17">
         <v>10.2362</v>
       </c>
-      <c r="S84" s="20">
+      <c r="S84" s="17">
         <v>6.1224999999999996</v>
       </c>
-      <c r="T84" s="20">
+      <c r="T84" s="17">
         <v>7.3925999999999998</v>
       </c>
-      <c r="U84" s="21">
+      <c r="U84" s="18">
         <v>6.3304</v>
       </c>
-      <c r="V84" s="19">
+      <c r="V84" s="16">
         <v>6.4814999999999996</v>
       </c>
     </row>
-    <row r="85" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B85" s="6"/>
-    </row>
-    <row r="86" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="15">
+        <v>45139</v>
+      </c>
+      <c r="C85" s="19">
+        <v>12.2477</v>
+      </c>
+      <c r="D85" s="20">
+        <v>12.108499999999999</v>
+      </c>
+      <c r="E85" s="20">
+        <v>12.2349</v>
+      </c>
+      <c r="F85" s="20">
+        <v>13.420500000000001</v>
+      </c>
+      <c r="G85" s="20">
+        <v>13.8238</v>
+      </c>
+      <c r="H85" s="20">
+        <v>12.3004</v>
+      </c>
+      <c r="I85" s="21">
+        <v>11.8202</v>
+      </c>
+      <c r="J85" s="20">
+        <v>15.3765</v>
+      </c>
+      <c r="K85" s="20">
+        <v>8.7627000000000006</v>
+      </c>
+      <c r="L85" s="20">
+        <v>8.8907000000000007</v>
+      </c>
+      <c r="M85" s="20">
+        <v>9.0033999999999992</v>
+      </c>
+      <c r="N85" s="20">
+        <v>13.803900000000001</v>
+      </c>
+      <c r="O85" s="20">
+        <v>15.2255</v>
+      </c>
+      <c r="P85" s="20">
+        <v>10.4903</v>
+      </c>
+      <c r="Q85" s="20">
+        <v>5.0385999999999997</v>
+      </c>
+      <c r="R85" s="20">
+        <v>11.049799999999999</v>
+      </c>
+      <c r="S85" s="20">
+        <v>8.5923999999999996</v>
+      </c>
+      <c r="T85" s="20">
+        <v>12.476100000000001</v>
+      </c>
+      <c r="U85" s="21">
+        <v>9.2332999999999998</v>
+      </c>
+      <c r="V85" s="19">
+        <v>12.8392</v>
+      </c>
+    </row>
+    <row r="86" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
     </row>
-    <row r="87" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B87" s="6"/>
     </row>
-    <row r="88" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B88" s="6"/>
     </row>
-    <row r="89" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B89" s="6"/>
     </row>
   </sheetData>
@@ -11912,831 +12070,827 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83293D6D-81C8-49B2-8C10-806B04E884B0}">
   <dimension ref="B1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="116" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="50.6640625" customWidth="1"/>
-    <col min="3" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="3" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="56" t="s">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58"/>
-    </row>
-    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
       <c r="I3" s="24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="63">
-        <v>2022</v>
-      </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="25">
+      <c r="C4" s="61">
         <v>2023</v>
       </c>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
       <c r="I4" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="25"/>
+      <c r="C5" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="26"/>
-      <c r="C5" s="27" t="s">
+      <c r="E5" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="F5" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="49"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="28" t="s">
+      <c r="I5" s="48"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="29">
-        <v>6.8745000000000003</v>
-      </c>
-      <c r="D6" s="29">
+      <c r="C6" s="28">
         <v>6.6966000000000001</v>
       </c>
-      <c r="E6" s="29">
+      <c r="D6" s="28">
         <v>8.3064999999999998</v>
       </c>
-      <c r="F6" s="29">
+      <c r="E6" s="28">
         <v>8.2042999999999999</v>
       </c>
-      <c r="G6" s="29">
+      <c r="F6" s="28">
         <v>6.1390000000000002</v>
       </c>
-      <c r="H6" s="29">
+      <c r="G6" s="28">
         <v>6.5129999999999999</v>
       </c>
-      <c r="I6" s="30">
-        <v>113.45</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="60" t="s">
+      <c r="H6" s="28">
+        <v>12.2477</v>
+      </c>
+      <c r="I6" s="29">
+        <v>124.36750000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="62"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="33" t="s">
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="68"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="34">
-        <v>7.0758000000000001</v>
-      </c>
-      <c r="D8" s="34">
+      <c r="C8" s="33">
         <v>6.5163000000000002</v>
       </c>
-      <c r="E8" s="34">
+      <c r="D8" s="33">
         <v>8.4862000000000002</v>
       </c>
-      <c r="F8" s="34">
+      <c r="E8" s="33">
         <v>8.4934999999999992</v>
       </c>
-      <c r="G8" s="34">
+      <c r="F8" s="33">
         <v>5.9984999999999999</v>
       </c>
-      <c r="H8" s="34">
+      <c r="G8" s="33">
         <v>6.2074999999999996</v>
       </c>
-      <c r="I8" s="35">
-        <v>114.5881</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="33" t="s">
+      <c r="H8" s="33">
+        <v>12.108499999999999</v>
+      </c>
+      <c r="I8" s="34">
+        <v>125.2403</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="34">
-        <v>6.4721000000000002</v>
-      </c>
-      <c r="D9" s="34">
+      <c r="C9" s="33">
         <v>6.9653999999999998</v>
       </c>
-      <c r="E9" s="34">
+      <c r="D9" s="33">
         <v>8.3978999999999999</v>
       </c>
-      <c r="F9" s="34">
+      <c r="E9" s="33">
         <v>8.0142000000000007</v>
       </c>
-      <c r="G9" s="34">
+      <c r="F9" s="33">
         <v>6.1562000000000001</v>
       </c>
-      <c r="H9" s="34">
+      <c r="G9" s="33">
         <v>6.7702999999999998</v>
       </c>
-      <c r="I9" s="35">
-        <v>113.0547</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="33" t="s">
+      <c r="H9" s="33">
+        <v>12.2349</v>
+      </c>
+      <c r="I9" s="34">
+        <v>123.6463</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="34">
-        <v>7.4730999999999996</v>
-      </c>
-      <c r="D10" s="34">
+      <c r="C10" s="33">
         <v>6.5368000000000004</v>
       </c>
-      <c r="E10" s="34">
+      <c r="D10" s="33">
         <v>7.5422000000000002</v>
       </c>
-      <c r="F10" s="34">
+      <c r="E10" s="33">
         <v>8.3439999999999994</v>
       </c>
-      <c r="G10" s="34">
+      <c r="F10" s="33">
         <v>6.8429000000000002</v>
       </c>
-      <c r="H10" s="34">
+      <c r="G10" s="33">
         <v>6.4123000000000001</v>
       </c>
-      <c r="I10" s="35">
-        <v>113.9118</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="33" t="s">
+      <c r="H10" s="33">
+        <v>13.420500000000001</v>
+      </c>
+      <c r="I10" s="34">
+        <v>125.9786</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="34">
-        <v>7.8574999999999999</v>
-      </c>
-      <c r="D11" s="34">
+      <c r="C11" s="33">
         <v>5.9225000000000003</v>
       </c>
-      <c r="E11" s="34">
+      <c r="D11" s="33">
         <v>8.3299000000000003</v>
       </c>
-      <c r="F11" s="34">
+      <c r="E11" s="33">
         <v>7.7</v>
       </c>
-      <c r="G11" s="34">
+      <c r="F11" s="33">
         <v>7.0030999999999999</v>
       </c>
-      <c r="H11" s="34">
+      <c r="G11" s="33">
         <v>6.3460000000000001</v>
       </c>
-      <c r="I11" s="35">
-        <v>113.0984</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="33" t="s">
+      <c r="H11" s="33">
+        <v>13.8238</v>
+      </c>
+      <c r="I11" s="34">
+        <v>126.0836</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="34">
-        <v>6.6841999999999997</v>
-      </c>
-      <c r="D12" s="34">
+      <c r="C12" s="33">
         <v>7.2294</v>
       </c>
-      <c r="E12" s="34">
+      <c r="D12" s="33">
         <v>7.0860000000000003</v>
       </c>
-      <c r="F12" s="34">
+      <c r="E12" s="33">
         <v>7.8460000000000001</v>
       </c>
-      <c r="G12" s="34">
+      <c r="F12" s="33">
         <v>5.3849</v>
       </c>
-      <c r="H12" s="34">
+      <c r="G12" s="33">
         <v>6.4259000000000004</v>
       </c>
-      <c r="I12" s="35">
-        <v>108.2129</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="33" t="s">
+      <c r="H12" s="33">
+        <v>12.3004</v>
+      </c>
+      <c r="I12" s="34">
+        <v>119.69929999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="34">
-        <v>6.0327999999999999</v>
-      </c>
-      <c r="D13" s="34">
+      <c r="C13" s="33">
         <v>6.3354999999999997</v>
       </c>
-      <c r="E13" s="34">
+      <c r="D13" s="33">
         <v>8.0623000000000005</v>
       </c>
-      <c r="F13" s="34">
+      <c r="E13" s="33">
         <v>7.5743999999999998</v>
       </c>
-      <c r="G13" s="34">
+      <c r="F13" s="33">
         <v>6.9119000000000002</v>
       </c>
-      <c r="H13" s="34">
+      <c r="G13" s="33">
         <v>7.7095000000000002</v>
       </c>
-      <c r="I13" s="35">
-        <v>111.1443</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35"/>
-    </row>
-    <row r="15" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="60" t="s">
+      <c r="H13" s="33">
+        <v>11.8202</v>
+      </c>
+      <c r="I13" s="34">
+        <v>122.4633</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="34"/>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="62"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="33" t="s">
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="60"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="34">
-        <v>9.2695000000000007</v>
-      </c>
-      <c r="D16" s="34">
+      <c r="C16" s="33">
         <v>8.3716000000000008</v>
       </c>
-      <c r="E16" s="34">
+      <c r="D16" s="33">
         <v>10.327999999999999</v>
       </c>
-      <c r="F16" s="34">
+      <c r="E16" s="33">
         <v>6.6792999999999996</v>
       </c>
-      <c r="G16" s="34">
+      <c r="F16" s="33">
         <v>4.7302999999999997</v>
       </c>
-      <c r="H16" s="34">
+      <c r="G16" s="33">
         <v>6.3114999999999997</v>
       </c>
-      <c r="I16" s="35">
-        <v>116.3359</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="33" t="s">
+      <c r="H16" s="33">
+        <v>15.3765</v>
+      </c>
+      <c r="I16" s="34">
+        <v>133.4931</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="34">
-        <v>6.0644999999999998</v>
-      </c>
-      <c r="D17" s="34">
+      <c r="C17" s="33">
         <v>7.4588000000000001</v>
       </c>
-      <c r="E17" s="34">
+      <c r="D17" s="33">
         <v>4.8403</v>
       </c>
-      <c r="F17" s="34">
+      <c r="E17" s="33">
         <v>9.1022999999999996</v>
       </c>
-      <c r="G17" s="34">
+      <c r="F17" s="33">
         <v>4.4295</v>
       </c>
-      <c r="H17" s="34">
+      <c r="G17" s="33">
         <v>9.5710999999999995</v>
       </c>
-      <c r="I17" s="35">
-        <v>120.5879</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="33" t="s">
+      <c r="H17" s="33">
+        <v>8.7627000000000006</v>
+      </c>
+      <c r="I17" s="34">
+        <v>123.59829999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="34">
-        <v>6.1641000000000004</v>
-      </c>
-      <c r="D18" s="34">
+      <c r="C18" s="33">
         <v>5.4968000000000004</v>
       </c>
-      <c r="E18" s="34">
+      <c r="D18" s="33">
         <v>8.4655000000000005</v>
       </c>
-      <c r="F18" s="34">
+      <c r="E18" s="33">
         <v>8.5664999999999996</v>
       </c>
-      <c r="G18" s="34">
+      <c r="F18" s="33">
         <v>4.4406999999999996</v>
       </c>
-      <c r="H18" s="34">
+      <c r="G18" s="33">
         <v>3.7926000000000002</v>
       </c>
-      <c r="I18" s="35">
-        <v>110.3129</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="33" t="s">
+      <c r="H18" s="33">
+        <v>8.8907000000000007</v>
+      </c>
+      <c r="I18" s="34">
+        <v>108.9485</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="34">
-        <v>4.8117999999999999</v>
-      </c>
-      <c r="D19" s="34">
+      <c r="C19" s="33">
         <v>6.5286999999999997</v>
       </c>
-      <c r="E19" s="34">
+      <c r="D19" s="33">
         <v>5.5396999999999998</v>
       </c>
-      <c r="F19" s="34">
+      <c r="E19" s="33">
         <v>11.8596</v>
       </c>
-      <c r="G19" s="34">
+      <c r="F19" s="33">
         <v>8.1280000000000001</v>
       </c>
-      <c r="H19" s="34">
+      <c r="G19" s="33">
         <v>4.0037000000000003</v>
       </c>
-      <c r="I19" s="35">
-        <v>111.9988</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="33" t="s">
+      <c r="H19" s="33">
+        <v>9.0033999999999992</v>
+      </c>
+      <c r="I19" s="34">
+        <v>119.2175</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="34">
-        <v>5.2991999999999999</v>
-      </c>
-      <c r="D20" s="34">
+      <c r="C20" s="33">
         <v>5.9268999999999998</v>
       </c>
-      <c r="E20" s="34">
+      <c r="D20" s="33">
         <v>8.8820999999999994</v>
       </c>
-      <c r="F20" s="34">
+      <c r="E20" s="33">
         <v>9.0031999999999996</v>
       </c>
-      <c r="G20" s="34">
+      <c r="F20" s="33">
         <v>7.5505000000000004</v>
       </c>
-      <c r="H20" s="34">
+      <c r="G20" s="33">
         <v>5.4874999999999998</v>
       </c>
-      <c r="I20" s="35">
-        <v>113.85429999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="33" t="s">
+      <c r="H20" s="33">
+        <v>13.803900000000001</v>
+      </c>
+      <c r="I20" s="34">
+        <v>124.97329999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="34">
-        <v>5.3381999999999996</v>
-      </c>
-      <c r="D21" s="34">
+      <c r="C21" s="33">
         <v>5.7465000000000002</v>
       </c>
-      <c r="E21" s="34">
+      <c r="D21" s="33">
         <v>6.5784000000000002</v>
       </c>
-      <c r="F21" s="34">
+      <c r="E21" s="33">
         <v>9.0531000000000006</v>
       </c>
-      <c r="G21" s="34">
+      <c r="F21" s="33">
         <v>8.6085999999999991</v>
       </c>
-      <c r="H21" s="34">
+      <c r="G21" s="33">
         <v>9.0442</v>
       </c>
-      <c r="I21" s="35">
-        <v>108.9101</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="33" t="s">
+      <c r="H21" s="33">
+        <v>15.2255</v>
+      </c>
+      <c r="I21" s="34">
+        <v>127.75960000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="34">
-        <v>4.8672000000000004</v>
-      </c>
-      <c r="D22" s="34">
+      <c r="C22" s="33">
         <v>5.2965999999999998</v>
       </c>
-      <c r="E22" s="34">
+      <c r="D22" s="33">
         <v>6.4295999999999998</v>
       </c>
-      <c r="F22" s="34">
+      <c r="E22" s="33">
         <v>8.1126000000000005</v>
       </c>
-      <c r="G22" s="34">
+      <c r="F22" s="33">
         <v>6.4973000000000001</v>
       </c>
-      <c r="H22" s="34">
+      <c r="G22" s="33">
         <v>5.3342999999999998</v>
       </c>
-      <c r="I22" s="35">
-        <v>100.12739999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="33" t="s">
+      <c r="H22" s="33">
+        <v>10.4903</v>
+      </c>
+      <c r="I22" s="34">
+        <v>106.9151</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="34">
-        <v>7.8673999999999999</v>
-      </c>
-      <c r="D23" s="34">
+      <c r="C23" s="33">
         <v>1.8612</v>
       </c>
-      <c r="E23" s="34">
+      <c r="D23" s="33">
         <v>6.8250999999999999</v>
       </c>
-      <c r="F23" s="34">
+      <c r="E23" s="33">
         <v>7.2121000000000004</v>
       </c>
-      <c r="G23" s="34">
+      <c r="F23" s="33">
         <v>10.4236</v>
       </c>
-      <c r="H23" s="34">
+      <c r="G23" s="33">
         <v>12.6297</v>
       </c>
-      <c r="I23" s="35">
-        <v>119.2525</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="33" t="s">
+      <c r="H23" s="33">
+        <v>5.0385999999999997</v>
+      </c>
+      <c r="I23" s="34">
+        <v>120.1709</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="34">
-        <v>7.0808999999999997</v>
-      </c>
-      <c r="D24" s="34">
+      <c r="C24" s="33">
         <v>4.8491999999999997</v>
       </c>
-      <c r="E24" s="34">
+      <c r="D24" s="33">
         <v>7.7507999999999999</v>
       </c>
-      <c r="F24" s="34">
+      <c r="E24" s="33">
         <v>8.3742000000000001</v>
       </c>
-      <c r="G24" s="34">
+      <c r="F24" s="33">
         <v>6.4077000000000002</v>
       </c>
-      <c r="H24" s="34">
+      <c r="G24" s="33">
         <v>10.2362</v>
       </c>
-      <c r="I24" s="35">
-        <v>111.89960000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="33" t="s">
+      <c r="H24" s="33">
+        <v>11.049799999999999</v>
+      </c>
+      <c r="I24" s="34">
+        <v>125.129</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="34">
-        <v>4.3636999999999997</v>
-      </c>
-      <c r="D25" s="34">
+      <c r="C25" s="33">
         <v>9.7789000000000001</v>
       </c>
-      <c r="E25" s="34">
+      <c r="D25" s="33">
         <v>6.5856000000000003</v>
       </c>
-      <c r="F25" s="34">
+      <c r="E25" s="33">
         <v>5.7813999999999997</v>
       </c>
-      <c r="G25" s="34">
+      <c r="F25" s="33">
         <v>9.1888000000000005</v>
       </c>
-      <c r="H25" s="34">
+      <c r="G25" s="33">
         <v>6.1224999999999996</v>
       </c>
-      <c r="I25" s="35">
-        <v>110.75620000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="33" t="s">
+      <c r="H25" s="33">
+        <v>8.5923999999999996</v>
+      </c>
+      <c r="I25" s="34">
+        <v>118.14749999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="34">
-        <v>7.5350000000000001</v>
-      </c>
-      <c r="D26" s="34">
+      <c r="C26" s="33">
         <v>7.8757999999999999</v>
       </c>
-      <c r="E26" s="34">
+      <c r="D26" s="33">
         <v>9.8618000000000006</v>
       </c>
-      <c r="F26" s="34">
+      <c r="E26" s="33">
         <v>9.3529</v>
       </c>
-      <c r="G26" s="34">
+      <c r="F26" s="33">
         <v>6.3249000000000004</v>
       </c>
-      <c r="H26" s="34">
+      <c r="G26" s="33">
         <v>7.3925999999999998</v>
       </c>
-      <c r="I26" s="35">
-        <v>129.7182</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="33" t="s">
+      <c r="H26" s="33">
+        <v>12.476100000000001</v>
+      </c>
+      <c r="I26" s="34">
+        <v>142.18860000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="34">
-        <v>6.5246000000000004</v>
-      </c>
-      <c r="D27" s="34">
+      <c r="C27" s="33">
         <v>6.3487999999999998</v>
       </c>
-      <c r="E27" s="34">
+      <c r="D27" s="33">
         <v>6.6539999999999999</v>
       </c>
-      <c r="F27" s="34">
+      <c r="E27" s="33">
         <v>7.1810999999999998</v>
       </c>
-      <c r="G27" s="34">
+      <c r="F27" s="33">
         <v>6.55</v>
       </c>
-      <c r="H27" s="34">
+      <c r="G27" s="33">
         <v>6.3304</v>
       </c>
-      <c r="I27" s="35">
-        <v>115.6052</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="35"/>
-    </row>
-    <row r="29" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="60" t="s">
+      <c r="H27" s="33">
+        <v>9.2332999999999998</v>
+      </c>
+      <c r="I27" s="34">
+        <v>117.0241</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="32"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="34"/>
+    </row>
+    <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="62"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="33" t="s">
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="60"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="34">
-        <v>7.6337000000000002</v>
-      </c>
-      <c r="D30" s="34">
+      <c r="C30" s="33">
         <v>7.1085000000000003</v>
       </c>
-      <c r="E30" s="34">
+      <c r="D30" s="33">
         <v>9.1327999999999996</v>
       </c>
-      <c r="F30" s="34">
+      <c r="E30" s="33">
         <v>7.8669000000000002</v>
       </c>
-      <c r="G30" s="34">
+      <c r="F30" s="33">
         <v>5.4370000000000003</v>
       </c>
-      <c r="H30" s="34">
+      <c r="G30" s="33">
         <v>6.4814999999999996</v>
       </c>
-      <c r="I30" s="35">
-        <v>116.3796</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="33" t="s">
+      <c r="H30" s="33">
+        <v>12.8392</v>
+      </c>
+      <c r="I30" s="34">
+        <v>127.62430000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="34">
-        <v>8.0284999999999993</v>
-      </c>
-      <c r="D31" s="34">
+      <c r="C31" s="33">
         <v>6.9374000000000002</v>
       </c>
-      <c r="E31" s="34">
+      <c r="D31" s="33">
         <v>9.1685999999999996</v>
       </c>
-      <c r="F31" s="34">
+      <c r="E31" s="33">
         <v>8.2015999999999991</v>
       </c>
-      <c r="G31" s="34">
+      <c r="F31" s="33">
         <v>5.1600999999999999</v>
       </c>
-      <c r="H31" s="34">
+      <c r="G31" s="33">
         <v>6.4325000000000001</v>
       </c>
-      <c r="I31" s="35">
-        <v>117.29049999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="33" t="s">
+      <c r="H31" s="33">
+        <v>12.364000000000001</v>
+      </c>
+      <c r="I31" s="34">
+        <v>128.22280000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="34">
-        <v>6.9863999999999997</v>
-      </c>
-      <c r="D32" s="34">
+      <c r="C32" s="33">
         <v>7.4512</v>
       </c>
-      <c r="E32" s="34">
+      <c r="D32" s="33">
         <v>9.4731000000000005</v>
       </c>
-      <c r="F32" s="34">
+      <c r="E32" s="33">
         <v>7.4698000000000002</v>
       </c>
-      <c r="G32" s="34">
+      <c r="F32" s="33">
         <v>5.6477000000000004</v>
       </c>
-      <c r="H32" s="34">
+      <c r="G32" s="33">
         <v>6.6355000000000004</v>
       </c>
-      <c r="I32" s="35">
-        <v>116.4298</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="33" t="s">
+      <c r="H32" s="33">
+        <v>12.870200000000001</v>
+      </c>
+      <c r="I32" s="34">
+        <v>127.09</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="34">
-        <v>8.3892000000000007</v>
-      </c>
-      <c r="D33" s="34">
+      <c r="C33" s="33">
         <v>6.6454000000000004</v>
       </c>
-      <c r="E33" s="34">
+      <c r="D33" s="33">
         <v>8.2359000000000009</v>
       </c>
-      <c r="F33" s="34">
+      <c r="E33" s="33">
         <v>8.3523999999999994</v>
       </c>
-      <c r="G33" s="34">
+      <c r="F33" s="33">
         <v>5.6238000000000001</v>
       </c>
-      <c r="H33" s="34">
+      <c r="G33" s="33">
         <v>6.117</v>
       </c>
-      <c r="I33" s="35">
-        <v>115.55500000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="33" t="s">
+      <c r="H33" s="33">
+        <v>14.5464</v>
+      </c>
+      <c r="I33" s="34">
+        <v>129.16309999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="34">
-        <v>8.3916000000000004</v>
-      </c>
-      <c r="D34" s="34">
+      <c r="C34" s="33">
         <v>6.2601000000000004</v>
       </c>
-      <c r="E34" s="34">
+      <c r="D34" s="33">
         <v>9.3140000000000001</v>
       </c>
-      <c r="F34" s="34">
+      <c r="E34" s="33">
         <v>7.3289999999999997</v>
       </c>
-      <c r="G34" s="34">
+      <c r="F34" s="33">
         <v>6.1753999999999998</v>
       </c>
-      <c r="H34" s="34">
+      <c r="G34" s="33">
         <v>6.0045000000000002</v>
       </c>
-      <c r="I34" s="35">
-        <v>113.935</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="33" t="s">
+      <c r="H34" s="33">
+        <v>14.8338</v>
+      </c>
+      <c r="I34" s="34">
+        <v>128.69319999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="34">
-        <v>7.5472000000000001</v>
-      </c>
-      <c r="D35" s="34">
+      <c r="C35" s="33">
         <v>7.9461000000000004</v>
       </c>
-      <c r="E35" s="34">
+      <c r="D35" s="33">
         <v>7.9537000000000004</v>
       </c>
-      <c r="F35" s="34">
+      <c r="E35" s="33">
         <v>7.4664000000000001</v>
       </c>
-      <c r="G35" s="34">
+      <c r="F35" s="33">
         <v>4.8921999999999999</v>
       </c>
-      <c r="H35" s="34">
+      <c r="G35" s="33">
         <v>6.1228999999999996</v>
       </c>
-      <c r="I35" s="35">
-        <v>112.2132</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="36" t="s">
+      <c r="H35" s="33">
+        <v>13.1973</v>
+      </c>
+      <c r="I35" s="34">
+        <v>123.68980000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="37">
-        <v>6.7431000000000001</v>
-      </c>
-      <c r="D36" s="37">
+      <c r="C36" s="36">
         <v>6.8400999999999996</v>
       </c>
-      <c r="E36" s="37">
+      <c r="D36" s="36">
         <v>8.7773000000000003</v>
       </c>
-      <c r="F36" s="37">
+      <c r="E36" s="36">
         <v>7.7986000000000004</v>
       </c>
-      <c r="G36" s="37">
+      <c r="F36" s="36">
         <v>6.25</v>
       </c>
-      <c r="H36" s="37">
+      <c r="G36" s="36">
         <v>7.2976000000000001</v>
       </c>
-      <c r="I36" s="38">
-        <v>115.56619999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="55" t="s">
+      <c r="H36" s="36">
+        <v>12.2659</v>
+      </c>
+      <c r="I36" s="37">
+        <v>126.8278</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -12746,7 +12900,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -12764,7 +12918,7 @@
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="B15:I15"/>
     <mergeCell ref="B29:I29"/>
-    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12775,774 +12929,774 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C899619B-933E-4978-ACA9-2375D7439DCD}">
   <dimension ref="B1:I33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView showGridLines="0" zoomScale="133" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="50.6640625" customWidth="1"/>
-    <col min="3" max="9" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" customWidth="1"/>
+    <col min="3" max="9" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="56" t="s">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="39"/>
-      <c r="C3" s="40" t="s">
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="63"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="38"/>
+      <c r="C3" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="31" t="s">
+    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="32"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="42" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="31"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="43">
-        <v>6.2074999999999996</v>
-      </c>
-      <c r="D5" s="43">
-        <v>6.7702999999999998</v>
-      </c>
-      <c r="E5" s="43">
-        <v>6.4123000000000001</v>
-      </c>
-      <c r="F5" s="43">
-        <v>6.3460000000000001</v>
-      </c>
-      <c r="G5" s="43">
-        <v>6.4259000000000004</v>
-      </c>
-      <c r="H5" s="43">
-        <v>7.7095000000000002</v>
-      </c>
-      <c r="I5" s="44">
-        <v>6.5129999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="33" t="s">
+      <c r="C5" s="42">
+        <v>12.108499999999999</v>
+      </c>
+      <c r="D5" s="42">
+        <v>12.2349</v>
+      </c>
+      <c r="E5" s="42">
+        <v>13.420500000000001</v>
+      </c>
+      <c r="F5" s="42">
+        <v>13.8238</v>
+      </c>
+      <c r="G5" s="42">
+        <v>12.3004</v>
+      </c>
+      <c r="H5" s="42">
+        <v>11.8202</v>
+      </c>
+      <c r="I5" s="43">
+        <v>12.2477</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="34">
-        <v>1.6462000000000001</v>
-      </c>
-      <c r="D6" s="34">
-        <v>1.9077</v>
-      </c>
-      <c r="E6" s="34">
-        <v>2.2486999999999999</v>
-      </c>
-      <c r="F6" s="34">
-        <v>2.2115</v>
-      </c>
-      <c r="G6" s="34">
-        <v>1.9675</v>
-      </c>
-      <c r="H6" s="34">
-        <v>2.0402</v>
-      </c>
-      <c r="I6" s="35">
-        <v>1.8371999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="33" t="s">
+      <c r="C6" s="33">
+        <v>3.8504999999999998</v>
+      </c>
+      <c r="D6" s="33">
+        <v>4.7370000000000001</v>
+      </c>
+      <c r="E6" s="33">
+        <v>6.4566999999999997</v>
+      </c>
+      <c r="F6" s="33">
+        <v>6.5914999999999999</v>
+      </c>
+      <c r="G6" s="33">
+        <v>4.7488999999999999</v>
+      </c>
+      <c r="H6" s="33">
+        <v>3.8123999999999998</v>
+      </c>
+      <c r="I6" s="34">
+        <v>4.5012999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="34">
-        <v>0.2382</v>
-      </c>
-      <c r="D7" s="34">
-        <v>0.30509999999999998</v>
-      </c>
-      <c r="E7" s="34">
-        <v>0.23080000000000001</v>
-      </c>
-      <c r="F7" s="34">
-        <v>0.3009</v>
-      </c>
-      <c r="G7" s="34">
-        <v>0.26729999999999998</v>
-      </c>
-      <c r="H7" s="34">
-        <v>0.31180000000000002</v>
-      </c>
-      <c r="I7" s="35">
-        <v>0.26829999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="33" t="s">
+      <c r="C7" s="33">
+        <v>0.20319999999999999</v>
+      </c>
+      <c r="D7" s="33">
+        <v>0.29830000000000001</v>
+      </c>
+      <c r="E7" s="33">
+        <v>0.27429999999999999</v>
+      </c>
+      <c r="F7" s="33">
+        <v>0.36959999999999998</v>
+      </c>
+      <c r="G7" s="33">
+        <v>0.26150000000000001</v>
+      </c>
+      <c r="H7" s="33">
+        <v>0.2387</v>
+      </c>
+      <c r="I7" s="34">
+        <v>0.25280000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="34">
-        <v>0.38469999999999999</v>
-      </c>
-      <c r="D8" s="34">
-        <v>0.4345</v>
-      </c>
-      <c r="E8" s="34">
-        <v>0.56020000000000003</v>
-      </c>
-      <c r="F8" s="34">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="G8" s="34">
-        <v>0.41020000000000001</v>
-      </c>
-      <c r="H8" s="34">
-        <v>0.79890000000000005</v>
-      </c>
-      <c r="I8" s="35">
-        <v>0.4355</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="33" t="s">
+      <c r="C8" s="33">
+        <v>0.80010000000000003</v>
+      </c>
+      <c r="D8" s="33">
+        <v>1.1589</v>
+      </c>
+      <c r="E8" s="33">
+        <v>1.1443000000000001</v>
+      </c>
+      <c r="F8" s="33">
+        <v>1.1113999999999999</v>
+      </c>
+      <c r="G8" s="33">
+        <v>1.0388999999999999</v>
+      </c>
+      <c r="H8" s="33">
+        <v>1.3140000000000001</v>
+      </c>
+      <c r="I8" s="34">
+        <v>0.99629999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="34">
-        <v>0.29210000000000003</v>
-      </c>
-      <c r="D9" s="34">
-        <v>0.22770000000000001</v>
-      </c>
-      <c r="E9" s="34">
-        <v>0.25040000000000001</v>
-      </c>
-      <c r="F9" s="34">
-        <v>0.4824</v>
-      </c>
-      <c r="G9" s="34">
-        <v>0.3634</v>
-      </c>
-      <c r="H9" s="34">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="I9" s="35">
-        <v>0.28820000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="33" t="s">
+      <c r="C9" s="33">
+        <v>0.93610000000000004</v>
+      </c>
+      <c r="D9" s="33">
+        <v>0.4234</v>
+      </c>
+      <c r="E9" s="33">
+        <v>0.31659999999999999</v>
+      </c>
+      <c r="F9" s="33">
+        <v>0.53139999999999998</v>
+      </c>
+      <c r="G9" s="33">
+        <v>0.48020000000000002</v>
+      </c>
+      <c r="H9" s="33">
+        <v>0.60609999999999997</v>
+      </c>
+      <c r="I9" s="34">
+        <v>0.66120000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="34">
-        <v>0.30740000000000001</v>
-      </c>
-      <c r="D10" s="34">
-        <v>0.36930000000000002</v>
-      </c>
-      <c r="E10" s="34">
-        <v>0.36109999999999998</v>
-      </c>
-      <c r="F10" s="34">
-        <v>0.43609999999999999</v>
-      </c>
-      <c r="G10" s="34">
-        <v>0.35949999999999999</v>
-      </c>
-      <c r="H10" s="34">
-        <v>0.56620000000000004</v>
-      </c>
-      <c r="I10" s="35">
-        <v>0.35260000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="33" t="s">
+      <c r="C10" s="33">
+        <v>0.90159999999999996</v>
+      </c>
+      <c r="D10" s="33">
+        <v>0.82989999999999997</v>
+      </c>
+      <c r="E10" s="33">
+        <v>0.91039999999999999</v>
+      </c>
+      <c r="F10" s="33">
+        <v>1.1767000000000001</v>
+      </c>
+      <c r="G10" s="33">
+        <v>0.67549999999999999</v>
+      </c>
+      <c r="H10" s="33">
+        <v>0.9012</v>
+      </c>
+      <c r="I10" s="34">
+        <v>0.87839999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="34">
-        <v>0.73160000000000003</v>
-      </c>
-      <c r="D11" s="34">
-        <v>0.85529999999999995</v>
-      </c>
-      <c r="E11" s="34">
-        <v>0.6875</v>
-      </c>
-      <c r="F11" s="34">
-        <v>0.55210000000000004</v>
-      </c>
-      <c r="G11" s="34">
-        <v>0.83179999999999998</v>
-      </c>
-      <c r="H11" s="34">
-        <v>0.52149999999999996</v>
-      </c>
-      <c r="I11" s="35">
-        <v>0.75829999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="33" t="s">
+      <c r="C11" s="33">
+        <v>1.4522999999999999</v>
+      </c>
+      <c r="D11" s="33">
+        <v>1.3406</v>
+      </c>
+      <c r="E11" s="33">
+        <v>1.0162</v>
+      </c>
+      <c r="F11" s="33">
+        <v>1.0621</v>
+      </c>
+      <c r="G11" s="33">
+        <v>1.1657999999999999</v>
+      </c>
+      <c r="H11" s="33">
+        <v>0.77359999999999995</v>
+      </c>
+      <c r="I11" s="34">
+        <v>1.3207</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="34">
-        <v>0.41880000000000001</v>
-      </c>
-      <c r="D12" s="34">
-        <v>0.65910000000000002</v>
-      </c>
-      <c r="E12" s="34">
-        <v>0.52559999999999996</v>
-      </c>
-      <c r="F12" s="34">
-        <v>0.56850000000000001</v>
-      </c>
-      <c r="G12" s="34">
-        <v>0.76949999999999996</v>
-      </c>
-      <c r="H12" s="34">
-        <v>1.4610000000000001</v>
-      </c>
-      <c r="I12" s="35">
-        <v>0.58079999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="33" t="s">
+      <c r="C12" s="33">
+        <v>0.97940000000000005</v>
+      </c>
+      <c r="D12" s="33">
+        <v>1.2343</v>
+      </c>
+      <c r="E12" s="33">
+        <v>0.86319999999999997</v>
+      </c>
+      <c r="F12" s="33">
+        <v>1.0876999999999999</v>
+      </c>
+      <c r="G12" s="33">
+        <v>1.4258</v>
+      </c>
+      <c r="H12" s="33">
+        <v>1.9318</v>
+      </c>
+      <c r="I12" s="34">
+        <v>1.1301000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="34">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="D13" s="34">
-        <v>0.27829999999999999</v>
-      </c>
-      <c r="E13" s="34">
-        <v>0.2261</v>
-      </c>
-      <c r="F13" s="34">
-        <v>0.23180000000000001</v>
-      </c>
-      <c r="G13" s="34">
-        <v>0.18940000000000001</v>
-      </c>
-      <c r="H13" s="34">
-        <v>0.25950000000000001</v>
-      </c>
-      <c r="I13" s="35">
-        <v>0.25850000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="33" t="s">
+      <c r="C13" s="33">
+        <v>0.10979999999999999</v>
+      </c>
+      <c r="D13" s="33">
+        <v>0.10929999999999999</v>
+      </c>
+      <c r="E13" s="33">
+        <v>0.1053</v>
+      </c>
+      <c r="F13" s="33">
+        <v>0.1608</v>
+      </c>
+      <c r="G13" s="33">
+        <v>6.4299999999999996E-2</v>
+      </c>
+      <c r="H13" s="33">
+        <v>0.1017</v>
+      </c>
+      <c r="I13" s="34">
+        <v>0.1089</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="34">
-        <v>0.74229999999999996</v>
-      </c>
-      <c r="D14" s="34">
-        <v>0.72330000000000005</v>
-      </c>
-      <c r="E14" s="34">
-        <v>0.4027</v>
-      </c>
-      <c r="F14" s="34">
-        <v>0.52669999999999995</v>
-      </c>
-      <c r="G14" s="34">
-        <v>0.55769999999999997</v>
-      </c>
-      <c r="H14" s="34">
-        <v>0.59650000000000003</v>
-      </c>
-      <c r="I14" s="35">
-        <v>0.6865</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="33" t="s">
+      <c r="C14" s="33">
+        <v>0.77429999999999999</v>
+      </c>
+      <c r="D14" s="33">
+        <v>0.74070000000000003</v>
+      </c>
+      <c r="E14" s="33">
+        <v>0.55089999999999995</v>
+      </c>
+      <c r="F14" s="33">
+        <v>0.70120000000000005</v>
+      </c>
+      <c r="G14" s="33">
+        <v>0.80159999999999998</v>
+      </c>
+      <c r="H14" s="33">
+        <v>1.1796</v>
+      </c>
+      <c r="I14" s="34">
+        <v>0.7641</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="34">
-        <v>0.1686</v>
-      </c>
-      <c r="D15" s="34">
-        <v>7.3200000000000001E-2</v>
-      </c>
-      <c r="E15" s="34">
-        <v>0.1023</v>
-      </c>
-      <c r="F15" s="34">
-        <v>7.4099999999999999E-2</v>
-      </c>
-      <c r="G15" s="34">
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="H15" s="34">
-        <v>5.2200000000000003E-2</v>
-      </c>
-      <c r="I15" s="35">
-        <v>0.1171</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="33" t="s">
+      <c r="C15" s="33">
+        <v>0.2762</v>
+      </c>
+      <c r="D15" s="33">
+        <v>6.7699999999999996E-2</v>
+      </c>
+      <c r="E15" s="33">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="F15" s="33">
+        <v>5.5399999999999998E-2</v>
+      </c>
+      <c r="G15" s="33">
+        <v>0.15010000000000001</v>
+      </c>
+      <c r="H15" s="33">
+        <v>0.14860000000000001</v>
+      </c>
+      <c r="I15" s="34">
+        <v>0.17480000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="34">
-        <v>0.8165</v>
-      </c>
-      <c r="D16" s="34">
-        <v>0.75919999999999999</v>
-      </c>
-      <c r="E16" s="34">
-        <v>0.65139999999999998</v>
-      </c>
-      <c r="F16" s="34">
-        <v>0.37209999999999999</v>
-      </c>
-      <c r="G16" s="34">
-        <v>0.44819999999999999</v>
-      </c>
-      <c r="H16" s="34">
-        <v>0.3785</v>
-      </c>
-      <c r="I16" s="35">
-        <v>0.72640000000000005</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="33" t="s">
+      <c r="C16" s="33">
+        <v>1.5361</v>
+      </c>
+      <c r="D16" s="33">
+        <v>1.0273000000000001</v>
+      </c>
+      <c r="E16" s="33">
+        <v>1.3573</v>
+      </c>
+      <c r="F16" s="33">
+        <v>0.64870000000000005</v>
+      </c>
+      <c r="G16" s="33">
+        <v>1.2084999999999999</v>
+      </c>
+      <c r="H16" s="33">
+        <v>0.59219999999999995</v>
+      </c>
+      <c r="I16" s="34">
+        <v>1.2497</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="34">
-        <v>0.2021</v>
-      </c>
-      <c r="D17" s="34">
-        <v>0.1777</v>
-      </c>
-      <c r="E17" s="34">
-        <v>0.16539999999999999</v>
-      </c>
-      <c r="F17" s="34">
-        <v>0.17380000000000001</v>
-      </c>
-      <c r="G17" s="34">
-        <v>0.1837</v>
-      </c>
-      <c r="H17" s="34">
-        <v>0.24</v>
-      </c>
-      <c r="I17" s="35">
-        <v>0.19070000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="45"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="47"/>
-    </row>
-    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="60" t="s">
+      <c r="C17" s="33">
+        <v>0.28870000000000001</v>
+      </c>
+      <c r="D17" s="33">
+        <v>0.26750000000000002</v>
+      </c>
+      <c r="E17" s="33">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="F17" s="33">
+        <v>0.32729999999999998</v>
+      </c>
+      <c r="G17" s="33">
+        <v>0.2792</v>
+      </c>
+      <c r="H17" s="33">
+        <v>0.2205</v>
+      </c>
+      <c r="I17" s="34">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="46"/>
+    </row>
+    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="62"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="42" t="s">
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="60"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="43">
-        <v>114.5881</v>
-      </c>
-      <c r="D20" s="43">
-        <v>113.0547</v>
-      </c>
-      <c r="E20" s="43">
-        <v>113.9118</v>
-      </c>
-      <c r="F20" s="43">
-        <v>113.0984</v>
-      </c>
-      <c r="G20" s="43">
-        <v>108.2129</v>
-      </c>
-      <c r="H20" s="43">
-        <v>111.1443</v>
-      </c>
-      <c r="I20" s="44">
-        <v>113.45</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="33" t="s">
+      <c r="C20" s="42">
+        <v>125.2403</v>
+      </c>
+      <c r="D20" s="42">
+        <v>123.6463</v>
+      </c>
+      <c r="E20" s="42">
+        <v>125.9786</v>
+      </c>
+      <c r="F20" s="42">
+        <v>126.0836</v>
+      </c>
+      <c r="G20" s="42">
+        <v>119.69929999999999</v>
+      </c>
+      <c r="H20" s="42">
+        <v>122.4633</v>
+      </c>
+      <c r="I20" s="43">
+        <v>124.36750000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="34">
-        <v>29.611899999999999</v>
-      </c>
-      <c r="D21" s="34">
-        <v>34.938800000000001</v>
-      </c>
-      <c r="E21" s="34">
-        <v>41.703299999999999</v>
-      </c>
-      <c r="F21" s="34">
-        <v>42.526800000000001</v>
-      </c>
-      <c r="G21" s="34">
-        <v>34.1691</v>
-      </c>
-      <c r="H21" s="34">
-        <v>32.216500000000003</v>
-      </c>
-      <c r="I21" s="35">
-        <v>33.202599999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="33" t="s">
+      <c r="C21" s="33">
+        <v>33.824100000000001</v>
+      </c>
+      <c r="D21" s="33">
+        <v>40.114600000000003</v>
+      </c>
+      <c r="E21" s="33">
+        <v>49.338500000000003</v>
+      </c>
+      <c r="F21" s="33">
+        <v>50.039499999999997</v>
+      </c>
+      <c r="G21" s="33">
+        <v>39.605600000000003</v>
+      </c>
+      <c r="H21" s="33">
+        <v>36.264299999999999</v>
+      </c>
+      <c r="I21" s="34">
+        <v>38.1845</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="34">
-        <v>3.1143000000000001</v>
-      </c>
-      <c r="D22" s="34">
-        <v>3.6484000000000001</v>
-      </c>
-      <c r="E22" s="34">
-        <v>2.9706999999999999</v>
-      </c>
-      <c r="F22" s="34">
-        <v>3.8246000000000002</v>
-      </c>
-      <c r="G22" s="34">
-        <v>3.1555</v>
-      </c>
-      <c r="H22" s="34">
-        <v>3.2551999999999999</v>
-      </c>
-      <c r="I22" s="35">
-        <v>3.3275999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="33" t="s">
+      <c r="C22" s="33">
+        <v>3.1297000000000001</v>
+      </c>
+      <c r="D22" s="33">
+        <v>3.782</v>
+      </c>
+      <c r="E22" s="33">
+        <v>3.1214</v>
+      </c>
+      <c r="F22" s="33">
+        <v>4.1162999999999998</v>
+      </c>
+      <c r="G22" s="33">
+        <v>3.2764000000000002</v>
+      </c>
+      <c r="H22" s="33">
+        <v>3.3371</v>
+      </c>
+      <c r="I22" s="34">
+        <v>3.4137</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="34">
-        <v>11.5946</v>
-      </c>
-      <c r="D23" s="34">
-        <v>12.6645</v>
-      </c>
-      <c r="E23" s="34">
-        <v>14.5403</v>
-      </c>
-      <c r="F23" s="34">
-        <v>12.3523</v>
-      </c>
-      <c r="G23" s="34">
-        <v>11.624499999999999</v>
-      </c>
-      <c r="H23" s="34">
-        <v>14.9796</v>
-      </c>
-      <c r="I23" s="35">
-        <v>12.353400000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="33" t="s">
+      <c r="C23" s="33">
+        <v>11.604699999999999</v>
+      </c>
+      <c r="D23" s="33">
+        <v>12.996700000000001</v>
+      </c>
+      <c r="E23" s="33">
+        <v>14.642200000000001</v>
+      </c>
+      <c r="F23" s="33">
+        <v>12.930400000000001</v>
+      </c>
+      <c r="G23" s="33">
+        <v>11.8325</v>
+      </c>
+      <c r="H23" s="33">
+        <v>15.7149</v>
+      </c>
+      <c r="I23" s="34">
+        <v>12.548999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="34">
-        <v>9.1222999999999992</v>
-      </c>
-      <c r="D24" s="34">
-        <v>6.5784000000000002</v>
-      </c>
-      <c r="E24" s="34">
-        <v>7.2483000000000004</v>
-      </c>
-      <c r="F24" s="34">
-        <v>9.2719000000000005</v>
-      </c>
-      <c r="G24" s="34">
-        <v>7.2962999999999996</v>
-      </c>
-      <c r="H24" s="34">
-        <v>8.7131000000000007</v>
-      </c>
-      <c r="I24" s="35">
-        <v>8.0170999999999992</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="33" t="s">
+      <c r="C24" s="33">
+        <v>10.0091</v>
+      </c>
+      <c r="D24" s="33">
+        <v>6.7117000000000004</v>
+      </c>
+      <c r="E24" s="33">
+        <v>6.8746</v>
+      </c>
+      <c r="F24" s="33">
+        <v>9.1736000000000004</v>
+      </c>
+      <c r="G24" s="33">
+        <v>7.4250999999999996</v>
+      </c>
+      <c r="H24" s="33">
+        <v>9.1404999999999994</v>
+      </c>
+      <c r="I24" s="34">
+        <v>8.4549000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="34">
-        <v>7.3788</v>
-      </c>
-      <c r="D25" s="34">
-        <v>6.9996999999999998</v>
-      </c>
-      <c r="E25" s="34">
-        <v>6.7716000000000003</v>
-      </c>
-      <c r="F25" s="34">
-        <v>8.9004999999999992</v>
-      </c>
-      <c r="G25" s="34">
-        <v>6.7683999999999997</v>
-      </c>
-      <c r="H25" s="34">
-        <v>7.6143999999999998</v>
-      </c>
-      <c r="I25" s="35">
-        <v>7.2552000000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="33" t="s">
+      <c r="C25" s="33">
+        <v>8.2408999999999999</v>
+      </c>
+      <c r="D25" s="33">
+        <v>7.7188999999999997</v>
+      </c>
+      <c r="E25" s="33">
+        <v>7.6527000000000003</v>
+      </c>
+      <c r="F25" s="33">
+        <v>10.1379</v>
+      </c>
+      <c r="G25" s="33">
+        <v>7.2363999999999997</v>
+      </c>
+      <c r="H25" s="33">
+        <v>8.6485000000000003</v>
+      </c>
+      <c r="I25" s="34">
+        <v>8.0740999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="34">
-        <v>9.9861000000000004</v>
-      </c>
-      <c r="D26" s="34">
-        <v>10.3612</v>
-      </c>
-      <c r="E26" s="34">
-        <v>8.1440000000000001</v>
-      </c>
-      <c r="F26" s="34">
-        <v>6.6921999999999997</v>
-      </c>
-      <c r="G26" s="34">
-        <v>9.7644000000000002</v>
-      </c>
-      <c r="H26" s="34">
-        <v>6.0651000000000002</v>
-      </c>
-      <c r="I26" s="35">
-        <v>9.6484000000000005</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="33" t="s">
+      <c r="C26" s="33">
+        <v>11.702500000000001</v>
+      </c>
+      <c r="D26" s="33">
+        <v>11.902799999999999</v>
+      </c>
+      <c r="E26" s="33">
+        <v>9.2577999999999996</v>
+      </c>
+      <c r="F26" s="33">
+        <v>8.0382999999999996</v>
+      </c>
+      <c r="G26" s="33">
+        <v>11.097300000000001</v>
+      </c>
+      <c r="H26" s="33">
+        <v>6.9584999999999999</v>
+      </c>
+      <c r="I26" s="34">
+        <v>11.189399999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="34">
-        <v>11.6363</v>
-      </c>
-      <c r="D27" s="34">
-        <v>11.6195</v>
-      </c>
-      <c r="E27" s="34">
-        <v>8.0863999999999994</v>
-      </c>
-      <c r="F27" s="34">
-        <v>10.404299999999999</v>
-      </c>
-      <c r="G27" s="34">
-        <v>12.413600000000001</v>
-      </c>
-      <c r="H27" s="34">
-        <v>16.448899999999998</v>
-      </c>
-      <c r="I27" s="35">
-        <v>11.590999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="33" t="s">
+      <c r="C27" s="33">
+        <v>11.989699999999999</v>
+      </c>
+      <c r="D27" s="33">
+        <v>12.6816</v>
+      </c>
+      <c r="E27" s="33">
+        <v>8.7657000000000007</v>
+      </c>
+      <c r="F27" s="33">
+        <v>11.0543</v>
+      </c>
+      <c r="G27" s="33">
+        <v>13.9986</v>
+      </c>
+      <c r="H27" s="33">
+        <v>18.412400000000002</v>
+      </c>
+      <c r="I27" s="34">
+        <v>12.3598</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="34">
-        <v>2.5583999999999998</v>
-      </c>
-      <c r="D28" s="34">
-        <v>2.5722999999999998</v>
-      </c>
-      <c r="E28" s="34">
-        <v>2.4485000000000001</v>
-      </c>
-      <c r="F28" s="34">
-        <v>2.3100999999999998</v>
-      </c>
-      <c r="G28" s="34">
-        <v>1.9978</v>
-      </c>
-      <c r="H28" s="34">
-        <v>2.4214000000000002</v>
-      </c>
-      <c r="I28" s="35">
-        <v>2.5091000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="33" t="s">
+      <c r="C28" s="33">
+        <v>2.5331999999999999</v>
+      </c>
+      <c r="D28" s="33">
+        <v>2.4897999999999998</v>
+      </c>
+      <c r="E28" s="33">
+        <v>2.3746</v>
+      </c>
+      <c r="F28" s="33">
+        <v>2.3388</v>
+      </c>
+      <c r="G28" s="33">
+        <v>1.9292</v>
+      </c>
+      <c r="H28" s="33">
+        <v>2.3605</v>
+      </c>
+      <c r="I28" s="34">
+        <v>2.4594999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="34">
-        <v>8.4140999999999995</v>
-      </c>
-      <c r="D29" s="34">
-        <v>7.6920000000000002</v>
-      </c>
-      <c r="E29" s="34">
-        <v>6.0789</v>
-      </c>
-      <c r="F29" s="34">
-        <v>6.1158999999999999</v>
-      </c>
-      <c r="G29" s="34">
-        <v>6.8926999999999996</v>
-      </c>
-      <c r="H29" s="34">
-        <v>8.5555000000000003</v>
-      </c>
-      <c r="I29" s="35">
-        <v>7.8305999999999996</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="33" t="s">
+      <c r="C29" s="33">
+        <v>9.2209000000000003</v>
+      </c>
+      <c r="D29" s="33">
+        <v>8.4131</v>
+      </c>
+      <c r="E29" s="33">
+        <v>6.4249999999999998</v>
+      </c>
+      <c r="F29" s="33">
+        <v>6.8022</v>
+      </c>
+      <c r="G29" s="33">
+        <v>7.7206999999999999</v>
+      </c>
+      <c r="H29" s="33">
+        <v>10.019399999999999</v>
+      </c>
+      <c r="I29" s="34">
+        <v>8.6020000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="34">
-        <v>3.1890000000000001</v>
-      </c>
-      <c r="D30" s="34">
-        <v>1.3711</v>
-      </c>
-      <c r="E30" s="34">
-        <v>1.7609999999999999</v>
-      </c>
-      <c r="F30" s="34">
-        <v>1.0369999999999999</v>
-      </c>
-      <c r="G30" s="34">
-        <v>1.6495</v>
-      </c>
-      <c r="H30" s="34">
-        <v>1.4049</v>
-      </c>
-      <c r="I30" s="35">
-        <v>2.2109000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="33" t="s">
+      <c r="C30" s="33">
+        <v>3.4121000000000001</v>
+      </c>
+      <c r="D30" s="33">
+        <v>1.3787</v>
+      </c>
+      <c r="E30" s="33">
+        <v>1.903</v>
+      </c>
+      <c r="F30" s="33">
+        <v>1.0243</v>
+      </c>
+      <c r="G30" s="33">
+        <v>1.6966000000000001</v>
+      </c>
+      <c r="H30" s="33">
+        <v>1.5466</v>
+      </c>
+      <c r="I30" s="34">
+        <v>2.3311999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="34">
-        <v>14.351800000000001</v>
-      </c>
-      <c r="D31" s="34">
-        <v>11.246700000000001</v>
-      </c>
-      <c r="E31" s="34">
-        <v>10.953099999999999</v>
-      </c>
-      <c r="F31" s="34">
-        <v>6.3129</v>
-      </c>
-      <c r="G31" s="34">
-        <v>9.1837</v>
-      </c>
-      <c r="H31" s="34">
-        <v>6.4084000000000003</v>
-      </c>
-      <c r="I31" s="35">
-        <v>12.0631</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="36" t="s">
+      <c r="C31" s="33">
+        <v>15.833600000000001</v>
+      </c>
+      <c r="D31" s="33">
+        <v>12.038</v>
+      </c>
+      <c r="E31" s="33">
+        <v>12.3316</v>
+      </c>
+      <c r="F31" s="33">
+        <v>6.8342000000000001</v>
+      </c>
+      <c r="G31" s="33">
+        <v>10.4537</v>
+      </c>
+      <c r="H31" s="33">
+        <v>6.899</v>
+      </c>
+      <c r="I31" s="34">
+        <v>13.2021</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="37">
-        <v>3.6328999999999998</v>
-      </c>
-      <c r="D32" s="37">
-        <v>3.3603999999999998</v>
-      </c>
-      <c r="E32" s="37">
-        <v>3.2073999999999998</v>
-      </c>
-      <c r="F32" s="37">
-        <v>3.347</v>
-      </c>
-      <c r="G32" s="37">
-        <v>3.2970999999999999</v>
-      </c>
-      <c r="H32" s="37">
-        <v>3.0598000000000001</v>
-      </c>
-      <c r="I32" s="38">
-        <v>3.4540000000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="66" t="s">
+      <c r="C32" s="36">
+        <v>3.7418999999999998</v>
+      </c>
+      <c r="D32" s="36">
+        <v>3.4161999999999999</v>
+      </c>
+      <c r="E32" s="36">
+        <v>3.2938000000000001</v>
+      </c>
+      <c r="F32" s="36">
+        <v>3.5910000000000002</v>
+      </c>
+      <c r="G32" s="36">
+        <v>3.4268000000000001</v>
+      </c>
+      <c r="H32" s="36">
+        <v>3.1604000000000001</v>
+      </c>
+      <c r="I32" s="37">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/assets/excel/IPCse - Series históricas.xlsx
+++ b/assets/excel/IPCse - Series históricas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fiona\Dropbox\MGR\IPC seasonal adjustment\IPCse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AE7359-D17B-4545-A2BF-7D5343B25DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09951E2E-5B70-470D-9481-4E1DD7E8FC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{A81B6F3A-9175-42CA-B78F-287A4E3C6249}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" activeTab="1" xr2:uid="{A81B6F3A-9175-42CA-B78F-287A4E3C6249}"/>
   </bookViews>
   <sheets>
     <sheet name="Índices" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="48">
   <si>
     <t>Fecha</t>
   </si>
@@ -183,10 +183,7 @@
     <t>IPCse NACIONAL</t>
   </si>
   <si>
-    <t>Oct. 2023/Oct. 2022</t>
-  </si>
-  <si>
-    <t>May.</t>
+    <t>Nov. 2023/Nov. 2022</t>
   </si>
   <si>
     <t>Jun.</t>
@@ -202,6 +199,12 @@
   </si>
   <si>
     <t>Oct.</t>
+  </si>
+  <si>
+    <t>Nov.</t>
+  </si>
+  <si>
+    <t>|</t>
   </si>
 </sst>
 </file>
@@ -1249,24 +1252,24 @@
   <dimension ref="B1:V89"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="78" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
-      <selection pane="bottomRight" activeCell="D90" sqref="D90"/>
+      <selection pane="bottomRight" activeCell="W89" sqref="W89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.6328125" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.54296875" style="4" customWidth="1"/>
-    <col min="2" max="3" width="20.6328125" style="4" customWidth="1"/>
-    <col min="4" max="21" width="15.6328125" style="4"/>
-    <col min="22" max="22" width="20.6328125" style="4" customWidth="1"/>
-    <col min="23" max="16384" width="15.6328125" style="4"/>
+    <col min="1" max="1" width="4.5703125" style="4" customWidth="1"/>
+    <col min="2" max="3" width="20.5703125" style="4" customWidth="1"/>
+    <col min="4" max="21" width="15.5703125" style="4"/>
+    <col min="22" max="22" width="20.5703125" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="15.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="52" t="s">
         <v>10</v>
       </c>
@@ -1291,7 +1294,7 @@
       <c r="U2" s="53"/>
       <c r="V2" s="53"/>
     </row>
-    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="9" t="s">
         <v>8</v>
@@ -1322,7 +1325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1387,7 +1390,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
         <v>42705</v>
       </c>
@@ -1452,7 +1455,7 @@
         <v>99.977400000000003</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <v>42736</v>
       </c>
@@ -1517,7 +1520,7 @@
         <v>101.58410000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
         <v>42767</v>
       </c>
@@ -1582,7 +1585,7 @@
         <v>103.26909999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <v>42795</v>
       </c>
@@ -1647,7 +1650,7 @@
         <v>104.8601</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <v>42826</v>
       </c>
@@ -1712,7 +1715,7 @@
         <v>107.3261</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <v>42856</v>
       </c>
@@ -1777,7 +1780,7 @@
         <v>109.36450000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
         <v>42887</v>
       </c>
@@ -1842,7 +1845,7 @@
         <v>110.7693</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <v>42917</v>
       </c>
@@ -1907,7 +1910,7 @@
         <v>112.8707</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <v>42948</v>
       </c>
@@ -1972,7 +1975,7 @@
         <v>114.20829999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <v>42979</v>
       </c>
@@ -2037,7 +2040,7 @@
         <v>115.16679999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
         <v>43009</v>
       </c>
@@ -2102,7 +2105,7 @@
         <v>116.4616</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="14">
         <v>43040</v>
       </c>
@@ -2167,7 +2170,7 @@
         <v>118.2471</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="14">
         <v>43070</v>
       </c>
@@ -2232,7 +2235,7 @@
         <v>120.15</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
         <v>43101</v>
       </c>
@@ -2297,7 +2300,7 @@
         <v>122.66079999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="14">
         <v>43132</v>
       </c>
@@ -2362,7 +2365,7 @@
         <v>124.86669999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="14">
         <v>43160</v>
       </c>
@@ -2427,7 +2430,7 @@
         <v>127.12269999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="14">
         <v>43191</v>
       </c>
@@ -2492,7 +2495,7 @@
         <v>129.41149999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="14">
         <v>43221</v>
       </c>
@@ -2557,7 +2560,7 @@
         <v>133.31610000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="14">
         <v>43252</v>
       </c>
@@ -2622,7 +2625,7 @@
         <v>138.48570000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="14">
         <v>43282</v>
       </c>
@@ -2687,7 +2690,7 @@
         <v>143.6498</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="14">
         <v>43313</v>
       </c>
@@ -2752,7 +2755,7 @@
         <v>148.0249</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="14">
         <v>43344</v>
       </c>
@@ -2817,7 +2820,7 @@
         <v>157.21270000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="14">
         <v>43374</v>
       </c>
@@ -2882,7 +2885,7 @@
         <v>163.8939</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="14">
         <v>43405</v>
       </c>
@@ -2947,7 +2950,7 @@
         <v>169.81559999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="14">
         <v>43435</v>
       </c>
@@ -3012,7 +3015,7 @@
         <v>173.93020000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="14">
         <v>43466</v>
       </c>
@@ -3077,7 +3080,7 @@
         <v>179.21430000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="14">
         <v>43497</v>
       </c>
@@ -3142,7 +3145,7 @@
         <v>186.506</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="14">
         <v>43525</v>
       </c>
@@ -3207,7 +3210,7 @@
         <v>194.3347</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="14">
         <v>43556</v>
       </c>
@@ -3272,7 +3275,7 @@
         <v>200.91579999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="14">
         <v>43586</v>
       </c>
@@ -3337,7 +3340,7 @@
         <v>207.03639999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="14">
         <v>43617</v>
       </c>
@@ -3402,7 +3405,7 @@
         <v>212.8476</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="14">
         <v>43647</v>
       </c>
@@ -3467,7 +3470,7 @@
         <v>218.41489999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="14">
         <v>43678</v>
       </c>
@@ -3532,7 +3535,7 @@
         <v>227.71770000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="14">
         <v>43709</v>
       </c>
@@ -3597,7 +3600,7 @@
         <v>240.4811</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="14">
         <v>43739</v>
       </c>
@@ -3662,7 +3665,7 @@
         <v>247.86199999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" s="14">
         <v>43770</v>
       </c>
@@ -3727,7 +3730,7 @@
         <v>259.3349</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="14">
         <v>43800</v>
       </c>
@@ -3792,7 +3795,7 @@
         <v>268.79329999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" s="14">
         <v>43831</v>
       </c>
@@ -3857,7 +3860,7 @@
         <v>278.7826</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" s="14">
         <v>43862</v>
       </c>
@@ -3922,7 +3925,7 @@
         <v>286.44729999999998</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44" s="14">
         <v>43891</v>
       </c>
@@ -3987,7 +3990,7 @@
         <v>293.82990000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45" s="14">
         <v>43922</v>
       </c>
@@ -4052,7 +4055,7 @@
         <v>300.18740000000003</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46" s="14">
         <v>43952</v>
       </c>
@@ -4117,7 +4120,7 @@
         <v>307.81490000000002</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47" s="14">
         <v>43983</v>
       </c>
@@ -4182,7 +4185,7 @@
         <v>316.56420000000003</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B48" s="14">
         <v>44013</v>
       </c>
@@ -4247,7 +4250,7 @@
         <v>324.54230000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B49" s="14">
         <v>44044</v>
       </c>
@@ -4312,7 +4315,7 @@
         <v>333.78789999999998</v>
       </c>
     </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B50" s="14">
         <v>44075</v>
       </c>
@@ -4377,7 +4380,7 @@
         <v>340.72519999999997</v>
       </c>
     </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B51" s="14">
         <v>44105</v>
       </c>
@@ -4442,7 +4445,7 @@
         <v>353.69189999999998</v>
       </c>
     </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B52" s="14">
         <v>44136</v>
       </c>
@@ -4507,7 +4510,7 @@
         <v>367.19499999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B53" s="14">
         <v>44166</v>
       </c>
@@ -4572,7 +4575,7 @@
         <v>383.58569999999997</v>
       </c>
     </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B54" s="14">
         <v>44197</v>
       </c>
@@ -4637,7 +4640,7 @@
         <v>400.52280000000002</v>
       </c>
     </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B55" s="14">
         <v>44228</v>
       </c>
@@ -4702,7 +4705,7 @@
         <v>416.6268</v>
       </c>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B56" s="14">
         <v>44256</v>
       </c>
@@ -4767,7 +4770,7 @@
         <v>434.39139999999998</v>
       </c>
     </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B57" s="14">
         <v>44287</v>
       </c>
@@ -4832,7 +4835,7 @@
         <v>451.8818</v>
       </c>
     </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B58" s="14">
         <v>44317</v>
       </c>
@@ -4897,7 +4900,7 @@
         <v>467.42290000000003</v>
       </c>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B59" s="14">
         <v>44348</v>
       </c>
@@ -4962,7 +4965,7 @@
         <v>483.03149999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B60" s="14">
         <v>44378</v>
       </c>
@@ -5027,7 +5030,7 @@
         <v>499.71620000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B61" s="14">
         <v>44409</v>
       </c>
@@ -5092,7 +5095,7 @@
         <v>511.17930000000001</v>
       </c>
     </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B62" s="14">
         <v>44440</v>
       </c>
@@ -5157,7 +5160,7 @@
         <v>525.85019999999997</v>
       </c>
     </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B63" s="14">
         <v>44470</v>
       </c>
@@ -5222,7 +5225,7 @@
         <v>542.82629999999995</v>
       </c>
     </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B64" s="14">
         <v>44501</v>
       </c>
@@ -5287,7 +5290,7 @@
         <v>560.64739999999995</v>
       </c>
     </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B65" s="14">
         <v>44531</v>
       </c>
@@ -5352,7 +5355,7 @@
         <v>587.63199999999995</v>
       </c>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B66" s="14">
         <v>44562</v>
       </c>
@@ -5417,7 +5420,7 @@
         <v>614.96839999999997</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B67" s="14">
         <v>44593</v>
       </c>
@@ -5482,7 +5485,7 @@
         <v>648.68989999999997</v>
       </c>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B68" s="14">
         <v>44621</v>
       </c>
@@ -5547,7 +5550,7 @@
         <v>686.36180000000002</v>
       </c>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B69" s="14">
         <v>44652</v>
       </c>
@@ -5612,7 +5615,7 @@
         <v>729.43140000000005</v>
       </c>
     </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B70" s="14">
         <v>44682</v>
       </c>
@@ -5677,7 +5680,7 @@
         <v>770.00469999999996</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B71" s="14">
         <v>44713</v>
       </c>
@@ -5742,7 +5745,7 @@
         <v>811.8424</v>
       </c>
     </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B72" s="14">
         <v>44743</v>
       </c>
@@ -5807,7 +5810,7 @@
         <v>880.58450000000005</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B73" s="14">
         <v>44774</v>
       </c>
@@ -5872,7 +5875,7 @@
         <v>944.6404</v>
       </c>
     </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B74" s="14">
         <v>44805</v>
       </c>
@@ -5937,7 +5940,7 @@
         <v>1001.7683</v>
       </c>
     </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B75" s="14">
         <v>44835</v>
       </c>
@@ -6002,7 +6005,7 @@
         <v>1059.6804</v>
       </c>
     </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B76" s="14">
         <v>44866</v>
       </c>
@@ -6067,7 +6070,7 @@
         <v>1113.1264000000001</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B77" s="14">
         <v>44896</v>
       </c>
@@ -6132,7 +6135,7 @@
         <v>1173.7402999999999</v>
       </c>
     </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B78" s="14">
         <v>44927</v>
       </c>
@@ -6197,7 +6200,7 @@
         <v>1250.2503999999999</v>
       </c>
     </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B79" s="14">
         <v>44958</v>
       </c>
@@ -6262,7 +6265,7 @@
         <v>1345.6905999999999</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B80" s="14">
         <v>44986</v>
       </c>
@@ -6327,7 +6330,7 @@
         <v>1441.3485000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B81" s="14">
         <v>45017</v>
       </c>
@@ -6392,7 +6395,7 @@
         <v>1572.9845</v>
       </c>
     </row>
-    <row r="82" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B82" s="14">
         <v>45047</v>
       </c>
@@ -6457,7 +6460,7 @@
         <v>1696.7299</v>
       </c>
     </row>
-    <row r="83" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B83" s="14">
         <v>45078</v>
       </c>
@@ -6522,7 +6525,7 @@
         <v>1788.9819</v>
       </c>
     </row>
-    <row r="84" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B84" s="14">
         <v>45108</v>
       </c>
@@ -6587,7 +6590,7 @@
         <v>1904.9344000000001</v>
       </c>
     </row>
-    <row r="85" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B85" s="14">
         <v>45139</v>
       </c>
@@ -6652,7 +6655,7 @@
         <v>2149.5119</v>
       </c>
     </row>
-    <row r="86" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B86" s="14">
         <v>45170</v>
       </c>
@@ -6717,75 +6720,137 @@
         <v>2433.0675999999999</v>
       </c>
     </row>
-    <row r="87" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="15">
+    <row r="87" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B87" s="14">
         <v>45200</v>
       </c>
-      <c r="C87" s="19">
+      <c r="C87" s="16">
         <v>2482.7474000000002</v>
       </c>
-      <c r="D87" s="20">
+      <c r="D87" s="17">
         <v>2426.8287999999998</v>
       </c>
-      <c r="E87" s="20">
+      <c r="E87" s="17">
         <v>2514.7053999999998</v>
       </c>
-      <c r="F87" s="20">
+      <c r="F87" s="17">
         <v>2578.9531000000002</v>
       </c>
-      <c r="G87" s="20">
+      <c r="G87" s="17">
         <v>2607.2260999999999</v>
       </c>
-      <c r="H87" s="20">
+      <c r="H87" s="17">
         <v>2527.4733999999999</v>
       </c>
-      <c r="I87" s="21">
+      <c r="I87" s="18">
         <v>2447.2647000000002</v>
       </c>
-      <c r="J87" s="20">
+      <c r="J87" s="17">
         <v>2765.6588999999999</v>
       </c>
-      <c r="K87" s="20">
+      <c r="K87" s="17">
         <v>1970.9492</v>
       </c>
-      <c r="L87" s="20">
+      <c r="L87" s="17">
         <v>2783.0398</v>
       </c>
-      <c r="M87" s="20">
+      <c r="M87" s="17">
         <v>1756.8655000000001</v>
       </c>
-      <c r="N87" s="20">
+      <c r="N87" s="17">
         <v>2566.9229</v>
       </c>
-      <c r="O87" s="20">
+      <c r="O87" s="17">
         <v>2628.2730000000001</v>
       </c>
-      <c r="P87" s="20">
+      <c r="P87" s="17">
         <v>2357.4511000000002</v>
       </c>
-      <c r="Q87" s="20">
+      <c r="Q87" s="17">
         <v>1814.3651</v>
       </c>
-      <c r="R87" s="20">
+      <c r="R87" s="17">
         <v>2417.8285999999998</v>
       </c>
-      <c r="S87" s="20">
+      <c r="S87" s="17">
         <v>1877.7853</v>
       </c>
-      <c r="T87" s="20">
+      <c r="T87" s="17">
         <v>2814.6012999999998</v>
       </c>
-      <c r="U87" s="21">
+      <c r="U87" s="18">
         <v>2044.3110999999999</v>
       </c>
-      <c r="V87" s="19">
+      <c r="V87" s="16">
         <v>2637.0823</v>
       </c>
     </row>
-    <row r="88" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B88" s="6"/>
-    </row>
-    <row r="89" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="15">
+        <v>45231</v>
+      </c>
+      <c r="C88" s="19">
+        <v>2814.6282000000001</v>
+      </c>
+      <c r="D88" s="20">
+        <v>2758.3620999999998</v>
+      </c>
+      <c r="E88" s="20">
+        <v>2850.3033999999998</v>
+      </c>
+      <c r="F88" s="20">
+        <v>2895.2828</v>
+      </c>
+      <c r="G88" s="20">
+        <v>2951.1059</v>
+      </c>
+      <c r="H88" s="20">
+        <v>2860.3018000000002</v>
+      </c>
+      <c r="I88" s="21">
+        <v>2747.0502999999999</v>
+      </c>
+      <c r="J88" s="20">
+        <v>3228.4746</v>
+      </c>
+      <c r="K88" s="20">
+        <v>2194.4564999999998</v>
+      </c>
+      <c r="L88" s="20">
+        <v>3098.6912000000002</v>
+      </c>
+      <c r="M88" s="20">
+        <v>1882.3774000000001</v>
+      </c>
+      <c r="N88" s="20">
+        <v>2894.8818000000001</v>
+      </c>
+      <c r="O88" s="20">
+        <v>3044.9432000000002</v>
+      </c>
+      <c r="P88" s="20">
+        <v>2602.8528000000001</v>
+      </c>
+      <c r="Q88" s="20">
+        <v>2084.7611999999999</v>
+      </c>
+      <c r="R88" s="20">
+        <v>2746.4229999999998</v>
+      </c>
+      <c r="S88" s="20">
+        <v>2082.2186999999999</v>
+      </c>
+      <c r="T88" s="20">
+        <v>3155.2386999999999</v>
+      </c>
+      <c r="U88" s="21">
+        <v>2279.0500999999999</v>
+      </c>
+      <c r="V88" s="19">
+        <v>3008.4508000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B89" s="6"/>
     </row>
   </sheetData>
@@ -6804,24 +6869,24 @@
   <dimension ref="B1:V89"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="83" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
-      <selection pane="bottomRight" activeCell="D85" sqref="D85"/>
+      <selection pane="bottomRight" activeCell="W89" sqref="W89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.6328125" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.54296875" style="4" customWidth="1"/>
-    <col min="2" max="3" width="20.6328125" style="4" customWidth="1"/>
-    <col min="4" max="21" width="15.6328125" style="4"/>
-    <col min="22" max="22" width="20.6328125" style="4" customWidth="1"/>
-    <col min="23" max="16384" width="15.6328125" style="4"/>
+    <col min="1" max="1" width="4.5703125" style="4" customWidth="1"/>
+    <col min="2" max="3" width="20.5703125" style="4" customWidth="1"/>
+    <col min="4" max="21" width="15.5703125" style="4"/>
+    <col min="22" max="22" width="20.5703125" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="15.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="52" t="s">
         <v>11</v>
       </c>
@@ -6846,7 +6911,7 @@
       <c r="U2" s="53"/>
       <c r="V2" s="53"/>
     </row>
-    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="9" t="s">
         <v>8</v>
@@ -6877,7 +6942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -6942,7 +7007,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
         <v>42705</v>
       </c>
@@ -6967,7 +7032,7 @@
       <c r="U5" s="13"/>
       <c r="V5" s="11"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <v>42736</v>
       </c>
@@ -7032,7 +7097,7 @@
         <v>1.6071</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
         <v>42767</v>
       </c>
@@ -7097,7 +7162,7 @@
         <v>1.6587000000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <v>42795</v>
       </c>
@@ -7162,7 +7227,7 @@
         <v>1.5406</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <v>42826</v>
       </c>
@@ -7227,7 +7292,7 @@
         <v>2.3517000000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <v>42856</v>
       </c>
@@ -7292,7 +7357,7 @@
         <v>1.8993</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
         <v>42887</v>
       </c>
@@ -7357,7 +7422,7 @@
         <v>1.2845</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <v>42917</v>
       </c>
@@ -7422,7 +7487,7 @@
         <v>1.8971</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <v>42948</v>
       </c>
@@ -7487,7 +7552,7 @@
         <v>1.1851</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <v>42979</v>
       </c>
@@ -7552,7 +7617,7 @@
         <v>0.83930000000000005</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
         <v>43009</v>
       </c>
@@ -7617,7 +7682,7 @@
         <v>1.1243000000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="14">
         <v>43040</v>
       </c>
@@ -7682,7 +7747,7 @@
         <v>1.5330999999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="14">
         <v>43070</v>
       </c>
@@ -7747,7 +7812,7 @@
         <v>1.6093</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
         <v>43101</v>
       </c>
@@ -7812,7 +7877,7 @@
         <v>2.0897000000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="14">
         <v>43132</v>
       </c>
@@ -7877,7 +7942,7 @@
         <v>1.7984</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="14">
         <v>43160</v>
       </c>
@@ -7942,7 +8007,7 @@
         <v>1.8067</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="14">
         <v>43191</v>
       </c>
@@ -8007,7 +8072,7 @@
         <v>1.8005</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="14">
         <v>43221</v>
       </c>
@@ -8072,7 +8137,7 @@
         <v>3.0171999999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="14">
         <v>43252</v>
       </c>
@@ -8137,7 +8202,7 @@
         <v>3.8776999999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="14">
         <v>43282</v>
       </c>
@@ -8202,7 +8267,7 @@
         <v>3.7290000000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="14">
         <v>43313</v>
       </c>
@@ -8267,7 +8332,7 @@
         <v>3.0457000000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="14">
         <v>43344</v>
       </c>
@@ -8332,7 +8397,7 @@
         <v>6.2069000000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="14">
         <v>43374</v>
       </c>
@@ -8397,7 +8462,7 @@
         <v>4.2497999999999996</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="14">
         <v>43405</v>
       </c>
@@ -8462,7 +8527,7 @@
         <v>3.6131000000000002</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="14">
         <v>43435</v>
       </c>
@@ -8527,7 +8592,7 @@
         <v>2.423</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="14">
         <v>43466</v>
       </c>
@@ -8592,7 +8657,7 @@
         <v>3.0381</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="14">
         <v>43497</v>
       </c>
@@ -8657,7 +8722,7 @@
         <v>4.0686999999999998</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="14">
         <v>43525</v>
       </c>
@@ -8722,7 +8787,7 @@
         <v>4.1976000000000004</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="14">
         <v>43556</v>
       </c>
@@ -8787,7 +8852,7 @@
         <v>3.3864999999999998</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="14">
         <v>43586</v>
       </c>
@@ -8852,7 +8917,7 @@
         <v>3.0464000000000002</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="14">
         <v>43617</v>
       </c>
@@ -8917,7 +8982,7 @@
         <v>2.8068</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="14">
         <v>43647</v>
       </c>
@@ -8982,7 +9047,7 @@
         <v>2.6156000000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="14">
         <v>43678</v>
       </c>
@@ -9047,7 +9112,7 @@
         <v>4.2591999999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="14">
         <v>43709</v>
       </c>
@@ -9112,7 +9177,7 @@
         <v>5.6048999999999998</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="14">
         <v>43739</v>
       </c>
@@ -9177,7 +9242,7 @@
         <v>3.0691999999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" s="14">
         <v>43770</v>
       </c>
@@ -9242,7 +9307,7 @@
         <v>4.6287000000000003</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="14">
         <v>43800</v>
       </c>
@@ -9307,7 +9372,7 @@
         <v>3.6472000000000002</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" s="14">
         <v>43831</v>
       </c>
@@ -9372,7 +9437,7 @@
         <v>3.7164000000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" s="14">
         <v>43862</v>
       </c>
@@ -9437,7 +9502,7 @@
         <v>2.7492999999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44" s="14">
         <v>43891</v>
       </c>
@@ -9502,7 +9567,7 @@
         <v>2.5773000000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45" s="14">
         <v>43922</v>
       </c>
@@ -9567,7 +9632,7 @@
         <v>2.1637</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46" s="14">
         <v>43952</v>
       </c>
@@ -9632,7 +9697,7 @@
         <v>2.5409000000000002</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47" s="14">
         <v>43983</v>
       </c>
@@ -9697,7 +9762,7 @@
         <v>2.8424</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B48" s="14">
         <v>44013</v>
       </c>
@@ -9762,7 +9827,7 @@
         <v>2.5202</v>
       </c>
     </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B49" s="14">
         <v>44044</v>
       </c>
@@ -9827,7 +9892,7 @@
         <v>2.8488000000000002</v>
       </c>
     </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B50" s="14">
         <v>44075</v>
       </c>
@@ -9892,7 +9957,7 @@
         <v>2.0783999999999998</v>
       </c>
     </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B51" s="14">
         <v>44105</v>
       </c>
@@ -9957,7 +10022,7 @@
         <v>3.8056000000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B52" s="14">
         <v>44136</v>
       </c>
@@ -10022,7 +10087,7 @@
         <v>3.8178000000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B53" s="14">
         <v>44166</v>
       </c>
@@ -10087,7 +10152,7 @@
         <v>4.4638</v>
       </c>
     </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B54" s="14">
         <v>44197</v>
       </c>
@@ -10152,7 +10217,7 @@
         <v>4.4154999999999998</v>
       </c>
     </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B55" s="14">
         <v>44228</v>
       </c>
@@ -10217,7 +10282,7 @@
         <v>4.0206999999999997</v>
       </c>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B56" s="14">
         <v>44256</v>
       </c>
@@ -10282,7 +10347,7 @@
         <v>4.2638999999999996</v>
       </c>
     </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B57" s="14">
         <v>44287</v>
       </c>
@@ -10347,7 +10412,7 @@
         <v>4.0263999999999998</v>
       </c>
     </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B58" s="14">
         <v>44317</v>
       </c>
@@ -10412,7 +10477,7 @@
         <v>3.4392</v>
       </c>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B59" s="14">
         <v>44348</v>
       </c>
@@ -10477,7 +10542,7 @@
         <v>3.3393000000000002</v>
       </c>
     </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B60" s="14">
         <v>44378</v>
       </c>
@@ -10542,7 +10607,7 @@
         <v>3.4542000000000002</v>
       </c>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B61" s="14">
         <v>44409</v>
       </c>
@@ -10607,7 +10672,7 @@
         <v>2.2938999999999998</v>
       </c>
     </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B62" s="14">
         <v>44440</v>
       </c>
@@ -10672,7 +10737,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B63" s="14">
         <v>44470</v>
       </c>
@@ -10737,7 +10802,7 @@
         <v>3.2282999999999999</v>
       </c>
     </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B64" s="14">
         <v>44501</v>
       </c>
@@ -10802,7 +10867,7 @@
         <v>3.2829999999999999</v>
       </c>
     </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B65" s="14">
         <v>44531</v>
       </c>
@@ -10867,7 +10932,7 @@
         <v>4.8131000000000004</v>
       </c>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B66" s="14">
         <v>44562</v>
       </c>
@@ -10932,7 +10997,7 @@
         <v>4.6520000000000001</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B67" s="14">
         <v>44593</v>
       </c>
@@ -10997,7 +11062,7 @@
         <v>5.4835000000000003</v>
       </c>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B68" s="14">
         <v>44621</v>
       </c>
@@ -11062,7 +11127,7 @@
         <v>5.8074000000000003</v>
       </c>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B69" s="14">
         <v>44652</v>
       </c>
@@ -11127,7 +11192,7 @@
         <v>6.2751000000000001</v>
       </c>
     </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B70" s="14">
         <v>44682</v>
       </c>
@@ -11192,7 +11257,7 @@
         <v>5.5622999999999996</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B71" s="14">
         <v>44713</v>
       </c>
@@ -11257,7 +11322,7 @@
         <v>5.4333999999999998</v>
       </c>
     </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B72" s="14">
         <v>44743</v>
       </c>
@@ -11322,7 +11387,7 @@
         <v>8.4673999999999996</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B73" s="14">
         <v>44774</v>
       </c>
@@ -11387,7 +11452,7 @@
         <v>7.2742000000000004</v>
       </c>
     </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B74" s="14">
         <v>44805</v>
       </c>
@@ -11452,7 +11517,7 @@
         <v>6.0476000000000001</v>
       </c>
     </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B75" s="14">
         <v>44835</v>
       </c>
@@ -11517,7 +11582,7 @@
         <v>5.7809999999999997</v>
       </c>
     </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B76" s="14">
         <v>44866</v>
       </c>
@@ -11582,7 +11647,7 @@
         <v>5.0435999999999996</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B77" s="14">
         <v>44896</v>
       </c>
@@ -11647,7 +11712,7 @@
         <v>5.4454000000000002</v>
       </c>
     </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B78" s="14">
         <v>44927</v>
       </c>
@@ -11712,7 +11777,7 @@
         <v>6.5185000000000004</v>
       </c>
     </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B79" s="14">
         <v>44958</v>
       </c>
@@ -11777,7 +11842,7 @@
         <v>7.6337000000000002</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B80" s="14">
         <v>44986</v>
       </c>
@@ -11842,7 +11907,7 @@
         <v>7.1085000000000003</v>
       </c>
     </row>
-    <row r="81" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B81" s="14">
         <v>45017</v>
       </c>
@@ -11907,7 +11972,7 @@
         <v>9.1327999999999996</v>
       </c>
     </row>
-    <row r="82" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B82" s="14">
         <v>45047</v>
       </c>
@@ -11972,7 +12037,7 @@
         <v>7.8669000000000002</v>
       </c>
     </row>
-    <row r="83" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B83" s="14">
         <v>45078</v>
       </c>
@@ -12037,7 +12102,7 @@
         <v>5.4370000000000003</v>
       </c>
     </row>
-    <row r="84" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B84" s="14">
         <v>45108</v>
       </c>
@@ -12102,7 +12167,7 @@
         <v>6.4814999999999996</v>
       </c>
     </row>
-    <row r="85" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B85" s="14">
         <v>45139</v>
       </c>
@@ -12167,7 +12232,7 @@
         <v>12.8392</v>
       </c>
     </row>
-    <row r="86" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B86" s="14">
         <v>45170</v>
       </c>
@@ -12232,75 +12297,137 @@
         <v>13.191599999999999</v>
       </c>
     </row>
-    <row r="87" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="15">
+    <row r="87" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B87" s="14">
         <v>45200</v>
       </c>
-      <c r="C87" s="19">
+      <c r="C87" s="16">
         <v>8.0029000000000003</v>
       </c>
-      <c r="D87" s="20">
+      <c r="D87" s="17">
         <v>8.2349999999999994</v>
       </c>
-      <c r="E87" s="20">
+      <c r="E87" s="17">
         <v>7.9866999999999999</v>
       </c>
-      <c r="F87" s="20">
+      <c r="F87" s="17">
         <v>7.4473000000000003</v>
       </c>
-      <c r="G87" s="20">
+      <c r="G87" s="17">
         <v>7.0147000000000004</v>
       </c>
-      <c r="H87" s="20">
+      <c r="H87" s="17">
         <v>7.3333000000000004</v>
       </c>
-      <c r="I87" s="21">
+      <c r="I87" s="18">
         <v>7.7610999999999999</v>
       </c>
-      <c r="J87" s="20">
+      <c r="J87" s="17">
         <v>6.9745999999999997</v>
       </c>
-      <c r="K87" s="20">
+      <c r="K87" s="17">
         <v>9.9351000000000003</v>
       </c>
-      <c r="L87" s="20">
+      <c r="L87" s="17">
         <v>10.352499999999999</v>
       </c>
-      <c r="M87" s="20">
+      <c r="M87" s="17">
         <v>7.7514000000000003</v>
       </c>
-      <c r="N87" s="20">
+      <c r="N87" s="17">
         <v>10.5718</v>
       </c>
-      <c r="O87" s="20">
+      <c r="O87" s="17">
         <v>5.0633999999999997</v>
       </c>
-      <c r="P87" s="20">
+      <c r="P87" s="17">
         <v>7.1205999999999996</v>
       </c>
-      <c r="Q87" s="20">
+      <c r="Q87" s="17">
         <v>12.3354</v>
       </c>
-      <c r="R87" s="20">
+      <c r="R87" s="17">
         <v>8.8969000000000005</v>
       </c>
-      <c r="S87" s="20">
+      <c r="S87" s="17">
         <v>7.1054000000000004</v>
       </c>
-      <c r="T87" s="20">
+      <c r="T87" s="17">
         <v>8.8308999999999997</v>
       </c>
-      <c r="U87" s="21">
+      <c r="U87" s="18">
         <v>7.6063000000000001</v>
       </c>
-      <c r="V87" s="19">
+      <c r="V87" s="16">
         <v>8.3850999999999996</v>
       </c>
     </row>
-    <row r="88" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B88" s="6"/>
-    </row>
-    <row r="89" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="15">
+        <v>45231</v>
+      </c>
+      <c r="C88" s="19">
+        <v>13.3675</v>
+      </c>
+      <c r="D88" s="20">
+        <v>13.661199999999999</v>
+      </c>
+      <c r="E88" s="20">
+        <v>13.3454</v>
+      </c>
+      <c r="F88" s="20">
+        <v>12.2658</v>
+      </c>
+      <c r="G88" s="20">
+        <v>13.189500000000001</v>
+      </c>
+      <c r="H88" s="20">
+        <v>13.1684</v>
+      </c>
+      <c r="I88" s="21">
+        <v>12.2498</v>
+      </c>
+      <c r="J88" s="20">
+        <v>16.734400000000001</v>
+      </c>
+      <c r="K88" s="20">
+        <v>11.3401</v>
+      </c>
+      <c r="L88" s="20">
+        <v>11.342000000000001</v>
+      </c>
+      <c r="M88" s="20">
+        <v>7.1440999999999999</v>
+      </c>
+      <c r="N88" s="20">
+        <v>12.776300000000001</v>
+      </c>
+      <c r="O88" s="20">
+        <v>15.853400000000001</v>
+      </c>
+      <c r="P88" s="20">
+        <v>10.409599999999999</v>
+      </c>
+      <c r="Q88" s="20">
+        <v>14.9031</v>
+      </c>
+      <c r="R88" s="20">
+        <v>13.5905</v>
+      </c>
+      <c r="S88" s="20">
+        <v>10.886900000000001</v>
+      </c>
+      <c r="T88" s="20">
+        <v>12.102499999999999</v>
+      </c>
+      <c r="U88" s="21">
+        <v>11.4825</v>
+      </c>
+      <c r="V88" s="19">
+        <v>14.082599999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B89" s="6"/>
     </row>
   </sheetData>
@@ -12316,21 +12443,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83293D6D-81C8-49B2-8C10-806B04E884B0}">
-  <dimension ref="B1:I39"/>
+  <dimension ref="B1:K39"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="89" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="116" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="50.6328125" customWidth="1"/>
-    <col min="3" max="8" width="11.6328125" customWidth="1"/>
-    <col min="9" max="9" width="20.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" customWidth="1"/>
+    <col min="3" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="55" t="s">
         <v>13</v>
       </c>
@@ -12342,7 +12467,7 @@
       <c r="H2" s="56"/>
       <c r="I2" s="57"/>
     </row>
-    <row r="3" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="23" t="s">
         <v>14</v>
       </c>
@@ -12358,7 +12483,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="23" t="s">
         <v>17</v>
       </c>
@@ -12374,7 +12499,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="25"/>
       <c r="C5" s="26" t="s">
         <v>41</v>
@@ -12396,33 +12521,33 @@
       </c>
       <c r="I5" s="48"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="28">
-        <v>8.2042999999999999</v>
+        <v>6.1390000000000002</v>
       </c>
       <c r="D6" s="28">
-        <v>6.1390000000000002</v>
+        <v>6.5129999999999999</v>
       </c>
       <c r="E6" s="28">
-        <v>6.5129999999999999</v>
+        <v>12.2477</v>
       </c>
       <c r="F6" s="28">
-        <v>12.2477</v>
+        <v>12.1486</v>
       </c>
       <c r="G6" s="28">
-        <v>12.1486</v>
+        <v>8.0029000000000003</v>
       </c>
       <c r="H6" s="28">
-        <v>8.0029000000000003</v>
+        <v>13.3675</v>
       </c>
       <c r="I6" s="29">
-        <v>142.66149999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>160.92080000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="59" t="s">
         <v>7</v>
       </c>
@@ -12434,163 +12559,166 @@
       <c r="H7" s="60"/>
       <c r="I7" s="61"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="32" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="33">
-        <v>8.4934999999999992</v>
+        <v>5.9984999999999999</v>
       </c>
       <c r="D8" s="33">
-        <v>5.9984999999999999</v>
+        <v>6.2074999999999996</v>
       </c>
       <c r="E8" s="33">
-        <v>6.2074999999999996</v>
+        <v>12.108499999999999</v>
       </c>
       <c r="F8" s="33">
-        <v>12.108499999999999</v>
+        <v>11.458</v>
       </c>
       <c r="G8" s="33">
-        <v>11.458</v>
+        <v>8.2349999999999994</v>
       </c>
       <c r="H8" s="33">
-        <v>8.2349999999999994</v>
+        <v>13.661199999999999</v>
       </c>
       <c r="I8" s="34">
-        <v>142.90379999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+        <v>161.1936</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="32" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="33">
-        <v>8.0142000000000007</v>
+        <v>6.1562000000000001</v>
       </c>
       <c r="D9" s="33">
-        <v>6.1562000000000001</v>
+        <v>6.7702999999999998</v>
       </c>
       <c r="E9" s="33">
-        <v>6.7702999999999998</v>
+        <v>12.2349</v>
       </c>
       <c r="F9" s="33">
-        <v>12.2349</v>
+        <v>12.5983</v>
       </c>
       <c r="G9" s="33">
-        <v>12.5983</v>
+        <v>7.9866999999999999</v>
       </c>
       <c r="H9" s="33">
-        <v>7.9866999999999999</v>
+        <v>13.3454</v>
       </c>
       <c r="I9" s="34">
-        <v>142.83709999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+        <v>161.5283</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="32" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="33">
-        <v>8.3439999999999994</v>
+        <v>6.8429000000000002</v>
       </c>
       <c r="D10" s="33">
-        <v>6.8429000000000002</v>
+        <v>6.4123000000000001</v>
       </c>
       <c r="E10" s="33">
-        <v>6.4123000000000001</v>
+        <v>13.420500000000001</v>
       </c>
       <c r="F10" s="33">
-        <v>13.420500000000001</v>
+        <v>12.7674</v>
       </c>
       <c r="G10" s="33">
-        <v>12.7674</v>
+        <v>7.4473000000000003</v>
       </c>
       <c r="H10" s="33">
-        <v>7.4473000000000003</v>
+        <v>12.2658</v>
       </c>
       <c r="I10" s="34">
-        <v>144.21610000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+        <v>161.14859999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="32" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="33">
-        <v>7.7</v>
+        <v>7.0030999999999999</v>
       </c>
       <c r="D11" s="33">
-        <v>7.0030999999999999</v>
+        <v>6.3460000000000001</v>
       </c>
       <c r="E11" s="33">
-        <v>6.3460000000000001</v>
+        <v>13.8238</v>
       </c>
       <c r="F11" s="33">
-        <v>13.8238</v>
+        <v>12.4107</v>
       </c>
       <c r="G11" s="33">
-        <v>12.4107</v>
+        <v>7.0147000000000004</v>
       </c>
       <c r="H11" s="33">
-        <v>7.0147000000000004</v>
+        <v>13.189500000000001</v>
       </c>
       <c r="I11" s="34">
-        <v>141.64160000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+        <v>160.81870000000001</v>
+      </c>
+      <c r="K11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="33">
-        <v>7.8460000000000001</v>
+        <v>5.3849</v>
       </c>
       <c r="D12" s="33">
-        <v>5.3849</v>
+        <v>6.4259000000000004</v>
       </c>
       <c r="E12" s="33">
-        <v>6.4259000000000004</v>
+        <v>12.3004</v>
       </c>
       <c r="F12" s="33">
-        <v>12.3004</v>
+        <v>13.1142</v>
       </c>
       <c r="G12" s="33">
-        <v>13.1142</v>
+        <v>7.3333000000000004</v>
       </c>
       <c r="H12" s="33">
-        <v>7.3333000000000004</v>
+        <v>13.1684</v>
       </c>
       <c r="I12" s="34">
-        <v>138.53120000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+        <v>156.33779999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="33">
-        <v>7.5743999999999998</v>
+        <v>6.9119000000000002</v>
       </c>
       <c r="D13" s="33">
-        <v>6.9119000000000002</v>
+        <v>7.7095000000000002</v>
       </c>
       <c r="E13" s="33">
-        <v>7.7095000000000002</v>
+        <v>11.8202</v>
       </c>
       <c r="F13" s="33">
-        <v>11.8202</v>
+        <v>13.477600000000001</v>
       </c>
       <c r="G13" s="33">
-        <v>13.477600000000001</v>
+        <v>7.7610999999999999</v>
       </c>
       <c r="H13" s="33">
-        <v>7.7610999999999999</v>
+        <v>12.2498</v>
       </c>
       <c r="I13" s="34">
-        <v>142.47450000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+        <v>158.76769999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="32"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
@@ -12600,7 +12728,7 @@
       <c r="H14" s="33"/>
       <c r="I14" s="34"/>
     </row>
-    <row r="15" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="62" t="s">
         <v>9</v>
       </c>
@@ -12612,319 +12740,319 @@
       <c r="H15" s="63"/>
       <c r="I15" s="64"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="32" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="33">
-        <v>6.6792999999999996</v>
+        <v>4.7302999999999997</v>
       </c>
       <c r="D16" s="33">
-        <v>4.7302999999999997</v>
+        <v>6.3114999999999997</v>
       </c>
       <c r="E16" s="33">
-        <v>6.3114999999999997</v>
+        <v>15.3765</v>
       </c>
       <c r="F16" s="33">
-        <v>15.3765</v>
+        <v>13.5906</v>
       </c>
       <c r="G16" s="33">
-        <v>13.5906</v>
+        <v>6.9745999999999997</v>
       </c>
       <c r="H16" s="33">
-        <v>6.9745999999999997</v>
+        <v>16.734400000000001</v>
       </c>
       <c r="I16" s="34">
-        <v>153.75540000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+        <v>183.5566</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="32" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="33">
-        <v>9.1022999999999996</v>
+        <v>4.4295</v>
       </c>
       <c r="D17" s="33">
-        <v>4.4295</v>
+        <v>9.5710999999999995</v>
       </c>
       <c r="E17" s="33">
-        <v>9.5710999999999995</v>
+        <v>8.7627000000000006</v>
       </c>
       <c r="F17" s="33">
-        <v>8.7627000000000006</v>
+        <v>9.4953000000000003</v>
       </c>
       <c r="G17" s="33">
-        <v>9.4953000000000003</v>
+        <v>9.9351000000000003</v>
       </c>
       <c r="H17" s="33">
-        <v>9.9351000000000003</v>
+        <v>11.3401</v>
       </c>
       <c r="I17" s="34">
-        <v>137.43170000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+        <v>149.5247</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="32" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="33">
-        <v>8.5664999999999996</v>
+        <v>4.4406999999999996</v>
       </c>
       <c r="D18" s="33">
-        <v>4.4406999999999996</v>
+        <v>3.7926000000000002</v>
       </c>
       <c r="E18" s="33">
-        <v>3.7926000000000002</v>
+        <v>8.8907000000000007</v>
       </c>
       <c r="F18" s="33">
-        <v>8.8907000000000007</v>
+        <v>12.605700000000001</v>
       </c>
       <c r="G18" s="33">
-        <v>12.605700000000001</v>
+        <v>10.352499999999999</v>
       </c>
       <c r="H18" s="33">
-        <v>10.352499999999999</v>
+        <v>11.342000000000001</v>
       </c>
       <c r="I18" s="34">
-        <v>127.0616</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+        <v>139.06309999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="33">
-        <v>11.8596</v>
+        <v>8.1280000000000001</v>
       </c>
       <c r="D19" s="33">
-        <v>8.1280000000000001</v>
+        <v>4.0037000000000003</v>
       </c>
       <c r="E19" s="33">
-        <v>4.0037000000000003</v>
+        <v>9.0033999999999992</v>
       </c>
       <c r="F19" s="33">
-        <v>9.0033999999999992</v>
+        <v>8.5284999999999993</v>
       </c>
       <c r="G19" s="33">
-        <v>8.5284999999999993</v>
+        <v>7.7514000000000003</v>
       </c>
       <c r="H19" s="33">
-        <v>7.7514000000000003</v>
+        <v>7.1440999999999999</v>
       </c>
       <c r="I19" s="34">
-        <v>131.33189999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+        <v>127.9585</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="32" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="33">
-        <v>9.0031999999999996</v>
+        <v>7.5505000000000004</v>
       </c>
       <c r="D20" s="33">
-        <v>7.5505000000000004</v>
+        <v>5.4874999999999998</v>
       </c>
       <c r="E20" s="33">
-        <v>5.4874999999999998</v>
+        <v>13.803900000000001</v>
       </c>
       <c r="F20" s="33">
-        <v>13.803900000000001</v>
+        <v>11.9559</v>
       </c>
       <c r="G20" s="33">
-        <v>11.9559</v>
+        <v>10.5718</v>
       </c>
       <c r="H20" s="33">
-        <v>10.5718</v>
+        <v>12.776300000000001</v>
       </c>
       <c r="I20" s="34">
-        <v>152.12559999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+        <v>168.92570000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="32" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="33">
-        <v>9.0531000000000006</v>
+        <v>8.6085999999999991</v>
       </c>
       <c r="D21" s="33">
-        <v>8.6085999999999991</v>
+        <v>9.0442</v>
       </c>
       <c r="E21" s="33">
-        <v>9.0442</v>
+        <v>15.2255</v>
       </c>
       <c r="F21" s="33">
-        <v>15.2255</v>
+        <v>9.5385000000000009</v>
       </c>
       <c r="G21" s="33">
-        <v>9.5385000000000009</v>
+        <v>5.0633999999999997</v>
       </c>
       <c r="H21" s="33">
-        <v>5.0633999999999997</v>
+        <v>15.853400000000001</v>
       </c>
       <c r="I21" s="34">
-        <v>134.6619</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+        <v>161.21449999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="32" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="33">
-        <v>8.1126000000000005</v>
+        <v>6.4973000000000001</v>
       </c>
       <c r="D22" s="33">
-        <v>6.4973000000000001</v>
+        <v>5.3342999999999998</v>
       </c>
       <c r="E22" s="33">
-        <v>5.3342999999999998</v>
+        <v>10.4903</v>
       </c>
       <c r="F22" s="33">
-        <v>10.4903</v>
+        <v>10.8613</v>
       </c>
       <c r="G22" s="33">
-        <v>10.8613</v>
+        <v>7.1205999999999996</v>
       </c>
       <c r="H22" s="33">
-        <v>7.1205999999999996</v>
+        <v>10.409599999999999</v>
       </c>
       <c r="I22" s="34">
-        <v>122.1752</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+        <v>131.17619999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="32" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="33">
-        <v>7.2121000000000004</v>
+        <v>10.4236</v>
       </c>
       <c r="D23" s="33">
-        <v>10.4236</v>
+        <v>12.6297</v>
       </c>
       <c r="E23" s="33">
-        <v>12.6297</v>
+        <v>5.0385999999999997</v>
       </c>
       <c r="F23" s="33">
-        <v>5.0385999999999997</v>
+        <v>9.7271999999999998</v>
       </c>
       <c r="G23" s="33">
-        <v>9.7271999999999998</v>
+        <v>12.3354</v>
       </c>
       <c r="H23" s="33">
-        <v>12.3354</v>
+        <v>14.9031</v>
       </c>
       <c r="I23" s="34">
-        <v>136.55500000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+        <v>156.2413</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="32" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="33">
-        <v>8.3742000000000001</v>
+        <v>6.4077000000000002</v>
       </c>
       <c r="D24" s="33">
-        <v>6.4077000000000002</v>
+        <v>10.2362</v>
       </c>
       <c r="E24" s="33">
-        <v>10.2362</v>
+        <v>11.049799999999999</v>
       </c>
       <c r="F24" s="33">
-        <v>11.049799999999999</v>
+        <v>15.172599999999999</v>
       </c>
       <c r="G24" s="33">
-        <v>15.172599999999999</v>
+        <v>8.8969000000000005</v>
       </c>
       <c r="H24" s="33">
-        <v>8.8969000000000005</v>
+        <v>13.5905</v>
       </c>
       <c r="I24" s="34">
-        <v>154.8458</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+        <v>176.91149999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="32" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="33">
-        <v>5.7813999999999997</v>
+        <v>9.1888000000000005</v>
       </c>
       <c r="D25" s="33">
-        <v>9.1888000000000005</v>
+        <v>6.1224999999999996</v>
       </c>
       <c r="E25" s="33">
-        <v>6.1224999999999996</v>
+        <v>8.5923999999999996</v>
       </c>
       <c r="F25" s="33">
-        <v>8.5923999999999996</v>
+        <v>10.257899999999999</v>
       </c>
       <c r="G25" s="33">
-        <v>10.257899999999999</v>
+        <v>7.1054000000000004</v>
       </c>
       <c r="H25" s="33">
-        <v>7.1054000000000004</v>
+        <v>10.886900000000001</v>
       </c>
       <c r="I25" s="34">
-        <v>126.5145</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+        <v>136.44030000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="32" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="33">
-        <v>9.3529</v>
+        <v>6.3249000000000004</v>
       </c>
       <c r="D26" s="33">
-        <v>6.3249000000000004</v>
+        <v>7.3925999999999998</v>
       </c>
       <c r="E26" s="33">
-        <v>7.3925999999999998</v>
+        <v>12.476100000000001</v>
       </c>
       <c r="F26" s="33">
-        <v>12.476100000000001</v>
+        <v>13.3192</v>
       </c>
       <c r="G26" s="33">
-        <v>13.3192</v>
+        <v>8.8308999999999997</v>
       </c>
       <c r="H26" s="33">
-        <v>8.8308999999999997</v>
+        <v>12.102499999999999</v>
       </c>
       <c r="I26" s="34">
-        <v>164.91</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+        <v>181.25280000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="32" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="33">
-        <v>7.1810999999999998</v>
+        <v>6.55</v>
       </c>
       <c r="D27" s="33">
-        <v>6.55</v>
+        <v>6.3304</v>
       </c>
       <c r="E27" s="33">
-        <v>6.3304</v>
+        <v>9.2332999999999998</v>
       </c>
       <c r="F27" s="33">
-        <v>9.2332999999999998</v>
+        <v>11.5976</v>
       </c>
       <c r="G27" s="33">
-        <v>11.5976</v>
+        <v>7.6063000000000001</v>
       </c>
       <c r="H27" s="33">
-        <v>7.6063000000000001</v>
+        <v>11.4826</v>
       </c>
       <c r="I27" s="34">
-        <v>130.19229999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+        <v>142.5326</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="32"/>
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
@@ -12934,7 +13062,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="34"/>
     </row>
-    <row r="29" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="62" t="s">
         <v>32</v>
       </c>
@@ -12946,189 +13074,189 @@
       <c r="H29" s="63"/>
       <c r="I29" s="64"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="32" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="33">
-        <v>7.8669000000000002</v>
+        <v>5.4370000000000003</v>
       </c>
       <c r="D30" s="33">
-        <v>5.4370000000000003</v>
+        <v>6.4814999999999996</v>
       </c>
       <c r="E30" s="33">
-        <v>6.4814999999999996</v>
+        <v>12.8392</v>
       </c>
       <c r="F30" s="33">
-        <v>12.8392</v>
+        <v>13.191599999999999</v>
       </c>
       <c r="G30" s="33">
-        <v>13.191599999999999</v>
+        <v>8.3850999999999996</v>
       </c>
       <c r="H30" s="33">
-        <v>8.3850999999999996</v>
+        <v>14.082599999999999</v>
       </c>
       <c r="I30" s="34">
-        <v>148.76249999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+        <v>170.0685</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="32" t="s">
         <v>19</v>
       </c>
       <c r="C31" s="33">
-        <v>8.2015999999999991</v>
+        <v>5.1600999999999999</v>
       </c>
       <c r="D31" s="33">
-        <v>5.1600999999999999</v>
+        <v>6.4325000000000001</v>
       </c>
       <c r="E31" s="33">
-        <v>6.4325000000000001</v>
+        <v>12.364000000000001</v>
       </c>
       <c r="F31" s="33">
-        <v>12.364000000000001</v>
+        <v>12.6919</v>
       </c>
       <c r="G31" s="33">
-        <v>12.6919</v>
+        <v>8.8498000000000001</v>
       </c>
       <c r="H31" s="33">
-        <v>8.8498000000000001</v>
+        <v>14.573700000000001</v>
       </c>
       <c r="I31" s="34">
-        <v>149.72819999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+        <v>172.01499999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="32" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="33">
-        <v>7.4698000000000002</v>
+        <v>5.6477000000000004</v>
       </c>
       <c r="D32" s="33">
-        <v>5.6477000000000004</v>
+        <v>6.6355000000000004</v>
       </c>
       <c r="E32" s="33">
-        <v>6.6355000000000004</v>
+        <v>12.870200000000001</v>
       </c>
       <c r="F32" s="33">
-        <v>12.870200000000001</v>
+        <v>13.5204</v>
       </c>
       <c r="G32" s="33">
-        <v>13.5204</v>
+        <v>8.1297999999999995</v>
       </c>
       <c r="H32" s="33">
-        <v>8.1297999999999995</v>
+        <v>14.0298</v>
       </c>
       <c r="I32" s="34">
-        <v>148.0565</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+        <v>169.28469999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="33">
-        <v>8.3523999999999994</v>
+        <v>5.6238000000000001</v>
       </c>
       <c r="D33" s="33">
-        <v>5.6238000000000001</v>
+        <v>6.117</v>
       </c>
       <c r="E33" s="33">
-        <v>6.117</v>
+        <v>14.5464</v>
       </c>
       <c r="F33" s="33">
-        <v>14.5464</v>
+        <v>13.0677</v>
       </c>
       <c r="G33" s="33">
-        <v>13.0677</v>
+        <v>7.9637000000000002</v>
       </c>
       <c r="H33" s="33">
-        <v>7.9637000000000002</v>
+        <v>12.5905</v>
       </c>
       <c r="I33" s="34">
-        <v>149.43379999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+        <v>167.73830000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="32" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="33">
-        <v>7.3289999999999997</v>
+        <v>6.1753999999999998</v>
       </c>
       <c r="D34" s="33">
-        <v>6.1753999999999998</v>
+        <v>6.0045000000000002</v>
       </c>
       <c r="E34" s="33">
-        <v>6.0045000000000002</v>
+        <v>14.8338</v>
       </c>
       <c r="F34" s="33">
-        <v>14.8338</v>
+        <v>13.2484</v>
       </c>
       <c r="G34" s="33">
-        <v>13.2484</v>
+        <v>7.1936</v>
       </c>
       <c r="H34" s="33">
-        <v>7.1936</v>
+        <v>13.8574</v>
       </c>
       <c r="I34" s="34">
-        <v>147.18709999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+        <v>168.9014</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="33">
-        <v>7.4664000000000001</v>
+        <v>4.8921999999999999</v>
       </c>
       <c r="D35" s="33">
-        <v>4.8921999999999999</v>
+        <v>6.1228999999999996</v>
       </c>
       <c r="E35" s="33">
-        <v>6.1228999999999996</v>
+        <v>13.1973</v>
       </c>
       <c r="F35" s="33">
-        <v>13.1973</v>
+        <v>13.9444</v>
       </c>
       <c r="G35" s="33">
-        <v>13.9444</v>
+        <v>8.1179000000000006</v>
       </c>
       <c r="H35" s="33">
-        <v>8.1179000000000006</v>
+        <v>13.4346</v>
       </c>
       <c r="I35" s="34">
-        <v>145.3706</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>164.60310000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="36">
-        <v>7.7986000000000004</v>
+        <v>6.25</v>
       </c>
       <c r="D36" s="36">
-        <v>6.25</v>
+        <v>7.2976000000000001</v>
       </c>
       <c r="E36" s="36">
-        <v>7.2976000000000001</v>
+        <v>12.2659</v>
       </c>
       <c r="F36" s="36">
-        <v>12.2659</v>
+        <v>15.0021</v>
       </c>
       <c r="G36" s="36">
-        <v>15.0021</v>
+        <v>7.9149000000000003</v>
       </c>
       <c r="H36" s="36">
-        <v>7.9149000000000003</v>
+        <v>12.872199999999999</v>
       </c>
       <c r="I36" s="37">
-        <v>149.0575</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>167.84639999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="54" t="s">
         <v>34</v>
       </c>
@@ -13140,7 +13268,7 @@
       <c r="H37" s="54"/>
       <c r="I37" s="54"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -13150,7 +13278,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -13179,18 +13307,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C899619B-933E-4978-ACA9-2375D7439DCD}">
   <dimension ref="B1:I33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="54.36328125" customWidth="1"/>
-    <col min="3" max="9" width="11.6328125" customWidth="1"/>
+    <col min="2" max="2" width="54.42578125" customWidth="1"/>
+    <col min="3" max="9" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="55" t="s">
         <v>35</v>
       </c>
@@ -13202,7 +13328,7 @@
       <c r="H2" s="66"/>
       <c r="I2" s="67"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="38"/>
       <c r="C3" s="39" t="s">
         <v>19</v>
@@ -13226,7 +13352,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="30" t="s">
         <v>36</v>
       </c>
@@ -13238,345 +13364,345 @@
       <c r="H4" s="47"/>
       <c r="I4" s="31"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="41" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="42">
-        <v>8.2349999999999994</v>
+        <v>13.661199999999999</v>
       </c>
       <c r="D5" s="42">
-        <v>7.9866999999999999</v>
+        <v>13.3454</v>
       </c>
       <c r="E5" s="42">
-        <v>7.4473000000000003</v>
+        <v>12.2658</v>
       </c>
       <c r="F5" s="42">
-        <v>7.0147000000000004</v>
+        <v>13.189500000000001</v>
       </c>
       <c r="G5" s="42">
-        <v>7.3333000000000004</v>
+        <v>13.1684</v>
       </c>
       <c r="H5" s="42">
-        <v>7.7610999999999999</v>
+        <v>12.2498</v>
       </c>
       <c r="I5" s="43">
-        <v>8.0029000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+        <v>13.3675</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="32" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="33">
-        <v>2.0449999999999999</v>
+        <v>4.7915000000000001</v>
       </c>
       <c r="D6" s="33">
-        <v>2.0920999999999998</v>
+        <v>5.1265999999999998</v>
       </c>
       <c r="E6" s="33">
-        <v>2.4740000000000002</v>
+        <v>5.3235000000000001</v>
       </c>
       <c r="F6" s="33">
-        <v>2.1219999999999999</v>
+        <v>5.9493</v>
       </c>
       <c r="G6" s="33">
-        <v>2.1271</v>
+        <v>5.0777000000000001</v>
       </c>
       <c r="H6" s="33">
-        <v>1.9235</v>
+        <v>4.1506999999999996</v>
       </c>
       <c r="I6" s="34">
-        <v>2.0928</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+        <v>4.9804000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="32" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="33">
-        <v>0.26019999999999999</v>
+        <v>0.29659999999999997</v>
       </c>
       <c r="D7" s="33">
-        <v>0.2928</v>
+        <v>0.34710000000000002</v>
       </c>
       <c r="E7" s="33">
-        <v>0.21920000000000001</v>
+        <v>0.26390000000000002</v>
       </c>
       <c r="F7" s="33">
-        <v>0.28620000000000001</v>
+        <v>0.34470000000000001</v>
       </c>
       <c r="G7" s="33">
-        <v>0.26690000000000003</v>
+        <v>0.31369999999999998</v>
       </c>
       <c r="H7" s="33">
-        <v>0.26179999999999998</v>
+        <v>0.2828</v>
       </c>
       <c r="I7" s="34">
-        <v>0.27010000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+        <v>0.31409999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="32" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="33">
-        <v>1.0596000000000001</v>
+        <v>1.1232</v>
       </c>
       <c r="D8" s="33">
-        <v>1.1919</v>
+        <v>1.3633999999999999</v>
       </c>
       <c r="E8" s="33">
-        <v>1.1442000000000001</v>
+        <v>1.3303</v>
       </c>
       <c r="F8" s="33">
-        <v>0.86229999999999996</v>
+        <v>1.4377</v>
       </c>
       <c r="G8" s="33">
-        <v>1.0012000000000001</v>
+        <v>1.2097</v>
       </c>
       <c r="H8" s="33">
-        <v>1.349</v>
+        <v>1.4065000000000001</v>
       </c>
       <c r="I8" s="34">
-        <v>1.1120000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+        <v>1.2512000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="33">
-        <v>0.67879999999999996</v>
+        <v>0.43219999999999997</v>
       </c>
       <c r="D9" s="33">
-        <v>0.42659999999999998</v>
+        <v>0.43319999999999997</v>
       </c>
       <c r="E9" s="33">
-        <v>0.22109999999999999</v>
+        <v>0.41110000000000002</v>
       </c>
       <c r="F9" s="33">
-        <v>0.4279</v>
+        <v>0.45679999999999998</v>
       </c>
       <c r="G9" s="33">
-        <v>0.43830000000000002</v>
+        <v>0.94359999999999999</v>
       </c>
       <c r="H9" s="33">
-        <v>0.50229999999999997</v>
+        <v>0.6119</v>
       </c>
       <c r="I9" s="34">
-        <v>0.5292</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+        <v>0.46689999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="32" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="33">
-        <v>0.72609999999999997</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="D10" s="33">
-        <v>0.63149999999999995</v>
+        <v>0.78959999999999997</v>
       </c>
       <c r="E10" s="33">
-        <v>0.61519999999999997</v>
+        <v>0.81479999999999997</v>
       </c>
       <c r="F10" s="33">
-        <v>0.7581</v>
+        <v>1.0014000000000001</v>
       </c>
       <c r="G10" s="33">
-        <v>0.65080000000000005</v>
+        <v>0.79069999999999996</v>
       </c>
       <c r="H10" s="33">
-        <v>0.64249999999999996</v>
+        <v>1.0024</v>
       </c>
       <c r="I10" s="34">
-        <v>0.67989999999999995</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+        <v>0.8417</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="32" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="33">
-        <v>0.47749999999999998</v>
+        <v>1.5522</v>
       </c>
       <c r="D11" s="33">
-        <v>0.49830000000000002</v>
+        <v>1.2808999999999999</v>
       </c>
       <c r="E11" s="33">
-        <v>0.2873</v>
+        <v>1.0244</v>
       </c>
       <c r="F11" s="33">
-        <v>0.2301</v>
+        <v>0.97750000000000004</v>
       </c>
       <c r="G11" s="33">
-        <v>0.37209999999999999</v>
+        <v>1.3083</v>
       </c>
       <c r="H11" s="33">
-        <v>0.25059999999999999</v>
+        <v>0.74280000000000002</v>
       </c>
       <c r="I11" s="34">
-        <v>0.4446</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+        <v>1.3475999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="32" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="33">
-        <v>0.60399999999999998</v>
+        <v>0.9718</v>
       </c>
       <c r="D12" s="33">
-        <v>0.91769999999999996</v>
+        <v>1.1979</v>
       </c>
       <c r="E12" s="33">
-        <v>0.51859999999999995</v>
+        <v>0.81059999999999999</v>
       </c>
       <c r="F12" s="33">
-        <v>0.68989999999999996</v>
+        <v>1.0021</v>
       </c>
       <c r="G12" s="33">
-        <v>0.62160000000000004</v>
+        <v>1.1040000000000001</v>
       </c>
       <c r="H12" s="33">
-        <v>1.2936000000000001</v>
+        <v>1.7137</v>
       </c>
       <c r="I12" s="34">
-        <v>0.74170000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+        <v>1.0801000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="32" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="33">
-        <v>0.26390000000000002</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="D13" s="33">
-        <v>0.2349</v>
+        <v>0.31130000000000002</v>
       </c>
       <c r="E13" s="33">
-        <v>0.23069999999999999</v>
+        <v>0.2636</v>
       </c>
       <c r="F13" s="33">
-        <v>0.23200000000000001</v>
+        <v>0.32169999999999999</v>
       </c>
       <c r="G13" s="33">
-        <v>0.18360000000000001</v>
+        <v>0.224</v>
       </c>
       <c r="H13" s="33">
-        <v>0.22</v>
+        <v>0.27150000000000002</v>
       </c>
       <c r="I13" s="34">
-        <v>0.24410000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+        <v>0.30690000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="32" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="33">
-        <v>0.68330000000000002</v>
+        <v>1.0426</v>
       </c>
       <c r="D14" s="33">
-        <v>0.55379999999999996</v>
+        <v>0.97840000000000005</v>
       </c>
       <c r="E14" s="33">
-        <v>0.53669999999999995</v>
+        <v>0.65849999999999997</v>
       </c>
       <c r="F14" s="33">
-        <v>0.67210000000000003</v>
+        <v>0.72160000000000002</v>
       </c>
       <c r="G14" s="33">
-        <v>0.62990000000000002</v>
+        <v>0.76049999999999995</v>
       </c>
       <c r="H14" s="33">
-        <v>0.59640000000000004</v>
+        <v>1.0566</v>
       </c>
       <c r="I14" s="34">
-        <v>0.62170000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+        <v>0.96579999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="32" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="33">
-        <v>0.15079999999999999</v>
+        <v>0.34670000000000001</v>
       </c>
       <c r="D15" s="33">
-        <v>0.1069</v>
+        <v>9.5799999999999996E-2</v>
       </c>
       <c r="E15" s="33">
-        <v>0.1153</v>
+        <v>0.1067</v>
       </c>
       <c r="F15" s="33">
-        <v>4.9200000000000001E-2</v>
+        <v>3.95E-2</v>
       </c>
       <c r="G15" s="33">
-        <v>8.7599999999999997E-2</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="H15" s="33">
-        <v>7.2400000000000006E-2</v>
+        <v>7.9299999999999995E-2</v>
       </c>
       <c r="I15" s="34">
-        <v>0.12189999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+        <v>0.2109</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="32" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="33">
-        <v>1.0912999999999999</v>
+        <v>1.5759000000000001</v>
       </c>
       <c r="D16" s="33">
-        <v>0.78380000000000005</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E16" s="33">
-        <v>0.82509999999999994</v>
+        <v>0.92659999999999998</v>
       </c>
       <c r="F16" s="33">
-        <v>0.50249999999999995</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="G16" s="33">
-        <v>0.72899999999999998</v>
+        <v>0.90169999999999995</v>
       </c>
       <c r="H16" s="33">
-        <v>0.45610000000000001</v>
+        <v>0.63270000000000004</v>
       </c>
       <c r="I16" s="34">
-        <v>0.89349999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+        <v>1.2470000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="32" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="33">
-        <v>0.19450000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="D17" s="33">
-        <v>0.25629999999999997</v>
+        <v>0.32</v>
       </c>
       <c r="E17" s="33">
-        <v>0.25979999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="F17" s="33">
-        <v>0.18240000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="G17" s="33">
-        <v>0.22509999999999999</v>
+        <v>0.34</v>
       </c>
       <c r="H17" s="33">
-        <v>0.19270000000000001</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="I17" s="34">
-        <v>0.22109999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+        <v>0.34379999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="44"/>
       <c r="C18" s="45"/>
       <c r="D18" s="45"/>
@@ -13586,7 +13712,7 @@
       <c r="H18" s="45"/>
       <c r="I18" s="46"/>
     </row>
-    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="62" t="s">
         <v>36</v>
       </c>
@@ -13598,345 +13724,345 @@
       <c r="H19" s="63"/>
       <c r="I19" s="64"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="41" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="42">
-        <v>142.90379999999999</v>
+        <v>161.1936</v>
       </c>
       <c r="D20" s="42">
-        <v>142.83709999999999</v>
+        <v>161.5283</v>
       </c>
       <c r="E20" s="42">
-        <v>144.21610000000001</v>
+        <v>161.14859999999999</v>
       </c>
       <c r="F20" s="42">
-        <v>141.64160000000001</v>
+        <v>160.81870000000001</v>
       </c>
       <c r="G20" s="42">
-        <v>138.53120000000001</v>
+        <v>156.33779999999999</v>
       </c>
       <c r="H20" s="42">
-        <v>142.47450000000001</v>
+        <v>158.76769999999999</v>
       </c>
       <c r="I20" s="43">
-        <v>142.66149999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+        <v>160.92080000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="32" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="33">
-        <v>38.765599999999999</v>
+        <v>46.391500000000001</v>
       </c>
       <c r="D21" s="33">
-        <v>46.756100000000004</v>
+        <v>54.683300000000003</v>
       </c>
       <c r="E21" s="33">
-        <v>56.7425</v>
+        <v>64.612499999999997</v>
       </c>
       <c r="F21" s="33">
-        <v>56.558599999999998</v>
+        <v>65.993700000000004</v>
       </c>
       <c r="G21" s="33">
-        <v>46.6633</v>
+        <v>54.371699999999997</v>
       </c>
       <c r="H21" s="33">
-        <v>43.375599999999999</v>
+        <v>49.580800000000004</v>
       </c>
       <c r="I21" s="34">
-        <v>44.156599999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+        <v>51.923299999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="32" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="33">
-        <v>3.5640000000000001</v>
+        <v>3.9413</v>
       </c>
       <c r="D22" s="33">
-        <v>4.2968999999999999</v>
+        <v>4.7370999999999999</v>
       </c>
       <c r="E22" s="33">
-        <v>3.5291000000000001</v>
+        <v>3.8816999999999999</v>
       </c>
       <c r="F22" s="33">
-        <v>4.4985999999999997</v>
+        <v>4.9527999999999999</v>
       </c>
       <c r="G22" s="33">
-        <v>3.8302</v>
+        <v>4.2149999999999999</v>
       </c>
       <c r="H22" s="33">
-        <v>3.7974000000000001</v>
+        <v>4.1224999999999996</v>
       </c>
       <c r="I22" s="34">
-        <v>3.8788</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+        <v>4.2774000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="32" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="33">
-        <v>14.441000000000001</v>
+        <v>15.4686</v>
       </c>
       <c r="D23" s="33">
-        <v>15.7278</v>
+        <v>17.440300000000001</v>
       </c>
       <c r="E23" s="33">
-        <v>17.248100000000001</v>
+        <v>18.881599999999999</v>
       </c>
       <c r="F23" s="33">
-        <v>14.5661</v>
+        <v>16.6462</v>
       </c>
       <c r="G23" s="33">
-        <v>14.4034</v>
+        <v>15.8558</v>
       </c>
       <c r="H23" s="33">
-        <v>18.9391</v>
+        <v>20.607900000000001</v>
       </c>
       <c r="I23" s="34">
-        <v>15.283300000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+        <v>16.685600000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="33">
-        <v>10.7376</v>
+        <v>10.436400000000001</v>
       </c>
       <c r="D24" s="33">
-        <v>7.3769</v>
+        <v>7.5918000000000001</v>
       </c>
       <c r="E24" s="33">
-        <v>7.4461000000000004</v>
+        <v>7.7323000000000004</v>
       </c>
       <c r="F24" s="33">
-        <v>9.1617999999999995</v>
+        <v>9.3330000000000002</v>
       </c>
       <c r="G24" s="33">
-        <v>8.1301000000000005</v>
+        <v>9.5955999999999992</v>
       </c>
       <c r="H24" s="33">
-        <v>10.4437</v>
+        <v>10.890499999999999</v>
       </c>
       <c r="I24" s="34">
-        <v>9.1425999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+        <v>9.2051999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="32" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="33">
-        <v>9.9125999999999994</v>
+        <v>10.9964</v>
       </c>
       <c r="D25" s="33">
-        <v>9.2284000000000006</v>
+        <v>10.291</v>
       </c>
       <c r="E25" s="33">
-        <v>9.0158000000000005</v>
+        <v>10.2644</v>
       </c>
       <c r="F25" s="33">
-        <v>12.134399999999999</v>
+        <v>13.5275</v>
       </c>
       <c r="G25" s="33">
-        <v>8.8918999999999997</v>
+        <v>9.9656000000000002</v>
       </c>
       <c r="H25" s="33">
-        <v>10.3919</v>
+        <v>11.8878</v>
       </c>
       <c r="I25" s="34">
-        <v>9.6861999999999995</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+        <v>10.8064</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="32" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="33">
-        <v>11.9529</v>
+        <v>14.663399999999999</v>
       </c>
       <c r="D26" s="33">
-        <v>12.6328</v>
+        <v>14.595700000000001</v>
       </c>
       <c r="E26" s="33">
-        <v>9.8079999999999998</v>
+        <v>11.3863</v>
       </c>
       <c r="F26" s="33">
-        <v>8.0488999999999997</v>
+        <v>9.6630000000000003</v>
       </c>
       <c r="G26" s="33">
-        <v>12.081200000000001</v>
+        <v>14.055199999999999</v>
       </c>
       <c r="H26" s="33">
-        <v>7.4710999999999999</v>
+        <v>8.6067999999999998</v>
       </c>
       <c r="I26" s="34">
-        <v>11.663600000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+        <v>13.881</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="32" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="33">
-        <v>13.0166</v>
+        <v>13.8725</v>
       </c>
       <c r="D27" s="33">
-        <v>14.654500000000001</v>
+        <v>16.152999999999999</v>
       </c>
       <c r="E27" s="33">
-        <v>9.8767999999999994</v>
+        <v>10.9306</v>
       </c>
       <c r="F27" s="33">
-        <v>12.569000000000001</v>
+        <v>13.8628</v>
       </c>
       <c r="G27" s="33">
-        <v>15.5024</v>
+        <v>16.5167</v>
       </c>
       <c r="H27" s="33">
-        <v>20.530899999999999</v>
+        <v>22.613199999999999</v>
       </c>
       <c r="I27" s="34">
-        <v>13.8126</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+        <v>14.985799999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="32" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="33">
-        <v>2.8936000000000002</v>
+        <v>3.3786999999999998</v>
       </c>
       <c r="D28" s="33">
-        <v>2.9392999999999998</v>
+        <v>3.3883999999999999</v>
       </c>
       <c r="E28" s="33">
-        <v>2.7587999999999999</v>
+        <v>3.2071000000000001</v>
       </c>
       <c r="F28" s="33">
-        <v>2.6661000000000001</v>
+        <v>3.1657000000000002</v>
       </c>
       <c r="G28" s="33">
-        <v>2.2101999999999999</v>
+        <v>2.4878</v>
       </c>
       <c r="H28" s="33">
-        <v>2.6655000000000002</v>
+        <v>3.0264000000000002</v>
       </c>
       <c r="I28" s="34">
-        <v>2.8437999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+        <v>3.2984</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="32" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="33">
-        <v>11.3087</v>
+        <v>12.828099999999999</v>
       </c>
       <c r="D29" s="33">
-        <v>10.0952</v>
+        <v>11.654400000000001</v>
       </c>
       <c r="E29" s="33">
-        <v>8.0915999999999997</v>
+        <v>8.8964999999999996</v>
       </c>
       <c r="F29" s="33">
-        <v>8.5355000000000008</v>
+        <v>9.5078999999999994</v>
       </c>
       <c r="G29" s="33">
-        <v>9.4300999999999995</v>
+        <v>10.2849</v>
       </c>
       <c r="H29" s="33">
-        <v>11.797000000000001</v>
+        <v>13.1631</v>
       </c>
       <c r="I29" s="34">
-        <v>10.4724</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+        <v>11.8901</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="32" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="33">
-        <v>3.6360999999999999</v>
+        <v>3.9887999999999999</v>
       </c>
       <c r="D30" s="33">
-        <v>1.4540999999999999</v>
+        <v>1.4936</v>
       </c>
       <c r="E30" s="33">
-        <v>1.9738</v>
+        <v>2.0236000000000001</v>
       </c>
       <c r="F30" s="33">
-        <v>1.042</v>
+        <v>1.0189999999999999</v>
       </c>
       <c r="G30" s="33">
-        <v>1.7166999999999999</v>
+        <v>2.0175000000000001</v>
       </c>
       <c r="H30" s="33">
-        <v>1.5025999999999999</v>
+        <v>1.4824999999999999</v>
       </c>
       <c r="I30" s="34">
-        <v>2.4618000000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+        <v>2.6499000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="32" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="33">
-        <v>18.5382</v>
+        <v>20.6663</v>
       </c>
       <c r="D31" s="33">
-        <v>13.8062</v>
+        <v>15.2355</v>
       </c>
       <c r="E31" s="33">
-        <v>13.9137</v>
+        <v>15.0913</v>
       </c>
       <c r="F31" s="33">
-        <v>7.9394999999999998</v>
+        <v>8.7665000000000006</v>
       </c>
       <c r="G31" s="33">
-        <v>11.834300000000001</v>
+        <v>12.7775</v>
       </c>
       <c r="H31" s="33">
-        <v>8.1545000000000005</v>
+        <v>8.9434000000000005</v>
       </c>
       <c r="I31" s="34">
-        <v>15.3024</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>16.944900000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="35" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="36">
-        <v>4.1402999999999999</v>
+        <v>4.5641999999999996</v>
       </c>
       <c r="D32" s="36">
-        <v>3.867</v>
+        <v>4.2622999999999998</v>
       </c>
       <c r="E32" s="36">
-        <v>3.8138999999999998</v>
+        <v>4.2431000000000001</v>
       </c>
       <c r="F32" s="36">
-        <v>3.9192</v>
+        <v>4.3781999999999996</v>
       </c>
       <c r="G32" s="36">
-        <v>3.8371</v>
+        <v>4.1935000000000002</v>
       </c>
       <c r="H32" s="36">
-        <v>3.4045000000000001</v>
+        <v>3.8416000000000001</v>
       </c>
       <c r="I32" s="37">
-        <v>3.9651000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>4.3783000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="68" t="s">
         <v>38</v>
       </c>

--- a/assets/excel/IPCse - Series históricas.xlsx
+++ b/assets/excel/IPCse - Series históricas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fiona\Dropbox\MGR\IPC seasonal adjustment\IPCse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C42ACE-5F2C-4D9C-8179-67C0BA6AA44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5A8D26-8C0B-4379-AE61-A8BAE428E202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="1980" windowWidth="23040" windowHeight="13500" activeTab="1" xr2:uid="{A81B6F3A-9175-42CA-B78F-287A4E3C6249}"/>
+    <workbookView xWindow="-75" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{A81B6F3A-9175-42CA-B78F-287A4E3C6249}"/>
   </bookViews>
   <sheets>
     <sheet name="Índices" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="46">
   <si>
     <t>Fecha</t>
   </si>
@@ -183,9 +183,6 @@
     <t>IPCse NACIONAL</t>
   </si>
   <si>
-    <t>Jul.</t>
-  </si>
-  <si>
     <t>Ago.</t>
   </si>
   <si>
@@ -201,7 +198,7 @@
     <t>Dic.</t>
   </si>
   <si>
-    <t>Dic. 2023/Dic. 2022</t>
+    <t>Ene.</t>
   </si>
 </sst>
 </file>
@@ -949,9 +946,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -989,7 +986,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1095,7 +1092,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1237,7 +1234,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1245,14 +1242,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA821952-0137-4F39-844C-15CA99AC928E}">
-  <dimension ref="B1:V89"/>
+  <dimension ref="B1:V90"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="78" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="H74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
-      <selection pane="bottomRight" activeCell="B88" sqref="B88"/>
+      <selection pane="bottomRight" activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5546875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -6846,69 +6843,134 @@
         <v>3008.4508000000001</v>
       </c>
     </row>
-    <row r="89" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="14">
+    <row r="89" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B89" s="13">
         <v>45261</v>
       </c>
-      <c r="C89" s="18">
-        <v>3539.0648999999999</v>
-      </c>
-      <c r="D89" s="19">
-        <v>3459.6709999999998</v>
-      </c>
-      <c r="E89" s="19">
+      <c r="C89" s="15">
+        <v>3545.9090000000001</v>
+      </c>
+      <c r="D89" s="16">
+        <v>3473.8728000000001</v>
+      </c>
+      <c r="E89" s="16">
         <v>3587.6936000000001</v>
       </c>
-      <c r="F89" s="19">
+      <c r="F89" s="16">
         <v>3631.6269000000002</v>
       </c>
-      <c r="G89" s="19">
+      <c r="G89" s="16">
         <v>3779.3984999999998</v>
       </c>
-      <c r="H89" s="19">
+      <c r="H89" s="16">
         <v>3605.6304</v>
       </c>
-      <c r="I89" s="20">
+      <c r="I89" s="17">
         <v>3425.3955000000001</v>
       </c>
-      <c r="J89" s="19">
-        <v>4193.6050999999998</v>
-      </c>
-      <c r="K89" s="19">
-        <v>2630.1183999999998</v>
-      </c>
-      <c r="L89" s="19">
-        <v>3672.1754000000001</v>
-      </c>
-      <c r="M89" s="19">
+      <c r="J89" s="16">
+        <v>4186.5808999999999</v>
+      </c>
+      <c r="K89" s="16">
+        <v>2633.4027000000001</v>
+      </c>
+      <c r="L89" s="16">
+        <v>3741.0093000000002</v>
+      </c>
+      <c r="M89" s="16">
         <v>2141.799</v>
       </c>
-      <c r="N89" s="19">
-        <v>3789.7408</v>
-      </c>
-      <c r="O89" s="19">
+      <c r="N89" s="16">
+        <v>3813.8589999999999</v>
+      </c>
+      <c r="O89" s="16">
         <v>4038.2962000000002</v>
       </c>
-      <c r="P89" s="19">
+      <c r="P89" s="16">
         <v>3427.3571000000002</v>
       </c>
-      <c r="Q89" s="19">
+      <c r="Q89" s="16">
         <v>2396.5005999999998</v>
       </c>
-      <c r="R89" s="19">
-        <v>3304.5839000000001</v>
-      </c>
-      <c r="S89" s="19">
-        <v>2263.5174999999999</v>
-      </c>
-      <c r="T89" s="19">
+      <c r="R89" s="16">
+        <v>3295.8413999999998</v>
+      </c>
+      <c r="S89" s="16">
+        <v>2302.5574000000001</v>
+      </c>
+      <c r="T89" s="16">
         <v>3834.8244</v>
       </c>
-      <c r="U89" s="20">
+      <c r="U89" s="17">
         <v>3024.2366999999999</v>
       </c>
-      <c r="V89" s="18">
-        <v>3785.5257999999999</v>
+      <c r="V89" s="15">
+        <v>3793.6828</v>
+      </c>
+    </row>
+    <row r="90" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="14">
+        <v>45292</v>
+      </c>
+      <c r="C90" s="18">
+        <v>4287.1995999999999</v>
+      </c>
+      <c r="D90" s="19">
+        <v>4163.9359999999997</v>
+      </c>
+      <c r="E90" s="19">
+        <v>4354.7938000000004</v>
+      </c>
+      <c r="F90" s="19">
+        <v>4424.0164000000004</v>
+      </c>
+      <c r="G90" s="19">
+        <v>4534.5743000000002</v>
+      </c>
+      <c r="H90" s="19">
+        <v>4418.3724000000002</v>
+      </c>
+      <c r="I90" s="20">
+        <v>4276.7371999999996</v>
+      </c>
+      <c r="J90" s="19">
+        <v>5023.7344999999996</v>
+      </c>
+      <c r="K90" s="19">
+        <v>3200.3993</v>
+      </c>
+      <c r="L90" s="19">
+        <v>4294.4345000000003</v>
+      </c>
+      <c r="M90" s="19">
+        <v>2446.8928999999998</v>
+      </c>
+      <c r="N90" s="19">
+        <v>4679.0554000000002</v>
+      </c>
+      <c r="O90" s="19">
+        <v>4866.1273000000001</v>
+      </c>
+      <c r="P90" s="19">
+        <v>4329.2476999999999</v>
+      </c>
+      <c r="Q90" s="19">
+        <v>2971.5234999999998</v>
+      </c>
+      <c r="R90" s="19">
+        <v>4123.1274000000003</v>
+      </c>
+      <c r="S90" s="19">
+        <v>2380.8099000000002</v>
+      </c>
+      <c r="T90" s="19">
+        <v>4575.0473000000002</v>
+      </c>
+      <c r="U90" s="20">
+        <v>4368.9291000000003</v>
+      </c>
+      <c r="V90" s="18">
+        <v>4590.5754999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6924,14 +6986,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED968B30-91AE-4BCD-9838-818BA334E48C}">
-  <dimension ref="B1:V89"/>
+  <dimension ref="B1:V90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="83" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C71" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="64" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
-      <selection pane="bottomRight" activeCell="C90" sqref="C90"/>
+      <selection pane="bottomRight" activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5546875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -12485,69 +12547,134 @@
         <v>14.082599999999999</v>
       </c>
     </row>
-    <row r="89" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="14">
+    <row r="89" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B89" s="13">
         <v>45261</v>
       </c>
-      <c r="C89" s="18">
-        <v>25.738299999999999</v>
-      </c>
-      <c r="D89" s="19">
-        <v>25.424800000000001</v>
-      </c>
-      <c r="E89" s="19">
+      <c r="C89" s="15">
+        <v>25.981400000000001</v>
+      </c>
+      <c r="D89" s="16">
+        <v>25.939699999999998</v>
+      </c>
+      <c r="E89" s="16">
         <v>25.8706</v>
       </c>
-      <c r="F89" s="19">
+      <c r="F89" s="16">
         <v>25.432500000000001</v>
       </c>
-      <c r="G89" s="19">
+      <c r="G89" s="16">
         <v>28.0672</v>
       </c>
-      <c r="H89" s="19">
+      <c r="H89" s="16">
         <v>26.057700000000001</v>
       </c>
-      <c r="I89" s="20">
+      <c r="I89" s="17">
         <v>24.6936</v>
       </c>
-      <c r="J89" s="19">
-        <v>29.894300000000001</v>
-      </c>
-      <c r="K89" s="19">
-        <v>19.852799999999998</v>
-      </c>
-      <c r="L89" s="19">
-        <v>18.507300000000001</v>
-      </c>
-      <c r="M89" s="19">
+      <c r="J89" s="16">
+        <v>29.6767</v>
+      </c>
+      <c r="K89" s="16">
+        <v>20.002500000000001</v>
+      </c>
+      <c r="L89" s="16">
+        <v>20.7287</v>
+      </c>
+      <c r="M89" s="16">
         <v>13.781599999999999</v>
       </c>
-      <c r="N89" s="19">
-        <v>30.911799999999999</v>
-      </c>
-      <c r="O89" s="19">
+      <c r="N89" s="16">
+        <v>31.744900000000001</v>
+      </c>
+      <c r="O89" s="16">
         <v>32.622999999999998</v>
       </c>
-      <c r="P89" s="19">
+      <c r="P89" s="16">
         <v>31.6769</v>
       </c>
-      <c r="Q89" s="19">
+      <c r="Q89" s="16">
         <v>14.953200000000001</v>
       </c>
-      <c r="R89" s="19">
-        <v>20.3232</v>
-      </c>
-      <c r="S89" s="19">
-        <v>8.7070000000000007</v>
-      </c>
-      <c r="T89" s="19">
+      <c r="R89" s="16">
+        <v>20.004899999999999</v>
+      </c>
+      <c r="S89" s="16">
+        <v>10.581899999999999</v>
+      </c>
+      <c r="T89" s="16">
         <v>21.5383</v>
       </c>
-      <c r="U89" s="20">
+      <c r="U89" s="17">
         <v>32.697200000000002</v>
       </c>
-      <c r="V89" s="18">
-        <v>25.829699999999999</v>
+      <c r="V89" s="15">
+        <v>26.100899999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="14">
+        <v>45292</v>
+      </c>
+      <c r="C90" s="18">
+        <v>20.9055</v>
+      </c>
+      <c r="D90" s="19">
+        <v>19.8644</v>
+      </c>
+      <c r="E90" s="19">
+        <v>21.381399999999999</v>
+      </c>
+      <c r="F90" s="19">
+        <v>21.819099999999999</v>
+      </c>
+      <c r="G90" s="19">
+        <v>19.981400000000001</v>
+      </c>
+      <c r="H90" s="19">
+        <v>22.540900000000001</v>
+      </c>
+      <c r="I90" s="20">
+        <v>24.8538</v>
+      </c>
+      <c r="J90" s="19">
+        <v>19.996099999999998</v>
+      </c>
+      <c r="K90" s="19">
+        <v>21.530899999999999</v>
+      </c>
+      <c r="L90" s="19">
+        <v>14.7935</v>
+      </c>
+      <c r="M90" s="19">
+        <v>14.2447</v>
+      </c>
+      <c r="N90" s="19">
+        <v>22.685600000000001</v>
+      </c>
+      <c r="O90" s="19">
+        <v>20.499500000000001</v>
+      </c>
+      <c r="P90" s="19">
+        <v>26.314499999999999</v>
+      </c>
+      <c r="Q90" s="19">
+        <v>23.994299999999999</v>
+      </c>
+      <c r="R90" s="19">
+        <v>25.100899999999999</v>
+      </c>
+      <c r="S90" s="19">
+        <v>3.3984999999999999</v>
+      </c>
+      <c r="T90" s="19">
+        <v>19.302700000000002</v>
+      </c>
+      <c r="U90" s="20">
+        <v>44.463900000000002</v>
+      </c>
+      <c r="V90" s="18">
+        <v>21.005800000000001</v>
       </c>
     </row>
   </sheetData>
@@ -12565,9 +12692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83293D6D-81C8-49B2-8C10-806B04E884B0}">
   <dimension ref="B1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="116" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="116" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12617,8 +12742,9 @@
       <c r="F4" s="64"/>
       <c r="G4" s="64"/>
       <c r="H4" s="64"/>
-      <c r="I4" s="23" t="s">
-        <v>46</v>
+      <c r="I4" s="23" t="str">
+        <f>+_xlfn.CONCAT(H5, " ", C4, "/", H5, " ", C4-1)</f>
+        <v>Ene. 2023/Ene. 2022</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
@@ -12648,25 +12774,25 @@
         <v>18</v>
       </c>
       <c r="C6" s="27">
-        <v>6.5129999999999999</v>
+        <v>12.2477</v>
       </c>
       <c r="D6" s="27">
-        <v>12.2477</v>
+        <v>12.1486</v>
       </c>
       <c r="E6" s="27">
-        <v>12.1486</v>
+        <v>8.0029000000000003</v>
       </c>
       <c r="F6" s="27">
-        <v>8.0029000000000003</v>
+        <v>13.3675</v>
       </c>
       <c r="G6" s="27">
-        <v>13.3675</v>
+        <v>25.981400000000001</v>
       </c>
       <c r="H6" s="27">
-        <v>25.738299999999999</v>
+        <v>20.9055</v>
       </c>
       <c r="I6" s="28">
-        <v>211.4076</v>
+        <v>254.2483</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12686,25 +12812,25 @@
         <v>19</v>
       </c>
       <c r="C8" s="32">
-        <v>6.2074999999999996</v>
+        <v>12.108499999999999</v>
       </c>
       <c r="D8" s="32">
-        <v>12.108499999999999</v>
+        <v>11.458</v>
       </c>
       <c r="E8" s="32">
-        <v>11.458</v>
+        <v>8.2349999999999994</v>
       </c>
       <c r="F8" s="32">
-        <v>8.2349999999999994</v>
+        <v>13.661199999999999</v>
       </c>
       <c r="G8" s="32">
-        <v>13.661199999999999</v>
+        <v>25.939699999999998</v>
       </c>
       <c r="H8" s="32">
-        <v>25.424800000000001</v>
+        <v>19.8644</v>
       </c>
       <c r="I8" s="33">
-        <v>210.14189999999999</v>
+        <v>249.92330000000001</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
@@ -12712,25 +12838,25 @@
         <v>2</v>
       </c>
       <c r="C9" s="32">
-        <v>6.7702999999999998</v>
+        <v>12.2349</v>
       </c>
       <c r="D9" s="32">
-        <v>12.2349</v>
+        <v>12.5983</v>
       </c>
       <c r="E9" s="32">
-        <v>12.5983</v>
+        <v>7.9866999999999999</v>
       </c>
       <c r="F9" s="32">
-        <v>7.9866999999999999</v>
+        <v>13.3454</v>
       </c>
       <c r="G9" s="32">
-        <v>13.3454</v>
+        <v>25.8706</v>
       </c>
       <c r="H9" s="32">
-        <v>25.8706</v>
+        <v>21.381399999999999</v>
       </c>
       <c r="I9" s="33">
-        <v>212.8476</v>
+        <v>257.47030000000001</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
@@ -12738,25 +12864,25 @@
         <v>3</v>
       </c>
       <c r="C10" s="32">
-        <v>6.4123000000000001</v>
+        <v>13.420500000000001</v>
       </c>
       <c r="D10" s="32">
-        <v>13.420500000000001</v>
+        <v>12.7674</v>
       </c>
       <c r="E10" s="32">
-        <v>12.7674</v>
+        <v>7.4473000000000003</v>
       </c>
       <c r="F10" s="32">
-        <v>7.4473000000000003</v>
+        <v>12.2658</v>
       </c>
       <c r="G10" s="32">
-        <v>12.2658</v>
+        <v>25.432500000000001</v>
       </c>
       <c r="H10" s="32">
-        <v>25.432500000000001</v>
+        <v>21.819099999999999</v>
       </c>
       <c r="I10" s="33">
-        <v>212.47399999999999</v>
+        <v>257.66899999999998</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
@@ -12764,25 +12890,25 @@
         <v>4</v>
       </c>
       <c r="C11" s="32">
-        <v>6.3460000000000001</v>
+        <v>13.8238</v>
       </c>
       <c r="D11" s="32">
-        <v>13.8238</v>
+        <v>12.4107</v>
       </c>
       <c r="E11" s="32">
-        <v>12.4107</v>
+        <v>7.0147000000000004</v>
       </c>
       <c r="F11" s="32">
-        <v>7.0147000000000004</v>
+        <v>13.189500000000001</v>
       </c>
       <c r="G11" s="32">
-        <v>13.189500000000001</v>
+        <v>28.0672</v>
       </c>
       <c r="H11" s="32">
-        <v>28.0672</v>
+        <v>19.981400000000001</v>
       </c>
       <c r="I11" s="33">
-        <v>219.47200000000001</v>
+        <v>261.37799999999999</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
@@ -12790,25 +12916,25 @@
         <v>5</v>
       </c>
       <c r="C12" s="32">
-        <v>6.4259000000000004</v>
+        <v>12.3004</v>
       </c>
       <c r="D12" s="32">
-        <v>12.3004</v>
+        <v>13.1142</v>
       </c>
       <c r="E12" s="32">
-        <v>13.1142</v>
+        <v>7.3333000000000004</v>
       </c>
       <c r="F12" s="32">
-        <v>7.3333000000000004</v>
+        <v>13.1684</v>
       </c>
       <c r="G12" s="32">
-        <v>13.1684</v>
+        <v>26.057700000000001</v>
       </c>
       <c r="H12" s="32">
-        <v>26.057700000000001</v>
+        <v>22.540900000000001</v>
       </c>
       <c r="I12" s="33">
-        <v>207.21879999999999</v>
+        <v>253.2628</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
@@ -12816,25 +12942,25 @@
         <v>6</v>
       </c>
       <c r="C13" s="32">
-        <v>7.7095000000000002</v>
+        <v>11.8202</v>
       </c>
       <c r="D13" s="32">
-        <v>11.8202</v>
+        <v>13.477600000000001</v>
       </c>
       <c r="E13" s="32">
-        <v>13.477600000000001</v>
+        <v>7.7610999999999999</v>
       </c>
       <c r="F13" s="32">
-        <v>7.7610999999999999</v>
+        <v>12.2498</v>
       </c>
       <c r="G13" s="32">
-        <v>12.2498</v>
+        <v>24.6936</v>
       </c>
       <c r="H13" s="32">
-        <v>24.6936</v>
+        <v>24.8538</v>
       </c>
       <c r="I13" s="33">
-        <v>207.71879999999999</v>
+        <v>260.90499999999997</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
@@ -12864,25 +12990,25 @@
         <v>20</v>
       </c>
       <c r="C16" s="32">
-        <v>6.3114999999999997</v>
+        <v>15.3765</v>
       </c>
       <c r="D16" s="32">
-        <v>15.3765</v>
+        <v>13.5906</v>
       </c>
       <c r="E16" s="32">
-        <v>13.5906</v>
+        <v>6.9745999999999997</v>
       </c>
       <c r="F16" s="32">
-        <v>6.9745999999999997</v>
+        <v>16.734400000000001</v>
       </c>
       <c r="G16" s="32">
-        <v>16.734400000000001</v>
+        <v>29.6767</v>
       </c>
       <c r="H16" s="32">
-        <v>29.894300000000001</v>
+        <v>19.996099999999998</v>
       </c>
       <c r="I16" s="33">
-        <v>251.3416</v>
+        <v>296.18490000000003</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
@@ -12890,25 +13016,25 @@
         <v>21</v>
       </c>
       <c r="C17" s="32">
-        <v>9.5710999999999995</v>
+        <v>8.7627000000000006</v>
       </c>
       <c r="D17" s="32">
-        <v>8.7627000000000006</v>
+        <v>9.4953000000000003</v>
       </c>
       <c r="E17" s="32">
-        <v>9.4953000000000003</v>
+        <v>9.9351000000000003</v>
       </c>
       <c r="F17" s="32">
-        <v>9.9351000000000003</v>
+        <v>11.3401</v>
       </c>
       <c r="G17" s="32">
-        <v>11.3401</v>
+        <v>20.002500000000001</v>
       </c>
       <c r="H17" s="32">
-        <v>19.852799999999998</v>
+        <v>21.530999999999999</v>
       </c>
       <c r="I17" s="33">
-        <v>180.0153</v>
+        <v>215.86170000000001</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
@@ -12916,25 +13042,25 @@
         <v>22</v>
       </c>
       <c r="C18" s="32">
-        <v>3.7926000000000002</v>
+        <v>8.8907000000000007</v>
       </c>
       <c r="D18" s="32">
-        <v>8.8907000000000007</v>
+        <v>12.605700000000001</v>
       </c>
       <c r="E18" s="32">
-        <v>12.605700000000001</v>
+        <v>10.352499999999999</v>
       </c>
       <c r="F18" s="32">
-        <v>10.352499999999999</v>
+        <v>11.342000000000001</v>
       </c>
       <c r="G18" s="32">
-        <v>11.342000000000001</v>
+        <v>20.7287</v>
       </c>
       <c r="H18" s="32">
-        <v>18.507300000000001</v>
+        <v>14.7935</v>
       </c>
       <c r="I18" s="33">
-        <v>169.43989999999999</v>
+        <v>194.81479999999999</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
@@ -12942,25 +13068,25 @@
         <v>23</v>
       </c>
       <c r="C19" s="32">
-        <v>4.0037000000000003</v>
+        <v>9.0033999999999992</v>
       </c>
       <c r="D19" s="32">
-        <v>9.0033999999999992</v>
+        <v>8.5284999999999993</v>
       </c>
       <c r="E19" s="32">
-        <v>8.5284999999999993</v>
+        <v>7.7514000000000003</v>
       </c>
       <c r="F19" s="32">
-        <v>7.7514000000000003</v>
+        <v>7.1440999999999999</v>
       </c>
       <c r="G19" s="32">
-        <v>7.1440999999999999</v>
+        <v>13.781599999999999</v>
       </c>
       <c r="H19" s="32">
-        <v>13.781599999999999</v>
+        <v>14.2448</v>
       </c>
       <c r="I19" s="33">
-        <v>149.01730000000001</v>
+        <v>162.80109999999999</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
@@ -12968,25 +13094,25 @@
         <v>24</v>
       </c>
       <c r="C20" s="32">
-        <v>5.4874999999999998</v>
+        <v>13.803900000000001</v>
       </c>
       <c r="D20" s="32">
-        <v>13.803900000000001</v>
+        <v>11.9559</v>
       </c>
       <c r="E20" s="32">
-        <v>11.9559</v>
+        <v>10.5718</v>
       </c>
       <c r="F20" s="32">
-        <v>10.5718</v>
+        <v>12.776300000000001</v>
       </c>
       <c r="G20" s="32">
-        <v>12.776300000000001</v>
+        <v>31.744900000000001</v>
       </c>
       <c r="H20" s="32">
-        <v>30.911799999999999</v>
+        <v>22.685600000000001</v>
       </c>
       <c r="I20" s="33">
-        <v>231.73310000000001</v>
+        <v>284.96820000000002</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
@@ -12994,25 +13120,25 @@
         <v>25</v>
       </c>
       <c r="C21" s="32">
-        <v>9.0442</v>
+        <v>15.2255</v>
       </c>
       <c r="D21" s="32">
-        <v>15.2255</v>
+        <v>9.5385000000000009</v>
       </c>
       <c r="E21" s="32">
-        <v>9.5385000000000009</v>
+        <v>5.0633999999999997</v>
       </c>
       <c r="F21" s="32">
-        <v>5.0633999999999997</v>
+        <v>15.853400000000001</v>
       </c>
       <c r="G21" s="32">
-        <v>15.853400000000001</v>
+        <v>32.622999999999998</v>
       </c>
       <c r="H21" s="32">
-        <v>32.622999999999998</v>
+        <v>20.499500000000001</v>
       </c>
       <c r="I21" s="33">
-        <v>227.7373</v>
+        <v>276.34800000000001</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
@@ -13020,25 +13146,25 @@
         <v>26</v>
       </c>
       <c r="C22" s="32">
-        <v>5.3342999999999998</v>
+        <v>10.4903</v>
       </c>
       <c r="D22" s="32">
-        <v>10.4903</v>
+        <v>10.8613</v>
       </c>
       <c r="E22" s="32">
-        <v>10.8613</v>
+        <v>7.1205999999999996</v>
       </c>
       <c r="F22" s="32">
-        <v>7.1205999999999996</v>
+        <v>10.409599999999999</v>
       </c>
       <c r="G22" s="32">
-        <v>10.409599999999999</v>
+        <v>31.6769</v>
       </c>
       <c r="H22" s="32">
-        <v>31.6769</v>
+        <v>26.314499999999999</v>
       </c>
       <c r="I22" s="33">
-        <v>187.71250000000001</v>
+        <v>242.97579999999999</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
@@ -13046,25 +13172,25 @@
         <v>27</v>
       </c>
       <c r="C23" s="32">
-        <v>12.6297</v>
+        <v>5.0385999999999997</v>
       </c>
       <c r="D23" s="32">
-        <v>5.0385999999999997</v>
+        <v>9.7271999999999998</v>
       </c>
       <c r="E23" s="32">
-        <v>9.7271999999999998</v>
+        <v>12.3354</v>
       </c>
       <c r="F23" s="32">
-        <v>12.3354</v>
+        <v>14.9031</v>
       </c>
       <c r="G23" s="32">
-        <v>14.9031</v>
+        <v>14.953200000000001</v>
       </c>
       <c r="H23" s="32">
-        <v>14.953200000000001</v>
+        <v>23.994299999999999</v>
       </c>
       <c r="I23" s="33">
-        <v>186.4478</v>
+        <v>231.90530000000001</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
@@ -13072,25 +13198,25 @@
         <v>28</v>
       </c>
       <c r="C24" s="32">
-        <v>10.2362</v>
+        <v>11.049799999999999</v>
       </c>
       <c r="D24" s="32">
-        <v>11.049799999999999</v>
+        <v>15.172599999999999</v>
       </c>
       <c r="E24" s="32">
-        <v>15.172599999999999</v>
+        <v>8.8969000000000005</v>
       </c>
       <c r="F24" s="32">
-        <v>8.8969000000000005</v>
+        <v>13.5905</v>
       </c>
       <c r="G24" s="32">
-        <v>13.5905</v>
+        <v>20.004899999999999</v>
       </c>
       <c r="H24" s="32">
-        <v>20.3232</v>
+        <v>25.100899999999999</v>
       </c>
       <c r="I24" s="33">
-        <v>218.15100000000001</v>
+        <v>262.0985</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
@@ -13098,25 +13224,25 @@
         <v>29</v>
       </c>
       <c r="C25" s="32">
-        <v>6.1224999999999996</v>
+        <v>8.5923999999999996</v>
       </c>
       <c r="D25" s="32">
-        <v>8.5923999999999996</v>
+        <v>10.257899999999999</v>
       </c>
       <c r="E25" s="32">
-        <v>10.257899999999999</v>
+        <v>7.1054000000000004</v>
       </c>
       <c r="F25" s="32">
-        <v>7.1054000000000004</v>
+        <v>10.886900000000001</v>
       </c>
       <c r="G25" s="32">
-        <v>10.886900000000001</v>
+        <v>10.581899999999999</v>
       </c>
       <c r="H25" s="32">
-        <v>8.7070000000000007</v>
+        <v>3.3984999999999999</v>
       </c>
       <c r="I25" s="33">
-        <v>141.69710000000001</v>
+        <v>141.22389999999999</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
@@ -13124,25 +13250,25 @@
         <v>30</v>
       </c>
       <c r="C26" s="32">
-        <v>7.3925999999999998</v>
+        <v>12.476100000000001</v>
       </c>
       <c r="D26" s="32">
-        <v>12.476100000000001</v>
+        <v>13.3192</v>
       </c>
       <c r="E26" s="32">
-        <v>13.3192</v>
+        <v>8.8308999999999997</v>
       </c>
       <c r="F26" s="32">
-        <v>8.8308999999999997</v>
+        <v>12.102499999999999</v>
       </c>
       <c r="G26" s="32">
-        <v>12.102499999999999</v>
+        <v>21.5383</v>
       </c>
       <c r="H26" s="32">
-        <v>21.5383</v>
+        <v>19.302700000000002</v>
       </c>
       <c r="I26" s="33">
-        <v>219.1114</v>
+        <v>258.82409999999999</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
@@ -13150,25 +13276,25 @@
         <v>31</v>
       </c>
       <c r="C27" s="32">
-        <v>6.3304</v>
+        <v>9.2332999999999998</v>
       </c>
       <c r="D27" s="32">
-        <v>9.2332999999999998</v>
+        <v>11.5976</v>
       </c>
       <c r="E27" s="32">
-        <v>11.5976</v>
+        <v>7.6063000000000001</v>
       </c>
       <c r="F27" s="32">
-        <v>7.6063000000000001</v>
+        <v>11.4826</v>
       </c>
       <c r="G27" s="32">
-        <v>11.4826</v>
+        <v>32.697200000000002</v>
       </c>
       <c r="H27" s="32">
-        <v>32.697200000000002</v>
+        <v>44.463900000000002</v>
       </c>
       <c r="I27" s="33">
-        <v>204.37379999999999</v>
+        <v>311.40839999999997</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
@@ -13198,25 +13324,25 @@
         <v>33</v>
       </c>
       <c r="C30" s="32">
-        <v>6.4814999999999996</v>
+        <v>12.8392</v>
       </c>
       <c r="D30" s="32">
-        <v>12.8392</v>
+        <v>13.191599999999999</v>
       </c>
       <c r="E30" s="32">
-        <v>13.191599999999999</v>
+        <v>8.3850999999999996</v>
       </c>
       <c r="F30" s="32">
-        <v>8.3850999999999996</v>
+        <v>14.082599999999999</v>
       </c>
       <c r="G30" s="32">
-        <v>14.082599999999999</v>
+        <v>26.100899999999999</v>
       </c>
       <c r="H30" s="32">
-        <v>25.829699999999999</v>
+        <v>21.005800000000001</v>
       </c>
       <c r="I30" s="33">
-        <v>222.4144</v>
+        <v>266.7586</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
@@ -13224,25 +13350,25 @@
         <v>19</v>
       </c>
       <c r="C31" s="32">
-        <v>6.4325000000000001</v>
+        <v>12.364000000000001</v>
       </c>
       <c r="D31" s="32">
-        <v>12.364000000000001</v>
+        <v>12.6919</v>
       </c>
       <c r="E31" s="32">
-        <v>12.6919</v>
+        <v>8.8498000000000001</v>
       </c>
       <c r="F31" s="32">
-        <v>8.8498000000000001</v>
+        <v>14.573700000000001</v>
       </c>
       <c r="G31" s="32">
-        <v>14.573700000000001</v>
+        <v>26.662099999999999</v>
       </c>
       <c r="H31" s="32">
-        <v>26.058199999999999</v>
+        <v>20.4255</v>
       </c>
       <c r="I31" s="33">
-        <v>223.6318</v>
+        <v>266.75779999999997</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
@@ -13250,25 +13376,25 @@
         <v>2</v>
       </c>
       <c r="C32" s="32">
-        <v>6.6355000000000004</v>
+        <v>12.870200000000001</v>
       </c>
       <c r="D32" s="32">
-        <v>12.870200000000001</v>
+        <v>13.5204</v>
       </c>
       <c r="E32" s="32">
-        <v>13.5204</v>
+        <v>8.1297999999999995</v>
       </c>
       <c r="F32" s="32">
-        <v>8.1297999999999995</v>
+        <v>14.0298</v>
       </c>
       <c r="G32" s="32">
-        <v>14.0298</v>
+        <v>25.5184</v>
       </c>
       <c r="H32" s="32">
-        <v>25.5184</v>
+        <v>21.286100000000001</v>
       </c>
       <c r="I32" s="33">
-        <v>221.52500000000001</v>
+        <v>266.70920000000001</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
@@ -13276,25 +13402,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="32">
-        <v>6.117</v>
+        <v>14.5464</v>
       </c>
       <c r="D33" s="32">
-        <v>14.5464</v>
+        <v>13.0677</v>
       </c>
       <c r="E33" s="32">
-        <v>13.0677</v>
+        <v>7.9637000000000002</v>
       </c>
       <c r="F33" s="32">
-        <v>7.9637000000000002</v>
+        <v>12.5905</v>
       </c>
       <c r="G33" s="32">
-        <v>12.5905</v>
+        <v>25.406300000000002</v>
       </c>
       <c r="H33" s="32">
-        <v>25.406300000000002</v>
+        <v>21.453700000000001</v>
       </c>
       <c r="I33" s="33">
-        <v>220.4408</v>
+        <v>264.34899999999999</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
@@ -13302,25 +13428,25 @@
         <v>4</v>
       </c>
       <c r="C34" s="32">
-        <v>6.0045000000000002</v>
+        <v>14.8338</v>
       </c>
       <c r="D34" s="32">
-        <v>14.8338</v>
+        <v>13.2484</v>
       </c>
       <c r="E34" s="32">
-        <v>13.2484</v>
+        <v>7.1936</v>
       </c>
       <c r="F34" s="32">
-        <v>7.1936</v>
+        <v>13.8574</v>
       </c>
       <c r="G34" s="32">
-        <v>13.8574</v>
+        <v>27.901299999999999</v>
       </c>
       <c r="H34" s="32">
-        <v>27.901299999999999</v>
+        <v>19.4986</v>
       </c>
       <c r="I34" s="33">
-        <v>229.53569999999999</v>
+        <v>269.02530000000002</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
@@ -13328,25 +13454,25 @@
         <v>5</v>
       </c>
       <c r="C35" s="32">
-        <v>6.1228999999999996</v>
+        <v>13.1973</v>
       </c>
       <c r="D35" s="32">
-        <v>13.1973</v>
+        <v>13.9444</v>
       </c>
       <c r="E35" s="32">
-        <v>13.9444</v>
+        <v>8.1179000000000006</v>
       </c>
       <c r="F35" s="32">
-        <v>8.1179000000000006</v>
+        <v>13.4346</v>
       </c>
       <c r="G35" s="32">
-        <v>13.4346</v>
+        <v>25.4133</v>
       </c>
       <c r="H35" s="32">
-        <v>25.4133</v>
+        <v>21.833300000000001</v>
       </c>
       <c r="I35" s="33">
-        <v>216.9924</v>
+        <v>262.39519999999999</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -13354,25 +13480,25 @@
         <v>6</v>
       </c>
       <c r="C36" s="35">
-        <v>7.2976000000000001</v>
+        <v>12.2659</v>
       </c>
       <c r="D36" s="35">
-        <v>12.2659</v>
+        <v>15.0021</v>
       </c>
       <c r="E36" s="35">
-        <v>15.0021</v>
+        <v>7.9149000000000003</v>
       </c>
       <c r="F36" s="35">
-        <v>7.9149000000000003</v>
+        <v>12.872199999999999</v>
       </c>
       <c r="G36" s="35">
-        <v>12.872199999999999</v>
+        <v>24.8947</v>
       </c>
       <c r="H36" s="35">
-        <v>24.8947</v>
+        <v>24.804600000000001</v>
       </c>
       <c r="I36" s="36">
-        <v>219.00229999999999</v>
+        <v>273.85109999999997</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13427,7 +13553,7 @@
   <dimension ref="B1:I33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13490,25 +13616,25 @@
         <v>37</v>
       </c>
       <c r="C5" s="41">
-        <v>25.424800000000001</v>
+        <v>19.8644</v>
       </c>
       <c r="D5" s="41">
-        <v>25.8706</v>
+        <v>21.381399999999999</v>
       </c>
       <c r="E5" s="41">
-        <v>25.432500000000001</v>
+        <v>21.819099999999999</v>
       </c>
       <c r="F5" s="41">
-        <v>28.0672</v>
+        <v>19.981400000000001</v>
       </c>
       <c r="G5" s="41">
-        <v>26.057700000000001</v>
+        <v>22.540900000000001</v>
       </c>
       <c r="H5" s="41">
-        <v>24.6936</v>
+        <v>24.8538</v>
       </c>
       <c r="I5" s="42">
-        <v>25.738299999999999</v>
+        <v>20.9055</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
@@ -13516,25 +13642,25 @@
         <v>20</v>
       </c>
       <c r="C6" s="32">
-        <v>8.2189999999999994</v>
+        <v>5.3315999999999999</v>
       </c>
       <c r="D6" s="32">
-        <v>9.7225999999999999</v>
+        <v>6.8342999999999998</v>
       </c>
       <c r="E6" s="32">
-        <v>11.3924</v>
+        <v>8.5663</v>
       </c>
       <c r="F6" s="32">
-        <v>12.1182</v>
+        <v>7.4897</v>
       </c>
       <c r="G6" s="32">
-        <v>9.9133999999999993</v>
+        <v>6.6593</v>
       </c>
       <c r="H6" s="32">
-        <v>8.6440999999999999</v>
+        <v>8.7489000000000008</v>
       </c>
       <c r="I6" s="33">
-        <v>9.2345000000000006</v>
+        <v>6.3902000000000001</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
@@ -13542,25 +13668,25 @@
         <v>21</v>
       </c>
       <c r="C7" s="32">
-        <v>0.51419999999999999</v>
+        <v>0.52569999999999995</v>
       </c>
       <c r="D7" s="32">
-        <v>0.59</v>
+        <v>0.6159</v>
       </c>
       <c r="E7" s="32">
-        <v>0.4803</v>
+        <v>0.45319999999999999</v>
       </c>
       <c r="F7" s="32">
-        <v>0.58320000000000005</v>
+        <v>0.57550000000000001</v>
       </c>
       <c r="G7" s="32">
-        <v>0.48120000000000002</v>
+        <v>0.5504</v>
       </c>
       <c r="H7" s="32">
-        <v>0.52259999999999995</v>
+        <v>0.59889999999999999</v>
       </c>
       <c r="I7" s="33">
-        <v>0.53959999999999997</v>
+        <v>0.55840000000000001</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
@@ -13568,25 +13694,25 @@
         <v>22</v>
       </c>
       <c r="C8" s="32">
-        <v>1.972</v>
+        <v>1.3836999999999999</v>
       </c>
       <c r="D8" s="32">
-        <v>1.9859</v>
+        <v>1.6377999999999999</v>
       </c>
       <c r="E8" s="32">
-        <v>2.0918000000000001</v>
+        <v>1.5865</v>
       </c>
       <c r="F8" s="32">
-        <v>2.0430999999999999</v>
+        <v>1.4242999999999999</v>
       </c>
       <c r="G8" s="32">
-        <v>1.6718</v>
+        <v>2.0124</v>
       </c>
       <c r="H8" s="32">
-        <v>2.3321000000000001</v>
+        <v>1.7936000000000001</v>
       </c>
       <c r="I8" s="33">
-        <v>1.9891000000000001</v>
+        <v>1.5377000000000001</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
@@ -13594,25 +13720,25 @@
         <v>23</v>
       </c>
       <c r="C9" s="32">
-        <v>1.0309999999999999</v>
+        <v>0.6008</v>
       </c>
       <c r="D9" s="32">
-        <v>0.71930000000000005</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="E9" s="32">
-        <v>0.5302</v>
+        <v>1.0161</v>
       </c>
       <c r="F9" s="32">
-        <v>1.2406999999999999</v>
+        <v>1.1506000000000001</v>
       </c>
       <c r="G9" s="32">
-        <v>0.67300000000000004</v>
+        <v>1.0170999999999999</v>
       </c>
       <c r="H9" s="32">
-        <v>0.83750000000000002</v>
+        <v>1.1993</v>
       </c>
       <c r="I9" s="33">
-        <v>0.872</v>
+        <v>0.77669999999999995</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
@@ -13620,25 +13746,25 @@
         <v>24</v>
       </c>
       <c r="C10" s="32">
-        <v>2.0697999999999999</v>
+        <v>1.4956</v>
       </c>
       <c r="D10" s="32">
-        <v>1.9984</v>
+        <v>1.5099</v>
       </c>
       <c r="E10" s="32">
-        <v>1.7451000000000001</v>
+        <v>1.5423</v>
       </c>
       <c r="F10" s="32">
-        <v>2.6012</v>
+        <v>1.7271000000000001</v>
       </c>
       <c r="G10" s="32">
-        <v>1.7089000000000001</v>
+        <v>1.8295999999999999</v>
       </c>
       <c r="H10" s="32">
-        <v>2.0512999999999999</v>
+        <v>1.9961</v>
       </c>
       <c r="I10" s="33">
-        <v>2.0274999999999999</v>
+        <v>1.5543</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
@@ -13646,25 +13772,25 @@
         <v>25</v>
       </c>
       <c r="C11" s="32">
-        <v>2.7938000000000001</v>
+        <v>1.9448000000000001</v>
       </c>
       <c r="D11" s="32">
-        <v>3.0834999999999999</v>
+        <v>1.9670000000000001</v>
       </c>
       <c r="E11" s="32">
-        <v>2.4445999999999999</v>
+        <v>1.5248999999999999</v>
       </c>
       <c r="F11" s="32">
-        <v>1.8933</v>
+        <v>1.3113999999999999</v>
       </c>
       <c r="G11" s="32">
-        <v>3.2702</v>
+        <v>1.7764</v>
       </c>
       <c r="H11" s="32">
-        <v>1.7194</v>
+        <v>1.3181</v>
       </c>
       <c r="I11" s="33">
-        <v>2.8037999999999998</v>
+        <v>1.8575999999999999</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
@@ -13672,25 +13798,25 @@
         <v>26</v>
       </c>
       <c r="C12" s="32">
-        <v>2.9542000000000002</v>
+        <v>2.5065</v>
       </c>
       <c r="D12" s="32">
-        <v>3.3388</v>
+        <v>2.867</v>
       </c>
       <c r="E12" s="32">
-        <v>2.4765999999999999</v>
+        <v>2.3125</v>
       </c>
       <c r="F12" s="32">
-        <v>3.4737</v>
+        <v>2.3509000000000002</v>
       </c>
       <c r="G12" s="32">
-        <v>3.9508000000000001</v>
+        <v>4.0717999999999996</v>
       </c>
       <c r="H12" s="32">
-        <v>4.5796000000000001</v>
+        <v>4.7411000000000003</v>
       </c>
       <c r="I12" s="33">
-        <v>3.2021000000000002</v>
+        <v>2.7926000000000002</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
@@ -13698,25 +13824,25 @@
         <v>27</v>
       </c>
       <c r="C13" s="32">
-        <v>0.33729999999999999</v>
+        <v>0.48559999999999998</v>
       </c>
       <c r="D13" s="32">
-        <v>0.28489999999999999</v>
+        <v>0.43159999999999998</v>
       </c>
       <c r="E13" s="32">
-        <v>0.30430000000000001</v>
+        <v>0.43340000000000001</v>
       </c>
       <c r="F13" s="32">
-        <v>0.35680000000000001</v>
+        <v>0.43940000000000001</v>
       </c>
       <c r="G13" s="32">
-        <v>0.25080000000000002</v>
+        <v>0.42680000000000001</v>
       </c>
       <c r="H13" s="32">
-        <v>0.30059999999999998</v>
+        <v>0.44550000000000001</v>
       </c>
       <c r="I13" s="33">
-        <v>0.31180000000000002</v>
+        <v>0.45660000000000001</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
@@ -13724,25 +13850,25 @@
         <v>28</v>
       </c>
       <c r="C14" s="32">
-        <v>1.6127</v>
+        <v>1.9092</v>
       </c>
       <c r="D14" s="32">
-        <v>1.2802</v>
+        <v>1.6895</v>
       </c>
       <c r="E14" s="32">
-        <v>1.0954999999999999</v>
+        <v>1.155</v>
       </c>
       <c r="F14" s="32">
-        <v>1.2989999999999999</v>
+        <v>1.1886000000000001</v>
       </c>
       <c r="G14" s="32">
-        <v>1.3401000000000001</v>
+        <v>1.4100999999999999</v>
       </c>
       <c r="H14" s="32">
-        <v>1.7978000000000001</v>
+        <v>1.4668000000000001</v>
       </c>
       <c r="I14" s="33">
-        <v>1.4436</v>
+        <v>1.7036</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
@@ -13750,25 +13876,25 @@
         <v>29</v>
       </c>
       <c r="C15" s="32">
-        <v>0.21959999999999999</v>
+        <v>6.6299999999999998E-2</v>
       </c>
       <c r="D15" s="32">
-        <v>9.74E-2</v>
+        <v>3.8800000000000001E-2</v>
       </c>
       <c r="E15" s="32">
-        <v>0.14899999999999999</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="F15" s="32">
-        <v>5.5599999999999997E-2</v>
+        <v>3.95E-2</v>
       </c>
       <c r="G15" s="32">
-        <v>0.1172</v>
+        <v>3.8199999999999998E-2</v>
       </c>
       <c r="H15" s="32">
-        <v>8.3400000000000002E-2</v>
+        <v>1.12E-2</v>
       </c>
       <c r="I15" s="33">
-        <v>0.154</v>
+        <v>5.0299999999999997E-2</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
@@ -13776,25 +13902,25 @@
         <v>30</v>
       </c>
       <c r="C16" s="32">
-        <v>2.7770999999999999</v>
+        <v>2.2605</v>
       </c>
       <c r="D16" s="32">
-        <v>1.8056000000000001</v>
+        <v>1.7007000000000001</v>
       </c>
       <c r="E16" s="32">
-        <v>1.819</v>
+        <v>1.7293000000000001</v>
       </c>
       <c r="F16" s="32">
-        <v>1.3109</v>
+        <v>1.0357000000000001</v>
       </c>
       <c r="G16" s="32">
-        <v>1.7954000000000001</v>
+        <v>1.3912</v>
       </c>
       <c r="H16" s="32">
-        <v>1.1029</v>
+        <v>1.0188999999999999</v>
       </c>
       <c r="I16" s="33">
-        <v>2.1855000000000002</v>
+        <v>1.8755999999999999</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
@@ -13802,25 +13928,25 @@
         <v>31</v>
       </c>
       <c r="C17" s="32">
-        <v>0.92420000000000002</v>
+        <v>1.3537999999999999</v>
       </c>
       <c r="D17" s="32">
-        <v>0.96409999999999996</v>
+        <v>1.2729999999999999</v>
       </c>
       <c r="E17" s="32">
-        <v>0.90369999999999995</v>
+        <v>1.4537</v>
       </c>
       <c r="F17" s="32">
-        <v>1.0912999999999999</v>
+        <v>1.2486999999999999</v>
       </c>
       <c r="G17" s="32">
-        <v>0.88500000000000001</v>
+        <v>1.3575999999999999</v>
       </c>
       <c r="H17" s="32">
-        <v>0.72240000000000004</v>
+        <v>1.5154000000000001</v>
       </c>
       <c r="I17" s="33">
-        <v>0.93269999999999997</v>
+        <v>1.3359000000000001</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
@@ -13850,25 +13976,25 @@
         <v>37</v>
       </c>
       <c r="C20" s="41">
-        <v>210.14189999999999</v>
+        <v>249.92330000000001</v>
       </c>
       <c r="D20" s="41">
-        <v>212.8476</v>
+        <v>257.47030000000001</v>
       </c>
       <c r="E20" s="41">
-        <v>212.47399999999999</v>
+        <v>257.66899999999998</v>
       </c>
       <c r="F20" s="41">
-        <v>219.47200000000001</v>
+        <v>261.37799999999999</v>
       </c>
       <c r="G20" s="41">
-        <v>207.21879999999999</v>
+        <v>253.2628</v>
       </c>
       <c r="H20" s="41">
-        <v>207.71879999999999</v>
+        <v>260.90499999999997</v>
       </c>
       <c r="I20" s="42">
-        <v>211.4076</v>
+        <v>254.2483</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
@@ -13876,25 +14002,25 @@
         <v>20</v>
       </c>
       <c r="C21" s="32">
-        <v>62.7044</v>
+        <v>73.819999999999993</v>
       </c>
       <c r="D21" s="32">
-        <v>74.915599999999998</v>
+        <v>89.153999999999996</v>
       </c>
       <c r="E21" s="32">
-        <v>88.718000000000004</v>
+        <v>106.2163</v>
       </c>
       <c r="F21" s="32">
-        <v>92.462800000000001</v>
+        <v>107.7754</v>
       </c>
       <c r="G21" s="32">
-        <v>74.794899999999998</v>
+        <v>87.159899999999993</v>
       </c>
       <c r="H21" s="32">
-        <v>67.373900000000006</v>
+        <v>86.946899999999999</v>
       </c>
       <c r="I21" s="33">
-        <v>70.850999999999999</v>
+        <v>84.113799999999998</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
@@ -13902,25 +14028,25 @@
         <v>21</v>
       </c>
       <c r="C22" s="32">
-        <v>4.8646000000000003</v>
+        <v>5.8733000000000004</v>
       </c>
       <c r="D22" s="32">
-        <v>5.7937000000000003</v>
+        <v>7.0990000000000002</v>
       </c>
       <c r="E22" s="32">
-        <v>4.7763999999999998</v>
+        <v>5.6432000000000002</v>
       </c>
       <c r="F22" s="32">
-        <v>6.0446999999999997</v>
+        <v>7.2346000000000004</v>
       </c>
       <c r="G22" s="32">
-        <v>5.0307000000000004</v>
+        <v>6.1224999999999996</v>
       </c>
       <c r="H22" s="32">
-        <v>5.0747999999999998</v>
+        <v>6.3158000000000003</v>
       </c>
       <c r="I22" s="33">
-        <v>5.2476000000000003</v>
+        <v>6.3711000000000002</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
@@ -13928,25 +14054,25 @@
         <v>22</v>
       </c>
       <c r="C23" s="32">
-        <v>18.907299999999999</v>
+        <v>20.810400000000001</v>
       </c>
       <c r="D23" s="32">
-        <v>20.705300000000001</v>
+        <v>23.078399999999998</v>
       </c>
       <c r="E23" s="32">
-        <v>22.454599999999999</v>
+        <v>24.785799999999998</v>
       </c>
       <c r="F23" s="32">
-        <v>20.5886</v>
+        <v>22.445</v>
       </c>
       <c r="G23" s="32">
-        <v>18.482600000000001</v>
+        <v>22.1614</v>
       </c>
       <c r="H23" s="32">
-        <v>24.715299999999999</v>
+        <v>27.267299999999999</v>
       </c>
       <c r="I23" s="33">
-        <v>20.0854</v>
+        <v>22.298100000000002</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
@@ -13954,25 +14080,25 @@
         <v>23</v>
       </c>
       <c r="C24" s="32">
-        <v>12.136699999999999</v>
+        <v>12.6302</v>
       </c>
       <c r="D24" s="32">
-        <v>8.7555999999999994</v>
+        <v>10.1607</v>
       </c>
       <c r="E24" s="32">
-        <v>8.5053000000000001</v>
+        <v>10.569900000000001</v>
       </c>
       <c r="F24" s="32">
-        <v>11.682499999999999</v>
+        <v>14.3027</v>
       </c>
       <c r="G24" s="32">
-        <v>10.549300000000001</v>
+        <v>12.125299999999999</v>
       </c>
       <c r="H24" s="32">
-        <v>12.151</v>
+        <v>14.3329</v>
       </c>
       <c r="I24" s="33">
-        <v>10.6288</v>
+        <v>11.7712</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
@@ -13980,25 +14106,25 @@
         <v>24</v>
       </c>
       <c r="C25" s="32">
-        <v>15.169499999999999</v>
+        <v>18.278500000000001</v>
       </c>
       <c r="D25" s="32">
-        <v>14.4345</v>
+        <v>17.730399999999999</v>
       </c>
       <c r="E25" s="32">
-        <v>13.8066</v>
+        <v>17.210799999999999</v>
       </c>
       <c r="F25" s="32">
-        <v>18.884599999999999</v>
+        <v>22.282699999999998</v>
       </c>
       <c r="G25" s="32">
-        <v>13.3172</v>
+        <v>17.475100000000001</v>
       </c>
       <c r="H25" s="32">
-        <v>16.1723</v>
+        <v>20.499500000000001</v>
       </c>
       <c r="I25" s="33">
-        <v>14.9419</v>
+        <v>18.258099999999999</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
@@ -14006,25 +14132,25 @@
         <v>25</v>
       </c>
       <c r="C26" s="32">
-        <v>20.354299999999999</v>
+        <v>24.459099999999999</v>
       </c>
       <c r="D26" s="32">
-        <v>21.0426</v>
+        <v>25.243600000000001</v>
       </c>
       <c r="E26" s="32">
-        <v>16.611699999999999</v>
+        <v>19.826499999999999</v>
       </c>
       <c r="F26" s="32">
-        <v>13.6363</v>
+        <v>16.625</v>
       </c>
       <c r="G26" s="32">
-        <v>20.915700000000001</v>
+        <v>24.482900000000001</v>
       </c>
       <c r="H26" s="32">
-        <v>12.2265</v>
+        <v>14.992599999999999</v>
       </c>
       <c r="I26" s="33">
-        <v>19.686800000000002</v>
+        <v>23.623899999999999</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
@@ -14032,25 +14158,25 @@
         <v>26</v>
       </c>
       <c r="C27" s="32">
-        <v>19.933800000000002</v>
+        <v>25.522500000000001</v>
       </c>
       <c r="D27" s="32">
-        <v>23.0032</v>
+        <v>29.504000000000001</v>
       </c>
       <c r="E27" s="32">
-        <v>16.136900000000001</v>
+        <v>21.598600000000001</v>
       </c>
       <c r="F27" s="32">
-        <v>21.226600000000001</v>
+        <v>26.638000000000002</v>
       </c>
       <c r="G27" s="32">
-        <v>24.3277</v>
+        <v>33.892200000000003</v>
       </c>
       <c r="H27" s="32">
-        <v>32.116</v>
+        <v>43.180599999999998</v>
       </c>
       <c r="I27" s="33">
-        <v>21.564599999999999</v>
+        <v>27.904699999999998</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
@@ -14058,25 +14184,25 @@
         <v>27</v>
       </c>
       <c r="C28" s="32">
-        <v>3.9891999999999999</v>
+        <v>5.0332999999999997</v>
       </c>
       <c r="D28" s="32">
-        <v>3.9289999999999998</v>
+        <v>4.9656000000000002</v>
       </c>
       <c r="E28" s="32">
-        <v>3.7738</v>
+        <v>4.7880000000000003</v>
       </c>
       <c r="F28" s="32">
-        <v>3.8719000000000001</v>
+        <v>4.9968000000000004</v>
       </c>
       <c r="G28" s="32">
-        <v>2.8744000000000001</v>
+        <v>3.8001999999999998</v>
       </c>
       <c r="H28" s="32">
-        <v>3.5567000000000002</v>
+        <v>4.4531000000000001</v>
       </c>
       <c r="I28" s="33">
-        <v>3.871</v>
+        <v>4.9012000000000002</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
@@ -14084,25 +14210,25 @@
         <v>28</v>
       </c>
       <c r="C29" s="32">
-        <v>15.881500000000001</v>
+        <v>19.4803</v>
       </c>
       <c r="D29" s="32">
-        <v>13.9785</v>
+        <v>17.6692</v>
       </c>
       <c r="E29" s="32">
-        <v>10.958600000000001</v>
+        <v>13.3445</v>
       </c>
       <c r="F29" s="32">
-        <v>11.970499999999999</v>
+        <v>14.524100000000001</v>
       </c>
       <c r="G29" s="32">
-        <v>12.7858</v>
+        <v>15.660500000000001</v>
       </c>
       <c r="H29" s="32">
-        <v>16.586300000000001</v>
+        <v>19.3809</v>
       </c>
       <c r="I29" s="33">
-        <v>14.5876</v>
+        <v>18.013000000000002</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
@@ -14110,25 +14236,25 @@
         <v>29</v>
       </c>
       <c r="C30" s="32">
-        <v>4.0869</v>
+        <v>3.8921999999999999</v>
       </c>
       <c r="D30" s="32">
-        <v>1.5232000000000001</v>
+        <v>1.4283999999999999</v>
       </c>
       <c r="E30" s="32">
-        <v>2.1745999999999999</v>
+        <v>2.0985999999999998</v>
       </c>
       <c r="F30" s="32">
-        <v>1.0417000000000001</v>
+        <v>1.0562</v>
       </c>
       <c r="G30" s="32">
-        <v>2.0741000000000001</v>
+        <v>1.9339</v>
       </c>
       <c r="H30" s="32">
-        <v>1.4951000000000001</v>
+        <v>1.4209000000000001</v>
       </c>
       <c r="I30" s="33">
-        <v>2.7187000000000001</v>
+        <v>2.5842000000000001</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
@@ -14136,25 +14262,25 @@
         <v>30</v>
       </c>
       <c r="C31" s="32">
-        <v>25.676600000000001</v>
+        <v>30.273700000000002</v>
       </c>
       <c r="D31" s="32">
-        <v>18.4693</v>
+        <v>21.9346</v>
       </c>
       <c r="E31" s="32">
-        <v>18.439399999999999</v>
+        <v>21.715399999999999</v>
       </c>
       <c r="F31" s="32">
-        <v>11.2737</v>
+        <v>13.5585</v>
       </c>
       <c r="G31" s="32">
-        <v>16.0746</v>
+        <v>19.0975</v>
       </c>
       <c r="H31" s="32">
-        <v>10.9154</v>
+        <v>12.8584</v>
       </c>
       <c r="I31" s="33">
-        <v>20.892900000000001</v>
+        <v>24.705100000000002</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -14162,25 +14288,25 @@
         <v>31</v>
       </c>
       <c r="C32" s="35">
-        <v>6.4390999999999998</v>
+        <v>9.8481000000000005</v>
       </c>
       <c r="D32" s="35">
-        <v>6.2958999999999996</v>
+        <v>9.5036000000000005</v>
       </c>
       <c r="E32" s="35">
-        <v>6.1227</v>
+        <v>9.8736999999999995</v>
       </c>
       <c r="F32" s="35">
-        <v>6.7845000000000004</v>
+        <v>9.9319000000000006</v>
       </c>
       <c r="G32" s="35">
-        <v>5.9886999999999997</v>
+        <v>9.3477999999999994</v>
       </c>
       <c r="H32" s="35">
-        <v>5.3319999999999999</v>
+        <v>9.2477</v>
       </c>
       <c r="I32" s="36">
-        <v>6.31</v>
+        <v>9.6824999999999992</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">

--- a/assets/excel/IPCse - Series históricas.xlsx
+++ b/assets/excel/IPCse - Series históricas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fiona\Dropbox\MGR\IPC seasonal adjustment\IPCse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5A8D26-8C0B-4379-AE61-A8BAE428E202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A77427-01EC-4B36-AE68-2DF29E5FABDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{A81B6F3A-9175-42CA-B78F-287A4E3C6249}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="2" xr2:uid="{A81B6F3A-9175-42CA-B78F-287A4E3C6249}"/>
   </bookViews>
   <sheets>
     <sheet name="Índices" sheetId="1" r:id="rId1"/>
@@ -183,9 +183,6 @@
     <t>IPCse NACIONAL</t>
   </si>
   <si>
-    <t>Ago.</t>
-  </si>
-  <si>
     <t>Sep.</t>
   </si>
   <si>
@@ -199,6 +196,9 @@
   </si>
   <si>
     <t>Ene.</t>
+  </si>
+  <si>
+    <t>Feb.</t>
   </si>
 </sst>
 </file>
@@ -946,9 +946,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -986,7 +986,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1092,7 +1092,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1234,7 +1234,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1242,27 +1242,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA821952-0137-4F39-844C-15CA99AC928E}">
-  <dimension ref="B1:V90"/>
+  <dimension ref="B1:V91"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="78" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
-      <selection pane="bottomRight" activeCell="G81" sqref="G81"/>
+      <selection pane="bottomRight" activeCell="V71" sqref="V71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.5546875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" style="4" customWidth="1"/>
-    <col min="2" max="3" width="20.5546875" style="4" customWidth="1"/>
-    <col min="4" max="21" width="15.5546875" style="4"/>
-    <col min="22" max="22" width="20.5546875" style="4" customWidth="1"/>
-    <col min="23" max="16384" width="15.5546875" style="4"/>
+    <col min="1" max="1" width="4.5703125" style="4" customWidth="1"/>
+    <col min="2" max="3" width="20.5703125" style="4" customWidth="1"/>
+    <col min="4" max="21" width="15.5703125" style="4"/>
+    <col min="22" max="22" width="20.5703125" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="15.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="51" t="s">
         <v>10</v>
       </c>
@@ -1287,7 +1287,7 @@
       <c r="U2" s="52"/>
       <c r="V2" s="52"/>
     </row>
-    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="8" t="s">
         <v>8</v>
@@ -1318,7 +1318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
         <v>42705</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>99.977400000000003</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="13">
         <v>42736</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>101.58410000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="13">
         <v>42767</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>103.26909999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="13">
         <v>42795</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>104.8601</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="13">
         <v>42826</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>107.3261</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="13">
         <v>42856</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>109.36450000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="13">
         <v>42887</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>110.7693</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="13">
         <v>42917</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>112.8707</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="13">
         <v>42948</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>114.20829999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="13">
         <v>42979</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>115.16679999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="13">
         <v>43009</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>116.4616</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="13">
         <v>43040</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>118.2471</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="13">
         <v>43070</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>120.15</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="13">
         <v>43101</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>122.66079999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="13">
         <v>43132</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>124.86669999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="13">
         <v>43160</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>127.12269999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="13">
         <v>43191</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>129.41149999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="13">
         <v>43221</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>133.31610000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="13">
         <v>43252</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>138.48570000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="13">
         <v>43282</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>143.6498</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="13">
         <v>43313</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>148.0249</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="13">
         <v>43344</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>157.21270000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="13">
         <v>43374</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>163.8939</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="13">
         <v>43405</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>169.81559999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="13">
         <v>43435</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>173.93020000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="13">
         <v>43466</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>179.21430000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="13">
         <v>43497</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>186.506</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="13">
         <v>43525</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>194.3347</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="13">
         <v>43556</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>200.91579999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="13">
         <v>43586</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>207.03639999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="13">
         <v>43617</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>212.8476</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="13">
         <v>43647</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>218.41489999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="13">
         <v>43678</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>227.71770000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="13">
         <v>43709</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>240.4811</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="13">
         <v>43739</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>247.86199999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" s="13">
         <v>43770</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>259.3349</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="13">
         <v>43800</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>268.79329999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" s="13">
         <v>43831</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>278.7826</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" s="13">
         <v>43862</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>286.44729999999998</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44" s="13">
         <v>43891</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>293.82990000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45" s="13">
         <v>43922</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>300.18740000000003</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46" s="13">
         <v>43952</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>307.81490000000002</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47" s="13">
         <v>43983</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>316.56420000000003</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B48" s="13">
         <v>44013</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>324.54230000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B49" s="13">
         <v>44044</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>333.78789999999998</v>
       </c>
     </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B50" s="13">
         <v>44075</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>340.72519999999997</v>
       </c>
     </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B51" s="13">
         <v>44105</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>353.69189999999998</v>
       </c>
     </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B52" s="13">
         <v>44136</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>367.19499999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B53" s="13">
         <v>44166</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>383.58569999999997</v>
       </c>
     </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B54" s="13">
         <v>44197</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>400.52280000000002</v>
       </c>
     </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B55" s="13">
         <v>44228</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>416.6268</v>
       </c>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B56" s="13">
         <v>44256</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>434.39139999999998</v>
       </c>
     </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B57" s="13">
         <v>44287</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>451.8818</v>
       </c>
     </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B58" s="13">
         <v>44317</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>467.42290000000003</v>
       </c>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B59" s="13">
         <v>44348</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>483.03149999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B60" s="13">
         <v>44378</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>499.71620000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B61" s="13">
         <v>44409</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>511.17930000000001</v>
       </c>
     </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B62" s="13">
         <v>44440</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>525.85019999999997</v>
       </c>
     </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B63" s="13">
         <v>44470</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>542.82629999999995</v>
       </c>
     </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B64" s="13">
         <v>44501</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>560.64739999999995</v>
       </c>
     </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B65" s="13">
         <v>44531</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>587.63199999999995</v>
       </c>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B66" s="13">
         <v>44562</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>614.96839999999997</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B67" s="13">
         <v>44593</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>648.68989999999997</v>
       </c>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B68" s="13">
         <v>44621</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>686.36180000000002</v>
       </c>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B69" s="13">
         <v>44652</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>729.43140000000005</v>
       </c>
     </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B70" s="13">
         <v>44682</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>770.00469999999996</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B71" s="13">
         <v>44713</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>811.8424</v>
       </c>
     </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B72" s="13">
         <v>44743</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>880.58450000000005</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B73" s="13">
         <v>44774</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>944.6404</v>
       </c>
     </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B74" s="13">
         <v>44805</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>1001.7683</v>
       </c>
     </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B75" s="13">
         <v>44835</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>1059.6804</v>
       </c>
     </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B76" s="13">
         <v>44866</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>1113.1264000000001</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B77" s="13">
         <v>44896</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>1173.7402999999999</v>
       </c>
     </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B78" s="13">
         <v>44927</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>1250.2503999999999</v>
       </c>
     </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B79" s="13">
         <v>44958</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>1345.6905999999999</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B80" s="13">
         <v>44986</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>1441.3485000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B81" s="13">
         <v>45017</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>1572.9845</v>
       </c>
     </row>
-    <row r="82" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B82" s="13">
         <v>45047</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>1696.7299</v>
       </c>
     </row>
-    <row r="83" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B83" s="13">
         <v>45078</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>1788.9819</v>
       </c>
     </row>
-    <row r="84" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B84" s="13">
         <v>45108</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>1904.9344000000001</v>
       </c>
     </row>
-    <row r="85" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B85" s="13">
         <v>45139</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>2149.5119</v>
       </c>
     </row>
-    <row r="86" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B86" s="13">
         <v>45170</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>2433.0675999999999</v>
       </c>
     </row>
-    <row r="87" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B87" s="13">
         <v>45200</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>2637.0823</v>
       </c>
     </row>
-    <row r="88" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B88" s="13">
         <v>45231</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>3008.4508000000001</v>
       </c>
     </row>
-    <row r="89" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B89" s="13">
         <v>45261</v>
       </c>
@@ -6908,69 +6908,134 @@
         <v>3793.6828</v>
       </c>
     </row>
-    <row r="90" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="14">
+    <row r="90" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B90" s="13">
         <v>45292</v>
       </c>
-      <c r="C90" s="18">
-        <v>4287.1995999999999</v>
-      </c>
-      <c r="D90" s="19">
-        <v>4163.9359999999997</v>
-      </c>
-      <c r="E90" s="19">
+      <c r="C90" s="15">
+        <v>4281.2561999999998</v>
+      </c>
+      <c r="D90" s="16">
+        <v>4150.8319000000001</v>
+      </c>
+      <c r="E90" s="16">
         <v>4354.7938000000004</v>
       </c>
-      <c r="F90" s="19">
+      <c r="F90" s="16">
         <v>4424.0164000000004</v>
       </c>
-      <c r="G90" s="19">
+      <c r="G90" s="16">
         <v>4534.5743000000002</v>
       </c>
-      <c r="H90" s="19">
+      <c r="H90" s="16">
         <v>4418.3724000000002</v>
       </c>
-      <c r="I90" s="20">
+      <c r="I90" s="17">
         <v>4276.7371999999996</v>
       </c>
-      <c r="J90" s="19">
-        <v>5023.7344999999996</v>
-      </c>
-      <c r="K90" s="19">
-        <v>3200.3993</v>
-      </c>
-      <c r="L90" s="19">
-        <v>4294.4345000000003</v>
-      </c>
-      <c r="M90" s="19">
+      <c r="J90" s="16">
+        <v>5036.3986000000004</v>
+      </c>
+      <c r="K90" s="16">
+        <v>3187.7208000000001</v>
+      </c>
+      <c r="L90" s="16">
+        <v>4242.018</v>
+      </c>
+      <c r="M90" s="16">
         <v>2446.8928999999998</v>
       </c>
-      <c r="N90" s="19">
-        <v>4679.0554000000002</v>
-      </c>
-      <c r="O90" s="19">
+      <c r="N90" s="16">
+        <v>4669.6183000000001</v>
+      </c>
+      <c r="O90" s="16">
         <v>4866.1273000000001</v>
       </c>
-      <c r="P90" s="19">
+      <c r="P90" s="16">
         <v>4329.2476999999999</v>
       </c>
-      <c r="Q90" s="19">
+      <c r="Q90" s="16">
         <v>2971.5234999999998</v>
       </c>
-      <c r="R90" s="19">
-        <v>4123.1274000000003</v>
-      </c>
-      <c r="S90" s="19">
-        <v>2380.8099000000002</v>
-      </c>
-      <c r="T90" s="19">
+      <c r="R90" s="16">
+        <v>4087.7012</v>
+      </c>
+      <c r="S90" s="16">
+        <v>2356.8762999999999</v>
+      </c>
+      <c r="T90" s="16">
         <v>4575.0473000000002</v>
       </c>
-      <c r="U90" s="20">
+      <c r="U90" s="17">
         <v>4368.9291000000003</v>
       </c>
-      <c r="V90" s="18">
-        <v>4590.5754999999999</v>
+      <c r="V90" s="15">
+        <v>4582.4724999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="14">
+        <v>45323</v>
+      </c>
+      <c r="C91" s="18">
+        <v>4854.9778999999999</v>
+      </c>
+      <c r="D91" s="19">
+        <v>4785.3263999999999</v>
+      </c>
+      <c r="E91" s="19">
+        <v>4875.2331000000004</v>
+      </c>
+      <c r="F91" s="19">
+        <v>4944.5020999999997</v>
+      </c>
+      <c r="G91" s="19">
+        <v>5031.7408999999998</v>
+      </c>
+      <c r="H91" s="19">
+        <v>5011.6661999999997</v>
+      </c>
+      <c r="I91" s="20">
+        <v>4770.6688000000004</v>
+      </c>
+      <c r="J91" s="19">
+        <v>5609.5020999999997</v>
+      </c>
+      <c r="K91" s="19">
+        <v>3780.8941</v>
+      </c>
+      <c r="L91" s="19">
+        <v>4646.7992999999997</v>
+      </c>
+      <c r="M91" s="19">
+        <v>2938.6779999999999</v>
+      </c>
+      <c r="N91" s="19">
+        <v>5163.9534999999996</v>
+      </c>
+      <c r="O91" s="19">
+        <v>5526.6202000000003</v>
+      </c>
+      <c r="P91" s="19">
+        <v>5251.9141</v>
+      </c>
+      <c r="Q91" s="19">
+        <v>3706.7606000000001</v>
+      </c>
+      <c r="R91" s="19">
+        <v>4477.9741000000004</v>
+      </c>
+      <c r="S91" s="19">
+        <v>2621.6815999999999</v>
+      </c>
+      <c r="T91" s="19">
+        <v>5084.1913999999997</v>
+      </c>
+      <c r="U91" s="20">
+        <v>5095.6226999999999</v>
+      </c>
+      <c r="V91" s="18">
+        <v>5099.6557000000003</v>
       </c>
     </row>
   </sheetData>
@@ -6986,27 +7051,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED968B30-91AE-4BCD-9838-818BA334E48C}">
-  <dimension ref="B1:V90"/>
+  <dimension ref="B1:V91"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="64" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="83" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
-      <selection pane="bottomRight" activeCell="D92" sqref="D92"/>
+      <selection pane="bottomRight" activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.5546875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" style="4" customWidth="1"/>
-    <col min="2" max="3" width="20.5546875" style="4" customWidth="1"/>
-    <col min="4" max="21" width="15.5546875" style="4"/>
-    <col min="22" max="22" width="20.5546875" style="4" customWidth="1"/>
-    <col min="23" max="16384" width="15.5546875" style="4"/>
+    <col min="1" max="1" width="4.5703125" style="4" customWidth="1"/>
+    <col min="2" max="3" width="20.5703125" style="4" customWidth="1"/>
+    <col min="4" max="21" width="15.5703125" style="4"/>
+    <col min="22" max="22" width="20.5703125" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="15.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="51" t="s">
         <v>11</v>
       </c>
@@ -7031,7 +7096,7 @@
       <c r="U2" s="52"/>
       <c r="V2" s="52"/>
     </row>
-    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="8" t="s">
         <v>8</v>
@@ -7062,7 +7127,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
@@ -7127,7 +7192,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
         <v>42705</v>
       </c>
@@ -7152,7 +7217,7 @@
       <c r="U5" s="12"/>
       <c r="V5" s="10"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="13">
         <v>42736</v>
       </c>
@@ -7217,7 +7282,7 @@
         <v>1.6071</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="13">
         <v>42767</v>
       </c>
@@ -7282,7 +7347,7 @@
         <v>1.6587000000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="13">
         <v>42795</v>
       </c>
@@ -7347,7 +7412,7 @@
         <v>1.5406</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="13">
         <v>42826</v>
       </c>
@@ -7412,7 +7477,7 @@
         <v>2.3517000000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="13">
         <v>42856</v>
       </c>
@@ -7477,7 +7542,7 @@
         <v>1.8993</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="13">
         <v>42887</v>
       </c>
@@ -7542,7 +7607,7 @@
         <v>1.2845</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="13">
         <v>42917</v>
       </c>
@@ -7607,7 +7672,7 @@
         <v>1.8971</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="13">
         <v>42948</v>
       </c>
@@ -7672,7 +7737,7 @@
         <v>1.1851</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="13">
         <v>42979</v>
       </c>
@@ -7737,7 +7802,7 @@
         <v>0.83930000000000005</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="13">
         <v>43009</v>
       </c>
@@ -7802,7 +7867,7 @@
         <v>1.1243000000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="13">
         <v>43040</v>
       </c>
@@ -7867,7 +7932,7 @@
         <v>1.5330999999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="13">
         <v>43070</v>
       </c>
@@ -7932,7 +7997,7 @@
         <v>1.6093</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="13">
         <v>43101</v>
       </c>
@@ -7997,7 +8062,7 @@
         <v>2.0897000000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="13">
         <v>43132</v>
       </c>
@@ -8062,7 +8127,7 @@
         <v>1.7984</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="13">
         <v>43160</v>
       </c>
@@ -8127,7 +8192,7 @@
         <v>1.8067</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="13">
         <v>43191</v>
       </c>
@@ -8192,7 +8257,7 @@
         <v>1.8005</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="13">
         <v>43221</v>
       </c>
@@ -8257,7 +8322,7 @@
         <v>3.0171999999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="13">
         <v>43252</v>
       </c>
@@ -8322,7 +8387,7 @@
         <v>3.8776999999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="13">
         <v>43282</v>
       </c>
@@ -8387,7 +8452,7 @@
         <v>3.7290000000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="13">
         <v>43313</v>
       </c>
@@ -8452,7 +8517,7 @@
         <v>3.0457000000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="13">
         <v>43344</v>
       </c>
@@ -8517,7 +8582,7 @@
         <v>6.2069000000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="13">
         <v>43374</v>
       </c>
@@ -8582,7 +8647,7 @@
         <v>4.2497999999999996</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="13">
         <v>43405</v>
       </c>
@@ -8647,7 +8712,7 @@
         <v>3.6131000000000002</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="13">
         <v>43435</v>
       </c>
@@ -8712,7 +8777,7 @@
         <v>2.423</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="13">
         <v>43466</v>
       </c>
@@ -8777,7 +8842,7 @@
         <v>3.0381</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="13">
         <v>43497</v>
       </c>
@@ -8842,7 +8907,7 @@
         <v>4.0686999999999998</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="13">
         <v>43525</v>
       </c>
@@ -8907,7 +8972,7 @@
         <v>4.1976000000000004</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="13">
         <v>43556</v>
       </c>
@@ -8972,7 +9037,7 @@
         <v>3.3864999999999998</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="13">
         <v>43586</v>
       </c>
@@ -9037,7 +9102,7 @@
         <v>3.0464000000000002</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="13">
         <v>43617</v>
       </c>
@@ -9102,7 +9167,7 @@
         <v>2.8068</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="13">
         <v>43647</v>
       </c>
@@ -9167,7 +9232,7 @@
         <v>2.6156000000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="13">
         <v>43678</v>
       </c>
@@ -9232,7 +9297,7 @@
         <v>4.2591999999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="13">
         <v>43709</v>
       </c>
@@ -9297,7 +9362,7 @@
         <v>5.6048999999999998</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="13">
         <v>43739</v>
       </c>
@@ -9362,7 +9427,7 @@
         <v>3.0691999999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" s="13">
         <v>43770</v>
       </c>
@@ -9427,7 +9492,7 @@
         <v>4.6287000000000003</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="13">
         <v>43800</v>
       </c>
@@ -9492,7 +9557,7 @@
         <v>3.6472000000000002</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" s="13">
         <v>43831</v>
       </c>
@@ -9557,7 +9622,7 @@
         <v>3.7164000000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" s="13">
         <v>43862</v>
       </c>
@@ -9622,7 +9687,7 @@
         <v>2.7492999999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44" s="13">
         <v>43891</v>
       </c>
@@ -9687,7 +9752,7 @@
         <v>2.5773000000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45" s="13">
         <v>43922</v>
       </c>
@@ -9752,7 +9817,7 @@
         <v>2.1637</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46" s="13">
         <v>43952</v>
       </c>
@@ -9817,7 +9882,7 @@
         <v>2.5409000000000002</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47" s="13">
         <v>43983</v>
       </c>
@@ -9882,7 +9947,7 @@
         <v>2.8424</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B48" s="13">
         <v>44013</v>
       </c>
@@ -9947,7 +10012,7 @@
         <v>2.5202</v>
       </c>
     </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B49" s="13">
         <v>44044</v>
       </c>
@@ -10012,7 +10077,7 @@
         <v>2.8488000000000002</v>
       </c>
     </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B50" s="13">
         <v>44075</v>
       </c>
@@ -10077,7 +10142,7 @@
         <v>2.0783999999999998</v>
       </c>
     </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B51" s="13">
         <v>44105</v>
       </c>
@@ -10142,7 +10207,7 @@
         <v>3.8056000000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B52" s="13">
         <v>44136</v>
       </c>
@@ -10207,7 +10272,7 @@
         <v>3.8178000000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B53" s="13">
         <v>44166</v>
       </c>
@@ -10272,7 +10337,7 @@
         <v>4.4638</v>
       </c>
     </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B54" s="13">
         <v>44197</v>
       </c>
@@ -10337,7 +10402,7 @@
         <v>4.4154999999999998</v>
       </c>
     </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B55" s="13">
         <v>44228</v>
       </c>
@@ -10402,7 +10467,7 @@
         <v>4.0206999999999997</v>
       </c>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B56" s="13">
         <v>44256</v>
       </c>
@@ -10467,7 +10532,7 @@
         <v>4.2638999999999996</v>
       </c>
     </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B57" s="13">
         <v>44287</v>
       </c>
@@ -10532,7 +10597,7 @@
         <v>4.0263999999999998</v>
       </c>
     </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B58" s="13">
         <v>44317</v>
       </c>
@@ -10597,7 +10662,7 @@
         <v>3.4392</v>
       </c>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B59" s="13">
         <v>44348</v>
       </c>
@@ -10662,7 +10727,7 @@
         <v>3.3393000000000002</v>
       </c>
     </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B60" s="13">
         <v>44378</v>
       </c>
@@ -10727,7 +10792,7 @@
         <v>3.4542000000000002</v>
       </c>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B61" s="13">
         <v>44409</v>
       </c>
@@ -10792,7 +10857,7 @@
         <v>2.2938999999999998</v>
       </c>
     </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B62" s="13">
         <v>44440</v>
       </c>
@@ -10857,7 +10922,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B63" s="13">
         <v>44470</v>
       </c>
@@ -10922,7 +10987,7 @@
         <v>3.2282999999999999</v>
       </c>
     </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B64" s="13">
         <v>44501</v>
       </c>
@@ -10987,7 +11052,7 @@
         <v>3.2829999999999999</v>
       </c>
     </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B65" s="13">
         <v>44531</v>
       </c>
@@ -11052,7 +11117,7 @@
         <v>4.8131000000000004</v>
       </c>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B66" s="13">
         <v>44562</v>
       </c>
@@ -11117,7 +11182,7 @@
         <v>4.6520000000000001</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B67" s="13">
         <v>44593</v>
       </c>
@@ -11182,7 +11247,7 @@
         <v>5.4835000000000003</v>
       </c>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B68" s="13">
         <v>44621</v>
       </c>
@@ -11247,7 +11312,7 @@
         <v>5.8074000000000003</v>
       </c>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B69" s="13">
         <v>44652</v>
       </c>
@@ -11312,7 +11377,7 @@
         <v>6.2751000000000001</v>
       </c>
     </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B70" s="13">
         <v>44682</v>
       </c>
@@ -11377,7 +11442,7 @@
         <v>5.5622999999999996</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B71" s="13">
         <v>44713</v>
       </c>
@@ -11442,7 +11507,7 @@
         <v>5.4333999999999998</v>
       </c>
     </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B72" s="13">
         <v>44743</v>
       </c>
@@ -11507,7 +11572,7 @@
         <v>8.4673999999999996</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B73" s="13">
         <v>44774</v>
       </c>
@@ -11572,7 +11637,7 @@
         <v>7.2742000000000004</v>
       </c>
     </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B74" s="13">
         <v>44805</v>
       </c>
@@ -11637,7 +11702,7 @@
         <v>6.0476000000000001</v>
       </c>
     </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B75" s="13">
         <v>44835</v>
       </c>
@@ -11702,7 +11767,7 @@
         <v>5.7809999999999997</v>
       </c>
     </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B76" s="13">
         <v>44866</v>
       </c>
@@ -11767,7 +11832,7 @@
         <v>5.0435999999999996</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B77" s="13">
         <v>44896</v>
       </c>
@@ -11832,7 +11897,7 @@
         <v>5.4454000000000002</v>
       </c>
     </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B78" s="13">
         <v>44927</v>
       </c>
@@ -11897,7 +11962,7 @@
         <v>6.5185000000000004</v>
       </c>
     </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B79" s="13">
         <v>44958</v>
       </c>
@@ -11962,7 +12027,7 @@
         <v>7.6337000000000002</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B80" s="13">
         <v>44986</v>
       </c>
@@ -12027,7 +12092,7 @@
         <v>7.1085000000000003</v>
       </c>
     </row>
-    <row r="81" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B81" s="13">
         <v>45017</v>
       </c>
@@ -12092,7 +12157,7 @@
         <v>9.1327999999999996</v>
       </c>
     </row>
-    <row r="82" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B82" s="13">
         <v>45047</v>
       </c>
@@ -12157,7 +12222,7 @@
         <v>7.8669000000000002</v>
       </c>
     </row>
-    <row r="83" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B83" s="13">
         <v>45078</v>
       </c>
@@ -12222,7 +12287,7 @@
         <v>5.4370000000000003</v>
       </c>
     </row>
-    <row r="84" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B84" s="13">
         <v>45108</v>
       </c>
@@ -12287,7 +12352,7 @@
         <v>6.4814999999999996</v>
       </c>
     </row>
-    <row r="85" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B85" s="13">
         <v>45139</v>
       </c>
@@ -12352,7 +12417,7 @@
         <v>12.8392</v>
       </c>
     </row>
-    <row r="86" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B86" s="13">
         <v>45170</v>
       </c>
@@ -12417,7 +12482,7 @@
         <v>13.191599999999999</v>
       </c>
     </row>
-    <row r="87" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B87" s="13">
         <v>45200</v>
       </c>
@@ -12482,7 +12547,7 @@
         <v>8.3850999999999996</v>
       </c>
     </row>
-    <row r="88" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B88" s="13">
         <v>45231</v>
       </c>
@@ -12547,7 +12612,7 @@
         <v>14.082599999999999</v>
       </c>
     </row>
-    <row r="89" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B89" s="13">
         <v>45261</v>
       </c>
@@ -12612,69 +12677,134 @@
         <v>26.100899999999999</v>
       </c>
     </row>
-    <row r="90" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="14">
+    <row r="90" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B90" s="13">
         <v>45292</v>
       </c>
-      <c r="C90" s="18">
-        <v>20.9055</v>
-      </c>
-      <c r="D90" s="19">
-        <v>19.8644</v>
-      </c>
-      <c r="E90" s="19">
+      <c r="C90" s="15">
+        <v>20.7379</v>
+      </c>
+      <c r="D90" s="16">
+        <v>19.487200000000001</v>
+      </c>
+      <c r="E90" s="16">
         <v>21.381399999999999</v>
       </c>
-      <c r="F90" s="19">
+      <c r="F90" s="16">
         <v>21.819099999999999</v>
       </c>
-      <c r="G90" s="19">
+      <c r="G90" s="16">
         <v>19.981400000000001</v>
       </c>
-      <c r="H90" s="19">
+      <c r="H90" s="16">
         <v>22.540900000000001</v>
       </c>
-      <c r="I90" s="20">
+      <c r="I90" s="17">
         <v>24.8538</v>
       </c>
-      <c r="J90" s="19">
-        <v>19.996099999999998</v>
-      </c>
-      <c r="K90" s="19">
-        <v>21.530899999999999</v>
-      </c>
-      <c r="L90" s="19">
-        <v>14.7935</v>
-      </c>
-      <c r="M90" s="19">
+      <c r="J90" s="16">
+        <v>20.2986</v>
+      </c>
+      <c r="K90" s="16">
+        <v>21.049499999999998</v>
+      </c>
+      <c r="L90" s="16">
+        <v>13.392300000000001</v>
+      </c>
+      <c r="M90" s="16">
         <v>14.2447</v>
       </c>
-      <c r="N90" s="19">
-        <v>22.685600000000001</v>
-      </c>
-      <c r="O90" s="19">
+      <c r="N90" s="16">
+        <v>22.438099999999999</v>
+      </c>
+      <c r="O90" s="16">
         <v>20.499500000000001</v>
       </c>
-      <c r="P90" s="19">
+      <c r="P90" s="16">
         <v>26.314499999999999</v>
       </c>
-      <c r="Q90" s="19">
+      <c r="Q90" s="16">
         <v>23.994299999999999</v>
       </c>
-      <c r="R90" s="19">
-        <v>25.100899999999999</v>
-      </c>
-      <c r="S90" s="19">
-        <v>3.3984999999999999</v>
-      </c>
-      <c r="T90" s="19">
+      <c r="R90" s="16">
+        <v>24.026</v>
+      </c>
+      <c r="S90" s="16">
+        <v>2.3591000000000002</v>
+      </c>
+      <c r="T90" s="16">
         <v>19.302700000000002</v>
       </c>
-      <c r="U90" s="20">
+      <c r="U90" s="17">
         <v>44.463900000000002</v>
       </c>
-      <c r="V90" s="18">
-        <v>21.005800000000001</v>
+      <c r="V90" s="15">
+        <v>20.792200000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="14">
+        <v>45323</v>
+      </c>
+      <c r="C91" s="18">
+        <v>13.4008</v>
+      </c>
+      <c r="D91" s="19">
+        <v>15.286</v>
+      </c>
+      <c r="E91" s="19">
+        <v>11.951000000000001</v>
+      </c>
+      <c r="F91" s="19">
+        <v>11.765000000000001</v>
+      </c>
+      <c r="G91" s="19">
+        <v>10.963900000000001</v>
+      </c>
+      <c r="H91" s="19">
+        <v>13.427899999999999</v>
+      </c>
+      <c r="I91" s="20">
+        <v>11.549300000000001</v>
+      </c>
+      <c r="J91" s="19">
+        <v>11.379200000000001</v>
+      </c>
+      <c r="K91" s="19">
+        <v>18.6081</v>
+      </c>
+      <c r="L91" s="19">
+        <v>9.5421999999999993</v>
+      </c>
+      <c r="M91" s="19">
+        <v>20.098400000000002</v>
+      </c>
+      <c r="N91" s="19">
+        <v>10.5862</v>
+      </c>
+      <c r="O91" s="19">
+        <v>13.5733</v>
+      </c>
+      <c r="P91" s="19">
+        <v>21.3124</v>
+      </c>
+      <c r="Q91" s="19">
+        <v>24.742799999999999</v>
+      </c>
+      <c r="R91" s="19">
+        <v>9.5474999999999994</v>
+      </c>
+      <c r="S91" s="19">
+        <v>11.2354</v>
+      </c>
+      <c r="T91" s="19">
+        <v>11.1287</v>
+      </c>
+      <c r="U91" s="20">
+        <v>16.633199999999999</v>
+      </c>
+      <c r="V91" s="18">
+        <v>11.286099999999999</v>
       </c>
     </row>
   </sheetData>
@@ -12692,17 +12822,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83293D6D-81C8-49B2-8C10-806B04E884B0}">
   <dimension ref="B1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="116" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="50.5546875" customWidth="1"/>
-    <col min="3" max="8" width="11.5546875" customWidth="1"/>
-    <col min="9" max="9" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" customWidth="1"/>
+    <col min="3" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="54" t="s">
         <v>13</v>
       </c>
@@ -12714,7 +12846,7 @@
       <c r="H2" s="55"/>
       <c r="I2" s="56"/>
     </row>
-    <row r="3" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="22" t="s">
         <v>14</v>
       </c>
@@ -12730,7 +12862,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="22" t="s">
         <v>17</v>
       </c>
@@ -12744,10 +12876,10 @@
       <c r="H4" s="64"/>
       <c r="I4" s="23" t="str">
         <f>+_xlfn.CONCAT(H5, " ", C4, "/", H5, " ", C4-1)</f>
-        <v>Ene. 2023/Ene. 2022</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+        <v>Feb. 2023/Feb. 2022</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="24"/>
       <c r="C5" s="25" t="s">
         <v>40</v>
@@ -12769,33 +12901,33 @@
       </c>
       <c r="I5" s="47"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="27">
-        <v>12.2477</v>
+        <v>12.1486</v>
       </c>
       <c r="D6" s="27">
-        <v>12.1486</v>
+        <v>8.0029000000000003</v>
       </c>
       <c r="E6" s="27">
-        <v>8.0029000000000003</v>
+        <v>13.3675</v>
       </c>
       <c r="F6" s="27">
-        <v>13.3675</v>
+        <v>25.981400000000001</v>
       </c>
       <c r="G6" s="27">
-        <v>25.981400000000001</v>
+        <v>20.7379</v>
       </c>
       <c r="H6" s="27">
-        <v>20.9055</v>
+        <v>13.4008</v>
       </c>
       <c r="I6" s="28">
-        <v>254.2483</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>276.21839999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="58" t="s">
         <v>7</v>
       </c>
@@ -12807,163 +12939,163 @@
       <c r="H7" s="59"/>
       <c r="I7" s="60"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="31" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="32">
-        <v>12.108499999999999</v>
+        <v>11.458</v>
       </c>
       <c r="D8" s="32">
-        <v>11.458</v>
+        <v>8.2349999999999994</v>
       </c>
       <c r="E8" s="32">
-        <v>8.2349999999999994</v>
+        <v>13.661199999999999</v>
       </c>
       <c r="F8" s="32">
-        <v>13.661199999999999</v>
+        <v>25.939699999999998</v>
       </c>
       <c r="G8" s="32">
-        <v>25.939699999999998</v>
+        <v>19.487200000000001</v>
       </c>
       <c r="H8" s="32">
-        <v>19.8644</v>
+        <v>15.286</v>
       </c>
       <c r="I8" s="33">
-        <v>249.92330000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+        <v>277.08659999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="32">
-        <v>12.2349</v>
+        <v>12.5983</v>
       </c>
       <c r="D9" s="32">
-        <v>12.5983</v>
+        <v>7.9866999999999999</v>
       </c>
       <c r="E9" s="32">
-        <v>7.9866999999999999</v>
+        <v>13.3454</v>
       </c>
       <c r="F9" s="32">
-        <v>13.3454</v>
+        <v>25.8706</v>
       </c>
       <c r="G9" s="32">
-        <v>25.8706</v>
+        <v>21.381399999999999</v>
       </c>
       <c r="H9" s="32">
-        <v>21.381399999999999</v>
+        <v>11.950900000000001</v>
       </c>
       <c r="I9" s="33">
-        <v>257.47030000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+        <v>276.08699999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="31" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="32">
-        <v>13.420500000000001</v>
+        <v>12.7674</v>
       </c>
       <c r="D10" s="32">
-        <v>12.7674</v>
+        <v>7.4473000000000003</v>
       </c>
       <c r="E10" s="32">
-        <v>7.4473000000000003</v>
+        <v>12.2658</v>
       </c>
       <c r="F10" s="32">
-        <v>12.2658</v>
+        <v>25.432500000000001</v>
       </c>
       <c r="G10" s="32">
-        <v>25.432500000000001</v>
+        <v>21.819099999999999</v>
       </c>
       <c r="H10" s="32">
-        <v>21.819099999999999</v>
+        <v>11.765000000000001</v>
       </c>
       <c r="I10" s="33">
-        <v>257.66899999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+        <v>272.33640000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="32">
-        <v>13.8238</v>
+        <v>12.4107</v>
       </c>
       <c r="D11" s="32">
-        <v>12.4107</v>
+        <v>7.0147000000000004</v>
       </c>
       <c r="E11" s="32">
-        <v>7.0147000000000004</v>
+        <v>13.189500000000001</v>
       </c>
       <c r="F11" s="32">
-        <v>13.189500000000001</v>
+        <v>28.0672</v>
       </c>
       <c r="G11" s="32">
-        <v>28.0672</v>
+        <v>19.981400000000001</v>
       </c>
       <c r="H11" s="32">
-        <v>19.981400000000001</v>
+        <v>10.963900000000001</v>
       </c>
       <c r="I11" s="33">
-        <v>261.37799999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+        <v>271.88929999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="32">
-        <v>12.3004</v>
+        <v>13.1142</v>
       </c>
       <c r="D12" s="32">
-        <v>13.1142</v>
+        <v>7.3333000000000004</v>
       </c>
       <c r="E12" s="32">
-        <v>7.3333000000000004</v>
+        <v>13.1684</v>
       </c>
       <c r="F12" s="32">
-        <v>13.1684</v>
+        <v>26.057700000000001</v>
       </c>
       <c r="G12" s="32">
-        <v>26.057700000000001</v>
+        <v>22.540900000000001</v>
       </c>
       <c r="H12" s="32">
-        <v>22.540900000000001</v>
+        <v>13.427899999999999</v>
       </c>
       <c r="I12" s="33">
-        <v>253.2628</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+        <v>275.81700000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="32">
-        <v>11.8202</v>
+        <v>13.477600000000001</v>
       </c>
       <c r="D13" s="32">
-        <v>13.477600000000001</v>
+        <v>7.7610999999999999</v>
       </c>
       <c r="E13" s="32">
-        <v>7.7610999999999999</v>
+        <v>12.2498</v>
       </c>
       <c r="F13" s="32">
-        <v>12.2498</v>
+        <v>24.6936</v>
       </c>
       <c r="G13" s="32">
-        <v>24.6936</v>
+        <v>24.8538</v>
       </c>
       <c r="H13" s="32">
-        <v>24.8538</v>
+        <v>11.549300000000001</v>
       </c>
       <c r="I13" s="33">
-        <v>260.90499999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+        <v>279.8526</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="31"/>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
@@ -12973,7 +13105,7 @@
       <c r="H14" s="32"/>
       <c r="I14" s="33"/>
     </row>
-    <row r="15" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="61" t="s">
         <v>9</v>
       </c>
@@ -12985,319 +13117,319 @@
       <c r="H15" s="62"/>
       <c r="I15" s="63"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="31" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="32">
-        <v>15.3765</v>
+        <v>13.5906</v>
       </c>
       <c r="D16" s="32">
-        <v>13.5906</v>
+        <v>6.9745999999999997</v>
       </c>
       <c r="E16" s="32">
-        <v>6.9745999999999997</v>
+        <v>16.734400000000001</v>
       </c>
       <c r="F16" s="32">
-        <v>16.734400000000001</v>
+        <v>29.6767</v>
       </c>
       <c r="G16" s="32">
-        <v>29.6767</v>
+        <v>20.2986</v>
       </c>
       <c r="H16" s="32">
-        <v>19.996099999999998</v>
+        <v>11.379200000000001</v>
       </c>
       <c r="I16" s="33">
-        <v>296.18490000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+        <v>303.82339999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="32">
-        <v>8.7627000000000006</v>
+        <v>9.4953000000000003</v>
       </c>
       <c r="D17" s="32">
-        <v>9.4953000000000003</v>
+        <v>9.9351000000000003</v>
       </c>
       <c r="E17" s="32">
-        <v>9.9351000000000003</v>
+        <v>11.3401</v>
       </c>
       <c r="F17" s="32">
-        <v>11.3401</v>
+        <v>20.002500000000001</v>
       </c>
       <c r="G17" s="32">
-        <v>20.002500000000001</v>
+        <v>21.049499999999998</v>
       </c>
       <c r="H17" s="32">
-        <v>21.530999999999999</v>
+        <v>18.6081</v>
       </c>
       <c r="I17" s="33">
-        <v>215.86170000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+        <v>253.21119999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="31" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="32">
-        <v>8.8907000000000007</v>
+        <v>12.605700000000001</v>
       </c>
       <c r="D18" s="32">
-        <v>12.605700000000001</v>
+        <v>10.352499999999999</v>
       </c>
       <c r="E18" s="32">
-        <v>10.352499999999999</v>
+        <v>11.342000000000001</v>
       </c>
       <c r="F18" s="32">
-        <v>11.342000000000001</v>
+        <v>20.7287</v>
       </c>
       <c r="G18" s="32">
-        <v>20.7287</v>
+        <v>13.392300000000001</v>
       </c>
       <c r="H18" s="32">
-        <v>14.7935</v>
+        <v>9.5421999999999993</v>
       </c>
       <c r="I18" s="33">
-        <v>194.81479999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+        <v>204.21039999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="31" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="32">
-        <v>9.0033999999999992</v>
+        <v>8.5284999999999993</v>
       </c>
       <c r="D19" s="32">
-        <v>8.5284999999999993</v>
+        <v>7.7514000000000003</v>
       </c>
       <c r="E19" s="32">
-        <v>7.7514000000000003</v>
+        <v>7.1440999999999999</v>
       </c>
       <c r="F19" s="32">
-        <v>7.1440999999999999</v>
+        <v>13.781599999999999</v>
       </c>
       <c r="G19" s="32">
-        <v>13.781599999999999</v>
+        <v>14.2448</v>
       </c>
       <c r="H19" s="32">
-        <v>14.2448</v>
+        <v>20.098299999999998</v>
       </c>
       <c r="I19" s="33">
-        <v>162.80109999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+        <v>201.46</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="31" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="32">
-        <v>13.803900000000001</v>
+        <v>11.9559</v>
       </c>
       <c r="D20" s="32">
-        <v>11.9559</v>
+        <v>10.5718</v>
       </c>
       <c r="E20" s="32">
-        <v>10.5718</v>
+        <v>12.776300000000001</v>
       </c>
       <c r="F20" s="32">
-        <v>12.776300000000001</v>
+        <v>31.744900000000001</v>
       </c>
       <c r="G20" s="32">
-        <v>31.744900000000001</v>
+        <v>22.438099999999999</v>
       </c>
       <c r="H20" s="32">
-        <v>22.685600000000001</v>
+        <v>10.5862</v>
       </c>
       <c r="I20" s="33">
-        <v>284.96820000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+        <v>304.28859999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="31" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="32">
-        <v>15.2255</v>
+        <v>9.5385000000000009</v>
       </c>
       <c r="D21" s="32">
-        <v>9.5385000000000009</v>
+        <v>5.0633999999999997</v>
       </c>
       <c r="E21" s="32">
-        <v>5.0633999999999997</v>
+        <v>15.853400000000001</v>
       </c>
       <c r="F21" s="32">
-        <v>15.853400000000001</v>
+        <v>32.622999999999998</v>
       </c>
       <c r="G21" s="32">
-        <v>32.622999999999998</v>
+        <v>20.499500000000001</v>
       </c>
       <c r="H21" s="32">
-        <v>20.499500000000001</v>
+        <v>13.5733</v>
       </c>
       <c r="I21" s="33">
-        <v>276.34800000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+        <v>305.83780000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="31" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="32">
-        <v>10.4903</v>
+        <v>10.8613</v>
       </c>
       <c r="D22" s="32">
-        <v>10.8613</v>
+        <v>7.1205999999999996</v>
       </c>
       <c r="E22" s="32">
-        <v>7.1205999999999996</v>
+        <v>10.409599999999999</v>
       </c>
       <c r="F22" s="32">
-        <v>10.409599999999999</v>
+        <v>31.6769</v>
       </c>
       <c r="G22" s="32">
-        <v>31.6769</v>
+        <v>26.314499999999999</v>
       </c>
       <c r="H22" s="32">
-        <v>26.314499999999999</v>
+        <v>21.3124</v>
       </c>
       <c r="I22" s="33">
-        <v>242.97579999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+        <v>297.77710000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="31" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="32">
-        <v>5.0385999999999997</v>
+        <v>9.7271999999999998</v>
       </c>
       <c r="D23" s="32">
-        <v>9.7271999999999998</v>
+        <v>12.3354</v>
       </c>
       <c r="E23" s="32">
-        <v>12.3354</v>
+        <v>14.9031</v>
       </c>
       <c r="F23" s="32">
-        <v>14.9031</v>
+        <v>14.953200000000001</v>
       </c>
       <c r="G23" s="32">
-        <v>14.953200000000001</v>
+        <v>23.994299999999999</v>
       </c>
       <c r="H23" s="32">
-        <v>23.994299999999999</v>
+        <v>24.742799999999999</v>
       </c>
       <c r="I23" s="33">
-        <v>231.90530000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+        <v>283.82150000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="31" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="32">
-        <v>11.049799999999999</v>
+        <v>15.172599999999999</v>
       </c>
       <c r="D24" s="32">
-        <v>15.172599999999999</v>
+        <v>8.8969000000000005</v>
       </c>
       <c r="E24" s="32">
-        <v>8.8969000000000005</v>
+        <v>13.5905</v>
       </c>
       <c r="F24" s="32">
-        <v>13.5905</v>
+        <v>20.004899999999999</v>
       </c>
       <c r="G24" s="32">
-        <v>20.004899999999999</v>
+        <v>24.026</v>
       </c>
       <c r="H24" s="32">
-        <v>25.100899999999999</v>
+        <v>9.5474999999999994</v>
       </c>
       <c r="I24" s="33">
-        <v>262.0985</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+        <v>270.3965</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="31" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="32">
-        <v>8.5923999999999996</v>
+        <v>10.257899999999999</v>
       </c>
       <c r="D25" s="32">
-        <v>10.257899999999999</v>
+        <v>7.1054000000000004</v>
       </c>
       <c r="E25" s="32">
-        <v>7.1054000000000004</v>
+        <v>10.886900000000001</v>
       </c>
       <c r="F25" s="32">
-        <v>10.886900000000001</v>
+        <v>10.581899999999999</v>
       </c>
       <c r="G25" s="32">
-        <v>10.581899999999999</v>
+        <v>2.3591000000000002</v>
       </c>
       <c r="H25" s="32">
-        <v>3.3984999999999999</v>
+        <v>11.2354</v>
       </c>
       <c r="I25" s="33">
-        <v>141.22389999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+        <v>157.08430000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="31" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="32">
-        <v>12.476100000000001</v>
+        <v>13.3192</v>
       </c>
       <c r="D26" s="32">
-        <v>13.3192</v>
+        <v>8.8308999999999997</v>
       </c>
       <c r="E26" s="32">
-        <v>8.8308999999999997</v>
+        <v>12.102499999999999</v>
       </c>
       <c r="F26" s="32">
-        <v>12.102499999999999</v>
+        <v>21.5383</v>
       </c>
       <c r="G26" s="32">
-        <v>21.5383</v>
+        <v>19.302700000000002</v>
       </c>
       <c r="H26" s="32">
-        <v>19.302700000000002</v>
+        <v>11.1287</v>
       </c>
       <c r="I26" s="33">
-        <v>258.82409999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+        <v>270.87470000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="32">
-        <v>9.2332999999999998</v>
+        <v>11.5976</v>
       </c>
       <c r="D27" s="32">
-        <v>11.5976</v>
+        <v>7.6063000000000001</v>
       </c>
       <c r="E27" s="32">
-        <v>7.6063000000000001</v>
+        <v>11.4826</v>
       </c>
       <c r="F27" s="32">
-        <v>11.4826</v>
+        <v>32.697200000000002</v>
       </c>
       <c r="G27" s="32">
-        <v>32.697200000000002</v>
+        <v>44.463900000000002</v>
       </c>
       <c r="H27" s="32">
-        <v>44.463900000000002</v>
+        <v>16.633199999999999</v>
       </c>
       <c r="I27" s="33">
-        <v>311.40839999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+        <v>350.42779999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="31"/>
       <c r="C28" s="32"/>
       <c r="D28" s="32"/>
@@ -13307,7 +13439,7 @@
       <c r="H28" s="32"/>
       <c r="I28" s="33"/>
     </row>
-    <row r="29" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="61" t="s">
         <v>32</v>
       </c>
@@ -13319,189 +13451,189 @@
       <c r="H29" s="62"/>
       <c r="I29" s="63"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="32">
-        <v>12.8392</v>
+        <v>13.191599999999999</v>
       </c>
       <c r="D30" s="32">
-        <v>13.191599999999999</v>
+        <v>8.3850999999999996</v>
       </c>
       <c r="E30" s="32">
-        <v>8.3850999999999996</v>
+        <v>14.082599999999999</v>
       </c>
       <c r="F30" s="32">
-        <v>14.082599999999999</v>
+        <v>26.100899999999999</v>
       </c>
       <c r="G30" s="32">
-        <v>26.100899999999999</v>
+        <v>20.792200000000001</v>
       </c>
       <c r="H30" s="32">
-        <v>21.005800000000001</v>
+        <v>11.286099999999999</v>
       </c>
       <c r="I30" s="33">
-        <v>266.7586</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+        <v>279.52980000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="31" t="s">
         <v>19</v>
       </c>
       <c r="C31" s="32">
-        <v>12.364000000000001</v>
+        <v>12.6919</v>
       </c>
       <c r="D31" s="32">
-        <v>12.6919</v>
+        <v>8.8498000000000001</v>
       </c>
       <c r="E31" s="32">
-        <v>8.8498000000000001</v>
+        <v>14.573700000000001</v>
       </c>
       <c r="F31" s="32">
-        <v>14.573700000000001</v>
+        <v>26.662099999999999</v>
       </c>
       <c r="G31" s="32">
-        <v>26.662099999999999</v>
+        <v>19.951899999999998</v>
       </c>
       <c r="H31" s="32">
-        <v>20.4255</v>
+        <v>11.7393</v>
       </c>
       <c r="I31" s="33">
-        <v>266.75779999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+        <v>279.73689999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="32">
-        <v>12.870200000000001</v>
+        <v>13.5204</v>
       </c>
       <c r="D32" s="32">
-        <v>13.5204</v>
+        <v>8.1297999999999995</v>
       </c>
       <c r="E32" s="32">
-        <v>8.1297999999999995</v>
+        <v>14.0298</v>
       </c>
       <c r="F32" s="32">
-        <v>14.0298</v>
+        <v>25.5184</v>
       </c>
       <c r="G32" s="32">
-        <v>25.5184</v>
+        <v>21.286100000000001</v>
       </c>
       <c r="H32" s="32">
-        <v>21.286100000000001</v>
+        <v>11.063000000000001</v>
       </c>
       <c r="I32" s="33">
-        <v>266.70920000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+        <v>280.97250000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="31" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="32">
-        <v>14.5464</v>
+        <v>13.0677</v>
       </c>
       <c r="D33" s="32">
-        <v>13.0677</v>
+        <v>7.9637000000000002</v>
       </c>
       <c r="E33" s="32">
-        <v>7.9637000000000002</v>
+        <v>12.5905</v>
       </c>
       <c r="F33" s="32">
-        <v>12.5905</v>
+        <v>25.406300000000002</v>
       </c>
       <c r="G33" s="32">
-        <v>25.406300000000002</v>
+        <v>21.453700000000001</v>
       </c>
       <c r="H33" s="32">
-        <v>21.453700000000001</v>
+        <v>10.1144</v>
       </c>
       <c r="I33" s="33">
-        <v>264.34899999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+        <v>270.56380000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="31" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="32">
-        <v>14.8338</v>
+        <v>13.2484</v>
       </c>
       <c r="D34" s="32">
-        <v>13.2484</v>
+        <v>7.1936</v>
       </c>
       <c r="E34" s="32">
-        <v>7.1936</v>
+        <v>13.8574</v>
       </c>
       <c r="F34" s="32">
-        <v>13.8574</v>
+        <v>27.901299999999999</v>
       </c>
       <c r="G34" s="32">
-        <v>27.901299999999999</v>
+        <v>19.4986</v>
       </c>
       <c r="H34" s="32">
-        <v>19.4986</v>
+        <v>9.8995999999999995</v>
       </c>
       <c r="I34" s="33">
-        <v>269.02530000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+        <v>274.3116</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="32">
-        <v>13.1973</v>
+        <v>13.9444</v>
       </c>
       <c r="D35" s="32">
-        <v>13.9444</v>
+        <v>8.1179000000000006</v>
       </c>
       <c r="E35" s="32">
-        <v>8.1179000000000006</v>
+        <v>13.4346</v>
       </c>
       <c r="F35" s="32">
-        <v>13.4346</v>
+        <v>25.4133</v>
       </c>
       <c r="G35" s="32">
-        <v>25.4133</v>
+        <v>21.833300000000001</v>
       </c>
       <c r="H35" s="32">
-        <v>21.833300000000001</v>
+        <v>11.944800000000001</v>
       </c>
       <c r="I35" s="33">
-        <v>262.39519999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>277.44979999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="35">
-        <v>12.2659</v>
+        <v>15.0021</v>
       </c>
       <c r="D36" s="35">
-        <v>15.0021</v>
+        <v>7.9149000000000003</v>
       </c>
       <c r="E36" s="35">
-        <v>7.9149000000000003</v>
+        <v>12.872199999999999</v>
       </c>
       <c r="F36" s="35">
-        <v>12.872199999999999</v>
+        <v>24.8947</v>
       </c>
       <c r="G36" s="35">
-        <v>24.8947</v>
+        <v>24.804600000000001</v>
       </c>
       <c r="H36" s="35">
-        <v>24.804600000000001</v>
+        <v>10.9206</v>
       </c>
       <c r="I36" s="36">
-        <v>273.85109999999997</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>288.72629999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="53" t="s">
         <v>34</v>
       </c>
@@ -13513,7 +13645,7 @@
       <c r="H37" s="53"/>
       <c r="I37" s="53"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -13523,7 +13655,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -13553,17 +13685,17 @@
   <dimension ref="B1:I33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="54.44140625" customWidth="1"/>
-    <col min="3" max="9" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="54.42578125" customWidth="1"/>
+    <col min="3" max="9" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="54" t="s">
         <v>35</v>
       </c>
@@ -13575,7 +13707,7 @@
       <c r="H2" s="65"/>
       <c r="I2" s="66"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="37"/>
       <c r="C3" s="38" t="s">
         <v>19</v>
@@ -13599,7 +13731,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="29" t="s">
         <v>36</v>
       </c>
@@ -13611,345 +13743,345 @@
       <c r="H4" s="46"/>
       <c r="I4" s="30"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="41">
-        <v>19.8644</v>
+        <v>15.286</v>
       </c>
       <c r="D5" s="41">
-        <v>21.381399999999999</v>
+        <v>11.950900000000001</v>
       </c>
       <c r="E5" s="41">
-        <v>21.819099999999999</v>
+        <v>11.765000000000001</v>
       </c>
       <c r="F5" s="41">
-        <v>19.981400000000001</v>
+        <v>10.963900000000001</v>
       </c>
       <c r="G5" s="41">
-        <v>22.540900000000001</v>
+        <v>13.427899999999999</v>
       </c>
       <c r="H5" s="41">
-        <v>24.8538</v>
+        <v>11.549300000000001</v>
       </c>
       <c r="I5" s="42">
-        <v>20.9055</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+        <v>13.4008</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="31" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="32">
-        <v>5.3315999999999999</v>
+        <v>3.5903999999999998</v>
       </c>
       <c r="D6" s="32">
-        <v>6.8342999999999998</v>
+        <v>3.5905</v>
       </c>
       <c r="E6" s="32">
-        <v>8.5663</v>
+        <v>3.512</v>
       </c>
       <c r="F6" s="32">
-        <v>7.4897</v>
+        <v>3.3639999999999999</v>
       </c>
       <c r="G6" s="32">
-        <v>6.6593</v>
+        <v>3.7770999999999999</v>
       </c>
       <c r="H6" s="32">
-        <v>8.7489000000000008</v>
+        <v>3.0552000000000001</v>
       </c>
       <c r="I6" s="33">
-        <v>6.3902000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="32">
-        <v>0.52569999999999995</v>
+        <v>0.48159999999999997</v>
       </c>
       <c r="D7" s="32">
-        <v>0.6159</v>
+        <v>0.51619999999999999</v>
       </c>
       <c r="E7" s="32">
-        <v>0.45319999999999999</v>
+        <v>0.36430000000000001</v>
       </c>
       <c r="F7" s="32">
-        <v>0.57550000000000001</v>
+        <v>0.47960000000000003</v>
       </c>
       <c r="G7" s="32">
-        <v>0.5504</v>
+        <v>0.41520000000000001</v>
       </c>
       <c r="H7" s="32">
-        <v>0.59889999999999999</v>
+        <v>0.51659999999999995</v>
       </c>
       <c r="I7" s="33">
-        <v>0.55840000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.4834</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="31" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="32">
-        <v>1.3836999999999999</v>
+        <v>0.87109999999999999</v>
       </c>
       <c r="D8" s="32">
-        <v>1.6377999999999999</v>
+        <v>0.92689999999999995</v>
       </c>
       <c r="E8" s="32">
-        <v>1.5865</v>
+        <v>0.97309999999999997</v>
       </c>
       <c r="F8" s="32">
-        <v>1.4242999999999999</v>
+        <v>1.1880999999999999</v>
       </c>
       <c r="G8" s="32">
-        <v>2.0124</v>
+        <v>0.9254</v>
       </c>
       <c r="H8" s="32">
-        <v>1.7936000000000001</v>
+        <v>1.2287999999999999</v>
       </c>
       <c r="I8" s="33">
-        <v>1.5377000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.93059999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="31" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="32">
-        <v>0.6008</v>
+        <v>1.3552999999999999</v>
       </c>
       <c r="D9" s="32">
-        <v>0.81599999999999995</v>
+        <v>0.6875</v>
       </c>
       <c r="E9" s="32">
-        <v>1.0161</v>
+        <v>1.2823</v>
       </c>
       <c r="F9" s="32">
-        <v>1.1506000000000001</v>
+        <v>0.78239999999999998</v>
       </c>
       <c r="G9" s="32">
-        <v>1.0170999999999999</v>
+        <v>1.5575000000000001</v>
       </c>
       <c r="H9" s="32">
-        <v>1.1993</v>
+        <v>0.91830000000000001</v>
       </c>
       <c r="I9" s="33">
-        <v>0.77669999999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1.0866</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="31" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="32">
-        <v>1.4956</v>
+        <v>0.74029999999999996</v>
       </c>
       <c r="D10" s="32">
-        <v>1.5099</v>
+        <v>0.73089999999999999</v>
       </c>
       <c r="E10" s="32">
-        <v>1.5423</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="F10" s="32">
-        <v>1.7271000000000001</v>
+        <v>0.74960000000000004</v>
       </c>
       <c r="G10" s="32">
-        <v>1.8295999999999999</v>
+        <v>0.68149999999999999</v>
       </c>
       <c r="H10" s="32">
-        <v>1.9961</v>
+        <v>0.8478</v>
       </c>
       <c r="I10" s="33">
-        <v>1.5543</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.73540000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="31" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="32">
-        <v>1.9448000000000001</v>
+        <v>1.427</v>
       </c>
       <c r="D11" s="32">
-        <v>1.9670000000000001</v>
+        <v>1.2307999999999999</v>
       </c>
       <c r="E11" s="32">
-        <v>1.5248999999999999</v>
+        <v>0.86170000000000002</v>
       </c>
       <c r="F11" s="32">
-        <v>1.3113999999999999</v>
+        <v>0.80740000000000001</v>
       </c>
       <c r="G11" s="32">
-        <v>1.7764</v>
+        <v>1.1042000000000001</v>
       </c>
       <c r="H11" s="32">
-        <v>1.3181</v>
+        <v>0.71630000000000005</v>
       </c>
       <c r="I11" s="33">
-        <v>1.8575999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1.2439</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="31" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="32">
-        <v>2.5065</v>
+        <v>3.4268999999999998</v>
       </c>
       <c r="D12" s="32">
-        <v>2.867</v>
+        <v>1.5911999999999999</v>
       </c>
       <c r="E12" s="32">
-        <v>2.3125</v>
+        <v>1.4379999999999999</v>
       </c>
       <c r="F12" s="32">
-        <v>2.3509000000000002</v>
+        <v>1.3673</v>
       </c>
       <c r="G12" s="32">
-        <v>4.0717999999999996</v>
+        <v>2.0577000000000001</v>
       </c>
       <c r="H12" s="32">
-        <v>4.7411000000000003</v>
+        <v>1.843</v>
       </c>
       <c r="I12" s="33">
-        <v>2.7926000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+        <v>2.4262000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="31" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="32">
-        <v>0.48559999999999998</v>
+        <v>0.5101</v>
       </c>
       <c r="D13" s="32">
-        <v>0.43159999999999998</v>
+        <v>0.4985</v>
       </c>
       <c r="E13" s="32">
-        <v>0.43340000000000001</v>
+        <v>0.3921</v>
       </c>
       <c r="F13" s="32">
-        <v>0.43940000000000001</v>
+        <v>0.44729999999999998</v>
       </c>
       <c r="G13" s="32">
-        <v>0.42680000000000001</v>
+        <v>0.36380000000000001</v>
       </c>
       <c r="H13" s="32">
-        <v>0.44550000000000001</v>
+        <v>0.4526</v>
       </c>
       <c r="I13" s="33">
-        <v>0.45660000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.48499999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="31" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="32">
-        <v>1.9092</v>
+        <v>0.80959999999999999</v>
       </c>
       <c r="D14" s="32">
-        <v>1.6895</v>
+        <v>0.54859999999999998</v>
       </c>
       <c r="E14" s="32">
-        <v>1.155</v>
+        <v>0.46729999999999999</v>
       </c>
       <c r="F14" s="32">
-        <v>1.1886000000000001</v>
+        <v>0.57640000000000002</v>
       </c>
       <c r="G14" s="32">
-        <v>1.4100999999999999</v>
+        <v>0.59970000000000001</v>
       </c>
       <c r="H14" s="32">
-        <v>1.4668000000000001</v>
+        <v>0.60780000000000001</v>
       </c>
       <c r="I14" s="33">
-        <v>1.7036</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.66620000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="31" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="32">
-        <v>6.6299999999999998E-2</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="D15" s="32">
-        <v>3.8800000000000001E-2</v>
+        <v>1.7600000000000001E-2</v>
       </c>
       <c r="E15" s="32">
-        <v>4.5999999999999999E-2</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="F15" s="32">
-        <v>3.95E-2</v>
+        <v>0.13150000000000001</v>
       </c>
       <c r="G15" s="32">
-        <v>3.8199999999999998E-2</v>
+        <v>7.1099999999999997E-2</v>
       </c>
       <c r="H15" s="32">
-        <v>1.12E-2</v>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="I15" s="33">
-        <v>5.0299999999999997E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.1734</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="31" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="32">
-        <v>2.2605</v>
+        <v>1.1836</v>
       </c>
       <c r="D16" s="32">
-        <v>1.7007000000000001</v>
+        <v>1.0044</v>
       </c>
       <c r="E16" s="32">
-        <v>1.7293000000000001</v>
+        <v>1.095</v>
       </c>
       <c r="F16" s="32">
-        <v>1.0357000000000001</v>
+        <v>0.54110000000000003</v>
       </c>
       <c r="G16" s="32">
-        <v>1.3912</v>
+        <v>1.1037999999999999</v>
       </c>
       <c r="H16" s="32">
-        <v>1.0188999999999999</v>
+        <v>0.54859999999999998</v>
       </c>
       <c r="I16" s="33">
-        <v>1.8755999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1.0541</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="32">
-        <v>1.3537999999999999</v>
+        <v>0.55120000000000002</v>
       </c>
       <c r="D17" s="32">
-        <v>1.2729999999999999</v>
+        <v>0.60780000000000001</v>
       </c>
       <c r="E17" s="32">
-        <v>1.4537</v>
+        <v>0.65559999999999996</v>
       </c>
       <c r="F17" s="32">
-        <v>1.2486999999999999</v>
+        <v>0.52929999999999999</v>
       </c>
       <c r="G17" s="32">
-        <v>1.3575999999999999</v>
+        <v>0.77080000000000004</v>
       </c>
       <c r="H17" s="32">
-        <v>1.5154000000000001</v>
+        <v>0.73770000000000002</v>
       </c>
       <c r="I17" s="33">
-        <v>1.3359000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.59670000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="43"/>
       <c r="C18" s="44"/>
       <c r="D18" s="44"/>
@@ -13959,7 +14091,7 @@
       <c r="H18" s="44"/>
       <c r="I18" s="45"/>
     </row>
-    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="61" t="s">
         <v>36</v>
       </c>
@@ -13971,345 +14103,345 @@
       <c r="H19" s="62"/>
       <c r="I19" s="63"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="40" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="41">
-        <v>249.92330000000001</v>
+        <v>277.08659999999998</v>
       </c>
       <c r="D20" s="41">
-        <v>257.47030000000001</v>
+        <v>276.08699999999999</v>
       </c>
       <c r="E20" s="41">
-        <v>257.66899999999998</v>
+        <v>272.33640000000003</v>
       </c>
       <c r="F20" s="41">
-        <v>261.37799999999999</v>
+        <v>271.88929999999999</v>
       </c>
       <c r="G20" s="41">
-        <v>253.2628</v>
+        <v>275.81700000000001</v>
       </c>
       <c r="H20" s="41">
-        <v>260.90499999999997</v>
+        <v>279.8526</v>
       </c>
       <c r="I20" s="42">
-        <v>254.2483</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+        <v>276.21839999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="31" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="32">
-        <v>73.819999999999993</v>
+        <v>79.187899999999999</v>
       </c>
       <c r="D21" s="32">
-        <v>89.153999999999996</v>
+        <v>93.808599999999998</v>
       </c>
       <c r="E21" s="32">
-        <v>106.2163</v>
+        <v>107.91849999999999</v>
       </c>
       <c r="F21" s="32">
-        <v>107.7754</v>
+        <v>108.33580000000001</v>
       </c>
       <c r="G21" s="32">
-        <v>87.159899999999993</v>
+        <v>91.923900000000003</v>
       </c>
       <c r="H21" s="32">
-        <v>86.946899999999999</v>
+        <v>90.560100000000006</v>
       </c>
       <c r="I21" s="33">
-        <v>84.113799999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+        <v>88.657399999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="32">
-        <v>5.8733000000000004</v>
+        <v>6.8756000000000004</v>
       </c>
       <c r="D22" s="32">
-        <v>7.0990000000000002</v>
+        <v>8.1912000000000003</v>
       </c>
       <c r="E22" s="32">
-        <v>5.6432000000000002</v>
+        <v>6.3179999999999996</v>
       </c>
       <c r="F22" s="32">
-        <v>7.2346000000000004</v>
+        <v>8.0954999999999995</v>
       </c>
       <c r="G22" s="32">
-        <v>6.1224999999999996</v>
+        <v>6.9215999999999998</v>
       </c>
       <c r="H22" s="32">
-        <v>6.3158000000000003</v>
+        <v>7.5686999999999998</v>
       </c>
       <c r="I22" s="33">
-        <v>6.3711000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+        <v>7.3761000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="31" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="32">
-        <v>20.810400000000001</v>
+        <v>21.0154</v>
       </c>
       <c r="D23" s="32">
-        <v>23.078399999999998</v>
+        <v>23.752400000000002</v>
       </c>
       <c r="E23" s="32">
-        <v>24.785799999999998</v>
+        <v>25.0137</v>
       </c>
       <c r="F23" s="32">
-        <v>22.445</v>
+        <v>23.752800000000001</v>
       </c>
       <c r="G23" s="32">
-        <v>22.1614</v>
+        <v>23.137499999999999</v>
       </c>
       <c r="H23" s="32">
-        <v>27.267299999999999</v>
+        <v>28.719100000000001</v>
       </c>
       <c r="I23" s="33">
-        <v>22.298100000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+        <v>22.811699999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="31" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="32">
-        <v>12.6302</v>
+        <v>15.949400000000001</v>
       </c>
       <c r="D24" s="32">
-        <v>10.1607</v>
+        <v>11.5382</v>
       </c>
       <c r="E24" s="32">
-        <v>10.569900000000001</v>
+        <v>13.968400000000001</v>
       </c>
       <c r="F24" s="32">
-        <v>14.3027</v>
+        <v>15.559799999999999</v>
       </c>
       <c r="G24" s="32">
-        <v>12.125299999999999</v>
+        <v>16.2258</v>
       </c>
       <c r="H24" s="32">
-        <v>14.3329</v>
+        <v>16.398599999999998</v>
       </c>
       <c r="I24" s="33">
-        <v>11.7712</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+        <v>14.3222</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="31" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="32">
-        <v>18.278500000000001</v>
+        <v>19.136900000000001</v>
       </c>
       <c r="D25" s="32">
-        <v>17.730399999999999</v>
+        <v>18.861699999999999</v>
       </c>
       <c r="E25" s="32">
-        <v>17.210799999999999</v>
+        <v>18.026199999999999</v>
       </c>
       <c r="F25" s="32">
-        <v>22.282699999999998</v>
+        <v>22.641400000000001</v>
       </c>
       <c r="G25" s="32">
-        <v>17.475100000000001</v>
+        <v>18.341100000000001</v>
       </c>
       <c r="H25" s="32">
-        <v>20.499500000000001</v>
+        <v>21.7944</v>
       </c>
       <c r="I25" s="33">
-        <v>18.258099999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19.204699999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="31" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="32">
-        <v>24.459099999999999</v>
+        <v>27.163699999999999</v>
       </c>
       <c r="D26" s="32">
-        <v>25.243600000000001</v>
+        <v>27.4236</v>
       </c>
       <c r="E26" s="32">
-        <v>19.826499999999999</v>
+        <v>21.0289</v>
       </c>
       <c r="F26" s="32">
-        <v>16.625</v>
+        <v>17.888999999999999</v>
       </c>
       <c r="G26" s="32">
-        <v>24.482900000000001</v>
+        <v>26.200600000000001</v>
       </c>
       <c r="H26" s="32">
-        <v>14.992599999999999</v>
+        <v>16.296900000000001</v>
       </c>
       <c r="I26" s="33">
-        <v>23.623899999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25.8657</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="31" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="32">
-        <v>25.522500000000001</v>
+        <v>34.733600000000003</v>
       </c>
       <c r="D27" s="32">
-        <v>29.504000000000001</v>
+        <v>32.576000000000001</v>
       </c>
       <c r="E27" s="32">
-        <v>21.598600000000001</v>
+        <v>24.520099999999999</v>
       </c>
       <c r="F27" s="32">
-        <v>26.638000000000002</v>
+        <v>28.598099999999999</v>
       </c>
       <c r="G27" s="32">
-        <v>33.892200000000003</v>
+        <v>37.951000000000001</v>
       </c>
       <c r="H27" s="32">
-        <v>43.180599999999998</v>
+        <v>46.390300000000003</v>
       </c>
       <c r="I27" s="33">
-        <v>27.904699999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+        <v>33.715899999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="31" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="32">
-        <v>5.0332999999999997</v>
+        <v>6.2435</v>
       </c>
       <c r="D28" s="32">
-        <v>4.9656000000000002</v>
+        <v>6.2009999999999996</v>
       </c>
       <c r="E28" s="32">
-        <v>4.7880000000000003</v>
+        <v>5.6711</v>
       </c>
       <c r="F28" s="32">
-        <v>4.9968000000000004</v>
+        <v>5.9861000000000004</v>
       </c>
       <c r="G28" s="32">
-        <v>3.8001999999999998</v>
+        <v>4.6731999999999996</v>
       </c>
       <c r="H28" s="32">
-        <v>4.4531000000000001</v>
+        <v>5.6715999999999998</v>
       </c>
       <c r="I28" s="33">
-        <v>4.9012000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+        <v>6.0705</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="31" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="32">
-        <v>19.4803</v>
+        <v>20.074000000000002</v>
       </c>
       <c r="D29" s="32">
-        <v>17.6692</v>
+        <v>18.059799999999999</v>
       </c>
       <c r="E29" s="32">
-        <v>13.3445</v>
+        <v>13.348599999999999</v>
       </c>
       <c r="F29" s="32">
-        <v>14.524100000000001</v>
+        <v>15.045999999999999</v>
       </c>
       <c r="G29" s="32">
-        <v>15.660500000000001</v>
+        <v>16.3644</v>
       </c>
       <c r="H29" s="32">
-        <v>19.3809</v>
+        <v>20.0901</v>
       </c>
       <c r="I29" s="33">
-        <v>18.013000000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18.5045</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="31" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="32">
-        <v>3.8921999999999999</v>
+        <v>4.4504000000000001</v>
       </c>
       <c r="D30" s="32">
-        <v>1.4283999999999999</v>
+        <v>1.3895</v>
       </c>
       <c r="E30" s="32">
-        <v>2.0985999999999998</v>
+        <v>1.9981</v>
       </c>
       <c r="F30" s="32">
-        <v>1.0562</v>
+        <v>1.2902</v>
       </c>
       <c r="G30" s="32">
-        <v>1.9339</v>
+        <v>1.958</v>
       </c>
       <c r="H30" s="32">
-        <v>1.4209000000000001</v>
+        <v>1.5157</v>
       </c>
       <c r="I30" s="33">
-        <v>2.5842000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+        <v>2.8294000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="31" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="32">
-        <v>30.273700000000002</v>
+        <v>31.419799999999999</v>
       </c>
       <c r="D31" s="32">
-        <v>21.9346</v>
+        <v>23.482900000000001</v>
       </c>
       <c r="E31" s="32">
-        <v>21.715399999999999</v>
+        <v>23.287700000000001</v>
       </c>
       <c r="F31" s="32">
-        <v>13.5585</v>
+        <v>13.94</v>
       </c>
       <c r="G31" s="32">
-        <v>19.0975</v>
+        <v>20.9665</v>
       </c>
       <c r="H31" s="32">
-        <v>12.8584</v>
+        <v>13.701000000000001</v>
       </c>
       <c r="I31" s="33">
-        <v>24.705100000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>26.007100000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="34" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="35">
-        <v>9.8481000000000005</v>
+        <v>10.833600000000001</v>
       </c>
       <c r="D32" s="35">
-        <v>9.5036000000000005</v>
+        <v>10.804</v>
       </c>
       <c r="E32" s="35">
-        <v>9.8736999999999995</v>
+        <v>11.2384</v>
       </c>
       <c r="F32" s="35">
-        <v>9.9319000000000006</v>
+        <v>10.746600000000001</v>
       </c>
       <c r="G32" s="35">
-        <v>9.3477999999999994</v>
+        <v>11.148300000000001</v>
       </c>
       <c r="H32" s="35">
-        <v>9.2477</v>
+        <v>11.135199999999999</v>
       </c>
       <c r="I32" s="36">
-        <v>9.6824999999999992</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10.8775</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="67" t="s">
         <v>38</v>
       </c>
@@ -14331,4 +14463,298 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100802E6E434404C643A635562EA3180DA3" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="52d7a7122ac7079507bd3aa10acf3f43">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1df6c202-294f-49e9-8308-8ed45f1aad52" xmlns:ns4="ac5d5db8-d0fb-4376-956b-22d00716db57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e58c9a96bbe8160e83bc2dd3585bc582" ns3:_="" ns4:_="">
+    <xsd:import namespace="1df6c202-294f-49e9-8308-8ed45f1aad52"/>
+    <xsd:import namespace="ac5d5db8-d0fb-4376-956b-22d00716db57"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1df6c202-294f-49e9-8308-8ed45f1aad52" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="16" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="17" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="18" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSystemTags" ma:index="19" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="20" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="21" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="22" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ac5d5db8-d0fb-4376-956b-22d00716db57" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="14" nillable="true" ma:displayName="Hash de la sugerencia para compartir" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1df6c202-294f-49e9-8308-8ed45f1aad52" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{395B0419-A5D6-44A7-A8A8-02FF50AF5320}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1df6c202-294f-49e9-8308-8ed45f1aad52"/>
+    <ds:schemaRef ds:uri="ac5d5db8-d0fb-4376-956b-22d00716db57"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ABD2D04-219D-49E3-9AEF-0F13A1F6419E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C6E4915-8F33-4F85-8827-6B2C8B8A8032}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1df6c202-294f-49e9-8308-8ed45f1aad52"/>
+    <ds:schemaRef ds:uri="ac5d5db8-d0fb-4376-956b-22d00716db57"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/assets/excel/IPCse - Series históricas.xlsx
+++ b/assets/excel/IPCse - Series históricas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fiona\Dropbox\MGR\IPC seasonal adjustment\IPCse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A77427-01EC-4B36-AE68-2DF29E5FABDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA664A4D-58D7-4E53-9734-0DC71C823804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="2" xr2:uid="{A81B6F3A-9175-42CA-B78F-287A4E3C6249}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{A81B6F3A-9175-42CA-B78F-287A4E3C6249}"/>
   </bookViews>
   <sheets>
     <sheet name="Índices" sheetId="1" r:id="rId1"/>
@@ -183,9 +183,6 @@
     <t>IPCse NACIONAL</t>
   </si>
   <si>
-    <t>Sep.</t>
-  </si>
-  <si>
     <t>Oct.</t>
   </si>
   <si>
@@ -199,6 +196,9 @@
   </si>
   <si>
     <t>Feb.</t>
+  </si>
+  <si>
+    <t>Mar.</t>
   </si>
 </sst>
 </file>
@@ -1242,27 +1242,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA821952-0137-4F39-844C-15CA99AC928E}">
-  <dimension ref="B1:V91"/>
+  <dimension ref="B1:V92"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="78" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="78" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
-      <selection pane="bottomRight" activeCell="V71" sqref="V71"/>
+      <selection pane="bottomRight" activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.5546875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="4" customWidth="1"/>
-    <col min="2" max="3" width="20.5703125" style="4" customWidth="1"/>
-    <col min="4" max="21" width="15.5703125" style="4"/>
-    <col min="22" max="22" width="20.5703125" style="4" customWidth="1"/>
-    <col min="23" max="16384" width="15.5703125" style="4"/>
+    <col min="1" max="1" width="4.5546875" style="4" customWidth="1"/>
+    <col min="2" max="3" width="20.5546875" style="4" customWidth="1"/>
+    <col min="4" max="21" width="15.5546875" style="4"/>
+    <col min="22" max="22" width="20.5546875" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="15.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="51" t="s">
         <v>10</v>
       </c>
@@ -1287,7 +1287,7 @@
       <c r="U2" s="52"/>
       <c r="V2" s="52"/>
     </row>
-    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="8" t="s">
         <v>8</v>
@@ -1318,7 +1318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
         <v>42705</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>99.977400000000003</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B6" s="13">
         <v>42736</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>101.58410000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B7" s="13">
         <v>42767</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>103.26909999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B8" s="13">
         <v>42795</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>104.8601</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B9" s="13">
         <v>42826</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>107.3261</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B10" s="13">
         <v>42856</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>109.36450000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B11" s="13">
         <v>42887</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>110.7693</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B12" s="13">
         <v>42917</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>112.8707</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B13" s="13">
         <v>42948</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>114.20829999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B14" s="13">
         <v>42979</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>115.16679999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B15" s="13">
         <v>43009</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>116.4616</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B16" s="13">
         <v>43040</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>118.2471</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B17" s="13">
         <v>43070</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>120.15</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B18" s="13">
         <v>43101</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>122.66079999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B19" s="13">
         <v>43132</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>124.86669999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B20" s="13">
         <v>43160</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>127.12269999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B21" s="13">
         <v>43191</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>129.41149999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B22" s="13">
         <v>43221</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>133.31610000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B23" s="13">
         <v>43252</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>138.48570000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B24" s="13">
         <v>43282</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>143.6498</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B25" s="13">
         <v>43313</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>148.0249</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B26" s="13">
         <v>43344</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>157.21270000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B27" s="13">
         <v>43374</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>163.8939</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B28" s="13">
         <v>43405</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>169.81559999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B29" s="13">
         <v>43435</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>173.93020000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B30" s="13">
         <v>43466</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>179.21430000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B31" s="13">
         <v>43497</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>186.506</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B32" s="13">
         <v>43525</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>194.3347</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B33" s="13">
         <v>43556</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>200.91579999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B34" s="13">
         <v>43586</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>207.03639999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B35" s="13">
         <v>43617</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>212.8476</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B36" s="13">
         <v>43647</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>218.41489999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B37" s="13">
         <v>43678</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>227.71770000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B38" s="13">
         <v>43709</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>240.4811</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B39" s="13">
         <v>43739</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>247.86199999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B40" s="13">
         <v>43770</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>259.3349</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B41" s="13">
         <v>43800</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>268.79329999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B42" s="13">
         <v>43831</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>278.7826</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B43" s="13">
         <v>43862</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>286.44729999999998</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B44" s="13">
         <v>43891</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>293.82990000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B45" s="13">
         <v>43922</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>300.18740000000003</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B46" s="13">
         <v>43952</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>307.81490000000002</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B47" s="13">
         <v>43983</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>316.56420000000003</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B48" s="13">
         <v>44013</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>324.54230000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B49" s="13">
         <v>44044</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>333.78789999999998</v>
       </c>
     </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B50" s="13">
         <v>44075</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>340.72519999999997</v>
       </c>
     </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B51" s="13">
         <v>44105</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>353.69189999999998</v>
       </c>
     </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B52" s="13">
         <v>44136</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>367.19499999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B53" s="13">
         <v>44166</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>383.58569999999997</v>
       </c>
     </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B54" s="13">
         <v>44197</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>400.52280000000002</v>
       </c>
     </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B55" s="13">
         <v>44228</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>416.6268</v>
       </c>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B56" s="13">
         <v>44256</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>434.39139999999998</v>
       </c>
     </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B57" s="13">
         <v>44287</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>451.8818</v>
       </c>
     </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B58" s="13">
         <v>44317</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>467.42290000000003</v>
       </c>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B59" s="13">
         <v>44348</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>483.03149999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B60" s="13">
         <v>44378</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>499.71620000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B61" s="13">
         <v>44409</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>511.17930000000001</v>
       </c>
     </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B62" s="13">
         <v>44440</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>525.85019999999997</v>
       </c>
     </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B63" s="13">
         <v>44470</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>542.82629999999995</v>
       </c>
     </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B64" s="13">
         <v>44501</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>560.64739999999995</v>
       </c>
     </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B65" s="13">
         <v>44531</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>587.63199999999995</v>
       </c>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B66" s="13">
         <v>44562</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>614.96839999999997</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B67" s="13">
         <v>44593</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>648.68989999999997</v>
       </c>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B68" s="13">
         <v>44621</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>686.36180000000002</v>
       </c>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B69" s="13">
         <v>44652</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>729.43140000000005</v>
       </c>
     </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B70" s="13">
         <v>44682</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>770.00469999999996</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B71" s="13">
         <v>44713</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>811.8424</v>
       </c>
     </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B72" s="13">
         <v>44743</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>880.58450000000005</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B73" s="13">
         <v>44774</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>944.6404</v>
       </c>
     </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B74" s="13">
         <v>44805</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>1001.7683</v>
       </c>
     </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B75" s="13">
         <v>44835</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>1059.6804</v>
       </c>
     </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B76" s="13">
         <v>44866</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>1113.1264000000001</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B77" s="13">
         <v>44896</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>1173.7402999999999</v>
       </c>
     </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B78" s="13">
         <v>44927</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>1250.2503999999999</v>
       </c>
     </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B79" s="13">
         <v>44958</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>1345.6905999999999</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B80" s="13">
         <v>44986</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>1441.3485000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B81" s="13">
         <v>45017</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>1572.9845</v>
       </c>
     </row>
-    <row r="82" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B82" s="13">
         <v>45047</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>1696.7299</v>
       </c>
     </row>
-    <row r="83" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B83" s="13">
         <v>45078</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>1788.9819</v>
       </c>
     </row>
-    <row r="84" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B84" s="13">
         <v>45108</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>1904.9344000000001</v>
       </c>
     </row>
-    <row r="85" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B85" s="13">
         <v>45139</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>2149.5119</v>
       </c>
     </row>
-    <row r="86" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B86" s="13">
         <v>45170</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>2433.0675999999999</v>
       </c>
     </row>
-    <row r="87" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B87" s="13">
         <v>45200</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>2637.0823</v>
       </c>
     </row>
-    <row r="88" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B88" s="13">
         <v>45231</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>3008.4508000000001</v>
       </c>
     </row>
-    <row r="89" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B89" s="13">
         <v>45261</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>3793.6828</v>
       </c>
     </row>
-    <row r="90" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B90" s="13">
         <v>45292</v>
       </c>
@@ -6973,69 +6973,134 @@
         <v>4582.4724999999999</v>
       </c>
     </row>
-    <row r="91" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="14">
+    <row r="91" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B91" s="13">
         <v>45323</v>
       </c>
-      <c r="C91" s="18">
+      <c r="C91" s="15">
         <v>4854.9778999999999</v>
       </c>
-      <c r="D91" s="19">
+      <c r="D91" s="16">
         <v>4785.3263999999999</v>
       </c>
-      <c r="E91" s="19">
+      <c r="E91" s="16">
         <v>4875.2331000000004</v>
       </c>
-      <c r="F91" s="19">
+      <c r="F91" s="16">
         <v>4944.5020999999997</v>
       </c>
-      <c r="G91" s="19">
+      <c r="G91" s="16">
         <v>5031.7408999999998</v>
       </c>
-      <c r="H91" s="19">
+      <c r="H91" s="16">
         <v>5011.6661999999997</v>
       </c>
-      <c r="I91" s="20">
+      <c r="I91" s="17">
         <v>4770.6688000000004</v>
       </c>
-      <c r="J91" s="19">
+      <c r="J91" s="16">
         <v>5609.5020999999997</v>
       </c>
-      <c r="K91" s="19">
+      <c r="K91" s="16">
         <v>3780.8941</v>
       </c>
-      <c r="L91" s="19">
+      <c r="L91" s="16">
         <v>4646.7992999999997</v>
       </c>
-      <c r="M91" s="19">
+      <c r="M91" s="16">
         <v>2938.6779999999999</v>
       </c>
-      <c r="N91" s="19">
+      <c r="N91" s="16">
         <v>5163.9534999999996</v>
       </c>
-      <c r="O91" s="19">
+      <c r="O91" s="16">
         <v>5526.6202000000003</v>
       </c>
-      <c r="P91" s="19">
+      <c r="P91" s="16">
         <v>5251.9141</v>
       </c>
-      <c r="Q91" s="19">
+      <c r="Q91" s="16">
         <v>3706.7606000000001</v>
       </c>
-      <c r="R91" s="19">
+      <c r="R91" s="16">
         <v>4477.9741000000004</v>
       </c>
-      <c r="S91" s="19">
+      <c r="S91" s="16">
         <v>2621.6815999999999</v>
       </c>
-      <c r="T91" s="19">
+      <c r="T91" s="16">
         <v>5084.1913999999997</v>
       </c>
-      <c r="U91" s="20">
+      <c r="U91" s="17">
         <v>5095.6226999999999</v>
       </c>
-      <c r="V91" s="18">
+      <c r="V91" s="15">
         <v>5099.6557000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="14">
+        <v>45352</v>
+      </c>
+      <c r="C92" s="18">
+        <v>5348.4591</v>
+      </c>
+      <c r="D92" s="19">
+        <v>5280.9583000000002</v>
+      </c>
+      <c r="E92" s="19">
+        <v>5387.1692999999996</v>
+      </c>
+      <c r="F92" s="19">
+        <v>5340.7425000000003</v>
+      </c>
+      <c r="G92" s="19">
+        <v>5537.7709999999997</v>
+      </c>
+      <c r="H92" s="19">
+        <v>5448.1842999999999</v>
+      </c>
+      <c r="I92" s="20">
+        <v>5244.9004999999997</v>
+      </c>
+      <c r="J92" s="19">
+        <v>6146.11</v>
+      </c>
+      <c r="K92" s="19">
+        <v>4213.5298000000003</v>
+      </c>
+      <c r="L92" s="19">
+        <v>4968.8270000000002</v>
+      </c>
+      <c r="M92" s="19">
+        <v>3327.1637000000001</v>
+      </c>
+      <c r="N92" s="19">
+        <v>5429.8621999999996</v>
+      </c>
+      <c r="O92" s="19">
+        <v>6202.6311999999998</v>
+      </c>
+      <c r="P92" s="19">
+        <v>5934.56</v>
+      </c>
+      <c r="Q92" s="19">
+        <v>4295.6540999999997</v>
+      </c>
+      <c r="R92" s="19">
+        <v>4881.8406000000004</v>
+      </c>
+      <c r="S92" s="19">
+        <v>3406.5823999999998</v>
+      </c>
+      <c r="T92" s="19">
+        <v>5506.9336000000003</v>
+      </c>
+      <c r="U92" s="20">
+        <v>5585.1161000000002</v>
+      </c>
+      <c r="V92" s="18">
+        <v>5537.8856999999998</v>
       </c>
     </row>
   </sheetData>
@@ -7051,27 +7116,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED968B30-91AE-4BCD-9838-818BA334E48C}">
-  <dimension ref="B1:V91"/>
+  <dimension ref="B1:V92"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="83" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="71" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
       <selection pane="bottomRight" activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.5546875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="4" customWidth="1"/>
-    <col min="2" max="3" width="20.5703125" style="4" customWidth="1"/>
-    <col min="4" max="21" width="15.5703125" style="4"/>
-    <col min="22" max="22" width="20.5703125" style="4" customWidth="1"/>
-    <col min="23" max="16384" width="15.5703125" style="4"/>
+    <col min="1" max="1" width="4.5546875" style="4" customWidth="1"/>
+    <col min="2" max="3" width="20.5546875" style="4" customWidth="1"/>
+    <col min="4" max="21" width="15.5546875" style="4"/>
+    <col min="22" max="22" width="20.5546875" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="15.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="51" t="s">
         <v>11</v>
       </c>
@@ -7096,7 +7161,7 @@
       <c r="U2" s="52"/>
       <c r="V2" s="52"/>
     </row>
-    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="8" t="s">
         <v>8</v>
@@ -7127,7 +7192,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
@@ -7192,7 +7257,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
         <v>42705</v>
       </c>
@@ -7217,7 +7282,7 @@
       <c r="U5" s="12"/>
       <c r="V5" s="10"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B6" s="13">
         <v>42736</v>
       </c>
@@ -7282,7 +7347,7 @@
         <v>1.6071</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B7" s="13">
         <v>42767</v>
       </c>
@@ -7347,7 +7412,7 @@
         <v>1.6587000000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B8" s="13">
         <v>42795</v>
       </c>
@@ -7412,7 +7477,7 @@
         <v>1.5406</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B9" s="13">
         <v>42826</v>
       </c>
@@ -7477,7 +7542,7 @@
         <v>2.3517000000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B10" s="13">
         <v>42856</v>
       </c>
@@ -7542,7 +7607,7 @@
         <v>1.8993</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B11" s="13">
         <v>42887</v>
       </c>
@@ -7607,7 +7672,7 @@
         <v>1.2845</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B12" s="13">
         <v>42917</v>
       </c>
@@ -7672,7 +7737,7 @@
         <v>1.8971</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B13" s="13">
         <v>42948</v>
       </c>
@@ -7737,7 +7802,7 @@
         <v>1.1851</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B14" s="13">
         <v>42979</v>
       </c>
@@ -7802,7 +7867,7 @@
         <v>0.83930000000000005</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B15" s="13">
         <v>43009</v>
       </c>
@@ -7867,7 +7932,7 @@
         <v>1.1243000000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B16" s="13">
         <v>43040</v>
       </c>
@@ -7932,7 +7997,7 @@
         <v>1.5330999999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B17" s="13">
         <v>43070</v>
       </c>
@@ -7997,7 +8062,7 @@
         <v>1.6093</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B18" s="13">
         <v>43101</v>
       </c>
@@ -8062,7 +8127,7 @@
         <v>2.0897000000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B19" s="13">
         <v>43132</v>
       </c>
@@ -8127,7 +8192,7 @@
         <v>1.7984</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B20" s="13">
         <v>43160</v>
       </c>
@@ -8192,7 +8257,7 @@
         <v>1.8067</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B21" s="13">
         <v>43191</v>
       </c>
@@ -8257,7 +8322,7 @@
         <v>1.8005</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B22" s="13">
         <v>43221</v>
       </c>
@@ -8322,7 +8387,7 @@
         <v>3.0171999999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B23" s="13">
         <v>43252</v>
       </c>
@@ -8387,7 +8452,7 @@
         <v>3.8776999999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B24" s="13">
         <v>43282</v>
       </c>
@@ -8452,7 +8517,7 @@
         <v>3.7290000000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B25" s="13">
         <v>43313</v>
       </c>
@@ -8517,7 +8582,7 @@
         <v>3.0457000000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B26" s="13">
         <v>43344</v>
       </c>
@@ -8582,7 +8647,7 @@
         <v>6.2069000000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B27" s="13">
         <v>43374</v>
       </c>
@@ -8647,7 +8712,7 @@
         <v>4.2497999999999996</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B28" s="13">
         <v>43405</v>
       </c>
@@ -8712,7 +8777,7 @@
         <v>3.6131000000000002</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B29" s="13">
         <v>43435</v>
       </c>
@@ -8777,7 +8842,7 @@
         <v>2.423</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B30" s="13">
         <v>43466</v>
       </c>
@@ -8842,7 +8907,7 @@
         <v>3.0381</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B31" s="13">
         <v>43497</v>
       </c>
@@ -8907,7 +8972,7 @@
         <v>4.0686999999999998</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B32" s="13">
         <v>43525</v>
       </c>
@@ -8972,7 +9037,7 @@
         <v>4.1976000000000004</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B33" s="13">
         <v>43556</v>
       </c>
@@ -9037,7 +9102,7 @@
         <v>3.3864999999999998</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B34" s="13">
         <v>43586</v>
       </c>
@@ -9102,7 +9167,7 @@
         <v>3.0464000000000002</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B35" s="13">
         <v>43617</v>
       </c>
@@ -9167,7 +9232,7 @@
         <v>2.8068</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B36" s="13">
         <v>43647</v>
       </c>
@@ -9232,7 +9297,7 @@
         <v>2.6156000000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B37" s="13">
         <v>43678</v>
       </c>
@@ -9297,7 +9362,7 @@
         <v>4.2591999999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B38" s="13">
         <v>43709</v>
       </c>
@@ -9362,7 +9427,7 @@
         <v>5.6048999999999998</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B39" s="13">
         <v>43739</v>
       </c>
@@ -9427,7 +9492,7 @@
         <v>3.0691999999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B40" s="13">
         <v>43770</v>
       </c>
@@ -9492,7 +9557,7 @@
         <v>4.6287000000000003</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B41" s="13">
         <v>43800</v>
       </c>
@@ -9557,7 +9622,7 @@
         <v>3.6472000000000002</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B42" s="13">
         <v>43831</v>
       </c>
@@ -9622,7 +9687,7 @@
         <v>3.7164000000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B43" s="13">
         <v>43862</v>
       </c>
@@ -9687,7 +9752,7 @@
         <v>2.7492999999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B44" s="13">
         <v>43891</v>
       </c>
@@ -9752,7 +9817,7 @@
         <v>2.5773000000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B45" s="13">
         <v>43922</v>
       </c>
@@ -9817,7 +9882,7 @@
         <v>2.1637</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B46" s="13">
         <v>43952</v>
       </c>
@@ -9882,7 +9947,7 @@
         <v>2.5409000000000002</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B47" s="13">
         <v>43983</v>
       </c>
@@ -9947,7 +10012,7 @@
         <v>2.8424</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B48" s="13">
         <v>44013</v>
       </c>
@@ -10012,7 +10077,7 @@
         <v>2.5202</v>
       </c>
     </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B49" s="13">
         <v>44044</v>
       </c>
@@ -10077,7 +10142,7 @@
         <v>2.8488000000000002</v>
       </c>
     </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B50" s="13">
         <v>44075</v>
       </c>
@@ -10142,7 +10207,7 @@
         <v>2.0783999999999998</v>
       </c>
     </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B51" s="13">
         <v>44105</v>
       </c>
@@ -10207,7 +10272,7 @@
         <v>3.8056000000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B52" s="13">
         <v>44136</v>
       </c>
@@ -10272,7 +10337,7 @@
         <v>3.8178000000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B53" s="13">
         <v>44166</v>
       </c>
@@ -10337,7 +10402,7 @@
         <v>4.4638</v>
       </c>
     </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B54" s="13">
         <v>44197</v>
       </c>
@@ -10402,7 +10467,7 @@
         <v>4.4154999999999998</v>
       </c>
     </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B55" s="13">
         <v>44228</v>
       </c>
@@ -10467,7 +10532,7 @@
         <v>4.0206999999999997</v>
       </c>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B56" s="13">
         <v>44256</v>
       </c>
@@ -10532,7 +10597,7 @@
         <v>4.2638999999999996</v>
       </c>
     </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B57" s="13">
         <v>44287</v>
       </c>
@@ -10597,7 +10662,7 @@
         <v>4.0263999999999998</v>
       </c>
     </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B58" s="13">
         <v>44317</v>
       </c>
@@ -10662,7 +10727,7 @@
         <v>3.4392</v>
       </c>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B59" s="13">
         <v>44348</v>
       </c>
@@ -10727,7 +10792,7 @@
         <v>3.3393000000000002</v>
       </c>
     </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B60" s="13">
         <v>44378</v>
       </c>
@@ -10792,7 +10857,7 @@
         <v>3.4542000000000002</v>
       </c>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B61" s="13">
         <v>44409</v>
       </c>
@@ -10857,7 +10922,7 @@
         <v>2.2938999999999998</v>
       </c>
     </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B62" s="13">
         <v>44440</v>
       </c>
@@ -10922,7 +10987,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B63" s="13">
         <v>44470</v>
       </c>
@@ -10987,7 +11052,7 @@
         <v>3.2282999999999999</v>
       </c>
     </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B64" s="13">
         <v>44501</v>
       </c>
@@ -11052,7 +11117,7 @@
         <v>3.2829999999999999</v>
       </c>
     </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B65" s="13">
         <v>44531</v>
       </c>
@@ -11117,7 +11182,7 @@
         <v>4.8131000000000004</v>
       </c>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B66" s="13">
         <v>44562</v>
       </c>
@@ -11182,7 +11247,7 @@
         <v>4.6520000000000001</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B67" s="13">
         <v>44593</v>
       </c>
@@ -11247,7 +11312,7 @@
         <v>5.4835000000000003</v>
       </c>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B68" s="13">
         <v>44621</v>
       </c>
@@ -11312,7 +11377,7 @@
         <v>5.8074000000000003</v>
       </c>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B69" s="13">
         <v>44652</v>
       </c>
@@ -11377,7 +11442,7 @@
         <v>6.2751000000000001</v>
       </c>
     </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B70" s="13">
         <v>44682</v>
       </c>
@@ -11442,7 +11507,7 @@
         <v>5.5622999999999996</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B71" s="13">
         <v>44713</v>
       </c>
@@ -11507,7 +11572,7 @@
         <v>5.4333999999999998</v>
       </c>
     </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B72" s="13">
         <v>44743</v>
       </c>
@@ -11572,7 +11637,7 @@
         <v>8.4673999999999996</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B73" s="13">
         <v>44774</v>
       </c>
@@ -11637,7 +11702,7 @@
         <v>7.2742000000000004</v>
       </c>
     </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B74" s="13">
         <v>44805</v>
       </c>
@@ -11702,7 +11767,7 @@
         <v>6.0476000000000001</v>
       </c>
     </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B75" s="13">
         <v>44835</v>
       </c>
@@ -11767,7 +11832,7 @@
         <v>5.7809999999999997</v>
       </c>
     </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B76" s="13">
         <v>44866</v>
       </c>
@@ -11832,7 +11897,7 @@
         <v>5.0435999999999996</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B77" s="13">
         <v>44896</v>
       </c>
@@ -11897,7 +11962,7 @@
         <v>5.4454000000000002</v>
       </c>
     </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B78" s="13">
         <v>44927</v>
       </c>
@@ -11962,7 +12027,7 @@
         <v>6.5185000000000004</v>
       </c>
     </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B79" s="13">
         <v>44958</v>
       </c>
@@ -12027,7 +12092,7 @@
         <v>7.6337000000000002</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B80" s="13">
         <v>44986</v>
       </c>
@@ -12092,7 +12157,7 @@
         <v>7.1085000000000003</v>
       </c>
     </row>
-    <row r="81" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B81" s="13">
         <v>45017</v>
       </c>
@@ -12157,7 +12222,7 @@
         <v>9.1327999999999996</v>
       </c>
     </row>
-    <row r="82" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B82" s="13">
         <v>45047</v>
       </c>
@@ -12222,7 +12287,7 @@
         <v>7.8669000000000002</v>
       </c>
     </row>
-    <row r="83" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B83" s="13">
         <v>45078</v>
       </c>
@@ -12287,7 +12352,7 @@
         <v>5.4370000000000003</v>
       </c>
     </row>
-    <row r="84" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B84" s="13">
         <v>45108</v>
       </c>
@@ -12352,7 +12417,7 @@
         <v>6.4814999999999996</v>
       </c>
     </row>
-    <row r="85" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B85" s="13">
         <v>45139</v>
       </c>
@@ -12417,7 +12482,7 @@
         <v>12.8392</v>
       </c>
     </row>
-    <row r="86" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B86" s="13">
         <v>45170</v>
       </c>
@@ -12482,7 +12547,7 @@
         <v>13.191599999999999</v>
       </c>
     </row>
-    <row r="87" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B87" s="13">
         <v>45200</v>
       </c>
@@ -12547,7 +12612,7 @@
         <v>8.3850999999999996</v>
       </c>
     </row>
-    <row r="88" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B88" s="13">
         <v>45231</v>
       </c>
@@ -12612,7 +12677,7 @@
         <v>14.082599999999999</v>
       </c>
     </row>
-    <row r="89" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B89" s="13">
         <v>45261</v>
       </c>
@@ -12677,7 +12742,7 @@
         <v>26.100899999999999</v>
       </c>
     </row>
-    <row r="90" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B90" s="13">
         <v>45292</v>
       </c>
@@ -12742,69 +12807,134 @@
         <v>20.792200000000001</v>
       </c>
     </row>
-    <row r="91" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="14">
+    <row r="91" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B91" s="13">
         <v>45323</v>
       </c>
-      <c r="C91" s="18">
+      <c r="C91" s="15">
         <v>13.4008</v>
       </c>
-      <c r="D91" s="19">
+      <c r="D91" s="16">
         <v>15.286</v>
       </c>
-      <c r="E91" s="19">
+      <c r="E91" s="16">
         <v>11.951000000000001</v>
       </c>
-      <c r="F91" s="19">
+      <c r="F91" s="16">
         <v>11.765000000000001</v>
       </c>
-      <c r="G91" s="19">
+      <c r="G91" s="16">
         <v>10.963900000000001</v>
       </c>
-      <c r="H91" s="19">
+      <c r="H91" s="16">
         <v>13.427899999999999</v>
       </c>
-      <c r="I91" s="20">
+      <c r="I91" s="17">
         <v>11.549300000000001</v>
       </c>
-      <c r="J91" s="19">
+      <c r="J91" s="16">
         <v>11.379200000000001</v>
       </c>
-      <c r="K91" s="19">
+      <c r="K91" s="16">
         <v>18.6081</v>
       </c>
-      <c r="L91" s="19">
+      <c r="L91" s="16">
         <v>9.5421999999999993</v>
       </c>
-      <c r="M91" s="19">
+      <c r="M91" s="16">
         <v>20.098400000000002</v>
       </c>
-      <c r="N91" s="19">
+      <c r="N91" s="16">
         <v>10.5862</v>
       </c>
-      <c r="O91" s="19">
+      <c r="O91" s="16">
         <v>13.5733</v>
       </c>
-      <c r="P91" s="19">
+      <c r="P91" s="16">
         <v>21.3124</v>
       </c>
-      <c r="Q91" s="19">
+      <c r="Q91" s="16">
         <v>24.742799999999999</v>
       </c>
-      <c r="R91" s="19">
+      <c r="R91" s="16">
         <v>9.5474999999999994</v>
       </c>
-      <c r="S91" s="19">
+      <c r="S91" s="16">
         <v>11.2354</v>
       </c>
-      <c r="T91" s="19">
+      <c r="T91" s="16">
         <v>11.1287</v>
       </c>
-      <c r="U91" s="20">
+      <c r="U91" s="17">
         <v>16.633199999999999</v>
       </c>
-      <c r="V91" s="18">
+      <c r="V91" s="15">
         <v>11.286099999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="13">
+        <v>45352</v>
+      </c>
+      <c r="C92" s="18">
+        <v>10.164400000000001</v>
+      </c>
+      <c r="D92" s="19">
+        <v>10.3573</v>
+      </c>
+      <c r="E92" s="19">
+        <v>10.5008</v>
+      </c>
+      <c r="F92" s="19">
+        <v>8.0137999999999998</v>
+      </c>
+      <c r="G92" s="19">
+        <v>10.056800000000001</v>
+      </c>
+      <c r="H92" s="19">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="I92" s="20">
+        <v>9.9405999999999999</v>
+      </c>
+      <c r="J92" s="19">
+        <v>9.5661000000000005</v>
+      </c>
+      <c r="K92" s="19">
+        <v>11.4427</v>
+      </c>
+      <c r="L92" s="19">
+        <v>6.9301000000000004</v>
+      </c>
+      <c r="M92" s="19">
+        <v>13.2197</v>
+      </c>
+      <c r="N92" s="19">
+        <v>5.1493000000000002</v>
+      </c>
+      <c r="O92" s="19">
+        <v>12.2319</v>
+      </c>
+      <c r="P92" s="19">
+        <v>12.997999999999999</v>
+      </c>
+      <c r="Q92" s="19">
+        <v>15.887</v>
+      </c>
+      <c r="R92" s="19">
+        <v>9.0190000000000001</v>
+      </c>
+      <c r="S92" s="19">
+        <v>29.938800000000001</v>
+      </c>
+      <c r="T92" s="19">
+        <v>8.3148</v>
+      </c>
+      <c r="U92" s="20">
+        <v>9.6061999999999994</v>
+      </c>
+      <c r="V92" s="18">
+        <v>8.5932999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -12822,19 +12952,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83293D6D-81C8-49B2-8C10-806B04E884B0}">
   <dimension ref="B1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView showGridLines="0" zoomScale="116" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="50.5703125" customWidth="1"/>
-    <col min="3" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="50.5546875" customWidth="1"/>
+    <col min="3" max="8" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="54" t="s">
         <v>13</v>
       </c>
@@ -12846,7 +12976,7 @@
       <c r="H2" s="55"/>
       <c r="I2" s="56"/>
     </row>
-    <row r="3" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="22" t="s">
         <v>14</v>
       </c>
@@ -12862,7 +12992,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="22" t="s">
         <v>17</v>
       </c>
@@ -12876,10 +13006,10 @@
       <c r="H4" s="64"/>
       <c r="I4" s="23" t="str">
         <f>+_xlfn.CONCAT(H5, " ", C4, "/", H5, " ", C4-1)</f>
-        <v>Feb. 2023/Feb. 2022</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+        <v>Mar. 2023/Mar. 2022</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="24"/>
       <c r="C5" s="25" t="s">
         <v>40</v>
@@ -12901,33 +13031,33 @@
       </c>
       <c r="I5" s="47"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="27">
-        <v>12.1486</v>
+        <v>8.0029000000000003</v>
       </c>
       <c r="D6" s="27">
-        <v>8.0029000000000003</v>
+        <v>13.3675</v>
       </c>
       <c r="E6" s="27">
-        <v>13.3675</v>
+        <v>25.981400000000001</v>
       </c>
       <c r="F6" s="27">
-        <v>25.981400000000001</v>
+        <v>20.7379</v>
       </c>
       <c r="G6" s="27">
-        <v>20.7379</v>
+        <v>13.4008</v>
       </c>
       <c r="H6" s="27">
-        <v>13.4008</v>
+        <v>10.164400000000001</v>
       </c>
       <c r="I6" s="28">
-        <v>276.21839999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>287.8691</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="58" t="s">
         <v>7</v>
       </c>
@@ -12939,163 +13069,163 @@
       <c r="H7" s="59"/>
       <c r="I7" s="60"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="31" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="32">
-        <v>11.458</v>
+        <v>8.2349999999999994</v>
       </c>
       <c r="D8" s="32">
-        <v>8.2349999999999994</v>
+        <v>13.661199999999999</v>
       </c>
       <c r="E8" s="32">
-        <v>13.661199999999999</v>
+        <v>25.939699999999998</v>
       </c>
       <c r="F8" s="32">
-        <v>25.939699999999998</v>
+        <v>19.487200000000001</v>
       </c>
       <c r="G8" s="32">
-        <v>19.487200000000001</v>
+        <v>15.286</v>
       </c>
       <c r="H8" s="32">
-        <v>15.286</v>
+        <v>10.3573</v>
       </c>
       <c r="I8" s="33">
-        <v>277.08659999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+        <v>289.9024</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="32">
-        <v>12.5983</v>
+        <v>7.9866999999999999</v>
       </c>
       <c r="D9" s="32">
-        <v>7.9866999999999999</v>
+        <v>13.3454</v>
       </c>
       <c r="E9" s="32">
-        <v>13.3454</v>
+        <v>25.8706</v>
       </c>
       <c r="F9" s="32">
-        <v>25.8706</v>
+        <v>21.381399999999999</v>
       </c>
       <c r="G9" s="32">
-        <v>21.381399999999999</v>
+        <v>11.950900000000001</v>
       </c>
       <c r="H9" s="32">
-        <v>11.950900000000001</v>
+        <v>10.5008</v>
       </c>
       <c r="I9" s="33">
-        <v>276.08699999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+        <v>288.14789999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="31" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="32">
-        <v>12.7674</v>
+        <v>7.4473000000000003</v>
       </c>
       <c r="D10" s="32">
-        <v>7.4473000000000003</v>
+        <v>12.2658</v>
       </c>
       <c r="E10" s="32">
-        <v>12.2658</v>
+        <v>25.432500000000001</v>
       </c>
       <c r="F10" s="32">
-        <v>25.432500000000001</v>
+        <v>21.819099999999999</v>
       </c>
       <c r="G10" s="32">
-        <v>21.819099999999999</v>
+        <v>11.765000000000001</v>
       </c>
       <c r="H10" s="32">
-        <v>11.765000000000001</v>
+        <v>8.0137999999999998</v>
       </c>
       <c r="I10" s="33">
-        <v>272.33640000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>277.28899999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="32">
-        <v>12.4107</v>
+        <v>7.0147000000000004</v>
       </c>
       <c r="D11" s="32">
-        <v>7.0147000000000004</v>
+        <v>13.189500000000001</v>
       </c>
       <c r="E11" s="32">
-        <v>13.189500000000001</v>
+        <v>28.0672</v>
       </c>
       <c r="F11" s="32">
-        <v>28.0672</v>
+        <v>19.981400000000001</v>
       </c>
       <c r="G11" s="32">
-        <v>19.981400000000001</v>
+        <v>10.963900000000001</v>
       </c>
       <c r="H11" s="32">
-        <v>10.963900000000001</v>
+        <v>10.056800000000001</v>
       </c>
       <c r="I11" s="33">
-        <v>271.88929999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>286.2296</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="32">
-        <v>13.1142</v>
+        <v>7.3333000000000004</v>
       </c>
       <c r="D12" s="32">
-        <v>7.3333000000000004</v>
+        <v>13.1684</v>
       </c>
       <c r="E12" s="32">
-        <v>13.1684</v>
+        <v>26.057700000000001</v>
       </c>
       <c r="F12" s="32">
-        <v>26.057700000000001</v>
+        <v>22.540900000000001</v>
       </c>
       <c r="G12" s="32">
-        <v>22.540900000000001</v>
+        <v>13.427899999999999</v>
       </c>
       <c r="H12" s="32">
-        <v>13.427899999999999</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="I12" s="33">
-        <v>275.81700000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>280.86680000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="32">
-        <v>13.477600000000001</v>
+        <v>7.7610999999999999</v>
       </c>
       <c r="D13" s="32">
-        <v>7.7610999999999999</v>
+        <v>12.2498</v>
       </c>
       <c r="E13" s="32">
-        <v>12.2498</v>
+        <v>24.6936</v>
       </c>
       <c r="F13" s="32">
-        <v>24.6936</v>
+        <v>24.8538</v>
       </c>
       <c r="G13" s="32">
-        <v>24.8538</v>
+        <v>11.549300000000001</v>
       </c>
       <c r="H13" s="32">
-        <v>11.549300000000001</v>
+        <v>9.9405999999999999</v>
       </c>
       <c r="I13" s="33">
-        <v>279.8526</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>292.2722</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="31"/>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
@@ -13105,7 +13235,7 @@
       <c r="H14" s="32"/>
       <c r="I14" s="33"/>
     </row>
-    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="61" t="s">
         <v>9</v>
       </c>
@@ -13117,319 +13247,319 @@
       <c r="H15" s="62"/>
       <c r="I15" s="63"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="31" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="32">
-        <v>13.5906</v>
+        <v>6.9745999999999997</v>
       </c>
       <c r="D16" s="32">
-        <v>6.9745999999999997</v>
+        <v>16.734400000000001</v>
       </c>
       <c r="E16" s="32">
-        <v>16.734400000000001</v>
+        <v>29.6767</v>
       </c>
       <c r="F16" s="32">
-        <v>29.6767</v>
+        <v>20.2986</v>
       </c>
       <c r="G16" s="32">
-        <v>20.2986</v>
+        <v>11.379200000000001</v>
       </c>
       <c r="H16" s="32">
-        <v>11.379200000000001</v>
+        <v>9.5661000000000005</v>
       </c>
       <c r="I16" s="33">
-        <v>303.82339999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>308.26979999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="32">
-        <v>9.4953000000000003</v>
+        <v>9.9351000000000003</v>
       </c>
       <c r="D17" s="32">
-        <v>9.9351000000000003</v>
+        <v>11.3401</v>
       </c>
       <c r="E17" s="32">
-        <v>11.3401</v>
+        <v>20.002500000000001</v>
       </c>
       <c r="F17" s="32">
-        <v>20.002500000000001</v>
+        <v>21.049499999999998</v>
       </c>
       <c r="G17" s="32">
-        <v>21.049499999999998</v>
+        <v>18.6081</v>
       </c>
       <c r="H17" s="32">
-        <v>18.6081</v>
+        <v>11.4427</v>
       </c>
       <c r="I17" s="33">
-        <v>253.21119999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>266.32670000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="31" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="32">
-        <v>12.605700000000001</v>
+        <v>10.352499999999999</v>
       </c>
       <c r="D18" s="32">
-        <v>10.352499999999999</v>
+        <v>11.342000000000001</v>
       </c>
       <c r="E18" s="32">
-        <v>11.342000000000001</v>
+        <v>20.7287</v>
       </c>
       <c r="F18" s="32">
-        <v>20.7287</v>
+        <v>13.392300000000001</v>
       </c>
       <c r="G18" s="32">
-        <v>13.392300000000001</v>
+        <v>9.5421999999999993</v>
       </c>
       <c r="H18" s="32">
-        <v>9.5421999999999993</v>
+        <v>6.9301000000000004</v>
       </c>
       <c r="I18" s="33">
-        <v>204.21039999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>208.39439999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="31" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="32">
-        <v>8.5284999999999993</v>
+        <v>7.7514000000000003</v>
       </c>
       <c r="D19" s="32">
-        <v>7.7514000000000003</v>
+        <v>7.1440999999999999</v>
       </c>
       <c r="E19" s="32">
-        <v>7.1440999999999999</v>
+        <v>13.781599999999999</v>
       </c>
       <c r="F19" s="32">
-        <v>13.781599999999999</v>
+        <v>14.2448</v>
       </c>
       <c r="G19" s="32">
-        <v>14.2448</v>
+        <v>20.098299999999998</v>
       </c>
       <c r="H19" s="32">
-        <v>20.098299999999998</v>
+        <v>13.2197</v>
       </c>
       <c r="I19" s="33">
-        <v>201.46</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>220.5317</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="31" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="32">
-        <v>11.9559</v>
+        <v>10.5718</v>
       </c>
       <c r="D20" s="32">
-        <v>10.5718</v>
+        <v>12.776300000000001</v>
       </c>
       <c r="E20" s="32">
-        <v>12.776300000000001</v>
+        <v>31.744900000000001</v>
       </c>
       <c r="F20" s="32">
-        <v>31.744900000000001</v>
+        <v>22.438099999999999</v>
       </c>
       <c r="G20" s="32">
-        <v>22.438099999999999</v>
+        <v>10.5862</v>
       </c>
       <c r="H20" s="32">
-        <v>10.5862</v>
+        <v>5.1493000000000002</v>
       </c>
       <c r="I20" s="33">
-        <v>304.28859999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>301.31849999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="31" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="32">
-        <v>9.5385000000000009</v>
+        <v>5.0633999999999997</v>
       </c>
       <c r="D21" s="32">
-        <v>5.0633999999999997</v>
+        <v>15.853400000000001</v>
       </c>
       <c r="E21" s="32">
-        <v>15.853400000000001</v>
+        <v>32.622999999999998</v>
       </c>
       <c r="F21" s="32">
-        <v>32.622999999999998</v>
+        <v>20.499500000000001</v>
       </c>
       <c r="G21" s="32">
-        <v>20.499500000000001</v>
+        <v>13.5733</v>
       </c>
       <c r="H21" s="32">
-        <v>13.5733</v>
+        <v>12.2319</v>
       </c>
       <c r="I21" s="33">
-        <v>305.83780000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>330.7568</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="31" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="32">
-        <v>10.8613</v>
+        <v>7.1205999999999996</v>
       </c>
       <c r="D22" s="32">
-        <v>7.1205999999999996</v>
+        <v>10.409599999999999</v>
       </c>
       <c r="E22" s="32">
-        <v>10.409599999999999</v>
+        <v>31.6769</v>
       </c>
       <c r="F22" s="32">
-        <v>31.6769</v>
+        <v>26.314499999999999</v>
       </c>
       <c r="G22" s="32">
-        <v>26.314499999999999</v>
+        <v>21.3124</v>
       </c>
       <c r="H22" s="32">
-        <v>21.3124</v>
+        <v>12.997999999999999</v>
       </c>
       <c r="I22" s="33">
-        <v>297.77710000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>326.70069999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="31" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="32">
-        <v>9.7271999999999998</v>
+        <v>12.3354</v>
       </c>
       <c r="D23" s="32">
-        <v>12.3354</v>
+        <v>14.9031</v>
       </c>
       <c r="E23" s="32">
-        <v>14.9031</v>
+        <v>14.953200000000001</v>
       </c>
       <c r="F23" s="32">
-        <v>14.953200000000001</v>
+        <v>23.994299999999999</v>
       </c>
       <c r="G23" s="32">
-        <v>23.994299999999999</v>
+        <v>24.742799999999999</v>
       </c>
       <c r="H23" s="32">
-        <v>24.742799999999999</v>
+        <v>15.887</v>
       </c>
       <c r="I23" s="33">
-        <v>283.82150000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>336.66390000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="31" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="32">
-        <v>15.172599999999999</v>
+        <v>8.8969000000000005</v>
       </c>
       <c r="D24" s="32">
-        <v>8.8969000000000005</v>
+        <v>13.5905</v>
       </c>
       <c r="E24" s="32">
-        <v>13.5905</v>
+        <v>20.004899999999999</v>
       </c>
       <c r="F24" s="32">
-        <v>20.004899999999999</v>
+        <v>24.026</v>
       </c>
       <c r="G24" s="32">
-        <v>24.026</v>
+        <v>9.5474999999999994</v>
       </c>
       <c r="H24" s="32">
-        <v>9.5474999999999994</v>
+        <v>9.0190000000000001</v>
       </c>
       <c r="I24" s="33">
-        <v>270.3965</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>285.03699999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="31" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="32">
-        <v>10.257899999999999</v>
+        <v>7.1054000000000004</v>
       </c>
       <c r="D25" s="32">
-        <v>7.1054000000000004</v>
+        <v>10.886900000000001</v>
       </c>
       <c r="E25" s="32">
-        <v>10.886900000000001</v>
+        <v>10.581899999999999</v>
       </c>
       <c r="F25" s="32">
-        <v>10.581899999999999</v>
+        <v>2.3591000000000002</v>
       </c>
       <c r="G25" s="32">
-        <v>2.3591000000000002</v>
+        <v>11.2354</v>
       </c>
       <c r="H25" s="32">
-        <v>11.2354</v>
+        <v>29.938800000000001</v>
       </c>
       <c r="I25" s="33">
-        <v>157.08430000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+        <v>204.1343</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="31" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="32">
-        <v>13.3192</v>
+        <v>8.8308999999999997</v>
       </c>
       <c r="D26" s="32">
-        <v>8.8308999999999997</v>
+        <v>12.102499999999999</v>
       </c>
       <c r="E26" s="32">
-        <v>12.102499999999999</v>
+        <v>21.5383</v>
       </c>
       <c r="F26" s="32">
-        <v>21.5383</v>
+        <v>19.302700000000002</v>
       </c>
       <c r="G26" s="32">
-        <v>19.302700000000002</v>
+        <v>11.1287</v>
       </c>
       <c r="H26" s="32">
-        <v>11.1287</v>
+        <v>8.3148</v>
       </c>
       <c r="I26" s="33">
-        <v>270.87470000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+        <v>272.37630000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="32">
-        <v>11.5976</v>
+        <v>7.6063000000000001</v>
       </c>
       <c r="D27" s="32">
-        <v>7.6063000000000001</v>
+        <v>11.4826</v>
       </c>
       <c r="E27" s="32">
-        <v>11.4826</v>
+        <v>32.697200000000002</v>
       </c>
       <c r="F27" s="32">
-        <v>32.697200000000002</v>
+        <v>44.463900000000002</v>
       </c>
       <c r="G27" s="32">
-        <v>44.463900000000002</v>
+        <v>16.633199999999999</v>
       </c>
       <c r="H27" s="32">
-        <v>16.633199999999999</v>
+        <v>9.6061999999999994</v>
       </c>
       <c r="I27" s="33">
-        <v>350.42779999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>364.20440000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="31"/>
       <c r="C28" s="32"/>
       <c r="D28" s="32"/>
@@ -13439,7 +13569,7 @@
       <c r="H28" s="32"/>
       <c r="I28" s="33"/>
     </row>
-    <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="61" t="s">
         <v>32</v>
       </c>
@@ -13451,189 +13581,189 @@
       <c r="H29" s="62"/>
       <c r="I29" s="63"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="32">
-        <v>13.191599999999999</v>
+        <v>8.3850999999999996</v>
       </c>
       <c r="D30" s="32">
-        <v>8.3850999999999996</v>
+        <v>14.082599999999999</v>
       </c>
       <c r="E30" s="32">
-        <v>14.082599999999999</v>
+        <v>26.100899999999999</v>
       </c>
       <c r="F30" s="32">
-        <v>26.100899999999999</v>
+        <v>20.792200000000001</v>
       </c>
       <c r="G30" s="32">
-        <v>20.792200000000001</v>
+        <v>11.286099999999999</v>
       </c>
       <c r="H30" s="32">
-        <v>11.286099999999999</v>
+        <v>8.5932999999999993</v>
       </c>
       <c r="I30" s="33">
-        <v>279.52980000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>284.44569999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="31" t="s">
         <v>19</v>
       </c>
       <c r="C31" s="32">
-        <v>12.6919</v>
+        <v>8.8498000000000001</v>
       </c>
       <c r="D31" s="32">
-        <v>8.8498000000000001</v>
+        <v>14.573700000000001</v>
       </c>
       <c r="E31" s="32">
-        <v>14.573700000000001</v>
+        <v>26.662099999999999</v>
       </c>
       <c r="F31" s="32">
-        <v>26.662099999999999</v>
+        <v>19.951899999999998</v>
       </c>
       <c r="G31" s="32">
-        <v>19.951899999999998</v>
+        <v>11.7393</v>
       </c>
       <c r="H31" s="32">
-        <v>11.7393</v>
+        <v>8.7751000000000001</v>
       </c>
       <c r="I31" s="33">
-        <v>279.73689999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>285.62990000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="32">
-        <v>13.5204</v>
+        <v>8.1297999999999995</v>
       </c>
       <c r="D32" s="32">
-        <v>8.1297999999999995</v>
+        <v>14.0298</v>
       </c>
       <c r="E32" s="32">
-        <v>14.0298</v>
+        <v>25.5184</v>
       </c>
       <c r="F32" s="32">
-        <v>25.5184</v>
+        <v>21.286100000000001</v>
       </c>
       <c r="G32" s="32">
-        <v>21.286100000000001</v>
+        <v>11.063000000000001</v>
       </c>
       <c r="H32" s="32">
-        <v>11.063000000000001</v>
+        <v>8.8963000000000001</v>
       </c>
       <c r="I32" s="33">
-        <v>280.97250000000003</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>285.89589999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="31" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="32">
-        <v>13.0677</v>
+        <v>7.9637000000000002</v>
       </c>
       <c r="D33" s="32">
-        <v>7.9637000000000002</v>
+        <v>12.5905</v>
       </c>
       <c r="E33" s="32">
-        <v>12.5905</v>
+        <v>25.406300000000002</v>
       </c>
       <c r="F33" s="32">
-        <v>25.406300000000002</v>
+        <v>21.453700000000001</v>
       </c>
       <c r="G33" s="32">
-        <v>21.453700000000001</v>
+        <v>10.1144</v>
       </c>
       <c r="H33" s="32">
-        <v>10.1144</v>
+        <v>6.8185000000000002</v>
       </c>
       <c r="I33" s="33">
-        <v>270.56380000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>271.2337</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="31" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="32">
-        <v>13.2484</v>
+        <v>7.1936</v>
       </c>
       <c r="D34" s="32">
-        <v>7.1936</v>
+        <v>13.8574</v>
       </c>
       <c r="E34" s="32">
-        <v>13.8574</v>
+        <v>27.901299999999999</v>
       </c>
       <c r="F34" s="32">
-        <v>27.901299999999999</v>
+        <v>19.4986</v>
       </c>
       <c r="G34" s="32">
-        <v>19.4986</v>
+        <v>9.8995999999999995</v>
       </c>
       <c r="H34" s="32">
-        <v>9.8995999999999995</v>
+        <v>7.4158999999999997</v>
       </c>
       <c r="I34" s="33">
-        <v>274.3116</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>278.41149999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="32">
-        <v>13.9444</v>
+        <v>8.1179000000000006</v>
       </c>
       <c r="D35" s="32">
-        <v>8.1179000000000006</v>
+        <v>13.4346</v>
       </c>
       <c r="E35" s="32">
-        <v>13.4346</v>
+        <v>25.4133</v>
       </c>
       <c r="F35" s="32">
-        <v>25.4133</v>
+        <v>21.833300000000001</v>
       </c>
       <c r="G35" s="32">
-        <v>21.833300000000001</v>
+        <v>11.944800000000001</v>
       </c>
       <c r="H35" s="32">
-        <v>11.944800000000001</v>
+        <v>8.0154999999999994</v>
       </c>
       <c r="I35" s="33">
-        <v>277.44979999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>277.76960000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="35">
-        <v>15.0021</v>
+        <v>7.9149000000000003</v>
       </c>
       <c r="D36" s="35">
-        <v>7.9149000000000003</v>
+        <v>12.872199999999999</v>
       </c>
       <c r="E36" s="35">
-        <v>12.872199999999999</v>
+        <v>24.8947</v>
       </c>
       <c r="F36" s="35">
-        <v>24.8947</v>
+        <v>24.804600000000001</v>
       </c>
       <c r="G36" s="35">
-        <v>24.804600000000001</v>
+        <v>10.9206</v>
       </c>
       <c r="H36" s="35">
-        <v>10.9206</v>
+        <v>9.0473999999999997</v>
       </c>
       <c r="I36" s="36">
-        <v>288.72629999999998</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>296.62990000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="53" t="s">
         <v>34</v>
       </c>
@@ -13645,7 +13775,7 @@
       <c r="H37" s="53"/>
       <c r="I37" s="53"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -13655,7 +13785,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -13685,17 +13815,17 @@
   <dimension ref="B1:I33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="54.42578125" customWidth="1"/>
-    <col min="3" max="9" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="54.44140625" customWidth="1"/>
+    <col min="3" max="9" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="54" t="s">
         <v>35</v>
       </c>
@@ -13707,7 +13837,7 @@
       <c r="H2" s="65"/>
       <c r="I2" s="66"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="37"/>
       <c r="C3" s="38" t="s">
         <v>19</v>
@@ -13731,7 +13861,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="29" t="s">
         <v>36</v>
       </c>
@@ -13743,345 +13873,345 @@
       <c r="H4" s="46"/>
       <c r="I4" s="30"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="40" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="41">
-        <v>15.286</v>
+        <v>10.3573</v>
       </c>
       <c r="D5" s="41">
-        <v>11.950900000000001</v>
+        <v>10.5008</v>
       </c>
       <c r="E5" s="41">
-        <v>11.765000000000001</v>
+        <v>8.0137999999999998</v>
       </c>
       <c r="F5" s="41">
-        <v>10.963900000000001</v>
+        <v>10.056800000000001</v>
       </c>
       <c r="G5" s="41">
-        <v>13.427899999999999</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="H5" s="41">
-        <v>11.549300000000001</v>
+        <v>9.9405999999999999</v>
       </c>
       <c r="I5" s="42">
-        <v>13.4008</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10.164400000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="31" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="32">
-        <v>3.5903999999999998</v>
+        <v>2.9516</v>
       </c>
       <c r="D6" s="32">
-        <v>3.5905</v>
+        <v>2.9624999999999999</v>
       </c>
       <c r="E6" s="32">
-        <v>3.512</v>
+        <v>2.6617000000000002</v>
       </c>
       <c r="F6" s="32">
-        <v>3.3639999999999999</v>
+        <v>2.9624000000000001</v>
       </c>
       <c r="G6" s="32">
-        <v>3.7770999999999999</v>
+        <v>2.9371</v>
       </c>
       <c r="H6" s="32">
-        <v>3.0552000000000001</v>
+        <v>2.9058000000000002</v>
       </c>
       <c r="I6" s="33">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2.9329999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="32">
-        <v>0.48159999999999997</v>
+        <v>0.2918</v>
       </c>
       <c r="D7" s="32">
-        <v>0.51619999999999999</v>
+        <v>0.34010000000000001</v>
       </c>
       <c r="E7" s="32">
-        <v>0.36430000000000001</v>
+        <v>0.28070000000000001</v>
       </c>
       <c r="F7" s="32">
-        <v>0.47960000000000003</v>
+        <v>0.2994</v>
       </c>
       <c r="G7" s="32">
-        <v>0.41520000000000001</v>
+        <v>0.35070000000000001</v>
       </c>
       <c r="H7" s="32">
-        <v>0.51659999999999995</v>
+        <v>0.28920000000000001</v>
       </c>
       <c r="I7" s="33">
-        <v>0.4834</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.31080000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="31" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="32">
-        <v>0.87109999999999999</v>
+        <v>0.48630000000000001</v>
       </c>
       <c r="D8" s="32">
-        <v>0.92689999999999995</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="E8" s="32">
-        <v>0.97309999999999997</v>
+        <v>0.66549999999999998</v>
       </c>
       <c r="F8" s="32">
-        <v>1.1880999999999999</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="G8" s="32">
-        <v>0.9254</v>
+        <v>0.501</v>
       </c>
       <c r="H8" s="32">
-        <v>1.2287999999999999</v>
+        <v>1.3592</v>
       </c>
       <c r="I8" s="33">
-        <v>0.93059999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.66690000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="31" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="32">
-        <v>1.3552999999999999</v>
+        <v>0.87419999999999998</v>
       </c>
       <c r="D9" s="32">
-        <v>0.6875</v>
+        <v>0.74990000000000001</v>
       </c>
       <c r="E9" s="32">
-        <v>1.2823</v>
+        <v>0.31690000000000002</v>
       </c>
       <c r="F9" s="32">
-        <v>0.78239999999999998</v>
+        <v>0.87990000000000002</v>
       </c>
       <c r="G9" s="32">
-        <v>1.5575000000000001</v>
+        <v>0.38419999999999999</v>
       </c>
       <c r="H9" s="32">
-        <v>0.91830000000000001</v>
+        <v>0.66459999999999997</v>
       </c>
       <c r="I9" s="33">
-        <v>1.0866</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.75870000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="31" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="32">
-        <v>0.74029999999999996</v>
+        <v>0.3357</v>
       </c>
       <c r="D10" s="32">
-        <v>0.73089999999999999</v>
+        <v>0.38369999999999999</v>
       </c>
       <c r="E10" s="32">
-        <v>0.68200000000000005</v>
+        <v>0.24279999999999999</v>
       </c>
       <c r="F10" s="32">
-        <v>0.74960000000000004</v>
+        <v>0.4521</v>
       </c>
       <c r="G10" s="32">
-        <v>0.68149999999999999</v>
+        <v>0.33860000000000001</v>
       </c>
       <c r="H10" s="32">
-        <v>0.8478</v>
+        <v>0.29770000000000002</v>
       </c>
       <c r="I10" s="33">
-        <v>0.73540000000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="31" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="32">
-        <v>1.427</v>
+        <v>1.1986000000000001</v>
       </c>
       <c r="D11" s="32">
-        <v>1.2307999999999999</v>
+        <v>1.2092000000000001</v>
       </c>
       <c r="E11" s="32">
-        <v>0.86170000000000002</v>
+        <v>0.81</v>
       </c>
       <c r="F11" s="32">
-        <v>0.80740000000000001</v>
+        <v>0.66830000000000001</v>
       </c>
       <c r="G11" s="32">
-        <v>1.1042000000000001</v>
+        <v>1.0573999999999999</v>
       </c>
       <c r="H11" s="32">
-        <v>0.71630000000000005</v>
+        <v>0.64439999999999997</v>
       </c>
       <c r="I11" s="33">
-        <v>1.2439</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.119</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="31" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="32">
-        <v>3.4268999999999998</v>
+        <v>1.4633</v>
       </c>
       <c r="D12" s="32">
-        <v>1.5911999999999999</v>
+        <v>1.5793999999999999</v>
       </c>
       <c r="E12" s="32">
-        <v>1.4379999999999999</v>
+        <v>0.99870000000000003</v>
       </c>
       <c r="F12" s="32">
-        <v>1.3673</v>
+        <v>2.6261000000000001</v>
       </c>
       <c r="G12" s="32">
-        <v>2.0577000000000001</v>
+        <v>1.2605</v>
       </c>
       <c r="H12" s="32">
-        <v>1.843</v>
+        <v>1.8802000000000001</v>
       </c>
       <c r="I12" s="33">
-        <v>2.4262000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.532</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="31" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="32">
-        <v>0.5101</v>
+        <v>0.34720000000000001</v>
       </c>
       <c r="D13" s="32">
-        <v>0.4985</v>
+        <v>0.37369999999999998</v>
       </c>
       <c r="E13" s="32">
-        <v>0.3921</v>
+        <v>0.28050000000000003</v>
       </c>
       <c r="F13" s="32">
-        <v>0.44729999999999998</v>
+        <v>0.30309999999999998</v>
       </c>
       <c r="G13" s="32">
-        <v>0.36380000000000001</v>
+        <v>0.26519999999999999</v>
       </c>
       <c r="H13" s="32">
-        <v>0.4526</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="I13" s="33">
-        <v>0.48499999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="31" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="32">
-        <v>0.80959999999999999</v>
+        <v>0.69010000000000005</v>
       </c>
       <c r="D14" s="32">
-        <v>0.54859999999999998</v>
+        <v>0.62109999999999999</v>
       </c>
       <c r="E14" s="32">
-        <v>0.46729999999999999</v>
+        <v>0.34310000000000002</v>
       </c>
       <c r="F14" s="32">
-        <v>0.57640000000000002</v>
+        <v>0.46150000000000002</v>
       </c>
       <c r="G14" s="32">
-        <v>0.59970000000000001</v>
+        <v>0.43149999999999999</v>
       </c>
       <c r="H14" s="32">
-        <v>0.60780000000000001</v>
+        <v>0.46139999999999998</v>
       </c>
       <c r="I14" s="33">
-        <v>0.66620000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.60850000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="31" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="32">
-        <v>0.33900000000000002</v>
+        <v>0.51290000000000002</v>
       </c>
       <c r="D15" s="32">
-        <v>1.7600000000000001E-2</v>
+        <v>0.26590000000000003</v>
       </c>
       <c r="E15" s="32">
-        <v>4.1700000000000001E-2</v>
+        <v>0.46079999999999999</v>
       </c>
       <c r="F15" s="32">
-        <v>0.13150000000000001</v>
+        <v>6.83E-2</v>
       </c>
       <c r="G15" s="32">
-        <v>7.1099999999999997E-2</v>
+        <v>0.26340000000000002</v>
       </c>
       <c r="H15" s="32">
-        <v>7.6499999999999999E-2</v>
+        <v>0.26690000000000003</v>
       </c>
       <c r="I15" s="33">
-        <v>0.1734</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.38059999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="31" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="32">
-        <v>1.1836</v>
+        <v>0.86780000000000002</v>
       </c>
       <c r="D16" s="32">
-        <v>1.0044</v>
+        <v>0.76839999999999997</v>
       </c>
       <c r="E16" s="32">
-        <v>1.095</v>
+        <v>0.67479999999999996</v>
       </c>
       <c r="F16" s="32">
-        <v>0.54110000000000003</v>
+        <v>0.43149999999999999</v>
       </c>
       <c r="G16" s="32">
-        <v>1.1037999999999999</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="H16" s="32">
-        <v>0.54859999999999998</v>
+        <v>0.54659999999999997</v>
       </c>
       <c r="I16" s="33">
-        <v>1.0541</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.77059999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="32">
-        <v>0.55120000000000002</v>
+        <v>0.3377</v>
       </c>
       <c r="D17" s="32">
-        <v>0.60780000000000001</v>
+        <v>0.39779999999999999</v>
       </c>
       <c r="E17" s="32">
-        <v>0.65559999999999996</v>
+        <v>0.27850000000000003</v>
       </c>
       <c r="F17" s="32">
-        <v>0.52929999999999999</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="G17" s="32">
-        <v>0.77080000000000004</v>
+        <v>0.35239999999999999</v>
       </c>
       <c r="H17" s="32">
-        <v>0.73770000000000002</v>
+        <v>0.3538</v>
       </c>
       <c r="I17" s="33">
-        <v>0.59670000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.36520000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="43"/>
       <c r="C18" s="44"/>
       <c r="D18" s="44"/>
@@ -14091,7 +14221,7 @@
       <c r="H18" s="44"/>
       <c r="I18" s="45"/>
     </row>
-    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="61" t="s">
         <v>36</v>
       </c>
@@ -14103,345 +14233,345 @@
       <c r="H19" s="62"/>
       <c r="I19" s="63"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="40" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="41">
-        <v>277.08659999999998</v>
+        <v>289.9024</v>
       </c>
       <c r="D20" s="41">
-        <v>276.08699999999999</v>
+        <v>288.14789999999999</v>
       </c>
       <c r="E20" s="41">
-        <v>272.33640000000003</v>
+        <v>277.28899999999999</v>
       </c>
       <c r="F20" s="41">
-        <v>271.88929999999999</v>
+        <v>286.2296</v>
       </c>
       <c r="G20" s="41">
-        <v>275.81700000000001</v>
+        <v>280.86680000000001</v>
       </c>
       <c r="H20" s="41">
-        <v>279.8526</v>
+        <v>292.2722</v>
       </c>
       <c r="I20" s="42">
-        <v>276.21839999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>287.8691</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="31" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="32">
-        <v>79.187899999999999</v>
+        <v>82.365899999999996</v>
       </c>
       <c r="D21" s="32">
-        <v>93.808599999999998</v>
+        <v>95.9602</v>
       </c>
       <c r="E21" s="32">
-        <v>107.91849999999999</v>
+        <v>108.7204</v>
       </c>
       <c r="F21" s="32">
-        <v>108.33580000000001</v>
+        <v>110.7754</v>
       </c>
       <c r="G21" s="32">
-        <v>91.923900000000003</v>
+        <v>94.243200000000002</v>
       </c>
       <c r="H21" s="32">
-        <v>90.560100000000006</v>
+        <v>93.8553</v>
       </c>
       <c r="I21" s="33">
-        <v>88.657399999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>91.248599999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="32">
-        <v>6.8756000000000004</v>
+        <v>7.2812000000000001</v>
       </c>
       <c r="D22" s="32">
-        <v>8.1912000000000003</v>
+        <v>8.6402999999999999</v>
       </c>
       <c r="E22" s="32">
-        <v>6.3179999999999996</v>
+        <v>6.7176</v>
       </c>
       <c r="F22" s="32">
-        <v>8.0954999999999995</v>
+        <v>8.4029000000000007</v>
       </c>
       <c r="G22" s="32">
-        <v>6.9215999999999998</v>
+        <v>7.5061</v>
       </c>
       <c r="H22" s="32">
-        <v>7.5686999999999998</v>
+        <v>7.9592000000000001</v>
       </c>
       <c r="I22" s="33">
-        <v>7.3761000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7.8003</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="31" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="32">
-        <v>21.0154</v>
+        <v>22.020499999999998</v>
       </c>
       <c r="D23" s="32">
-        <v>23.752400000000002</v>
+        <v>24.649100000000001</v>
       </c>
       <c r="E23" s="32">
-        <v>25.0137</v>
+        <v>24.9983</v>
       </c>
       <c r="F23" s="32">
-        <v>23.752800000000001</v>
+        <v>23.659800000000001</v>
       </c>
       <c r="G23" s="32">
-        <v>23.137499999999999</v>
+        <v>22.4392</v>
       </c>
       <c r="H23" s="32">
-        <v>28.719100000000001</v>
+        <v>31.031500000000001</v>
       </c>
       <c r="I23" s="33">
-        <v>22.811699999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23.631499999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="31" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="32">
-        <v>15.949400000000001</v>
+        <v>17.408000000000001</v>
       </c>
       <c r="D24" s="32">
-        <v>11.5382</v>
+        <v>12.8872</v>
       </c>
       <c r="E24" s="32">
-        <v>13.968400000000001</v>
+        <v>13.825799999999999</v>
       </c>
       <c r="F24" s="32">
-        <v>15.559799999999999</v>
+        <v>17.370100000000001</v>
       </c>
       <c r="G24" s="32">
-        <v>16.2258</v>
+        <v>15.932700000000001</v>
       </c>
       <c r="H24" s="32">
-        <v>16.398599999999998</v>
+        <v>17.378799999999998</v>
       </c>
       <c r="I24" s="33">
-        <v>14.3222</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15.5364</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="31" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="32">
-        <v>19.136900000000001</v>
+        <v>18.546500000000002</v>
       </c>
       <c r="D25" s="32">
-        <v>18.861699999999999</v>
+        <v>18.506</v>
       </c>
       <c r="E25" s="32">
-        <v>18.026199999999999</v>
+        <v>17.2959</v>
       </c>
       <c r="F25" s="32">
-        <v>22.641400000000001</v>
+        <v>22.276</v>
       </c>
       <c r="G25" s="32">
-        <v>18.341100000000001</v>
+        <v>17.855899999999998</v>
       </c>
       <c r="H25" s="32">
-        <v>21.7944</v>
+        <v>20.959299999999999</v>
       </c>
       <c r="I25" s="33">
-        <v>19.204699999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18.689299999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="31" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="32">
-        <v>27.163699999999999</v>
+        <v>28.951699999999999</v>
       </c>
       <c r="D26" s="32">
-        <v>27.4236</v>
+        <v>29.174199999999999</v>
       </c>
       <c r="E26" s="32">
-        <v>21.0289</v>
+        <v>22.057200000000002</v>
       </c>
       <c r="F26" s="32">
-        <v>17.888999999999999</v>
+        <v>18.877199999999998</v>
       </c>
       <c r="G26" s="32">
-        <v>26.200600000000001</v>
+        <v>27.554300000000001</v>
       </c>
       <c r="H26" s="32">
-        <v>16.296900000000001</v>
+        <v>17.109200000000001</v>
       </c>
       <c r="I26" s="33">
-        <v>25.8657</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27.485499999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="31" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="32">
-        <v>34.733600000000003</v>
+        <v>36.779499999999999</v>
       </c>
       <c r="D27" s="32">
-        <v>32.576000000000001</v>
+        <v>35.204999999999998</v>
       </c>
       <c r="E27" s="32">
-        <v>24.520099999999999</v>
+        <v>25.914899999999999</v>
       </c>
       <c r="F27" s="32">
-        <v>28.598099999999999</v>
+        <v>35.6021</v>
       </c>
       <c r="G27" s="32">
-        <v>37.951000000000001</v>
+        <v>39.0276</v>
       </c>
       <c r="H27" s="32">
-        <v>46.390300000000003</v>
+        <v>49.382300000000001</v>
       </c>
       <c r="I27" s="33">
-        <v>33.715899999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>36.133000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="31" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="32">
-        <v>6.2435</v>
+        <v>6.9798999999999998</v>
       </c>
       <c r="D28" s="32">
-        <v>6.2009999999999996</v>
+        <v>7.0594999999999999</v>
       </c>
       <c r="E28" s="32">
-        <v>5.6711</v>
+        <v>6.2126000000000001</v>
       </c>
       <c r="F28" s="32">
-        <v>5.9861000000000004</v>
+        <v>6.7012</v>
       </c>
       <c r="G28" s="32">
-        <v>4.6731999999999996</v>
+        <v>5.2188999999999997</v>
       </c>
       <c r="H28" s="32">
-        <v>5.6715999999999998</v>
+        <v>6.2305000000000001</v>
       </c>
       <c r="I28" s="33">
-        <v>6.0705</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6.8163</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="31" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="32">
-        <v>20.074000000000002</v>
+        <v>20.555299999999999</v>
       </c>
       <c r="D29" s="32">
-        <v>18.059799999999999</v>
+        <v>18.638500000000001</v>
       </c>
       <c r="E29" s="32">
-        <v>13.348599999999999</v>
+        <v>13.278</v>
       </c>
       <c r="F29" s="32">
-        <v>15.045999999999999</v>
+        <v>15.5062</v>
       </c>
       <c r="G29" s="32">
-        <v>16.3644</v>
+        <v>16.221</v>
       </c>
       <c r="H29" s="32">
-        <v>20.0901</v>
+        <v>19.907</v>
       </c>
       <c r="I29" s="33">
-        <v>18.5045</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18.917400000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="31" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="32">
-        <v>4.4504000000000001</v>
+        <v>6.5861999999999998</v>
       </c>
       <c r="D30" s="32">
-        <v>1.3895</v>
+        <v>2.3894000000000002</v>
       </c>
       <c r="E30" s="32">
-        <v>1.9981</v>
+        <v>3.6276000000000002</v>
       </c>
       <c r="F30" s="32">
-        <v>1.2902</v>
+        <v>1.6508</v>
       </c>
       <c r="G30" s="32">
-        <v>1.958</v>
+        <v>2.7513999999999998</v>
       </c>
       <c r="H30" s="32">
-        <v>1.5157</v>
+        <v>2.5093000000000001</v>
       </c>
       <c r="I30" s="33">
-        <v>2.8294000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4.3402000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="31" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="32">
-        <v>31.419799999999999</v>
+        <v>31.374099999999999</v>
       </c>
       <c r="D31" s="32">
-        <v>23.482900000000001</v>
+        <v>23.8215</v>
       </c>
       <c r="E31" s="32">
-        <v>23.287700000000001</v>
+        <v>23.374700000000001</v>
       </c>
       <c r="F31" s="32">
-        <v>13.94</v>
+        <v>14.28</v>
       </c>
       <c r="G31" s="32">
-        <v>20.9665</v>
+        <v>20.704599999999999</v>
       </c>
       <c r="H31" s="32">
-        <v>13.701000000000001</v>
+        <v>14.476000000000001</v>
       </c>
       <c r="I31" s="33">
-        <v>26.007100000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>26.145600000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="34" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="35">
-        <v>10.833600000000001</v>
+        <v>11.0526</v>
       </c>
       <c r="D32" s="35">
-        <v>10.804</v>
+        <v>11.2178</v>
       </c>
       <c r="E32" s="35">
-        <v>11.2384</v>
+        <v>11.2684</v>
       </c>
       <c r="F32" s="35">
-        <v>10.746600000000001</v>
+        <v>11.1226</v>
       </c>
       <c r="G32" s="35">
-        <v>11.148300000000001</v>
+        <v>11.407400000000001</v>
       </c>
       <c r="H32" s="35">
-        <v>11.135199999999999</v>
+        <v>11.4625</v>
       </c>
       <c r="I32" s="36">
-        <v>10.8775</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11.164199999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="67" t="s">
         <v>38</v>
       </c>
@@ -14463,298 +14593,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100802E6E434404C643A635562EA3180DA3" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="52d7a7122ac7079507bd3aa10acf3f43">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1df6c202-294f-49e9-8308-8ed45f1aad52" xmlns:ns4="ac5d5db8-d0fb-4376-956b-22d00716db57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e58c9a96bbe8160e83bc2dd3585bc582" ns3:_="" ns4:_="">
-    <xsd:import namespace="1df6c202-294f-49e9-8308-8ed45f1aad52"/>
-    <xsd:import namespace="ac5d5db8-d0fb-4376-956b-22d00716db57"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns3:_activity" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1df6c202-294f-49e9-8308-8ed45f1aad52" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="16" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="17" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_activity" ma:index="18" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSystemTags" ma:index="19" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="20" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="21" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="22" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ac5d5db8-d0fb-4376-956b-22d00716db57" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="SharingHintHash" ma:index="14" nillable="true" ma:displayName="Hash de la sugerencia para compartir" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1df6c202-294f-49e9-8308-8ed45f1aad52" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{395B0419-A5D6-44A7-A8A8-02FF50AF5320}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1df6c202-294f-49e9-8308-8ed45f1aad52"/>
-    <ds:schemaRef ds:uri="ac5d5db8-d0fb-4376-956b-22d00716db57"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ABD2D04-219D-49E3-9AEF-0F13A1F6419E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C6E4915-8F33-4F85-8827-6B2C8B8A8032}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1df6c202-294f-49e9-8308-8ed45f1aad52"/>
-    <ds:schemaRef ds:uri="ac5d5db8-d0fb-4376-956b-22d00716db57"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/assets/excel/IPCse - Series históricas.xlsx
+++ b/assets/excel/IPCse - Series históricas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fiona\Dropbox\MGR\IPC seasonal adjustment\IPCse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA664A4D-58D7-4E53-9734-0DC71C823804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6FE1EE-4BBF-4C43-8546-DD622CD9B741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{A81B6F3A-9175-42CA-B78F-287A4E3C6249}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="2" xr2:uid="{A81B6F3A-9175-42CA-B78F-287A4E3C6249}"/>
   </bookViews>
   <sheets>
     <sheet name="Índices" sheetId="1" r:id="rId1"/>
@@ -183,9 +183,6 @@
     <t>IPCse NACIONAL</t>
   </si>
   <si>
-    <t>Oct.</t>
-  </si>
-  <si>
     <t>Nov.</t>
   </si>
   <si>
@@ -199,6 +196,9 @@
   </si>
   <si>
     <t>Mar.</t>
+  </si>
+  <si>
+    <t>Abr.</t>
   </si>
 </sst>
 </file>
@@ -1242,27 +1242,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA821952-0137-4F39-844C-15CA99AC928E}">
-  <dimension ref="B1:V92"/>
+  <dimension ref="B1:V93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="78" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="78" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
-      <selection pane="bottomRight" activeCell="B91" sqref="B91"/>
+      <selection pane="bottomRight" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.5546875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" style="4" customWidth="1"/>
-    <col min="2" max="3" width="20.5546875" style="4" customWidth="1"/>
-    <col min="4" max="21" width="15.5546875" style="4"/>
-    <col min="22" max="22" width="20.5546875" style="4" customWidth="1"/>
-    <col min="23" max="16384" width="15.5546875" style="4"/>
+    <col min="1" max="1" width="4.5703125" style="4" customWidth="1"/>
+    <col min="2" max="3" width="20.5703125" style="4" customWidth="1"/>
+    <col min="4" max="21" width="15.5703125" style="4"/>
+    <col min="22" max="22" width="20.5703125" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="15.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="51" t="s">
         <v>10</v>
       </c>
@@ -1287,7 +1287,7 @@
       <c r="U2" s="52"/>
       <c r="V2" s="52"/>
     </row>
-    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="8" t="s">
         <v>8</v>
@@ -1318,7 +1318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
         <v>42705</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>99.977400000000003</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="13">
         <v>42736</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>101.58410000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="13">
         <v>42767</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>103.26909999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="13">
         <v>42795</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>104.8601</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="13">
         <v>42826</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>107.3261</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="13">
         <v>42856</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>109.36450000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="13">
         <v>42887</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>110.7693</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="13">
         <v>42917</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>112.8707</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="13">
         <v>42948</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>114.20829999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="13">
         <v>42979</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>115.16679999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="13">
         <v>43009</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>116.4616</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="13">
         <v>43040</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>118.2471</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="13">
         <v>43070</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>120.15</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="13">
         <v>43101</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>122.66079999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="13">
         <v>43132</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>124.86669999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="13">
         <v>43160</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>127.12269999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="13">
         <v>43191</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>129.41149999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="13">
         <v>43221</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>133.31610000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="13">
         <v>43252</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>138.48570000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="13">
         <v>43282</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>143.6498</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="13">
         <v>43313</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>148.0249</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="13">
         <v>43344</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>157.21270000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="13">
         <v>43374</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>163.8939</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="13">
         <v>43405</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>169.81559999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="13">
         <v>43435</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>173.93020000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="13">
         <v>43466</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>179.21430000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="13">
         <v>43497</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>186.506</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="13">
         <v>43525</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>194.3347</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="13">
         <v>43556</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>200.91579999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="13">
         <v>43586</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>207.03639999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="13">
         <v>43617</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>212.8476</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="13">
         <v>43647</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>218.41489999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="13">
         <v>43678</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>227.71770000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="13">
         <v>43709</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>240.4811</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="13">
         <v>43739</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>247.86199999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" s="13">
         <v>43770</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>259.3349</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="13">
         <v>43800</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>268.79329999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" s="13">
         <v>43831</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>278.7826</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" s="13">
         <v>43862</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>286.44729999999998</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44" s="13">
         <v>43891</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>293.82990000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45" s="13">
         <v>43922</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>300.18740000000003</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46" s="13">
         <v>43952</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>307.81490000000002</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47" s="13">
         <v>43983</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>316.56420000000003</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B48" s="13">
         <v>44013</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>324.54230000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B49" s="13">
         <v>44044</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>333.78789999999998</v>
       </c>
     </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B50" s="13">
         <v>44075</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>340.72519999999997</v>
       </c>
     </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B51" s="13">
         <v>44105</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>353.69189999999998</v>
       </c>
     </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B52" s="13">
         <v>44136</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>367.19499999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B53" s="13">
         <v>44166</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>383.58569999999997</v>
       </c>
     </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B54" s="13">
         <v>44197</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>400.52280000000002</v>
       </c>
     </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B55" s="13">
         <v>44228</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>416.6268</v>
       </c>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B56" s="13">
         <v>44256</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>434.39139999999998</v>
       </c>
     </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B57" s="13">
         <v>44287</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>451.8818</v>
       </c>
     </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B58" s="13">
         <v>44317</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>467.42290000000003</v>
       </c>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B59" s="13">
         <v>44348</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>483.03149999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B60" s="13">
         <v>44378</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>499.71620000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B61" s="13">
         <v>44409</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>511.17930000000001</v>
       </c>
     </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B62" s="13">
         <v>44440</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>525.85019999999997</v>
       </c>
     </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B63" s="13">
         <v>44470</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>542.82629999999995</v>
       </c>
     </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B64" s="13">
         <v>44501</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>560.64739999999995</v>
       </c>
     </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B65" s="13">
         <v>44531</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>587.63199999999995</v>
       </c>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B66" s="13">
         <v>44562</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>614.96839999999997</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B67" s="13">
         <v>44593</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>648.68989999999997</v>
       </c>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B68" s="13">
         <v>44621</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>686.36180000000002</v>
       </c>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B69" s="13">
         <v>44652</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>729.43140000000005</v>
       </c>
     </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B70" s="13">
         <v>44682</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>770.00469999999996</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B71" s="13">
         <v>44713</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>811.8424</v>
       </c>
     </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B72" s="13">
         <v>44743</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>880.58450000000005</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B73" s="13">
         <v>44774</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>944.6404</v>
       </c>
     </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B74" s="13">
         <v>44805</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>1001.7683</v>
       </c>
     </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B75" s="13">
         <v>44835</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>1059.6804</v>
       </c>
     </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B76" s="13">
         <v>44866</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>1113.1264000000001</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B77" s="13">
         <v>44896</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>1173.7402999999999</v>
       </c>
     </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B78" s="13">
         <v>44927</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>1250.2503999999999</v>
       </c>
     </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B79" s="13">
         <v>44958</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>1345.6905999999999</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B80" s="13">
         <v>44986</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>1441.3485000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B81" s="13">
         <v>45017</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>1572.9845</v>
       </c>
     </row>
-    <row r="82" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B82" s="13">
         <v>45047</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>1696.7299</v>
       </c>
     </row>
-    <row r="83" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B83" s="13">
         <v>45078</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>1788.9819</v>
       </c>
     </row>
-    <row r="84" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B84" s="13">
         <v>45108</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>1904.9344000000001</v>
       </c>
     </row>
-    <row r="85" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B85" s="13">
         <v>45139</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>2149.5119</v>
       </c>
     </row>
-    <row r="86" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B86" s="13">
         <v>45170</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>2433.0675999999999</v>
       </c>
     </row>
-    <row r="87" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B87" s="13">
         <v>45200</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>2637.0823</v>
       </c>
     </row>
-    <row r="88" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B88" s="13">
         <v>45231</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>3008.4508000000001</v>
       </c>
     </row>
-    <row r="89" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B89" s="13">
         <v>45261</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>3793.6828</v>
       </c>
     </row>
-    <row r="90" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B90" s="13">
         <v>45292</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>4582.4724999999999</v>
       </c>
     </row>
-    <row r="91" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B91" s="13">
         <v>45323</v>
       </c>
@@ -7038,69 +7038,134 @@
         <v>5099.6557000000003</v>
       </c>
     </row>
-    <row r="92" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="14">
+    <row r="92" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B92" s="13">
         <v>45352</v>
       </c>
-      <c r="C92" s="18">
+      <c r="C92" s="15">
         <v>5348.4591</v>
       </c>
-      <c r="D92" s="19">
+      <c r="D92" s="16">
         <v>5280.9583000000002</v>
       </c>
-      <c r="E92" s="19">
+      <c r="E92" s="16">
         <v>5387.1692999999996</v>
       </c>
-      <c r="F92" s="19">
+      <c r="F92" s="16">
         <v>5340.7425000000003</v>
       </c>
-      <c r="G92" s="19">
+      <c r="G92" s="16">
         <v>5537.7709999999997</v>
       </c>
-      <c r="H92" s="19">
+      <c r="H92" s="16">
         <v>5448.1842999999999</v>
       </c>
-      <c r="I92" s="20">
+      <c r="I92" s="17">
         <v>5244.9004999999997</v>
       </c>
-      <c r="J92" s="19">
+      <c r="J92" s="16">
         <v>6146.11</v>
       </c>
-      <c r="K92" s="19">
+      <c r="K92" s="16">
         <v>4213.5298000000003</v>
       </c>
-      <c r="L92" s="19">
+      <c r="L92" s="16">
         <v>4968.8270000000002</v>
       </c>
-      <c r="M92" s="19">
+      <c r="M92" s="16">
         <v>3327.1637000000001</v>
       </c>
-      <c r="N92" s="19">
+      <c r="N92" s="16">
         <v>5429.8621999999996</v>
       </c>
-      <c r="O92" s="19">
+      <c r="O92" s="16">
         <v>6202.6311999999998</v>
       </c>
-      <c r="P92" s="19">
+      <c r="P92" s="16">
         <v>5934.56</v>
       </c>
-      <c r="Q92" s="19">
+      <c r="Q92" s="16">
         <v>4295.6540999999997</v>
       </c>
-      <c r="R92" s="19">
+      <c r="R92" s="16">
         <v>4881.8406000000004</v>
       </c>
-      <c r="S92" s="19">
+      <c r="S92" s="16">
         <v>3406.5823999999998</v>
       </c>
-      <c r="T92" s="19">
+      <c r="T92" s="16">
         <v>5506.9336000000003</v>
       </c>
-      <c r="U92" s="20">
+      <c r="U92" s="17">
         <v>5585.1161000000002</v>
       </c>
-      <c r="V92" s="18">
+      <c r="V92" s="15">
         <v>5537.8856999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="14">
+        <v>45383</v>
+      </c>
+      <c r="C93" s="18">
+        <v>5816.0856000000003</v>
+      </c>
+      <c r="D93" s="19">
+        <v>5765.9642999999996</v>
+      </c>
+      <c r="E93" s="19">
+        <v>5855.8469999999998</v>
+      </c>
+      <c r="F93" s="19">
+        <v>5821.6385</v>
+      </c>
+      <c r="G93" s="19">
+        <v>5887.0096999999996</v>
+      </c>
+      <c r="H93" s="19">
+        <v>5887.4438</v>
+      </c>
+      <c r="I93" s="20">
+        <v>5687.5941999999995</v>
+      </c>
+      <c r="J93" s="19">
+        <v>6526.7262000000001</v>
+      </c>
+      <c r="K93" s="19">
+        <v>4489.6032999999998</v>
+      </c>
+      <c r="L93" s="19">
+        <v>5330.6171999999997</v>
+      </c>
+      <c r="M93" s="19">
+        <v>4504.5236999999997</v>
+      </c>
+      <c r="N93" s="19">
+        <v>5795.2892000000002</v>
+      </c>
+      <c r="O93" s="19">
+        <v>6768.9894000000004</v>
+      </c>
+      <c r="P93" s="19">
+        <v>6307.7915000000003</v>
+      </c>
+      <c r="Q93" s="19">
+        <v>4930.1795000000002</v>
+      </c>
+      <c r="R93" s="19">
+        <v>5240.2687999999998</v>
+      </c>
+      <c r="S93" s="19">
+        <v>3752.7853</v>
+      </c>
+      <c r="T93" s="19">
+        <v>5908.3567000000003</v>
+      </c>
+      <c r="U93" s="20">
+        <v>5906.06</v>
+      </c>
+      <c r="V93" s="18">
+        <v>5906.4143999999997</v>
       </c>
     </row>
   </sheetData>
@@ -7116,27 +7181,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED968B30-91AE-4BCD-9838-818BA334E48C}">
-  <dimension ref="B1:V92"/>
+  <dimension ref="B1:V93"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="71" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="83" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
-      <selection pane="bottomRight" activeCell="C91" sqref="C91"/>
+      <selection pane="bottomRight" activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.5546875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" style="4" customWidth="1"/>
-    <col min="2" max="3" width="20.5546875" style="4" customWidth="1"/>
-    <col min="4" max="21" width="15.5546875" style="4"/>
-    <col min="22" max="22" width="20.5546875" style="4" customWidth="1"/>
-    <col min="23" max="16384" width="15.5546875" style="4"/>
+    <col min="1" max="1" width="4.5703125" style="4" customWidth="1"/>
+    <col min="2" max="3" width="20.5703125" style="4" customWidth="1"/>
+    <col min="4" max="21" width="15.5703125" style="4"/>
+    <col min="22" max="22" width="20.5703125" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="15.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="51" t="s">
         <v>11</v>
       </c>
@@ -7161,7 +7226,7 @@
       <c r="U2" s="52"/>
       <c r="V2" s="52"/>
     </row>
-    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="8" t="s">
         <v>8</v>
@@ -7192,7 +7257,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
@@ -7257,7 +7322,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
         <v>42705</v>
       </c>
@@ -7282,7 +7347,7 @@
       <c r="U5" s="12"/>
       <c r="V5" s="10"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="13">
         <v>42736</v>
       </c>
@@ -7347,7 +7412,7 @@
         <v>1.6071</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="13">
         <v>42767</v>
       </c>
@@ -7412,7 +7477,7 @@
         <v>1.6587000000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="13">
         <v>42795</v>
       </c>
@@ -7477,7 +7542,7 @@
         <v>1.5406</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="13">
         <v>42826</v>
       </c>
@@ -7542,7 +7607,7 @@
         <v>2.3517000000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="13">
         <v>42856</v>
       </c>
@@ -7607,7 +7672,7 @@
         <v>1.8993</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="13">
         <v>42887</v>
       </c>
@@ -7672,7 +7737,7 @@
         <v>1.2845</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="13">
         <v>42917</v>
       </c>
@@ -7737,7 +7802,7 @@
         <v>1.8971</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="13">
         <v>42948</v>
       </c>
@@ -7802,7 +7867,7 @@
         <v>1.1851</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="13">
         <v>42979</v>
       </c>
@@ -7867,7 +7932,7 @@
         <v>0.83930000000000005</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="13">
         <v>43009</v>
       </c>
@@ -7932,7 +7997,7 @@
         <v>1.1243000000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="13">
         <v>43040</v>
       </c>
@@ -7997,7 +8062,7 @@
         <v>1.5330999999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="13">
         <v>43070</v>
       </c>
@@ -8062,7 +8127,7 @@
         <v>1.6093</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="13">
         <v>43101</v>
       </c>
@@ -8127,7 +8192,7 @@
         <v>2.0897000000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="13">
         <v>43132</v>
       </c>
@@ -8192,7 +8257,7 @@
         <v>1.7984</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="13">
         <v>43160</v>
       </c>
@@ -8257,7 +8322,7 @@
         <v>1.8067</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="13">
         <v>43191</v>
       </c>
@@ -8322,7 +8387,7 @@
         <v>1.8005</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="13">
         <v>43221</v>
       </c>
@@ -8387,7 +8452,7 @@
         <v>3.0171999999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="13">
         <v>43252</v>
       </c>
@@ -8452,7 +8517,7 @@
         <v>3.8776999999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="13">
         <v>43282</v>
       </c>
@@ -8517,7 +8582,7 @@
         <v>3.7290000000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="13">
         <v>43313</v>
       </c>
@@ -8582,7 +8647,7 @@
         <v>3.0457000000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="13">
         <v>43344</v>
       </c>
@@ -8647,7 +8712,7 @@
         <v>6.2069000000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="13">
         <v>43374</v>
       </c>
@@ -8712,7 +8777,7 @@
         <v>4.2497999999999996</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="13">
         <v>43405</v>
       </c>
@@ -8777,7 +8842,7 @@
         <v>3.6131000000000002</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="13">
         <v>43435</v>
       </c>
@@ -8842,7 +8907,7 @@
         <v>2.423</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="13">
         <v>43466</v>
       </c>
@@ -8907,7 +8972,7 @@
         <v>3.0381</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="13">
         <v>43497</v>
       </c>
@@ -8972,7 +9037,7 @@
         <v>4.0686999999999998</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="13">
         <v>43525</v>
       </c>
@@ -9037,7 +9102,7 @@
         <v>4.1976000000000004</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="13">
         <v>43556</v>
       </c>
@@ -9102,7 +9167,7 @@
         <v>3.3864999999999998</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="13">
         <v>43586</v>
       </c>
@@ -9167,7 +9232,7 @@
         <v>3.0464000000000002</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="13">
         <v>43617</v>
       </c>
@@ -9232,7 +9297,7 @@
         <v>2.8068</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="13">
         <v>43647</v>
       </c>
@@ -9297,7 +9362,7 @@
         <v>2.6156000000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="13">
         <v>43678</v>
       </c>
@@ -9362,7 +9427,7 @@
         <v>4.2591999999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="13">
         <v>43709</v>
       </c>
@@ -9427,7 +9492,7 @@
         <v>5.6048999999999998</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="13">
         <v>43739</v>
       </c>
@@ -9492,7 +9557,7 @@
         <v>3.0691999999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" s="13">
         <v>43770</v>
       </c>
@@ -9557,7 +9622,7 @@
         <v>4.6287000000000003</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="13">
         <v>43800</v>
       </c>
@@ -9622,7 +9687,7 @@
         <v>3.6472000000000002</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" s="13">
         <v>43831</v>
       </c>
@@ -9687,7 +9752,7 @@
         <v>3.7164000000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" s="13">
         <v>43862</v>
       </c>
@@ -9752,7 +9817,7 @@
         <v>2.7492999999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44" s="13">
         <v>43891</v>
       </c>
@@ -9817,7 +9882,7 @@
         <v>2.5773000000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45" s="13">
         <v>43922</v>
       </c>
@@ -9882,7 +9947,7 @@
         <v>2.1637</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46" s="13">
         <v>43952</v>
       </c>
@@ -9947,7 +10012,7 @@
         <v>2.5409000000000002</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47" s="13">
         <v>43983</v>
       </c>
@@ -10012,7 +10077,7 @@
         <v>2.8424</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B48" s="13">
         <v>44013</v>
       </c>
@@ -10077,7 +10142,7 @@
         <v>2.5202</v>
       </c>
     </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B49" s="13">
         <v>44044</v>
       </c>
@@ -10142,7 +10207,7 @@
         <v>2.8488000000000002</v>
       </c>
     </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B50" s="13">
         <v>44075</v>
       </c>
@@ -10207,7 +10272,7 @@
         <v>2.0783999999999998</v>
       </c>
     </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B51" s="13">
         <v>44105</v>
       </c>
@@ -10272,7 +10337,7 @@
         <v>3.8056000000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B52" s="13">
         <v>44136</v>
       </c>
@@ -10337,7 +10402,7 @@
         <v>3.8178000000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B53" s="13">
         <v>44166</v>
       </c>
@@ -10402,7 +10467,7 @@
         <v>4.4638</v>
       </c>
     </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B54" s="13">
         <v>44197</v>
       </c>
@@ -10467,7 +10532,7 @@
         <v>4.4154999999999998</v>
       </c>
     </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B55" s="13">
         <v>44228</v>
       </c>
@@ -10532,7 +10597,7 @@
         <v>4.0206999999999997</v>
       </c>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B56" s="13">
         <v>44256</v>
       </c>
@@ -10597,7 +10662,7 @@
         <v>4.2638999999999996</v>
       </c>
     </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B57" s="13">
         <v>44287</v>
       </c>
@@ -10662,7 +10727,7 @@
         <v>4.0263999999999998</v>
       </c>
     </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B58" s="13">
         <v>44317</v>
       </c>
@@ -10727,7 +10792,7 @@
         <v>3.4392</v>
       </c>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B59" s="13">
         <v>44348</v>
       </c>
@@ -10792,7 +10857,7 @@
         <v>3.3393000000000002</v>
       </c>
     </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B60" s="13">
         <v>44378</v>
       </c>
@@ -10857,7 +10922,7 @@
         <v>3.4542000000000002</v>
       </c>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B61" s="13">
         <v>44409</v>
       </c>
@@ -10922,7 +10987,7 @@
         <v>2.2938999999999998</v>
       </c>
     </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B62" s="13">
         <v>44440</v>
       </c>
@@ -10987,7 +11052,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B63" s="13">
         <v>44470</v>
       </c>
@@ -11052,7 +11117,7 @@
         <v>3.2282999999999999</v>
       </c>
     </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B64" s="13">
         <v>44501</v>
       </c>
@@ -11117,7 +11182,7 @@
         <v>3.2829999999999999</v>
       </c>
     </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B65" s="13">
         <v>44531</v>
       </c>
@@ -11182,7 +11247,7 @@
         <v>4.8131000000000004</v>
       </c>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B66" s="13">
         <v>44562</v>
       </c>
@@ -11247,7 +11312,7 @@
         <v>4.6520000000000001</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B67" s="13">
         <v>44593</v>
       </c>
@@ -11312,7 +11377,7 @@
         <v>5.4835000000000003</v>
       </c>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B68" s="13">
         <v>44621</v>
       </c>
@@ -11377,7 +11442,7 @@
         <v>5.8074000000000003</v>
       </c>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B69" s="13">
         <v>44652</v>
       </c>
@@ -11442,7 +11507,7 @@
         <v>6.2751000000000001</v>
       </c>
     </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B70" s="13">
         <v>44682</v>
       </c>
@@ -11507,7 +11572,7 @@
         <v>5.5622999999999996</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B71" s="13">
         <v>44713</v>
       </c>
@@ -11572,7 +11637,7 @@
         <v>5.4333999999999998</v>
       </c>
     </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B72" s="13">
         <v>44743</v>
       </c>
@@ -11637,7 +11702,7 @@
         <v>8.4673999999999996</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B73" s="13">
         <v>44774</v>
       </c>
@@ -11702,7 +11767,7 @@
         <v>7.2742000000000004</v>
       </c>
     </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B74" s="13">
         <v>44805</v>
       </c>
@@ -11767,7 +11832,7 @@
         <v>6.0476000000000001</v>
       </c>
     </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B75" s="13">
         <v>44835</v>
       </c>
@@ -11832,7 +11897,7 @@
         <v>5.7809999999999997</v>
       </c>
     </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B76" s="13">
         <v>44866</v>
       </c>
@@ -11897,7 +11962,7 @@
         <v>5.0435999999999996</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B77" s="13">
         <v>44896</v>
       </c>
@@ -11962,7 +12027,7 @@
         <v>5.4454000000000002</v>
       </c>
     </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B78" s="13">
         <v>44927</v>
       </c>
@@ -12027,7 +12092,7 @@
         <v>6.5185000000000004</v>
       </c>
     </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B79" s="13">
         <v>44958</v>
       </c>
@@ -12092,7 +12157,7 @@
         <v>7.6337000000000002</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B80" s="13">
         <v>44986</v>
       </c>
@@ -12157,7 +12222,7 @@
         <v>7.1085000000000003</v>
       </c>
     </row>
-    <row r="81" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B81" s="13">
         <v>45017</v>
       </c>
@@ -12222,7 +12287,7 @@
         <v>9.1327999999999996</v>
       </c>
     </row>
-    <row r="82" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B82" s="13">
         <v>45047</v>
       </c>
@@ -12287,7 +12352,7 @@
         <v>7.8669000000000002</v>
       </c>
     </row>
-    <row r="83" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B83" s="13">
         <v>45078</v>
       </c>
@@ -12352,7 +12417,7 @@
         <v>5.4370000000000003</v>
       </c>
     </row>
-    <row r="84" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B84" s="13">
         <v>45108</v>
       </c>
@@ -12417,7 +12482,7 @@
         <v>6.4814999999999996</v>
       </c>
     </row>
-    <row r="85" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B85" s="13">
         <v>45139</v>
       </c>
@@ -12482,7 +12547,7 @@
         <v>12.8392</v>
       </c>
     </row>
-    <row r="86" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B86" s="13">
         <v>45170</v>
       </c>
@@ -12547,7 +12612,7 @@
         <v>13.191599999999999</v>
       </c>
     </row>
-    <row r="87" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B87" s="13">
         <v>45200</v>
       </c>
@@ -12612,7 +12677,7 @@
         <v>8.3850999999999996</v>
       </c>
     </row>
-    <row r="88" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B88" s="13">
         <v>45231</v>
       </c>
@@ -12677,7 +12742,7 @@
         <v>14.082599999999999</v>
       </c>
     </row>
-    <row r="89" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B89" s="13">
         <v>45261</v>
       </c>
@@ -12742,7 +12807,7 @@
         <v>26.100899999999999</v>
       </c>
     </row>
-    <row r="90" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B90" s="13">
         <v>45292</v>
       </c>
@@ -12807,7 +12872,7 @@
         <v>20.792200000000001</v>
       </c>
     </row>
-    <row r="91" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B91" s="13">
         <v>45323</v>
       </c>
@@ -12872,69 +12937,134 @@
         <v>11.286099999999999</v>
       </c>
     </row>
-    <row r="92" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B92" s="13">
         <v>45352</v>
       </c>
-      <c r="C92" s="18">
+      <c r="C92" s="15">
         <v>10.164400000000001</v>
       </c>
-      <c r="D92" s="19">
+      <c r="D92" s="16">
         <v>10.3573</v>
       </c>
-      <c r="E92" s="19">
+      <c r="E92" s="16">
         <v>10.5008</v>
       </c>
-      <c r="F92" s="19">
+      <c r="F92" s="16">
         <v>8.0137999999999998</v>
       </c>
-      <c r="G92" s="19">
+      <c r="G92" s="16">
         <v>10.056800000000001</v>
       </c>
-      <c r="H92" s="19">
+      <c r="H92" s="16">
         <v>8.7100000000000009</v>
       </c>
-      <c r="I92" s="20">
+      <c r="I92" s="17">
         <v>9.9405999999999999</v>
       </c>
-      <c r="J92" s="19">
+      <c r="J92" s="16">
         <v>9.5661000000000005</v>
       </c>
-      <c r="K92" s="19">
+      <c r="K92" s="16">
         <v>11.4427</v>
       </c>
-      <c r="L92" s="19">
+      <c r="L92" s="16">
         <v>6.9301000000000004</v>
       </c>
-      <c r="M92" s="19">
+      <c r="M92" s="16">
         <v>13.2197</v>
       </c>
-      <c r="N92" s="19">
+      <c r="N92" s="16">
         <v>5.1493000000000002</v>
       </c>
-      <c r="O92" s="19">
+      <c r="O92" s="16">
         <v>12.2319</v>
       </c>
-      <c r="P92" s="19">
+      <c r="P92" s="16">
         <v>12.997999999999999</v>
       </c>
-      <c r="Q92" s="19">
+      <c r="Q92" s="16">
         <v>15.887</v>
       </c>
-      <c r="R92" s="19">
+      <c r="R92" s="16">
         <v>9.0190000000000001</v>
       </c>
-      <c r="S92" s="19">
+      <c r="S92" s="16">
         <v>29.938800000000001</v>
       </c>
-      <c r="T92" s="19">
+      <c r="T92" s="16">
         <v>8.3148</v>
       </c>
-      <c r="U92" s="20">
+      <c r="U92" s="17">
         <v>9.6061999999999994</v>
       </c>
-      <c r="V92" s="18">
+      <c r="V92" s="15">
         <v>8.5932999999999993</v>
+      </c>
+    </row>
+    <row r="93" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="13">
+        <v>45383</v>
+      </c>
+      <c r="C93" s="18">
+        <v>8.7431999999999999</v>
+      </c>
+      <c r="D93" s="19">
+        <v>9.1841000000000008</v>
+      </c>
+      <c r="E93" s="19">
+        <v>8.6998999999999995</v>
+      </c>
+      <c r="F93" s="19">
+        <v>9.0043000000000006</v>
+      </c>
+      <c r="G93" s="19">
+        <v>6.3064999999999998</v>
+      </c>
+      <c r="H93" s="19">
+        <v>8.0625</v>
+      </c>
+      <c r="I93" s="20">
+        <v>8.4405000000000001</v>
+      </c>
+      <c r="J93" s="19">
+        <v>6.1928000000000001</v>
+      </c>
+      <c r="K93" s="19">
+        <v>6.5521000000000003</v>
+      </c>
+      <c r="L93" s="19">
+        <v>7.2812000000000001</v>
+      </c>
+      <c r="M93" s="19">
+        <v>35.386299999999999</v>
+      </c>
+      <c r="N93" s="19">
+        <v>6.7298999999999998</v>
+      </c>
+      <c r="O93" s="19">
+        <v>9.1309000000000005</v>
+      </c>
+      <c r="P93" s="19">
+        <v>6.2891000000000004</v>
+      </c>
+      <c r="Q93" s="19">
+        <v>14.7713</v>
+      </c>
+      <c r="R93" s="19">
+        <v>7.3421000000000003</v>
+      </c>
+      <c r="S93" s="19">
+        <v>10.162800000000001</v>
+      </c>
+      <c r="T93" s="19">
+        <v>7.2893999999999997</v>
+      </c>
+      <c r="U93" s="20">
+        <v>5.7464000000000004</v>
+      </c>
+      <c r="V93" s="18">
+        <v>6.6547000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -12952,19 +13082,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83293D6D-81C8-49B2-8C10-806B04E884B0}">
   <dimension ref="B1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="116" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="96" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="50.5546875" customWidth="1"/>
-    <col min="3" max="8" width="11.5546875" customWidth="1"/>
-    <col min="9" max="9" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" customWidth="1"/>
+    <col min="3" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="54" t="s">
         <v>13</v>
       </c>
@@ -12976,7 +13104,7 @@
       <c r="H2" s="55"/>
       <c r="I2" s="56"/>
     </row>
-    <row r="3" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="22" t="s">
         <v>14</v>
       </c>
@@ -12992,7 +13120,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="22" t="s">
         <v>17</v>
       </c>
@@ -13006,10 +13134,10 @@
       <c r="H4" s="64"/>
       <c r="I4" s="23" t="str">
         <f>+_xlfn.CONCAT(H5, " ", C4, "/", H5, " ", C4-1)</f>
-        <v>Mar. 2023/Mar. 2022</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+        <v>Abr. 2023/Abr. 2022</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="24"/>
       <c r="C5" s="25" t="s">
         <v>40</v>
@@ -13031,33 +13159,33 @@
       </c>
       <c r="I5" s="47"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="27">
-        <v>8.0029000000000003</v>
+        <v>13.3675</v>
       </c>
       <c r="D6" s="27">
-        <v>13.3675</v>
+        <v>25.981400000000001</v>
       </c>
       <c r="E6" s="27">
-        <v>25.981400000000001</v>
+        <v>20.7379</v>
       </c>
       <c r="F6" s="27">
-        <v>20.7379</v>
+        <v>13.4008</v>
       </c>
       <c r="G6" s="27">
-        <v>13.4008</v>
+        <v>10.164400000000001</v>
       </c>
       <c r="H6" s="27">
-        <v>10.164400000000001</v>
+        <v>8.7431999999999999</v>
       </c>
       <c r="I6" s="28">
-        <v>287.8691</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>289.4049</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="58" t="s">
         <v>7</v>
       </c>
@@ -13069,163 +13197,163 @@
       <c r="H7" s="59"/>
       <c r="I7" s="60"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="31" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="32">
-        <v>8.2349999999999994</v>
+        <v>13.661199999999999</v>
       </c>
       <c r="D8" s="32">
-        <v>13.661199999999999</v>
+        <v>25.939699999999998</v>
       </c>
       <c r="E8" s="32">
-        <v>25.939699999999998</v>
+        <v>19.487200000000001</v>
       </c>
       <c r="F8" s="32">
-        <v>19.487200000000001</v>
+        <v>15.286</v>
       </c>
       <c r="G8" s="32">
-        <v>15.286</v>
+        <v>10.3573</v>
       </c>
       <c r="H8" s="32">
-        <v>10.3573</v>
+        <v>9.1841000000000008</v>
       </c>
       <c r="I8" s="33">
-        <v>289.9024</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+        <v>292.2054</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="32">
-        <v>7.9866999999999999</v>
+        <v>13.3454</v>
       </c>
       <c r="D9" s="32">
-        <v>13.3454</v>
+        <v>25.8706</v>
       </c>
       <c r="E9" s="32">
-        <v>25.8706</v>
+        <v>21.381399999999999</v>
       </c>
       <c r="F9" s="32">
-        <v>21.381399999999999</v>
+        <v>11.950900000000001</v>
       </c>
       <c r="G9" s="32">
-        <v>11.950900000000001</v>
+        <v>10.5008</v>
       </c>
       <c r="H9" s="32">
-        <v>10.5008</v>
+        <v>8.6998999999999995</v>
       </c>
       <c r="I9" s="33">
-        <v>288.14789999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+        <v>288.94690000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="31" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="32">
-        <v>7.4473000000000003</v>
+        <v>12.2658</v>
       </c>
       <c r="D10" s="32">
-        <v>12.2658</v>
+        <v>25.432500000000001</v>
       </c>
       <c r="E10" s="32">
-        <v>25.432500000000001</v>
+        <v>21.819099999999999</v>
       </c>
       <c r="F10" s="32">
-        <v>21.819099999999999</v>
+        <v>11.765000000000001</v>
       </c>
       <c r="G10" s="32">
-        <v>11.765000000000001</v>
+        <v>8.0137999999999998</v>
       </c>
       <c r="H10" s="32">
-        <v>8.0137999999999998</v>
+        <v>9.0043000000000006</v>
       </c>
       <c r="I10" s="33">
-        <v>277.28899999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+        <v>282.22719999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="32">
-        <v>7.0147000000000004</v>
+        <v>13.189500000000001</v>
       </c>
       <c r="D11" s="32">
-        <v>13.189500000000001</v>
+        <v>28.0672</v>
       </c>
       <c r="E11" s="32">
-        <v>28.0672</v>
+        <v>19.981400000000001</v>
       </c>
       <c r="F11" s="32">
-        <v>19.981400000000001</v>
+        <v>10.963900000000001</v>
       </c>
       <c r="G11" s="32">
-        <v>10.963900000000001</v>
+        <v>10.056800000000001</v>
       </c>
       <c r="H11" s="32">
-        <v>10.056800000000001</v>
+        <v>6.3064999999999998</v>
       </c>
       <c r="I11" s="33">
-        <v>286.2296</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+        <v>278.91359999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="32">
-        <v>7.3333000000000004</v>
+        <v>13.1684</v>
       </c>
       <c r="D12" s="32">
-        <v>13.1684</v>
+        <v>26.057700000000001</v>
       </c>
       <c r="E12" s="32">
-        <v>26.057700000000001</v>
+        <v>22.540900000000001</v>
       </c>
       <c r="F12" s="32">
-        <v>22.540900000000001</v>
+        <v>13.427899999999999</v>
       </c>
       <c r="G12" s="32">
-        <v>13.427899999999999</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="H12" s="32">
-        <v>8.7100000000000009</v>
+        <v>8.0625</v>
       </c>
       <c r="I12" s="33">
-        <v>280.86680000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+        <v>284.1497</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="32">
-        <v>7.7610999999999999</v>
+        <v>12.2498</v>
       </c>
       <c r="D13" s="32">
-        <v>12.2498</v>
+        <v>24.6936</v>
       </c>
       <c r="E13" s="32">
-        <v>24.6936</v>
+        <v>24.8538</v>
       </c>
       <c r="F13" s="32">
-        <v>24.8538</v>
+        <v>11.549300000000001</v>
       </c>
       <c r="G13" s="32">
-        <v>11.549300000000001</v>
+        <v>9.9405999999999999</v>
       </c>
       <c r="H13" s="32">
-        <v>9.9405999999999999</v>
+        <v>8.4405000000000001</v>
       </c>
       <c r="I13" s="33">
-        <v>292.2722</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+        <v>293.51990000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="31"/>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
@@ -13235,7 +13363,7 @@
       <c r="H14" s="32"/>
       <c r="I14" s="33"/>
     </row>
-    <row r="15" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="61" t="s">
         <v>9</v>
       </c>
@@ -13247,319 +13375,319 @@
       <c r="H15" s="62"/>
       <c r="I15" s="63"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="31" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="32">
-        <v>6.9745999999999997</v>
+        <v>16.734400000000001</v>
       </c>
       <c r="D16" s="32">
-        <v>16.734400000000001</v>
+        <v>29.6767</v>
       </c>
       <c r="E16" s="32">
-        <v>29.6767</v>
+        <v>20.2986</v>
       </c>
       <c r="F16" s="32">
-        <v>20.2986</v>
+        <v>11.379200000000001</v>
       </c>
       <c r="G16" s="32">
-        <v>11.379200000000001</v>
+        <v>9.5661000000000005</v>
       </c>
       <c r="H16" s="32">
-        <v>9.5661000000000005</v>
+        <v>6.1928000000000001</v>
       </c>
       <c r="I16" s="33">
-        <v>308.26979999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+        <v>292.95850000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="32">
-        <v>9.9351000000000003</v>
+        <v>11.3401</v>
       </c>
       <c r="D17" s="32">
-        <v>11.3401</v>
+        <v>20.002500000000001</v>
       </c>
       <c r="E17" s="32">
-        <v>20.002500000000001</v>
+        <v>21.049499999999998</v>
       </c>
       <c r="F17" s="32">
-        <v>21.049499999999998</v>
+        <v>18.6081</v>
       </c>
       <c r="G17" s="32">
-        <v>18.6081</v>
+        <v>11.4427</v>
       </c>
       <c r="H17" s="32">
-        <v>11.4427</v>
+        <v>6.5521000000000003</v>
       </c>
       <c r="I17" s="33">
-        <v>266.32670000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+        <v>272.3229</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="31" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="32">
-        <v>10.352499999999999</v>
+        <v>11.342000000000001</v>
       </c>
       <c r="D18" s="32">
-        <v>11.342000000000001</v>
+        <v>20.7287</v>
       </c>
       <c r="E18" s="32">
-        <v>20.7287</v>
+        <v>13.392300000000001</v>
       </c>
       <c r="F18" s="32">
-        <v>13.392300000000001</v>
+        <v>9.5421999999999993</v>
       </c>
       <c r="G18" s="32">
-        <v>9.5421999999999993</v>
+        <v>6.9301000000000004</v>
       </c>
       <c r="H18" s="32">
-        <v>6.9301000000000004</v>
+        <v>7.2812000000000001</v>
       </c>
       <c r="I18" s="33">
-        <v>208.39439999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+        <v>205.00790000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="31" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="32">
-        <v>7.7514000000000003</v>
+        <v>7.1440999999999999</v>
       </c>
       <c r="D19" s="32">
-        <v>7.1440999999999999</v>
+        <v>13.781599999999999</v>
       </c>
       <c r="E19" s="32">
-        <v>13.781599999999999</v>
+        <v>14.2448</v>
       </c>
       <c r="F19" s="32">
-        <v>14.2448</v>
+        <v>20.098299999999998</v>
       </c>
       <c r="G19" s="32">
-        <v>20.098299999999998</v>
+        <v>13.2197</v>
       </c>
       <c r="H19" s="32">
-        <v>13.2197</v>
+        <v>35.386299999999999</v>
       </c>
       <c r="I19" s="33">
-        <v>220.5317</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+        <v>311.6207</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="31" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="32">
-        <v>10.5718</v>
+        <v>12.776300000000001</v>
       </c>
       <c r="D20" s="32">
-        <v>12.776300000000001</v>
+        <v>31.744900000000001</v>
       </c>
       <c r="E20" s="32">
-        <v>31.744900000000001</v>
+        <v>22.438099999999999</v>
       </c>
       <c r="F20" s="32">
-        <v>22.438099999999999</v>
+        <v>10.5862</v>
       </c>
       <c r="G20" s="32">
-        <v>10.5862</v>
+        <v>5.1493000000000002</v>
       </c>
       <c r="H20" s="32">
-        <v>5.1493000000000002</v>
+        <v>6.7298999999999998</v>
       </c>
       <c r="I20" s="33">
-        <v>301.31849999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+        <v>293.40660000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="31" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="32">
-        <v>5.0633999999999997</v>
+        <v>15.853400000000001</v>
       </c>
       <c r="D21" s="32">
-        <v>15.853400000000001</v>
+        <v>32.622999999999998</v>
       </c>
       <c r="E21" s="32">
-        <v>32.622999999999998</v>
+        <v>20.499500000000001</v>
       </c>
       <c r="F21" s="32">
-        <v>20.499500000000001</v>
+        <v>13.5733</v>
       </c>
       <c r="G21" s="32">
-        <v>13.5733</v>
+        <v>12.2319</v>
       </c>
       <c r="H21" s="32">
-        <v>12.2319</v>
+        <v>9.1309000000000005</v>
       </c>
       <c r="I21" s="33">
-        <v>330.7568</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+        <v>341.0702</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="31" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="32">
-        <v>7.1205999999999996</v>
+        <v>10.409599999999999</v>
       </c>
       <c r="D22" s="32">
-        <v>10.409599999999999</v>
+        <v>31.6769</v>
       </c>
       <c r="E22" s="32">
-        <v>31.6769</v>
+        <v>26.314499999999999</v>
       </c>
       <c r="F22" s="32">
-        <v>26.314499999999999</v>
+        <v>21.3124</v>
       </c>
       <c r="G22" s="32">
-        <v>21.3124</v>
+        <v>12.997999999999999</v>
       </c>
       <c r="H22" s="32">
-        <v>12.997999999999999</v>
+        <v>6.2891000000000004</v>
       </c>
       <c r="I22" s="33">
-        <v>326.70069999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+        <v>325.9228</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="31" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="32">
-        <v>12.3354</v>
+        <v>14.9031</v>
       </c>
       <c r="D23" s="32">
-        <v>14.9031</v>
+        <v>14.953200000000001</v>
       </c>
       <c r="E23" s="32">
-        <v>14.953200000000001</v>
+        <v>23.994299999999999</v>
       </c>
       <c r="F23" s="32">
-        <v>23.994299999999999</v>
+        <v>24.742799999999999</v>
       </c>
       <c r="G23" s="32">
-        <v>24.742799999999999</v>
+        <v>15.887</v>
       </c>
       <c r="H23" s="32">
-        <v>15.887</v>
+        <v>14.7713</v>
       </c>
       <c r="I23" s="33">
-        <v>336.66390000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+        <v>369.13060000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="31" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="32">
-        <v>8.8969000000000005</v>
+        <v>13.5905</v>
       </c>
       <c r="D24" s="32">
-        <v>13.5905</v>
+        <v>20.004899999999999</v>
       </c>
       <c r="E24" s="32">
-        <v>20.004899999999999</v>
+        <v>24.026</v>
       </c>
       <c r="F24" s="32">
-        <v>24.026</v>
+        <v>9.5474999999999994</v>
       </c>
       <c r="G24" s="32">
-        <v>9.5474999999999994</v>
+        <v>9.0190000000000001</v>
       </c>
       <c r="H24" s="32">
-        <v>9.0190000000000001</v>
+        <v>7.3421000000000003</v>
       </c>
       <c r="I24" s="33">
-        <v>285.03699999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+        <v>283.59820000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="31" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="32">
-        <v>7.1054000000000004</v>
+        <v>10.886900000000001</v>
       </c>
       <c r="D25" s="32">
-        <v>10.886900000000001</v>
+        <v>10.581899999999999</v>
       </c>
       <c r="E25" s="32">
-        <v>10.581899999999999</v>
+        <v>2.3591000000000002</v>
       </c>
       <c r="F25" s="32">
-        <v>2.3591000000000002</v>
+        <v>11.2354</v>
       </c>
       <c r="G25" s="32">
-        <v>11.2354</v>
+        <v>29.938800000000001</v>
       </c>
       <c r="H25" s="32">
-        <v>29.938800000000001</v>
+        <v>10.162800000000001</v>
       </c>
       <c r="I25" s="33">
-        <v>204.1343</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+        <v>214.45079999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="31" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="32">
-        <v>8.8308999999999997</v>
+        <v>12.102499999999999</v>
       </c>
       <c r="D26" s="32">
-        <v>12.102499999999999</v>
+        <v>21.5383</v>
       </c>
       <c r="E26" s="32">
-        <v>21.5383</v>
+        <v>19.302700000000002</v>
       </c>
       <c r="F26" s="32">
-        <v>19.302700000000002</v>
+        <v>11.1287</v>
       </c>
       <c r="G26" s="32">
-        <v>11.1287</v>
+        <v>8.3148</v>
       </c>
       <c r="H26" s="32">
-        <v>8.3148</v>
+        <v>7.2893999999999997</v>
       </c>
       <c r="I26" s="33">
-        <v>272.37630000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+        <v>263.56200000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="32">
-        <v>7.6063000000000001</v>
+        <v>11.4826</v>
       </c>
       <c r="D27" s="32">
-        <v>11.4826</v>
+        <v>32.697200000000002</v>
       </c>
       <c r="E27" s="32">
-        <v>32.697200000000002</v>
+        <v>44.463900000000002</v>
       </c>
       <c r="F27" s="32">
-        <v>44.463900000000002</v>
+        <v>16.633199999999999</v>
       </c>
       <c r="G27" s="32">
-        <v>16.633199999999999</v>
+        <v>9.6061999999999994</v>
       </c>
       <c r="H27" s="32">
-        <v>9.6061999999999994</v>
+        <v>5.7464000000000004</v>
       </c>
       <c r="I27" s="33">
-        <v>364.20440000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+        <v>360.23410000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="31"/>
       <c r="C28" s="32"/>
       <c r="D28" s="32"/>
@@ -13569,7 +13697,7 @@
       <c r="H28" s="32"/>
       <c r="I28" s="33"/>
     </row>
-    <row r="29" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="61" t="s">
         <v>32</v>
       </c>
@@ -13581,189 +13709,189 @@
       <c r="H29" s="62"/>
       <c r="I29" s="63"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="32">
-        <v>8.3850999999999996</v>
+        <v>14.082599999999999</v>
       </c>
       <c r="D30" s="32">
-        <v>14.082599999999999</v>
+        <v>26.100899999999999</v>
       </c>
       <c r="E30" s="32">
-        <v>26.100899999999999</v>
+        <v>20.792200000000001</v>
       </c>
       <c r="F30" s="32">
-        <v>20.792200000000001</v>
+        <v>11.286099999999999</v>
       </c>
       <c r="G30" s="32">
-        <v>11.286099999999999</v>
+        <v>8.5932999999999993</v>
       </c>
       <c r="H30" s="32">
-        <v>8.5932999999999993</v>
+        <v>6.6547000000000001</v>
       </c>
       <c r="I30" s="33">
-        <v>284.44569999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+        <v>275.41230000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="31" t="s">
         <v>19</v>
       </c>
       <c r="C31" s="32">
-        <v>8.8498000000000001</v>
+        <v>14.573700000000001</v>
       </c>
       <c r="D31" s="32">
-        <v>14.573700000000001</v>
+        <v>26.662099999999999</v>
       </c>
       <c r="E31" s="32">
-        <v>26.662099999999999</v>
+        <v>19.951899999999998</v>
       </c>
       <c r="F31" s="32">
-        <v>19.951899999999998</v>
+        <v>11.7393</v>
       </c>
       <c r="G31" s="32">
-        <v>11.7393</v>
+        <v>8.7751000000000001</v>
       </c>
       <c r="H31" s="32">
-        <v>8.7751000000000001</v>
+        <v>6.6711</v>
       </c>
       <c r="I31" s="33">
-        <v>285.62990000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+        <v>276.50760000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="32">
-        <v>8.1297999999999995</v>
+        <v>14.0298</v>
       </c>
       <c r="D32" s="32">
-        <v>14.0298</v>
+        <v>25.5184</v>
       </c>
       <c r="E32" s="32">
-        <v>25.5184</v>
+        <v>21.286100000000001</v>
       </c>
       <c r="F32" s="32">
-        <v>21.286100000000001</v>
+        <v>11.063000000000001</v>
       </c>
       <c r="G32" s="32">
-        <v>11.063000000000001</v>
+        <v>8.8963000000000001</v>
       </c>
       <c r="H32" s="32">
-        <v>8.8963000000000001</v>
+        <v>6.6332000000000004</v>
       </c>
       <c r="I32" s="33">
-        <v>285.89589999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+        <v>275.53120000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="31" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="32">
-        <v>7.9637000000000002</v>
+        <v>12.5905</v>
       </c>
       <c r="D33" s="32">
-        <v>12.5905</v>
+        <v>25.406300000000002</v>
       </c>
       <c r="E33" s="32">
-        <v>25.406300000000002</v>
+        <v>21.453700000000001</v>
       </c>
       <c r="F33" s="32">
-        <v>21.453700000000001</v>
+        <v>10.1144</v>
       </c>
       <c r="G33" s="32">
-        <v>10.1144</v>
+        <v>6.8185000000000002</v>
       </c>
       <c r="H33" s="32">
-        <v>6.8185000000000002</v>
+        <v>7.5838000000000001</v>
       </c>
       <c r="I33" s="33">
-        <v>271.2337</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+        <v>268.76560000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="31" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="32">
-        <v>7.1936</v>
+        <v>13.8574</v>
       </c>
       <c r="D34" s="32">
-        <v>13.8574</v>
+        <v>27.901299999999999</v>
       </c>
       <c r="E34" s="32">
-        <v>27.901299999999999</v>
+        <v>19.4986</v>
       </c>
       <c r="F34" s="32">
-        <v>19.4986</v>
+        <v>9.8995999999999995</v>
       </c>
       <c r="G34" s="32">
-        <v>9.8995999999999995</v>
+        <v>7.4158999999999997</v>
       </c>
       <c r="H34" s="32">
-        <v>7.4158999999999997</v>
+        <v>5.6147999999999998</v>
       </c>
       <c r="I34" s="33">
-        <v>278.41149999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+        <v>265.44189999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="32">
-        <v>8.1179000000000006</v>
+        <v>13.4346</v>
       </c>
       <c r="D35" s="32">
-        <v>13.4346</v>
+        <v>25.4133</v>
       </c>
       <c r="E35" s="32">
-        <v>25.4133</v>
+        <v>21.833300000000001</v>
       </c>
       <c r="F35" s="32">
-        <v>21.833300000000001</v>
+        <v>11.944800000000001</v>
       </c>
       <c r="G35" s="32">
-        <v>11.944800000000001</v>
+        <v>8.0154999999999994</v>
       </c>
       <c r="H35" s="32">
-        <v>8.0154999999999994</v>
+        <v>6.5365000000000002</v>
       </c>
       <c r="I35" s="33">
-        <v>277.76960000000003</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>272.57709999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="35">
-        <v>7.9149000000000003</v>
+        <v>12.872199999999999</v>
       </c>
       <c r="D36" s="35">
-        <v>12.872199999999999</v>
+        <v>24.8947</v>
       </c>
       <c r="E36" s="35">
-        <v>24.8947</v>
+        <v>24.804600000000001</v>
       </c>
       <c r="F36" s="35">
-        <v>24.804600000000001</v>
+        <v>10.9206</v>
       </c>
       <c r="G36" s="35">
-        <v>10.9206</v>
+        <v>9.0473999999999997</v>
       </c>
       <c r="H36" s="35">
-        <v>9.0473999999999997</v>
+        <v>6.4358000000000004</v>
       </c>
       <c r="I36" s="36">
-        <v>296.62990000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>287.80470000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="53" t="s">
         <v>34</v>
       </c>
@@ -13775,7 +13903,7 @@
       <c r="H37" s="53"/>
       <c r="I37" s="53"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -13785,7 +13913,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -13814,18 +13942,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C899619B-933E-4978-ACA9-2375D7439DCD}">
   <dimension ref="B1:I33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="116" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="54.44140625" customWidth="1"/>
-    <col min="3" max="9" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="54.42578125" customWidth="1"/>
+    <col min="3" max="9" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="54" t="s">
         <v>35</v>
       </c>
@@ -13837,7 +13965,7 @@
       <c r="H2" s="65"/>
       <c r="I2" s="66"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="37"/>
       <c r="C3" s="38" t="s">
         <v>19</v>
@@ -13861,7 +13989,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="29" t="s">
         <v>36</v>
       </c>
@@ -13873,345 +14001,345 @@
       <c r="H4" s="46"/>
       <c r="I4" s="30"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="41">
-        <v>10.3573</v>
+        <v>9.1841000000000008</v>
       </c>
       <c r="D5" s="41">
-        <v>10.5008</v>
+        <v>8.6998999999999995</v>
       </c>
       <c r="E5" s="41">
-        <v>8.0137999999999998</v>
+        <v>9.0043000000000006</v>
       </c>
       <c r="F5" s="41">
-        <v>10.056800000000001</v>
+        <v>6.3064999999999998</v>
       </c>
       <c r="G5" s="41">
-        <v>8.7100000000000009</v>
+        <v>8.0625</v>
       </c>
       <c r="H5" s="41">
-        <v>9.9405999999999999</v>
+        <v>8.4405000000000001</v>
       </c>
       <c r="I5" s="42">
-        <v>10.164400000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+        <v>8.7431999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="31" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="32">
-        <v>2.9516</v>
+        <v>1.6166</v>
       </c>
       <c r="D6" s="32">
-        <v>2.9624999999999999</v>
+        <v>2.1728000000000001</v>
       </c>
       <c r="E6" s="32">
-        <v>2.6617000000000002</v>
+        <v>2.9401999999999999</v>
       </c>
       <c r="F6" s="32">
-        <v>2.9624000000000001</v>
+        <v>1.9346000000000001</v>
       </c>
       <c r="G6" s="32">
-        <v>2.9371</v>
+        <v>1.8008</v>
       </c>
       <c r="H6" s="32">
-        <v>2.9058000000000002</v>
+        <v>1.7746999999999999</v>
       </c>
       <c r="I6" s="33">
-        <v>2.9329999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1.9289000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="32">
-        <v>0.2918</v>
+        <v>0.1699</v>
       </c>
       <c r="D7" s="32">
-        <v>0.34010000000000001</v>
+        <v>0.1913</v>
       </c>
       <c r="E7" s="32">
-        <v>0.28070000000000001</v>
+        <v>0.16209999999999999</v>
       </c>
       <c r="F7" s="32">
-        <v>0.2994</v>
+        <v>0.18229999999999999</v>
       </c>
       <c r="G7" s="32">
-        <v>0.35070000000000001</v>
+        <v>0.19439999999999999</v>
       </c>
       <c r="H7" s="32">
-        <v>0.28920000000000001</v>
+        <v>0.2034</v>
       </c>
       <c r="I7" s="33">
-        <v>0.31080000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="31" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="32">
-        <v>0.48630000000000001</v>
+        <v>0.64839999999999998</v>
       </c>
       <c r="D8" s="32">
-        <v>0.84899999999999998</v>
+        <v>0.62460000000000004</v>
       </c>
       <c r="E8" s="32">
-        <v>0.66549999999999998</v>
+        <v>0.86639999999999995</v>
       </c>
       <c r="F8" s="32">
-        <v>0.56499999999999995</v>
+        <v>0.65459999999999996</v>
       </c>
       <c r="G8" s="32">
-        <v>0.501</v>
+        <v>0.81310000000000004</v>
       </c>
       <c r="H8" s="32">
-        <v>1.3592</v>
+        <v>0.60650000000000004</v>
       </c>
       <c r="I8" s="33">
-        <v>0.66690000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.66210000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="31" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="32">
-        <v>0.87419999999999998</v>
+        <v>2.6274999999999999</v>
       </c>
       <c r="D9" s="32">
-        <v>0.74990000000000001</v>
+        <v>1.6739999999999999</v>
       </c>
       <c r="E9" s="32">
-        <v>0.31690000000000002</v>
+        <v>1.6440999999999999</v>
       </c>
       <c r="F9" s="32">
-        <v>0.87990000000000002</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="G9" s="32">
-        <v>0.38419999999999999</v>
+        <v>1.8131999999999999</v>
       </c>
       <c r="H9" s="32">
-        <v>0.66459999999999997</v>
+        <v>2.5268999999999999</v>
       </c>
       <c r="I9" s="33">
-        <v>0.75870000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+        <v>2.1052</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="31" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="32">
-        <v>0.3357</v>
+        <v>0.44350000000000001</v>
       </c>
       <c r="D10" s="32">
-        <v>0.38369999999999999</v>
+        <v>0.42380000000000001</v>
       </c>
       <c r="E10" s="32">
-        <v>0.24279999999999999</v>
+        <v>0.38150000000000001</v>
       </c>
       <c r="F10" s="32">
-        <v>0.4521</v>
+        <v>0.44169999999999998</v>
       </c>
       <c r="G10" s="32">
-        <v>0.33860000000000001</v>
+        <v>0.38059999999999999</v>
       </c>
       <c r="H10" s="32">
-        <v>0.29770000000000002</v>
+        <v>0.58069999999999999</v>
       </c>
       <c r="I10" s="33">
-        <v>0.34939999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.43540000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="31" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="32">
-        <v>1.1986000000000001</v>
+        <v>0.92669999999999997</v>
       </c>
       <c r="D11" s="32">
-        <v>1.2092000000000001</v>
+        <v>0.88939999999999997</v>
       </c>
       <c r="E11" s="32">
-        <v>0.81</v>
+        <v>0.63529999999999998</v>
       </c>
       <c r="F11" s="32">
-        <v>0.66830000000000001</v>
+        <v>0.4995</v>
       </c>
       <c r="G11" s="32">
-        <v>1.0573999999999999</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="H11" s="32">
-        <v>0.64439999999999997</v>
+        <v>0.49509999999999998</v>
       </c>
       <c r="I11" s="33">
-        <v>1.119</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.85119999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="31" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="32">
-        <v>1.4633</v>
+        <v>0.60770000000000002</v>
       </c>
       <c r="D12" s="32">
-        <v>1.5793999999999999</v>
+        <v>1.0458000000000001</v>
       </c>
       <c r="E12" s="32">
-        <v>0.99870000000000003</v>
+        <v>0.62860000000000005</v>
       </c>
       <c r="F12" s="32">
-        <v>2.6261000000000001</v>
+        <v>0.45540000000000003</v>
       </c>
       <c r="G12" s="32">
-        <v>1.2605</v>
+        <v>0.62319999999999998</v>
       </c>
       <c r="H12" s="32">
-        <v>1.8802000000000001</v>
+        <v>0.59909999999999997</v>
       </c>
       <c r="I12" s="33">
-        <v>1.532</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.75249999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="31" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="32">
-        <v>0.34720000000000001</v>
+        <v>0.3357</v>
       </c>
       <c r="D13" s="32">
-        <v>0.37369999999999998</v>
+        <v>0.34770000000000001</v>
       </c>
       <c r="E13" s="32">
-        <v>0.28050000000000003</v>
+        <v>0.33069999999999999</v>
       </c>
       <c r="F13" s="32">
-        <v>0.30309999999999998</v>
+        <v>0.37530000000000002</v>
       </c>
       <c r="G13" s="32">
-        <v>0.26519999999999999</v>
+        <v>0.2369</v>
       </c>
       <c r="H13" s="32">
-        <v>0.27100000000000002</v>
+        <v>0.29549999999999998</v>
       </c>
       <c r="I13" s="33">
-        <v>0.34200000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.33429999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="31" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="32">
-        <v>0.69010000000000005</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="D14" s="32">
-        <v>0.62109999999999999</v>
+        <v>0.4073</v>
       </c>
       <c r="E14" s="32">
-        <v>0.34310000000000002</v>
+        <v>0.60619999999999996</v>
       </c>
       <c r="F14" s="32">
-        <v>0.46150000000000002</v>
+        <v>0.36940000000000001</v>
       </c>
       <c r="G14" s="32">
-        <v>0.43149999999999999</v>
+        <v>0.48649999999999999</v>
       </c>
       <c r="H14" s="32">
-        <v>0.46139999999999998</v>
+        <v>0.5706</v>
       </c>
       <c r="I14" s="33">
-        <v>0.60850000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.48430000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="31" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="32">
-        <v>0.51290000000000002</v>
+        <v>0.2198</v>
       </c>
       <c r="D15" s="32">
-        <v>0.26590000000000003</v>
+        <v>9.7199999999999995E-2</v>
       </c>
       <c r="E15" s="32">
-        <v>0.46079999999999999</v>
+        <v>0.1042</v>
       </c>
       <c r="F15" s="32">
-        <v>6.83E-2</v>
+        <v>9.0800000000000006E-2</v>
       </c>
       <c r="G15" s="32">
-        <v>0.26340000000000002</v>
+        <v>9.4299999999999995E-2</v>
       </c>
       <c r="H15" s="32">
-        <v>0.26690000000000003</v>
+        <v>0.13969999999999999</v>
       </c>
       <c r="I15" s="33">
-        <v>0.38059999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.15390000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="31" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="32">
-        <v>0.86780000000000002</v>
+        <v>0.87019999999999997</v>
       </c>
       <c r="D16" s="32">
-        <v>0.76839999999999997</v>
+        <v>0.60189999999999999</v>
       </c>
       <c r="E16" s="32">
-        <v>0.67479999999999996</v>
+        <v>0.54159999999999997</v>
       </c>
       <c r="F16" s="32">
-        <v>0.43149999999999999</v>
+        <v>0.26979999999999998</v>
       </c>
       <c r="G16" s="32">
-        <v>0.56799999999999995</v>
+        <v>0.47839999999999999</v>
       </c>
       <c r="H16" s="32">
-        <v>0.54659999999999997</v>
+        <v>0.35920000000000002</v>
       </c>
       <c r="I16" s="33">
-        <v>0.77059999999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.68510000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="32">
-        <v>0.3377</v>
+        <v>0.1913</v>
       </c>
       <c r="D17" s="32">
-        <v>0.39779999999999999</v>
+        <v>0.22409999999999999</v>
       </c>
       <c r="E17" s="32">
-        <v>0.27850000000000003</v>
+        <v>0.16320000000000001</v>
       </c>
       <c r="F17" s="32">
-        <v>0.32500000000000001</v>
+        <v>0.21990000000000001</v>
       </c>
       <c r="G17" s="32">
-        <v>0.35239999999999999</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="H17" s="32">
-        <v>0.3538</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="I17" s="33">
-        <v>0.36520000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+        <v>0.2112</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="43"/>
       <c r="C18" s="44"/>
       <c r="D18" s="44"/>
@@ -14221,7 +14349,7 @@
       <c r="H18" s="44"/>
       <c r="I18" s="45"/>
     </row>
-    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="61" t="s">
         <v>36</v>
       </c>
@@ -14233,345 +14361,345 @@
       <c r="H19" s="62"/>
       <c r="I19" s="63"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="40" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="41">
-        <v>289.9024</v>
+        <v>292.2054</v>
       </c>
       <c r="D20" s="41">
-        <v>288.14789999999999</v>
+        <v>288.94690000000003</v>
       </c>
       <c r="E20" s="41">
-        <v>277.28899999999999</v>
+        <v>282.22719999999998</v>
       </c>
       <c r="F20" s="41">
-        <v>286.2296</v>
+        <v>278.91359999999997</v>
       </c>
       <c r="G20" s="41">
-        <v>280.86680000000001</v>
+        <v>284.1497</v>
       </c>
       <c r="H20" s="41">
-        <v>292.2722</v>
+        <v>293.51990000000001</v>
       </c>
       <c r="I20" s="42">
-        <v>287.8691</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+        <v>289.4049</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="31" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="32">
-        <v>82.365899999999996</v>
+        <v>79.130399999999995</v>
       </c>
       <c r="D21" s="32">
-        <v>95.9602</v>
+        <v>92.763499999999993</v>
       </c>
       <c r="E21" s="32">
-        <v>108.7204</v>
+        <v>108.4367</v>
       </c>
       <c r="F21" s="32">
-        <v>110.7754</v>
+        <v>105.54170000000001</v>
       </c>
       <c r="G21" s="32">
-        <v>94.243200000000002</v>
+        <v>91.767600000000002</v>
       </c>
       <c r="H21" s="32">
-        <v>93.8553</v>
+        <v>90.469899999999996</v>
       </c>
       <c r="I21" s="33">
-        <v>91.248599999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+        <v>88.171800000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="32">
-        <v>7.2812000000000001</v>
+        <v>7.1188000000000002</v>
       </c>
       <c r="D22" s="32">
-        <v>8.6402999999999999</v>
+        <v>8.4222999999999999</v>
       </c>
       <c r="E22" s="32">
-        <v>6.7176</v>
+        <v>6.5971000000000002</v>
       </c>
       <c r="F22" s="32">
-        <v>8.4029000000000007</v>
+        <v>8.1959999999999997</v>
       </c>
       <c r="G22" s="32">
-        <v>7.5061</v>
+        <v>7.5243000000000002</v>
       </c>
       <c r="H22" s="32">
-        <v>7.9592000000000001</v>
+        <v>7.9309000000000003</v>
       </c>
       <c r="I22" s="33">
-        <v>7.8003</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+        <v>7.6353</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="31" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="32">
-        <v>22.020499999999998</v>
+        <v>22.150400000000001</v>
       </c>
       <c r="D23" s="32">
-        <v>24.649100000000001</v>
+        <v>24.762799999999999</v>
       </c>
       <c r="E23" s="32">
-        <v>24.9983</v>
+        <v>25.5031</v>
       </c>
       <c r="F23" s="32">
-        <v>23.659800000000001</v>
+        <v>23.44</v>
       </c>
       <c r="G23" s="32">
-        <v>22.4392</v>
+        <v>23.273099999999999</v>
       </c>
       <c r="H23" s="32">
-        <v>31.031500000000001</v>
+        <v>30.245799999999999</v>
       </c>
       <c r="I23" s="33">
-        <v>23.631499999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+        <v>23.7605</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="31" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="32">
-        <v>17.408000000000001</v>
+        <v>24.918900000000001</v>
       </c>
       <c r="D24" s="32">
-        <v>12.8872</v>
+        <v>17.605499999999999</v>
       </c>
       <c r="E24" s="32">
-        <v>13.825799999999999</v>
+        <v>18.353200000000001</v>
       </c>
       <c r="F24" s="32">
-        <v>17.370100000000001</v>
+        <v>18.632000000000001</v>
       </c>
       <c r="G24" s="32">
-        <v>15.932700000000001</v>
+        <v>21.052</v>
       </c>
       <c r="H24" s="32">
-        <v>17.378799999999998</v>
+        <v>24.756399999999999</v>
       </c>
       <c r="I24" s="33">
-        <v>15.5364</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+        <v>21.4754</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="31" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="32">
-        <v>18.546500000000002</v>
+        <v>18.0289</v>
       </c>
       <c r="D25" s="32">
-        <v>18.506</v>
+        <v>18.0854</v>
       </c>
       <c r="E25" s="32">
-        <v>17.2959</v>
+        <v>16.938199999999998</v>
       </c>
       <c r="F25" s="32">
-        <v>22.276</v>
+        <v>21.529199999999999</v>
       </c>
       <c r="G25" s="32">
-        <v>17.855899999999998</v>
+        <v>17.545300000000001</v>
       </c>
       <c r="H25" s="32">
-        <v>20.959299999999999</v>
+        <v>20.908200000000001</v>
       </c>
       <c r="I25" s="33">
-        <v>18.689299999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18.2376</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="31" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="32">
-        <v>28.951699999999999</v>
+        <v>29.428699999999999</v>
       </c>
       <c r="D26" s="32">
-        <v>29.174199999999999</v>
+        <v>29.515499999999999</v>
       </c>
       <c r="E26" s="32">
-        <v>22.057200000000002</v>
+        <v>22.317</v>
       </c>
       <c r="F26" s="32">
-        <v>18.877199999999998</v>
+        <v>18.842600000000001</v>
       </c>
       <c r="G26" s="32">
-        <v>27.554300000000001</v>
+        <v>28.258600000000001</v>
       </c>
       <c r="H26" s="32">
-        <v>17.109200000000001</v>
+        <v>17.331099999999999</v>
       </c>
       <c r="I26" s="33">
-        <v>27.485499999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+        <v>27.8782</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="31" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="32">
-        <v>36.779499999999999</v>
+        <v>35.319099999999999</v>
       </c>
       <c r="D27" s="32">
-        <v>35.204999999999998</v>
+        <v>35.563499999999998</v>
       </c>
       <c r="E27" s="32">
-        <v>25.914899999999999</v>
+        <v>25.856100000000001</v>
       </c>
       <c r="F27" s="32">
-        <v>35.6021</v>
+        <v>33.966000000000001</v>
       </c>
       <c r="G27" s="32">
-        <v>39.0276</v>
+        <v>37.912199999999999</v>
       </c>
       <c r="H27" s="32">
-        <v>49.382300000000001</v>
+        <v>46.800400000000003</v>
       </c>
       <c r="I27" s="33">
-        <v>36.133000000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+        <v>35.349600000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="31" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="32">
-        <v>6.9798999999999998</v>
+        <v>7.5039999999999996</v>
       </c>
       <c r="D28" s="32">
-        <v>7.0594999999999999</v>
+        <v>7.5397999999999996</v>
       </c>
       <c r="E28" s="32">
-        <v>6.2126000000000001</v>
+        <v>6.7500999999999998</v>
       </c>
       <c r="F28" s="32">
-        <v>6.7012</v>
+        <v>7.3707000000000003</v>
       </c>
       <c r="G28" s="32">
-        <v>5.2188999999999997</v>
+        <v>5.6040999999999999</v>
       </c>
       <c r="H28" s="32">
-        <v>6.2305000000000001</v>
+        <v>6.7301000000000002</v>
       </c>
       <c r="I28" s="33">
-        <v>6.8163</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+        <v>7.3246000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="31" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="32">
-        <v>20.555299999999999</v>
+        <v>20.223600000000001</v>
       </c>
       <c r="D29" s="32">
-        <v>18.638500000000001</v>
+        <v>18.074300000000001</v>
       </c>
       <c r="E29" s="32">
-        <v>13.278</v>
+        <v>14.197699999999999</v>
       </c>
       <c r="F29" s="32">
-        <v>15.5062</v>
+        <v>15.298500000000001</v>
       </c>
       <c r="G29" s="32">
-        <v>16.221</v>
+        <v>16.503499999999999</v>
       </c>
       <c r="H29" s="32">
-        <v>19.907</v>
+        <v>19.9329</v>
       </c>
       <c r="I29" s="33">
-        <v>18.917400000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18.646100000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="31" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="32">
-        <v>6.5861999999999998</v>
+        <v>6.6542000000000003</v>
       </c>
       <c r="D30" s="32">
-        <v>2.3894000000000002</v>
+        <v>2.4152999999999998</v>
       </c>
       <c r="E30" s="32">
-        <v>3.6276000000000002</v>
+        <v>3.6598999999999999</v>
       </c>
       <c r="F30" s="32">
-        <v>1.6508</v>
+        <v>1.8328</v>
       </c>
       <c r="G30" s="32">
-        <v>2.7513999999999998</v>
+        <v>2.8881000000000001</v>
       </c>
       <c r="H30" s="32">
-        <v>2.5093000000000001</v>
+        <v>2.7509000000000001</v>
       </c>
       <c r="I30" s="33">
-        <v>4.3402000000000003</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+        <v>4.4080000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="31" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="32">
-        <v>31.374099999999999</v>
+        <v>31.0657</v>
       </c>
       <c r="D31" s="32">
-        <v>23.8215</v>
+        <v>23.252800000000001</v>
       </c>
       <c r="E31" s="32">
-        <v>23.374700000000001</v>
+        <v>22.716799999999999</v>
       </c>
       <c r="F31" s="32">
-        <v>14.28</v>
+        <v>13.4619</v>
       </c>
       <c r="G31" s="32">
-        <v>20.704599999999999</v>
+        <v>20.3307</v>
       </c>
       <c r="H31" s="32">
-        <v>14.476000000000001</v>
+        <v>14.2578</v>
       </c>
       <c r="I31" s="33">
-        <v>26.145600000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>25.701899999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="34" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="35">
-        <v>11.0526</v>
+        <v>10.6607</v>
       </c>
       <c r="D32" s="35">
-        <v>11.2178</v>
+        <v>10.9475</v>
       </c>
       <c r="E32" s="35">
-        <v>11.2684</v>
+        <v>10.903</v>
       </c>
       <c r="F32" s="35">
-        <v>11.1226</v>
+        <v>10.796799999999999</v>
       </c>
       <c r="G32" s="35">
-        <v>11.407400000000001</v>
+        <v>11.4842</v>
       </c>
       <c r="H32" s="35">
-        <v>11.4625</v>
+        <v>11.398300000000001</v>
       </c>
       <c r="I32" s="36">
-        <v>11.164199999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10.858000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="67" t="s">
         <v>38</v>
       </c>

--- a/assets/excel/IPCse - Series históricas.xlsx
+++ b/assets/excel/IPCse - Series históricas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fiona\Dropbox\MGR\IPC seasonal adjustment\IPCse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6FE1EE-4BBF-4C43-8546-DD622CD9B741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BE53A9-AFB8-439F-B70D-BCF447267C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="2" xr2:uid="{A81B6F3A-9175-42CA-B78F-287A4E3C6249}"/>
   </bookViews>
@@ -183,9 +183,6 @@
     <t>IPCse NACIONAL</t>
   </si>
   <si>
-    <t>Nov.</t>
-  </si>
-  <si>
     <t>Dic.</t>
   </si>
   <si>
@@ -199,6 +196,9 @@
   </si>
   <si>
     <t>Abr.</t>
+  </si>
+  <si>
+    <t>May.</t>
   </si>
 </sst>
 </file>
@@ -742,7 +742,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -928,6 +928,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="7" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1242,14 +1243,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA821952-0137-4F39-844C-15CA99AC928E}">
-  <dimension ref="B1:V93"/>
+  <dimension ref="B1:V94"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="78" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
-      <selection pane="bottomRight" activeCell="E87" sqref="E87"/>
+      <selection pane="bottomRight" activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -7103,69 +7104,134 @@
         <v>5537.8856999999998</v>
       </c>
     </row>
-    <row r="93" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="14">
+    <row r="93" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B93" s="13">
         <v>45383</v>
       </c>
-      <c r="C93" s="18">
+      <c r="C93" s="15">
         <v>5816.0856000000003</v>
       </c>
-      <c r="D93" s="19">
+      <c r="D93" s="16">
         <v>5765.9642999999996</v>
       </c>
-      <c r="E93" s="19">
+      <c r="E93" s="16">
         <v>5855.8469999999998</v>
       </c>
-      <c r="F93" s="19">
+      <c r="F93" s="16">
         <v>5821.6385</v>
       </c>
-      <c r="G93" s="19">
+      <c r="G93" s="16">
         <v>5887.0096999999996</v>
       </c>
-      <c r="H93" s="19">
+      <c r="H93" s="16">
         <v>5887.4438</v>
       </c>
-      <c r="I93" s="20">
+      <c r="I93" s="17">
         <v>5687.5941999999995</v>
       </c>
-      <c r="J93" s="19">
+      <c r="J93" s="16">
         <v>6526.7262000000001</v>
       </c>
-      <c r="K93" s="19">
+      <c r="K93" s="16">
         <v>4489.6032999999998</v>
       </c>
-      <c r="L93" s="19">
+      <c r="L93" s="16">
         <v>5330.6171999999997</v>
       </c>
-      <c r="M93" s="19">
+      <c r="M93" s="16">
         <v>4504.5236999999997</v>
       </c>
-      <c r="N93" s="19">
+      <c r="N93" s="16">
         <v>5795.2892000000002</v>
       </c>
-      <c r="O93" s="19">
+      <c r="O93" s="16">
         <v>6768.9894000000004</v>
       </c>
-      <c r="P93" s="19">
+      <c r="P93" s="16">
         <v>6307.7915000000003</v>
       </c>
-      <c r="Q93" s="19">
+      <c r="Q93" s="16">
         <v>4930.1795000000002</v>
       </c>
-      <c r="R93" s="19">
+      <c r="R93" s="16">
         <v>5240.2687999999998</v>
       </c>
-      <c r="S93" s="19">
+      <c r="S93" s="16">
         <v>3752.7853</v>
       </c>
-      <c r="T93" s="19">
+      <c r="T93" s="16">
         <v>5908.3567000000003</v>
       </c>
-      <c r="U93" s="20">
+      <c r="U93" s="17">
         <v>5906.06</v>
       </c>
-      <c r="V93" s="18">
+      <c r="V93" s="15">
         <v>5906.4143999999997</v>
+      </c>
+    </row>
+    <row r="94" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="14">
+        <v>45413</v>
+      </c>
+      <c r="C94" s="18">
+        <v>6082.0487999999996</v>
+      </c>
+      <c r="D94" s="19">
+        <v>6040.8525</v>
+      </c>
+      <c r="E94" s="19">
+        <v>6109.7764999999999</v>
+      </c>
+      <c r="F94" s="19">
+        <v>6086.0140000000001</v>
+      </c>
+      <c r="G94" s="19">
+        <v>6130.2685000000001</v>
+      </c>
+      <c r="H94" s="19">
+        <v>6159.6477999999997</v>
+      </c>
+      <c r="I94" s="20">
+        <v>5961.9258</v>
+      </c>
+      <c r="J94" s="19">
+        <v>6899.6801999999998</v>
+      </c>
+      <c r="K94" s="19">
+        <v>4819.1558000000005</v>
+      </c>
+      <c r="L94" s="19">
+        <v>5567.9486999999999</v>
+      </c>
+      <c r="M94" s="19">
+        <v>4619.4684999999999</v>
+      </c>
+      <c r="N94" s="19">
+        <v>5995.8081000000002</v>
+      </c>
+      <c r="O94" s="19">
+        <v>6815.6947</v>
+      </c>
+      <c r="P94" s="19">
+        <v>6558.3959000000004</v>
+      </c>
+      <c r="Q94" s="19">
+        <v>5358.8334000000004</v>
+      </c>
+      <c r="R94" s="19">
+        <v>5479.0721000000003</v>
+      </c>
+      <c r="S94" s="19">
+        <v>4075.9947999999999</v>
+      </c>
+      <c r="T94" s="19">
+        <v>6237.5425999999998</v>
+      </c>
+      <c r="U94" s="20">
+        <v>6165.2798000000003</v>
+      </c>
+      <c r="V94" s="18">
+        <v>6213.4395999999997</v>
       </c>
     </row>
   </sheetData>
@@ -7181,14 +7247,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED968B30-91AE-4BCD-9838-818BA334E48C}">
-  <dimension ref="B1:V93"/>
+  <dimension ref="B1:V94"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="83" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
-      <selection pane="bottomRight" activeCell="E92" sqref="E92"/>
+      <selection pane="bottomRight" activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -13002,69 +13068,134 @@
         <v>8.5932999999999993</v>
       </c>
     </row>
-    <row r="93" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B93" s="13">
         <v>45383</v>
       </c>
-      <c r="C93" s="18">
+      <c r="C93" s="15">
         <v>8.7431999999999999</v>
       </c>
-      <c r="D93" s="19">
+      <c r="D93" s="16">
         <v>9.1841000000000008</v>
       </c>
-      <c r="E93" s="19">
+      <c r="E93" s="16">
         <v>8.6998999999999995</v>
       </c>
-      <c r="F93" s="19">
+      <c r="F93" s="16">
         <v>9.0043000000000006</v>
       </c>
-      <c r="G93" s="19">
+      <c r="G93" s="16">
         <v>6.3064999999999998</v>
       </c>
-      <c r="H93" s="19">
+      <c r="H93" s="16">
         <v>8.0625</v>
       </c>
-      <c r="I93" s="20">
+      <c r="I93" s="17">
         <v>8.4405000000000001</v>
       </c>
-      <c r="J93" s="19">
+      <c r="J93" s="16">
         <v>6.1928000000000001</v>
       </c>
-      <c r="K93" s="19">
+      <c r="K93" s="16">
         <v>6.5521000000000003</v>
       </c>
-      <c r="L93" s="19">
+      <c r="L93" s="16">
         <v>7.2812000000000001</v>
       </c>
-      <c r="M93" s="19">
+      <c r="M93" s="16">
         <v>35.386299999999999</v>
       </c>
-      <c r="N93" s="19">
+      <c r="N93" s="16">
         <v>6.7298999999999998</v>
       </c>
-      <c r="O93" s="19">
+      <c r="O93" s="16">
         <v>9.1309000000000005</v>
       </c>
-      <c r="P93" s="19">
+      <c r="P93" s="16">
         <v>6.2891000000000004</v>
       </c>
-      <c r="Q93" s="19">
+      <c r="Q93" s="16">
         <v>14.7713</v>
       </c>
-      <c r="R93" s="19">
+      <c r="R93" s="16">
         <v>7.3421000000000003</v>
       </c>
-      <c r="S93" s="19">
+      <c r="S93" s="16">
         <v>10.162800000000001</v>
       </c>
-      <c r="T93" s="19">
+      <c r="T93" s="16">
         <v>7.2893999999999997</v>
       </c>
-      <c r="U93" s="20">
+      <c r="U93" s="17">
         <v>5.7464000000000004</v>
       </c>
-      <c r="V93" s="18">
+      <c r="V93" s="15">
         <v>6.6547000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="69">
+        <v>45413</v>
+      </c>
+      <c r="C94" s="18">
+        <v>4.5728999999999997</v>
+      </c>
+      <c r="D94" s="19">
+        <v>4.7674000000000003</v>
+      </c>
+      <c r="E94" s="19">
+        <v>4.3362999999999996</v>
+      </c>
+      <c r="F94" s="19">
+        <v>4.5412999999999997</v>
+      </c>
+      <c r="G94" s="19">
+        <v>4.1321000000000003</v>
+      </c>
+      <c r="H94" s="19">
+        <v>4.6234999999999999</v>
+      </c>
+      <c r="I94" s="20">
+        <v>4.8232999999999997</v>
+      </c>
+      <c r="J94" s="19">
+        <v>5.7142999999999997</v>
+      </c>
+      <c r="K94" s="19">
+        <v>7.3403</v>
+      </c>
+      <c r="L94" s="19">
+        <v>4.4522000000000004</v>
+      </c>
+      <c r="M94" s="19">
+        <v>2.5518000000000001</v>
+      </c>
+      <c r="N94" s="19">
+        <v>3.46</v>
+      </c>
+      <c r="O94" s="19">
+        <v>0.69</v>
+      </c>
+      <c r="P94" s="19">
+        <v>3.9729000000000001</v>
+      </c>
+      <c r="Q94" s="19">
+        <v>8.6944999999999997</v>
+      </c>
+      <c r="R94" s="19">
+        <v>4.5571000000000002</v>
+      </c>
+      <c r="S94" s="19">
+        <v>8.6125000000000007</v>
+      </c>
+      <c r="T94" s="19">
+        <v>5.5715000000000003</v>
+      </c>
+      <c r="U94" s="20">
+        <v>4.3890000000000002</v>
+      </c>
+      <c r="V94" s="18">
+        <v>5.1981999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -13082,7 +13213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83293D6D-81C8-49B2-8C10-806B04E884B0}">
   <dimension ref="B1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="96" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="116" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13134,7 +13265,7 @@
       <c r="H4" s="64"/>
       <c r="I4" s="23" t="str">
         <f>+_xlfn.CONCAT(H5, " ", C4, "/", H5, " ", C4-1)</f>
-        <v>Abr. 2023/Abr. 2022</v>
+        <v>May. 2023/May. 2022</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -13164,25 +13295,25 @@
         <v>18</v>
       </c>
       <c r="C6" s="27">
-        <v>13.3675</v>
+        <v>25.981400000000001</v>
       </c>
       <c r="D6" s="27">
-        <v>25.981400000000001</v>
+        <v>20.7379</v>
       </c>
       <c r="E6" s="27">
-        <v>20.7379</v>
+        <v>13.4008</v>
       </c>
       <c r="F6" s="27">
-        <v>13.4008</v>
+        <v>10.164400000000001</v>
       </c>
       <c r="G6" s="27">
-        <v>10.164400000000001</v>
+        <v>8.7431999999999999</v>
       </c>
       <c r="H6" s="27">
-        <v>8.7431999999999999</v>
+        <v>4.5728999999999997</v>
       </c>
       <c r="I6" s="28">
-        <v>289.4049</v>
+        <v>276.41030000000001</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13202,25 +13333,25 @@
         <v>19</v>
       </c>
       <c r="C8" s="32">
-        <v>13.661199999999999</v>
+        <v>25.939699999999998</v>
       </c>
       <c r="D8" s="32">
-        <v>25.939699999999998</v>
+        <v>19.487200000000001</v>
       </c>
       <c r="E8" s="32">
-        <v>19.487200000000001</v>
+        <v>15.286</v>
       </c>
       <c r="F8" s="32">
-        <v>15.286</v>
+        <v>10.3573</v>
       </c>
       <c r="G8" s="32">
-        <v>10.3573</v>
+        <v>9.1841000000000008</v>
       </c>
       <c r="H8" s="32">
-        <v>9.1841000000000008</v>
+        <v>4.7674000000000003</v>
       </c>
       <c r="I8" s="33">
-        <v>292.2054</v>
+        <v>278.93709999999999</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -13228,25 +13359,25 @@
         <v>2</v>
       </c>
       <c r="C9" s="32">
-        <v>13.3454</v>
+        <v>25.8706</v>
       </c>
       <c r="D9" s="32">
-        <v>25.8706</v>
+        <v>21.381399999999999</v>
       </c>
       <c r="E9" s="32">
-        <v>21.381399999999999</v>
+        <v>11.950900000000001</v>
       </c>
       <c r="F9" s="32">
-        <v>11.950900000000001</v>
+        <v>10.5008</v>
       </c>
       <c r="G9" s="32">
-        <v>10.5008</v>
+        <v>8.6998999999999995</v>
       </c>
       <c r="H9" s="32">
-        <v>8.6998999999999995</v>
+        <v>4.3362999999999996</v>
       </c>
       <c r="I9" s="33">
-        <v>288.94690000000003</v>
+        <v>275.71530000000001</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -13254,25 +13385,25 @@
         <v>3</v>
       </c>
       <c r="C10" s="32">
-        <v>12.2658</v>
+        <v>25.432500000000001</v>
       </c>
       <c r="D10" s="32">
-        <v>25.432500000000001</v>
+        <v>21.819099999999999</v>
       </c>
       <c r="E10" s="32">
-        <v>21.819099999999999</v>
+        <v>11.765000000000001</v>
       </c>
       <c r="F10" s="32">
-        <v>11.765000000000001</v>
+        <v>8.0137999999999998</v>
       </c>
       <c r="G10" s="32">
-        <v>8.0137999999999998</v>
+        <v>9.0043000000000006</v>
       </c>
       <c r="H10" s="32">
-        <v>9.0043000000000006</v>
+        <v>4.5412999999999997</v>
       </c>
       <c r="I10" s="33">
-        <v>282.22719999999998</v>
+        <v>268.81819999999999</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -13280,25 +13411,25 @@
         <v>4</v>
       </c>
       <c r="C11" s="32">
-        <v>13.189500000000001</v>
+        <v>28.0672</v>
       </c>
       <c r="D11" s="32">
-        <v>28.0672</v>
+        <v>19.981400000000001</v>
       </c>
       <c r="E11" s="32">
-        <v>19.981400000000001</v>
+        <v>10.963900000000001</v>
       </c>
       <c r="F11" s="32">
-        <v>10.963900000000001</v>
+        <v>10.056800000000001</v>
       </c>
       <c r="G11" s="32">
-        <v>10.056800000000001</v>
+        <v>6.3064999999999998</v>
       </c>
       <c r="H11" s="32">
-        <v>6.3064999999999998</v>
+        <v>4.1321000000000003</v>
       </c>
       <c r="I11" s="33">
-        <v>278.91359999999997</v>
+        <v>266.35359999999997</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -13306,25 +13437,25 @@
         <v>5</v>
       </c>
       <c r="C12" s="32">
-        <v>13.1684</v>
+        <v>26.057700000000001</v>
       </c>
       <c r="D12" s="32">
-        <v>26.057700000000001</v>
+        <v>22.540900000000001</v>
       </c>
       <c r="E12" s="32">
-        <v>22.540900000000001</v>
+        <v>13.427899999999999</v>
       </c>
       <c r="F12" s="32">
-        <v>13.427899999999999</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="G12" s="32">
-        <v>8.7100000000000009</v>
+        <v>8.0625</v>
       </c>
       <c r="H12" s="32">
-        <v>8.0625</v>
+        <v>4.6234999999999999</v>
       </c>
       <c r="I12" s="33">
-        <v>284.1497</v>
+        <v>272.71199999999999</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -13332,25 +13463,25 @@
         <v>6</v>
       </c>
       <c r="C13" s="32">
-        <v>12.2498</v>
+        <v>24.6936</v>
       </c>
       <c r="D13" s="32">
-        <v>24.6936</v>
+        <v>24.8538</v>
       </c>
       <c r="E13" s="32">
-        <v>24.8538</v>
+        <v>11.549300000000001</v>
       </c>
       <c r="F13" s="32">
-        <v>11.549300000000001</v>
+        <v>9.9405999999999999</v>
       </c>
       <c r="G13" s="32">
-        <v>9.9405999999999999</v>
+        <v>8.4405000000000001</v>
       </c>
       <c r="H13" s="32">
-        <v>8.4405000000000001</v>
+        <v>4.8232999999999997</v>
       </c>
       <c r="I13" s="33">
-        <v>293.51990000000001</v>
+        <v>283.43310000000002</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -13380,25 +13511,25 @@
         <v>20</v>
       </c>
       <c r="C16" s="32">
-        <v>16.734400000000001</v>
+        <v>29.6767</v>
       </c>
       <c r="D16" s="32">
-        <v>29.6767</v>
+        <v>20.2986</v>
       </c>
       <c r="E16" s="32">
-        <v>20.2986</v>
+        <v>11.379200000000001</v>
       </c>
       <c r="F16" s="32">
-        <v>11.379200000000001</v>
+        <v>9.5661000000000005</v>
       </c>
       <c r="G16" s="32">
-        <v>9.5661000000000005</v>
+        <v>6.1928000000000001</v>
       </c>
       <c r="H16" s="32">
-        <v>6.1928000000000001</v>
+        <v>5.7142999999999997</v>
       </c>
       <c r="I16" s="33">
-        <v>292.95850000000002</v>
+        <v>289.39960000000002</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -13406,25 +13537,25 @@
         <v>21</v>
       </c>
       <c r="C17" s="32">
-        <v>11.3401</v>
+        <v>20.002500000000001</v>
       </c>
       <c r="D17" s="32">
-        <v>20.002500000000001</v>
+        <v>21.049499999999998</v>
       </c>
       <c r="E17" s="32">
-        <v>21.049499999999998</v>
+        <v>18.6081</v>
       </c>
       <c r="F17" s="32">
-        <v>18.6081</v>
+        <v>11.4427</v>
       </c>
       <c r="G17" s="32">
-        <v>11.4427</v>
+        <v>6.5521000000000003</v>
       </c>
       <c r="H17" s="32">
-        <v>6.5521000000000003</v>
+        <v>7.3403</v>
       </c>
       <c r="I17" s="33">
-        <v>272.3229</v>
+        <v>266.29230000000001</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -13432,25 +13563,25 @@
         <v>22</v>
       </c>
       <c r="C18" s="32">
-        <v>11.342000000000001</v>
+        <v>20.7287</v>
       </c>
       <c r="D18" s="32">
-        <v>20.7287</v>
+        <v>13.392300000000001</v>
       </c>
       <c r="E18" s="32">
-        <v>13.392300000000001</v>
+        <v>9.5421999999999993</v>
       </c>
       <c r="F18" s="32">
-        <v>9.5421999999999993</v>
+        <v>6.9301000000000004</v>
       </c>
       <c r="G18" s="32">
-        <v>6.9301000000000004</v>
+        <v>7.2812000000000001</v>
       </c>
       <c r="H18" s="32">
-        <v>7.2812000000000001</v>
+        <v>4.4522000000000004</v>
       </c>
       <c r="I18" s="33">
-        <v>205.00790000000001</v>
+        <v>193.4092</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -13458,25 +13589,25 @@
         <v>23</v>
       </c>
       <c r="C19" s="32">
-        <v>7.1440999999999999</v>
+        <v>13.781599999999999</v>
       </c>
       <c r="D19" s="32">
-        <v>13.781599999999999</v>
+        <v>14.2448</v>
       </c>
       <c r="E19" s="32">
-        <v>14.2448</v>
+        <v>20.098299999999998</v>
       </c>
       <c r="F19" s="32">
-        <v>20.098299999999998</v>
+        <v>13.2197</v>
       </c>
       <c r="G19" s="32">
-        <v>13.2197</v>
+        <v>35.386299999999999</v>
       </c>
       <c r="H19" s="32">
-        <v>35.386299999999999</v>
+        <v>2.5518000000000001</v>
       </c>
       <c r="I19" s="33">
-        <v>311.6207</v>
+        <v>277.30340000000001</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -13484,25 +13615,25 @@
         <v>24</v>
       </c>
       <c r="C20" s="32">
-        <v>12.776300000000001</v>
+        <v>31.744900000000001</v>
       </c>
       <c r="D20" s="32">
-        <v>31.744900000000001</v>
+        <v>22.438099999999999</v>
       </c>
       <c r="E20" s="32">
-        <v>22.438099999999999</v>
+        <v>10.5862</v>
       </c>
       <c r="F20" s="32">
-        <v>10.5862</v>
+        <v>5.1493000000000002</v>
       </c>
       <c r="G20" s="32">
-        <v>5.1493000000000002</v>
+        <v>6.7298999999999998</v>
       </c>
       <c r="H20" s="32">
-        <v>6.7298999999999998</v>
+        <v>3.46</v>
       </c>
       <c r="I20" s="33">
-        <v>293.40660000000003</v>
+        <v>273.40230000000003</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -13510,25 +13641,25 @@
         <v>25</v>
       </c>
       <c r="C21" s="32">
-        <v>15.853400000000001</v>
+        <v>32.622999999999998</v>
       </c>
       <c r="D21" s="32">
-        <v>32.622999999999998</v>
+        <v>20.499500000000001</v>
       </c>
       <c r="E21" s="32">
-        <v>20.499500000000001</v>
+        <v>13.5733</v>
       </c>
       <c r="F21" s="32">
-        <v>13.5733</v>
+        <v>12.2319</v>
       </c>
       <c r="G21" s="32">
-        <v>12.2319</v>
+        <v>9.1309000000000005</v>
       </c>
       <c r="H21" s="32">
-        <v>9.1309000000000005</v>
+        <v>0.69</v>
       </c>
       <c r="I21" s="33">
-        <v>341.0702</v>
+        <v>307.2525</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -13536,25 +13667,25 @@
         <v>26</v>
       </c>
       <c r="C22" s="32">
-        <v>10.409599999999999</v>
+        <v>31.6769</v>
       </c>
       <c r="D22" s="32">
-        <v>31.6769</v>
+        <v>26.314499999999999</v>
       </c>
       <c r="E22" s="32">
-        <v>26.314499999999999</v>
+        <v>21.3124</v>
       </c>
       <c r="F22" s="32">
-        <v>21.3124</v>
+        <v>12.997999999999999</v>
       </c>
       <c r="G22" s="32">
-        <v>12.997999999999999</v>
+        <v>6.2891000000000004</v>
       </c>
       <c r="H22" s="32">
-        <v>6.2891000000000004</v>
+        <v>3.9729000000000001</v>
       </c>
       <c r="I22" s="33">
-        <v>325.9228</v>
+        <v>309.54939999999999</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
@@ -13562,25 +13693,25 @@
         <v>27</v>
       </c>
       <c r="C23" s="32">
-        <v>14.9031</v>
+        <v>14.953200000000001</v>
       </c>
       <c r="D23" s="32">
-        <v>14.953200000000001</v>
+        <v>23.994299999999999</v>
       </c>
       <c r="E23" s="32">
-        <v>23.994299999999999</v>
+        <v>24.742799999999999</v>
       </c>
       <c r="F23" s="32">
-        <v>24.742799999999999</v>
+        <v>15.887</v>
       </c>
       <c r="G23" s="32">
-        <v>15.887</v>
+        <v>14.7713</v>
       </c>
       <c r="H23" s="32">
-        <v>14.7713</v>
+        <v>8.6944999999999997</v>
       </c>
       <c r="I23" s="33">
-        <v>369.13060000000002</v>
+        <v>375.6533</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -13588,25 +13719,25 @@
         <v>28</v>
       </c>
       <c r="C24" s="32">
-        <v>13.5905</v>
+        <v>20.004899999999999</v>
       </c>
       <c r="D24" s="32">
-        <v>20.004899999999999</v>
+        <v>24.026</v>
       </c>
       <c r="E24" s="32">
-        <v>24.026</v>
+        <v>9.5474999999999994</v>
       </c>
       <c r="F24" s="32">
-        <v>9.5474999999999994</v>
+        <v>9.0190000000000001</v>
       </c>
       <c r="G24" s="32">
-        <v>9.0190000000000001</v>
+        <v>7.3421000000000003</v>
       </c>
       <c r="H24" s="32">
-        <v>7.3421000000000003</v>
+        <v>4.5571000000000002</v>
       </c>
       <c r="I24" s="33">
-        <v>283.59820000000002</v>
+        <v>270.12169999999998</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -13614,25 +13745,25 @@
         <v>29</v>
       </c>
       <c r="C25" s="32">
-        <v>10.886900000000001</v>
+        <v>10.581899999999999</v>
       </c>
       <c r="D25" s="32">
-        <v>10.581899999999999</v>
+        <v>2.3591000000000002</v>
       </c>
       <c r="E25" s="32">
-        <v>2.3591000000000002</v>
+        <v>11.2354</v>
       </c>
       <c r="F25" s="32">
-        <v>11.2354</v>
+        <v>29.938800000000001</v>
       </c>
       <c r="G25" s="32">
-        <v>29.938800000000001</v>
+        <v>10.162800000000001</v>
       </c>
       <c r="H25" s="32">
-        <v>10.162800000000001</v>
+        <v>8.6125000000000007</v>
       </c>
       <c r="I25" s="33">
-        <v>214.45079999999999</v>
+        <v>222.62299999999999</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
@@ -13640,25 +13771,25 @@
         <v>30</v>
       </c>
       <c r="C26" s="32">
-        <v>12.102499999999999</v>
+        <v>21.5383</v>
       </c>
       <c r="D26" s="32">
-        <v>21.5383</v>
+        <v>19.302700000000002</v>
       </c>
       <c r="E26" s="32">
-        <v>19.302700000000002</v>
+        <v>11.1287</v>
       </c>
       <c r="F26" s="32">
-        <v>11.1287</v>
+        <v>8.3148</v>
       </c>
       <c r="G26" s="32">
-        <v>8.3148</v>
+        <v>7.2893999999999997</v>
       </c>
       <c r="H26" s="32">
-        <v>7.2893999999999997</v>
+        <v>5.5715000000000003</v>
       </c>
       <c r="I26" s="33">
-        <v>263.56200000000001</v>
+        <v>250.97069999999999</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
@@ -13666,25 +13797,25 @@
         <v>31</v>
       </c>
       <c r="C27" s="32">
-        <v>11.4826</v>
+        <v>32.697200000000002</v>
       </c>
       <c r="D27" s="32">
-        <v>32.697200000000002</v>
+        <v>44.463900000000002</v>
       </c>
       <c r="E27" s="32">
-        <v>44.463900000000002</v>
+        <v>16.633199999999999</v>
       </c>
       <c r="F27" s="32">
-        <v>16.633199999999999</v>
+        <v>9.6061999999999994</v>
       </c>
       <c r="G27" s="32">
-        <v>9.6061999999999994</v>
+        <v>5.7464000000000004</v>
       </c>
       <c r="H27" s="32">
-        <v>5.7464000000000004</v>
+        <v>4.3890000000000002</v>
       </c>
       <c r="I27" s="33">
-        <v>360.23410000000001</v>
+        <v>348.17500000000001</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
@@ -13714,25 +13845,25 @@
         <v>33</v>
       </c>
       <c r="C30" s="32">
-        <v>14.082599999999999</v>
+        <v>26.100899999999999</v>
       </c>
       <c r="D30" s="32">
-        <v>26.100899999999999</v>
+        <v>20.792200000000001</v>
       </c>
       <c r="E30" s="32">
-        <v>20.792200000000001</v>
+        <v>11.286099999999999</v>
       </c>
       <c r="F30" s="32">
-        <v>11.286099999999999</v>
+        <v>8.5932999999999993</v>
       </c>
       <c r="G30" s="32">
-        <v>8.5932999999999993</v>
+        <v>6.6547000000000001</v>
       </c>
       <c r="H30" s="32">
-        <v>6.6547000000000001</v>
+        <v>5.1981999999999999</v>
       </c>
       <c r="I30" s="33">
-        <v>275.41230000000002</v>
+        <v>266.1619</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -13740,25 +13871,25 @@
         <v>19</v>
       </c>
       <c r="C31" s="32">
-        <v>14.573700000000001</v>
+        <v>26.662099999999999</v>
       </c>
       <c r="D31" s="32">
-        <v>26.662099999999999</v>
+        <v>19.951899999999998</v>
       </c>
       <c r="E31" s="32">
-        <v>19.951899999999998</v>
+        <v>11.7393</v>
       </c>
       <c r="F31" s="32">
-        <v>11.7393</v>
+        <v>8.7751000000000001</v>
       </c>
       <c r="G31" s="32">
-        <v>8.7751000000000001</v>
+        <v>6.6711</v>
       </c>
       <c r="H31" s="32">
-        <v>6.6711</v>
+        <v>5.5831999999999997</v>
       </c>
       <c r="I31" s="33">
-        <v>276.50760000000002</v>
+        <v>267.52859999999998</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
@@ -13766,25 +13897,25 @@
         <v>2</v>
       </c>
       <c r="C32" s="32">
-        <v>14.0298</v>
+        <v>25.5184</v>
       </c>
       <c r="D32" s="32">
-        <v>25.5184</v>
+        <v>21.286100000000001</v>
       </c>
       <c r="E32" s="32">
-        <v>21.286100000000001</v>
+        <v>11.063000000000001</v>
       </c>
       <c r="F32" s="32">
-        <v>11.063000000000001</v>
+        <v>8.8963000000000001</v>
       </c>
       <c r="G32" s="32">
-        <v>8.8963000000000001</v>
+        <v>6.6332000000000004</v>
       </c>
       <c r="H32" s="32">
-        <v>6.6332000000000004</v>
+        <v>5.0351999999999997</v>
       </c>
       <c r="I32" s="33">
-        <v>275.53120000000001</v>
+        <v>267.00470000000001</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -13792,25 +13923,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="32">
-        <v>12.5905</v>
+        <v>25.406300000000002</v>
       </c>
       <c r="D33" s="32">
-        <v>25.406300000000002</v>
+        <v>21.453700000000001</v>
       </c>
       <c r="E33" s="32">
-        <v>21.453700000000001</v>
+        <v>10.1144</v>
       </c>
       <c r="F33" s="32">
-        <v>10.1144</v>
+        <v>6.8185000000000002</v>
       </c>
       <c r="G33" s="32">
-        <v>6.8185000000000002</v>
+        <v>7.5838000000000001</v>
       </c>
       <c r="H33" s="32">
-        <v>7.5838000000000001</v>
+        <v>4.8856000000000002</v>
       </c>
       <c r="I33" s="33">
-        <v>268.76560000000001</v>
+        <v>256.88799999999998</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -13818,25 +13949,25 @@
         <v>4</v>
       </c>
       <c r="C34" s="32">
-        <v>13.8574</v>
+        <v>27.901299999999999</v>
       </c>
       <c r="D34" s="32">
-        <v>27.901299999999999</v>
+        <v>19.4986</v>
       </c>
       <c r="E34" s="32">
-        <v>19.4986</v>
+        <v>9.8995999999999995</v>
       </c>
       <c r="F34" s="32">
-        <v>9.8995999999999995</v>
+        <v>7.4158999999999997</v>
       </c>
       <c r="G34" s="32">
-        <v>7.4158999999999997</v>
+        <v>5.6147999999999998</v>
       </c>
       <c r="H34" s="32">
-        <v>5.6147999999999998</v>
+        <v>3.9249999999999998</v>
       </c>
       <c r="I34" s="33">
-        <v>265.44189999999998</v>
+        <v>253.76939999999999</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -13844,25 +13975,25 @@
         <v>5</v>
       </c>
       <c r="C35" s="32">
-        <v>13.4346</v>
+        <v>25.4133</v>
       </c>
       <c r="D35" s="32">
-        <v>25.4133</v>
+        <v>21.833300000000001</v>
       </c>
       <c r="E35" s="32">
-        <v>21.833300000000001</v>
+        <v>11.944800000000001</v>
       </c>
       <c r="F35" s="32">
-        <v>11.944800000000001</v>
+        <v>8.0154999999999994</v>
       </c>
       <c r="G35" s="32">
-        <v>8.0154999999999994</v>
+        <v>6.5365000000000002</v>
       </c>
       <c r="H35" s="32">
-        <v>6.5365000000000002</v>
+        <v>4.5087999999999999</v>
       </c>
       <c r="I35" s="33">
-        <v>272.57709999999997</v>
+        <v>262.315</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13870,25 +14001,25 @@
         <v>6</v>
       </c>
       <c r="C36" s="35">
-        <v>12.872199999999999</v>
+        <v>24.8947</v>
       </c>
       <c r="D36" s="35">
-        <v>24.8947</v>
+        <v>24.804600000000001</v>
       </c>
       <c r="E36" s="35">
-        <v>24.804600000000001</v>
+        <v>10.9206</v>
       </c>
       <c r="F36" s="35">
-        <v>10.9206</v>
+        <v>9.0473999999999997</v>
       </c>
       <c r="G36" s="35">
-        <v>9.0473999999999997</v>
+        <v>6.4358000000000004</v>
       </c>
       <c r="H36" s="35">
-        <v>6.4358000000000004</v>
+        <v>5.0989000000000004</v>
       </c>
       <c r="I36" s="36">
-        <v>287.80470000000003</v>
+        <v>277.98689999999999</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13942,8 +14073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C899619B-933E-4978-ACA9-2375D7439DCD}">
   <dimension ref="B1:I33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="116" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showGridLines="0" zoomScale="120" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14006,25 +14137,25 @@
         <v>37</v>
       </c>
       <c r="C5" s="41">
-        <v>9.1841000000000008</v>
+        <v>4.7674000000000003</v>
       </c>
       <c r="D5" s="41">
-        <v>8.6998999999999995</v>
+        <v>4.3362999999999996</v>
       </c>
       <c r="E5" s="41">
-        <v>9.0043000000000006</v>
+        <v>4.5412999999999997</v>
       </c>
       <c r="F5" s="41">
-        <v>6.3064999999999998</v>
+        <v>4.1321000000000003</v>
       </c>
       <c r="G5" s="41">
-        <v>8.0625</v>
+        <v>4.6234999999999999</v>
       </c>
       <c r="H5" s="41">
-        <v>8.4405000000000001</v>
+        <v>4.8232999999999997</v>
       </c>
       <c r="I5" s="42">
-        <v>8.7431999999999999</v>
+        <v>4.5728999999999997</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -14032,25 +14163,25 @@
         <v>20</v>
       </c>
       <c r="C6" s="32">
-        <v>1.6166</v>
+        <v>1.7040999999999999</v>
       </c>
       <c r="D6" s="32">
-        <v>2.1728000000000001</v>
+        <v>1.7139</v>
       </c>
       <c r="E6" s="32">
-        <v>2.9401999999999999</v>
+        <v>2.0775999999999999</v>
       </c>
       <c r="F6" s="32">
-        <v>1.9346000000000001</v>
+        <v>1.5928</v>
       </c>
       <c r="G6" s="32">
-        <v>1.8008</v>
+        <v>1.5148999999999999</v>
       </c>
       <c r="H6" s="32">
-        <v>1.7746999999999999</v>
+        <v>1.4457</v>
       </c>
       <c r="I6" s="33">
-        <v>1.9289000000000001</v>
+        <v>1.7064999999999999</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -14058,25 +14189,25 @@
         <v>21</v>
       </c>
       <c r="C7" s="32">
-        <v>0.1699</v>
+        <v>0.19950000000000001</v>
       </c>
       <c r="D7" s="32">
-        <v>0.1913</v>
+        <v>0.2145</v>
       </c>
       <c r="E7" s="32">
-        <v>0.16209999999999999</v>
+        <v>0.14960000000000001</v>
       </c>
       <c r="F7" s="32">
-        <v>0.18229999999999999</v>
+        <v>0.1714</v>
       </c>
       <c r="G7" s="32">
-        <v>0.19439999999999999</v>
+        <v>0.1429</v>
       </c>
       <c r="H7" s="32">
-        <v>0.2034</v>
+        <v>0.2092</v>
       </c>
       <c r="I7" s="33">
-        <v>0.18</v>
+        <v>0.19739999999999999</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -14084,25 +14215,25 @@
         <v>22</v>
       </c>
       <c r="C8" s="32">
-        <v>0.64839999999999998</v>
+        <v>0.34229999999999999</v>
       </c>
       <c r="D8" s="32">
-        <v>0.62460000000000004</v>
+        <v>0.46870000000000001</v>
       </c>
       <c r="E8" s="32">
-        <v>0.86639999999999995</v>
+        <v>0.42309999999999998</v>
       </c>
       <c r="F8" s="32">
-        <v>0.65459999999999996</v>
+        <v>0.24360000000000001</v>
       </c>
       <c r="G8" s="32">
-        <v>0.81310000000000004</v>
+        <v>0.47239999999999999</v>
       </c>
       <c r="H8" s="32">
-        <v>0.60650000000000004</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="I8" s="33">
-        <v>0.66210000000000002</v>
+        <v>0.40379999999999999</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -14110,25 +14241,25 @@
         <v>23</v>
       </c>
       <c r="C9" s="32">
-        <v>2.6274999999999999</v>
+        <v>0.17319999999999999</v>
       </c>
       <c r="D9" s="32">
-        <v>1.6739999999999999</v>
+        <v>0.2072</v>
       </c>
       <c r="E9" s="32">
-        <v>1.6440999999999999</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="F9" s="32">
-        <v>0.81299999999999994</v>
+        <v>0.36720000000000003</v>
       </c>
       <c r="G9" s="32">
-        <v>1.8131999999999999</v>
+        <v>0.16089999999999999</v>
       </c>
       <c r="H9" s="32">
-        <v>2.5268999999999999</v>
+        <v>0.1767</v>
       </c>
       <c r="I9" s="33">
-        <v>2.1052</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -14136,25 +14267,25 @@
         <v>24</v>
       </c>
       <c r="C10" s="32">
-        <v>0.44350000000000001</v>
+        <v>0.21909999999999999</v>
       </c>
       <c r="D10" s="32">
-        <v>0.42380000000000001</v>
+        <v>0.2135</v>
       </c>
       <c r="E10" s="32">
-        <v>0.38150000000000001</v>
+        <v>0.1835</v>
       </c>
       <c r="F10" s="32">
-        <v>0.44169999999999998</v>
+        <v>0.34589999999999999</v>
       </c>
       <c r="G10" s="32">
-        <v>0.38059999999999999</v>
+        <v>0.21079999999999999</v>
       </c>
       <c r="H10" s="32">
-        <v>0.58069999999999999</v>
+        <v>0.22839999999999999</v>
       </c>
       <c r="I10" s="33">
-        <v>0.43540000000000001</v>
+        <v>0.22040000000000001</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -14162,25 +14293,25 @@
         <v>25</v>
       </c>
       <c r="C11" s="32">
-        <v>0.92669999999999997</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="D11" s="32">
-        <v>0.88939999999999997</v>
+        <v>8.0199999999999994E-2</v>
       </c>
       <c r="E11" s="32">
-        <v>0.63529999999999998</v>
+        <v>0.14510000000000001</v>
       </c>
       <c r="F11" s="32">
-        <v>0.4995</v>
+        <v>6.9699999999999998E-2</v>
       </c>
       <c r="G11" s="32">
-        <v>0.85499999999999998</v>
+        <v>0.1042</v>
       </c>
       <c r="H11" s="32">
-        <v>0.49509999999999998</v>
+        <v>0.1381</v>
       </c>
       <c r="I11" s="33">
-        <v>0.85119999999999996</v>
+        <v>5.6500000000000002E-2</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -14188,25 +14319,25 @@
         <v>26</v>
       </c>
       <c r="C12" s="32">
-        <v>0.60770000000000002</v>
+        <v>0.4723</v>
       </c>
       <c r="D12" s="32">
-        <v>1.0458000000000001</v>
+        <v>0.33489999999999998</v>
       </c>
       <c r="E12" s="32">
-        <v>0.62860000000000005</v>
+        <v>0.48870000000000002</v>
       </c>
       <c r="F12" s="32">
-        <v>0.45540000000000003</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="G12" s="32">
-        <v>0.62319999999999998</v>
+        <v>1.0671999999999999</v>
       </c>
       <c r="H12" s="32">
-        <v>0.59909999999999997</v>
+        <v>0.7752</v>
       </c>
       <c r="I12" s="33">
-        <v>0.75249999999999995</v>
+        <v>0.47610000000000002</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -14214,25 +14345,25 @@
         <v>27</v>
       </c>
       <c r="C13" s="32">
-        <v>0.3357</v>
+        <v>0.21329999999999999</v>
       </c>
       <c r="D13" s="32">
-        <v>0.34770000000000001</v>
+        <v>0.21079999999999999</v>
       </c>
       <c r="E13" s="32">
-        <v>0.33069999999999999</v>
+        <v>0.19209999999999999</v>
       </c>
       <c r="F13" s="32">
-        <v>0.37530000000000002</v>
+        <v>0.2102</v>
       </c>
       <c r="G13" s="32">
-        <v>0.2369</v>
+        <v>0.1416</v>
       </c>
       <c r="H13" s="32">
-        <v>0.29549999999999998</v>
+        <v>0.23280000000000001</v>
       </c>
       <c r="I13" s="33">
-        <v>0.33429999999999999</v>
+        <v>0.20799999999999999</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -14240,25 +14371,25 @@
         <v>28</v>
       </c>
       <c r="C14" s="32">
-        <v>0.52700000000000002</v>
+        <v>0.38750000000000001</v>
       </c>
       <c r="D14" s="32">
-        <v>0.4073</v>
+        <v>0.2261</v>
       </c>
       <c r="E14" s="32">
-        <v>0.60619999999999996</v>
+        <v>0.16309999999999999</v>
       </c>
       <c r="F14" s="32">
-        <v>0.36940000000000001</v>
+        <v>0.20349999999999999</v>
       </c>
       <c r="G14" s="32">
-        <v>0.48649999999999999</v>
+        <v>0.19439999999999999</v>
       </c>
       <c r="H14" s="32">
-        <v>0.5706</v>
+        <v>0.45779999999999998</v>
       </c>
       <c r="I14" s="33">
-        <v>0.48430000000000001</v>
+        <v>0.30180000000000001</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -14266,25 +14397,25 @@
         <v>29</v>
       </c>
       <c r="C15" s="32">
-        <v>0.2198</v>
+        <v>0.2467</v>
       </c>
       <c r="D15" s="32">
-        <v>9.7199999999999995E-2</v>
+        <v>4.3700000000000003E-2</v>
       </c>
       <c r="E15" s="32">
-        <v>0.1042</v>
+        <v>7.4899999999999994E-2</v>
       </c>
       <c r="F15" s="32">
-        <v>9.0800000000000006E-2</v>
+        <v>7.4700000000000003E-2</v>
       </c>
       <c r="G15" s="32">
-        <v>9.4299999999999995E-2</v>
+        <v>0.1303</v>
       </c>
       <c r="H15" s="32">
-        <v>0.13969999999999999</v>
+        <v>9.1300000000000006E-2</v>
       </c>
       <c r="I15" s="33">
-        <v>0.15390000000000001</v>
+        <v>0.14460000000000001</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -14292,25 +14423,25 @@
         <v>30</v>
       </c>
       <c r="C16" s="32">
-        <v>0.87019999999999997</v>
+        <v>0.63329999999999997</v>
       </c>
       <c r="D16" s="32">
-        <v>0.60189999999999999</v>
+        <v>0.46970000000000001</v>
       </c>
       <c r="E16" s="32">
-        <v>0.54159999999999997</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="F16" s="32">
-        <v>0.26979999999999998</v>
+        <v>0.13189999999999999</v>
       </c>
       <c r="G16" s="32">
-        <v>0.47839999999999999</v>
+        <v>0.3085</v>
       </c>
       <c r="H16" s="32">
-        <v>0.35920000000000002</v>
+        <v>0.34289999999999998</v>
       </c>
       <c r="I16" s="33">
-        <v>0.68510000000000004</v>
+        <v>0.51439999999999997</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -14318,25 +14449,25 @@
         <v>31</v>
       </c>
       <c r="C17" s="32">
-        <v>0.1913</v>
+        <v>0.1666</v>
       </c>
       <c r="D17" s="32">
-        <v>0.22409999999999999</v>
+        <v>0.1532</v>
       </c>
       <c r="E17" s="32">
-        <v>0.16320000000000001</v>
+        <v>0.11849999999999999</v>
       </c>
       <c r="F17" s="32">
-        <v>0.21990000000000001</v>
+        <v>0.13930000000000001</v>
       </c>
       <c r="G17" s="32">
-        <v>0.28599999999999998</v>
+        <v>0.1754</v>
       </c>
       <c r="H17" s="32">
-        <v>0.28899999999999998</v>
+        <v>0.1542</v>
       </c>
       <c r="I17" s="33">
-        <v>0.2112</v>
+        <v>0.15740000000000001</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -14366,25 +14497,25 @@
         <v>37</v>
       </c>
       <c r="C20" s="41">
-        <v>292.2054</v>
+        <v>278.93709999999999</v>
       </c>
       <c r="D20" s="41">
-        <v>288.94690000000003</v>
+        <v>275.71530000000001</v>
       </c>
       <c r="E20" s="41">
-        <v>282.22719999999998</v>
+        <v>268.81819999999999</v>
       </c>
       <c r="F20" s="41">
-        <v>278.91359999999997</v>
+        <v>266.35359999999997</v>
       </c>
       <c r="G20" s="41">
-        <v>284.1497</v>
+        <v>272.71199999999999</v>
       </c>
       <c r="H20" s="41">
-        <v>293.51990000000001</v>
+        <v>283.43310000000002</v>
       </c>
       <c r="I20" s="42">
-        <v>289.4049</v>
+        <v>276.41030000000001</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -14392,25 +14523,25 @@
         <v>20</v>
       </c>
       <c r="C21" s="32">
-        <v>79.130399999999995</v>
+        <v>77.227699999999999</v>
       </c>
       <c r="D21" s="32">
-        <v>92.763499999999993</v>
+        <v>89.846599999999995</v>
       </c>
       <c r="E21" s="32">
-        <v>108.4367</v>
+        <v>103.9913</v>
       </c>
       <c r="F21" s="32">
-        <v>105.54170000000001</v>
+        <v>100.82559999999999</v>
       </c>
       <c r="G21" s="32">
-        <v>91.767600000000002</v>
+        <v>87.820899999999995</v>
       </c>
       <c r="H21" s="32">
-        <v>90.469899999999996</v>
+        <v>87.0398</v>
       </c>
       <c r="I21" s="33">
-        <v>88.171800000000005</v>
+        <v>85.444800000000001</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -14418,25 +14549,25 @@
         <v>21</v>
       </c>
       <c r="C22" s="32">
-        <v>7.1188000000000002</v>
+        <v>7.0529000000000002</v>
       </c>
       <c r="D22" s="32">
-        <v>8.4222999999999999</v>
+        <v>8.2586999999999993</v>
       </c>
       <c r="E22" s="32">
-        <v>6.5971000000000002</v>
+        <v>6.4333</v>
       </c>
       <c r="F22" s="32">
-        <v>8.1959999999999997</v>
+        <v>7.9381000000000004</v>
       </c>
       <c r="G22" s="32">
-        <v>7.5243000000000002</v>
+        <v>7.2835999999999999</v>
       </c>
       <c r="H22" s="32">
-        <v>7.9309000000000003</v>
+        <v>7.8648999999999996</v>
       </c>
       <c r="I22" s="33">
-        <v>7.6353</v>
+        <v>7.5114999999999998</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
@@ -14444,25 +14575,25 @@
         <v>22</v>
       </c>
       <c r="C23" s="32">
-        <v>22.150400000000001</v>
+        <v>20.477399999999999</v>
       </c>
       <c r="D23" s="32">
-        <v>24.762799999999999</v>
+        <v>23.770299999999999</v>
       </c>
       <c r="E23" s="32">
-        <v>25.5031</v>
+        <v>24.174299999999999</v>
       </c>
       <c r="F23" s="32">
-        <v>23.44</v>
+        <v>21.9315</v>
       </c>
       <c r="G23" s="32">
-        <v>23.273099999999999</v>
+        <v>22.510899999999999</v>
       </c>
       <c r="H23" s="32">
-        <v>30.245799999999999</v>
+        <v>29.437999999999999</v>
       </c>
       <c r="I23" s="33">
-        <v>23.7605</v>
+        <v>22.437999999999999</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -14470,25 +14601,25 @@
         <v>23</v>
       </c>
       <c r="C24" s="32">
-        <v>24.918900000000001</v>
+        <v>22.8597</v>
       </c>
       <c r="D24" s="32">
-        <v>17.605499999999999</v>
+        <v>16.412199999999999</v>
       </c>
       <c r="E24" s="32">
-        <v>18.353200000000001</v>
+        <v>16.636399999999998</v>
       </c>
       <c r="F24" s="32">
-        <v>18.632000000000001</v>
+        <v>17.882000000000001</v>
       </c>
       <c r="G24" s="32">
-        <v>21.052</v>
+        <v>19.237200000000001</v>
       </c>
       <c r="H24" s="32">
-        <v>24.756399999999999</v>
+        <v>23.181100000000001</v>
       </c>
       <c r="I24" s="33">
-        <v>21.4754</v>
+        <v>19.829699999999999</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -14496,25 +14627,25 @@
         <v>24</v>
       </c>
       <c r="C25" s="32">
-        <v>18.0289</v>
+        <v>16.902200000000001</v>
       </c>
       <c r="D25" s="32">
-        <v>18.0854</v>
+        <v>17.058399999999999</v>
       </c>
       <c r="E25" s="32">
-        <v>16.938199999999998</v>
+        <v>15.831200000000001</v>
       </c>
       <c r="F25" s="32">
-        <v>21.529199999999999</v>
+        <v>20.453199999999999</v>
       </c>
       <c r="G25" s="32">
-        <v>17.545300000000001</v>
+        <v>16.604399999999998</v>
       </c>
       <c r="H25" s="32">
-        <v>20.908200000000001</v>
+        <v>19.630600000000001</v>
       </c>
       <c r="I25" s="33">
-        <v>18.2376</v>
+        <v>17.151399999999999</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
@@ -14522,25 +14653,25 @@
         <v>25</v>
       </c>
       <c r="C26" s="32">
-        <v>29.428699999999999</v>
+        <v>26.643000000000001</v>
       </c>
       <c r="D26" s="32">
-        <v>29.515499999999999</v>
+        <v>26.9573</v>
       </c>
       <c r="E26" s="32">
-        <v>22.317</v>
+        <v>20.552900000000001</v>
       </c>
       <c r="F26" s="32">
-        <v>18.842600000000001</v>
+        <v>17.2425</v>
       </c>
       <c r="G26" s="32">
-        <v>28.258600000000001</v>
+        <v>25.8811</v>
       </c>
       <c r="H26" s="32">
-        <v>17.331099999999999</v>
+        <v>16.1892</v>
       </c>
       <c r="I26" s="33">
-        <v>27.8782</v>
+        <v>25.3903</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
@@ -14548,25 +14679,25 @@
         <v>26</v>
       </c>
       <c r="C27" s="32">
-        <v>35.319099999999999</v>
+        <v>33.5364</v>
       </c>
       <c r="D27" s="32">
-        <v>35.563499999999998</v>
+        <v>33.364800000000002</v>
       </c>
       <c r="E27" s="32">
-        <v>25.856100000000001</v>
+        <v>25.213699999999999</v>
       </c>
       <c r="F27" s="32">
-        <v>33.966000000000001</v>
+        <v>33.167000000000002</v>
       </c>
       <c r="G27" s="32">
-        <v>37.912199999999999</v>
+        <v>38.506300000000003</v>
       </c>
       <c r="H27" s="32">
-        <v>46.800400000000003</v>
+        <v>45.593000000000004</v>
       </c>
       <c r="I27" s="33">
-        <v>35.349600000000002</v>
+        <v>33.696899999999999</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
@@ -14574,25 +14705,25 @@
         <v>27</v>
       </c>
       <c r="C28" s="32">
-        <v>7.5039999999999996</v>
+        <v>7.6055000000000001</v>
       </c>
       <c r="D28" s="32">
-        <v>7.5397999999999996</v>
+        <v>7.5335000000000001</v>
       </c>
       <c r="E28" s="32">
-        <v>6.7500999999999998</v>
+        <v>6.7610000000000001</v>
       </c>
       <c r="F28" s="32">
-        <v>7.3707000000000003</v>
+        <v>7.4128999999999996</v>
       </c>
       <c r="G28" s="32">
-        <v>5.6040999999999999</v>
+        <v>5.6238999999999999</v>
       </c>
       <c r="H28" s="32">
-        <v>6.7301000000000002</v>
+        <v>6.9734999999999996</v>
       </c>
       <c r="I28" s="33">
-        <v>7.3246000000000002</v>
+        <v>7.3826000000000001</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
@@ -14600,25 +14731,25 @@
         <v>28</v>
       </c>
       <c r="C29" s="32">
-        <v>20.223600000000001</v>
+        <v>19.485199999999999</v>
       </c>
       <c r="D29" s="32">
-        <v>18.074300000000001</v>
+        <v>17.156400000000001</v>
       </c>
       <c r="E29" s="32">
-        <v>14.197699999999999</v>
+        <v>13.455</v>
       </c>
       <c r="F29" s="32">
-        <v>15.298500000000001</v>
+        <v>14.6487</v>
       </c>
       <c r="G29" s="32">
-        <v>16.503499999999999</v>
+        <v>15.6988</v>
       </c>
       <c r="H29" s="32">
-        <v>19.9329</v>
+        <v>19.586400000000001</v>
       </c>
       <c r="I29" s="33">
-        <v>18.646100000000001</v>
+        <v>17.8644</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -14626,25 +14757,25 @@
         <v>29</v>
       </c>
       <c r="C30" s="32">
-        <v>6.6542000000000003</v>
+        <v>6.8129</v>
       </c>
       <c r="D30" s="32">
-        <v>2.4152999999999998</v>
+        <v>2.3765000000000001</v>
       </c>
       <c r="E30" s="32">
-        <v>3.6598999999999999</v>
+        <v>3.4794</v>
       </c>
       <c r="F30" s="32">
-        <v>1.8328</v>
+        <v>1.9370000000000001</v>
       </c>
       <c r="G30" s="32">
-        <v>2.8881000000000001</v>
+        <v>3.0424000000000002</v>
       </c>
       <c r="H30" s="32">
-        <v>2.7509000000000001</v>
+        <v>2.8702000000000001</v>
       </c>
       <c r="I30" s="33">
-        <v>4.4080000000000004</v>
+        <v>4.4713000000000003</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -14652,25 +14783,25 @@
         <v>30</v>
       </c>
       <c r="C31" s="32">
-        <v>31.0657</v>
+        <v>30.060700000000001</v>
       </c>
       <c r="D31" s="32">
-        <v>23.252800000000001</v>
+        <v>22.4526</v>
       </c>
       <c r="E31" s="32">
-        <v>22.716799999999999</v>
+        <v>21.986699999999999</v>
       </c>
       <c r="F31" s="32">
-        <v>13.4619</v>
+        <v>12.672800000000001</v>
       </c>
       <c r="G31" s="32">
-        <v>20.3307</v>
+        <v>19.396699999999999</v>
       </c>
       <c r="H31" s="32">
-        <v>14.2578</v>
+        <v>14.1477</v>
       </c>
       <c r="I31" s="33">
-        <v>25.701899999999998</v>
+        <v>24.840199999999999</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14678,25 +14809,25 @@
         <v>31</v>
       </c>
       <c r="C32" s="35">
-        <v>10.6607</v>
+        <v>10.271699999999999</v>
       </c>
       <c r="D32" s="35">
-        <v>10.9475</v>
+        <v>10.5299</v>
       </c>
       <c r="E32" s="35">
-        <v>10.903</v>
+        <v>10.304600000000001</v>
       </c>
       <c r="F32" s="35">
-        <v>10.796799999999999</v>
+        <v>10.239000000000001</v>
       </c>
       <c r="G32" s="35">
-        <v>11.4842</v>
+        <v>11.1008</v>
       </c>
       <c r="H32" s="35">
-        <v>11.398300000000001</v>
+        <v>10.912100000000001</v>
       </c>
       <c r="I32" s="36">
-        <v>10.858000000000001</v>
+        <v>10.433</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/assets/excel/IPCse - Series históricas.xlsx
+++ b/assets/excel/IPCse - Series históricas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fiona\Dropbox\MGR\IPC seasonal adjustment\IPCse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BE53A9-AFB8-439F-B70D-BCF447267C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70B35E1-16A6-47E1-A520-E2BDD7C4FD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="2" xr2:uid="{A81B6F3A-9175-42CA-B78F-287A4E3C6249}"/>
+    <workbookView xWindow="-10416" yWindow="17172" windowWidth="30936" windowHeight="18696" activeTab="2" xr2:uid="{A81B6F3A-9175-42CA-B78F-287A4E3C6249}"/>
   </bookViews>
   <sheets>
     <sheet name="Índices" sheetId="1" r:id="rId1"/>
@@ -183,9 +183,6 @@
     <t>IPCse NACIONAL</t>
   </si>
   <si>
-    <t>Dic.</t>
-  </si>
-  <si>
     <t>Ene.</t>
   </si>
   <si>
@@ -199,6 +196,9 @@
   </si>
   <si>
     <t>May.</t>
+  </si>
+  <si>
+    <t>Jun.</t>
   </si>
 </sst>
 </file>
@@ -869,6 +869,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="7" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -928,7 +929,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="7" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1243,14 +1243,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA821952-0137-4F39-844C-15CA99AC928E}">
-  <dimension ref="B1:V94"/>
+  <dimension ref="B1:V95"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="78" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
-      <selection pane="bottomRight" activeCell="G83" sqref="G83"/>
+      <selection pane="bottomRight" activeCell="G78" sqref="G78:G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1264,57 +1264,57 @@
   <sheetData>
     <row r="1" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
     </row>
     <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="48" t="s">
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="50"/>
       <c r="V3" s="8" t="s">
         <v>12</v>
       </c>
@@ -7169,69 +7169,134 @@
         <v>5906.4143999999997</v>
       </c>
     </row>
-    <row r="94" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="14">
+    <row r="94" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B94" s="13">
         <v>45413</v>
       </c>
-      <c r="C94" s="18">
+      <c r="C94" s="15">
         <v>6082.0487999999996</v>
       </c>
-      <c r="D94" s="19">
+      <c r="D94" s="16">
         <v>6040.8525</v>
       </c>
-      <c r="E94" s="19">
+      <c r="E94" s="16">
         <v>6109.7764999999999</v>
       </c>
-      <c r="F94" s="19">
+      <c r="F94" s="16">
         <v>6086.0140000000001</v>
       </c>
-      <c r="G94" s="19">
+      <c r="G94" s="16">
         <v>6130.2685000000001</v>
       </c>
-      <c r="H94" s="19">
+      <c r="H94" s="16">
         <v>6159.6477999999997</v>
       </c>
-      <c r="I94" s="20">
+      <c r="I94" s="17">
         <v>5961.9258</v>
       </c>
-      <c r="J94" s="19">
+      <c r="J94" s="16">
         <v>6899.6801999999998</v>
       </c>
-      <c r="K94" s="19">
+      <c r="K94" s="16">
         <v>4819.1558000000005</v>
       </c>
-      <c r="L94" s="19">
+      <c r="L94" s="16">
         <v>5567.9486999999999</v>
       </c>
-      <c r="M94" s="19">
+      <c r="M94" s="16">
         <v>4619.4684999999999</v>
       </c>
-      <c r="N94" s="19">
+      <c r="N94" s="16">
         <v>5995.8081000000002</v>
       </c>
-      <c r="O94" s="19">
+      <c r="O94" s="16">
         <v>6815.6947</v>
       </c>
-      <c r="P94" s="19">
+      <c r="P94" s="16">
         <v>6558.3959000000004</v>
       </c>
-      <c r="Q94" s="19">
+      <c r="Q94" s="16">
         <v>5358.8334000000004</v>
       </c>
-      <c r="R94" s="19">
+      <c r="R94" s="16">
         <v>5479.0721000000003</v>
       </c>
-      <c r="S94" s="19">
+      <c r="S94" s="16">
         <v>4075.9947999999999</v>
       </c>
-      <c r="T94" s="19">
+      <c r="T94" s="16">
         <v>6237.5425999999998</v>
       </c>
-      <c r="U94" s="20">
+      <c r="U94" s="17">
         <v>6165.2798000000003</v>
       </c>
-      <c r="V94" s="18">
+      <c r="V94" s="15">
         <v>6213.4395999999997</v>
+      </c>
+    </row>
+    <row r="95" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="14">
+        <v>45444</v>
+      </c>
+      <c r="C95" s="18">
+        <v>6371.3901999999998</v>
+      </c>
+      <c r="D95" s="19">
+        <v>6313.5257000000001</v>
+      </c>
+      <c r="E95" s="19">
+        <v>6415.5124999999998</v>
+      </c>
+      <c r="F95" s="19">
+        <v>6390.4237000000003</v>
+      </c>
+      <c r="G95" s="19">
+        <v>6420.165</v>
+      </c>
+      <c r="H95" s="19">
+        <v>6477.3638000000001</v>
+      </c>
+      <c r="I95" s="20">
+        <v>6264.3185999999996</v>
+      </c>
+      <c r="J95" s="19">
+        <v>7146.6593999999996</v>
+      </c>
+      <c r="K95" s="19">
+        <v>4914.8936000000003</v>
+      </c>
+      <c r="L95" s="19">
+        <v>5731.8341</v>
+      </c>
+      <c r="M95" s="19">
+        <v>5285.0308000000005</v>
+      </c>
+      <c r="N95" s="19">
+        <v>6107.6014999999998</v>
+      </c>
+      <c r="O95" s="19">
+        <v>7139.3881000000001</v>
+      </c>
+      <c r="P95" s="19">
+        <v>6816.393</v>
+      </c>
+      <c r="Q95" s="19">
+        <v>5640.9961000000003</v>
+      </c>
+      <c r="R95" s="19">
+        <v>5784.0231000000003</v>
+      </c>
+      <c r="S95" s="19">
+        <v>4414.6482999999998</v>
+      </c>
+      <c r="T95" s="19">
+        <v>6631.1608999999999</v>
+      </c>
+      <c r="U95" s="20">
+        <v>6335.2188999999998</v>
+      </c>
+      <c r="V95" s="18">
+        <v>6452.8719000000001</v>
       </c>
     </row>
   </sheetData>
@@ -7247,10 +7312,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED968B30-91AE-4BCD-9838-818BA334E48C}">
-  <dimension ref="B1:V94"/>
+  <dimension ref="B1:V95"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="83" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
@@ -7268,57 +7333,57 @@
   <sheetData>
     <row r="1" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
     </row>
     <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="48" t="s">
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="50"/>
       <c r="V3" s="8" t="s">
         <v>12</v>
       </c>
@@ -13133,69 +13198,134 @@
         <v>6.6547000000000001</v>
       </c>
     </row>
-    <row r="94" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="69">
+    <row r="94" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B94" s="13">
         <v>45413</v>
       </c>
-      <c r="C94" s="18">
+      <c r="C94" s="15">
         <v>4.5728999999999997</v>
       </c>
-      <c r="D94" s="19">
+      <c r="D94" s="16">
         <v>4.7674000000000003</v>
       </c>
-      <c r="E94" s="19">
+      <c r="E94" s="16">
         <v>4.3362999999999996</v>
       </c>
-      <c r="F94" s="19">
+      <c r="F94" s="16">
         <v>4.5412999999999997</v>
       </c>
-      <c r="G94" s="19">
+      <c r="G94" s="16">
         <v>4.1321000000000003</v>
       </c>
-      <c r="H94" s="19">
+      <c r="H94" s="16">
         <v>4.6234999999999999</v>
       </c>
-      <c r="I94" s="20">
+      <c r="I94" s="17">
         <v>4.8232999999999997</v>
       </c>
-      <c r="J94" s="19">
+      <c r="J94" s="16">
         <v>5.7142999999999997</v>
       </c>
-      <c r="K94" s="19">
+      <c r="K94" s="16">
         <v>7.3403</v>
       </c>
-      <c r="L94" s="19">
+      <c r="L94" s="16">
         <v>4.4522000000000004</v>
       </c>
-      <c r="M94" s="19">
+      <c r="M94" s="16">
         <v>2.5518000000000001</v>
       </c>
-      <c r="N94" s="19">
+      <c r="N94" s="16">
         <v>3.46</v>
       </c>
-      <c r="O94" s="19">
+      <c r="O94" s="16">
         <v>0.69</v>
       </c>
-      <c r="P94" s="19">
+      <c r="P94" s="16">
         <v>3.9729000000000001</v>
       </c>
-      <c r="Q94" s="19">
+      <c r="Q94" s="16">
         <v>8.6944999999999997</v>
       </c>
-      <c r="R94" s="19">
+      <c r="R94" s="16">
         <v>4.5571000000000002</v>
       </c>
-      <c r="S94" s="19">
+      <c r="S94" s="16">
         <v>8.6125000000000007</v>
       </c>
-      <c r="T94" s="19">
+      <c r="T94" s="16">
         <v>5.5715000000000003</v>
       </c>
-      <c r="U94" s="20">
+      <c r="U94" s="17">
         <v>4.3890000000000002</v>
       </c>
-      <c r="V94" s="18">
+      <c r="V94" s="15">
         <v>5.1981999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="48">
+        <v>45444</v>
+      </c>
+      <c r="C95" s="18">
+        <v>4.7572999999999999</v>
+      </c>
+      <c r="D95" s="19">
+        <v>4.5137999999999998</v>
+      </c>
+      <c r="E95" s="19">
+        <v>5.0039999999999996</v>
+      </c>
+      <c r="F95" s="19">
+        <v>5.0018000000000002</v>
+      </c>
+      <c r="G95" s="19">
+        <v>4.7289000000000003</v>
+      </c>
+      <c r="H95" s="19">
+        <v>5.1580000000000004</v>
+      </c>
+      <c r="I95" s="20">
+        <v>5.0720999999999998</v>
+      </c>
+      <c r="J95" s="19">
+        <v>3.5796000000000001</v>
+      </c>
+      <c r="K95" s="19">
+        <v>1.9865999999999999</v>
+      </c>
+      <c r="L95" s="19">
+        <v>2.9434</v>
+      </c>
+      <c r="M95" s="19">
+        <v>14.4078</v>
+      </c>
+      <c r="N95" s="19">
+        <v>1.8645</v>
+      </c>
+      <c r="O95" s="19">
+        <v>4.7492000000000001</v>
+      </c>
+      <c r="P95" s="19">
+        <v>3.9338000000000002</v>
+      </c>
+      <c r="Q95" s="19">
+        <v>5.2653999999999996</v>
+      </c>
+      <c r="R95" s="19">
+        <v>5.5656999999999996</v>
+      </c>
+      <c r="S95" s="19">
+        <v>8.3085000000000004</v>
+      </c>
+      <c r="T95" s="19">
+        <v>6.3105000000000002</v>
+      </c>
+      <c r="U95" s="20">
+        <v>2.7564000000000002</v>
+      </c>
+      <c r="V95" s="18">
+        <v>3.8534999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -13224,29 +13354,29 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
       <c r="I3" s="23" t="s">
         <v>16</v>
       </c>
@@ -13255,17 +13385,17 @@
       <c r="B4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="64">
+      <c r="C4" s="65">
         <v>2023</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
       <c r="I4" s="23" t="str">
         <f>+_xlfn.CONCAT(H5, " ", C4, "/", H5, " ", C4-1)</f>
-        <v>May. 2023/May. 2022</v>
+        <v>Jun. 2023/Jun. 2022</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -13295,63 +13425,63 @@
         <v>18</v>
       </c>
       <c r="C6" s="27">
-        <v>25.981400000000001</v>
+        <v>20.7379</v>
       </c>
       <c r="D6" s="27">
-        <v>20.7379</v>
+        <v>13.4008</v>
       </c>
       <c r="E6" s="27">
-        <v>13.4008</v>
+        <v>10.164400000000001</v>
       </c>
       <c r="F6" s="27">
-        <v>10.164400000000001</v>
+        <v>8.7431999999999999</v>
       </c>
       <c r="G6" s="27">
-        <v>8.7431999999999999</v>
+        <v>4.5728999999999997</v>
       </c>
       <c r="H6" s="27">
-        <v>4.5728999999999997</v>
+        <v>4.7572999999999999</v>
       </c>
       <c r="I6" s="28">
-        <v>276.41030000000001</v>
+        <v>271.52969999999999</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="61"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="31" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="32">
-        <v>25.939699999999998</v>
+        <v>19.487200000000001</v>
       </c>
       <c r="D8" s="32">
-        <v>19.487200000000001</v>
+        <v>15.286</v>
       </c>
       <c r="E8" s="32">
-        <v>15.286</v>
+        <v>10.3573</v>
       </c>
       <c r="F8" s="32">
-        <v>10.3573</v>
+        <v>9.1841000000000008</v>
       </c>
       <c r="G8" s="32">
-        <v>9.1841000000000008</v>
+        <v>4.7674000000000003</v>
       </c>
       <c r="H8" s="32">
-        <v>4.7674000000000003</v>
+        <v>4.5137999999999998</v>
       </c>
       <c r="I8" s="33">
-        <v>278.93709999999999</v>
+        <v>273.67910000000001</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -13359,25 +13489,25 @@
         <v>2</v>
       </c>
       <c r="C9" s="32">
-        <v>25.8706</v>
+        <v>21.381399999999999</v>
       </c>
       <c r="D9" s="32">
-        <v>21.381399999999999</v>
+        <v>11.950900000000001</v>
       </c>
       <c r="E9" s="32">
-        <v>11.950900000000001</v>
+        <v>10.5008</v>
       </c>
       <c r="F9" s="32">
-        <v>10.5008</v>
+        <v>8.6998999999999995</v>
       </c>
       <c r="G9" s="32">
-        <v>8.6998999999999995</v>
+        <v>4.3362999999999996</v>
       </c>
       <c r="H9" s="32">
-        <v>4.3362999999999996</v>
+        <v>5.0039999999999996</v>
       </c>
       <c r="I9" s="33">
-        <v>275.71530000000001</v>
+        <v>271.63900000000001</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -13385,25 +13515,25 @@
         <v>3</v>
       </c>
       <c r="C10" s="32">
-        <v>25.432500000000001</v>
+        <v>21.819099999999999</v>
       </c>
       <c r="D10" s="32">
-        <v>21.819099999999999</v>
+        <v>11.765000000000001</v>
       </c>
       <c r="E10" s="32">
-        <v>11.765000000000001</v>
+        <v>8.0137999999999998</v>
       </c>
       <c r="F10" s="32">
-        <v>8.0137999999999998</v>
+        <v>9.0043000000000006</v>
       </c>
       <c r="G10" s="32">
-        <v>9.0043000000000006</v>
+        <v>4.5412999999999997</v>
       </c>
       <c r="H10" s="32">
-        <v>4.5412999999999997</v>
+        <v>5.0018000000000002</v>
       </c>
       <c r="I10" s="33">
-        <v>268.81819999999999</v>
+        <v>262.37830000000002</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -13411,25 +13541,25 @@
         <v>4</v>
       </c>
       <c r="C11" s="32">
-        <v>28.0672</v>
+        <v>19.981400000000001</v>
       </c>
       <c r="D11" s="32">
-        <v>19.981400000000001</v>
+        <v>10.963900000000001</v>
       </c>
       <c r="E11" s="32">
-        <v>10.963900000000001</v>
+        <v>10.056800000000001</v>
       </c>
       <c r="F11" s="32">
-        <v>10.056800000000001</v>
+        <v>6.3064999999999998</v>
       </c>
       <c r="G11" s="32">
-        <v>6.3064999999999998</v>
+        <v>4.1321000000000003</v>
       </c>
       <c r="H11" s="32">
-        <v>4.1321000000000003</v>
+        <v>4.7289000000000003</v>
       </c>
       <c r="I11" s="33">
-        <v>266.35359999999997</v>
+        <v>258.69819999999999</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -13437,25 +13567,25 @@
         <v>5</v>
       </c>
       <c r="C12" s="32">
-        <v>26.057700000000001</v>
+        <v>22.540900000000001</v>
       </c>
       <c r="D12" s="32">
-        <v>22.540900000000001</v>
+        <v>13.427899999999999</v>
       </c>
       <c r="E12" s="32">
-        <v>13.427899999999999</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="F12" s="32">
-        <v>8.7100000000000009</v>
+        <v>8.0625</v>
       </c>
       <c r="G12" s="32">
-        <v>8.0625</v>
+        <v>4.6234999999999999</v>
       </c>
       <c r="H12" s="32">
-        <v>4.6234999999999999</v>
+        <v>5.1580000000000004</v>
       </c>
       <c r="I12" s="33">
-        <v>272.71199999999999</v>
+        <v>271.86020000000002</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -13463,25 +13593,25 @@
         <v>6</v>
       </c>
       <c r="C13" s="32">
-        <v>24.6936</v>
+        <v>24.8538</v>
       </c>
       <c r="D13" s="32">
-        <v>24.8538</v>
+        <v>11.549300000000001</v>
       </c>
       <c r="E13" s="32">
-        <v>11.549300000000001</v>
+        <v>9.9405999999999999</v>
       </c>
       <c r="F13" s="32">
-        <v>9.9405999999999999</v>
+        <v>8.4405000000000001</v>
       </c>
       <c r="G13" s="32">
-        <v>8.4405000000000001</v>
+        <v>4.8232999999999997</v>
       </c>
       <c r="H13" s="32">
-        <v>4.8232999999999997</v>
+        <v>5.0720999999999998</v>
       </c>
       <c r="I13" s="33">
-        <v>283.43310000000002</v>
+        <v>276.87759999999997</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -13495,41 +13625,41 @@
       <c r="I14" s="33"/>
     </row>
     <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="64"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="31" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="32">
-        <v>29.6767</v>
+        <v>20.2986</v>
       </c>
       <c r="D16" s="32">
-        <v>20.2986</v>
+        <v>11.379200000000001</v>
       </c>
       <c r="E16" s="32">
-        <v>11.379200000000001</v>
+        <v>9.5661000000000005</v>
       </c>
       <c r="F16" s="32">
-        <v>9.5661000000000005</v>
+        <v>6.1928000000000001</v>
       </c>
       <c r="G16" s="32">
-        <v>6.1928000000000001</v>
+        <v>5.7142999999999997</v>
       </c>
       <c r="H16" s="32">
-        <v>5.7142999999999997</v>
+        <v>3.5796000000000001</v>
       </c>
       <c r="I16" s="33">
-        <v>289.39960000000002</v>
+        <v>285.12419999999997</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -13537,25 +13667,25 @@
         <v>21</v>
       </c>
       <c r="C17" s="32">
-        <v>20.002500000000001</v>
+        <v>21.049499999999998</v>
       </c>
       <c r="D17" s="32">
-        <v>21.049499999999998</v>
+        <v>18.6081</v>
       </c>
       <c r="E17" s="32">
-        <v>18.6081</v>
+        <v>11.4427</v>
       </c>
       <c r="F17" s="32">
-        <v>11.4427</v>
+        <v>6.5521000000000003</v>
       </c>
       <c r="G17" s="32">
-        <v>6.5521000000000003</v>
+        <v>7.3403</v>
       </c>
       <c r="H17" s="32">
-        <v>7.3403</v>
+        <v>1.9865999999999999</v>
       </c>
       <c r="I17" s="33">
-        <v>266.29230000000001</v>
+        <v>257.73540000000003</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -13563,25 +13693,25 @@
         <v>22</v>
       </c>
       <c r="C18" s="32">
-        <v>20.7287</v>
+        <v>13.392300000000001</v>
       </c>
       <c r="D18" s="32">
-        <v>13.392300000000001</v>
+        <v>9.5421999999999993</v>
       </c>
       <c r="E18" s="32">
-        <v>9.5421999999999993</v>
+        <v>6.9301000000000004</v>
       </c>
       <c r="F18" s="32">
-        <v>6.9301000000000004</v>
+        <v>7.2812000000000001</v>
       </c>
       <c r="G18" s="32">
-        <v>7.2812000000000001</v>
+        <v>4.4522000000000004</v>
       </c>
       <c r="H18" s="32">
-        <v>4.4522000000000004</v>
+        <v>2.9434</v>
       </c>
       <c r="I18" s="33">
-        <v>193.4092</v>
+        <v>189.2054</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -13589,25 +13719,25 @@
         <v>23</v>
       </c>
       <c r="C19" s="32">
-        <v>13.781599999999999</v>
+        <v>14.2448</v>
       </c>
       <c r="D19" s="32">
-        <v>14.2448</v>
+        <v>20.098299999999998</v>
       </c>
       <c r="E19" s="32">
-        <v>20.098299999999998</v>
+        <v>13.2197</v>
       </c>
       <c r="F19" s="32">
-        <v>13.2197</v>
+        <v>35.386299999999999</v>
       </c>
       <c r="G19" s="32">
-        <v>35.386299999999999</v>
+        <v>2.5518000000000001</v>
       </c>
       <c r="H19" s="32">
-        <v>2.5518000000000001</v>
+        <v>14.4078</v>
       </c>
       <c r="I19" s="33">
-        <v>277.30340000000001</v>
+        <v>298.86689999999999</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -13615,25 +13745,25 @@
         <v>24</v>
       </c>
       <c r="C20" s="32">
-        <v>31.744900000000001</v>
+        <v>22.438099999999999</v>
       </c>
       <c r="D20" s="32">
-        <v>22.438099999999999</v>
+        <v>10.5862</v>
       </c>
       <c r="E20" s="32">
-        <v>10.5862</v>
+        <v>5.1493000000000002</v>
       </c>
       <c r="F20" s="32">
-        <v>5.1493000000000002</v>
+        <v>6.7298999999999998</v>
       </c>
       <c r="G20" s="32">
-        <v>6.7298999999999998</v>
+        <v>3.46</v>
       </c>
       <c r="H20" s="32">
-        <v>3.46</v>
+        <v>1.8645</v>
       </c>
       <c r="I20" s="33">
-        <v>273.40230000000003</v>
+        <v>253.6651</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -13641,25 +13771,25 @@
         <v>25</v>
       </c>
       <c r="C21" s="32">
-        <v>32.622999999999998</v>
+        <v>20.499500000000001</v>
       </c>
       <c r="D21" s="32">
-        <v>20.499500000000001</v>
+        <v>13.5733</v>
       </c>
       <c r="E21" s="32">
-        <v>13.5733</v>
+        <v>12.2319</v>
       </c>
       <c r="F21" s="32">
-        <v>12.2319</v>
+        <v>9.1309000000000005</v>
       </c>
       <c r="G21" s="32">
-        <v>9.1309000000000005</v>
+        <v>0.69</v>
       </c>
       <c r="H21" s="32">
-        <v>0.69</v>
+        <v>4.7492000000000001</v>
       </c>
       <c r="I21" s="33">
-        <v>307.2525</v>
+        <v>292.79180000000002</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -13667,25 +13797,25 @@
         <v>26</v>
       </c>
       <c r="C22" s="32">
-        <v>31.6769</v>
+        <v>26.314499999999999</v>
       </c>
       <c r="D22" s="32">
-        <v>26.314499999999999</v>
+        <v>21.3124</v>
       </c>
       <c r="E22" s="32">
-        <v>21.3124</v>
+        <v>12.997999999999999</v>
       </c>
       <c r="F22" s="32">
-        <v>12.997999999999999</v>
+        <v>6.2891000000000004</v>
       </c>
       <c r="G22" s="32">
-        <v>6.2891000000000004</v>
+        <v>3.9729000000000001</v>
       </c>
       <c r="H22" s="32">
-        <v>3.9729000000000001</v>
+        <v>3.9338000000000002</v>
       </c>
       <c r="I22" s="33">
-        <v>309.54939999999999</v>
+        <v>299.67439999999999</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
@@ -13693,25 +13823,25 @@
         <v>27</v>
       </c>
       <c r="C23" s="32">
-        <v>14.953200000000001</v>
+        <v>23.994299999999999</v>
       </c>
       <c r="D23" s="32">
-        <v>23.994299999999999</v>
+        <v>24.742799999999999</v>
       </c>
       <c r="E23" s="32">
-        <v>24.742799999999999</v>
+        <v>15.887</v>
       </c>
       <c r="F23" s="32">
-        <v>15.887</v>
+        <v>14.7713</v>
       </c>
       <c r="G23" s="32">
-        <v>14.7713</v>
+        <v>8.6944999999999997</v>
       </c>
       <c r="H23" s="32">
-        <v>8.6944999999999997</v>
+        <v>5.2653999999999996</v>
       </c>
       <c r="I23" s="33">
-        <v>375.6533</v>
+        <v>353.42090000000002</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -13719,25 +13849,25 @@
         <v>28</v>
       </c>
       <c r="C24" s="32">
-        <v>20.004899999999999</v>
+        <v>24.026</v>
       </c>
       <c r="D24" s="32">
-        <v>24.026</v>
+        <v>9.5474999999999994</v>
       </c>
       <c r="E24" s="32">
-        <v>9.5474999999999994</v>
+        <v>9.0190000000000001</v>
       </c>
       <c r="F24" s="32">
-        <v>9.0190000000000001</v>
+        <v>7.3421000000000003</v>
       </c>
       <c r="G24" s="32">
-        <v>7.3421000000000003</v>
+        <v>4.5571000000000002</v>
       </c>
       <c r="H24" s="32">
-        <v>4.5571000000000002</v>
+        <v>5.5656999999999996</v>
       </c>
       <c r="I24" s="33">
-        <v>270.12169999999998</v>
+        <v>267.1771</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -13745,25 +13875,25 @@
         <v>29</v>
       </c>
       <c r="C25" s="32">
-        <v>10.581899999999999</v>
+        <v>2.3591000000000002</v>
       </c>
       <c r="D25" s="32">
-        <v>2.3591000000000002</v>
+        <v>11.2354</v>
       </c>
       <c r="E25" s="32">
-        <v>11.2354</v>
+        <v>29.938800000000001</v>
       </c>
       <c r="F25" s="32">
-        <v>29.938800000000001</v>
+        <v>10.162800000000001</v>
       </c>
       <c r="G25" s="32">
-        <v>10.162800000000001</v>
+        <v>8.6125000000000007</v>
       </c>
       <c r="H25" s="32">
-        <v>8.6125000000000007</v>
+        <v>8.3085000000000004</v>
       </c>
       <c r="I25" s="33">
-        <v>222.62299999999999</v>
+        <v>220.0942</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
@@ -13771,25 +13901,25 @@
         <v>30</v>
       </c>
       <c r="C26" s="32">
-        <v>21.5383</v>
+        <v>19.302700000000002</v>
       </c>
       <c r="D26" s="32">
-        <v>19.302700000000002</v>
+        <v>11.1287</v>
       </c>
       <c r="E26" s="32">
-        <v>11.1287</v>
+        <v>8.3148</v>
       </c>
       <c r="F26" s="32">
-        <v>8.3148</v>
+        <v>7.2893999999999997</v>
       </c>
       <c r="G26" s="32">
-        <v>7.2893999999999997</v>
+        <v>5.5715000000000003</v>
       </c>
       <c r="H26" s="32">
-        <v>5.5715000000000003</v>
+        <v>6.3105000000000002</v>
       </c>
       <c r="I26" s="33">
-        <v>250.97069999999999</v>
+        <v>250.91</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
@@ -13797,25 +13927,25 @@
         <v>31</v>
       </c>
       <c r="C27" s="32">
-        <v>32.697200000000002</v>
+        <v>44.463900000000002</v>
       </c>
       <c r="D27" s="32">
-        <v>44.463900000000002</v>
+        <v>16.633199999999999</v>
       </c>
       <c r="E27" s="32">
-        <v>16.633199999999999</v>
+        <v>9.6061999999999994</v>
       </c>
       <c r="F27" s="32">
-        <v>9.6061999999999994</v>
+        <v>5.7464000000000004</v>
       </c>
       <c r="G27" s="32">
-        <v>5.7464000000000004</v>
+        <v>4.3890000000000002</v>
       </c>
       <c r="H27" s="32">
-        <v>4.3890000000000002</v>
+        <v>2.7564000000000002</v>
       </c>
       <c r="I27" s="33">
-        <v>348.17500000000001</v>
+        <v>332.18060000000003</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
@@ -13829,41 +13959,41 @@
       <c r="I28" s="33"/>
     </row>
     <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="61" t="s">
+      <c r="B29" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="64"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="32">
-        <v>26.100899999999999</v>
+        <v>20.792200000000001</v>
       </c>
       <c r="D30" s="32">
-        <v>20.792200000000001</v>
+        <v>11.286099999999999</v>
       </c>
       <c r="E30" s="32">
-        <v>11.286099999999999</v>
+        <v>8.5932999999999993</v>
       </c>
       <c r="F30" s="32">
-        <v>8.5932999999999993</v>
+        <v>6.6547000000000001</v>
       </c>
       <c r="G30" s="32">
-        <v>6.6547000000000001</v>
+        <v>5.1981999999999999</v>
       </c>
       <c r="H30" s="32">
-        <v>5.1981999999999999</v>
+        <v>3.8534999999999999</v>
       </c>
       <c r="I30" s="33">
-        <v>266.1619</v>
+        <v>260.64249999999998</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -13871,25 +14001,25 @@
         <v>19</v>
       </c>
       <c r="C31" s="32">
-        <v>26.662099999999999</v>
+        <v>19.951899999999998</v>
       </c>
       <c r="D31" s="32">
-        <v>19.951899999999998</v>
+        <v>11.7393</v>
       </c>
       <c r="E31" s="32">
-        <v>11.7393</v>
+        <v>8.7751000000000001</v>
       </c>
       <c r="F31" s="32">
-        <v>8.7751000000000001</v>
+        <v>6.6711</v>
       </c>
       <c r="G31" s="32">
-        <v>6.6711</v>
+        <v>5.5831999999999997</v>
       </c>
       <c r="H31" s="32">
-        <v>5.5831999999999997</v>
+        <v>3.5466000000000002</v>
       </c>
       <c r="I31" s="33">
-        <v>267.52859999999998</v>
+        <v>261.91340000000002</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
@@ -13897,25 +14027,25 @@
         <v>2</v>
       </c>
       <c r="C32" s="32">
-        <v>25.5184</v>
+        <v>21.286100000000001</v>
       </c>
       <c r="D32" s="32">
-        <v>21.286100000000001</v>
+        <v>11.063000000000001</v>
       </c>
       <c r="E32" s="32">
-        <v>11.063000000000001</v>
+        <v>8.8963000000000001</v>
       </c>
       <c r="F32" s="32">
-        <v>8.8963000000000001</v>
+        <v>6.6332000000000004</v>
       </c>
       <c r="G32" s="32">
-        <v>6.6332000000000004</v>
+        <v>5.0351999999999997</v>
       </c>
       <c r="H32" s="32">
-        <v>5.0351999999999997</v>
+        <v>4.3135000000000003</v>
       </c>
       <c r="I32" s="33">
-        <v>267.00470000000001</v>
+        <v>262.30669999999998</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -13923,25 +14053,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="32">
-        <v>25.406300000000002</v>
+        <v>21.453700000000001</v>
       </c>
       <c r="D33" s="32">
-        <v>21.453700000000001</v>
+        <v>10.1144</v>
       </c>
       <c r="E33" s="32">
-        <v>10.1144</v>
+        <v>6.8185000000000002</v>
       </c>
       <c r="F33" s="32">
-        <v>6.8185000000000002</v>
+        <v>7.5838000000000001</v>
       </c>
       <c r="G33" s="32">
-        <v>7.5838000000000001</v>
+        <v>4.8856000000000002</v>
       </c>
       <c r="H33" s="32">
-        <v>4.8856000000000002</v>
+        <v>3.6046</v>
       </c>
       <c r="I33" s="33">
-        <v>256.88799999999998</v>
+        <v>249.90610000000001</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -13949,25 +14079,25 @@
         <v>4</v>
       </c>
       <c r="C34" s="32">
-        <v>27.901299999999999</v>
+        <v>19.4986</v>
       </c>
       <c r="D34" s="32">
-        <v>19.4986</v>
+        <v>9.8995999999999995</v>
       </c>
       <c r="E34" s="32">
-        <v>9.8995999999999995</v>
+        <v>7.4158999999999997</v>
       </c>
       <c r="F34" s="32">
-        <v>7.4158999999999997</v>
+        <v>5.6147999999999998</v>
       </c>
       <c r="G34" s="32">
-        <v>5.6147999999999998</v>
+        <v>3.9249999999999998</v>
       </c>
       <c r="H34" s="32">
-        <v>3.9249999999999998</v>
+        <v>3.8592</v>
       </c>
       <c r="I34" s="33">
-        <v>253.76939999999999</v>
+        <v>246.15180000000001</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -13975,25 +14105,25 @@
         <v>5</v>
       </c>
       <c r="C35" s="32">
-        <v>25.4133</v>
+        <v>21.833300000000001</v>
       </c>
       <c r="D35" s="32">
-        <v>21.833300000000001</v>
+        <v>11.944800000000001</v>
       </c>
       <c r="E35" s="32">
-        <v>11.944800000000001</v>
+        <v>8.0154999999999994</v>
       </c>
       <c r="F35" s="32">
-        <v>8.0154999999999994</v>
+        <v>6.5365000000000002</v>
       </c>
       <c r="G35" s="32">
-        <v>6.5365000000000002</v>
+        <v>4.5087999999999999</v>
       </c>
       <c r="H35" s="32">
-        <v>4.5087999999999999</v>
+        <v>3.6911</v>
       </c>
       <c r="I35" s="33">
-        <v>262.315</v>
+        <v>258.0763</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14001,38 +14131,38 @@
         <v>6</v>
       </c>
       <c r="C36" s="35">
-        <v>24.8947</v>
+        <v>24.804600000000001</v>
       </c>
       <c r="D36" s="35">
-        <v>24.804600000000001</v>
+        <v>10.9206</v>
       </c>
       <c r="E36" s="35">
-        <v>10.9206</v>
+        <v>9.0473999999999997</v>
       </c>
       <c r="F36" s="35">
-        <v>9.0473999999999997</v>
+        <v>6.4358000000000004</v>
       </c>
       <c r="G36" s="35">
-        <v>6.4358000000000004</v>
+        <v>5.0989000000000004</v>
       </c>
       <c r="H36" s="35">
-        <v>5.0989000000000004</v>
+        <v>4.0114999999999998</v>
       </c>
       <c r="I36" s="36">
-        <v>277.98689999999999</v>
+        <v>269.99340000000001</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="53" t="s">
+      <c r="B37" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
@@ -14074,7 +14204,7 @@
   <dimension ref="B1:I33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14085,16 +14215,16 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="67"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="37"/>
@@ -14124,11 +14254,11 @@
       <c r="B4" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
       <c r="H4" s="46"/>
       <c r="I4" s="30"/>
     </row>
@@ -14137,25 +14267,25 @@
         <v>37</v>
       </c>
       <c r="C5" s="41">
-        <v>4.7674000000000003</v>
+        <v>4.5137999999999998</v>
       </c>
       <c r="D5" s="41">
-        <v>4.3362999999999996</v>
+        <v>5.0039999999999996</v>
       </c>
       <c r="E5" s="41">
-        <v>4.5412999999999997</v>
+        <v>5.0018000000000002</v>
       </c>
       <c r="F5" s="41">
-        <v>4.1321000000000003</v>
+        <v>4.7289000000000003</v>
       </c>
       <c r="G5" s="41">
-        <v>4.6234999999999999</v>
+        <v>5.1580000000000004</v>
       </c>
       <c r="H5" s="41">
-        <v>4.8232999999999997</v>
+        <v>5.0720999999999998</v>
       </c>
       <c r="I5" s="42">
-        <v>4.5728999999999997</v>
+        <v>4.7572999999999999</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -14163,25 +14293,25 @@
         <v>20</v>
       </c>
       <c r="C6" s="32">
-        <v>1.7040999999999999</v>
+        <v>0.70950000000000002</v>
       </c>
       <c r="D6" s="32">
-        <v>1.7139</v>
+        <v>1.4341999999999999</v>
       </c>
       <c r="E6" s="32">
-        <v>2.0775999999999999</v>
+        <v>1.4381999999999999</v>
       </c>
       <c r="F6" s="32">
-        <v>1.5928</v>
+        <v>1.5616000000000001</v>
       </c>
       <c r="G6" s="32">
-        <v>1.5148999999999999</v>
+        <v>1.446</v>
       </c>
       <c r="H6" s="32">
-        <v>1.4457</v>
+        <v>1.4997</v>
       </c>
       <c r="I6" s="33">
-        <v>1.7064999999999999</v>
+        <v>1.1201000000000001</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -14189,25 +14319,25 @@
         <v>21</v>
       </c>
       <c r="C7" s="32">
-        <v>0.19950000000000001</v>
+        <v>5.28E-2</v>
       </c>
       <c r="D7" s="32">
-        <v>0.2145</v>
+        <v>5.67E-2</v>
       </c>
       <c r="E7" s="32">
-        <v>0.14960000000000001</v>
+        <v>4.82E-2</v>
       </c>
       <c r="F7" s="32">
-        <v>0.1714</v>
+        <v>5.9200000000000003E-2</v>
       </c>
       <c r="G7" s="32">
-        <v>0.1429</v>
+        <v>5.9499999999999997E-2</v>
       </c>
       <c r="H7" s="32">
-        <v>0.2092</v>
+        <v>6.1199999999999997E-2</v>
       </c>
       <c r="I7" s="33">
-        <v>0.19739999999999999</v>
+        <v>5.4800000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -14215,25 +14345,25 @@
         <v>22</v>
       </c>
       <c r="C8" s="32">
-        <v>0.34229999999999999</v>
+        <v>0.18820000000000001</v>
       </c>
       <c r="D8" s="32">
-        <v>0.46870000000000001</v>
+        <v>0.34129999999999999</v>
       </c>
       <c r="E8" s="32">
-        <v>0.42309999999999998</v>
+        <v>0.2266</v>
       </c>
       <c r="F8" s="32">
-        <v>0.24360000000000001</v>
+        <v>0.49109999999999998</v>
       </c>
       <c r="G8" s="32">
-        <v>0.47239999999999999</v>
+        <v>0.32219999999999999</v>
       </c>
       <c r="H8" s="32">
-        <v>0.57099999999999995</v>
+        <v>0.3448</v>
       </c>
       <c r="I8" s="33">
-        <v>0.40379999999999999</v>
+        <v>0.27089999999999997</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -14241,25 +14371,25 @@
         <v>23</v>
       </c>
       <c r="C9" s="32">
-        <v>0.17319999999999999</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="D9" s="32">
-        <v>0.2072</v>
+        <v>0.88670000000000004</v>
       </c>
       <c r="E9" s="32">
-        <v>4.1000000000000002E-2</v>
+        <v>1.2285999999999999</v>
       </c>
       <c r="F9" s="32">
-        <v>0.36720000000000003</v>
+        <v>1.3148</v>
       </c>
       <c r="G9" s="32">
-        <v>0.16089999999999999</v>
+        <v>1.5185999999999999</v>
       </c>
       <c r="H9" s="32">
-        <v>0.1767</v>
+        <v>1.206</v>
       </c>
       <c r="I9" s="33">
-        <v>0.184</v>
+        <v>1.0074000000000001</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -14267,25 +14397,25 @@
         <v>24</v>
       </c>
       <c r="C10" s="32">
-        <v>0.21909999999999999</v>
+        <v>9.11E-2</v>
       </c>
       <c r="D10" s="32">
-        <v>0.2135</v>
+        <v>0.14219999999999999</v>
       </c>
       <c r="E10" s="32">
-        <v>0.1835</v>
+        <v>0.14119999999999999</v>
       </c>
       <c r="F10" s="32">
-        <v>0.34589999999999999</v>
+        <v>0.1469</v>
       </c>
       <c r="G10" s="32">
-        <v>0.21079999999999999</v>
+        <v>0.1091</v>
       </c>
       <c r="H10" s="32">
-        <v>0.22839999999999999</v>
+        <v>0.12770000000000001</v>
       </c>
       <c r="I10" s="33">
-        <v>0.22040000000000001</v>
+        <v>0.1171</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -14293,25 +14423,25 @@
         <v>25</v>
       </c>
       <c r="C11" s="32">
-        <v>9.4999999999999998E-3</v>
+        <v>0.45619999999999999</v>
       </c>
       <c r="D11" s="32">
-        <v>8.0199999999999994E-2</v>
+        <v>0.42030000000000001</v>
       </c>
       <c r="E11" s="32">
-        <v>0.14510000000000001</v>
+        <v>0.3962</v>
       </c>
       <c r="F11" s="32">
-        <v>6.9699999999999998E-2</v>
+        <v>0.27660000000000001</v>
       </c>
       <c r="G11" s="32">
-        <v>0.1042</v>
+        <v>0.43</v>
       </c>
       <c r="H11" s="32">
-        <v>0.1381</v>
+        <v>0.30730000000000002</v>
       </c>
       <c r="I11" s="33">
-        <v>5.6500000000000002E-2</v>
+        <v>0.42349999999999999</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -14319,25 +14449,25 @@
         <v>26</v>
       </c>
       <c r="C12" s="32">
-        <v>0.4723</v>
+        <v>0.43869999999999998</v>
       </c>
       <c r="D12" s="32">
-        <v>0.33489999999999998</v>
+        <v>0.51170000000000004</v>
       </c>
       <c r="E12" s="32">
-        <v>0.48870000000000002</v>
+        <v>0.41920000000000002</v>
       </c>
       <c r="F12" s="32">
-        <v>0.58199999999999996</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="G12" s="32">
-        <v>1.0671999999999999</v>
+        <v>0.52949999999999997</v>
       </c>
       <c r="H12" s="32">
-        <v>0.7752</v>
+        <v>0.64780000000000004</v>
       </c>
       <c r="I12" s="33">
-        <v>0.47610000000000002</v>
+        <v>0.46489999999999998</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -14345,25 +14475,25 @@
         <v>27</v>
       </c>
       <c r="C13" s="32">
-        <v>0.21329999999999999</v>
+        <v>0.13539999999999999</v>
       </c>
       <c r="D13" s="32">
-        <v>0.21079999999999999</v>
+        <v>0.12640000000000001</v>
       </c>
       <c r="E13" s="32">
-        <v>0.19209999999999999</v>
+        <v>0.1351</v>
       </c>
       <c r="F13" s="32">
-        <v>0.2102</v>
+        <v>0.11990000000000001</v>
       </c>
       <c r="G13" s="32">
-        <v>0.1416</v>
+        <v>0.13769999999999999</v>
       </c>
       <c r="H13" s="32">
-        <v>0.23280000000000001</v>
+        <v>0.1033</v>
       </c>
       <c r="I13" s="33">
-        <v>0.20799999999999999</v>
+        <v>0.1303</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -14371,25 +14501,25 @@
         <v>28</v>
       </c>
       <c r="C14" s="32">
-        <v>0.38750000000000001</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="D14" s="32">
-        <v>0.2261</v>
+        <v>0.40350000000000003</v>
       </c>
       <c r="E14" s="32">
-        <v>0.16309999999999999</v>
+        <v>0.26519999999999999</v>
       </c>
       <c r="F14" s="32">
-        <v>0.20349999999999999</v>
+        <v>0.25319999999999998</v>
       </c>
       <c r="G14" s="32">
-        <v>0.19439999999999999</v>
+        <v>0.25740000000000002</v>
       </c>
       <c r="H14" s="32">
-        <v>0.45779999999999998</v>
+        <v>0.13730000000000001</v>
       </c>
       <c r="I14" s="33">
-        <v>0.30180000000000001</v>
+        <v>0.36499999999999999</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -14397,25 +14527,25 @@
         <v>29</v>
       </c>
       <c r="C15" s="32">
-        <v>0.2467</v>
+        <v>0.19040000000000001</v>
       </c>
       <c r="D15" s="32">
-        <v>4.3700000000000003E-2</v>
+        <v>7.5300000000000006E-2</v>
       </c>
       <c r="E15" s="32">
-        <v>7.4899999999999994E-2</v>
+        <v>0.15820000000000001</v>
       </c>
       <c r="F15" s="32">
-        <v>7.4700000000000003E-2</v>
+        <v>6.13E-2</v>
       </c>
       <c r="G15" s="32">
-        <v>0.1303</v>
+        <v>7.3200000000000001E-2</v>
       </c>
       <c r="H15" s="32">
-        <v>9.1300000000000006E-2</v>
+        <v>0.11849999999999999</v>
       </c>
       <c r="I15" s="33">
-        <v>0.14460000000000001</v>
+        <v>0.13370000000000001</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -14423,25 +14553,25 @@
         <v>30</v>
       </c>
       <c r="C16" s="32">
-        <v>0.63329999999999997</v>
+        <v>0.80589999999999995</v>
       </c>
       <c r="D16" s="32">
-        <v>0.46970000000000001</v>
+        <v>0.48020000000000002</v>
       </c>
       <c r="E16" s="32">
-        <v>0.48399999999999999</v>
+        <v>0.48110000000000003</v>
       </c>
       <c r="F16" s="32">
-        <v>0.13189999999999999</v>
+        <v>0.21</v>
       </c>
       <c r="G16" s="32">
-        <v>0.3085</v>
+        <v>0.2447</v>
       </c>
       <c r="H16" s="32">
-        <v>0.34289999999999998</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="I16" s="33">
-        <v>0.51439999999999997</v>
+        <v>0.59719999999999995</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -14449,25 +14579,25 @@
         <v>31</v>
       </c>
       <c r="C17" s="32">
-        <v>0.1666</v>
+        <v>9.2700000000000005E-2</v>
       </c>
       <c r="D17" s="32">
-        <v>0.1532</v>
+        <v>0.12540000000000001</v>
       </c>
       <c r="E17" s="32">
-        <v>0.11849999999999999</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="F17" s="32">
-        <v>0.13930000000000001</v>
+        <v>5.3499999999999999E-2</v>
       </c>
       <c r="G17" s="32">
-        <v>0.1754</v>
+        <v>3.0099999999999998E-2</v>
       </c>
       <c r="H17" s="32">
-        <v>0.1542</v>
+        <v>0.1305</v>
       </c>
       <c r="I17" s="33">
-        <v>0.15740000000000001</v>
+        <v>9.8599999999999993E-2</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -14481,41 +14611,41 @@
       <c r="I18" s="45"/>
     </row>
     <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="64"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="40" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="41">
-        <v>278.93709999999999</v>
+        <v>273.67910000000001</v>
       </c>
       <c r="D20" s="41">
-        <v>275.71530000000001</v>
+        <v>271.63900000000001</v>
       </c>
       <c r="E20" s="41">
-        <v>268.81819999999999</v>
+        <v>262.37830000000002</v>
       </c>
       <c r="F20" s="41">
-        <v>266.35359999999997</v>
+        <v>258.69819999999999</v>
       </c>
       <c r="G20" s="41">
-        <v>272.71199999999999</v>
+        <v>271.86020000000002</v>
       </c>
       <c r="H20" s="41">
-        <v>283.43310000000002</v>
+        <v>276.87759999999997</v>
       </c>
       <c r="I20" s="42">
-        <v>276.41030000000001</v>
+        <v>271.52969999999999</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -14523,25 +14653,25 @@
         <v>20</v>
       </c>
       <c r="C21" s="32">
-        <v>77.227699999999999</v>
+        <v>74.219099999999997</v>
       </c>
       <c r="D21" s="32">
-        <v>89.846599999999995</v>
+        <v>87.811800000000005</v>
       </c>
       <c r="E21" s="32">
-        <v>103.9913</v>
+        <v>99.911500000000004</v>
       </c>
       <c r="F21" s="32">
-        <v>100.82559999999999</v>
+        <v>96.698099999999997</v>
       </c>
       <c r="G21" s="32">
-        <v>87.820899999999995</v>
+        <v>86.847399999999993</v>
       </c>
       <c r="H21" s="32">
-        <v>87.0398</v>
+        <v>84.8386</v>
       </c>
       <c r="I21" s="33">
-        <v>85.444800000000001</v>
+        <v>82.787300000000002</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -14549,25 +14679,25 @@
         <v>21</v>
       </c>
       <c r="C22" s="32">
-        <v>7.0529000000000002</v>
+        <v>6.7531999999999996</v>
       </c>
       <c r="D22" s="32">
-        <v>8.2586999999999993</v>
+        <v>7.8808999999999996</v>
       </c>
       <c r="E22" s="32">
-        <v>6.4333</v>
+        <v>6.0449999999999999</v>
       </c>
       <c r="F22" s="32">
-        <v>7.9381000000000004</v>
+        <v>7.4863</v>
       </c>
       <c r="G22" s="32">
-        <v>7.2835999999999999</v>
+        <v>7.0091000000000001</v>
       </c>
       <c r="H22" s="32">
-        <v>7.8648999999999996</v>
+        <v>7.5183999999999997</v>
       </c>
       <c r="I22" s="33">
-        <v>7.5114999999999998</v>
+        <v>7.1712999999999996</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
@@ -14575,25 +14705,25 @@
         <v>22</v>
       </c>
       <c r="C23" s="32">
-        <v>20.477399999999999</v>
+        <v>19.516300000000001</v>
       </c>
       <c r="D23" s="32">
-        <v>23.770299999999999</v>
+        <v>23.116199999999999</v>
       </c>
       <c r="E23" s="32">
-        <v>24.174299999999999</v>
+        <v>23.030200000000001</v>
       </c>
       <c r="F23" s="32">
-        <v>21.9315</v>
+        <v>21.474699999999999</v>
       </c>
       <c r="G23" s="32">
-        <v>22.510899999999999</v>
+        <v>22.228000000000002</v>
       </c>
       <c r="H23" s="32">
-        <v>29.437999999999999</v>
+        <v>28.081600000000002</v>
       </c>
       <c r="I23" s="33">
-        <v>22.437999999999999</v>
+        <v>21.609100000000002</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -14601,25 +14731,25 @@
         <v>23</v>
       </c>
       <c r="C24" s="32">
-        <v>22.8597</v>
+        <v>24.472100000000001</v>
       </c>
       <c r="D24" s="32">
-        <v>16.412199999999999</v>
+        <v>18.319099999999999</v>
       </c>
       <c r="E24" s="32">
-        <v>16.636399999999998</v>
+        <v>18.7911</v>
       </c>
       <c r="F24" s="32">
-        <v>17.882000000000001</v>
+        <v>20.311599999999999</v>
       </c>
       <c r="G24" s="32">
-        <v>19.237200000000001</v>
+        <v>23.415099999999999</v>
       </c>
       <c r="H24" s="32">
-        <v>23.181100000000001</v>
+        <v>25.052900000000001</v>
       </c>
       <c r="I24" s="33">
-        <v>19.829699999999999</v>
+        <v>21.761700000000001</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -14627,25 +14757,25 @@
         <v>24</v>
       </c>
       <c r="C25" s="32">
-        <v>16.902200000000001</v>
+        <v>15.9543</v>
       </c>
       <c r="D25" s="32">
-        <v>17.058399999999999</v>
+        <v>16.167300000000001</v>
       </c>
       <c r="E25" s="32">
-        <v>15.831200000000001</v>
+        <v>14.915100000000001</v>
       </c>
       <c r="F25" s="32">
-        <v>20.453199999999999</v>
+        <v>19.460999999999999</v>
       </c>
       <c r="G25" s="32">
-        <v>16.604399999999998</v>
+        <v>15.748799999999999</v>
       </c>
       <c r="H25" s="32">
-        <v>19.630600000000001</v>
+        <v>18.5078</v>
       </c>
       <c r="I25" s="33">
-        <v>17.151399999999999</v>
+        <v>16.219799999999999</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
@@ -14653,25 +14783,25 @@
         <v>25</v>
       </c>
       <c r="C26" s="32">
-        <v>26.643000000000001</v>
+        <v>26.116599999999998</v>
       </c>
       <c r="D26" s="32">
-        <v>26.9573</v>
+        <v>26.243500000000001</v>
       </c>
       <c r="E26" s="32">
-        <v>20.552900000000001</v>
+        <v>20.054600000000001</v>
       </c>
       <c r="F26" s="32">
-        <v>17.2425</v>
+        <v>16.668900000000001</v>
       </c>
       <c r="G26" s="32">
-        <v>25.8811</v>
+        <v>25.357700000000001</v>
       </c>
       <c r="H26" s="32">
-        <v>16.1892</v>
+        <v>15.832100000000001</v>
       </c>
       <c r="I26" s="33">
-        <v>25.3903</v>
+        <v>24.807600000000001</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
@@ -14679,25 +14809,25 @@
         <v>26</v>
       </c>
       <c r="C27" s="32">
-        <v>33.5364</v>
+        <v>32.602200000000003</v>
       </c>
       <c r="D27" s="32">
-        <v>33.364800000000002</v>
+        <v>32.613199999999999</v>
       </c>
       <c r="E27" s="32">
-        <v>25.213699999999999</v>
+        <v>24.673500000000001</v>
       </c>
       <c r="F27" s="32">
-        <v>33.167000000000002</v>
+        <v>31.1966</v>
       </c>
       <c r="G27" s="32">
-        <v>38.506300000000003</v>
+        <v>37.719099999999997</v>
       </c>
       <c r="H27" s="32">
-        <v>45.593000000000004</v>
+        <v>44.152700000000003</v>
       </c>
       <c r="I27" s="33">
-        <v>33.696899999999999</v>
+        <v>32.79</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
@@ -14705,25 +14835,25 @@
         <v>27</v>
       </c>
       <c r="C28" s="32">
-        <v>7.6055000000000001</v>
+        <v>7.4682000000000004</v>
       </c>
       <c r="D28" s="32">
-        <v>7.5335000000000001</v>
+        <v>7.3689</v>
       </c>
       <c r="E28" s="32">
-        <v>6.7610000000000001</v>
+        <v>6.5911</v>
       </c>
       <c r="F28" s="32">
-        <v>7.4128999999999996</v>
+        <v>7.2365000000000004</v>
       </c>
       <c r="G28" s="32">
-        <v>5.6238999999999999</v>
+        <v>5.7149999999999999</v>
       </c>
       <c r="H28" s="32">
-        <v>6.9734999999999996</v>
+        <v>6.7792000000000003</v>
       </c>
       <c r="I28" s="33">
-        <v>7.3826000000000001</v>
+        <v>7.2412000000000001</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
@@ -14731,25 +14861,25 @@
         <v>28</v>
       </c>
       <c r="C29" s="32">
-        <v>19.485199999999999</v>
+        <v>19.470500000000001</v>
       </c>
       <c r="D29" s="32">
-        <v>17.156400000000001</v>
+        <v>17.2121</v>
       </c>
       <c r="E29" s="32">
-        <v>13.455</v>
+        <v>13.086</v>
       </c>
       <c r="F29" s="32">
-        <v>14.6487</v>
+        <v>14.2826</v>
       </c>
       <c r="G29" s="32">
-        <v>15.6988</v>
+        <v>15.402100000000001</v>
       </c>
       <c r="H29" s="32">
-        <v>19.586400000000001</v>
+        <v>18.353300000000001</v>
       </c>
       <c r="I29" s="33">
-        <v>17.8644</v>
+        <v>17.763300000000001</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -14757,25 +14887,25 @@
         <v>29</v>
       </c>
       <c r="C30" s="32">
-        <v>6.8129</v>
+        <v>6.7157999999999998</v>
       </c>
       <c r="D30" s="32">
-        <v>2.3765000000000001</v>
+        <v>2.3732000000000002</v>
       </c>
       <c r="E30" s="32">
-        <v>3.4794</v>
+        <v>3.6349</v>
       </c>
       <c r="F30" s="32">
-        <v>1.9370000000000001</v>
+        <v>1.8635999999999999</v>
       </c>
       <c r="G30" s="32">
-        <v>3.0424000000000002</v>
+        <v>3.0316999999999998</v>
       </c>
       <c r="H30" s="32">
-        <v>2.8702000000000001</v>
+        <v>2.9573999999999998</v>
       </c>
       <c r="I30" s="33">
-        <v>4.4713000000000003</v>
+        <v>4.4377000000000004</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -14783,25 +14913,25 @@
         <v>30</v>
       </c>
       <c r="C31" s="32">
-        <v>30.060700000000001</v>
+        <v>30.538699999999999</v>
       </c>
       <c r="D31" s="32">
-        <v>22.4526</v>
+        <v>22.328299999999999</v>
       </c>
       <c r="E31" s="32">
-        <v>21.986699999999999</v>
+        <v>21.950700000000001</v>
       </c>
       <c r="F31" s="32">
-        <v>12.672800000000001</v>
+        <v>12.428000000000001</v>
       </c>
       <c r="G31" s="32">
-        <v>19.396699999999999</v>
+        <v>18.895600000000002</v>
       </c>
       <c r="H31" s="32">
-        <v>14.1477</v>
+        <v>14.2805</v>
       </c>
       <c r="I31" s="33">
-        <v>24.840199999999999</v>
+        <v>24.977799999999998</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14809,38 +14939,38 @@
         <v>31</v>
       </c>
       <c r="C32" s="35">
-        <v>10.271699999999999</v>
+        <v>9.8498000000000001</v>
       </c>
       <c r="D32" s="35">
-        <v>10.5299</v>
+        <v>10.206300000000001</v>
       </c>
       <c r="E32" s="35">
-        <v>10.304600000000001</v>
+        <v>9.6963000000000008</v>
       </c>
       <c r="F32" s="35">
-        <v>10.239000000000001</v>
+        <v>9.5862999999999996</v>
       </c>
       <c r="G32" s="35">
-        <v>11.1008</v>
+        <v>10.4838</v>
       </c>
       <c r="H32" s="35">
-        <v>10.912100000000001</v>
+        <v>10.517899999999999</v>
       </c>
       <c r="I32" s="36">
-        <v>10.433</v>
+        <v>10.012600000000001</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="67" t="s">
+      <c r="B33" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="67"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/assets/excel/IPCse - Series históricas.xlsx
+++ b/assets/excel/IPCse - Series históricas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fiona\Dropbox\MGR\IPC seasonal adjustment\IPCse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70B35E1-16A6-47E1-A520-E2BDD7C4FD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A54FC34-2E8C-4F01-ACB9-8F6784DDFCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10416" yWindow="17172" windowWidth="30936" windowHeight="18696" activeTab="2" xr2:uid="{A81B6F3A-9175-42CA-B78F-287A4E3C6249}"/>
+    <workbookView xWindow="624" yWindow="636" windowWidth="23040" windowHeight="13608" activeTab="2" xr2:uid="{A81B6F3A-9175-42CA-B78F-287A4E3C6249}"/>
   </bookViews>
   <sheets>
     <sheet name="Índices" sheetId="1" r:id="rId1"/>
@@ -183,9 +183,6 @@
     <t>IPCse NACIONAL</t>
   </si>
   <si>
-    <t>Ene.</t>
-  </si>
-  <si>
     <t>Feb.</t>
   </si>
   <si>
@@ -199,6 +196,9 @@
   </si>
   <si>
     <t>Jun.</t>
+  </si>
+  <si>
+    <t>Jul.</t>
   </si>
 </sst>
 </file>
@@ -1243,27 +1243,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA821952-0137-4F39-844C-15CA99AC928E}">
-  <dimension ref="B1:V95"/>
+  <dimension ref="B1:V96"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="78" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C79" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
-      <selection pane="bottomRight" activeCell="G78" sqref="G78:G80"/>
+      <selection pane="bottomRight" activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.5546875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="4" customWidth="1"/>
-    <col min="2" max="3" width="20.5703125" style="4" customWidth="1"/>
-    <col min="4" max="21" width="15.5703125" style="4"/>
-    <col min="22" max="22" width="20.5703125" style="4" customWidth="1"/>
-    <col min="23" max="16384" width="15.5703125" style="4"/>
+    <col min="1" max="1" width="4.5546875" style="4" customWidth="1"/>
+    <col min="2" max="3" width="20.5546875" style="4" customWidth="1"/>
+    <col min="4" max="21" width="15.5546875" style="4"/>
+    <col min="22" max="22" width="20.5546875" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="15.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="52" t="s">
         <v>10</v>
       </c>
@@ -1288,7 +1288,7 @@
       <c r="U2" s="53"/>
       <c r="V2" s="53"/>
     </row>
-    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="8" t="s">
         <v>8</v>
@@ -1319,7 +1319,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
         <v>42705</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>99.977400000000003</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B6" s="13">
         <v>42736</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>101.58410000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B7" s="13">
         <v>42767</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>103.26909999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B8" s="13">
         <v>42795</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>104.8601</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B9" s="13">
         <v>42826</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>107.3261</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B10" s="13">
         <v>42856</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>109.36450000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B11" s="13">
         <v>42887</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>110.7693</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B12" s="13">
         <v>42917</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>112.8707</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B13" s="13">
         <v>42948</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>114.20829999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B14" s="13">
         <v>42979</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>115.16679999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B15" s="13">
         <v>43009</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>116.4616</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B16" s="13">
         <v>43040</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>118.2471</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B17" s="13">
         <v>43070</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>120.15</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B18" s="13">
         <v>43101</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>122.66079999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B19" s="13">
         <v>43132</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>124.86669999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B20" s="13">
         <v>43160</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>127.12269999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B21" s="13">
         <v>43191</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>129.41149999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B22" s="13">
         <v>43221</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>133.31610000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B23" s="13">
         <v>43252</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>138.48570000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B24" s="13">
         <v>43282</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>143.6498</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B25" s="13">
         <v>43313</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>148.0249</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B26" s="13">
         <v>43344</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>157.21270000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B27" s="13">
         <v>43374</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>163.8939</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B28" s="13">
         <v>43405</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>169.81559999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B29" s="13">
         <v>43435</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>173.93020000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B30" s="13">
         <v>43466</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>179.21430000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B31" s="13">
         <v>43497</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>186.506</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B32" s="13">
         <v>43525</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>194.3347</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B33" s="13">
         <v>43556</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>200.91579999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B34" s="13">
         <v>43586</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>207.03639999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B35" s="13">
         <v>43617</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>212.8476</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B36" s="13">
         <v>43647</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>218.41489999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B37" s="13">
         <v>43678</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>227.71770000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B38" s="13">
         <v>43709</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>240.4811</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B39" s="13">
         <v>43739</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>247.86199999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B40" s="13">
         <v>43770</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>259.3349</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B41" s="13">
         <v>43800</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>268.79329999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B42" s="13">
         <v>43831</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>278.7826</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B43" s="13">
         <v>43862</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>286.44729999999998</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B44" s="13">
         <v>43891</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>293.82990000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B45" s="13">
         <v>43922</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>300.18740000000003</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B46" s="13">
         <v>43952</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>307.81490000000002</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B47" s="13">
         <v>43983</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>316.56420000000003</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B48" s="13">
         <v>44013</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>324.54230000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B49" s="13">
         <v>44044</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>333.78789999999998</v>
       </c>
     </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B50" s="13">
         <v>44075</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>340.72519999999997</v>
       </c>
     </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B51" s="13">
         <v>44105</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>353.69189999999998</v>
       </c>
     </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B52" s="13">
         <v>44136</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>367.19499999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B53" s="13">
         <v>44166</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>383.58569999999997</v>
       </c>
     </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B54" s="13">
         <v>44197</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>400.52280000000002</v>
       </c>
     </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B55" s="13">
         <v>44228</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>416.6268</v>
       </c>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B56" s="13">
         <v>44256</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>434.39139999999998</v>
       </c>
     </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B57" s="13">
         <v>44287</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>451.8818</v>
       </c>
     </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B58" s="13">
         <v>44317</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>467.42290000000003</v>
       </c>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B59" s="13">
         <v>44348</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>483.03149999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B60" s="13">
         <v>44378</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>499.71620000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B61" s="13">
         <v>44409</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>511.17930000000001</v>
       </c>
     </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B62" s="13">
         <v>44440</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>525.85019999999997</v>
       </c>
     </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B63" s="13">
         <v>44470</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>542.82629999999995</v>
       </c>
     </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B64" s="13">
         <v>44501</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>560.64739999999995</v>
       </c>
     </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B65" s="13">
         <v>44531</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>587.63199999999995</v>
       </c>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B66" s="13">
         <v>44562</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>614.96839999999997</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B67" s="13">
         <v>44593</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>648.68989999999997</v>
       </c>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B68" s="13">
         <v>44621</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>686.36180000000002</v>
       </c>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B69" s="13">
         <v>44652</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>729.43140000000005</v>
       </c>
     </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B70" s="13">
         <v>44682</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>770.00469999999996</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B71" s="13">
         <v>44713</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>811.8424</v>
       </c>
     </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B72" s="13">
         <v>44743</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>880.58450000000005</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B73" s="13">
         <v>44774</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>944.6404</v>
       </c>
     </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B74" s="13">
         <v>44805</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>1001.7683</v>
       </c>
     </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B75" s="13">
         <v>44835</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>1059.6804</v>
       </c>
     </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B76" s="13">
         <v>44866</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>1113.1264000000001</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B77" s="13">
         <v>44896</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>1173.7402999999999</v>
       </c>
     </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B78" s="13">
         <v>44927</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>1250.2503999999999</v>
       </c>
     </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B79" s="13">
         <v>44958</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>1345.6905999999999</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B80" s="13">
         <v>44986</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>1441.3485000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B81" s="13">
         <v>45017</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>1572.9845</v>
       </c>
     </row>
-    <row r="82" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B82" s="13">
         <v>45047</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>1696.7299</v>
       </c>
     </row>
-    <row r="83" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B83" s="13">
         <v>45078</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>1788.9819</v>
       </c>
     </row>
-    <row r="84" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B84" s="13">
         <v>45108</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>1904.9344000000001</v>
       </c>
     </row>
-    <row r="85" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B85" s="13">
         <v>45139</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>2149.5119</v>
       </c>
     </row>
-    <row r="86" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B86" s="13">
         <v>45170</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>2433.0675999999999</v>
       </c>
     </row>
-    <row r="87" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B87" s="13">
         <v>45200</v>
       </c>
@@ -6779,7 +6779,7 @@
         <v>2637.0823</v>
       </c>
     </row>
-    <row r="88" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B88" s="13">
         <v>45231</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>3008.4508000000001</v>
       </c>
     </row>
-    <row r="89" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B89" s="13">
         <v>45261</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>3793.6828</v>
       </c>
     </row>
-    <row r="90" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B90" s="13">
         <v>45292</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>4582.4724999999999</v>
       </c>
     </row>
-    <row r="91" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B91" s="13">
         <v>45323</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>5099.6557000000003</v>
       </c>
     </row>
-    <row r="92" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B92" s="13">
         <v>45352</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>5537.8856999999998</v>
       </c>
     </row>
-    <row r="93" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B93" s="13">
         <v>45383</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>5906.4143999999997</v>
       </c>
     </row>
-    <row r="94" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B94" s="13">
         <v>45413</v>
       </c>
@@ -7234,69 +7234,134 @@
         <v>6213.4395999999997</v>
       </c>
     </row>
-    <row r="95" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="14">
+    <row r="95" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B95" s="13">
         <v>45444</v>
       </c>
-      <c r="C95" s="18">
+      <c r="C95" s="15">
         <v>6371.3901999999998</v>
       </c>
-      <c r="D95" s="19">
+      <c r="D95" s="16">
         <v>6313.5257000000001</v>
       </c>
-      <c r="E95" s="19">
+      <c r="E95" s="16">
         <v>6415.5124999999998</v>
       </c>
-      <c r="F95" s="19">
+      <c r="F95" s="16">
         <v>6390.4237000000003</v>
       </c>
-      <c r="G95" s="19">
+      <c r="G95" s="16">
         <v>6420.165</v>
       </c>
-      <c r="H95" s="19">
+      <c r="H95" s="16">
         <v>6477.3638000000001</v>
       </c>
-      <c r="I95" s="20">
+      <c r="I95" s="17">
         <v>6264.3185999999996</v>
       </c>
-      <c r="J95" s="19">
+      <c r="J95" s="16">
         <v>7146.6593999999996</v>
       </c>
-      <c r="K95" s="19">
+      <c r="K95" s="16">
         <v>4914.8936000000003</v>
       </c>
-      <c r="L95" s="19">
+      <c r="L95" s="16">
         <v>5731.8341</v>
       </c>
-      <c r="M95" s="19">
+      <c r="M95" s="16">
         <v>5285.0308000000005</v>
       </c>
-      <c r="N95" s="19">
+      <c r="N95" s="16">
         <v>6107.6014999999998</v>
       </c>
-      <c r="O95" s="19">
+      <c r="O95" s="16">
         <v>7139.3881000000001</v>
       </c>
-      <c r="P95" s="19">
+      <c r="P95" s="16">
         <v>6816.393</v>
       </c>
-      <c r="Q95" s="19">
+      <c r="Q95" s="16">
         <v>5640.9961000000003</v>
       </c>
-      <c r="R95" s="19">
+      <c r="R95" s="16">
         <v>5784.0231000000003</v>
       </c>
-      <c r="S95" s="19">
+      <c r="S95" s="16">
         <v>4414.6482999999998</v>
       </c>
-      <c r="T95" s="19">
+      <c r="T95" s="16">
         <v>6631.1608999999999</v>
       </c>
-      <c r="U95" s="20">
+      <c r="U95" s="17">
         <v>6335.2188999999998</v>
       </c>
-      <c r="V95" s="18">
+      <c r="V95" s="15">
         <v>6452.8719000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="14">
+        <v>45474</v>
+      </c>
+      <c r="C96" s="18">
+        <v>6638.8073000000004</v>
+      </c>
+      <c r="D96" s="19">
+        <v>6568.8379999999997</v>
+      </c>
+      <c r="E96" s="19">
+        <v>6688.0135</v>
+      </c>
+      <c r="F96" s="19">
+        <v>6639.5613999999996</v>
+      </c>
+      <c r="G96" s="19">
+        <v>6721.6724000000004</v>
+      </c>
+      <c r="H96" s="19">
+        <v>6782.4107999999997</v>
+      </c>
+      <c r="I96" s="20">
+        <v>6519.8887000000004</v>
+      </c>
+      <c r="J96" s="19">
+        <v>7414.0300999999999</v>
+      </c>
+      <c r="K96" s="19">
+        <v>5240.8603000000003</v>
+      </c>
+      <c r="L96" s="19">
+        <v>5867.4665000000005</v>
+      </c>
+      <c r="M96" s="19">
+        <v>5605.2803000000004</v>
+      </c>
+      <c r="N96" s="19">
+        <v>6279.5263999999997</v>
+      </c>
+      <c r="O96" s="19">
+        <v>7557.0290000000005</v>
+      </c>
+      <c r="P96" s="19">
+        <v>6995.6211000000003</v>
+      </c>
+      <c r="Q96" s="19">
+        <v>5864.5308999999997</v>
+      </c>
+      <c r="R96" s="19">
+        <v>6057.9207999999999</v>
+      </c>
+      <c r="S96" s="19">
+        <v>4597.3388999999997</v>
+      </c>
+      <c r="T96" s="19">
+        <v>7057.2272000000003</v>
+      </c>
+      <c r="U96" s="20">
+        <v>6554.3981999999996</v>
+      </c>
+      <c r="V96" s="18">
+        <v>6714.0612000000001</v>
       </c>
     </row>
   </sheetData>
@@ -7312,27 +7377,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED968B30-91AE-4BCD-9838-818BA334E48C}">
-  <dimension ref="B1:V95"/>
+  <dimension ref="B1:V96"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="83" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C79" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
-      <selection pane="bottomRight" activeCell="C95" sqref="C95"/>
+      <selection pane="bottomRight" activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.5546875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="4" customWidth="1"/>
-    <col min="2" max="3" width="20.5703125" style="4" customWidth="1"/>
-    <col min="4" max="21" width="15.5703125" style="4"/>
-    <col min="22" max="22" width="20.5703125" style="4" customWidth="1"/>
-    <col min="23" max="16384" width="15.5703125" style="4"/>
+    <col min="1" max="1" width="4.5546875" style="4" customWidth="1"/>
+    <col min="2" max="3" width="20.5546875" style="4" customWidth="1"/>
+    <col min="4" max="21" width="15.5546875" style="4"/>
+    <col min="22" max="22" width="20.5546875" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="15.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="52" t="s">
         <v>11</v>
       </c>
@@ -7357,7 +7422,7 @@
       <c r="U2" s="53"/>
       <c r="V2" s="53"/>
     </row>
-    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="8" t="s">
         <v>8</v>
@@ -7388,7 +7453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
@@ -7453,7 +7518,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
         <v>42705</v>
       </c>
@@ -7478,7 +7543,7 @@
       <c r="U5" s="12"/>
       <c r="V5" s="10"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B6" s="13">
         <v>42736</v>
       </c>
@@ -7543,7 +7608,7 @@
         <v>1.6071</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B7" s="13">
         <v>42767</v>
       </c>
@@ -7608,7 +7673,7 @@
         <v>1.6587000000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B8" s="13">
         <v>42795</v>
       </c>
@@ -7673,7 +7738,7 @@
         <v>1.5406</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B9" s="13">
         <v>42826</v>
       </c>
@@ -7738,7 +7803,7 @@
         <v>2.3517000000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B10" s="13">
         <v>42856</v>
       </c>
@@ -7803,7 +7868,7 @@
         <v>1.8993</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B11" s="13">
         <v>42887</v>
       </c>
@@ -7868,7 +7933,7 @@
         <v>1.2845</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B12" s="13">
         <v>42917</v>
       </c>
@@ -7933,7 +7998,7 @@
         <v>1.8971</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B13" s="13">
         <v>42948</v>
       </c>
@@ -7998,7 +8063,7 @@
         <v>1.1851</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B14" s="13">
         <v>42979</v>
       </c>
@@ -8063,7 +8128,7 @@
         <v>0.83930000000000005</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B15" s="13">
         <v>43009</v>
       </c>
@@ -8128,7 +8193,7 @@
         <v>1.1243000000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B16" s="13">
         <v>43040</v>
       </c>
@@ -8193,7 +8258,7 @@
         <v>1.5330999999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B17" s="13">
         <v>43070</v>
       </c>
@@ -8258,7 +8323,7 @@
         <v>1.6093</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B18" s="13">
         <v>43101</v>
       </c>
@@ -8323,7 +8388,7 @@
         <v>2.0897000000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B19" s="13">
         <v>43132</v>
       </c>
@@ -8388,7 +8453,7 @@
         <v>1.7984</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B20" s="13">
         <v>43160</v>
       </c>
@@ -8453,7 +8518,7 @@
         <v>1.8067</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B21" s="13">
         <v>43191</v>
       </c>
@@ -8518,7 +8583,7 @@
         <v>1.8005</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B22" s="13">
         <v>43221</v>
       </c>
@@ -8583,7 +8648,7 @@
         <v>3.0171999999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B23" s="13">
         <v>43252</v>
       </c>
@@ -8648,7 +8713,7 @@
         <v>3.8776999999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B24" s="13">
         <v>43282</v>
       </c>
@@ -8713,7 +8778,7 @@
         <v>3.7290000000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B25" s="13">
         <v>43313</v>
       </c>
@@ -8778,7 +8843,7 @@
         <v>3.0457000000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B26" s="13">
         <v>43344</v>
       </c>
@@ -8843,7 +8908,7 @@
         <v>6.2069000000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B27" s="13">
         <v>43374</v>
       </c>
@@ -8908,7 +8973,7 @@
         <v>4.2497999999999996</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B28" s="13">
         <v>43405</v>
       </c>
@@ -8973,7 +9038,7 @@
         <v>3.6131000000000002</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B29" s="13">
         <v>43435</v>
       </c>
@@ -9038,7 +9103,7 @@
         <v>2.423</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B30" s="13">
         <v>43466</v>
       </c>
@@ -9103,7 +9168,7 @@
         <v>3.0381</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B31" s="13">
         <v>43497</v>
       </c>
@@ -9168,7 +9233,7 @@
         <v>4.0686999999999998</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B32" s="13">
         <v>43525</v>
       </c>
@@ -9233,7 +9298,7 @@
         <v>4.1976000000000004</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B33" s="13">
         <v>43556</v>
       </c>
@@ -9298,7 +9363,7 @@
         <v>3.3864999999999998</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B34" s="13">
         <v>43586</v>
       </c>
@@ -9363,7 +9428,7 @@
         <v>3.0464000000000002</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B35" s="13">
         <v>43617</v>
       </c>
@@ -9428,7 +9493,7 @@
         <v>2.8068</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B36" s="13">
         <v>43647</v>
       </c>
@@ -9493,7 +9558,7 @@
         <v>2.6156000000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B37" s="13">
         <v>43678</v>
       </c>
@@ -9558,7 +9623,7 @@
         <v>4.2591999999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B38" s="13">
         <v>43709</v>
       </c>
@@ -9623,7 +9688,7 @@
         <v>5.6048999999999998</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B39" s="13">
         <v>43739</v>
       </c>
@@ -9688,7 +9753,7 @@
         <v>3.0691999999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B40" s="13">
         <v>43770</v>
       </c>
@@ -9753,7 +9818,7 @@
         <v>4.6287000000000003</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B41" s="13">
         <v>43800</v>
       </c>
@@ -9818,7 +9883,7 @@
         <v>3.6472000000000002</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B42" s="13">
         <v>43831</v>
       </c>
@@ -9883,7 +9948,7 @@
         <v>3.7164000000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B43" s="13">
         <v>43862</v>
       </c>
@@ -9948,7 +10013,7 @@
         <v>2.7492999999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B44" s="13">
         <v>43891</v>
       </c>
@@ -10013,7 +10078,7 @@
         <v>2.5773000000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B45" s="13">
         <v>43922</v>
       </c>
@@ -10078,7 +10143,7 @@
         <v>2.1637</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B46" s="13">
         <v>43952</v>
       </c>
@@ -10143,7 +10208,7 @@
         <v>2.5409000000000002</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B47" s="13">
         <v>43983</v>
       </c>
@@ -10208,7 +10273,7 @@
         <v>2.8424</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B48" s="13">
         <v>44013</v>
       </c>
@@ -10273,7 +10338,7 @@
         <v>2.5202</v>
       </c>
     </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B49" s="13">
         <v>44044</v>
       </c>
@@ -10338,7 +10403,7 @@
         <v>2.8488000000000002</v>
       </c>
     </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B50" s="13">
         <v>44075</v>
       </c>
@@ -10403,7 +10468,7 @@
         <v>2.0783999999999998</v>
       </c>
     </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B51" s="13">
         <v>44105</v>
       </c>
@@ -10468,7 +10533,7 @@
         <v>3.8056000000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B52" s="13">
         <v>44136</v>
       </c>
@@ -10533,7 +10598,7 @@
         <v>3.8178000000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B53" s="13">
         <v>44166</v>
       </c>
@@ -10598,7 +10663,7 @@
         <v>4.4638</v>
       </c>
     </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B54" s="13">
         <v>44197</v>
       </c>
@@ -10663,7 +10728,7 @@
         <v>4.4154999999999998</v>
       </c>
     </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B55" s="13">
         <v>44228</v>
       </c>
@@ -10728,7 +10793,7 @@
         <v>4.0206999999999997</v>
       </c>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B56" s="13">
         <v>44256</v>
       </c>
@@ -10793,7 +10858,7 @@
         <v>4.2638999999999996</v>
       </c>
     </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B57" s="13">
         <v>44287</v>
       </c>
@@ -10858,7 +10923,7 @@
         <v>4.0263999999999998</v>
       </c>
     </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B58" s="13">
         <v>44317</v>
       </c>
@@ -10923,7 +10988,7 @@
         <v>3.4392</v>
       </c>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B59" s="13">
         <v>44348</v>
       </c>
@@ -10988,7 +11053,7 @@
         <v>3.3393000000000002</v>
       </c>
     </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B60" s="13">
         <v>44378</v>
       </c>
@@ -11053,7 +11118,7 @@
         <v>3.4542000000000002</v>
       </c>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B61" s="13">
         <v>44409</v>
       </c>
@@ -11118,7 +11183,7 @@
         <v>2.2938999999999998</v>
       </c>
     </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B62" s="13">
         <v>44440</v>
       </c>
@@ -11183,7 +11248,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B63" s="13">
         <v>44470</v>
       </c>
@@ -11248,7 +11313,7 @@
         <v>3.2282999999999999</v>
       </c>
     </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B64" s="13">
         <v>44501</v>
       </c>
@@ -11313,7 +11378,7 @@
         <v>3.2829999999999999</v>
       </c>
     </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B65" s="13">
         <v>44531</v>
       </c>
@@ -11378,7 +11443,7 @@
         <v>4.8131000000000004</v>
       </c>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B66" s="13">
         <v>44562</v>
       </c>
@@ -11443,7 +11508,7 @@
         <v>4.6520000000000001</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B67" s="13">
         <v>44593</v>
       </c>
@@ -11508,7 +11573,7 @@
         <v>5.4835000000000003</v>
       </c>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B68" s="13">
         <v>44621</v>
       </c>
@@ -11573,7 +11638,7 @@
         <v>5.8074000000000003</v>
       </c>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B69" s="13">
         <v>44652</v>
       </c>
@@ -11638,7 +11703,7 @@
         <v>6.2751000000000001</v>
       </c>
     </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B70" s="13">
         <v>44682</v>
       </c>
@@ -11703,7 +11768,7 @@
         <v>5.5622999999999996</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B71" s="13">
         <v>44713</v>
       </c>
@@ -11768,7 +11833,7 @@
         <v>5.4333999999999998</v>
       </c>
     </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B72" s="13">
         <v>44743</v>
       </c>
@@ -11833,7 +11898,7 @@
         <v>8.4673999999999996</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B73" s="13">
         <v>44774</v>
       </c>
@@ -11898,7 +11963,7 @@
         <v>7.2742000000000004</v>
       </c>
     </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B74" s="13">
         <v>44805</v>
       </c>
@@ -11963,7 +12028,7 @@
         <v>6.0476000000000001</v>
       </c>
     </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B75" s="13">
         <v>44835</v>
       </c>
@@ -12028,7 +12093,7 @@
         <v>5.7809999999999997</v>
       </c>
     </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B76" s="13">
         <v>44866</v>
       </c>
@@ -12093,7 +12158,7 @@
         <v>5.0435999999999996</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B77" s="13">
         <v>44896</v>
       </c>
@@ -12158,7 +12223,7 @@
         <v>5.4454000000000002</v>
       </c>
     </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B78" s="13">
         <v>44927</v>
       </c>
@@ -12223,7 +12288,7 @@
         <v>6.5185000000000004</v>
       </c>
     </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B79" s="13">
         <v>44958</v>
       </c>
@@ -12288,7 +12353,7 @@
         <v>7.6337000000000002</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B80" s="13">
         <v>44986</v>
       </c>
@@ -12353,7 +12418,7 @@
         <v>7.1085000000000003</v>
       </c>
     </row>
-    <row r="81" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B81" s="13">
         <v>45017</v>
       </c>
@@ -12418,7 +12483,7 @@
         <v>9.1327999999999996</v>
       </c>
     </row>
-    <row r="82" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B82" s="13">
         <v>45047</v>
       </c>
@@ -12483,7 +12548,7 @@
         <v>7.8669000000000002</v>
       </c>
     </row>
-    <row r="83" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B83" s="13">
         <v>45078</v>
       </c>
@@ -12548,7 +12613,7 @@
         <v>5.4370000000000003</v>
       </c>
     </row>
-    <row r="84" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B84" s="13">
         <v>45108</v>
       </c>
@@ -12613,7 +12678,7 @@
         <v>6.4814999999999996</v>
       </c>
     </row>
-    <row r="85" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B85" s="13">
         <v>45139</v>
       </c>
@@ -12678,7 +12743,7 @@
         <v>12.8392</v>
       </c>
     </row>
-    <row r="86" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B86" s="13">
         <v>45170</v>
       </c>
@@ -12743,7 +12808,7 @@
         <v>13.191599999999999</v>
       </c>
     </row>
-    <row r="87" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B87" s="13">
         <v>45200</v>
       </c>
@@ -12808,7 +12873,7 @@
         <v>8.3850999999999996</v>
       </c>
     </row>
-    <row r="88" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B88" s="13">
         <v>45231</v>
       </c>
@@ -12873,7 +12938,7 @@
         <v>14.082599999999999</v>
       </c>
     </row>
-    <row r="89" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B89" s="13">
         <v>45261</v>
       </c>
@@ -12938,7 +13003,7 @@
         <v>26.100899999999999</v>
       </c>
     </row>
-    <row r="90" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B90" s="13">
         <v>45292</v>
       </c>
@@ -13003,7 +13068,7 @@
         <v>20.792200000000001</v>
       </c>
     </row>
-    <row r="91" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B91" s="13">
         <v>45323</v>
       </c>
@@ -13068,7 +13133,7 @@
         <v>11.286099999999999</v>
       </c>
     </row>
-    <row r="92" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B92" s="13">
         <v>45352</v>
       </c>
@@ -13133,7 +13198,7 @@
         <v>8.5932999999999993</v>
       </c>
     </row>
-    <row r="93" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B93" s="13">
         <v>45383</v>
       </c>
@@ -13198,7 +13263,7 @@
         <v>6.6547000000000001</v>
       </c>
     </row>
-    <row r="94" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B94" s="13">
         <v>45413</v>
       </c>
@@ -13263,69 +13328,134 @@
         <v>5.1981999999999999</v>
       </c>
     </row>
-    <row r="95" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="48">
+    <row r="95" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B95" s="13">
         <v>45444</v>
       </c>
-      <c r="C95" s="18">
+      <c r="C95" s="15">
         <v>4.7572999999999999</v>
       </c>
-      <c r="D95" s="19">
+      <c r="D95" s="16">
         <v>4.5137999999999998</v>
       </c>
-      <c r="E95" s="19">
+      <c r="E95" s="16">
         <v>5.0039999999999996</v>
       </c>
-      <c r="F95" s="19">
+      <c r="F95" s="16">
         <v>5.0018000000000002</v>
       </c>
-      <c r="G95" s="19">
+      <c r="G95" s="16">
         <v>4.7289000000000003</v>
       </c>
-      <c r="H95" s="19">
+      <c r="H95" s="16">
         <v>5.1580000000000004</v>
       </c>
-      <c r="I95" s="20">
+      <c r="I95" s="17">
         <v>5.0720999999999998</v>
       </c>
-      <c r="J95" s="19">
+      <c r="J95" s="16">
         <v>3.5796000000000001</v>
       </c>
-      <c r="K95" s="19">
+      <c r="K95" s="16">
         <v>1.9865999999999999</v>
       </c>
-      <c r="L95" s="19">
+      <c r="L95" s="16">
         <v>2.9434</v>
       </c>
-      <c r="M95" s="19">
+      <c r="M95" s="16">
         <v>14.4078</v>
       </c>
-      <c r="N95" s="19">
+      <c r="N95" s="16">
         <v>1.8645</v>
       </c>
-      <c r="O95" s="19">
+      <c r="O95" s="16">
         <v>4.7492000000000001</v>
       </c>
-      <c r="P95" s="19">
+      <c r="P95" s="16">
         <v>3.9338000000000002</v>
       </c>
-      <c r="Q95" s="19">
+      <c r="Q95" s="16">
         <v>5.2653999999999996</v>
       </c>
-      <c r="R95" s="19">
+      <c r="R95" s="16">
         <v>5.5656999999999996</v>
       </c>
-      <c r="S95" s="19">
+      <c r="S95" s="16">
         <v>8.3085000000000004</v>
       </c>
-      <c r="T95" s="19">
+      <c r="T95" s="16">
         <v>6.3105000000000002</v>
       </c>
-      <c r="U95" s="20">
+      <c r="U95" s="17">
         <v>2.7564000000000002</v>
       </c>
-      <c r="V95" s="18">
+      <c r="V95" s="15">
         <v>3.8534999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="48">
+        <v>45474</v>
+      </c>
+      <c r="C96" s="18">
+        <v>4.1971999999999996</v>
+      </c>
+      <c r="D96" s="19">
+        <v>4.0438999999999998</v>
+      </c>
+      <c r="E96" s="19">
+        <v>4.2474999999999996</v>
+      </c>
+      <c r="F96" s="19">
+        <v>3.8986000000000001</v>
+      </c>
+      <c r="G96" s="19">
+        <v>4.6962999999999999</v>
+      </c>
+      <c r="H96" s="19">
+        <v>4.7093999999999996</v>
+      </c>
+      <c r="I96" s="20">
+        <v>4.0797999999999996</v>
+      </c>
+      <c r="J96" s="19">
+        <v>3.7412000000000001</v>
+      </c>
+      <c r="K96" s="19">
+        <v>6.6322000000000001</v>
+      </c>
+      <c r="L96" s="19">
+        <v>2.3662999999999998</v>
+      </c>
+      <c r="M96" s="19">
+        <v>6.0595999999999997</v>
+      </c>
+      <c r="N96" s="19">
+        <v>2.8149000000000002</v>
+      </c>
+      <c r="O96" s="19">
+        <v>5.8498000000000001</v>
+      </c>
+      <c r="P96" s="19">
+        <v>2.6294</v>
+      </c>
+      <c r="Q96" s="19">
+        <v>3.9626999999999999</v>
+      </c>
+      <c r="R96" s="19">
+        <v>4.7354000000000003</v>
+      </c>
+      <c r="S96" s="19">
+        <v>4.1383000000000001</v>
+      </c>
+      <c r="T96" s="19">
+        <v>6.4252000000000002</v>
+      </c>
+      <c r="U96" s="20">
+        <v>3.4597000000000002</v>
+      </c>
+      <c r="V96" s="18">
+        <v>4.0476000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -13343,17 +13473,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83293D6D-81C8-49B2-8C10-806B04E884B0}">
   <dimension ref="B1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="116" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="50.5703125" customWidth="1"/>
-    <col min="3" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="50.5546875" customWidth="1"/>
+    <col min="3" max="8" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="55" t="s">
         <v>13</v>
       </c>
@@ -13365,7 +13497,7 @@
       <c r="H2" s="56"/>
       <c r="I2" s="57"/>
     </row>
-    <row r="3" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="22" t="s">
         <v>14</v>
       </c>
@@ -13381,12 +13513,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="65">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D4" s="65"/>
       <c r="E4" s="65"/>
@@ -13395,10 +13527,10 @@
       <c r="H4" s="65"/>
       <c r="I4" s="23" t="str">
         <f>+_xlfn.CONCAT(H5, " ", C4, "/", H5, " ", C4-1)</f>
-        <v>Jun. 2023/Jun. 2022</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+        <v>Jul. 2024/Jul. 2023</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="24"/>
       <c r="C5" s="25" t="s">
         <v>40</v>
@@ -13420,33 +13552,33 @@
       </c>
       <c r="I5" s="47"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="27">
-        <v>20.7379</v>
+        <v>13.4008</v>
       </c>
       <c r="D6" s="27">
-        <v>13.4008</v>
+        <v>10.164400000000001</v>
       </c>
       <c r="E6" s="27">
-        <v>10.164400000000001</v>
+        <v>8.7431999999999999</v>
       </c>
       <c r="F6" s="27">
-        <v>8.7431999999999999</v>
+        <v>4.5728999999999997</v>
       </c>
       <c r="G6" s="27">
-        <v>4.5728999999999997</v>
+        <v>4.7572999999999999</v>
       </c>
       <c r="H6" s="27">
-        <v>4.7572999999999999</v>
+        <v>4.1971999999999996</v>
       </c>
       <c r="I6" s="28">
-        <v>271.52969999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>263.44569999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="59" t="s">
         <v>7</v>
       </c>
@@ -13458,163 +13590,163 @@
       <c r="H7" s="60"/>
       <c r="I7" s="61"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="31" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="32">
-        <v>19.487200000000001</v>
+        <v>15.286</v>
       </c>
       <c r="D8" s="32">
-        <v>15.286</v>
+        <v>10.3573</v>
       </c>
       <c r="E8" s="32">
-        <v>10.3573</v>
+        <v>9.1841000000000008</v>
       </c>
       <c r="F8" s="32">
-        <v>9.1841000000000008</v>
+        <v>4.7674000000000003</v>
       </c>
       <c r="G8" s="32">
-        <v>4.7674000000000003</v>
+        <v>4.5137999999999998</v>
       </c>
       <c r="H8" s="32">
-        <v>4.5137999999999998</v>
+        <v>4.0438999999999998</v>
       </c>
       <c r="I8" s="33">
-        <v>273.67910000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+        <v>266.11270000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="32">
-        <v>21.381399999999999</v>
+        <v>11.950900000000001</v>
       </c>
       <c r="D9" s="32">
-        <v>11.950900000000001</v>
+        <v>10.5008</v>
       </c>
       <c r="E9" s="32">
-        <v>10.5008</v>
+        <v>8.6998999999999995</v>
       </c>
       <c r="F9" s="32">
-        <v>8.6998999999999995</v>
+        <v>4.3362999999999996</v>
       </c>
       <c r="G9" s="32">
-        <v>4.3362999999999996</v>
+        <v>5.0039999999999996</v>
       </c>
       <c r="H9" s="32">
-        <v>5.0039999999999996</v>
+        <v>4.2474999999999996</v>
       </c>
       <c r="I9" s="33">
-        <v>271.63900000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+        <v>262.89229999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="31" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="32">
-        <v>21.819099999999999</v>
+        <v>11.765000000000001</v>
       </c>
       <c r="D10" s="32">
-        <v>11.765000000000001</v>
+        <v>8.0137999999999998</v>
       </c>
       <c r="E10" s="32">
-        <v>8.0137999999999998</v>
+        <v>9.0043000000000006</v>
       </c>
       <c r="F10" s="32">
-        <v>9.0043000000000006</v>
+        <v>4.5412999999999997</v>
       </c>
       <c r="G10" s="32">
-        <v>4.5412999999999997</v>
+        <v>5.0018000000000002</v>
       </c>
       <c r="H10" s="32">
-        <v>5.0018000000000002</v>
+        <v>3.8986000000000001</v>
       </c>
       <c r="I10" s="33">
-        <v>262.37830000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>253.87440000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="31" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="32">
-        <v>19.981400000000001</v>
+        <v>10.963900000000001</v>
       </c>
       <c r="D11" s="32">
-        <v>10.963900000000001</v>
+        <v>10.056800000000001</v>
       </c>
       <c r="E11" s="32">
-        <v>10.056800000000001</v>
+        <v>6.3064999999999998</v>
       </c>
       <c r="F11" s="32">
-        <v>6.3064999999999998</v>
+        <v>4.1321000000000003</v>
       </c>
       <c r="G11" s="32">
-        <v>4.1321000000000003</v>
+        <v>4.7289000000000003</v>
       </c>
       <c r="H11" s="32">
-        <v>4.7289000000000003</v>
+        <v>4.6962999999999999</v>
       </c>
       <c r="I11" s="33">
-        <v>258.69819999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>253.12039999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="32">
-        <v>22.540900000000001</v>
+        <v>13.427899999999999</v>
       </c>
       <c r="D12" s="32">
-        <v>13.427899999999999</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="E12" s="32">
-        <v>8.7100000000000009</v>
+        <v>8.0625</v>
       </c>
       <c r="F12" s="32">
-        <v>8.0625</v>
+        <v>4.6234999999999999</v>
       </c>
       <c r="G12" s="32">
-        <v>4.6234999999999999</v>
+        <v>5.1580000000000004</v>
       </c>
       <c r="H12" s="32">
-        <v>5.1580000000000004</v>
+        <v>4.7093999999999996</v>
       </c>
       <c r="I12" s="33">
-        <v>271.86020000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>265.8569</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="31" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="32">
-        <v>24.8538</v>
+        <v>11.549300000000001</v>
       </c>
       <c r="D13" s="32">
-        <v>11.549300000000001</v>
+        <v>9.9405999999999999</v>
       </c>
       <c r="E13" s="32">
-        <v>9.9405999999999999</v>
+        <v>8.4405000000000001</v>
       </c>
       <c r="F13" s="32">
-        <v>8.4405000000000001</v>
+        <v>4.8232999999999997</v>
       </c>
       <c r="G13" s="32">
-        <v>4.8232999999999997</v>
+        <v>5.0720999999999998</v>
       </c>
       <c r="H13" s="32">
-        <v>5.0720999999999998</v>
+        <v>4.0797999999999996</v>
       </c>
       <c r="I13" s="33">
-        <v>276.87759999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>264.16149999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="31"/>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
@@ -13624,7 +13756,7 @@
       <c r="H14" s="32"/>
       <c r="I14" s="33"/>
     </row>
-    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="62" t="s">
         <v>9</v>
       </c>
@@ -13636,319 +13768,319 @@
       <c r="H15" s="63"/>
       <c r="I15" s="64"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="31" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="32">
-        <v>20.2986</v>
+        <v>11.379200000000001</v>
       </c>
       <c r="D16" s="32">
-        <v>11.379200000000001</v>
+        <v>9.5661000000000005</v>
       </c>
       <c r="E16" s="32">
-        <v>9.5661000000000005</v>
+        <v>6.1928000000000001</v>
       </c>
       <c r="F16" s="32">
-        <v>6.1928000000000001</v>
+        <v>5.7142999999999997</v>
       </c>
       <c r="G16" s="32">
-        <v>5.7142999999999997</v>
+        <v>3.5796000000000001</v>
       </c>
       <c r="H16" s="32">
-        <v>3.5796000000000001</v>
+        <v>3.7412000000000001</v>
       </c>
       <c r="I16" s="33">
-        <v>285.12419999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>275.81830000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="32">
-        <v>21.049499999999998</v>
+        <v>18.6081</v>
       </c>
       <c r="D17" s="32">
-        <v>18.6081</v>
+        <v>11.4427</v>
       </c>
       <c r="E17" s="32">
-        <v>11.4427</v>
+        <v>6.5521000000000003</v>
       </c>
       <c r="F17" s="32">
-        <v>6.5521000000000003</v>
+        <v>7.3403</v>
       </c>
       <c r="G17" s="32">
-        <v>7.3403</v>
+        <v>1.9865999999999999</v>
       </c>
       <c r="H17" s="32">
-        <v>1.9865999999999999</v>
+        <v>6.6322000000000001</v>
       </c>
       <c r="I17" s="33">
-        <v>257.73540000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>248.1456</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="31" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="32">
-        <v>13.392300000000001</v>
+        <v>9.5421999999999993</v>
       </c>
       <c r="D18" s="32">
-        <v>9.5421999999999993</v>
+        <v>6.9301000000000004</v>
       </c>
       <c r="E18" s="32">
-        <v>6.9301000000000004</v>
+        <v>7.2812000000000001</v>
       </c>
       <c r="F18" s="32">
-        <v>7.2812000000000001</v>
+        <v>4.4522000000000004</v>
       </c>
       <c r="G18" s="32">
-        <v>4.4522000000000004</v>
+        <v>2.9434</v>
       </c>
       <c r="H18" s="32">
-        <v>2.9434</v>
+        <v>2.3662999999999998</v>
       </c>
       <c r="I18" s="33">
-        <v>189.2054</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>185.2474</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="31" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="32">
-        <v>14.2448</v>
+        <v>20.098299999999998</v>
       </c>
       <c r="D19" s="32">
-        <v>20.098299999999998</v>
+        <v>13.2197</v>
       </c>
       <c r="E19" s="32">
-        <v>13.2197</v>
+        <v>35.386299999999999</v>
       </c>
       <c r="F19" s="32">
-        <v>35.386299999999999</v>
+        <v>2.5518000000000001</v>
       </c>
       <c r="G19" s="32">
-        <v>2.5518000000000001</v>
+        <v>14.4078</v>
       </c>
       <c r="H19" s="32">
-        <v>14.4078</v>
+        <v>6.0595999999999997</v>
       </c>
       <c r="I19" s="33">
-        <v>298.86689999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>306.61880000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="31" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="32">
-        <v>22.438099999999999</v>
+        <v>10.5862</v>
       </c>
       <c r="D20" s="32">
-        <v>10.5862</v>
+        <v>5.1493000000000002</v>
       </c>
       <c r="E20" s="32">
-        <v>5.1493000000000002</v>
+        <v>6.7298999999999998</v>
       </c>
       <c r="F20" s="32">
-        <v>6.7298999999999998</v>
+        <v>3.46</v>
       </c>
       <c r="G20" s="32">
-        <v>3.46</v>
+        <v>1.8645</v>
       </c>
       <c r="H20" s="32">
-        <v>1.8645</v>
+        <v>2.8149000000000002</v>
       </c>
       <c r="I20" s="33">
-        <v>253.6651</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>244.66159999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="31" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="32">
-        <v>20.499500000000001</v>
+        <v>13.5733</v>
       </c>
       <c r="D21" s="32">
-        <v>13.5733</v>
+        <v>12.2319</v>
       </c>
       <c r="E21" s="32">
-        <v>12.2319</v>
+        <v>9.1309000000000005</v>
       </c>
       <c r="F21" s="32">
-        <v>9.1309000000000005</v>
+        <v>0.69</v>
       </c>
       <c r="G21" s="32">
-        <v>0.69</v>
+        <v>4.7492000000000001</v>
       </c>
       <c r="H21" s="32">
-        <v>4.7492000000000001</v>
+        <v>5.8498000000000001</v>
       </c>
       <c r="I21" s="33">
-        <v>292.79180000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>281.32909999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="31" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="32">
-        <v>26.314499999999999</v>
+        <v>21.3124</v>
       </c>
       <c r="D22" s="32">
-        <v>21.3124</v>
+        <v>12.997999999999999</v>
       </c>
       <c r="E22" s="32">
-        <v>12.997999999999999</v>
+        <v>6.2891000000000004</v>
       </c>
       <c r="F22" s="32">
-        <v>6.2891000000000004</v>
+        <v>3.9729000000000001</v>
       </c>
       <c r="G22" s="32">
-        <v>3.9729000000000001</v>
+        <v>3.9338000000000002</v>
       </c>
       <c r="H22" s="32">
-        <v>3.9338000000000002</v>
+        <v>2.6294</v>
       </c>
       <c r="I22" s="33">
-        <v>299.67439999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>289.50560000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="31" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="32">
-        <v>23.994299999999999</v>
+        <v>24.742799999999999</v>
       </c>
       <c r="D23" s="32">
-        <v>24.742799999999999</v>
+        <v>15.887</v>
       </c>
       <c r="E23" s="32">
-        <v>15.887</v>
+        <v>14.7713</v>
       </c>
       <c r="F23" s="32">
-        <v>14.7713</v>
+        <v>8.6944999999999997</v>
       </c>
       <c r="G23" s="32">
-        <v>8.6944999999999997</v>
+        <v>5.2653999999999996</v>
       </c>
       <c r="H23" s="32">
-        <v>5.2653999999999996</v>
+        <v>3.9626999999999999</v>
       </c>
       <c r="I23" s="33">
-        <v>353.42090000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>318.54559999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="31" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="32">
-        <v>24.026</v>
+        <v>9.5474999999999994</v>
       </c>
       <c r="D24" s="32">
-        <v>9.5474999999999994</v>
+        <v>9.0190000000000001</v>
       </c>
       <c r="E24" s="32">
-        <v>9.0190000000000001</v>
+        <v>7.3421000000000003</v>
       </c>
       <c r="F24" s="32">
-        <v>7.3421000000000003</v>
+        <v>4.5571000000000002</v>
       </c>
       <c r="G24" s="32">
-        <v>4.5571000000000002</v>
+        <v>5.5656999999999996</v>
       </c>
       <c r="H24" s="32">
-        <v>5.5656999999999996</v>
+        <v>4.7354000000000003</v>
       </c>
       <c r="I24" s="33">
-        <v>267.1771</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>248.93469999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="31" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="32">
-        <v>2.3591000000000002</v>
+        <v>11.2354</v>
       </c>
       <c r="D25" s="32">
-        <v>11.2354</v>
+        <v>29.938800000000001</v>
       </c>
       <c r="E25" s="32">
-        <v>29.938800000000001</v>
+        <v>10.162800000000001</v>
       </c>
       <c r="F25" s="32">
-        <v>10.162800000000001</v>
+        <v>8.6125000000000007</v>
       </c>
       <c r="G25" s="32">
-        <v>8.6125000000000007</v>
+        <v>8.3085000000000004</v>
       </c>
       <c r="H25" s="32">
-        <v>8.3085000000000004</v>
+        <v>4.1383000000000001</v>
       </c>
       <c r="I25" s="33">
-        <v>220.0942</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+        <v>214.24850000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="31" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="32">
-        <v>19.302700000000002</v>
+        <v>11.1287</v>
       </c>
       <c r="D26" s="32">
-        <v>11.1287</v>
+        <v>8.3148</v>
       </c>
       <c r="E26" s="32">
-        <v>8.3148</v>
+        <v>7.2893999999999997</v>
       </c>
       <c r="F26" s="32">
-        <v>7.2893999999999997</v>
+        <v>5.5715000000000003</v>
       </c>
       <c r="G26" s="32">
-        <v>5.5715000000000003</v>
+        <v>6.3105000000000002</v>
       </c>
       <c r="H26" s="32">
-        <v>6.3105000000000002</v>
+        <v>6.4252000000000002</v>
       </c>
       <c r="I26" s="33">
-        <v>250.91</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+        <v>247.6943</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="32">
-        <v>44.463900000000002</v>
+        <v>16.633199999999999</v>
       </c>
       <c r="D27" s="32">
-        <v>16.633199999999999</v>
+        <v>9.6061999999999994</v>
       </c>
       <c r="E27" s="32">
-        <v>9.6061999999999994</v>
+        <v>5.7464000000000004</v>
       </c>
       <c r="F27" s="32">
-        <v>5.7464000000000004</v>
+        <v>4.3890000000000002</v>
       </c>
       <c r="G27" s="32">
-        <v>4.3890000000000002</v>
+        <v>2.7564000000000002</v>
       </c>
       <c r="H27" s="32">
-        <v>2.7564000000000002</v>
+        <v>3.4597000000000002</v>
       </c>
       <c r="I27" s="33">
-        <v>332.18060000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>320.54309999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="31"/>
       <c r="C28" s="32"/>
       <c r="D28" s="32"/>
@@ -13958,7 +14090,7 @@
       <c r="H28" s="32"/>
       <c r="I28" s="33"/>
     </row>
-    <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="62" t="s">
         <v>32</v>
       </c>
@@ -13970,189 +14102,189 @@
       <c r="H29" s="63"/>
       <c r="I29" s="64"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="32">
-        <v>20.792200000000001</v>
+        <v>11.286099999999999</v>
       </c>
       <c r="D30" s="32">
-        <v>11.286099999999999</v>
+        <v>8.5932999999999993</v>
       </c>
       <c r="E30" s="32">
-        <v>8.5932999999999993</v>
+        <v>6.6547000000000001</v>
       </c>
       <c r="F30" s="32">
-        <v>6.6547000000000001</v>
+        <v>5.1981999999999999</v>
       </c>
       <c r="G30" s="32">
-        <v>5.1981999999999999</v>
+        <v>3.8534999999999999</v>
       </c>
       <c r="H30" s="32">
-        <v>3.8534999999999999</v>
+        <v>4.0476000000000001</v>
       </c>
       <c r="I30" s="33">
-        <v>260.64249999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>252.4357</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="31" t="s">
         <v>19</v>
       </c>
       <c r="C31" s="32">
-        <v>19.951899999999998</v>
+        <v>11.7393</v>
       </c>
       <c r="D31" s="32">
-        <v>11.7393</v>
+        <v>8.7751000000000001</v>
       </c>
       <c r="E31" s="32">
-        <v>8.7751000000000001</v>
+        <v>6.6711</v>
       </c>
       <c r="F31" s="32">
-        <v>6.6711</v>
+        <v>5.5831999999999997</v>
       </c>
       <c r="G31" s="32">
-        <v>5.5831999999999997</v>
+        <v>3.5466000000000002</v>
       </c>
       <c r="H31" s="32">
-        <v>3.5466000000000002</v>
+        <v>4.1664000000000003</v>
       </c>
       <c r="I31" s="33">
-        <v>261.91340000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>254.2841</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="32">
-        <v>21.286100000000001</v>
+        <v>11.063000000000001</v>
       </c>
       <c r="D32" s="32">
-        <v>11.063000000000001</v>
+        <v>8.8963000000000001</v>
       </c>
       <c r="E32" s="32">
-        <v>8.8963000000000001</v>
+        <v>6.6332000000000004</v>
       </c>
       <c r="F32" s="32">
-        <v>6.6332000000000004</v>
+        <v>5.0351999999999997</v>
       </c>
       <c r="G32" s="32">
-        <v>5.0351999999999997</v>
+        <v>4.3135000000000003</v>
       </c>
       <c r="H32" s="32">
-        <v>4.3135000000000003</v>
+        <v>4.0545</v>
       </c>
       <c r="I32" s="33">
-        <v>262.30669999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>253.548</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="31" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="32">
-        <v>21.453700000000001</v>
+        <v>10.1144</v>
       </c>
       <c r="D33" s="32">
-        <v>10.1144</v>
+        <v>6.8185000000000002</v>
       </c>
       <c r="E33" s="32">
-        <v>6.8185000000000002</v>
+        <v>7.5838000000000001</v>
       </c>
       <c r="F33" s="32">
-        <v>7.5838000000000001</v>
+        <v>4.8856000000000002</v>
       </c>
       <c r="G33" s="32">
-        <v>4.8856000000000002</v>
+        <v>3.6046</v>
       </c>
       <c r="H33" s="32">
-        <v>3.6046</v>
+        <v>3.6335999999999999</v>
       </c>
       <c r="I33" s="33">
-        <v>249.90610000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>241.7422</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="31" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="32">
-        <v>19.4986</v>
+        <v>9.8995999999999995</v>
       </c>
       <c r="D34" s="32">
-        <v>9.8995999999999995</v>
+        <v>7.4158999999999997</v>
       </c>
       <c r="E34" s="32">
-        <v>7.4158999999999997</v>
+        <v>5.6147999999999998</v>
       </c>
       <c r="F34" s="32">
-        <v>5.6147999999999998</v>
+        <v>3.9249999999999998</v>
       </c>
       <c r="G34" s="32">
-        <v>3.9249999999999998</v>
+        <v>3.8592</v>
       </c>
       <c r="H34" s="32">
-        <v>3.8592</v>
+        <v>3.2067000000000001</v>
       </c>
       <c r="I34" s="33">
-        <v>246.15180000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>236.9554</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="32">
-        <v>21.833300000000001</v>
+        <v>11.944800000000001</v>
       </c>
       <c r="D35" s="32">
-        <v>11.944800000000001</v>
+        <v>8.0154999999999994</v>
       </c>
       <c r="E35" s="32">
-        <v>8.0154999999999994</v>
+        <v>6.5365000000000002</v>
       </c>
       <c r="F35" s="32">
-        <v>6.5365000000000002</v>
+        <v>4.5087999999999999</v>
       </c>
       <c r="G35" s="32">
-        <v>4.5087999999999999</v>
+        <v>3.6911</v>
       </c>
       <c r="H35" s="32">
-        <v>3.6911</v>
+        <v>4.3201999999999998</v>
       </c>
       <c r="I35" s="33">
-        <v>258.0763</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>251.96010000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="35">
-        <v>24.804600000000001</v>
+        <v>10.9206</v>
       </c>
       <c r="D36" s="35">
-        <v>10.9206</v>
+        <v>9.0473999999999997</v>
       </c>
       <c r="E36" s="35">
-        <v>9.0473999999999997</v>
+        <v>6.4358000000000004</v>
       </c>
       <c r="F36" s="35">
-        <v>6.4358000000000004</v>
+        <v>5.0989000000000004</v>
       </c>
       <c r="G36" s="35">
-        <v>5.0989000000000004</v>
+        <v>4.0114999999999998</v>
       </c>
       <c r="H36" s="35">
-        <v>4.0114999999999998</v>
+        <v>3.9363000000000001</v>
       </c>
       <c r="I36" s="36">
-        <v>269.99340000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>258.38099999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="54" t="s">
         <v>34</v>
       </c>
@@ -14164,7 +14296,7 @@
       <c r="H37" s="54"/>
       <c r="I37" s="54"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -14174,7 +14306,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -14204,17 +14336,17 @@
   <dimension ref="B1:I33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="54.42578125" customWidth="1"/>
-    <col min="3" max="9" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="54.44140625" customWidth="1"/>
+    <col min="3" max="9" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="55" t="s">
         <v>35</v>
       </c>
@@ -14226,7 +14358,7 @@
       <c r="H2" s="66"/>
       <c r="I2" s="67"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="37"/>
       <c r="C3" s="38" t="s">
         <v>19</v>
@@ -14250,7 +14382,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="29" t="s">
         <v>36</v>
       </c>
@@ -14262,345 +14394,345 @@
       <c r="H4" s="46"/>
       <c r="I4" s="30"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="40" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="41">
-        <v>4.5137999999999998</v>
+        <v>4.0438999999999998</v>
       </c>
       <c r="D5" s="41">
-        <v>5.0039999999999996</v>
+        <v>4.2474999999999996</v>
       </c>
       <c r="E5" s="41">
-        <v>5.0018000000000002</v>
+        <v>3.8986000000000001</v>
       </c>
       <c r="F5" s="41">
-        <v>4.7289000000000003</v>
+        <v>4.6962999999999999</v>
       </c>
       <c r="G5" s="41">
-        <v>5.1580000000000004</v>
+        <v>4.7093999999999996</v>
       </c>
       <c r="H5" s="41">
-        <v>5.0720999999999998</v>
+        <v>4.0797999999999996</v>
       </c>
       <c r="I5" s="42">
-        <v>4.7572999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4.1971999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="31" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="32">
-        <v>0.70950000000000002</v>
+        <v>1.1021000000000001</v>
       </c>
       <c r="D6" s="32">
-        <v>1.4341999999999999</v>
+        <v>1.1658999999999999</v>
       </c>
       <c r="E6" s="32">
-        <v>1.4381999999999999</v>
+        <v>0.95730000000000004</v>
       </c>
       <c r="F6" s="32">
-        <v>1.5616000000000001</v>
+        <v>1.0924</v>
       </c>
       <c r="G6" s="32">
-        <v>1.446</v>
+        <v>1.0822000000000001</v>
       </c>
       <c r="H6" s="32">
-        <v>1.4997</v>
+        <v>1.1146</v>
       </c>
       <c r="I6" s="33">
-        <v>1.1201000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.1131</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="32">
-        <v>5.28E-2</v>
+        <v>0.1704</v>
       </c>
       <c r="D7" s="32">
-        <v>5.67E-2</v>
+        <v>0.19209999999999999</v>
       </c>
       <c r="E7" s="32">
-        <v>4.82E-2</v>
+        <v>0.15840000000000001</v>
       </c>
       <c r="F7" s="32">
-        <v>5.9200000000000003E-2</v>
+        <v>0.18360000000000001</v>
       </c>
       <c r="G7" s="32">
-        <v>5.9499999999999997E-2</v>
+        <v>0.1799</v>
       </c>
       <c r="H7" s="32">
-        <v>6.1199999999999997E-2</v>
+        <v>0.17510000000000001</v>
       </c>
       <c r="I7" s="33">
-        <v>5.4800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.17829999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="31" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="32">
-        <v>0.18820000000000001</v>
+        <v>0.14949999999999999</v>
       </c>
       <c r="D8" s="32">
-        <v>0.34129999999999999</v>
+        <v>0.23949999999999999</v>
       </c>
       <c r="E8" s="32">
-        <v>0.2266</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="F8" s="32">
-        <v>0.49109999999999998</v>
+        <v>0.32640000000000002</v>
       </c>
       <c r="G8" s="32">
-        <v>0.32219999999999999</v>
+        <v>0.2462</v>
       </c>
       <c r="H8" s="32">
-        <v>0.3448</v>
+        <v>0.3458</v>
       </c>
       <c r="I8" s="33">
-        <v>0.27089999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.21609999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="31" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="32">
-        <v>0.95499999999999996</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="D9" s="32">
-        <v>0.88670000000000004</v>
+        <v>0.3211</v>
       </c>
       <c r="E9" s="32">
-        <v>1.2285999999999999</v>
+        <v>0.48580000000000001</v>
       </c>
       <c r="F9" s="32">
-        <v>1.3148</v>
+        <v>1.5152000000000001</v>
       </c>
       <c r="G9" s="32">
-        <v>1.5185999999999999</v>
+        <v>0.54020000000000001</v>
       </c>
       <c r="H9" s="32">
-        <v>1.206</v>
+        <v>0.62580000000000002</v>
       </c>
       <c r="I9" s="33">
-        <v>1.0074000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.46060000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="31" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="32">
-        <v>9.11E-2</v>
+        <v>0.1202</v>
       </c>
       <c r="D10" s="32">
-        <v>0.14219999999999999</v>
+        <v>0.22559999999999999</v>
       </c>
       <c r="E10" s="32">
-        <v>0.14119999999999999</v>
+        <v>0.23019999999999999</v>
       </c>
       <c r="F10" s="32">
-        <v>0.1469</v>
+        <v>0.11360000000000001</v>
       </c>
       <c r="G10" s="32">
-        <v>0.1091</v>
+        <v>0.21</v>
       </c>
       <c r="H10" s="32">
-        <v>0.12770000000000001</v>
+        <v>0.17960000000000001</v>
       </c>
       <c r="I10" s="33">
-        <v>0.1171</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.17080000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="31" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="32">
-        <v>0.45619999999999999</v>
+        <v>0.54559999999999997</v>
       </c>
       <c r="D11" s="32">
-        <v>0.42030000000000001</v>
+        <v>0.6008</v>
       </c>
       <c r="E11" s="32">
-        <v>0.3962</v>
+        <v>0.34739999999999999</v>
       </c>
       <c r="F11" s="32">
-        <v>0.27660000000000001</v>
+        <v>0.36349999999999999</v>
       </c>
       <c r="G11" s="32">
-        <v>0.43</v>
+        <v>0.43120000000000003</v>
       </c>
       <c r="H11" s="32">
-        <v>0.30730000000000002</v>
+        <v>0.30420000000000003</v>
       </c>
       <c r="I11" s="33">
-        <v>0.42349999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.52569999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="31" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="32">
-        <v>0.43869999999999998</v>
+        <v>0.19739999999999999</v>
       </c>
       <c r="D12" s="32">
-        <v>0.51170000000000004</v>
+        <v>0.39250000000000002</v>
       </c>
       <c r="E12" s="32">
-        <v>0.41920000000000002</v>
+        <v>0.2447</v>
       </c>
       <c r="F12" s="32">
-        <v>0.18099999999999999</v>
+        <v>0.28849999999999998</v>
       </c>
       <c r="G12" s="32">
-        <v>0.52949999999999997</v>
+        <v>0.70979999999999999</v>
       </c>
       <c r="H12" s="32">
-        <v>0.64780000000000004</v>
+        <v>0.34460000000000002</v>
       </c>
       <c r="I12" s="33">
-        <v>0.46489999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.30470000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="31" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="32">
-        <v>0.13539999999999999</v>
+        <v>9.6799999999999997E-2</v>
       </c>
       <c r="D13" s="32">
-        <v>0.12640000000000001</v>
+        <v>9.2299999999999993E-2</v>
       </c>
       <c r="E13" s="32">
-        <v>0.1351</v>
+        <v>8.7800000000000003E-2</v>
       </c>
       <c r="F13" s="32">
-        <v>0.11990000000000001</v>
+        <v>0.1258</v>
       </c>
       <c r="G13" s="32">
-        <v>0.13769999999999999</v>
+        <v>0.11269999999999999</v>
       </c>
       <c r="H13" s="32">
-        <v>0.1033</v>
+        <v>0.1426</v>
       </c>
       <c r="I13" s="33">
-        <v>0.1303</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9.8900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="31" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="32">
-        <v>0.39800000000000002</v>
+        <v>0.26790000000000003</v>
       </c>
       <c r="D14" s="32">
-        <v>0.40350000000000003</v>
+        <v>0.38169999999999998</v>
       </c>
       <c r="E14" s="32">
-        <v>0.26519999999999999</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="F14" s="32">
-        <v>0.25319999999999998</v>
+        <v>0.2298</v>
       </c>
       <c r="G14" s="32">
-        <v>0.25740000000000002</v>
+        <v>0.29210000000000003</v>
       </c>
       <c r="H14" s="32">
-        <v>0.13730000000000001</v>
+        <v>0.33119999999999999</v>
       </c>
       <c r="I14" s="33">
-        <v>0.36499999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.31119999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="31" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="32">
-        <v>0.19040000000000001</v>
+        <v>5.1900000000000002E-2</v>
       </c>
       <c r="D15" s="32">
-        <v>7.5300000000000006E-2</v>
+        <v>5.4899999999999997E-2</v>
       </c>
       <c r="E15" s="32">
-        <v>0.15820000000000001</v>
+        <v>8.2699999999999996E-2</v>
       </c>
       <c r="F15" s="32">
-        <v>6.13E-2</v>
+        <v>0.1163</v>
       </c>
       <c r="G15" s="32">
-        <v>7.3200000000000001E-2</v>
+        <v>6.6100000000000006E-2</v>
       </c>
       <c r="H15" s="32">
-        <v>0.11849999999999999</v>
+        <v>5.0500000000000003E-2</v>
       </c>
       <c r="I15" s="33">
-        <v>0.13370000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5.8599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="31" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="32">
-        <v>0.80589999999999995</v>
+        <v>0.79069999999999996</v>
       </c>
       <c r="D16" s="32">
-        <v>0.48020000000000002</v>
+        <v>0.47070000000000001</v>
       </c>
       <c r="E16" s="32">
-        <v>0.48110000000000003</v>
+        <v>0.52669999999999995</v>
       </c>
       <c r="F16" s="32">
-        <v>0.21</v>
+        <v>0.1971</v>
       </c>
       <c r="G16" s="32">
-        <v>0.2447</v>
+        <v>0.68630000000000002</v>
       </c>
       <c r="H16" s="32">
-        <v>0.38800000000000001</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="I16" s="33">
-        <v>0.59719999999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="32">
-        <v>9.2700000000000005E-2</v>
+        <v>0.1206</v>
       </c>
       <c r="D17" s="32">
-        <v>0.12540000000000001</v>
+        <v>0.1104</v>
       </c>
       <c r="E17" s="32">
-        <v>6.4000000000000001E-2</v>
+        <v>0.13059999999999999</v>
       </c>
       <c r="F17" s="32">
-        <v>5.3499999999999999E-2</v>
+        <v>0.14410000000000001</v>
       </c>
       <c r="G17" s="32">
-        <v>3.0099999999999998E-2</v>
+        <v>0.1527</v>
       </c>
       <c r="H17" s="32">
-        <v>0.1305</v>
+        <v>0.1328</v>
       </c>
       <c r="I17" s="33">
-        <v>9.8599999999999993E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.1211</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="43"/>
       <c r="C18" s="44"/>
       <c r="D18" s="44"/>
@@ -14610,7 +14742,7 @@
       <c r="H18" s="44"/>
       <c r="I18" s="45"/>
     </row>
-    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="62" t="s">
         <v>36</v>
       </c>
@@ -14622,345 +14754,345 @@
       <c r="H19" s="63"/>
       <c r="I19" s="64"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="40" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="41">
-        <v>273.67910000000001</v>
+        <v>266.11270000000002</v>
       </c>
       <c r="D20" s="41">
-        <v>271.63900000000001</v>
+        <v>262.89229999999998</v>
       </c>
       <c r="E20" s="41">
-        <v>262.37830000000002</v>
+        <v>253.87440000000001</v>
       </c>
       <c r="F20" s="41">
-        <v>258.69819999999999</v>
+        <v>253.12039999999999</v>
       </c>
       <c r="G20" s="41">
-        <v>271.86020000000002</v>
+        <v>265.8569</v>
       </c>
       <c r="H20" s="41">
-        <v>276.87759999999997</v>
+        <v>264.16149999999999</v>
       </c>
       <c r="I20" s="42">
-        <v>271.52969999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>263.44569999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="31" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="32">
-        <v>74.219099999999997</v>
+        <v>71.886499999999998</v>
       </c>
       <c r="D21" s="32">
-        <v>87.811800000000005</v>
+        <v>84.264200000000002</v>
       </c>
       <c r="E21" s="32">
-        <v>99.911500000000004</v>
+        <v>94.576700000000002</v>
       </c>
       <c r="F21" s="32">
-        <v>96.698099999999997</v>
+        <v>92.145899999999997</v>
       </c>
       <c r="G21" s="32">
-        <v>86.847399999999993</v>
+        <v>83.198499999999996</v>
       </c>
       <c r="H21" s="32">
-        <v>84.8386</v>
+        <v>80.682000000000002</v>
       </c>
       <c r="I21" s="33">
-        <v>82.787300000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>79.581199999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="32">
-        <v>6.7531999999999996</v>
+        <v>6.7106000000000003</v>
       </c>
       <c r="D22" s="32">
-        <v>7.8808999999999996</v>
+        <v>7.7443999999999997</v>
       </c>
       <c r="E22" s="32">
-        <v>6.0449999999999999</v>
+        <v>5.9869000000000003</v>
       </c>
       <c r="F22" s="32">
-        <v>7.4863</v>
+        <v>7.3277999999999999</v>
       </c>
       <c r="G22" s="32">
-        <v>7.0091000000000001</v>
+        <v>6.9134000000000002</v>
       </c>
       <c r="H22" s="32">
-        <v>7.5183999999999997</v>
+        <v>7.2373000000000003</v>
       </c>
       <c r="I22" s="33">
-        <v>7.1712999999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7.0766999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="31" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="32">
-        <v>19.516300000000001</v>
+        <v>18.351500000000001</v>
       </c>
       <c r="D23" s="32">
-        <v>23.116199999999999</v>
+        <v>22.011800000000001</v>
       </c>
       <c r="E23" s="32">
-        <v>23.030200000000001</v>
+        <v>22.214200000000002</v>
       </c>
       <c r="F23" s="32">
-        <v>21.474699999999999</v>
+        <v>21.004000000000001</v>
       </c>
       <c r="G23" s="32">
-        <v>22.228000000000002</v>
+        <v>21.384499999999999</v>
       </c>
       <c r="H23" s="32">
-        <v>28.081600000000002</v>
+        <v>26.547899999999998</v>
       </c>
       <c r="I23" s="33">
-        <v>21.609100000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20.52</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="31" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="32">
-        <v>24.472100000000001</v>
+        <v>24.290900000000001</v>
       </c>
       <c r="D24" s="32">
-        <v>18.319099999999999</v>
+        <v>18.119</v>
       </c>
       <c r="E24" s="32">
-        <v>18.7911</v>
+        <v>19.139900000000001</v>
       </c>
       <c r="F24" s="32">
-        <v>20.311599999999999</v>
+        <v>23.799600000000002</v>
       </c>
       <c r="G24" s="32">
-        <v>23.415099999999999</v>
+        <v>23.5745</v>
       </c>
       <c r="H24" s="32">
-        <v>25.052900000000001</v>
+        <v>24.9877</v>
       </c>
       <c r="I24" s="33">
-        <v>21.761700000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>21.7989</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="31" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="32">
-        <v>15.9543</v>
+        <v>15.334199999999999</v>
       </c>
       <c r="D25" s="32">
-        <v>16.167300000000001</v>
+        <v>15.6305</v>
       </c>
       <c r="E25" s="32">
-        <v>14.915100000000001</v>
+        <v>14.507400000000001</v>
       </c>
       <c r="F25" s="32">
-        <v>19.460999999999999</v>
+        <v>18.5304</v>
       </c>
       <c r="G25" s="32">
-        <v>15.748799999999999</v>
+        <v>15.2112</v>
       </c>
       <c r="H25" s="32">
-        <v>18.5078</v>
+        <v>17.421399999999998</v>
       </c>
       <c r="I25" s="33">
-        <v>16.219799999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15.611800000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="31" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="32">
-        <v>26.116599999999998</v>
+        <v>25.829000000000001</v>
       </c>
       <c r="D26" s="32">
-        <v>26.243500000000001</v>
+        <v>25.952000000000002</v>
       </c>
       <c r="E26" s="32">
-        <v>20.054600000000001</v>
+        <v>19.4451</v>
       </c>
       <c r="F26" s="32">
-        <v>16.668900000000001</v>
+        <v>16.398</v>
       </c>
       <c r="G26" s="32">
-        <v>25.357700000000001</v>
+        <v>24.579599999999999</v>
       </c>
       <c r="H26" s="32">
-        <v>15.832100000000001</v>
+        <v>15.259499999999999</v>
       </c>
       <c r="I26" s="33">
-        <v>24.807600000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+        <v>24.4587</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="31" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="32">
-        <v>32.602200000000003</v>
+        <v>31.003499999999999</v>
       </c>
       <c r="D27" s="32">
-        <v>32.613199999999999</v>
+        <v>31.392600000000002</v>
       </c>
       <c r="E27" s="32">
-        <v>24.673500000000001</v>
+        <v>23.601199999999999</v>
       </c>
       <c r="F27" s="32">
-        <v>31.1966</v>
+        <v>29.8001</v>
       </c>
       <c r="G27" s="32">
-        <v>37.719099999999997</v>
+        <v>37.241399999999999</v>
       </c>
       <c r="H27" s="32">
-        <v>44.152700000000003</v>
+        <v>40.8078</v>
       </c>
       <c r="I27" s="33">
-        <v>32.79</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31.344200000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="31" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="32">
-        <v>7.4682000000000004</v>
+        <v>7.1302000000000003</v>
       </c>
       <c r="D28" s="32">
-        <v>7.3689</v>
+        <v>6.9105999999999996</v>
       </c>
       <c r="E28" s="32">
-        <v>6.5911</v>
+        <v>6.2911000000000001</v>
       </c>
       <c r="F28" s="32">
-        <v>7.2365000000000004</v>
+        <v>6.9634999999999998</v>
       </c>
       <c r="G28" s="32">
-        <v>5.7149999999999999</v>
+        <v>5.5921000000000003</v>
       </c>
       <c r="H28" s="32">
-        <v>6.7792000000000003</v>
+        <v>6.5476999999999999</v>
       </c>
       <c r="I28" s="33">
-        <v>7.2412000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6.8836000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="31" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="32">
-        <v>19.470500000000001</v>
+        <v>18.876899999999999</v>
       </c>
       <c r="D29" s="32">
-        <v>17.2121</v>
+        <v>16.8249</v>
       </c>
       <c r="E29" s="32">
-        <v>13.086</v>
+        <v>13.1732</v>
       </c>
       <c r="F29" s="32">
-        <v>14.2826</v>
+        <v>13.7226</v>
       </c>
       <c r="G29" s="32">
-        <v>15.402100000000001</v>
+        <v>14.9857</v>
       </c>
       <c r="H29" s="32">
-        <v>18.353300000000001</v>
+        <v>17.751799999999999</v>
       </c>
       <c r="I29" s="33">
-        <v>17.763300000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17.297499999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="31" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="32">
-        <v>6.7157999999999998</v>
+        <v>6.4077000000000002</v>
       </c>
       <c r="D30" s="32">
-        <v>2.3732000000000002</v>
+        <v>2.3260999999999998</v>
       </c>
       <c r="E30" s="32">
-        <v>3.6349</v>
+        <v>3.6293000000000002</v>
       </c>
       <c r="F30" s="32">
-        <v>1.8635999999999999</v>
+        <v>2.0642</v>
       </c>
       <c r="G30" s="32">
-        <v>3.0316999999999998</v>
+        <v>3.0169999999999999</v>
       </c>
       <c r="H30" s="32">
-        <v>2.9573999999999998</v>
+        <v>2.8727999999999998</v>
       </c>
       <c r="I30" s="33">
-        <v>4.4377000000000004</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4.2880000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="31" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="32">
-        <v>30.538699999999999</v>
+        <v>30.777899999999999</v>
       </c>
       <c r="D31" s="32">
-        <v>22.328299999999999</v>
+        <v>21.909099999999999</v>
       </c>
       <c r="E31" s="32">
-        <v>21.950700000000001</v>
+        <v>21.879899999999999</v>
       </c>
       <c r="F31" s="32">
-        <v>12.428000000000001</v>
+        <v>12.012499999999999</v>
       </c>
       <c r="G31" s="32">
-        <v>18.895600000000002</v>
+        <v>19.9298</v>
       </c>
       <c r="H31" s="32">
-        <v>14.2805</v>
+        <v>14.0641</v>
       </c>
       <c r="I31" s="33">
-        <v>24.977799999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>24.961400000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="34" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="35">
-        <v>9.8498000000000001</v>
+        <v>9.5104000000000006</v>
       </c>
       <c r="D32" s="35">
-        <v>10.206300000000001</v>
+        <v>9.8079000000000001</v>
       </c>
       <c r="E32" s="35">
-        <v>9.6963000000000008</v>
+        <v>9.4313000000000002</v>
       </c>
       <c r="F32" s="35">
-        <v>9.5862999999999996</v>
+        <v>9.3466000000000005</v>
       </c>
       <c r="G32" s="35">
-        <v>10.4838</v>
+        <v>10.2232</v>
       </c>
       <c r="H32" s="35">
-        <v>10.517899999999999</v>
+        <v>9.9777000000000005</v>
       </c>
       <c r="I32" s="36">
-        <v>10.012600000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9.6576000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="68" t="s">
         <v>38</v>
       </c>

--- a/assets/excel/IPCse - Series históricas.xlsx
+++ b/assets/excel/IPCse - Series históricas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fiona\Dropbox\MGR\IPC seasonal adjustment\IPCse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A54FC34-2E8C-4F01-ACB9-8F6784DDFCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAFC9B2-4B87-424C-B968-79C49A2AF62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="624" yWindow="636" windowWidth="23040" windowHeight="13608" activeTab="2" xr2:uid="{A81B6F3A-9175-42CA-B78F-287A4E3C6249}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="1" xr2:uid="{A81B6F3A-9175-42CA-B78F-287A4E3C6249}"/>
   </bookViews>
   <sheets>
     <sheet name="Índices" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="47">
   <si>
     <t>Fecha</t>
   </si>
@@ -183,9 +183,6 @@
     <t>IPCse NACIONAL</t>
   </si>
   <si>
-    <t>Feb.</t>
-  </si>
-  <si>
     <t>Mar.</t>
   </si>
   <si>
@@ -199,6 +196,12 @@
   </si>
   <si>
     <t>Jul.</t>
+  </si>
+  <si>
+    <t>Ago.</t>
+  </si>
+  <si>
+    <t>Ago. 2024/Ago. 2023</t>
   </si>
 </sst>
 </file>
@@ -1243,14 +1246,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA821952-0137-4F39-844C-15CA99AC928E}">
-  <dimension ref="B1:V96"/>
+  <dimension ref="B1:V97"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="78" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C79" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
-      <selection pane="bottomRight" activeCell="C96" sqref="C96"/>
+      <selection pane="bottomRight" activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5546875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -7299,69 +7302,134 @@
         <v>6452.8719000000001</v>
       </c>
     </row>
-    <row r="96" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="14">
+    <row r="96" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B96" s="13">
         <v>45474</v>
       </c>
-      <c r="C96" s="18">
+      <c r="C96" s="15">
         <v>6638.8073000000004</v>
       </c>
-      <c r="D96" s="19">
+      <c r="D96" s="16">
         <v>6568.8379999999997</v>
       </c>
-      <c r="E96" s="19">
+      <c r="E96" s="16">
         <v>6688.0135</v>
       </c>
-      <c r="F96" s="19">
+      <c r="F96" s="16">
         <v>6639.5613999999996</v>
       </c>
-      <c r="G96" s="19">
+      <c r="G96" s="16">
         <v>6721.6724000000004</v>
       </c>
-      <c r="H96" s="19">
+      <c r="H96" s="16">
         <v>6782.4107999999997</v>
       </c>
-      <c r="I96" s="20">
+      <c r="I96" s="17">
         <v>6519.8887000000004</v>
       </c>
-      <c r="J96" s="19">
+      <c r="J96" s="16">
         <v>7414.0300999999999</v>
       </c>
-      <c r="K96" s="19">
+      <c r="K96" s="16">
         <v>5240.8603000000003</v>
       </c>
-      <c r="L96" s="19">
+      <c r="L96" s="16">
         <v>5867.4665000000005</v>
       </c>
-      <c r="M96" s="19">
+      <c r="M96" s="16">
         <v>5605.2803000000004</v>
       </c>
-      <c r="N96" s="19">
+      <c r="N96" s="16">
         <v>6279.5263999999997</v>
       </c>
-      <c r="O96" s="19">
+      <c r="O96" s="16">
         <v>7557.0290000000005</v>
       </c>
-      <c r="P96" s="19">
+      <c r="P96" s="16">
         <v>6995.6211000000003</v>
       </c>
-      <c r="Q96" s="19">
+      <c r="Q96" s="16">
         <v>5864.5308999999997</v>
       </c>
-      <c r="R96" s="19">
+      <c r="R96" s="16">
         <v>6057.9207999999999</v>
       </c>
-      <c r="S96" s="19">
+      <c r="S96" s="16">
         <v>4597.3388999999997</v>
       </c>
-      <c r="T96" s="19">
+      <c r="T96" s="16">
         <v>7057.2272000000003</v>
       </c>
-      <c r="U96" s="20">
+      <c r="U96" s="17">
         <v>6554.3981999999996</v>
       </c>
-      <c r="V96" s="18">
+      <c r="V96" s="15">
         <v>6714.0612000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="14">
+        <v>45505</v>
+      </c>
+      <c r="C97" s="18">
+        <v>6907.0014000000001</v>
+      </c>
+      <c r="D97" s="19">
+        <v>6831.7736000000004</v>
+      </c>
+      <c r="E97" s="19">
+        <v>6948.5261</v>
+      </c>
+      <c r="F97" s="19">
+        <v>6959.9804999999997</v>
+      </c>
+      <c r="G97" s="19">
+        <v>6995.3068999999996</v>
+      </c>
+      <c r="H97" s="19">
+        <v>7085.5459000000001</v>
+      </c>
+      <c r="I97" s="20">
+        <v>6800.0729000000001</v>
+      </c>
+      <c r="J97" s="19">
+        <v>7668.5901000000003</v>
+      </c>
+      <c r="K97" s="19">
+        <v>5414.2434000000003</v>
+      </c>
+      <c r="L97" s="19">
+        <v>5974.4916999999996</v>
+      </c>
+      <c r="M97" s="19">
+        <v>6002.8915999999999</v>
+      </c>
+      <c r="N97" s="19">
+        <v>6532.7856000000002</v>
+      </c>
+      <c r="O97" s="19">
+        <v>7867.9616999999998</v>
+      </c>
+      <c r="P97" s="19">
+        <v>7348.9357</v>
+      </c>
+      <c r="Q97" s="19">
+        <v>6182.0303999999996</v>
+      </c>
+      <c r="R97" s="19">
+        <v>6250.6403</v>
+      </c>
+      <c r="S97" s="19">
+        <v>4897.6342999999997</v>
+      </c>
+      <c r="T97" s="19">
+        <v>7400.9742999999999</v>
+      </c>
+      <c r="U97" s="20">
+        <v>6695.4775</v>
+      </c>
+      <c r="V97" s="18">
+        <v>6942.3297000000002</v>
       </c>
     </row>
   </sheetData>
@@ -7377,14 +7445,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED968B30-91AE-4BCD-9838-818BA334E48C}">
-  <dimension ref="B1:V96"/>
+  <dimension ref="B1:V97"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="83" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C79" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="83" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="G69" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
-      <selection pane="bottomRight" activeCell="C96" sqref="C96"/>
+      <selection pane="bottomRight" activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5546875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -13393,69 +13461,134 @@
         <v>3.8534999999999999</v>
       </c>
     </row>
-    <row r="96" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="48">
+    <row r="96" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B96" s="13">
         <v>45474</v>
       </c>
-      <c r="C96" s="18">
+      <c r="C96" s="15">
         <v>4.1971999999999996</v>
       </c>
-      <c r="D96" s="19">
+      <c r="D96" s="16">
         <v>4.0438999999999998</v>
       </c>
-      <c r="E96" s="19">
+      <c r="E96" s="16">
         <v>4.2474999999999996</v>
       </c>
-      <c r="F96" s="19">
+      <c r="F96" s="16">
         <v>3.8986000000000001</v>
       </c>
-      <c r="G96" s="19">
+      <c r="G96" s="16">
         <v>4.6962999999999999</v>
       </c>
-      <c r="H96" s="19">
+      <c r="H96" s="16">
         <v>4.7093999999999996</v>
       </c>
-      <c r="I96" s="20">
+      <c r="I96" s="17">
         <v>4.0797999999999996</v>
       </c>
-      <c r="J96" s="19">
+      <c r="J96" s="16">
         <v>3.7412000000000001</v>
       </c>
-      <c r="K96" s="19">
+      <c r="K96" s="16">
         <v>6.6322000000000001</v>
       </c>
-      <c r="L96" s="19">
+      <c r="L96" s="16">
         <v>2.3662999999999998</v>
       </c>
-      <c r="M96" s="19">
+      <c r="M96" s="16">
         <v>6.0595999999999997</v>
       </c>
-      <c r="N96" s="19">
+      <c r="N96" s="16">
         <v>2.8149000000000002</v>
       </c>
-      <c r="O96" s="19">
+      <c r="O96" s="16">
         <v>5.8498000000000001</v>
       </c>
-      <c r="P96" s="19">
+      <c r="P96" s="16">
         <v>2.6294</v>
       </c>
-      <c r="Q96" s="19">
+      <c r="Q96" s="16">
         <v>3.9626999999999999</v>
       </c>
-      <c r="R96" s="19">
+      <c r="R96" s="16">
         <v>4.7354000000000003</v>
       </c>
-      <c r="S96" s="19">
+      <c r="S96" s="16">
         <v>4.1383000000000001</v>
       </c>
-      <c r="T96" s="19">
+      <c r="T96" s="16">
         <v>6.4252000000000002</v>
       </c>
-      <c r="U96" s="20">
+      <c r="U96" s="17">
         <v>3.4597000000000002</v>
       </c>
-      <c r="V96" s="18">
+      <c r="V96" s="15">
         <v>4.0476000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="48">
+        <v>45505</v>
+      </c>
+      <c r="C97" s="18">
+        <v>4.0397999999999996</v>
+      </c>
+      <c r="D97" s="19">
+        <v>4.0027999999999997</v>
+      </c>
+      <c r="E97" s="19">
+        <v>3.8952</v>
+      </c>
+      <c r="F97" s="19">
+        <v>4.8258999999999999</v>
+      </c>
+      <c r="G97" s="19">
+        <v>4.0709</v>
+      </c>
+      <c r="H97" s="19">
+        <v>4.4694000000000003</v>
+      </c>
+      <c r="I97" s="20">
+        <v>4.2973999999999997</v>
+      </c>
+      <c r="J97" s="19">
+        <v>3.4335</v>
+      </c>
+      <c r="K97" s="19">
+        <v>3.3083</v>
+      </c>
+      <c r="L97" s="19">
+        <v>1.8240000000000001</v>
+      </c>
+      <c r="M97" s="19">
+        <v>7.0934999999999997</v>
+      </c>
+      <c r="N97" s="19">
+        <v>4.0331000000000001</v>
+      </c>
+      <c r="O97" s="19">
+        <v>4.1144999999999996</v>
+      </c>
+      <c r="P97" s="19">
+        <v>5.0505000000000004</v>
+      </c>
+      <c r="Q97" s="19">
+        <v>5.4138999999999999</v>
+      </c>
+      <c r="R97" s="19">
+        <v>3.1812999999999998</v>
+      </c>
+      <c r="S97" s="19">
+        <v>6.5319000000000003</v>
+      </c>
+      <c r="T97" s="19">
+        <v>4.8708999999999998</v>
+      </c>
+      <c r="U97" s="20">
+        <v>2.1524000000000001</v>
+      </c>
+      <c r="V97" s="18">
+        <v>3.3999000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -13473,8 +13606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83293D6D-81C8-49B2-8C10-806B04E884B0}">
   <dimension ref="B1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView showGridLines="0" zoomScale="116" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13525,9 +13658,8 @@
       <c r="F4" s="65"/>
       <c r="G4" s="65"/>
       <c r="H4" s="65"/>
-      <c r="I4" s="23" t="str">
-        <f>+_xlfn.CONCAT(H5, " ", C4, "/", H5, " ", C4-1)</f>
-        <v>Jul. 2024/Jul. 2023</v>
+      <c r="I4" s="23" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
@@ -13557,25 +13689,25 @@
         <v>18</v>
       </c>
       <c r="C6" s="27">
-        <v>13.4008</v>
+        <v>10.164400000000001</v>
       </c>
       <c r="D6" s="27">
-        <v>10.164400000000001</v>
+        <v>8.7431999999999999</v>
       </c>
       <c r="E6" s="27">
-        <v>8.7431999999999999</v>
+        <v>4.5728999999999997</v>
       </c>
       <c r="F6" s="27">
-        <v>4.5728999999999997</v>
+        <v>4.7572999999999999</v>
       </c>
       <c r="G6" s="27">
-        <v>4.7572999999999999</v>
+        <v>4.1971999999999996</v>
       </c>
       <c r="H6" s="27">
-        <v>4.1971999999999996</v>
+        <v>4.0397999999999996</v>
       </c>
       <c r="I6" s="28">
-        <v>263.44569999999999</v>
+        <v>236.7166</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -13595,25 +13727,25 @@
         <v>19</v>
       </c>
       <c r="C8" s="32">
-        <v>15.286</v>
+        <v>10.3573</v>
       </c>
       <c r="D8" s="32">
-        <v>10.3573</v>
+        <v>9.1841000000000008</v>
       </c>
       <c r="E8" s="32">
-        <v>9.1841000000000008</v>
+        <v>4.7674000000000003</v>
       </c>
       <c r="F8" s="32">
-        <v>4.7674000000000003</v>
+        <v>4.5137999999999998</v>
       </c>
       <c r="G8" s="32">
-        <v>4.5137999999999998</v>
+        <v>4.0438999999999998</v>
       </c>
       <c r="H8" s="32">
-        <v>4.0438999999999998</v>
+        <v>4.0027999999999997</v>
       </c>
       <c r="I8" s="33">
-        <v>266.11270000000002</v>
+        <v>239.62440000000001</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
@@ -13621,25 +13753,25 @@
         <v>2</v>
       </c>
       <c r="C9" s="32">
-        <v>11.950900000000001</v>
+        <v>10.5008</v>
       </c>
       <c r="D9" s="32">
-        <v>10.5008</v>
+        <v>8.6998999999999995</v>
       </c>
       <c r="E9" s="32">
-        <v>8.6998999999999995</v>
+        <v>4.3362999999999996</v>
       </c>
       <c r="F9" s="32">
-        <v>4.3362999999999996</v>
+        <v>5.0039999999999996</v>
       </c>
       <c r="G9" s="32">
-        <v>5.0039999999999996</v>
+        <v>4.2474999999999996</v>
       </c>
       <c r="H9" s="32">
-        <v>4.2474999999999996</v>
+        <v>3.8952</v>
       </c>
       <c r="I9" s="33">
-        <v>262.89229999999998</v>
+        <v>235.94630000000001</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
@@ -13647,25 +13779,25 @@
         <v>3</v>
       </c>
       <c r="C10" s="32">
-        <v>11.765000000000001</v>
+        <v>8.0137999999999998</v>
       </c>
       <c r="D10" s="32">
-        <v>8.0137999999999998</v>
+        <v>9.0043000000000006</v>
       </c>
       <c r="E10" s="32">
-        <v>9.0043000000000006</v>
+        <v>4.5412999999999997</v>
       </c>
       <c r="F10" s="32">
-        <v>4.5412999999999997</v>
+        <v>5.0018000000000002</v>
       </c>
       <c r="G10" s="32">
-        <v>5.0018000000000002</v>
+        <v>3.8986000000000001</v>
       </c>
       <c r="H10" s="32">
-        <v>3.8986000000000001</v>
+        <v>4.8258999999999999</v>
       </c>
       <c r="I10" s="33">
-        <v>253.87440000000001</v>
+        <v>226.99420000000001</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
@@ -13673,25 +13805,25 @@
         <v>4</v>
       </c>
       <c r="C11" s="32">
-        <v>10.963900000000001</v>
+        <v>10.056800000000001</v>
       </c>
       <c r="D11" s="32">
-        <v>10.056800000000001</v>
+        <v>6.3064999999999998</v>
       </c>
       <c r="E11" s="32">
-        <v>6.3064999999999998</v>
+        <v>4.1321000000000003</v>
       </c>
       <c r="F11" s="32">
-        <v>4.1321000000000003</v>
+        <v>4.7289000000000003</v>
       </c>
       <c r="G11" s="32">
-        <v>4.7289000000000003</v>
+        <v>4.6962999999999999</v>
       </c>
       <c r="H11" s="32">
-        <v>4.6962999999999999</v>
+        <v>4.0709</v>
       </c>
       <c r="I11" s="33">
-        <v>253.12039999999999</v>
+        <v>222.76679999999999</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
@@ -13699,25 +13831,25 @@
         <v>5</v>
       </c>
       <c r="C12" s="32">
-        <v>13.427899999999999</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="D12" s="32">
-        <v>8.7100000000000009</v>
+        <v>8.0625</v>
       </c>
       <c r="E12" s="32">
-        <v>8.0625</v>
+        <v>4.6234999999999999</v>
       </c>
       <c r="F12" s="32">
-        <v>4.6234999999999999</v>
+        <v>5.1580000000000004</v>
       </c>
       <c r="G12" s="32">
-        <v>5.1580000000000004</v>
+        <v>4.7093999999999996</v>
       </c>
       <c r="H12" s="32">
-        <v>4.7093999999999996</v>
+        <v>4.4694000000000003</v>
       </c>
       <c r="I12" s="33">
-        <v>265.8569</v>
+        <v>240.42150000000001</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
@@ -13725,25 +13857,25 @@
         <v>6</v>
       </c>
       <c r="C13" s="32">
-        <v>11.549300000000001</v>
+        <v>9.9405999999999999</v>
       </c>
       <c r="D13" s="32">
-        <v>9.9405999999999999</v>
+        <v>8.4405000000000001</v>
       </c>
       <c r="E13" s="32">
-        <v>8.4405000000000001</v>
+        <v>4.8232999999999997</v>
       </c>
       <c r="F13" s="32">
-        <v>4.8232999999999997</v>
+        <v>5.0720999999999998</v>
       </c>
       <c r="G13" s="32">
-        <v>5.0720999999999998</v>
+        <v>4.0797999999999996</v>
       </c>
       <c r="H13" s="32">
-        <v>4.0797999999999996</v>
+        <v>4.2973999999999997</v>
       </c>
       <c r="I13" s="33">
-        <v>264.16149999999999</v>
+        <v>239.6962</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
@@ -13773,25 +13905,25 @@
         <v>20</v>
       </c>
       <c r="C16" s="32">
-        <v>11.379200000000001</v>
+        <v>9.5661000000000005</v>
       </c>
       <c r="D16" s="32">
-        <v>9.5661000000000005</v>
+        <v>6.1928000000000001</v>
       </c>
       <c r="E16" s="32">
-        <v>6.1928000000000001</v>
+        <v>5.7142999999999997</v>
       </c>
       <c r="F16" s="32">
-        <v>5.7142999999999997</v>
+        <v>3.5796000000000001</v>
       </c>
       <c r="G16" s="32">
-        <v>3.5796000000000001</v>
+        <v>3.7412000000000001</v>
       </c>
       <c r="H16" s="32">
-        <v>3.7412000000000001</v>
+        <v>3.4335</v>
       </c>
       <c r="I16" s="33">
-        <v>275.81830000000002</v>
+        <v>236.9188</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
@@ -13799,25 +13931,25 @@
         <v>21</v>
       </c>
       <c r="C17" s="32">
-        <v>18.6081</v>
+        <v>11.4427</v>
       </c>
       <c r="D17" s="32">
-        <v>11.4427</v>
+        <v>6.5521000000000003</v>
       </c>
       <c r="E17" s="32">
-        <v>6.5521000000000003</v>
+        <v>7.3403</v>
       </c>
       <c r="F17" s="32">
-        <v>7.3403</v>
+        <v>1.9865999999999999</v>
       </c>
       <c r="G17" s="32">
-        <v>1.9865999999999999</v>
+        <v>6.6322000000000001</v>
       </c>
       <c r="H17" s="32">
-        <v>6.6322000000000001</v>
+        <v>3.3083</v>
       </c>
       <c r="I17" s="33">
-        <v>248.1456</v>
+        <v>230.68799999999999</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
@@ -13825,25 +13957,25 @@
         <v>22</v>
       </c>
       <c r="C18" s="32">
-        <v>9.5421999999999993</v>
+        <v>6.9301000000000004</v>
       </c>
       <c r="D18" s="32">
-        <v>6.9301000000000004</v>
+        <v>7.2812000000000001</v>
       </c>
       <c r="E18" s="32">
-        <v>7.2812000000000001</v>
+        <v>4.4522000000000004</v>
       </c>
       <c r="F18" s="32">
-        <v>4.4522000000000004</v>
+        <v>2.9434</v>
       </c>
       <c r="G18" s="32">
-        <v>2.9434</v>
+        <v>2.3662999999999998</v>
       </c>
       <c r="H18" s="32">
-        <v>2.3662999999999998</v>
+        <v>1.8240000000000001</v>
       </c>
       <c r="I18" s="33">
-        <v>185.2474</v>
+        <v>166.72710000000001</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
@@ -13851,25 +13983,25 @@
         <v>23</v>
       </c>
       <c r="C19" s="32">
-        <v>20.098299999999998</v>
+        <v>13.2197</v>
       </c>
       <c r="D19" s="32">
-        <v>13.2197</v>
+        <v>35.386299999999999</v>
       </c>
       <c r="E19" s="32">
-        <v>35.386299999999999</v>
+        <v>2.5518000000000001</v>
       </c>
       <c r="F19" s="32">
-        <v>2.5518000000000001</v>
+        <v>14.4078</v>
       </c>
       <c r="G19" s="32">
-        <v>14.4078</v>
+        <v>6.0595999999999997</v>
       </c>
       <c r="H19" s="32">
-        <v>6.0595999999999997</v>
+        <v>7.0934999999999997</v>
       </c>
       <c r="I19" s="33">
-        <v>306.61880000000002</v>
+        <v>298.84190000000001</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
@@ -13877,25 +14009,25 @@
         <v>24</v>
       </c>
       <c r="C20" s="32">
-        <v>10.5862</v>
+        <v>5.1493000000000002</v>
       </c>
       <c r="D20" s="32">
-        <v>5.1493000000000002</v>
+        <v>6.7298999999999998</v>
       </c>
       <c r="E20" s="32">
-        <v>6.7298999999999998</v>
+        <v>3.46</v>
       </c>
       <c r="F20" s="32">
-        <v>3.46</v>
+        <v>1.8645</v>
       </c>
       <c r="G20" s="32">
-        <v>1.8645</v>
+        <v>2.8149000000000002</v>
       </c>
       <c r="H20" s="32">
-        <v>2.8149000000000002</v>
+        <v>4.0331000000000001</v>
       </c>
       <c r="I20" s="33">
-        <v>244.66159999999999</v>
+        <v>215.05199999999999</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
@@ -13903,25 +14035,25 @@
         <v>25</v>
       </c>
       <c r="C21" s="32">
-        <v>13.5733</v>
+        <v>12.2319</v>
       </c>
       <c r="D21" s="32">
-        <v>12.2319</v>
+        <v>9.1309000000000005</v>
       </c>
       <c r="E21" s="32">
-        <v>9.1309000000000005</v>
+        <v>0.69</v>
       </c>
       <c r="F21" s="32">
-        <v>0.69</v>
+        <v>4.7492000000000001</v>
       </c>
       <c r="G21" s="32">
-        <v>4.7492000000000001</v>
+        <v>5.8498000000000001</v>
       </c>
       <c r="H21" s="32">
-        <v>5.8498000000000001</v>
+        <v>4.1144999999999996</v>
       </c>
       <c r="I21" s="33">
-        <v>281.32909999999998</v>
+        <v>244.52340000000001</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
@@ -13929,25 +14061,25 @@
         <v>26</v>
       </c>
       <c r="C22" s="32">
-        <v>21.3124</v>
+        <v>12.997999999999999</v>
       </c>
       <c r="D22" s="32">
-        <v>12.997999999999999</v>
+        <v>6.2891000000000004</v>
       </c>
       <c r="E22" s="32">
-        <v>6.2891000000000004</v>
+        <v>3.9729000000000001</v>
       </c>
       <c r="F22" s="32">
-        <v>3.9729000000000001</v>
+        <v>3.9338000000000002</v>
       </c>
       <c r="G22" s="32">
-        <v>3.9338000000000002</v>
+        <v>2.6294</v>
       </c>
       <c r="H22" s="32">
-        <v>2.6294</v>
+        <v>5.0505000000000004</v>
       </c>
       <c r="I22" s="33">
-        <v>289.50560000000002</v>
+        <v>270.62439999999998</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
@@ -13955,25 +14087,25 @@
         <v>27</v>
       </c>
       <c r="C23" s="32">
-        <v>24.742799999999999</v>
+        <v>15.887</v>
       </c>
       <c r="D23" s="32">
-        <v>15.887</v>
+        <v>14.7713</v>
       </c>
       <c r="E23" s="32">
-        <v>14.7713</v>
+        <v>8.6944999999999997</v>
       </c>
       <c r="F23" s="32">
-        <v>8.6944999999999997</v>
+        <v>5.2653999999999996</v>
       </c>
       <c r="G23" s="32">
-        <v>5.2653999999999996</v>
+        <v>3.9626999999999999</v>
       </c>
       <c r="H23" s="32">
-        <v>3.9626999999999999</v>
+        <v>5.4138999999999999</v>
       </c>
       <c r="I23" s="33">
-        <v>318.54559999999998</v>
+        <v>319.99740000000003</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
@@ -13981,25 +14113,25 @@
         <v>28</v>
       </c>
       <c r="C24" s="32">
-        <v>9.5474999999999994</v>
+        <v>9.0190000000000001</v>
       </c>
       <c r="D24" s="32">
-        <v>9.0190000000000001</v>
+        <v>7.3421000000000003</v>
       </c>
       <c r="E24" s="32">
-        <v>7.3421000000000003</v>
+        <v>4.5571000000000002</v>
       </c>
       <c r="F24" s="32">
-        <v>4.5571000000000002</v>
+        <v>5.5656999999999996</v>
       </c>
       <c r="G24" s="32">
-        <v>5.5656999999999996</v>
+        <v>4.7354000000000003</v>
       </c>
       <c r="H24" s="32">
-        <v>4.7354000000000003</v>
+        <v>3.1812999999999998</v>
       </c>
       <c r="I24" s="33">
-        <v>248.93469999999999</v>
+        <v>224.20849999999999</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
@@ -14007,25 +14139,25 @@
         <v>29</v>
       </c>
       <c r="C25" s="32">
-        <v>11.2354</v>
+        <v>29.938800000000001</v>
       </c>
       <c r="D25" s="32">
-        <v>29.938800000000001</v>
+        <v>10.162800000000001</v>
       </c>
       <c r="E25" s="32">
-        <v>10.162800000000001</v>
+        <v>8.6125000000000007</v>
       </c>
       <c r="F25" s="32">
-        <v>8.6125000000000007</v>
+        <v>8.3085000000000004</v>
       </c>
       <c r="G25" s="32">
-        <v>8.3085000000000004</v>
+        <v>4.1383000000000001</v>
       </c>
       <c r="H25" s="32">
-        <v>4.1383000000000001</v>
+        <v>6.5319000000000003</v>
       </c>
       <c r="I25" s="33">
-        <v>214.24850000000001</v>
+        <v>208.1643</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
@@ -14033,25 +14165,25 @@
         <v>30</v>
       </c>
       <c r="C26" s="32">
-        <v>11.1287</v>
+        <v>8.3148</v>
       </c>
       <c r="D26" s="32">
-        <v>8.3148</v>
+        <v>7.2893999999999997</v>
       </c>
       <c r="E26" s="32">
-        <v>7.2893999999999997</v>
+        <v>5.5715000000000003</v>
       </c>
       <c r="F26" s="32">
-        <v>5.5715000000000003</v>
+        <v>6.3105000000000002</v>
       </c>
       <c r="G26" s="32">
-        <v>6.3105000000000002</v>
+        <v>6.4252000000000002</v>
       </c>
       <c r="H26" s="32">
-        <v>6.4252000000000002</v>
+        <v>4.8708999999999998</v>
       </c>
       <c r="I26" s="33">
-        <v>247.6943</v>
+        <v>224.1858</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
@@ -14059,25 +14191,25 @@
         <v>31</v>
       </c>
       <c r="C27" s="32">
-        <v>16.633199999999999</v>
+        <v>9.6061999999999994</v>
       </c>
       <c r="D27" s="32">
-        <v>9.6061999999999994</v>
+        <v>5.7464000000000004</v>
       </c>
       <c r="E27" s="32">
-        <v>5.7464000000000004</v>
+        <v>4.3890000000000002</v>
       </c>
       <c r="F27" s="32">
-        <v>4.3890000000000002</v>
+        <v>2.7564000000000002</v>
       </c>
       <c r="G27" s="32">
-        <v>2.7564000000000002</v>
+        <v>3.4597000000000002</v>
       </c>
       <c r="H27" s="32">
-        <v>3.4597000000000002</v>
+        <v>2.1524000000000001</v>
       </c>
       <c r="I27" s="33">
-        <v>320.54309999999998</v>
+        <v>293.25510000000003</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
@@ -14107,25 +14239,25 @@
         <v>33</v>
       </c>
       <c r="C30" s="32">
-        <v>11.286099999999999</v>
+        <v>8.5932999999999993</v>
       </c>
       <c r="D30" s="32">
-        <v>8.5932999999999993</v>
+        <v>6.6547000000000001</v>
       </c>
       <c r="E30" s="32">
-        <v>6.6547000000000001</v>
+        <v>5.1981999999999999</v>
       </c>
       <c r="F30" s="32">
-        <v>5.1981999999999999</v>
+        <v>3.8534999999999999</v>
       </c>
       <c r="G30" s="32">
-        <v>3.8534999999999999</v>
+        <v>4.0476000000000001</v>
       </c>
       <c r="H30" s="32">
-        <v>4.0476000000000001</v>
+        <v>3.3999000000000001</v>
       </c>
       <c r="I30" s="33">
-        <v>252.4357</v>
+        <v>222.95750000000001</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
@@ -14133,25 +14265,25 @@
         <v>19</v>
       </c>
       <c r="C31" s="32">
-        <v>11.7393</v>
+        <v>8.7751000000000001</v>
       </c>
       <c r="D31" s="32">
-        <v>8.7751000000000001</v>
+        <v>6.6711</v>
       </c>
       <c r="E31" s="32">
-        <v>6.6711</v>
+        <v>5.5831999999999997</v>
       </c>
       <c r="F31" s="32">
-        <v>5.5831999999999997</v>
+        <v>3.5466000000000002</v>
       </c>
       <c r="G31" s="32">
-        <v>3.5466000000000002</v>
+        <v>4.1664000000000003</v>
       </c>
       <c r="H31" s="32">
-        <v>4.1664000000000003</v>
+        <v>3.0066000000000002</v>
       </c>
       <c r="I31" s="33">
-        <v>254.2841</v>
+        <v>224.75120000000001</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
@@ -14159,25 +14291,25 @@
         <v>2</v>
       </c>
       <c r="C32" s="32">
-        <v>11.063000000000001</v>
+        <v>8.8963000000000001</v>
       </c>
       <c r="D32" s="32">
-        <v>8.8963000000000001</v>
+        <v>6.6332000000000004</v>
       </c>
       <c r="E32" s="32">
-        <v>6.6332000000000004</v>
+        <v>5.0351999999999997</v>
       </c>
       <c r="F32" s="32">
-        <v>5.0351999999999997</v>
+        <v>4.3135000000000003</v>
       </c>
       <c r="G32" s="32">
-        <v>4.3135000000000003</v>
+        <v>4.0545</v>
       </c>
       <c r="H32" s="32">
-        <v>4.0545</v>
+        <v>3.5581999999999998</v>
       </c>
       <c r="I32" s="33">
-        <v>253.548</v>
+        <v>224.43610000000001</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
@@ -14185,25 +14317,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="32">
-        <v>10.1144</v>
+        <v>6.8185000000000002</v>
       </c>
       <c r="D33" s="32">
-        <v>6.8185000000000002</v>
+        <v>7.5838000000000001</v>
       </c>
       <c r="E33" s="32">
-        <v>7.5838000000000001</v>
+        <v>4.8856000000000002</v>
       </c>
       <c r="F33" s="32">
-        <v>4.8856000000000002</v>
+        <v>3.6046</v>
       </c>
       <c r="G33" s="32">
-        <v>3.6046</v>
+        <v>3.6335999999999999</v>
       </c>
       <c r="H33" s="32">
-        <v>3.6335999999999999</v>
+        <v>3.8424</v>
       </c>
       <c r="I33" s="33">
-        <v>241.7422</v>
+        <v>209.74430000000001</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
@@ -14211,25 +14343,25 @@
         <v>4</v>
       </c>
       <c r="C34" s="32">
-        <v>9.8995999999999995</v>
+        <v>7.4158999999999997</v>
       </c>
       <c r="D34" s="32">
-        <v>7.4158999999999997</v>
+        <v>5.6147999999999998</v>
       </c>
       <c r="E34" s="32">
-        <v>5.6147999999999998</v>
+        <v>3.9249999999999998</v>
       </c>
       <c r="F34" s="32">
-        <v>3.9249999999999998</v>
+        <v>3.8592</v>
       </c>
       <c r="G34" s="32">
-        <v>3.8592</v>
+        <v>3.2067000000000001</v>
       </c>
       <c r="H34" s="32">
-        <v>3.2067000000000001</v>
+        <v>4.0224000000000002</v>
       </c>
       <c r="I34" s="33">
-        <v>236.9554</v>
+        <v>205.1874</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
@@ -14237,25 +14369,25 @@
         <v>5</v>
       </c>
       <c r="C35" s="32">
-        <v>11.944800000000001</v>
+        <v>8.0154999999999994</v>
       </c>
       <c r="D35" s="32">
-        <v>8.0154999999999994</v>
+        <v>6.5365000000000002</v>
       </c>
       <c r="E35" s="32">
-        <v>6.5365000000000002</v>
+        <v>4.5087999999999999</v>
       </c>
       <c r="F35" s="32">
-        <v>4.5087999999999999</v>
+        <v>3.6911</v>
       </c>
       <c r="G35" s="32">
-        <v>3.6911</v>
+        <v>4.3201999999999998</v>
       </c>
       <c r="H35" s="32">
-        <v>4.3201999999999998</v>
+        <v>4.2736999999999998</v>
       </c>
       <c r="I35" s="33">
-        <v>251.96010000000001</v>
+        <v>224.3013</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -14263,25 +14395,25 @@
         <v>6</v>
       </c>
       <c r="C36" s="35">
-        <v>10.9206</v>
+        <v>9.0473999999999997</v>
       </c>
       <c r="D36" s="35">
-        <v>9.0473999999999997</v>
+        <v>6.4358000000000004</v>
       </c>
       <c r="E36" s="35">
-        <v>6.4358000000000004</v>
+        <v>5.0989000000000004</v>
       </c>
       <c r="F36" s="35">
-        <v>5.0989000000000004</v>
+        <v>4.0114999999999998</v>
       </c>
       <c r="G36" s="35">
-        <v>4.0114999999999998</v>
+        <v>3.9363000000000001</v>
       </c>
       <c r="H36" s="35">
-        <v>3.9363000000000001</v>
+        <v>3.8845000000000001</v>
       </c>
       <c r="I36" s="36">
-        <v>258.38099999999997</v>
+        <v>231.67009999999999</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14336,7 +14468,7 @@
   <dimension ref="B1:I33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14399,25 +14531,25 @@
         <v>37</v>
       </c>
       <c r="C5" s="41">
-        <v>4.0438999999999998</v>
+        <v>4.0027999999999997</v>
       </c>
       <c r="D5" s="41">
-        <v>4.2474999999999996</v>
+        <v>3.8952</v>
       </c>
       <c r="E5" s="41">
-        <v>3.8986000000000001</v>
+        <v>4.8258999999999999</v>
       </c>
       <c r="F5" s="41">
-        <v>4.6962999999999999</v>
+        <v>4.0709</v>
       </c>
       <c r="G5" s="41">
-        <v>4.7093999999999996</v>
+        <v>4.4694000000000003</v>
       </c>
       <c r="H5" s="41">
-        <v>4.0797999999999996</v>
+        <v>4.2973999999999997</v>
       </c>
       <c r="I5" s="42">
-        <v>4.1971999999999996</v>
+        <v>4.0397999999999996</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
@@ -14425,25 +14557,25 @@
         <v>20</v>
       </c>
       <c r="C6" s="32">
-        <v>1.1021000000000001</v>
+        <v>0.73960000000000004</v>
       </c>
       <c r="D6" s="32">
-        <v>1.1658999999999999</v>
+        <v>1.1469</v>
       </c>
       <c r="E6" s="32">
-        <v>0.95730000000000004</v>
+        <v>1.5790999999999999</v>
       </c>
       <c r="F6" s="32">
-        <v>1.0924</v>
+        <v>1.8468</v>
       </c>
       <c r="G6" s="32">
-        <v>1.0822000000000001</v>
+        <v>1.5629999999999999</v>
       </c>
       <c r="H6" s="32">
-        <v>1.1146</v>
+        <v>1.331</v>
       </c>
       <c r="I6" s="33">
-        <v>1.1131</v>
+        <v>1.0562</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
@@ -14451,25 +14583,25 @@
         <v>21</v>
       </c>
       <c r="C7" s="32">
-        <v>0.1704</v>
+        <v>8.3799999999999999E-2</v>
       </c>
       <c r="D7" s="32">
-        <v>0.19209999999999999</v>
+        <v>0.1046</v>
       </c>
       <c r="E7" s="32">
-        <v>0.15840000000000001</v>
+        <v>8.6900000000000005E-2</v>
       </c>
       <c r="F7" s="32">
-        <v>0.18360000000000001</v>
+        <v>9.9699999999999997E-2</v>
       </c>
       <c r="G7" s="32">
-        <v>0.1799</v>
+        <v>6.3299999999999995E-2</v>
       </c>
       <c r="H7" s="32">
-        <v>0.17510000000000001</v>
+        <v>9.4700000000000006E-2</v>
       </c>
       <c r="I7" s="33">
-        <v>0.17829999999999999</v>
+        <v>9.1300000000000006E-2</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
@@ -14477,25 +14609,25 @@
         <v>22</v>
       </c>
       <c r="C8" s="32">
-        <v>0.14949999999999999</v>
+        <v>0.1285</v>
       </c>
       <c r="D8" s="32">
-        <v>0.23949999999999999</v>
+        <v>0.16220000000000001</v>
       </c>
       <c r="E8" s="32">
-        <v>0.35099999999999998</v>
+        <v>0.27339999999999998</v>
       </c>
       <c r="F8" s="32">
-        <v>0.32640000000000002</v>
+        <v>4.7E-2</v>
       </c>
       <c r="G8" s="32">
-        <v>0.2462</v>
+        <v>0.26340000000000002</v>
       </c>
       <c r="H8" s="32">
-        <v>0.3458</v>
+        <v>0.32619999999999999</v>
       </c>
       <c r="I8" s="33">
-        <v>0.21609999999999999</v>
+        <v>0.16239999999999999</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
@@ -14503,25 +14635,25 @@
         <v>23</v>
       </c>
       <c r="C9" s="32">
-        <v>0.43099999999999999</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="D9" s="32">
-        <v>0.3211</v>
+        <v>0.41270000000000001</v>
       </c>
       <c r="E9" s="32">
-        <v>0.48580000000000001</v>
+        <v>1.2148000000000001</v>
       </c>
       <c r="F9" s="32">
-        <v>1.5152000000000001</v>
+        <v>0.4123</v>
       </c>
       <c r="G9" s="32">
-        <v>0.54020000000000001</v>
+        <v>0.54569999999999996</v>
       </c>
       <c r="H9" s="32">
-        <v>0.62580000000000002</v>
+        <v>0.73770000000000002</v>
       </c>
       <c r="I9" s="33">
-        <v>0.46060000000000001</v>
+        <v>0.54510000000000003</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
@@ -14529,25 +14661,25 @@
         <v>24</v>
       </c>
       <c r="C10" s="32">
-        <v>0.1202</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="D10" s="32">
-        <v>0.22559999999999999</v>
+        <v>0.2596</v>
       </c>
       <c r="E10" s="32">
-        <v>0.23019999999999999</v>
+        <v>0.23830000000000001</v>
       </c>
       <c r="F10" s="32">
-        <v>0.11360000000000001</v>
+        <v>0.245</v>
       </c>
       <c r="G10" s="32">
-        <v>0.21</v>
+        <v>0.25080000000000002</v>
       </c>
       <c r="H10" s="32">
-        <v>0.17960000000000001</v>
+        <v>0.22320000000000001</v>
       </c>
       <c r="I10" s="33">
-        <v>0.17080000000000001</v>
+        <v>0.24260000000000001</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
@@ -14555,25 +14687,25 @@
         <v>25</v>
       </c>
       <c r="C11" s="32">
-        <v>0.54559999999999997</v>
+        <v>0.42170000000000002</v>
       </c>
       <c r="D11" s="32">
-        <v>0.6008</v>
+        <v>0.38679999999999998</v>
       </c>
       <c r="E11" s="32">
-        <v>0.34739999999999999</v>
+        <v>0.31469999999999998</v>
       </c>
       <c r="F11" s="32">
-        <v>0.36349999999999999</v>
+        <v>0.2392</v>
       </c>
       <c r="G11" s="32">
-        <v>0.43120000000000003</v>
+        <v>0.33550000000000002</v>
       </c>
       <c r="H11" s="32">
-        <v>0.30420000000000003</v>
+        <v>0.158</v>
       </c>
       <c r="I11" s="33">
-        <v>0.52569999999999995</v>
+        <v>0.37769999999999998</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
@@ -14581,25 +14713,25 @@
         <v>26</v>
       </c>
       <c r="C12" s="32">
-        <v>0.19739999999999999</v>
+        <v>0.78220000000000001</v>
       </c>
       <c r="D12" s="32">
-        <v>0.39250000000000002</v>
+        <v>0.45469999999999999</v>
       </c>
       <c r="E12" s="32">
-        <v>0.2447</v>
+        <v>0.25819999999999999</v>
       </c>
       <c r="F12" s="32">
-        <v>0.28849999999999998</v>
+        <v>0.39479999999999998</v>
       </c>
       <c r="G12" s="32">
-        <v>0.70979999999999999</v>
+        <v>0.56630000000000003</v>
       </c>
       <c r="H12" s="32">
-        <v>0.34460000000000002</v>
+        <v>0.56359999999999999</v>
       </c>
       <c r="I12" s="33">
-        <v>0.30470000000000003</v>
+        <v>0.59550000000000003</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
@@ -14607,25 +14739,25 @@
         <v>27</v>
       </c>
       <c r="C13" s="32">
-        <v>9.6799999999999997E-2</v>
+        <v>0.11650000000000001</v>
       </c>
       <c r="D13" s="32">
-        <v>9.2299999999999993E-2</v>
+        <v>0.1608</v>
       </c>
       <c r="E13" s="32">
-        <v>8.7800000000000003E-2</v>
+        <v>0.1348</v>
       </c>
       <c r="F13" s="32">
-        <v>0.1258</v>
+        <v>0.15629999999999999</v>
       </c>
       <c r="G13" s="32">
-        <v>0.11269999999999999</v>
+        <v>0.10680000000000001</v>
       </c>
       <c r="H13" s="32">
-        <v>0.1426</v>
+        <v>0.12709999999999999</v>
       </c>
       <c r="I13" s="33">
-        <v>9.8900000000000002E-2</v>
+        <v>0.13469999999999999</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
@@ -14633,25 +14765,25 @@
         <v>28</v>
       </c>
       <c r="C14" s="32">
-        <v>0.26790000000000003</v>
+        <v>0.15870000000000001</v>
       </c>
       <c r="D14" s="32">
-        <v>0.38169999999999998</v>
+        <v>0.29880000000000001</v>
       </c>
       <c r="E14" s="32">
-        <v>0.29599999999999999</v>
+        <v>0.1305</v>
       </c>
       <c r="F14" s="32">
-        <v>0.2298</v>
+        <v>0.2576</v>
       </c>
       <c r="G14" s="32">
-        <v>0.29210000000000003</v>
+        <v>0.15129999999999999</v>
       </c>
       <c r="H14" s="32">
-        <v>0.33119999999999999</v>
+        <v>0.19370000000000001</v>
       </c>
       <c r="I14" s="33">
-        <v>0.31119999999999998</v>
+        <v>0.21029999999999999</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
@@ -14659,25 +14791,25 @@
         <v>29</v>
       </c>
       <c r="C15" s="32">
-        <v>5.1900000000000002E-2</v>
+        <v>0.17929999999999999</v>
       </c>
       <c r="D15" s="32">
-        <v>5.4899999999999997E-2</v>
+        <v>3.9800000000000002E-2</v>
       </c>
       <c r="E15" s="32">
-        <v>8.2699999999999996E-2</v>
+        <v>0.1081</v>
       </c>
       <c r="F15" s="32">
-        <v>0.1163</v>
+        <v>4.0599999999999997E-2</v>
       </c>
       <c r="G15" s="32">
-        <v>6.6100000000000006E-2</v>
+        <v>0.10680000000000001</v>
       </c>
       <c r="H15" s="32">
-        <v>5.0500000000000003E-2</v>
+        <v>0.1368</v>
       </c>
       <c r="I15" s="33">
-        <v>5.8599999999999999E-2</v>
+        <v>0.1148</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
@@ -14685,25 +14817,25 @@
         <v>30</v>
       </c>
       <c r="C16" s="32">
-        <v>0.79069999999999996</v>
+        <v>0.53790000000000004</v>
       </c>
       <c r="D16" s="32">
-        <v>0.47070000000000001</v>
+        <v>0.38529999999999998</v>
       </c>
       <c r="E16" s="32">
-        <v>0.52669999999999995</v>
+        <v>0.45650000000000002</v>
       </c>
       <c r="F16" s="32">
-        <v>0.1971</v>
+        <v>0.30380000000000001</v>
       </c>
       <c r="G16" s="32">
-        <v>0.68630000000000002</v>
+        <v>0.46589999999999998</v>
       </c>
       <c r="H16" s="32">
-        <v>0.33300000000000002</v>
+        <v>0.35420000000000001</v>
       </c>
       <c r="I16" s="33">
-        <v>0.61</v>
+        <v>0.45739999999999997</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
@@ -14711,25 +14843,25 @@
         <v>31</v>
       </c>
       <c r="C17" s="32">
-        <v>0.1206</v>
+        <v>8.6599999999999996E-2</v>
       </c>
       <c r="D17" s="32">
-        <v>0.1104</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="E17" s="32">
-        <v>0.13059999999999999</v>
+        <v>3.0700000000000002E-2</v>
       </c>
       <c r="F17" s="32">
-        <v>0.14410000000000001</v>
+        <v>2.7900000000000001E-2</v>
       </c>
       <c r="G17" s="32">
-        <v>0.1527</v>
+        <v>5.0599999999999999E-2</v>
       </c>
       <c r="H17" s="32">
-        <v>0.1328</v>
+        <v>5.1200000000000002E-2</v>
       </c>
       <c r="I17" s="33">
-        <v>0.1211</v>
+        <v>7.5399999999999995E-2</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
@@ -14759,25 +14891,25 @@
         <v>37</v>
       </c>
       <c r="C20" s="41">
-        <v>266.11270000000002</v>
+        <v>239.62440000000001</v>
       </c>
       <c r="D20" s="41">
-        <v>262.89229999999998</v>
+        <v>235.94630000000001</v>
       </c>
       <c r="E20" s="41">
-        <v>253.87440000000001</v>
+        <v>226.99420000000001</v>
       </c>
       <c r="F20" s="41">
-        <v>253.12039999999999</v>
+        <v>222.76679999999999</v>
       </c>
       <c r="G20" s="41">
-        <v>265.8569</v>
+        <v>240.42150000000001</v>
       </c>
       <c r="H20" s="41">
-        <v>264.16149999999999</v>
+        <v>239.6962</v>
       </c>
       <c r="I20" s="42">
-        <v>263.44569999999999</v>
+        <v>236.7166</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
@@ -14785,25 +14917,25 @@
         <v>20</v>
       </c>
       <c r="C21" s="32">
-        <v>71.886499999999998</v>
+        <v>63.0837</v>
       </c>
       <c r="D21" s="32">
-        <v>84.264200000000002</v>
+        <v>74.715400000000002</v>
       </c>
       <c r="E21" s="32">
-        <v>94.576700000000002</v>
+        <v>82.654600000000002</v>
       </c>
       <c r="F21" s="32">
-        <v>92.145899999999997</v>
+        <v>80.816699999999997</v>
       </c>
       <c r="G21" s="32">
-        <v>83.198499999999996</v>
+        <v>75.323400000000007</v>
       </c>
       <c r="H21" s="32">
-        <v>80.682000000000002</v>
+        <v>73.158199999999994</v>
       </c>
       <c r="I21" s="33">
-        <v>79.581199999999995</v>
+        <v>70.301199999999994</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
@@ -14811,25 +14943,25 @@
         <v>21</v>
       </c>
       <c r="C22" s="32">
-        <v>6.7106000000000003</v>
+        <v>6.0629</v>
       </c>
       <c r="D22" s="32">
-        <v>7.7443999999999997</v>
+        <v>6.9405000000000001</v>
       </c>
       <c r="E22" s="32">
-        <v>5.9869000000000003</v>
+        <v>5.2720000000000002</v>
       </c>
       <c r="F22" s="32">
-        <v>7.3277999999999999</v>
+        <v>6.4172000000000002</v>
       </c>
       <c r="G22" s="32">
-        <v>6.9134000000000002</v>
+        <v>6.0995999999999997</v>
       </c>
       <c r="H22" s="32">
-        <v>7.2373000000000003</v>
+        <v>6.5282</v>
       </c>
       <c r="I22" s="33">
-        <v>7.0766999999999998</v>
+        <v>6.3476999999999997</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
@@ -14837,25 +14969,25 @@
         <v>22</v>
       </c>
       <c r="C23" s="32">
-        <v>18.351500000000001</v>
+        <v>16.126799999999999</v>
       </c>
       <c r="D23" s="32">
-        <v>22.011800000000001</v>
+        <v>19.058</v>
       </c>
       <c r="E23" s="32">
-        <v>22.214200000000002</v>
+        <v>19.5777</v>
       </c>
       <c r="F23" s="32">
-        <v>21.004000000000001</v>
+        <v>17.855899999999998</v>
       </c>
       <c r="G23" s="32">
-        <v>21.384499999999999</v>
+        <v>18.853200000000001</v>
       </c>
       <c r="H23" s="32">
-        <v>26.547899999999998</v>
+        <v>23.5791</v>
       </c>
       <c r="I23" s="33">
-        <v>20.52</v>
+        <v>17.926200000000001</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
@@ -14863,25 +14995,25 @@
         <v>23</v>
       </c>
       <c r="C24" s="32">
-        <v>24.290900000000001</v>
+        <v>22.5578</v>
       </c>
       <c r="D24" s="32">
-        <v>18.119</v>
+        <v>17.1038</v>
       </c>
       <c r="E24" s="32">
-        <v>19.139900000000001</v>
+        <v>20.3537</v>
       </c>
       <c r="F24" s="32">
-        <v>23.799600000000002</v>
+        <v>21.658300000000001</v>
       </c>
       <c r="G24" s="32">
-        <v>23.5745</v>
+        <v>22.3399</v>
       </c>
       <c r="H24" s="32">
-        <v>24.9877</v>
+        <v>24.1431</v>
       </c>
       <c r="I24" s="33">
-        <v>21.7989</v>
+        <v>20.562000000000001</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
@@ -14889,25 +15021,25 @@
         <v>24</v>
       </c>
       <c r="C25" s="32">
-        <v>15.334199999999999</v>
+        <v>13.653499999999999</v>
       </c>
       <c r="D25" s="32">
-        <v>15.6305</v>
+        <v>14.026199999999999</v>
       </c>
       <c r="E25" s="32">
-        <v>14.507400000000001</v>
+        <v>12.7021</v>
       </c>
       <c r="F25" s="32">
-        <v>18.5304</v>
+        <v>16.049499999999998</v>
       </c>
       <c r="G25" s="32">
-        <v>15.2112</v>
+        <v>13.757999999999999</v>
       </c>
       <c r="H25" s="32">
-        <v>17.421399999999998</v>
+        <v>15.620900000000001</v>
       </c>
       <c r="I25" s="33">
-        <v>15.611800000000001</v>
+        <v>13.918900000000001</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
@@ -14915,25 +15047,25 @@
         <v>25</v>
       </c>
       <c r="C26" s="32">
-        <v>25.829000000000001</v>
+        <v>23.0899</v>
       </c>
       <c r="D26" s="32">
-        <v>25.952000000000002</v>
+        <v>23.178100000000001</v>
       </c>
       <c r="E26" s="32">
-        <v>19.4451</v>
+        <v>17.190899999999999</v>
       </c>
       <c r="F26" s="32">
-        <v>16.398</v>
+        <v>14.169499999999999</v>
       </c>
       <c r="G26" s="32">
-        <v>24.579599999999999</v>
+        <v>21.9374</v>
       </c>
       <c r="H26" s="32">
-        <v>15.259499999999999</v>
+        <v>13.4876</v>
       </c>
       <c r="I26" s="33">
-        <v>24.4587</v>
+        <v>21.813400000000001</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
@@ -14941,25 +15073,25 @@
         <v>26</v>
       </c>
       <c r="C27" s="32">
-        <v>31.003499999999999</v>
+        <v>29.300599999999999</v>
       </c>
       <c r="D27" s="32">
-        <v>31.392600000000002</v>
+        <v>28.340900000000001</v>
       </c>
       <c r="E27" s="32">
-        <v>23.601199999999999</v>
+        <v>20.805499999999999</v>
       </c>
       <c r="F27" s="32">
-        <v>29.8001</v>
+        <v>26.368600000000001</v>
       </c>
       <c r="G27" s="32">
-        <v>37.241399999999999</v>
+        <v>33.730800000000002</v>
       </c>
       <c r="H27" s="32">
-        <v>40.8078</v>
+        <v>36.496699999999997</v>
       </c>
       <c r="I27" s="33">
-        <v>31.344200000000001</v>
+        <v>28.8141</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
@@ -14967,25 +15099,25 @@
         <v>27</v>
       </c>
       <c r="C28" s="32">
-        <v>7.1302000000000003</v>
+        <v>6.6342999999999996</v>
       </c>
       <c r="D28" s="32">
-        <v>6.9105999999999996</v>
+        <v>6.4965999999999999</v>
       </c>
       <c r="E28" s="32">
-        <v>6.2911000000000001</v>
+        <v>5.8280000000000003</v>
       </c>
       <c r="F28" s="32">
-        <v>6.9634999999999998</v>
+        <v>6.3560999999999996</v>
       </c>
       <c r="G28" s="32">
-        <v>5.5921000000000003</v>
+        <v>5.2694999999999999</v>
       </c>
       <c r="H28" s="32">
-        <v>6.5476999999999999</v>
+        <v>6.1616</v>
       </c>
       <c r="I28" s="33">
-        <v>6.8836000000000004</v>
+        <v>6.4268999999999998</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
@@ -14993,25 +15125,25 @@
         <v>28</v>
       </c>
       <c r="C29" s="32">
-        <v>18.876899999999999</v>
+        <v>16.7928</v>
       </c>
       <c r="D29" s="32">
-        <v>16.8249</v>
+        <v>15.2972</v>
       </c>
       <c r="E29" s="32">
-        <v>13.1732</v>
+        <v>11.5733</v>
       </c>
       <c r="F29" s="32">
-        <v>13.7226</v>
+        <v>12.2018</v>
       </c>
       <c r="G29" s="32">
-        <v>14.9857</v>
+        <v>13.120100000000001</v>
       </c>
       <c r="H29" s="32">
-        <v>17.751799999999999</v>
+        <v>15.513199999999999</v>
       </c>
       <c r="I29" s="33">
-        <v>17.297499999999999</v>
+        <v>15.4666</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
@@ -15019,25 +15151,25 @@
         <v>29</v>
       </c>
       <c r="C30" s="32">
-        <v>6.4077000000000002</v>
+        <v>6.0186000000000002</v>
       </c>
       <c r="D30" s="32">
-        <v>2.3260999999999998</v>
+        <v>2.1701000000000001</v>
       </c>
       <c r="E30" s="32">
-        <v>3.6293000000000002</v>
+        <v>3.4024000000000001</v>
       </c>
       <c r="F30" s="32">
-        <v>2.0642</v>
+        <v>1.8792</v>
       </c>
       <c r="G30" s="32">
-        <v>3.0169999999999999</v>
+        <v>2.8717000000000001</v>
       </c>
       <c r="H30" s="32">
-        <v>2.8727999999999998</v>
+        <v>2.8746999999999998</v>
       </c>
       <c r="I30" s="33">
-        <v>4.2880000000000003</v>
+        <v>4.0293999999999999</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
@@ -15045,25 +15177,25 @@
         <v>30</v>
       </c>
       <c r="C31" s="32">
-        <v>30.777899999999999</v>
+        <v>27.803599999999999</v>
       </c>
       <c r="D31" s="32">
-        <v>21.909099999999999</v>
+        <v>19.851400000000002</v>
       </c>
       <c r="E31" s="32">
-        <v>21.879899999999999</v>
+        <v>19.474799999999998</v>
       </c>
       <c r="F31" s="32">
-        <v>12.012499999999999</v>
+        <v>10.8939</v>
       </c>
       <c r="G31" s="32">
-        <v>19.9298</v>
+        <v>18.095199999999998</v>
       </c>
       <c r="H31" s="32">
-        <v>14.0641</v>
+        <v>13.1653</v>
       </c>
       <c r="I31" s="33">
-        <v>24.961400000000001</v>
+        <v>22.577200000000001</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -15071,25 +15203,25 @@
         <v>31</v>
       </c>
       <c r="C32" s="35">
-        <v>9.5104000000000006</v>
+        <v>8.4970999999999997</v>
       </c>
       <c r="D32" s="35">
-        <v>9.8079000000000001</v>
+        <v>8.7684999999999995</v>
       </c>
       <c r="E32" s="35">
-        <v>9.4313000000000002</v>
+        <v>8.1599000000000004</v>
       </c>
       <c r="F32" s="35">
-        <v>9.3466000000000005</v>
+        <v>8.0959000000000003</v>
       </c>
       <c r="G32" s="35">
-        <v>10.2232</v>
+        <v>9.0174000000000003</v>
       </c>
       <c r="H32" s="35">
-        <v>9.9777000000000005</v>
+        <v>8.9652999999999992</v>
       </c>
       <c r="I32" s="36">
-        <v>9.6576000000000004</v>
+        <v>8.5969999999999995</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">

--- a/assets/excel/IPCse - Series históricas.xlsx
+++ b/assets/excel/IPCse - Series históricas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fiona\Dropbox\MGR\IPC seasonal adjustment\IPCse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAFC9B2-4B87-424C-B968-79C49A2AF62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF8AAC1-784E-4A2F-AFBD-A87942BDE7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="1" xr2:uid="{A81B6F3A-9175-42CA-B78F-287A4E3C6249}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{A81B6F3A-9175-42CA-B78F-287A4E3C6249}"/>
   </bookViews>
   <sheets>
     <sheet name="Índices" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="46">
   <si>
     <t>Fecha</t>
   </si>
@@ -183,9 +183,6 @@
     <t>IPCse NACIONAL</t>
   </si>
   <si>
-    <t>Mar.</t>
-  </si>
-  <si>
     <t>Abr.</t>
   </si>
   <si>
@@ -201,7 +198,7 @@
     <t>Ago.</t>
   </si>
   <si>
-    <t>Ago. 2024/Ago. 2023</t>
+    <t>Sep.</t>
   </si>
 </sst>
 </file>
@@ -1246,27 +1243,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA821952-0137-4F39-844C-15CA99AC928E}">
-  <dimension ref="B1:V97"/>
+  <dimension ref="B1:V98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="78" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C64" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
-      <selection pane="bottomRight" activeCell="G97" sqref="G97"/>
+      <selection pane="bottomRight" activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.5546875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" style="4" customWidth="1"/>
-    <col min="2" max="3" width="20.5546875" style="4" customWidth="1"/>
-    <col min="4" max="21" width="15.5546875" style="4"/>
-    <col min="22" max="22" width="20.5546875" style="4" customWidth="1"/>
-    <col min="23" max="16384" width="15.5546875" style="4"/>
+    <col min="1" max="1" width="4.5703125" style="4" customWidth="1"/>
+    <col min="2" max="3" width="20.5703125" style="4" customWidth="1"/>
+    <col min="4" max="21" width="15.5703125" style="4"/>
+    <col min="22" max="22" width="20.5703125" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="15.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="52" t="s">
         <v>10</v>
       </c>
@@ -1291,7 +1288,7 @@
       <c r="U2" s="53"/>
       <c r="V2" s="53"/>
     </row>
-    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="8" t="s">
         <v>8</v>
@@ -1322,7 +1319,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1387,7 +1384,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
         <v>42705</v>
       </c>
@@ -1452,7 +1449,7 @@
         <v>99.977400000000003</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="13">
         <v>42736</v>
       </c>
@@ -1517,7 +1514,7 @@
         <v>101.58410000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="13">
         <v>42767</v>
       </c>
@@ -1582,7 +1579,7 @@
         <v>103.26909999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="13">
         <v>42795</v>
       </c>
@@ -1647,7 +1644,7 @@
         <v>104.8601</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="13">
         <v>42826</v>
       </c>
@@ -1712,7 +1709,7 @@
         <v>107.3261</v>
       </c>
     </row>
-    <row 